--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -615,7 +615,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1765338114346772', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3NjUzMzgxMTQzNDY3NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzY1MzM4MTE0MzQ2Nzcy', 'date': '2025-09-12T19:30:46.000Z', 'text': 'Eran alpina eras más chévere antes', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/491395119_2482748972059706_1272209331354308727_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OdzgUUI9lewQ7kNvwFP46mF&amp;_nc_oc=AdmX_V3VuVbHIfnTooSy_2omC5nRV0MdivK2-O1lh8BfHExmxU3prcmEkJB2v-aCTBY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Rh1aO-41FKRI5H1_7HSAWg&amp;oh=00_AfYD2JzGwP-Ac5wVMBOV0kNPzsGC6miei5CUE1qqYPy5nA&amp;oe=68CA6700', 'profileId': '100009738815049', 'profileName': 'Damián Arley Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1765338114346772', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3NjUzMzgxMTQzNDY3NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzY1MzM4MTE0MzQ2Nzcy', 'date': '2025-09-12T19:30:46.000Z', 'text': 'Eran alpina eras más chévere antes', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/491395119_2482748972059706_1272209331354308727_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OdzgUUI9lewQ7kNvwGZ98Vj&amp;_nc_oc=Adn4zaZlUtUq4H1jBIE5jB_hewANu2RH-kAfqSs9hvGC6DBh7uc-uHXdte5ivfvrMZE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=3oOifmtbiSmk9xodDrU91Q&amp;oh=00_AfYewvYchRSD8rk5WEwIjbt9_YlTc6LZikGKAtpCRlfL-g&amp;oe=68CA6700', 'profileId': '100009738815049', 'profileName': 'Damián Arley Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1097803569200070', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwOTc4MDM1NjkyMDAwNzA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDk3ODAzNTY5MjAwMDcw', 'date': '2025-09-12T11:55:16.000Z', 'text': 'Jajajaja Pero es IA gaxxxxx', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/503436742_1253835902986899_1384652200062589429_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=3xfZIHAzeNgQ7kNvwEkubiB&amp;_nc_oc=AdlJTGq54eAtNU2KAbOtECpkeGH4t_RSllkhQOex5u1BQ0SPMZ1HQ-HA5WLnte8DuJE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Rh1aO-41FKRI5H1_7HSAWg&amp;oh=00_AfZyrKeNjnVdA78U91ZNblRl7eRo32YGYb3Cad-7yfTrjA&amp;oe=68CA5B12', 'profileId': '100050815038837', 'profileName': 'Zyon Jhonn', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1097803569200070', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwOTc4MDM1NjkyMDAwNzA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDk3ODAzNTY5MjAwMDcw', 'date': '2025-09-12T11:55:16.000Z', 'text': 'Jajajaja Pero es IA gaxxxxx', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/503436742_1253835902986899_1384652200062589429_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=3xfZIHAzeNgQ7kNvwGbKmHK&amp;_nc_oc=AdmxBcJaWouVGTr4cb-nR9mIPij0ruoyiylNfFYN9rIdi8qY7pt9py3sANrRgAk_5TU&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=3oOifmtbiSmk9xodDrU91Q&amp;oh=00_AfZ2LUGvV7nCm_NWKOyDbhqX11S0hJI0CuETlfQCmOBIkw&amp;oe=68CA5B12', 'profileId': '100050815038837', 'profileName': 'Zyon Jhonn', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2281864825666658', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yMjgxODY0ODI1NjY2NjU4', 'date': '2025-09-11T22:54:31.000Z', 'text': 'Pero porque todo con ia', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/465968903_28163068836613657_4647340187890363470_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jXPGjaZlumEQ7kNvwF-QoNp&amp;_nc_oc=AdnFSEWpkH98MhxzeEWqLO4of6_1hanJHn_Tr1owObclqyAiSsvlA2aQryj6Y-0OC6o&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Rh1aO-41FKRI5H1_7HSAWg&amp;oh=00_AfYLJ0F_-G7AgBMc1OYu4nADPVwQk6fZeaVFgZQj2Exdyw&amp;oe=68CA6CD8', 'profileId': 'pfbid0Zzt98TerKg7rkfZFnPsiXSQ8eAJcWrEfgjgx2KT6K41iH5psQS7V2UKLY9PypJcXl', 'profileName': 'Jonathan Acuña', 'likesCount': '5', 'commentsCount': 1, 'comments': [{'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2281864825666658&amp;reply_comment_id=1735151283926476', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3MzUxNTEyODM5MjY0NzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzM1MTUxMjgzOTI2NDc2', 'date': '2025-09-12T14:44:57.000Z', 'text': 'Jonathan Acuña así están los de paleta Drácula', 'profileUrl': 'https://www.facebook.com/kevincaicedo.izquierdo', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/475183094_10231119286038356_7368772389638380458_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=w5dCJkFvYG4Q7kNvwFPPv3w&amp;_nc_oc=Adn44pk-WRE-2eJI_mAFf7RtXz5YV168eYR2kzmsXHTBJjx03VYqke_brtd626i97OY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Rh1aO-41FKRI5H1_7HSAWg&amp;oh=00_AfaBQDfnC5BKWEVoqCahfi6syGnzNVm68-WsWUbHN76jaw&amp;oe=68CA7485', 'profileId': 'pfbid023KQrEy6v3FFZEV9G8fvAKTHLnkJL7PNwaKEp9JVrannS1MxmDFQq8HdUidpc3Rixl', 'profileName': 'Kevin Caicedo Izquierdo', 'likesCount': '0', 'threadingDepth': 1, 'replyToCommentId': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg=', 'parentComment': {'author': {'__typename': 'User', 'name': 'Jonathan Acuña', 'short_name': 'Jonathan', 'id': 'pfbid0Zzt98TerKg7rkfZFnPsiXSQ8eAJcWrEfgjgx2KT6K41iH5psQS7V2UKLY9PypJcXl'}, 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg='}, 'parentReply': {'author': {'__typename': 'User', 'name': 'Jonathan Acuña', 'gender': 'MALE', 'id': 'pfbid0Zzt98TerKg7rkfZFnPsiXSQ8eAJcWrEfgjgx2KT6K41iH5psQS7V2UKLY9PypJcXl'}, 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg='}}], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2281864825666658', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yMjgxODY0ODI1NjY2NjU4', 'date': '2025-09-11T22:54:31.000Z', 'text': 'Pero porque todo con ia', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/465968903_28163068836613657_4647340187890363470_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jXPGjaZlumEQ7kNvwHSzz1r&amp;_nc_oc=AdnXuYGbFsjwFFopBXmnodEmz4vNoQSTQDJR28S4kW6Zeqw3N1iznIK4jZ7yol9u5XY&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=3oOifmtbiSmk9xodDrU91Q&amp;oh=00_AfYuTTotugufkXsjjaR_sNT3TAXQ2qrP6J7hsw9CsaelyA&amp;oe=68CA6CD8', 'profileId': 'pfbid0Zzt98TerKg7rkfZFnPsiXSQ8eAJcWrEfgjgx2KT6K41iH5psQS7V2UKLY9PypJcXl', 'profileName': 'Jonathan Acuña', 'likesCount': '5', 'commentsCount': 1, 'comments': [{'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2281864825666658&amp;reply_comment_id=1735151283926476', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3MzUxNTEyODM5MjY0NzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzM1MTUxMjgzOTI2NDc2', 'date': '2025-09-12T14:44:57.000Z', 'text': 'Jonathan Acuña así están los de paleta Drácula', 'profileUrl': 'https://www.facebook.com/kevincaicedo.izquierdo', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/475183094_10231119286038356_7368772389638380458_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=w5dCJkFvYG4Q7kNvwHzQyyf&amp;_nc_oc=AdlGtaClWj44Ow12B-NOkMYc0UQ6OXXS3uXrcpIWDjWZORi9HF8h8BeewcAxPf0POVw&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=3oOifmtbiSmk9xodDrU91Q&amp;oh=00_Afb2KMSE_OVpc4FSRYfHFO3vGsb_AeAm1G9fLZyms9Zp8w&amp;oe=68CA7485', 'profileId': 'pfbid023KQrEy6v3FFZEV9G8fvAKTHLnkJL7PNwaKEp9JVrannS1MxmDFQq8HdUidpc3Rixl', 'profileName': 'Kevin Caicedo Izquierdo', 'likesCount': '0', 'threadingDepth': 1, 'replyToCommentId': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg=', 'parentComment': {'author': {'__typename': 'User', 'name': 'Jonathan Acuña', 'short_name': 'Jonathan', 'id': 'pfbid0Zzt98TerKg7rkfZFnPsiXSQ8eAJcWrEfgjgx2KT6K41iH5psQS7V2UKLY9PypJcXl'}, 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg='}, 'parentReply': {'author': {'__typename': 'User', 'name': 'Jonathan Acuña', 'gender': 'MALE', 'id': 'pfbid0Zzt98TerKg7rkfZFnPsiXSQ8eAJcWrEfgjgx2KT6K41iH5psQS7V2UKLY9PypJcXl'}, 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg='}}], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2520321701679273', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzI1MjAzMjE3MDE2NzkyNzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yNTIwMzIxNzAxNjc5Mjcz', 'date': '2025-09-12T17:55:33.000Z', 'text': 'No usen ia, esta horrible ese anuncio', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=7CsbLZRM9FQQ7kNvwGc3ugQ&amp;_nc_oc=AdlglUGPYpdbEQEqDFA1zS2itPj5dCza5vXYZpDgYn4I0pxvhFGyRrN8vLGB0r9V8Is&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;oh=00_AfZ_gVPKZPHmAFG0_AttyeJOWt2GmyrFvPwiK9fxaS8nng&amp;oe=68EC157A', 'profileId': 'pfbid0HL9u7D6kZBSwugJJbpRR8ZCrYuJ8LgKWNiCLzeQSaEpXh6TdRZP8umyRoh4K1NHXl', 'profileName': 'Alexius Solborne', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2520321701679273', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzI1MjAzMjE3MDE2NzkyNzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yNTIwMzIxNzAxNjc5Mjcz', 'date': '2025-09-12T17:55:33.000Z', 'text': 'No usen ia, esta horrible ese anuncio', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=7CsbLZRM9FQQ7kNvwGtUjLi&amp;_nc_oc=Adl6hlBxB7EjR5kNLWnLrGdecOJDvDny98VRtwvI_9p6kAI7OlNqvshV4xsNdngzFhg&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;oh=00_Afa1HB4xDPgDgUlz4GePNE7iYbktKmQM9XSnsn-NciXtOQ&amp;oe=68EC157A', 'profileId': 'pfbid0HL9u7D6kZBSwugJJbpRR8ZCrYuJ8LgKWNiCLzeQSaEpXh6TdRZP8umyRoh4K1NHXl', 'profileName': 'Alexius Solborne', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1101092795498355', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzExMDEwOTI3OTU0OTgzNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMTAxMDkyNzk1NDk4MzU1', 'date': '2025-09-12T17:40:47.000Z', 'text': 'Tienen recursos de sobra para contratar un artista 3D y en lugar de hacerlo suben esta basura hecha con AI, qué le dice eso al consumidor sobre sus productos?\nTambién dejan en manos de la AI su control de salubridad?', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/492693542_2389131311480256_190548770418542821_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=y2ZEw6G3rKUQ7kNvwFd55V_&amp;_nc_oc=AdkJmcGY5ngwsJ2PnYMvbTaf9mbpCwRgRDx1uQcP2Izr_VWSx79Sglf--PFG0kDUXyQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Rh1aO-41FKRI5H1_7HSAWg&amp;oh=00_AfZe9bg7ghMuWwG-nabYrI9n_8VkBIhoguFgjGMH7rqMJg&amp;oe=68CA7D89', 'profileId': 'pfbid0c4o41kiHqSVRngCoeXq6A9vrUvjKBg2fYSJLVs5KUtqB24ncTk1nHs3SqyuosWJbl', 'profileName': 'Víctor Martínez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1101092795498355', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzExMDEwOTI3OTU0OTgzNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMTAxMDkyNzk1NDk4MzU1', 'date': '2025-09-12T17:40:47.000Z', 'text': 'Tienen recursos de sobra para contratar un artista 3D y en lugar de hacerlo suben esta basura hecha con AI, qué le dice eso al consumidor sobre sus productos?\nTambién dejan en manos de la AI su control de salubridad?', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/492693542_2389131311480256_190548770418542821_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=y2ZEw6G3rKUQ7kNvwEJjTQ0&amp;_nc_oc=AdkldzDZSK0hB_MR3cu4vx3Mr8_SlGM-w_94Y6Bs9CBlv_4fKacBXrQW6DY0vcfOFDE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=3oOifmtbiSmk9xodDrU91Q&amp;oh=00_AfZ4qLqaRWCOdxnXlL6b5i8FSI5KqixyeWSU_EvVDWLC0Q&amp;oe=68CA7D89', 'profileId': 'pfbid0c4o41kiHqSVRngCoeXq6A9vrUvjKBg2fYSJLVs5KUtqB24ncTk1nHs3SqyuosWJbl', 'profileName': 'Víctor Martínez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=757322997083065', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3Xzc1NzMyMjk5NzA4MzA2NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN183NTczMjI5OTcwODMwNjU=', 'date': '2025-09-12T01:53:31.000Z', 'text': 'Q hpta asco hahahaha', 'profileUrl': 'https://www.facebook.com/juandamr', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/482085481_10237447593192940_7097130589724547644_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=IHXi1jIJOMsQ7kNvwFbGCd4&amp;_nc_oc=Adlm7XKAX0GXMDepgGqWPdPtV2ewnbaiHcOirrF7tU53RPBVnwitNHPk1OrClqzdYKo&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=Rh1aO-41FKRI5H1_7HSAWg&amp;oh=00_AfZMdPhRQzrualEtpATsQuc30-vGvcfS4ClQwEghB5x-ng&amp;oe=68CA6D16', 'profileId': '1343667140', 'profileName': 'Juanda Muñoz Rico', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=757322997083065', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3Xzc1NzMyMjk5NzA4MzA2NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN183NTczMjI5OTcwODMwNjU=', 'date': '2025-09-12T01:53:31.000Z', 'text': 'Q hpta asco hahahaha', 'profileUrl': 'https://www.facebook.com/juandamr', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/482085481_10237447593192940_7097130589724547644_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=IHXi1jIJOMsQ7kNvwFFwk-_&amp;_nc_oc=AdlD5NczBFy0lJj9Hz5uXtfFzLi8w7NKDSVsJjXWJlqiaYn41Qxav6yMem616XlF6T0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=3oOifmtbiSmk9xodDrU91Q&amp;oh=00_AfbNjPcwncxBrpPaRJoFfQKGApxblSVh49Kb7GWiwDr9Wg&amp;oe=68CA6D16', 'profileId': '1343667140', 'profileName': 'Juanda Muñoz Rico', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1518033859195059', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE1MTgwMzM4NTkxOTUwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xNTE4MDMzODU5MTk1MDU5', 'date': '2025-09-12T12:37:34.000Z', 'text': 'Pinchi animación toda culera, si van a invertir en hacer animación, inviertan en una buena IA', 'profileUrl': 'https://www.facebook.com/juancho.barajas.7', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/483861579_9365490916877333_3937309200038098582_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=wSGBuX9yfzwQ7kNvwFb-1ku&amp;_nc_oc=Adk8t9T6MqELvKwpfwSSU_UbrB0qhOAJTFCyA2oxpPLPnJHakpUCCvDQ8ChGc4aV-cY&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=wAxFKvr7JYIBi3Hhn1D3vQ&amp;oh=00_AfZNs8WbnkHZyVst1Tn5N75gzl4v2qA2rkKopOz6J9Aoig&amp;oe=68CA8074', 'profileId': '100002495548710', 'profileName': 'Juancho Barajas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1518033859195059', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE1MTgwMzM4NTkxOTUwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xNTE4MDMzODU5MTk1MDU5', 'date': '2025-09-12T12:37:34.000Z', 'text': 'Pinchi animación toda culera, si van a invertir en hacer animación, inviertan en una buena IA', 'profileUrl': 'https://www.facebook.com/juancho.barajas.7', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/483861579_9365490916877333_3937309200038098582_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=wSGBuX9yfzwQ7kNvwGyjL8-&amp;_nc_oc=AdmYV_6HvYYVXoOFMQmO82f6eiEAnKkFNEeky36E6Dq3-T8PO2BDBtVTG3OJjS1IehI&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=6ZuOJnww-XxIB7Ew30xjLg&amp;oh=00_AfZaqxRsrFFiQz6p9amEmDdaDfUjj4ynADu2ad4ftsMO8g&amp;oe=68CA8074', 'profileId': '100002495548710', 'profileName': 'Juancho Barajas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=729207126799156', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcyOTIwNzEyNjc5OTE1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MjkyMDcxMjY3OTkxNTY=', 'date': '2025-09-12T06:56:03.000Z', 'text': 'Si, se ve poco real esa animación. ojalá la IA les compres sus productos.', 'profileUrl': 'https://www.facebook.com/fernandpsb', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/457372791_8271573726262434_7931313235547901570_n.jpg?stp=c448.0.1152.1152a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=WUwHhP1sFJwQ7kNvwEC3VVU&amp;_nc_oc=Adlw0spGjRJk6R1bftNDB62h8I_ZmaF6Lv_MC4ELXk917mW-TMH6S5DPLBXKUtxN-_M&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=wAxFKvr7JYIBi3Hhn1D3vQ&amp;oh=00_AfbUZK1rxXfPNmXxt-OwVsjNIs4DBowQPJSo_iqA_R5uhA&amp;oe=68CA6B0A', 'profileId': '100002296670340', 'profileName': 'Fernando Rodríguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=729207126799156', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcyOTIwNzEyNjc5OTE1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MjkyMDcxMjY3OTkxNTY=', 'date': '2025-09-12T06:56:03.000Z', 'text': 'Si, se ve poco real esa animación. ojalá la IA les compres sus productos.', 'profileUrl': 'https://www.facebook.com/fernandpsb', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/457372791_8271573726262434_7931313235547901570_n.jpg?stp=c448.0.1152.1152a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=WUwHhP1sFJwQ7kNvwHFR1w8&amp;_nc_oc=AdkEHlKS6kEVa85Y5EktK61-n6i3AIfviKuEH_1-qJF8bftfAkFwlCAMZ41tZnQfSno&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=6ZuOJnww-XxIB7Ew30xjLg&amp;oh=00_AfbwF2FbvhQcOLyvKpG6A-Flre8kiLM0BqHppCaQrdKjrg&amp;oe=68CA6B0A', 'profileId': '100002296670340', 'profileName': 'Fernando Rodríguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=714344698306073', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcxNDM0NDY5ODMwNjA3Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MTQzNDQ2OTgzMDYwNzM=', 'date': '2025-09-12T05:33:09.000Z', 'text': '..', 'profileUrl': 'https://www.facebook.com/luzmarina.jimenez.234064', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/518417845_122144505974773963_726240798875025477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wEX-0MLaUP4Q7kNvwEzbdU-&amp;_nc_oc=AdmyCvFEj0jVAuKjQQjfmG5Vv4xHsyPeOGlUKT5SeyAGrzpyjopXFTgmKr3miF0mSFk&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=wAxFKvr7JYIBi3Hhn1D3vQ&amp;oh=00_Afa64yaqATytdDoSGF0GAwLekRWSPA96l9qs1HsRwzUstA&amp;oe=68CA6716', 'profileId': 'pfbid02UVsvVFB18EC9pXj8t4zhYcA3LFipwbySaCyLmkiV8bre82ppzCpiK3Z2jePhfxALl', 'profileName': 'LuzMarina Jimenez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=714344698306073', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcxNDM0NDY5ODMwNjA3Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MTQzNDQ2OTgzMDYwNzM=', 'date': '2025-09-12T05:33:09.000Z', 'text': '..', 'profileUrl': 'https://www.facebook.com/luzmarina.jimenez.234064', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/518417845_122144505974773963_726240798875025477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wEX-0MLaUP4Q7kNvwFhe0qn&amp;_nc_oc=AdlCBfcTe7fYxJvhPk69yEjhgEBek0narpuVQqSrhr_oAGIqpm5Zf5Iu6oUgGapWKLQ&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=6ZuOJnww-XxIB7Ew30xjLg&amp;oh=00_AfZEqNPrtrfAzffumMorDZvYnWW6WCmBrgnnPefDPKLDpQ&amp;oe=68CA6716', 'profileId': 'pfbid02UVsvVFB18EC9pXj8t4zhYcA3LFipwbySaCyLmkiV8bre82ppzCpiK3Z2jePhfxALl', 'profileName': 'LuzMarina Jimenez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1976178152957224', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE5NzYxNzgxNTI5NTcyMjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xOTc2MTc4MTUyOTU3MjI0', 'date': '2025-09-11T21:10:54.000Z', 'text': 'Hay un poco de IA en tu animación 🤢', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/535652007_10162869566184929_6951913208270813003_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QgbNse6La-gQ7kNvwEdnmUZ&amp;_nc_oc=AdlZQwgQHzAZvcFTIQxZ4Pxi9QStR6Hg1XZn7weEgcGc_eIfA88xkd9UwmNMEhuU7TU&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=wAxFKvr7JYIBi3Hhn1D3vQ&amp;oh=00_AfYW4XkB1qWTScNv_ZjzXQenZuelTyT1Q-cqf9RjGuAq4Q&amp;oe=68CA62A9', 'profileId': '672709928', 'profileName': 'Hv Helmut', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1976178152957224', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE5NzYxNzgxNTI5NTcyMjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xOTc2MTc4MTUyOTU3MjI0', 'date': '2025-09-11T21:10:54.000Z', 'text': 'Hay un poco de IA en tu animación 🤢', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/535652007_10162869566184929_6951913208270813003_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QgbNse6La-gQ7kNvwHN2-Z_&amp;_nc_oc=AdnVPzcawahjAGH_VFpl-LuMeBdbZPXnLWMLYmerH5nEDz5zTXJ9EaVZrxYSn43UXoY&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=6ZuOJnww-XxIB7Ew30xjLg&amp;oh=00_Afbp5e1x09CXI16JWj34rzcw2PSt-R3vu_NiIsN6a--yVA&amp;oe=68CA62A9', 'profileId': '672709928', 'profileName': 'Hv Helmut', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=839435021752790', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgzOTQzNTAyMTc1Mjc5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84Mzk0MzUwMjE3NTI3OTA=', 'date': '2025-09-12T00:08:08.000Z', 'text': 'Hese cuatro pelos hp solo a echo es robar al pueblo y volverse rico', 'profileUrl': 'https://www.facebook.com/hector.ortegaperafan', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/544910070_2212986202509976_2116931927882062195_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oTAt7hvXzTEQ7kNvwGIyuaa&amp;_nc_oc=AdmmdZ2ewzsen8gapT-TVVFnp19yDXcpLHWxBu6jmPdEe7GOqoaT6iPvSSgkyzP1hn8&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=wAxFKvr7JYIBi3Hhn1D3vQ&amp;oh=00_Afa6cSKDtDhp6-usCND1tTSmb0kweUxikTxZNKOnqMHgdw&amp;oe=68CA5678', 'profileId': 'pfbid023RxuD8PPjwwEuX7PSzJr1m1cqDB3ku83GMAJc9x2mPKic1uNs43A7zHBrTAcnjKSl', 'profileName': 'Hector Ortega Perafan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=839435021752790', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgzOTQzNTAyMTc1Mjc5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84Mzk0MzUwMjE3NTI3OTA=', 'date': '2025-09-12T00:08:08.000Z', 'text': 'Hese cuatro pelos hp solo a echo es robar al pueblo y volverse rico', 'profileUrl': 'https://www.facebook.com/hector.ortegaperafan', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/544910070_2212986202509976_2116931927882062195_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oTAt7hvXzTEQ7kNvwFyfsaQ&amp;_nc_oc=Adk9JlhDLvn5Oa5IAJUyiyW1q4_VpcvRo26pdrCaQaJSeQdhM1_uG2YBgC4-U1k3e8w&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=6ZuOJnww-XxIB7Ew30xjLg&amp;oh=00_AfZ9VHUn7XAqpsXOn-036P0lOd6TQ2VnuX0y4fDwB4TxwA&amp;oe=68CA5678', 'profileId': 'pfbid023RxuD8PPjwwEuX7PSzJr1m1cqDB3ku83GMAJc9x2mPKic1uNs43A7zHBrTAcnjKSl', 'profileName': 'Hector Ortega Perafan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=816939231005497', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgxNjkzOTIzMTAwNTQ5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84MTY5MzkyMzEwMDU0OTc=', 'date': '2025-09-11T22:59:36.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=cx_Qsz0r8zUQ7kNvwEPEmpT&amp;_nc_oc=AdlH2-klLV1US8jdhkmXpveUkyNYBGPi3I6nNERDqyf4-waLYIwnvVYaqseGdWNovHc&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=wAxFKvr7JYIBi3Hhn1D3vQ&amp;oh=00_AfYM-Lh7fDr67JqKHySNOimw-ssKcmvUy-He-tOMyniwRQ&amp;oe=68CA68AD'}, 'id': '122132915732892467', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 720}, 'image': {'uri': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=cx_Qsz0r8zUQ7kNvwEPEmpT&amp;_nc_oc=AdlH2-klLV1US8jdhkmXpveUkyNYBGPi3I6nNERDqyf4-waLYIwnvVYaqseGdWNovHc&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=wAxFKvr7JYIBi3Hhn1D3vQ&amp;oh=00_AfbejZcfw8r5aZ6xbZUMIjr23vNaU2dDe3oVwKNh-llvTQ&amp;oe=68CA68AD', 'width': 261, 'height': 196}, 'ocrText': 'May be an image of 2 people, bird and goosedown coat'}], 'profileUrl': 'https://www.facebook.com/people/Tropi-Pollo-Aves/pfbid0vyoxHZ2RJmXW7hrisAEzVTNe42JuhhTufUdcGLTa6RUYHLoxRDPPgjVCgFNUkGJvl/', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/503603154_122103355172892467_5961930638299244588_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CP6nZIIvwpoQ7kNvwHv7FWZ&amp;_nc_oc=Adnx2lWSsWj7lc4UjfOQ8fSyMldev7qy-E2T4RPIFOQN6Br0MYqnNUJ04_FtEzRPT3A&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=wAxFKvr7JYIBi3Hhn1D3vQ&amp;oh=00_AfY94oVj_XG-W-evjtxjrQAklIQ5lFIJ2v6Kpu3RJuYTcQ&amp;oe=68CA53C9', 'profileId': 'pfbid0vyoxHZ2RJmXW7hrisAEzVTNe42JuhhTufUdcGLTa6RUYHLoxRDPPgjVCgFNUkGJvl', 'profileName': 'Tropi Pollo Aves', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=816939231005497', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgxNjkzOTIzMTAwNTQ5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84MTY5MzkyMzEwMDU0OTc=', 'date': '2025-09-11T22:59:36.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=cx_Qsz0r8zUQ7kNvwH61doZ&amp;_nc_oc=AdmNiozje0rRMkU4j4rjj7XbanXz5WVyn5oo9yXGnmSjO6YyoWcyR1aMtJYn3oAFXXY&amp;_nc_zt=23&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=6ZuOJnww-XxIB7Ew30xjLg&amp;oh=00_AfZ3YAPGoJLuKh9uWbjFjwINeipxxscQzHGEEtlqsfT4Yw&amp;oe=68CA68AD'}, 'id': '122132915732892467', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 720}, 'image': {'uri': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=cx_Qsz0r8zUQ7kNvwH61doZ&amp;_nc_oc=AdmNiozje0rRMkU4j4rjj7XbanXz5WVyn5oo9yXGnmSjO6YyoWcyR1aMtJYn3oAFXXY&amp;_nc_zt=23&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=6ZuOJnww-XxIB7Ew30xjLg&amp;oh=00_AfYABIm4LpiN2uuOQBOX50csVZdviksFd3uYO2ZpifgWrA&amp;oe=68CA68AD', 'width': 261, 'height': 196}, 'ocrText': 'May be an image of 2 people, bird and goosedown coat'}], 'profileUrl': 'https://www.facebook.com/people/Tropi-Pollo-Aves/pfbid0vyoxHZ2RJmXW7hrisAEzVTNe42JuhhTufUdcGLTa6RUYHLoxRDPPgjVCgFNUkGJvl/', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/503603154_122103355172892467_5961930638299244588_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CP6nZIIvwpoQ7kNvwERiyIm&amp;_nc_oc=AdkhHfqvHH2wYrfSG1tKS2_mriX7rlFqAtIEDcgpU81Ej-MXd3WujFL7hnuNXbZKmxc&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=6ZuOJnww-XxIB7Ew30xjLg&amp;oh=00_AfbSlUcNP6wl60nM79Af1aLE5_zM_f0MgEYpzqwxYfZ2HA&amp;oe=68CA53C9', 'profileId': 'pfbid0vyoxHZ2RJmXW7hrisAEzVTNe42JuhhTufUdcGLTa6RUYHLoxRDPPgjVCgFNUkGJvl', 'profileName': 'Tropi Pollo Aves', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1188,25 +1188,25 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza</t>
+          <t>usaba IA y ni sentido tenía el anuncio</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45911.09158564815</v>
+        <v>45910.30898148148</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>02:11:53</t>
+          <t>07:24:56</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>546</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548648557948683026', 'createTime': 1757556713, 'createTimeISO': '2025-09-11T02:11:53.000Z', 'text': 'Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6976617115294139397', 'uniqueId': 'chowder9273', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/21ce081563d432fdfb13dc114a97d005~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a43e10be&amp;x-expires=1757797200&amp;x-signature=5btA4DcVZu0dopZQrt4J0I7InYw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548358154200974098', 'createTime': 1757489096, 'createTimeISO': '2025-09-10T07:24:56.000Z', 'text': 'usaba IA y ni sentido tenía el anuncio', 'diggCount': 546, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7522680959197971464', 'uniqueId': 'angel_fox_axel', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9ed7bfea88e1b69f3a128b1f8039235e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fcc9dfd5&amp;x-expires=1757800800&amp;x-signature=mqkuwagKr4NsEteFEsQdWtZfDU0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1244,22 +1244,22 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Se me cayó un ídolo, en la mala Alpina</t>
+          <t>Muy mal alpina 😔</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45910.90369212963</v>
+        <v>45910.72035879629</v>
       </c>
       <c r="H17" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21:41:19</t>
+          <t>17:17:19</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578807612277511', 'createTime': 1757540479, 'createTimeISO': '2025-09-10T21:41:19.000Z', 'text': 'Se me cayó un ídolo, en la mala Alpina', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6859385792315769861', 'uniqueId': 'bomkly2', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a0f29357a9e54e5054e5669e06d564aa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ef323555&amp;x-expires=1757797200&amp;x-signature=gguQ7NiNFysumuZCUSoUzDyqeTE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548510815235048210', 'createTime': 1757524639, 'createTimeISO': '2025-09-10T17:17:19.000Z', 'text': 'Muy mal alpina 😔', 'diggCount': 55, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7401980556445189125', 'uniqueId': 'vanshi432', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9593619d8a1f3f6623ca0b4ba781b0f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2dce2aec&amp;x-expires=1757800800&amp;x-signature=sPko9TI4Ys%2FUsK3FRNtz9dBPhUI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀</t>
+          <t>Se me cayó un ídolo, en la mala Alpina</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>45910.92006944444</v>
+        <v>45910.90369212963</v>
       </c>
       <c r="H18" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>22:04:54</t>
+          <t>21:41:19</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548584862849942280', 'createTime': 1757541894, 'createTimeISO': '2025-09-10T22:04:54.000Z', 'text': 'empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6774471423067997190', 'uniqueId': 'xiewww_h', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ba1a8119f4148ea45db46fad9dcf764b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7f5df94d&amp;x-expires=1757797200&amp;x-signature=u6jThObnaevy2eA87Ge9z36qGX8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578807612277511', 'createTime': 1757540479, 'createTimeISO': '2025-09-10T21:41:19.000Z', 'text': 'Se me cayó un ídolo, en la mala Alpina', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6859385792315769861', 'uniqueId': 'bomkly2', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a0f29357a9e54e5054e5669e06d564aa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=af8d1183&amp;x-expires=1757800800&amp;x-signature=ZQCaYk%2BzFDxu8rJ02mWFJ8CpKDk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1356,22 +1356,22 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>contratar a una persona no cuesta mucho Alpina</t>
+          <t>empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45910.47868055556</v>
+        <v>45910.92006944444</v>
       </c>
       <c r="H19" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11:29:18</t>
+          <t>22:04:54</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548421120124125959', 'createTime': 1757503758, 'createTimeISO': '2025-09-10T11:29:18.000Z', 'text': 'contratar a una persona no cuesta mucho Alpina', 'diggCount': 9, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156043383616898053', 'uniqueId': 'luperdoxx_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/840d9686754e8cd8db4f8178cac937f8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=27bc4383&amp;x-expires=1757797200&amp;x-signature=egQ%2FVNcY91vYqBA2XIBfH201mcI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548584862849942280', 'createTime': 1757541894, 'createTimeISO': '2025-09-10T22:04:54.000Z', 'text': 'empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6774471423067997190', 'uniqueId': 'xiewww_h', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ba1a8119f4148ea45db46fad9dcf764b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2460c06c&amp;x-expires=1757800800&amp;x-signature=79g6JOkTFlmOscQsUCGqgU%2FGL9I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1412,22 +1412,22 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Muy mal alpina 😔</t>
+          <t>contratar a una persona no cuesta mucho Alpina</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45910.72035879629</v>
+        <v>45910.47868055556</v>
       </c>
       <c r="H20" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>17:17:19</t>
+          <t>11:29:18</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548510815235048210', 'createTime': 1757524639, 'createTimeISO': '2025-09-10T17:17:19.000Z', 'text': 'Muy mal alpina 😔', 'diggCount': 52, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7401980556445189125', 'uniqueId': 'vanshi432', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9593619d8a1f3f6623ca0b4ba781b0f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8812d936&amp;x-expires=1757797200&amp;x-signature=vzmAeFUxG7xiQqc2msKSmO8TJdA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548421120124125959', 'createTime': 1757503758, 'createTimeISO': '2025-09-10T11:29:18.000Z', 'text': 'contratar a una persona no cuesta mucho Alpina', 'diggCount': 9, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156043383616898053', 'uniqueId': 'luperdoxx_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/840d9686754e8cd8db4f8178cac937f8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1cbb165a&amp;x-expires=1757800800&amp;x-signature=lBRyIvLfC%2B2xOqmYCrqZEAopuzc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1468,25 +1468,25 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>usaba IA y ni sentido tenía el anuncio</t>
+          <t>¿IA? Wow ,tanto que ganan y no pagan un animador</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>45910.30898148148</v>
+        <v>45910.79232638889</v>
       </c>
       <c r="H21" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>07:24:56</t>
+          <t>19:00:57</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>546</v>
+        <v>144</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548358154200974098', 'createTime': 1757489096, 'createTimeISO': '2025-09-10T07:24:56.000Z', 'text': 'usaba IA y ni sentido tenía el anuncio', 'diggCount': 546, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7522680959197971464', 'uniqueId': 'angel_fox_axel', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9ed7bfea88e1b69f3a128b1f8039235e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aa6e5d93&amp;x-expires=1757797200&amp;x-signature=XnwNR4Ia%2Bj7zSqxke55VY74SRcQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548537516107088660', 'createTime': 1757530857, 'createTimeISO': '2025-09-10T19:00:57.000Z', 'text': '¿IA? Wow ,tanto que ganan y no pagan un animador', 'diggCount': 144, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7071862501012784133', 'uniqueId': 'el.gelatinas45', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8964867b1446081d4e48af3405f3abbf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4cea30a7&amp;x-expires=1757800800&amp;x-signature=9TIxMAi5XKcRng6unzepohn4p24%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1524,22 +1524,22 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Como que les pesa mucho pagarle a un artista que si haga algo bueno</t>
+          <t>Recuerdan esos comerciales de animales bailando en el bosque y cantando?</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45911.01646990741</v>
+        <v>45910.90331018518</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>00:23:43</t>
+          <t>21:40:46</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620601164104456', 'createTime': 1757550223, 'createTimeISO': '2025-09-11T00:23:43.000Z', 'text': 'Como que les pesa mucho pagarle a un artista que si haga algo bueno', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6797840408039703558', 'uniqueId': 'sstarberry__', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/4c4a684c8f37aa01fa09d888a9d7df43~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=60ea50b4&amp;x-expires=1757797200&amp;x-signature=ZaenJ0v0AE2%2B71lZl9UyoOAfGe0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578559905923856', 'createTime': 1757540446, 'createTimeISO': '2025-09-10T21:40:46.000Z', 'text': 'Recuerdan esos comerciales de animales bailando en el bosque y cantando?', 'diggCount': 27, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6750702320714155013', 'uniqueId': 'wakingleo', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7331160055510728710~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=827c9ce8&amp;x-expires=1757800800&amp;x-signature=2EF5sqJJlFA2YqCxjLcF4bw8XzY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1580,22 +1580,22 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>IA 😬</t>
+          <t>Bro como se perdió el arte</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45910.79935185185</v>
+        <v>45910.55045138889</v>
       </c>
       <c r="H23" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>19:11:04</t>
+          <t>13:12:39</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548540108145328904', 'createTime': 1757531464, 'createTimeISO': '2025-09-10T19:11:04.000Z', 'text': 'IA 😬', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6878771113729967109', 'uniqueId': 'andresmartinez_co', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/0e4fa031bfb76175d309ce7aad482cd3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6bda5055&amp;x-expires=1757797200&amp;x-signature=8DmHJYXjliydk4eqdyr05xhy2V0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447770353435410', 'createTime': 1757509959, 'createTimeISO': '2025-09-10T13:12:39.000Z', 'text': 'Bro como se perdió el arte', 'diggCount': 86, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7523791630316717074', 'uniqueId': 'nyako9311', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7941680fa88f973347764837a49a9b1f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=30d6b809&amp;x-expires=1757800800&amp;x-signature=Eqw87s0c02J1eVPpR%2BzboQIrxL4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1636,22 +1636,22 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores</t>
+          <t>Como que les pesa mucho pagarle a un artista que si haga algo bueno</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45910.97085648148</v>
+        <v>45911.01646990741</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>23:18:02</t>
+          <t>00:23:43</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548603750441599752', 'createTime': 1757546282, 'createTimeISO': '2025-09-10T23:18:02.000Z', 'text': 'espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6904343806360224773', 'uniqueId': 'thekambril', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/843de1e638535b6c4c44e34dcdd6dc88~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=24a2a3e7&amp;x-expires=1757797200&amp;x-signature=bSi434yUVJpQ0u%2Fr40fI5dr2DyY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620601164104456', 'createTime': 1757550223, 'createTimeISO': '2025-09-11T00:23:43.000Z', 'text': 'Como que les pesa mucho pagarle a un artista que si haga algo bueno', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6797840408039703558', 'uniqueId': 'sstarberry__', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/4c4a684c8f37aa01fa09d888a9d7df43~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dba794ee&amp;x-expires=1757800800&amp;x-signature=T1n5ACZ0tjy98Yi7mAW97dgqgkk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1692,22 +1692,22 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Recuerdan esos comerciales de animales bailando en el bosque y cantando?</t>
+          <t>Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45910.90331018518</v>
+        <v>45911.09158564815</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>21:40:46</t>
+          <t>02:11:53</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578559905923856', 'createTime': 1757540446, 'createTimeISO': '2025-09-10T21:40:46.000Z', 'text': 'Recuerdan esos comerciales de animales bailando en el bosque y cantando?', 'diggCount': 28, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6750702320714155013', 'uniqueId': 'wakingleo', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7331160055510728710~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=505d3e1c&amp;x-expires=1757797200&amp;x-signature=Pe9mgAktfoO6jCNuaa2MJuuSfNM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548648557948683026', 'createTime': 1757556713, 'createTimeISO': '2025-09-11T02:11:53.000Z', 'text': 'Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6976617115294139397', 'uniqueId': 'chowder9273', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/21ce081563d432fdfb13dc114a97d005~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fe077826&amp;x-expires=1757800800&amp;x-signature=815Hq%2FFY7gHpqPTCz1AsA7BBpLc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1748,22 +1748,22 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>sin presupuesto para publicidad , como sera el producto?</t>
+          <t>Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45910.85658564815</v>
+        <v>45910.85172453704</v>
       </c>
       <c r="H26" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>20:33:29</t>
+          <t>20:26:29</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548561345027752712', 'createTime': 1757536409, 'createTimeISO': '2025-09-10T20:33:29.000Z', 'text': 'sin presupuesto para publicidad , como sera el producto?', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6918781103953642502', 'uniqueId': 'avenaytamal', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/aa9181c161417e5dc803fcad15cc0d03~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=16c3d08d&amp;x-expires=1757797200&amp;x-signature=nFX%2BY7cmdUA4WBBET7Mn%2Bo%2B2UHM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548559525466374930', 'createTime': 1757535989, 'createTimeISO': '2025-09-10T20:26:29.000Z', 'text': 'Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente', 'diggCount': 38, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6603056868959666181', 'uniqueId': 'linsynose', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a547dda6766e2346d6cc85551ffa9599~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f6143107&amp;x-expires=1757800800&amp;x-signature=VCJk5qLbPGk63SQS5qlnXg2gK8k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1804,22 +1804,22 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente</t>
+          <t>se ve barato con la AI alpina que dececion</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45910.85172453704</v>
+        <v>45910.70459490741</v>
       </c>
       <c r="H27" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>20:26:29</t>
+          <t>16:54:37</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548559525466374930', 'createTime': 1757535989, 'createTimeISO': '2025-09-10T20:26:29.000Z', 'text': 'Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente', 'diggCount': 38, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6603056868959666181', 'uniqueId': 'linsynose', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a547dda6766e2346d6cc85551ffa9599~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=eff011e8&amp;x-expires=1757797200&amp;x-signature=nHbrhkLow%2BVuA%2BU96ZPE1EKt8Io%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548504964740694802', 'createTime': 1757523277, 'createTimeISO': '2025-09-10T16:54:37.000Z', 'text': 'se ve barato con la AI alpina que dececion', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842124879065515013', 'uniqueId': 'flanapoli', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b4c439341ae460ae62d6bf8327e9c318~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=075523b7&amp;x-expires=1757800800&amp;x-signature=owllgBpfmCqdrdZX%2Br6tmkmCf%2B4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1860,22 +1860,22 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje</t>
+          <t>sin presupuesto para publicidad , como sera el producto?</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45910.91199074074</v>
+        <v>45910.85658564815</v>
       </c>
       <c r="H28" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>21:53:16</t>
+          <t>20:33:29</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548581903085421319', 'createTime': 1757541196, 'createTimeISO': '2025-09-10T21:53:16.000Z', 'text': 'Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '242092892885082112', 'uniqueId': 'valiwolf', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/d46604217618ad37cce4d76a7a04cd46~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=da3d9bc7&amp;x-expires=1757797200&amp;x-signature=Ep3tnrlf%2FOiB2ZcP1RbNYPD1AiQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548561345027752712', 'createTime': 1757536409, 'createTimeISO': '2025-09-10T20:33:29.000Z', 'text': 'sin presupuesto para publicidad , como sera el producto?', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6918781103953642502', 'uniqueId': 'avenaytamal', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/aa9181c161417e5dc803fcad15cc0d03~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cf935d35&amp;x-expires=1757800800&amp;x-signature=shTtxg1uyRUDHGVlt4Pk%2FVWo%2BiA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1916,22 +1916,22 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Alpin que paso para llegar hasta este punto?</t>
+          <t>Un anuncio de IA, en serio?...</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45910.35961805555</v>
+        <v>45910.90475694444</v>
       </c>
       <c r="H29" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>08:37:51</t>
+          <t>21:42:51</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548376941066732306', 'createTime': 1757493471, 'createTimeISO': '2025-09-10T08:37:51.000Z', 'text': 'Alpin que paso para llegar hasta este punto?', 'diggCount': 134, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7027306156922242054', 'uniqueId': 'zebis', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7e6922dadb62002e9255466f9bea4e5c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6681804a&amp;x-expires=1757797200&amp;x-signature=ZaBihJJ3y54FuSWIN4uiUUCP%2BcQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548579047941669648', 'createTime': 1757540571, 'createTimeISO': '2025-09-10T21:42:51.000Z', 'text': 'Un anuncio de IA, en serio?...', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7267330640268559365', 'uniqueId': 'akg4lv1x', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/0cb47ff876dbe865901193337182695a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=53c1540b&amp;x-expires=1757800800&amp;x-signature=gTLK3qvRdt9SalrA%2FYRwaeXahkY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1972,25 +1972,25 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>¿IA? Wow ,tanto que ganan y no pagan un animador</t>
+          <t>increible el esfuerzo wow. 💔🥀</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45910.79232638889</v>
+        <v>45910.87224537037</v>
       </c>
       <c r="H30" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>19:00:57</t>
+          <t>20:56:02</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548537516107088660', 'createTime': 1757530857, 'createTimeISO': '2025-09-10T19:00:57.000Z', 'text': '¿IA? Wow ,tanto que ganan y no pagan un animador', 'diggCount': 144, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7071862501012784133', 'uniqueId': 'el.gelatinas45', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8964867b1446081d4e48af3405f3abbf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fb6a41cc&amp;x-expires=1757797200&amp;x-signature=S09kwaZihdkT5twbs5Xf3Szfwm8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548567124958348039', 'createTime': 1757537762, 'createTimeISO': '2025-09-10T20:56:02.000Z', 'text': 'increible el esfuerzo wow. 💔🥀', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7320483299197043717', 'uniqueId': 'dogfoj', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/80cf6fca533cc8d0175ee3672b20e6ca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=38c8f842&amp;x-expires=1757800800&amp;x-signature=DTKgKd8tmJ6r%2BkVM6XTUqWHhE1E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2028,22 +2028,22 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Un anuncio de IA, en serio?...</t>
+          <t>que es eso alpina</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45910.90475694444</v>
+        <v>45910.94694444445</v>
       </c>
       <c r="H31" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>21:42:51</t>
+          <t>22:43:36</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548579047941669648', 'createTime': 1757540571, 'createTimeISO': '2025-09-10T21:42:51.000Z', 'text': 'Un anuncio de IA, en serio?...', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7267330640268559365', 'uniqueId': 'akg4lv1x', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/0cb47ff876dbe865901193337182695a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=032a5de2&amp;x-expires=1757797200&amp;x-signature=nVFGeciMmLJL7d3Lx6elzHcmloM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548594843954447122', 'createTime': 1757544216, 'createTimeISO': '2025-09-10T22:43:36.000Z', 'text': 'que es eso alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6965117807211136002', 'uniqueId': 'bmn18920', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/06c0075ce87455af04698a541ffd2d51~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8e3aaf64&amp;x-expires=1757800800&amp;x-signature=guR92RiZquHmZUkYnqet%2F20pTYU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2084,22 +2084,22 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bro como se perdió el arte</t>
+          <t>tanto que ganan y ni un animador se dignan a pagar, el colmo.</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45910.55045138889</v>
+        <v>45911.01949074074</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>13:12:39</t>
+          <t>00:28:04</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447770353435410', 'createTime': 1757509959, 'createTimeISO': '2025-09-10T13:12:39.000Z', 'text': 'Bro como se perdió el arte', 'diggCount': 86, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7523791630316717074', 'uniqueId': 'nyako9311', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7941680fa88f973347764837a49a9b1f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cf3f0083&amp;x-expires=1757797200&amp;x-signature=Xg5F3m%2B0Rx5%2BI%2FZR%2BXLp7RhGWrE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548621347896492801', 'createTime': 1757550484, 'createTimeISO': '2025-09-11T00:28:04.000Z', 'text': 'tanto que ganan y ni un animador se dignan a pagar, el colmo.', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959106580772471813', 'uniqueId': 'ans0fyyy', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/5787aa89d78fc130687462d5427a1653~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a8bcd73c&amp;x-expires=1757800800&amp;x-signature=vyPwNWjXZpI46h8LAhrkGih1uVs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2140,22 +2140,22 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>tanto que ganan y ni un animador se dignan a pagar, el colmo.</t>
+          <t>IA enserio?</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45911.01949074074</v>
+        <v>45910.895625</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>00:28:04</t>
+          <t>21:29:42</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548621347896492801', 'createTime': 1757550484, 'createTimeISO': '2025-09-11T00:28:04.000Z', 'text': 'tanto que ganan y ni un animador se dignan a pagar, el colmo.', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959106580772471813', 'uniqueId': 'ans0fyyy', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/5787aa89d78fc130687462d5427a1653~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=36383bdf&amp;x-expires=1757797200&amp;x-signature=W%2Fx0xKfKvsfuxE2IssMmggrGjTw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548575782660162311', 'createTime': 1757539782, 'createTimeISO': '2025-09-10T21:29:42.000Z', 'text': 'IA enserio?', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6636493445244813317', 'uniqueId': 'jhunjunar', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7325239266097774597~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b5053619&amp;x-expires=1757800800&amp;x-signature=NUifEMuvwQ%2BsdlVzxTBL5XM9XWs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2196,18 +2196,18 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>IA enserio?</t>
+          <t>espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45910.895625</v>
+        <v>45910.97085648148</v>
       </c>
       <c r="H34" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>21:29:42</t>
+          <t>23:18:02</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548575782660162311', 'createTime': 1757539782, 'createTimeISO': '2025-09-10T21:29:42.000Z', 'text': 'IA enserio?', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6636493445244813317', 'uniqueId': 'jhunjunar', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7325239266097774597~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=df6dcd32&amp;x-expires=1757797200&amp;x-signature=RSGkXFdYaay%2FRIzWpKSM9Zve2UQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548603750441599752', 'createTime': 1757546282, 'createTimeISO': '2025-09-10T23:18:02.000Z', 'text': 'espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6904343806360224773', 'uniqueId': 'thekambril', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/843de1e638535b6c4c44e34dcdd6dc88~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=621f8892&amp;x-expires=1757800800&amp;x-signature=bpLgRuoezq1siss3ZuIuyvpCc5o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2252,25 +2252,25 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙</t>
+          <t>IA 😬</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45910.9325462963</v>
+        <v>45910.79935185185</v>
       </c>
       <c r="H35" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>22:22:52</t>
+          <t>19:11:04</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548589473309754130', 'createTime': 1757542972, 'createTimeISO': '2025-09-10T22:22:52.000Z', 'text': 'Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6876120312544838661', 'uniqueId': 'andreselgatouriza', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a1737248c6e55a0fb70d1cb876e69804~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f53a8e9b&amp;x-expires=1757797200&amp;x-signature=ryStQ4jvgcId213CKoiEHQV22mM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548540108145328904', 'createTime': 1757531464, 'createTimeISO': '2025-09-10T19:11:04.000Z', 'text': 'IA 😬', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6878771113729967109', 'uniqueId': 'andresmartinez_co', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/0e4fa031bfb76175d309ce7aad482cd3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ea0aee91&amp;x-expires=1757800800&amp;x-signature=NMrRiV0Fto9KQ1K9aLMMagHe%2FN4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2308,22 +2308,22 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>increible el esfuerzo wow. 💔🥀</t>
+          <t>Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45910.87224537037</v>
+        <v>45910.91199074074</v>
       </c>
       <c r="H36" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>20:56:02</t>
+          <t>21:53:16</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548567124958348039', 'createTime': 1757537762, 'createTimeISO': '2025-09-10T20:56:02.000Z', 'text': 'increible el esfuerzo wow. 💔🥀', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7320483299197043717', 'uniqueId': 'dogfoj', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/80cf6fca533cc8d0175ee3672b20e6ca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=da04fe7b&amp;x-expires=1757797200&amp;x-signature=UPb34jhlUo%2FHf8D0yTjHLizZH74%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548581903085421319', 'createTime': 1757541196, 'createTimeISO': '2025-09-10T21:53:16.000Z', 'text': 'Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '242092892885082112', 'uniqueId': 'valiwolf', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/d46604217618ad37cce4d76a7a04cd46~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9f833f59&amp;x-expires=1757800800&amp;x-signature=E4209uIEVY5MctL6QO%2BcZ9EAcdM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2364,25 +2364,25 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋</t>
+          <t>Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45910.92987268518</v>
+        <v>45910.5497337963</v>
       </c>
       <c r="H37" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>22:19:01</t>
+          <t>13:11:37</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548588516893311762', 'createTime': 1757542741, 'createTimeISO': '2025-09-10T22:19:01.000Z', 'text': 'que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817878389598012422', 'uniqueId': 'alexo1208', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/ef7e2adcf8630799385cd64832d218ab~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0624090f&amp;x-expires=1757797200&amp;x-signature=89N%2F6X2q6RlaeEGGdgdn7uJbRDA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447494344131335', 'createTime': 1757509897, 'createTimeISO': '2025-09-10T13:11:37.000Z', 'text': 'Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.', 'diggCount': 39, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7039532507280196614', 'uniqueId': 'dulce_de_nata', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7332498416135274502~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c63d4512&amp;x-expires=1757800800&amp;x-signature=6PSCEFEMXF%2FBxuJulKUbYQAbQzw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2420,25 +2420,25 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.</t>
+          <t>tan lindo comercial 🥰🥰🥰🥰🥰</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45910.5497337963</v>
+        <v>45910.40491898148</v>
       </c>
       <c r="H38" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>13:11:37</t>
+          <t>09:43:05</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447494344131335', 'createTime': 1757509897, 'createTimeISO': '2025-09-10T13:11:37.000Z', 'text': 'Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.', 'diggCount': 39, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7039532507280196614', 'uniqueId': 'dulce_de_nata', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7332498416135274502~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0cea186d&amp;x-expires=1757797200&amp;x-signature=3CMCYEeH9HpP9e71blqb3jEKGBI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548393761517601554', 'createTime': 1757497385, 'createTimeISO': '2025-09-10T09:43:05.000Z', 'text': 'tan lindo comercial 🥰🥰🥰🥰🥰', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7461491967327962129', 'uniqueId': 'caro11.18', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/90a40a0ee147200def68ba2dfc2b1dca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=19db2a98&amp;x-expires=1757800800&amp;x-signature=QlhbkXdlaX949RtPyDLzqP9sIbc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2476,22 +2476,22 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>una historia muy original 💙 Alpina llegando a nuestros hogares por más de 80 años 🤗</t>
+          <t>que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>45910.95302083333</v>
+        <v>45910.92987268518</v>
       </c>
       <c r="H39" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>22:52:21</t>
+          <t>22:19:01</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548597086792696594', 'createTime': 1757544741, 'createTimeISO': '2025-09-10T22:52:21.000Z', 'text': 'una historia muy original 💙 Alpina llegando a nuestros hogares por más de 80 años 🤗', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6808353821459350534', 'uniqueId': 'kathemia1002', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/74284c3455ff47a191f0cbc0236da720~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d765f80d&amp;x-expires=1757797200&amp;x-signature=SwZq1JIpRiLuzUoLQwoCwiIeUSg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548588516893311762', 'createTime': 1757542741, 'createTimeISO': '2025-09-10T22:19:01.000Z', 'text': 'que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817878389598012422', 'uniqueId': 'alexo1208', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/ef7e2adcf8630799385cd64832d218ab~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6625628c&amp;x-expires=1757800800&amp;x-signature=MS3uhegM3VhYHmuh4oh25Q8tb8Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2532,22 +2532,22 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Divino!!!! Amo la historia</t>
+          <t>Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45910.97527777778</v>
+        <v>45910.9325462963</v>
       </c>
       <c r="H40" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>23:24:24</t>
+          <t>22:22:52</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548605334442967816', 'createTime': 1757546664, 'createTimeISO': '2025-09-10T23:24:24.000Z', 'text': 'Divino!!!! Amo la historia', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807194247927710726', 'uniqueId': 'isabelagarciag16', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/b88517984d3050fcaa52657a475e3d78~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a6bde85e&amp;x-expires=1757797200&amp;x-signature=2MAQK6ZPJmpceBiaMZ745zlKQLE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548589473309754130', 'createTime': 1757542972, 'createTimeISO': '2025-09-10T22:22:52.000Z', 'text': 'Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6876120312544838661', 'uniqueId': 'andreselgatouriza', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a1737248c6e55a0fb70d1cb876e69804~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=926c4a51&amp;x-expires=1757800800&amp;x-signature=WSGS%2BWKDYI5OAfKs4v3vTd4MBWk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2588,25 +2588,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙</t>
+          <t>Me veo linda en mi historia?</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45910.93565972222</v>
+        <v>45910.42668981481</v>
       </c>
       <c r="H41" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>22:27:21</t>
+          <t>10:14:26</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548590640369173255', 'createTime': 1757543241, 'createTimeISO': '2025-09-10T22:27:21.000Z', 'text': 'Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7111661840812639237', 'uniqueId': 'juliandavidmuri10', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7111662424408096774~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bb3604ce&amp;x-expires=1757797200&amp;x-signature=eaDPaPNCAO8VSfRevpOfvn8io68%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548401767362806534', 'createTime': 1757499266, 'createTimeISO': '2025-09-10T10:14:26.000Z', 'text': 'Me veo linda en mi historia?', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 5, 'uid': '7237572995751937029', 'uniqueId': 'escarletgiron3', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/90f45fbb28c045f99beaef24f4d1bcc5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ecc7d2f1&amp;x-expires=1757800800&amp;x-signature=dw%2F8eL8WKK6y0wPNCuc6Li9UUtU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2644,25 +2644,25 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>se ve barato con la AI alpina que dececion</t>
+          <t>Divino!!!! Amo la historia</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45910.70459490741</v>
+        <v>45910.97527777778</v>
       </c>
       <c r="H42" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>16:54:37</t>
+          <t>23:24:24</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548504964740694802', 'createTime': 1757523277, 'createTimeISO': '2025-09-10T16:54:37.000Z', 'text': 'se ve barato con la AI alpina que dececion', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842124879065515013', 'uniqueId': 'flanapoli', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b4c439341ae460ae62d6bf8327e9c318~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=97641d8b&amp;x-expires=1757797200&amp;x-signature=5mjvVVorB7c2ZzP4AXHLEqDExXU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548605334442967816', 'createTime': 1757546664, 'createTimeISO': '2025-09-10T23:24:24.000Z', 'text': 'Divino!!!! Amo la historia', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807194247927710726', 'uniqueId': 'isabelagarciag16', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/b88517984d3050fcaa52657a475e3d78~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b182a8b1&amp;x-expires=1757800800&amp;x-signature=X2kvEWUzCSbYk62G9Y%2FNM5sHcgk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2700,22 +2700,22 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>tan lindo comercial 🥰🥰🥰🥰🥰</t>
+          <t>una historia muy original 💙 Alpina llegando a nuestros hogares por más de 80 años 🤗</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45910.40491898148</v>
+        <v>45910.95302083333</v>
       </c>
       <c r="H43" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>09:43:05</t>
+          <t>22:52:21</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548393761517601554', 'createTime': 1757497385, 'createTimeISO': '2025-09-10T09:43:05.000Z', 'text': 'tan lindo comercial 🥰🥰🥰🥰🥰', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7461491967327962129', 'uniqueId': 'caro11.18', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/90a40a0ee147200def68ba2dfc2b1dca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2e661c67&amp;x-expires=1757797200&amp;x-signature=x2OtgcfOtSnIhoZl2QhGCIZwelY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548597086792696594', 'createTime': 1757544741, 'createTimeISO': '2025-09-10T22:52:21.000Z', 'text': 'una historia muy original 💙 Alpina llegando a nuestros hogares por más de 80 años 🤗', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6808353821459350534', 'uniqueId': 'kathemia1002', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/74284c3455ff47a191f0cbc0236da720~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b6ec9f1f&amp;x-expires=1757800800&amp;x-signature=3mCZJCCm3BKcoTa%2Fp5AyRcLXj28%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2756,25 +2756,25 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛</t>
+          <t>Si usan IA no me fío de los procesos de sus lácteos 😅</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45910.95050925926</v>
+        <v>45911.16465277778</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>22:48:44</t>
+          <t>03:57:06</t>
         </is>
       </c>
       <c r="J44" t="n">
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548596179627049736', 'createTime': 1757544524, 'createTimeISO': '2025-09-10T22:48:44.000Z', 'text': '¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '6892483566695154694', 'uniqueId': 'karenarres', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8e7f13a6edbd9f1e73869cf96c40fede~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=664a0154&amp;x-expires=1757797200&amp;x-signature=loCXL1reNxpjaus6sWU9Ffs9U4k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548675672371430152', 'createTime': 1757563026, 'createTimeISO': '2025-09-11T03:57:06.000Z', 'text': 'Si usan IA no me fío de los procesos de sus lácteos 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7035757402419250181', 'uniqueId': 'saan_300', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7335925676140625926~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e27c4410&amp;x-expires=1757800800&amp;x-signature=OVFkCxChrT5ygAddwRNweTa0ZNQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2812,25 +2812,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Qué linda está historiaa! Me encanta</t>
+          <t>Alpin que paso para llegar hasta este punto?</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45910.64038194445</v>
+        <v>45910.35961805555</v>
       </c>
       <c r="H45" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>15:22:09</t>
+          <t>08:37:51</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548481145101763335', 'createTime': 1757517729, 'createTimeISO': '2025-09-10T15:22:09.000Z', 'text': 'Qué linda está historiaa! Me encanta', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807939541208237061', 'uniqueId': 'arestrepo1', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7331111760105046022~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c2678fc2&amp;x-expires=1757797200&amp;x-signature=XikteFUj6LegP7Crd1m%2FGJRAi4g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548376941066732306', 'createTime': 1757493471, 'createTimeISO': '2025-09-10T08:37:51.000Z', 'text': 'Alpin que paso para llegar hasta este punto?', 'diggCount': 134, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7027306156922242054', 'uniqueId': 'zebis', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7e6922dadb62002e9255466f9bea4e5c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=df17dc37&amp;x-expires=1757800800&amp;x-signature=kBo%2BwEYBgkk1lFOLThA2lombLUU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2868,18 +2868,18 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Si usan IA no me fío de los procesos de sus lácteos 😅</t>
+          <t>y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45911.16465277778</v>
+        <v>45911.09881944444</v>
       </c>
       <c r="H46" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>03:57:06</t>
+          <t>02:22:18</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548675672371430152', 'createTime': 1757563026, 'createTimeISO': '2025-09-11T03:57:06.000Z', 'text': 'Si usan IA no me fío de los procesos de sus lácteos 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7035757402419250181', 'uniqueId': 'saan_300', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7335925676140625926~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5d4b5120&amp;x-expires=1757797200&amp;x-signature=MvhUau2eyE6ilg6qK69tG7It8z0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548651242424926994', 'createTime': 1757557338, 'createTimeISO': '2025-09-11T02:22:18.000Z', 'text': 'y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7127269324398822406', 'uniqueId': 'art_vlogs_124453', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/776a09d992ac899821136707d41a334f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c64fed3&amp;x-expires=1757800800&amp;x-signature=0KvT7VoAUNE5r4NPct8e%2FdS84Po%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2924,18 +2924,18 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd</t>
+          <t>Me encanta 💙</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45911.09881944444</v>
+        <v>45910.96372685185</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>02:22:18</t>
+          <t>23:07:46</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548651242424926994', 'createTime': 1757557338, 'createTimeISO': '2025-09-11T02:22:18.000Z', 'text': 'y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7127269324398822406', 'uniqueId': 'art_vlogs_124453', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/776a09d992ac899821136707d41a334f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=20d89022&amp;x-expires=1757797200&amp;x-signature=JZU4F5logKzHjKu8PtNpSLgjMHA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548601049558713106', 'createTime': 1757545666, 'createTimeISO': '2025-09-10T23:07:46.000Z', 'text': 'Me encanta 💙', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765986832699999237', 'uniqueId': 'maiteito', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a3685ad22846cc5cdb0de3282e771d00~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7b2b6afa&amp;x-expires=1757800800&amp;x-signature=HizyI5Cmy2qfymnpzkZbpn%2FWdIo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2980,25 +2980,25 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!</t>
+          <t>Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45910.96769675926</v>
+        <v>45910.93565972222</v>
       </c>
       <c r="H48" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>23:13:29</t>
+          <t>22:27:21</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548602541611041544', 'createTime': 1757546009, 'createTimeISO': '2025-09-10T23:13:29.000Z', 'text': 'Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7497728292843521025', 'uniqueId': 'johncisf05', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/505945559d7145fdfd55587e4211927a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e4cd88fb&amp;x-expires=1757797200&amp;x-signature=BaW73VW1WzFG4Q1mTGRwtrT5Ylw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548590640369173255', 'createTime': 1757543241, 'createTimeISO': '2025-09-10T22:27:21.000Z', 'text': 'Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7111661840812639237', 'uniqueId': 'juliandavidmuri10', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7111662424408096774~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a65a14b6&amp;x-expires=1757800800&amp;x-signature=%2BpBbkXszhRO4J0Q1dxhFTjX4Q1I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3036,26 +3036,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>deseo vender sus productos
-gracias</t>
+          <t>Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45910.47114583333</v>
+        <v>45910.96769675926</v>
       </c>
       <c r="H49" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>11:18:27</t>
+          <t>23:13:29</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -3067,7 +3066,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548418329276318472', 'createTime': 1757503107, 'createTimeISO': '2025-09-10T11:18:27.000Z', 'text': 'deseo vender sus productos\ngracias', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7450631040689423366', 'uniqueId': 'leonbsxez4f', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=433f51bf&amp;x-expires=1757797200&amp;x-signature=6kLM2EhCpe0ivfnIHQaEPc%2BZG6A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548602541611041544', 'createTime': 1757546009, 'createTimeISO': '2025-09-10T23:13:29.000Z', 'text': 'Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7497728292843521025', 'uniqueId': 'johncisf05', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/505945559d7145fdfd55587e4211927a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=323eb79c&amp;x-expires=1757800800&amp;x-signature=hFZPkA576pClodxrN8OfHaqX%2FjA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3093,22 +3092,23 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>que es eso alpina</t>
+          <t>deseo vender sus productos
+gracias</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45910.94694444445</v>
+        <v>45910.47114583333</v>
       </c>
       <c r="H50" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>22:43:36</t>
+          <t>11:18:27</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548594843954447122', 'createTime': 1757544216, 'createTimeISO': '2025-09-10T22:43:36.000Z', 'text': 'que es eso alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6965117807211136002', 'uniqueId': 'bmn18920', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/06c0075ce87455af04698a541ffd2d51~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a2f2fcb0&amp;x-expires=1757797200&amp;x-signature=SRuUqkk7mp0TX7w%2BUwbRiADd8L4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548418329276318472', 'createTime': 1757503107, 'createTimeISO': '2025-09-10T11:18:27.000Z', 'text': 'deseo vender sus productos\ngracias', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7450631040689423366', 'uniqueId': 'leonbsxez4f', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ac3a90e3&amp;x-expires=1757800800&amp;x-signature=AdQO1Ek7axnG9LQzNuh2igzarw4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3149,25 +3149,25 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Me veo linda en mi historia?</t>
+          <t>¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45910.42668981481</v>
+        <v>45910.95050925926</v>
       </c>
       <c r="H51" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10:14:26</t>
+          <t>22:48:44</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548401767362806534', 'createTime': 1757499266, 'createTimeISO': '2025-09-10T10:14:26.000Z', 'text': 'Me veo linda en mi historia?', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 5, 'uid': '7237572995751937029', 'uniqueId': 'escarletgiron3', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/90f45fbb28c045f99beaef24f4d1bcc5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d3b22408&amp;x-expires=1757797200&amp;x-signature=LIxV9fwO2hlFR7029sgQEC44KXg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548596179627049736', 'createTime': 1757544524, 'createTimeISO': '2025-09-10T22:48:44.000Z', 'text': '¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '6892483566695154694', 'uniqueId': 'karenarres', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8e7f13a6edbd9f1e73869cf96c40fede~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b3ec7dc2&amp;x-expires=1757800800&amp;x-signature=YOqozOGK0i57pUFza3eS4v80NUQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3209,18 +3209,18 @@
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45910.96372685185</v>
+        <v>45911.94859953703</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>23:07:46</t>
+          <t>22:45:59</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548601049558713106', 'createTime': 1757545666, 'createTimeISO': '2025-09-10T23:07:46.000Z', 'text': 'Me encanta 💙', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765986832699999237', 'uniqueId': 'maiteito', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a3685ad22846cc5cdb0de3282e771d00~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c803db8&amp;x-expires=1757797200&amp;x-signature=6PCrHrEmOkMoDYXxX42pS8FVHb8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548966545201693458', 'createTime': 1757630759, 'createTimeISO': '2025-09-11T22:45:59.000Z', 'text': 'Me encanta 💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7192343363575530502', 'uniqueId': 'pilarcardona90', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f0ff25a33bba318f336930d217532900~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=bc028339&amp;x-expires=1757800800&amp;x-signature=gJx5P5xFqWPD%2FYpL4Z5ftnzTHSE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3261,25 +3261,25 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Me encanta 💙</t>
+          <t>Qué linda está historiaa! Me encanta</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45911.94859953703</v>
+        <v>45910.64038194445</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>22:45:59</t>
+          <t>15:22:09</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548966545201693458', 'createTime': 1757630759, 'createTimeISO': '2025-09-11T22:45:59.000Z', 'text': 'Me encanta 💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7192343363575530502', 'uniqueId': 'pilarcardona90', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f0ff25a33bba318f336930d217532900~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ca3cfa1f&amp;x-expires=1757797200&amp;x-signature=LdJ0EZ55Y50umaLO7dVvDFF%2BU7g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548481145101763335', 'createTime': 1757517729, 'createTimeISO': '2025-09-10T15:22:09.000Z', 'text': 'Qué linda está historiaa! Me encanta', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807939541208237061', 'uniqueId': 'arestrepo1', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7331111760105046022~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3d42f26c&amp;x-expires=1757800800&amp;x-signature=0fSW0iUZfwY0dqUFTc0xS%2BaYs8U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548610361759449863', 'createTime': 1757547824, 'createTimeISO': '2025-09-10T23:43:44.000Z', 'text': 'ia?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6912837321592488965', 'uniqueId': 'lennin.palacio', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/faee210c34b84e9f531a921eda58429b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2bc636f9&amp;x-expires=1757797200&amp;x-signature=LNRrNlS3BUlYF%2BX8bxOPx89oWhk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548610361759449863', 'createTime': 1757547824, 'createTimeISO': '2025-09-10T23:43:44.000Z', 'text': 'ia?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6912837321592488965', 'uniqueId': 'lennin.palacio', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/faee210c34b84e9f531a921eda58429b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fdc65f55&amp;x-expires=1757800800&amp;x-signature=T%2Bnp9nhohI%2FDT%2BfeVK4YfCU%2BKi0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548410183963149063', 'createTime': 1757501210, 'createTimeISO': '2025-09-10T10:46:50.000Z', 'text': 'Un cliente menos por usar IA. Lo mínimo sería que se esforzaran.', 'diggCount': 19, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6831317940266632198', 'uniqueId': 'hfwxkmii', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c073c67778fa163af85e8ec12e9f7b34~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0c50e5c8&amp;x-expires=1757797200&amp;x-signature=gg%2BBLb4vQRvJYQ41zHGpifSlcSw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548410183963149063', 'createTime': 1757501210, 'createTimeISO': '2025-09-10T10:46:50.000Z', 'text': 'Un cliente menos por usar IA. Lo mínimo sería que se esforzaran.', 'diggCount': 19, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6831317940266632198', 'uniqueId': 'hfwxkmii', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c073c67778fa163af85e8ec12e9f7b34~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2c24940b&amp;x-expires=1757800800&amp;x-signature=uAWorcUCUEWnWKVhLUtC%2BwZN2co%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548398904514036496', 'createTime': 1757498582, 'createTimeISO': '2025-09-10T10:03:02.000Z', 'text': 'la ia mato la originalidad, extraño los anuncios de antes de alpin', 'diggCount': 30, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7423950923732534278', 'uniqueId': 'n_sin_ideas', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/778bdb3c77f3b1186ea08862f026d708~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ec85fe7e&amp;x-expires=1757797200&amp;x-signature=N1fqZBsFYif%2FqXgSa51uRiBgyrA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548398904514036496', 'createTime': 1757498582, 'createTimeISO': '2025-09-10T10:03:02.000Z', 'text': 'la ia mato la originalidad, extraño los anuncios de antes de alpin', 'diggCount': 30, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7423950923732534278', 'uniqueId': 'n_sin_ideas', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/778bdb3c77f3b1186ea08862f026d708~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fcd5e26e&amp;x-expires=1757800800&amp;x-signature=lXf5e0AnzoHTudt6E3an5tI8ICs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548339039976506130', 'createTime': 1757484645, 'createTimeISO': '2025-09-10T06:10:45.000Z', 'text': 'Ya le dan pereza hacer una animación ya hasta usan IA', 'diggCount': 63, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7052150802987156485', 'uniqueId': 'jhon_87g', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/03ffe7e0084a217762b94e6878473788~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=73ea31ac&amp;x-expires=1757797200&amp;x-signature=rOGEG3a3sqDYdApnZ%2BiP578K5CM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548339039976506130', 'createTime': 1757484645, 'createTimeISO': '2025-09-10T06:10:45.000Z', 'text': 'Ya le dan pereza hacer una animación ya hasta usan IA', 'diggCount': 63, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7052150802987156485', 'uniqueId': 'jhon_87g', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/03ffe7e0084a217762b94e6878473788~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0f532897&amp;x-expires=1757800800&amp;x-signature=HVYfZZrMcHckawIfuA0FM6sVxIw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548346981217157895', 'createTime': 1757486498, 'createTimeISO': '2025-09-10T06:41:38.000Z', 'text': 'que bajo usar ia.', 'diggCount': 42, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7167799974063031302', 'uniqueId': 'dummynicki', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/888d77da15c4f8e8f72e228123fe8864~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5bfb1135&amp;x-expires=1757797200&amp;x-signature=%2F694mBl6hI1mFOemkUG7YHJ1bRQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548346981217157895', 'createTime': 1757486498, 'createTimeISO': '2025-09-10T06:41:38.000Z', 'text': 'que bajo usar ia.', 'diggCount': 42, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7167799974063031302', 'uniqueId': 'dummynicki', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/888d77da15c4f8e8f72e228123fe8864~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8c3fac08&amp;x-expires=1757800800&amp;x-signature=fXWbwFjEDYuoz2r1r3X81AdMRWQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548380036207395605', 'createTime': 1757494191, 'createTimeISO': '2025-09-10T08:49:51.000Z', 'text': 'Uno espera eso de marcas chiquitas que no les alcanza para publicidad', 'diggCount': 20, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6916860526317700102', 'uniqueId': 'danyelangelb', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/724928af54d82cb730b74befb561dc8b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4daf3282&amp;x-expires=1757797200&amp;x-signature=lbpl17bYPLEW5GkZa%2FovRGLWUpk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548380036207395605', 'createTime': 1757494191, 'createTimeISO': '2025-09-10T08:49:51.000Z', 'text': 'Uno espera eso de marcas chiquitas que no les alcanza para publicidad', 'diggCount': 20, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6916860526317700102', 'uniqueId': 'danyelangelb', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/724928af54d82cb730b74befb561dc8b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=153d25db&amp;x-expires=1757800800&amp;x-signature=3zTKWC2l3%2Bl56RpeZN49Ei0uMfk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548457290329604882', 'createTime': 1757512175, 'createTimeISO': '2025-09-10T13:49:35.000Z', 'text': 'IA 💀💀💀💀', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7332704', 'uniqueId': 'andreandreandreaaa', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/af674a3010d5299eb3031b6029febf13~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=605d4cff&amp;x-expires=1757797200&amp;x-signature=tHlaQXRQDte94259IHThn%2BDNw1Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548457290329604882', 'createTime': 1757512175, 'createTimeISO': '2025-09-10T13:49:35.000Z', 'text': 'IA 💀💀💀💀', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7332704', 'uniqueId': 'andreandreandreaaa', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/af674a3010d5299eb3031b6029febf13~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=00d725c2&amp;x-expires=1757800800&amp;x-signature=oD3bUN%2B%2FYQwBhiqu9AiSgrNqzss%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548388399540732673', 'createTime': 1757496147, 'createTimeISO': '2025-09-10T09:22:27.000Z', 'text': 'trátame serio', 'diggCount': 17, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7269821787213759493', 'uniqueId': 'horrendoporro', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/5a352fff86558acc67aa91907eb9d00f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4a8e1867&amp;x-expires=1757797200&amp;x-signature=MAKhpYep2e7z6VJzbAsx2XhL3P4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548388399540732673', 'createTime': 1757496147, 'createTimeISO': '2025-09-10T09:22:27.000Z', 'text': 'trátame serio', 'diggCount': 17, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7269821787213759493', 'uniqueId': 'horrendoporro', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/5a352fff86558acc67aa91907eb9d00f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=31d334de&amp;x-expires=1757800800&amp;x-signature=ct3tDf1aV1eXJ7CxJzA8nFYp0u8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548577179987297045', 'createTime': 1757540101, 'createTimeISO': '2025-09-10T21:35:01.000Z', 'text': 'cómo diseñadora y futura animadora, me duele ver qué usa IA. sabiendo que es una empresa millonaria', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7088423636848280581', 'uniqueId': '__kim_.dan_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d86b34aeb7ca62450a58e8618a1437da~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=eda280f0&amp;x-expires=1757797200&amp;x-signature=beYZeaPhOI70dDb%2FpY7dZiVFCZQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548577179987297045', 'createTime': 1757540101, 'createTimeISO': '2025-09-10T21:35:01.000Z', 'text': 'cómo diseñadora y futura animadora, me duele ver qué usa IA. sabiendo que es una empresa millonaria', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7088423636848280581', 'uniqueId': '__kim_.dan_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d86b34aeb7ca62450a58e8618a1437da~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fd19b824&amp;x-expires=1757800800&amp;x-signature=eOl3U6TBjd55i0LtamI9mfxuXig%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548406411652023048', 'createTime': 1757500333, 'createTimeISO': '2025-09-10T10:32:13.000Z', 'text': 'por eso es mejor la marca pureza', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7532305065131033608', 'uniqueId': 'annshixd', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/96e56ac3430174ee911ad04eff7233af~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=982fce74&amp;x-expires=1757797200&amp;x-signature=BggLJfsN72OnM%2B8lOzVAezN0ZNI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548406411652023048', 'createTime': 1757500333, 'createTimeISO': '2025-09-10T10:32:13.000Z', 'text': 'por eso es mejor la marca pureza', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7532305065131033608', 'uniqueId': 'annshixd', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/96e56ac3430174ee911ad04eff7233af~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a864fb6d&amp;x-expires=1757800800&amp;x-signature=R1pPk3Su05gyqLXgwYXhnqL6nJU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548525337766298386', 'createTime': 1757528025, 'createTimeISO': '2025-09-10T18:13:45.000Z', 'text': 'hasta yo que no se animar lo hago mejor', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6821105890537964550', 'uniqueId': 'doodle_tam', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b6955c33763a61b586f923a3d4c6fff8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=716a4fe2&amp;x-expires=1757797200&amp;x-signature=GiVi50O%2Fi368xYRQ9h4QJCeZ2Zo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548525337766298386', 'createTime': 1757528025, 'createTimeISO': '2025-09-10T18:13:45.000Z', 'text': 'hasta yo que no se animar lo hago mejor', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6821105890537964550', 'uniqueId': 'doodle_tam', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b6955c33763a61b586f923a3d4c6fff8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=20e33b55&amp;x-expires=1757800800&amp;x-signature=y1dBRZa70NPEUp1%2FGAk4CC7A%2F3Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548573780232045320', 'createTime': 1757539309, 'createTimeISO': '2025-09-10T21:21:49.000Z', 'text': 'Así de artificial son los nutriente 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6789799898302284805', 'uniqueId': 'ladeliagendas', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/9009b02feb54b951748fb889574a258d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bf600af9&amp;x-expires=1757797200&amp;x-signature=nsEyo31XAm8iohRojFgvu810pgU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548573780232045320', 'createTime': 1757539309, 'createTimeISO': '2025-09-10T21:21:49.000Z', 'text': 'Así de artificial son los nutriente 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6789799898302284805', 'uniqueId': 'ladeliagendas', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/9009b02feb54b951748fb889574a258d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d57aa9bf&amp;x-expires=1757800800&amp;x-signature=lQZ%2FCgm4U0PhC6raPR58SEdCVeY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548545077762605832', 'createTime': 1757532621, 'createTimeISO': '2025-09-10T19:30:21.000Z', 'text': 'no les dolía tanto e bolsillo comisionar a un artista de verdad sabes??😅😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7043924049042916357', 'uniqueId': 'isariosss7', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/97a9036a3d513b6e6f9089ac76500f9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e4f3fb5b&amp;x-expires=1757797200&amp;x-signature=bTM3aTYq%2Fj6HcQCNlRcOxm1ygZk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548545077762605832', 'createTime': 1757532621, 'createTimeISO': '2025-09-10T19:30:21.000Z', 'text': 'no les dolía tanto e bolsillo comisionar a un artista de verdad sabes??😅😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7043924049042916357', 'uniqueId': 'isariosss7', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/97a9036a3d513b6e6f9089ac76500f9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=09d31d6d&amp;x-expires=1757800800&amp;x-signature=Hzrx7Dw2Ma80SghtGxsI7IQGRtQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548539172203954962', 'createTime': 1757531252, 'createTimeISO': '2025-09-10T19:07:32.000Z', 'text': 'duro de ver', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6848315334416483334', 'uniqueId': 'uyyuart', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/64238889da285c6d545191932696d173~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8a907f57&amp;x-expires=1757797200&amp;x-signature=oIjVLyA0W3DsY5qDzbZvFfIN3uU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548539172203954962', 'createTime': 1757531252, 'createTimeISO': '2025-09-10T19:07:32.000Z', 'text': 'duro de ver', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6848315334416483334', 'uniqueId': 'uyyuart', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/64238889da285c6d545191932696d173~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2c86b1e9&amp;x-expires=1757800800&amp;x-signature=WF8qZJJFKhQ8J%2BzGrs9Ana1jyGE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548516020722909960', 'createTime': 1757525851, 'createTimeISO': '2025-09-10T17:37:31.000Z', 'text': 'Bro?💀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7062546552564237317', 'uniqueId': 'umji_238', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/775b6041c9fdd0f49cde43fb9deb54fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=705752da&amp;x-expires=1757797200&amp;x-signature=Ia6V5ciDH8QuAwcyu5CtQng27kc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548516020722909960', 'createTime': 1757525851, 'createTimeISO': '2025-09-10T17:37:31.000Z', 'text': 'Bro?💀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7062546552564237317', 'uniqueId': 'umji_238', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/775b6041c9fdd0f49cde43fb9deb54fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5d0e8d31&amp;x-expires=1757800800&amp;x-signature=ShcFwC0aNvqjcncStfytdojYxaA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548459511968121608', 'createTime': 1757512692, 'createTimeISO': '2025-09-10T13:58:12.000Z', 'text': 'Uy amigos por lo menos disimulen la ia porque se ve horrible ese comercial', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6754154606328808453', 'uniqueId': 'lecterspov', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a09d318b4f042339bb2945ad8ac0a33a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=577a5dbd&amp;x-expires=1757797200&amp;x-signature=%2BBl7k5BmYz4A4chTY0l7dpf90zY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548459511968121608', 'createTime': 1757512692, 'createTimeISO': '2025-09-10T13:58:12.000Z', 'text': 'Uy amigos por lo menos disimulen la ia porque se ve horrible ese comercial', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6754154606328808453', 'uniqueId': 'lecterspov', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a09d318b4f042339bb2945ad8ac0a33a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aa50128d&amp;x-expires=1757800800&amp;x-signature=WHblzlOYd9mVg8lzo4z3aw%2BHEUY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548700471956865812', 'createTime': 1757568800, 'createTimeISO': '2025-09-11T05:33:20.000Z', 'text': 'Dios la animacion hizo que sangraran mis ojos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6938471178873635846', 'uniqueId': 'fred.pendly', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/e89d64cfe3f0b62bb357738336fc27cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9bd507b8&amp;x-expires=1757797200&amp;x-signature=AuxkLM%2BFw%2BIlR5qt667Z70pNvFs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548700471956865812', 'createTime': 1757568800, 'createTimeISO': '2025-09-11T05:33:20.000Z', 'text': 'Dios la animacion hizo que sangraran mis ojos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6938471178873635846', 'uniqueId': 'fred.pendly', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/e89d64cfe3f0b62bb357738336fc27cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=276cebb0&amp;x-expires=1757800800&amp;x-signature=m3hNcGVnwCG80cMEtlVIgYXogGM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548366156965495570', 'createTime': 1757490957, 'createTimeISO': '2025-09-10T07:55:57.000Z', 'text': 'Alpina, una de las marcas más reconocidas y exitosas del país, no tiene para pagarle a un estudio de animación y le dieron ese trabajo al primer tipo que sugirió escribir prompts y sacar este anuncio tan flojo y feo', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806565442996487174', 'uniqueId': 'maikylart', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/53277bd06fe07cea9179d145496d1ddc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4a5b8ab7&amp;x-expires=1757797200&amp;x-signature=d7w5P8vkwT%2FVJT1lDl%2FlgXYsFJw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548366156965495570', 'createTime': 1757490957, 'createTimeISO': '2025-09-10T07:55:57.000Z', 'text': 'Alpina, una de las marcas más reconocidas y exitosas del país, no tiene para pagarle a un estudio de animación y le dieron ese trabajo al primer tipo que sugirió escribir prompts y sacar este anuncio tan flojo y feo', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806565442996487174', 'uniqueId': 'maikylart', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/53277bd06fe07cea9179d145496d1ddc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ddd6ddfc&amp;x-expires=1757800800&amp;x-signature=3K%2By%2Bdcne3yveQC0l6m%2B1ITsAZA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548408060374860545', 'createTime': 1757500769, 'createTimeISO': '2025-09-10T10:39:29.000Z', 'text': 'Contraten artistas reales, tacaños', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7392782108512912390', 'uniqueId': 'stuffilike.alien', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/859aa727b06ccb2a701c3a4133f034a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a464a5d0&amp;x-expires=1757797200&amp;x-signature=Xlb08zCzHigq9sC6S2ri%2BET542k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548408060374860545', 'createTime': 1757500769, 'createTimeISO': '2025-09-10T10:39:29.000Z', 'text': 'Contraten artistas reales, tacaños', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7392782108512912390', 'uniqueId': 'stuffilike.alien', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/859aa727b06ccb2a701c3a4133f034a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5845153e&amp;x-expires=1757800800&amp;x-signature=ZsCVai%2B2lrRwHIi66QyWSfuiBBE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548409627651326728', 'createTime': 1757501080, 'createTimeISO': '2025-09-10T10:44:40.000Z', 'text': 'esa ia que, bajenle el sueldo al del marketing', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7241313157364237317', 'uniqueId': '..masyumaroo', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/fcea146f1ab11fdfd0007ed28178331a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e3cff559&amp;x-expires=1757797200&amp;x-signature=9i8u36fvjEsvPwBP1SnETy06ql4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548409627651326728', 'createTime': 1757501080, 'createTimeISO': '2025-09-10T10:44:40.000Z', 'text': 'esa ia que, bajenle el sueldo al del marketing', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7241313157364237317', 'uniqueId': '..masyumaroo', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/fcea146f1ab11fdfd0007ed28178331a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c60d3350&amp;x-expires=1757800800&amp;x-signature=fJXzGXzDYUANH%2FpdixCn6LbWp6A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548407528423359239', 'createTime': 1757500592, 'createTimeISO': '2025-09-10T10:36:32.000Z', 'text': 'Q acabo de ver 😔', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6747353274120242182', 'uniqueId': 'ani.garza02', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/354756293f1d163ff79856a81afb4be8~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a8ea3b88&amp;x-expires=1757797200&amp;x-signature=uxAiYAJ%2Fc7M0xxpuMaSLa7yAPCU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548407528423359239', 'createTime': 1757500592, 'createTimeISO': '2025-09-10T10:36:32.000Z', 'text': 'Q acabo de ver 😔', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6747353274120242182', 'uniqueId': 'ani.garza02', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/354756293f1d163ff79856a81afb4be8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ac0c4fec&amp;x-expires=1757800800&amp;x-signature=FzZ0kRehlLmTKQFcQduf2aSo4gQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548511652074537736', 'createTime': 1757524834, 'createTimeISO': '2025-09-10T17:20:34.000Z', 'text': 'Que horrible anuncio, acaso están a punto de llegar a la quiebra que no le pagan a animadores de verdad?', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6686421078979757061', 'uniqueId': 'maffmaffmuffin', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7320050030432878597~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5098ce4a&amp;x-expires=1757797200&amp;x-signature=hXVdjjFqwRbp%2BBJhGTcV4evSxgg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548511652074537736', 'createTime': 1757524834, 'createTimeISO': '2025-09-10T17:20:34.000Z', 'text': 'Que horrible anuncio, acaso están a punto de llegar a la quiebra que no le pagan a animadores de verdad?', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6686421078979757061', 'uniqueId': 'maffmaffmuffin', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7320050030432878597~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=062bb06f&amp;x-expires=1757800800&amp;x-signature=xehFv%2F7FGNw8d2T9fTqbOLMu%2Blg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4549,22 +4549,22 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Si su calidad es igual a usar IA, no me imagino una muy buena calidad entonces, que asco</t>
+          <t>WAKALA LA IA mejor no compro alpina</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>45910.76991898148</v>
+        <v>45911.10884259259</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>18:28:41</t>
+          <t>02:36:44</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548529198928134919', 'createTime': 1757528921, 'createTimeISO': '2025-09-10T18:28:41.000Z', 'text': 'Si su calidad es igual a usar IA, no me imagino una muy buena calidad entonces, que asco', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6961178557775135750', 'uniqueId': 'maplehasnoidea', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f12f023c43d7d5b0f59f436941edf58c~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=61859cb0&amp;x-expires=1757797200&amp;x-signature=bci30Q4BGRyWyL8BV9oHYuPwWNM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548654960079766280', 'createTime': 1757558204, 'createTimeISO': '2025-09-11T02:36:44.000Z', 'text': 'WAKALA LA IA mejor no compro alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6625822285180469254', 'uniqueId': 'boosterflareon', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c6f50c043741078314f7f00f7f24f578~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4f01b939&amp;x-expires=1757800800&amp;x-signature=vKVFW2TpOQ%2BuJTSFIdecFX4I5qE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4605,22 +4605,22 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Cada que una empresa usa IA en una publicidad, le cojo fastidio y no me provoca comprarles... :/ wacala</t>
+          <t>No que porquería AJAJAJAJAJJA</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45910.88719907407</v>
+        <v>45911.01663194445</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>21:17:34</t>
+          <t>00:23:57</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548572657749508872', 'createTime': 1757539054, 'createTimeISO': '2025-09-10T21:17:34.000Z', 'text': 'Cada que una empresa usa IA en una publicidad, le cojo fastidio y no me provoca comprarles... :/ wacala', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7511435645136913426', 'uniqueId': 'lialthewhalienista', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d36fc7be20fca7698d4f525c8dc48118~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=dad8f064&amp;x-expires=1757797200&amp;x-signature=BXBEZg08ZbqhTsnpIQSWEgbhKb0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620734420255496', 'createTime': 1757550237, 'createTimeISO': '2025-09-11T00:23:57.000Z', 'text': 'No que porquería AJAJAJAJAJJA', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6811926783093883909', 'uniqueId': '_4m4lg4m4_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8732c67b4173ebcca1e3df904820871a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=41aa274c&amp;x-expires=1757800800&amp;x-signature=qpLHR1m7xk0gXA%2Fd3Yw8vGadaFc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4661,22 +4661,22 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>No que porquería AJAJAJAJAJJA</t>
+          <t>Cada que una empresa usa IA en una publicidad, le cojo fastidio y no me provoca comprarles... :/ wacala</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45911.01663194445</v>
+        <v>45910.88719907407</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>00:23:57</t>
+          <t>21:17:34</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620734420255496', 'createTime': 1757550237, 'createTimeISO': '2025-09-11T00:23:57.000Z', 'text': 'No que porquería AJAJAJAJAJJA', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6811926783093883909', 'uniqueId': '_4m4lg4m4_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8732c67b4173ebcca1e3df904820871a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=39a8740c&amp;x-expires=1757797200&amp;x-signature=64SGzd%2Bek3uk3pCmv0%2FuJ6WsYDs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548572657749508872', 'createTime': 1757539054, 'createTimeISO': '2025-09-10T21:17:34.000Z', 'text': 'Cada que una empresa usa IA en una publicidad, le cojo fastidio y no me provoca comprarles... :/ wacala', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7511435645136913426', 'uniqueId': 'lialthewhalienista', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d36fc7be20fca7698d4f525c8dc48118~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b426987c&amp;x-expires=1757800800&amp;x-signature=4aCsEbRSM%2B9XId9YX6AhgcFfqgc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4717,22 +4717,22 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>WAKALA LA IA mejor no compro alpina</t>
+          <t>Si su calidad es igual a usar IA, no me imagino una muy buena calidad entonces, que asco</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>45911.10884259259</v>
+        <v>45910.76991898148</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>02:36:44</t>
+          <t>18:28:41</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548654960079766280', 'createTime': 1757558204, 'createTimeISO': '2025-09-11T02:36:44.000Z', 'text': 'WAKALA LA IA mejor no compro alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6625822285180469254', 'uniqueId': 'boosterflareon', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c6f50c043741078314f7f00f7f24f578~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a5044166&amp;x-expires=1757797200&amp;x-signature=6RRxiQW8GgAN8d43X%2Fot0br5n2I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548529198928134919', 'createTime': 1757528921, 'createTimeISO': '2025-09-10T18:28:41.000Z', 'text': 'Si su calidad es igual a usar IA, no me imagino una muy buena calidad entonces, que asco', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6961178557775135750', 'uniqueId': 'maplehasnoidea', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f12f023c43d7d5b0f59f436941edf58c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=226c705f&amp;x-expires=1757800800&amp;x-signature=wD0qE2NjnzuiwvpK1U5u9ZU97vI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4773,18 +4773,18 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>@Alpina 🐮 como marca Colombiana es triste que no apoyen a la industria de la animación por nosotros los colombianos. Cómo marca iconica podrían ser impulsadores de creatividad apoyando el arte de los animadores del país en lugar de recurrir a lo facil y barato con la IA. Muy decepcionante..</t>
+          <t>CONTRATEN ARTISTAS, ANIMADORES Y PRODUCTORES PARA SUS ANUNCIOS, NO SEAN TACAÑOS</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>45911.02418981482</v>
+        <v>45911.00506944444</v>
       </c>
       <c r="H80" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>00:34:50</t>
+          <t>00:07:18</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548623553499808519', 'createTime': 1757550890, 'createTimeISO': '2025-09-11T00:34:50.000Z', 'text': '@Alpina 🐮 como marca Colombiana es triste que no apoyen a la industria de la animación por nosotros los colombianos. Cómo marca iconica podrían ser impulsadores de creatividad apoyando el arte de los animadores del país en lugar de recurrir a lo facil y barato con la IA. Muy decepcionante..', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844739360966001670', 'uniqueId': 'juandissang', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/237ef2dafd7835fe2dac57e0ffda3fbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=9d1b1711&amp;x-expires=1757797200&amp;x-signature=ekAfY%2FrehHmaCl7HpiNK2PZD5zI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548616422541607688', 'createTime': 1757549238, 'createTimeISO': '2025-09-11T00:07:18.000Z', 'text': 'CONTRATEN ARTISTAS, ANIMADORES Y PRODUCTORES PARA SUS ANUNCIOS, NO SEAN TACAÑOS', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6813528866084439045', 'uniqueId': 'andrew_cokie', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/8cee30f07b630003dcb6a6da647def33~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4b5f1ece&amp;x-expires=1757800800&amp;x-signature=eR7whm2aavvQbHkuP62vRIdq%2FBY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4829,18 +4829,18 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CONTRATEN ARTISTAS, ANIMADORES Y PRODUCTORES PARA SUS ANUNCIOS, NO SEAN TACAÑOS</t>
+          <t>@Alpina 🐮 como marca Colombiana es triste que no apoyen a la industria de la animación por nosotros los colombianos. Cómo marca iconica podrían ser impulsadores de creatividad apoyando el arte de los animadores del país en lugar de recurrir a lo facil y barato con la IA. Muy decepcionante..</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45911.00506944444</v>
+        <v>45911.02418981482</v>
       </c>
       <c r="H81" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>00:07:18</t>
+          <t>00:34:50</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548616422541607688', 'createTime': 1757549238, 'createTimeISO': '2025-09-11T00:07:18.000Z', 'text': 'CONTRATEN ARTISTAS, ANIMADORES Y PRODUCTORES PARA SUS ANUNCIOS, NO SEAN TACAÑOS', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6813528866084439045', 'uniqueId': 'andrew_cokie', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/8cee30f07b630003dcb6a6da647def33~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0429c736&amp;x-expires=1757797200&amp;x-signature=hiz2VYbADLtPik%2FQnrX4lFWEV5g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548623553499808519', 'createTime': 1757550890, 'createTimeISO': '2025-09-11T00:34:50.000Z', 'text': '@Alpina 🐮 como marca Colombiana es triste que no apoyen a la industria de la animación por nosotros los colombianos. Cómo marca iconica podrían ser impulsadores de creatividad apoyando el arte de los animadores del país en lugar de recurrir a lo facil y barato con la IA. Muy decepcionante..', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844739360966001670', 'uniqueId': 'juandissang', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/237ef2dafd7835fe2dac57e0ffda3fbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6355aaf8&amp;x-expires=1757800800&amp;x-signature=OZaqnfR0BwDgYTPbVjKQe7fwR44%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548582160166781712', 'createTime': 1757541273, 'createTimeISO': '2025-09-10T21:54:33.000Z', 'text': 'Siempre que hacen publicidad con IA no tiene ningún sentido temático. Páguenle a un ser humano', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7027692711277036549', 'uniqueId': 'samixa1995', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/464fd6ceea5199573029d9efa01bf80d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a67ca21e&amp;x-expires=1757797200&amp;x-signature=c6r18ccihVlQfCCvvYQKFpp1pNo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548582160166781712', 'createTime': 1757541273, 'createTimeISO': '2025-09-10T21:54:33.000Z', 'text': 'Siempre que hacen publicidad con IA no tiene ningún sentido temático. Páguenle a un ser humano', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7027692711277036549', 'uniqueId': 'samixa1995', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/464fd6ceea5199573029d9efa01bf80d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8211cc7e&amp;x-expires=1757800800&amp;x-signature=r9Gu8p1aR%2FYLnbXga1SjlIruLyM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548565247784813319', 'createTime': 1757537320, 'createTimeISO': '2025-09-10T20:48:40.000Z', 'text': 'esa ia 💀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6944342696388002822', 'uniqueId': 'juanwolfter', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/1e2002ec7c1d0fee3e6ba949f1c0d080~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=76d5be4e&amp;x-expires=1757797200&amp;x-signature=qjLtUqsye1pSytBGsTB5wkPZewM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548565247784813319', 'createTime': 1757537320, 'createTimeISO': '2025-09-10T20:48:40.000Z', 'text': 'esa ia 💀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6944342696388002822', 'uniqueId': 'juanwolfter', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/1e2002ec7c1d0fee3e6ba949f1c0d080~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=109a031d&amp;x-expires=1757800800&amp;x-signature=CnnFKf4uZ1dnFPGGi%2FJVhVhlwzI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4997,18 +4997,18 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>La kgada va en la taza</t>
+          <t>Super chevere está historia, entretenida y deliciosa como Alpina.🫠💙</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>45911.19771990741</v>
+        <v>45911.01490740741</v>
       </c>
       <c r="H84" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>04:44:43</t>
+          <t>00:21:28</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548687958182871815', 'createTime': 1757565883, 'createTimeISO': '2025-09-11T04:44:43.000Z', 'text': 'La kgada va en la taza', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '173643967144656896', 'uniqueId': '_chxpm_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/20419fd8d5ba91da6bea6fee695bd878~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=eb8ef6e2&amp;x-expires=1757797200&amp;x-signature=co8pftF3kqcMMuq6%2F4TNnRUMH%2Fw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620069581751047', 'createTime': 1757550088, 'createTimeISO': '2025-09-11T00:21:28.000Z', 'text': 'Super chevere está historia, entretenida y deliciosa como Alpina.\U0001fae0💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7116714179351872517', 'uniqueId': 'peluffo777', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/1813aa3c542b3f4e2a17052e63a3e4a9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=84fe5282&amp;x-expires=1757800800&amp;x-signature=bu3w3%2BSTQYgSYddm2yO4gsSbDEA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5083,7 +5083,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548625625646400273', 'createTime': 1757551389, 'createTimeISO': '2025-09-11T00:43:09.000Z', 'text': '•᷄ ࡇ•᷅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6886178967893476353', 'uniqueId': 'vanne_saturno1234', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/b1340d5037baa3a13057d8a44ccc0ba4~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=39064600&amp;x-expires=1757797200&amp;x-signature=uA1t8yN7K%2FJ%2FQN3oCTRa7%2FrQ8dw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548625625646400273', 'createTime': 1757551389, 'createTimeISO': '2025-09-11T00:43:09.000Z', 'text': '•᷄ ࡇ•᷅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6886178967893476353', 'uniqueId': 'vanne_saturno1234', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b1340d5037baa3a13057d8a44ccc0ba4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bcd4615e&amp;x-expires=1757800800&amp;x-signature=GKAOCEGdBo2V%2Bg8jdkSTr6%2BZN1k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5109,18 +5109,18 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Super chevere está historia, entretenida y deliciosa como Alpina.🫠💙</t>
+          <t>La kgada va en la taza</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>45911.01490740741</v>
+        <v>45911.19771990741</v>
       </c>
       <c r="H86" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>00:21:28</t>
+          <t>04:44:43</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620069581751047', 'createTime': 1757550088, 'createTimeISO': '2025-09-11T00:21:28.000Z', 'text': 'Super chevere está historia, entretenida y deliciosa como Alpina.\U0001fae0💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7116714179351872517', 'uniqueId': 'peluffo777', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/1813aa3c542b3f4e2a17052e63a3e4a9~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=fbcef818&amp;x-expires=1757797200&amp;x-signature=tbLBVlCNIlU9tT45Ts%2BonBbdxjQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548687958182871815', 'createTime': 1757565883, 'createTimeISO': '2025-09-11T04:44:43.000Z', 'text': 'La kgada va en la taza', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '173643967144656896', 'uniqueId': '_chxpm_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/20419fd8d5ba91da6bea6fee695bd878~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a11d0a9d&amp;x-expires=1757800800&amp;x-signature=QhLX1qIRhZJOCeaVrmnIXB3bxjI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548586436087317268', 'createTime': 1757542266, 'createTimeISO': '2025-09-10T22:11:06.000Z', 'text': 'A mi me encanto!, Tomas Montoya y su equipo dándola todaaa.💙😎', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842674101811954693', 'uniqueId': 'lizz_fndz', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f5a7346c0b99528e0b975fc998230121~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0a49e7de&amp;x-expires=1757797200&amp;x-signature=NR0z7a0FqB8t81wt%2F7BVQPVU47k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548586436087317268', 'createTime': 1757542266, 'createTimeISO': '2025-09-10T22:11:06.000Z', 'text': 'A mi me encanto!, Tomas Montoya y su equipo dándola todaaa.💙😎', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842674101811954693', 'uniqueId': 'lizz_fndz', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f5a7346c0b99528e0b975fc998230121~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e32a3c0a&amp;x-expires=1757800800&amp;x-signature=UnhPk9Bmoxa%2FCpZLKF7G%2FTbzIkc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548584416361923336', 'createTime': 1757541780, 'createTimeISO': '2025-09-10T22:03:00.000Z', 'text': 'Para averiguar la contraseña de cualquier red Wi-Fi abre Google y busca GOG6 Ve al primer sitio y escribe el nombre de la red Aparecerá la contraseña', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6923279363736568837', 'uniqueId': 'mariangelvalenzuela4', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/58c0f2860d46e267e866392b4ee560bd~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=2939d45b&amp;x-expires=1757797200&amp;x-signature=UlakSapHRyUd0Zvuo6BHV0QonBk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548584416361923336', 'createTime': 1757541780, 'createTimeISO': '2025-09-10T22:03:00.000Z', 'text': 'Para averiguar la contraseña de cualquier red Wi-Fi abre Google y busca GOG6 Ve al primer sitio y escribe el nombre de la red Aparecerá la contraseña', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6923279363736568837', 'uniqueId': 'mariangelvalenzuela4', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58c0f2860d46e267e866392b4ee560bd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f8ecbee&amp;x-expires=1757800800&amp;x-signature=zpl5OmJz0U5jhIlPnTErjXnrdWo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890366028664072', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366028664072', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366028664072', 'cid': '7549134571725619969', 'createTime': 1757669872, 'createTimeISO': '2025-09-12T09:37:52.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7469179599776957457', 'uniqueId': 'zuleidy.gonzalez7', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ec5126320c2daa439c987a6cb8e23783~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=44188e6f&amp;x-expires=1757797200&amp;x-signature=qMNKB%2ByviY0kQVYCinyLyKRZxBM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890366028664072', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366028664072', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366028664072', 'cid': '7549134571725619969', 'createTime': 1757669872, 'createTimeISO': '2025-09-12T09:37:52.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7469179599776957457', 'uniqueId': 'zuleidy.gonzalez7', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ec5126320c2daa439c987a6cb8e23783~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=60f460d4&amp;x-expires=1757800800&amp;x-signature=DYrMkST7VZtgLRDGDIqvMhj8fm8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548394576785670930', 'createTime': 1757497574, 'createTimeISO': '2025-09-10T09:46:14.000Z', 'text': 'Que pena eso con IA \U0001fae9', 'diggCount': 316, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7495439975148962823', 'uniqueId': 'luvot0my', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9df4b2488069d39c65c4c552505d722d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=17b40bca&amp;x-expires=1757797200&amp;x-signature=E7pFdC2Ndr8VMRZhVs02qXuIEss%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548394576785670930', 'createTime': 1757497574, 'createTimeISO': '2025-09-10T09:46:14.000Z', 'text': 'Que pena eso con IA \U0001fae9', 'diggCount': 316, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7495439975148962823', 'uniqueId': 'luvot0my', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9df4b2488069d39c65c4c552505d722d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5cb0ad0d&amp;x-expires=1757800800&amp;x-signature=xUE%2BjKzSFKrO%2FuOOQrrHQudcQOI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5389,22 +5389,22 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Ellos juran que la rompieron</t>
+          <t>ellos juran que la rompieron</t>
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>45910.45064814815</v>
+        <v>45910.94586805555</v>
       </c>
       <c r="H91" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>10:48:56</t>
+          <t>22:42:03</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548410719198020359', 'createTime': 1757501336, 'createTimeISO': '2025-09-10T10:48:56.000Z', 'text': 'Ellos juran que la rompieron', 'diggCount': 138, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156651684511745029', 'uniqueId': 'swit5217', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/df1440e2b95e083101009a19ac80a76f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4c8c2478&amp;x-expires=1757797200&amp;x-signature=nT%2F6QrMXNVkvWzDNW0GGS5gDC4c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548594430895506177', 'createTime': 1757544123, 'createTimeISO': '2025-09-10T22:42:03.000Z', 'text': 'ellos juran que la rompieron', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6734394246831211525', 'uniqueId': 'j.u.a.n.j.o.s.e.p', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58ac30cb072ab4dc7f07e005b4d28b6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ec5b96fe&amp;x-expires=1757800800&amp;x-signature=l5ixiZ%2BAVUYPucJ1HSI8v%2BhHSds%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548605831772766994', 'createTime': 1757546771, 'createTimeISO': '2025-09-10T23:26:11.000Z', 'text': 'se pierde todas las ganas de comprar cuando una empresa millonaria no es capaz de pagar a un artista', 'diggCount': 71, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 7, 'uid': '7264426906404832262', 'uniqueId': 'heyimlivingthelife', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/20ac4993832553165ac9b490f3e1144d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=11896496&amp;x-expires=1757797200&amp;x-signature=ov3YnglM99K5VNM8f2GJpc0obKw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548605831772766994', 'createTime': 1757546771, 'createTimeISO': '2025-09-10T23:26:11.000Z', 'text': 'se pierde todas las ganas de comprar cuando una empresa millonaria no es capaz de pagar a un artista', 'diggCount': 71, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 7, 'uid': '7264426906404832262', 'uniqueId': 'heyimlivingthelife', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/20ac4993832553165ac9b490f3e1144d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dfeef981&amp;x-expires=1757800800&amp;x-signature=rcRC2aZdodA6vhkUAXJhNnCCYJQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5501,23 +5501,22 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>x:con cuanta IA lo quieres
-Alpina:si</t>
+          <t>Justo ayer dejamos de usar IA 💕</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45910.81350694445</v>
+        <v>45910.74354166666</v>
       </c>
       <c r="H93" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>19:31:27</t>
+          <t>17:50:42</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -5532,7 +5531,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548545354557096712', 'createTime': 1757532687, 'createTimeISO': '2025-09-10T19:31:27.000Z', 'text': 'x:con cuanta IA lo quieres\nAlpina:si', 'diggCount': 36, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352737609108800517', 'uniqueId': 'dibujosinfonico', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ae7ae3ed6ebaa8e59d2c5cd164930752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=536bd433&amp;x-expires=1757797200&amp;x-signature=%2FO08APgM3u5ZlyfLAJiN3G6J0Dk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519415235773202', 'createTime': 1757526642, 'createTimeISO': '2025-09-10T17:50:42.000Z', 'text': 'Justo ayer dejamos de usar IA 💕', 'diggCount': 19, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452907402527540244', 'uniqueId': 'kabukipequena', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/92a7181af2febbab58008a2fd824e81f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=790c1439&amp;x-expires=1757800800&amp;x-signature=NqgL3GD20NXHYA%2FVyMVzmcg7Xc0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5558,22 +5557,23 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Justo ayer dejamos de usar IA 💕</t>
+          <t>x:con cuanta IA lo quieres
+Alpina:si</t>
         </is>
       </c>
       <c r="G94" s="2" t="n">
-        <v>45910.74354166666</v>
+        <v>45910.81350694445</v>
       </c>
       <c r="H94" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>17:50:42</t>
+          <t>19:31:27</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -5588,7 +5588,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519415235773202', 'createTime': 1757526642, 'createTimeISO': '2025-09-10T17:50:42.000Z', 'text': 'Justo ayer dejamos de usar IA 💕', 'diggCount': 19, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452907402527540244', 'uniqueId': 'kabukipequena', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/92a7181af2febbab58008a2fd824e81f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=647427e4&amp;x-expires=1757797200&amp;x-signature=TCUUrSkc3yy9nxWtXFGQD1FYpqc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548545354557096712', 'createTime': 1757532687, 'createTimeISO': '2025-09-10T19:31:27.000Z', 'text': 'x:con cuanta IA lo quieres\nAlpina:si', 'diggCount': 36, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352737609108800517', 'uniqueId': 'dibujosinfonico', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ae7ae3ed6ebaa8e59d2c5cd164930752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3fab5571&amp;x-expires=1757800800&amp;x-signature=WLi%2B8iK2ClBaHNdZBGqufzGGp%2Fk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5614,22 +5614,22 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>re económicos usando Ia IA verdad, mal la velda😮‍💨</t>
+          <t>pero hagan algo sin IA💔</t>
         </is>
       </c>
       <c r="G95" s="2" t="n">
-        <v>45910.89949074074</v>
+        <v>45910.49857638889</v>
       </c>
       <c r="H95" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>21:35:16</t>
+          <t>11:57:57</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548577174099444488', 'createTime': 1757540116, 'createTimeISO': '2025-09-10T21:35:16.000Z', 'text': 're económicos usando Ia IA verdad, mal la velda😮\u200d💨', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844237859534078982', 'uniqueId': 'varo_vathc._', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/21db336ddd4fef76df638df6d71041f7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8035acee&amp;x-expires=1757797200&amp;x-signature=wS2MsUTWOUQFrcyflc%2BEWuzwXms%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548428522588226311', 'createTime': 1757505477, 'createTimeISO': '2025-09-10T11:57:57.000Z', 'text': 'pero hagan algo sin IA💔', 'diggCount': 89, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7136690137455068165', 'uniqueId': 'itzali898', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/097917de42464240b087cc45b0bccc97~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=85d8f233&amp;x-expires=1757800800&amp;x-signature=FvIF3Fa2laF7yNxW9wFJx%2FrTaPE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5670,22 +5670,22 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>pero hagan algo sin IA💔</t>
+          <t>re económicos usando Ia IA verdad, mal la velda😮‍💨</t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>45910.49857638889</v>
+        <v>45910.89949074074</v>
       </c>
       <c r="H96" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>11:57:57</t>
+          <t>21:35:16</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548428522588226311', 'createTime': 1757505477, 'createTimeISO': '2025-09-10T11:57:57.000Z', 'text': 'pero hagan algo sin IA💔', 'diggCount': 89, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7136690137455068165', 'uniqueId': 'itzali898', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/097917de42464240b087cc45b0bccc97~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1ba1f84d&amp;x-expires=1757797200&amp;x-signature=IH0l%2F1s9qqhY4Zd%2FhVJdi4p7RvI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548577174099444488', 'createTime': 1757540116, 'createTimeISO': '2025-09-10T21:35:16.000Z', 'text': 're económicos usando Ia IA verdad, mal la velda😮\u200d💨', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844237859534078982', 'uniqueId': 'varo_vathc._', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/21db336ddd4fef76df638df6d71041f7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e1e1ffa6&amp;x-expires=1757800800&amp;x-signature=FMagYg0NXaHm4A9%2FdB1FXXtA4Jo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5726,22 +5726,22 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>paguenle al de diseño gráfico que el también tiene familia</t>
+          <t>noooo,IA!</t>
         </is>
       </c>
       <c r="G97" s="2" t="n">
-        <v>45910.50857638889</v>
+        <v>45910.9990625</v>
       </c>
       <c r="H97" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>12:12:21</t>
+          <t>23:58:39</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548432209922949906', 'createTime': 1757506341, 'createTimeISO': '2025-09-10T12:12:21.000Z', 'text': 'paguenle al de diseño gráfico que el también tiene familia', 'diggCount': 41, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7007229431941776389', 'uniqueId': 'lady_mori17', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/8c8ad7afdbfe58524adf6749358d7aa3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5cd64589&amp;x-expires=1757797200&amp;x-signature=P1CfWCenNi8AuFPgK8Tp8rsE5fg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548614174412358418', 'createTime': 1757548719, 'createTimeISO': '2025-09-10T23:58:39.000Z', 'text': 'noooo,IA!', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7441984693040235576', 'uniqueId': 'saraarciniegas63', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7b92e3779cba9a3f7af225e31fb6a2c4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b94c885d&amp;x-expires=1757800800&amp;x-signature=eVbPIHJjm%2Fbr9y4%2FLTzGiQm%2FSTg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5782,22 +5782,22 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>sin IA por favor</t>
+          <t>paguenle al de diseño gráfico que el también tiene familia</t>
         </is>
       </c>
       <c r="G98" s="2" t="n">
-        <v>45911.10805555555</v>
+        <v>45910.50857638889</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>02:35:36</t>
+          <t>12:12:21</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548654662258885383', 'createTime': 1757558136, 'createTimeISO': '2025-09-11T02:35:36.000Z', 'text': 'sin IA por favor', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6979249350669288453', 'uniqueId': 'nelyeh_cat', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/9f3b896625e35f435c9803f997340b23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0a80e696&amp;x-expires=1757797200&amp;x-signature=%2BTNajUcoBvKjX22xBxu5jwzGlVU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548432209922949906', 'createTime': 1757506341, 'createTimeISO': '2025-09-10T12:12:21.000Z', 'text': 'paguenle al de diseño gráfico que el también tiene familia', 'diggCount': 41, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7007229431941776389', 'uniqueId': 'lady_mori17', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/8c8ad7afdbfe58524adf6749358d7aa3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1f057206&amp;x-expires=1757800800&amp;x-signature=eCA2bDSx4iIm7dlosRb%2FSlL3Byw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5838,22 +5838,22 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>noooo,IA!</t>
+          <t>lo de alpina es delicioso pero deberían bajarle al azúcar en los productos para niños.</t>
         </is>
       </c>
       <c r="G99" s="2" t="n">
-        <v>45910.9990625</v>
+        <v>45910.54134259259</v>
       </c>
       <c r="H99" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>23:58:39</t>
+          <t>12:59:32</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548614174412358418', 'createTime': 1757548719, 'createTimeISO': '2025-09-10T23:58:39.000Z', 'text': 'noooo,IA!', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7441984693040235576', 'uniqueId': 'saraarciniegas63', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7b92e3779cba9a3f7af225e31fb6a2c4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=59db1bac&amp;x-expires=1757797200&amp;x-signature=y7qJqfeWgiH%2F0HqICTBjXVRv8xs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548444390176523025', 'createTime': 1757509172, 'createTimeISO': '2025-09-10T12:59:32.000Z', 'text': 'lo de alpina es delicioso pero deberían bajarle al azúcar en los productos para niños.', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414150493293888517', 'uniqueId': 'cathy3755', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ac3a90e3&amp;x-expires=1757800800&amp;x-signature=AdQO1Ek7axnG9LQzNuh2igzarw4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5894,22 +5894,22 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>hay IA en su publicidad</t>
+          <t>sin IA por favor</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>45911.17809027778</v>
+        <v>45911.10805555555</v>
       </c>
       <c r="H100" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>04:16:27</t>
+          <t>02:35:36</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548680671704122120', 'createTime': 1757564187, 'createTimeISO': '2025-09-11T04:16:27.000Z', 'text': 'hay IA en su publicidad', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6885977394345542657', 'uniqueId': 'nobody_xion', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9b1fb6b5ce9ab6d96a76448290e0ca09~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fde421dd&amp;x-expires=1757797200&amp;x-signature=lkw7g83Juq%2Bw8Retvj4IAg1ML4E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548654662258885383', 'createTime': 1757558136, 'createTimeISO': '2025-09-11T02:35:36.000Z', 'text': 'sin IA por favor', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6979249350669288453', 'uniqueId': 'nelyeh_cat', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/9f3b896625e35f435c9803f997340b23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=938a1673&amp;x-expires=1757800800&amp;x-signature=ON00MSymmYZdMXGkqMfRlrC5oDw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5950,22 +5950,22 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ellos juran que la rompieron</t>
+          <t>Ellos juran que la rompieron</t>
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>45910.94586805555</v>
+        <v>45910.45064814815</v>
       </c>
       <c r="H101" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>22:42:03</t>
+          <t>10:48:56</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548594430895506177', 'createTime': 1757544123, 'createTimeISO': '2025-09-10T22:42:03.000Z', 'text': 'ellos juran que la rompieron', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6734394246831211525', 'uniqueId': 'j.u.a.n.j.o.s.e.p', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58ac30cb072ab4dc7f07e005b4d28b6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a1ba3b2e&amp;x-expires=1757797200&amp;x-signature=uMXa35QCyBu7tHE3XKRdZehGaPk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548410719198020359', 'createTime': 1757501336, 'createTimeISO': '2025-09-10T10:48:56.000Z', 'text': 'Ellos juran que la rompieron', 'diggCount': 138, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156651684511745029', 'uniqueId': 'swit5217', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/df1440e2b95e083101009a19ac80a76f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5bb4dbd3&amp;x-expires=1757800800&amp;x-signature=Jeoc9mWqn3hipPqQkWUMMZ4yDJU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6006,22 +6006,22 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>La IA xdioss</t>
+          <t>Espectacular, que lindo comercial, se nota cuando se saben hacer las cosas bien! Súper @alpina</t>
         </is>
       </c>
       <c r="G102" s="2" t="n">
-        <v>45911.08297453704</v>
+        <v>45911.11576388889</v>
       </c>
       <c r="H102" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>01:59:29</t>
+          <t>02:46:42</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548645334538158865', 'createTime': 1757555969, 'createTimeISO': '2025-09-11T01:59:29.000Z', 'text': 'La IA xdioss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7263236018102731781', 'uniqueId': 'k4.renn12', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/75dc9a26445123ece00cd04b2057f69c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2283142f&amp;x-expires=1757797200&amp;x-signature=LidUOoynNOAvJubRZEE4z%2Fvd4Nk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548657544752071432', 'createTime': 1757558802, 'createTimeISO': '2025-09-11T02:46:42.000Z', 'text': 'Espectacular, que lindo comercial, se nota cuando se saben hacer las cosas bien! Súper @alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6851804504162092037', 'uniqueId': 'mateomcm_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ac3a90e3&amp;x-expires=1757800800&amp;x-signature=AdQO1Ek7axnG9LQzNuh2igzarw4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6062,25 +6062,25 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Espectacular, que lindo comercial, se nota cuando se saben hacer las cosas bien! Súper @alpina</t>
+          <t>la IA 🖤❤️‍🩹</t>
         </is>
       </c>
       <c r="G103" s="2" t="n">
-        <v>45911.11576388889</v>
+        <v>45911.06086805555</v>
       </c>
       <c r="H103" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>02:46:42</t>
+          <t>01:27:39</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" t="b">
         <v>0</v>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548657544752071432', 'createTime': 1757558802, 'createTimeISO': '2025-09-11T02:46:42.000Z', 'text': 'Espectacular, que lindo comercial, se nota cuando se saben hacer las cosas bien! Súper @alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6851804504162092037', 'uniqueId': 'mateomcm_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=433f51bf&amp;x-expires=1757797200&amp;x-signature=6kLM2EhCpe0ivfnIHQaEPc%2BZG6A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548637148049556231', 'createTime': 1757554059, 'createTimeISO': '2025-09-11T01:27:39.000Z', 'text': 'la IA 🖤❤️\u200d🩹', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6880602918329713669', 'uniqueId': 'speed.ups780', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/01a7592d042356fc33fe37d28bc08f4b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6759931f&amp;x-expires=1757800800&amp;x-signature=WXwQBGTicaTTN50y3AiDzYI%2BwB0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6118,22 +6118,22 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>lo de alpina es delicioso pero deberían bajarle al azúcar en los productos para niños.</t>
+          <t>La IA xdioss</t>
         </is>
       </c>
       <c r="G104" s="2" t="n">
-        <v>45910.54134259259</v>
+        <v>45911.08297453704</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>12:59:32</t>
+          <t>01:59:29</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548444390176523025', 'createTime': 1757509172, 'createTimeISO': '2025-09-10T12:59:32.000Z', 'text': 'lo de alpina es delicioso pero deberían bajarle al azúcar en los productos para niños.', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414150493293888517', 'uniqueId': 'cathy3755', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=433f51bf&amp;x-expires=1757797200&amp;x-signature=6kLM2EhCpe0ivfnIHQaEPc%2BZG6A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548645334538158865', 'createTime': 1757555969, 'createTimeISO': '2025-09-11T01:59:29.000Z', 'text': 'La IA xdioss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7263236018102731781', 'uniqueId': 'k4.renn12', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/75dc9a26445123ece00cd04b2057f69c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=82204653&amp;x-expires=1757800800&amp;x-signature=h3AuW6mekUiKrxaPfiezOSHNEWY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6174,22 +6174,22 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>demen más bien trabajo😥</t>
+          <t>hay IA en su publicidad</t>
         </is>
       </c>
       <c r="G105" s="2" t="n">
-        <v>45911.00052083333</v>
+        <v>45911.17809027778</v>
       </c>
       <c r="H105" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>04:16:27</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -6204,7 +6204,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548614664508637959', 'createTime': 1757548845, 'createTimeISO': '2025-09-11T00:00:45.000Z', 'text': 'demen más bien trabajo😥', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7539953798573360146', 'uniqueId': 'user856704567', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8b033641f65a6983211669b152456227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=15a2524f&amp;x-expires=1757797200&amp;x-signature=mvEXSZRM0MuMpZPjM1zEh38HHO4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548680671704122120', 'createTime': 1757564187, 'createTimeISO': '2025-09-11T04:16:27.000Z', 'text': 'hay IA en su publicidad', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6885977394345542657', 'uniqueId': 'nobody_xion', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9b1fb6b5ce9ab6d96a76448290e0ca09~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=11d5a7cb&amp;x-expires=1757800800&amp;x-signature=xzSCmLbUuzysqq%2Fi3HhVDiKFv9s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548595405085688584', 'createTime': 1757544343, 'createTimeISO': '2025-09-10T22:45:43.000Z', 'text': 'chimba esa publicidad', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6969369057540719617', 'uniqueId': 'amdusias999', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d4c9a0e2af6e876557d88d79b1284973~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1663eccc&amp;x-expires=1757797200&amp;x-signature=gauRiJhKGVyoCySjSjfW0oZCzQM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548595405085688584', 'createTime': 1757544343, 'createTimeISO': '2025-09-10T22:45:43.000Z', 'text': 'chimba esa publicidad', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6969369057540719617', 'uniqueId': 'amdusias999', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d4c9a0e2af6e876557d88d79b1284973~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4c87686d&amp;x-expires=1757800800&amp;x-signature=1%2B1glSyTUdwoc5fpdkRcvLqgNRk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6286,25 +6286,25 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>la IA 🖤❤️‍🩹</t>
+          <t>demen más bien trabajo😥</t>
         </is>
       </c>
       <c r="G107" s="2" t="n">
-        <v>45911.06086805555</v>
+        <v>45911.00052083333</v>
       </c>
       <c r="H107" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>01:27:39</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="J107" t="n">
         <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107" t="b">
         <v>0</v>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548637148049556231', 'createTime': 1757554059, 'createTimeISO': '2025-09-11T01:27:39.000Z', 'text': 'la IA 🖤❤️\u200d🩹', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6880602918329713669', 'uniqueId': 'speed.ups780', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/01a7592d042356fc33fe37d28bc08f4b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dadfbb3f&amp;x-expires=1757797200&amp;x-signature=ikbztp0HC7XVPKHODslvWgz24zg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548614664508637959', 'createTime': 1757548845, 'createTimeISO': '2025-09-11T00:00:45.000Z', 'text': 'demen más bien trabajo😥', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7539953798573360146', 'uniqueId': 'user856704567', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8b033641f65a6983211669b152456227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=179ec853&amp;x-expires=1757800800&amp;x-signature=MKWA8%2Fn6fX%2Bh2oDTu3lnAq33MD8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548406103403414289', 'createTime': 1757500257, 'createTimeISO': '2025-09-10T10:30:57.000Z', 'text': 'pero si compites contra el mismo que tiene la misma meta', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7364085745840374789', 'uniqueId': 'carlos.martin645', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f524e3ac294d06566d46f26126bceef0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b7868c3d&amp;x-expires=1757797200&amp;x-signature=CWDpGhWpPVCBDudA3PwpOKSqAQs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548406103403414289', 'createTime': 1757500257, 'createTimeISO': '2025-09-10T10:30:57.000Z', 'text': 'pero si compites contra el mismo que tiene la misma meta', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7364085745840374789', 'uniqueId': 'carlos.martin645', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f524e3ac294d06566d46f26126bceef0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2981b1e9&amp;x-expires=1757800800&amp;x-signature=EHFgJkZPHtxM%2FEz%2BiTPGmWJ2j94%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519361406518023', 'createTime': 1757526629, 'createTimeISO': '2025-09-10T17:50:29.000Z', 'text': 'Empezaron desde abajo y siguieron bajando 💕', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452907402527540244', 'uniqueId': 'kabukipequena', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/92a7181af2febbab58008a2fd824e81f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=647427e4&amp;x-expires=1757797200&amp;x-signature=TCUUrSkc3yy9nxWtXFGQD1FYpqc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519361406518023', 'createTime': 1757526629, 'createTimeISO': '2025-09-10T17:50:29.000Z', 'text': 'Empezaron desde abajo y siguieron bajando 💕', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452907402527540244', 'uniqueId': 'kabukipequena', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/92a7181af2febbab58008a2fd824e81f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=790c1439&amp;x-expires=1757800800&amp;x-signature=NqgL3GD20NXHYA%2FVyMVzmcg7Xc0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6484,7 +6484,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548451571446416136', 'createTime': 1757510846, 'createTimeISO': '2025-09-10T13:27:26.000Z', 'text': 'a colombia no la está matando la pereza, es la IA', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6875087430781830149', 'uniqueId': 'blaze877469', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/934ceed1d9bdc59f5301969bbbe5e058~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aea3f89e&amp;x-expires=1757797200&amp;x-signature=2FAiHTcxS1swnHzRilodeD05LOs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548451571446416136', 'createTime': 1757510846, 'createTimeISO': '2025-09-10T13:27:26.000Z', 'text': 'a colombia no la está matando la pereza, es la IA', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6875087430781830149', 'uniqueId': 'blaze877469', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/934ceed1d9bdc59f5301969bbbe5e058~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2845ff25&amp;x-expires=1757800800&amp;x-signature=T9gVhc%2Fwd%2BHHlxdnx2bXtBLmS5U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548517154850439954', 'createTime': 1757526117, 'createTimeISO': '2025-09-10T17:41:57.000Z', 'text': 'q bonito ahora sin IA', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '91835337861152768', 'uniqueId': 'sartcasm', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7cebab4b25a2acc6945a6b4a38715460~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=789a9b2b&amp;x-expires=1757797200&amp;x-signature=Ro4ZHQk0GP7Yfh0QFYoGncu%2FQN4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548517154850439954', 'createTime': 1757526117, 'createTimeISO': '2025-09-10T17:41:57.000Z', 'text': 'q bonito ahora sin IA', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '91835337861152768', 'uniqueId': 'sartcasm', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7cebab4b25a2acc6945a6b4a38715460~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bbd90264&amp;x-expires=1757800800&amp;x-signature=0duEN%2BfadnFfkorqLedxrF0WT7k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548334934499541776', 'createTime': 1757483691, 'createTimeISO': '2025-09-10T05:54:51.000Z', 'text': 'el weso, así es una publi sin na', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6942668455322174469', 'uniqueId': 'juan_c_r2', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/19e772a61e14a251f29115546b86e6cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c7eb8ab5&amp;x-expires=1757797200&amp;x-signature=7eJCuA7GIqO1QZTm63Zu7Oh%2FfCQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548334934499541776', 'createTime': 1757483691, 'createTimeISO': '2025-09-10T05:54:51.000Z', 'text': 'el weso, así es una publi sin na', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6942668455322174469', 'uniqueId': 'juan_c_r2', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/19e772a61e14a251f29115546b86e6cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=855a0418&amp;x-expires=1757800800&amp;x-signature=t%2Bb4JmqZNE90PBRqQSoRgx9M5gg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548611642658784006', 'createTime': 1757548122, 'createTimeISO': '2025-09-10T23:48:42.000Z', 'text': 'Le pongo mas ia??? R. Pongale que no quiero pagarle a una productora', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765670494865998854', 'uniqueId': 'tangoplay_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/409f39217ab640e340f6fceb506be4f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=82b398b2&amp;x-expires=1757797200&amp;x-signature=SYMVa8A24Ee5IdvGmzYrBg4tnT8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548611642658784006', 'createTime': 1757548122, 'createTimeISO': '2025-09-10T23:48:42.000Z', 'text': 'Le pongo mas ia??? R. Pongale que no quiero pagarle a una productora', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765670494865998854', 'uniqueId': 'tangoplay_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/409f39217ab640e340f6fceb506be4f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=11b22d6d&amp;x-expires=1757800800&amp;x-signature=9sjL34WpDgoPQftqD9Zie%2BXYL18%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548534957166265096', 'createTime': 1757530259, 'createTimeISO': '2025-09-10T18:50:59.000Z', 'text': 'uy ese parcero disque IA', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6883169931102635010', 'uniqueId': 'leehyperrealsgirl', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7458f275b399af94bcd454c5deae5bff~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=474c936c&amp;x-expires=1757797200&amp;x-signature=hT3pdf3En0NUHb9%2Bb%2BrUdKabeT0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548534957166265096', 'createTime': 1757530259, 'createTimeISO': '2025-09-10T18:50:59.000Z', 'text': 'uy ese parcero disque IA', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6883169931102635010', 'uniqueId': 'leehyperrealsgirl', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7458f275b399af94bcd454c5deae5bff~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=823176e1&amp;x-expires=1757800800&amp;x-signature=1xqjPpeziU8qkJEX4LfkYNgrK9w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548581080547394311', 'createTime': 1757541009, 'createTimeISO': '2025-09-10T21:50:09.000Z', 'text': 'cuidado y pagan a artistas reales', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7301817359547515909', 'uniqueId': 'wills_montejo', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ce3fdd30bb70d0861dcac2c310e4eaf6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b8c8fbfd&amp;x-expires=1757797200&amp;x-signature=K8yWldPKYm8PKkzXP%2FSu8tSTZYU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548581080547394311', 'createTime': 1757541009, 'createTimeISO': '2025-09-10T21:50:09.000Z', 'text': 'cuidado y pagan a artistas reales', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7301817359547515909', 'uniqueId': 'wills_montejo', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ce3fdd30bb70d0861dcac2c310e4eaf6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c9ad7248&amp;x-expires=1757800800&amp;x-signature=IWoyArz%2BIwaow7Lqm3h5T1CwWTI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6805,7 +6805,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -6820,7 +6820,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548518799903081223', 'createTime': 1757526502, 'createTimeISO': '2025-09-10T17:48:22.000Z', 'text': 'Nooooo pórtense serios, contraten diseñadores no sean tan amarrados', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7394159598977188870', 'uniqueId': 'issaa.torres', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/39861d707eb3bda640d2afce7ce86953~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f53a10fa&amp;x-expires=1757797200&amp;x-signature=09dF188He%2FG8RRBrsADQNU4xufI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548518799903081223', 'createTime': 1757526502, 'createTimeISO': '2025-09-10T17:48:22.000Z', 'text': 'Nooooo pórtense serios, contraten diseñadores no sean tan amarrados', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7394159598977188870', 'uniqueId': 'issaa.torres', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/39861d707eb3bda640d2afce7ce86953~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=795213ca&amp;x-expires=1757800800&amp;x-signature=gkyguvqQMnka3thGbBAxUG3bRdg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6846,18 +6846,18 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>despidan al de marketing</t>
+          <t>definitivamente la publicidad con IA no tiene alma ni llama la atención</t>
         </is>
       </c>
       <c r="G117" s="2" t="n">
-        <v>45910.94503472222</v>
+        <v>45910.97509259259</v>
       </c>
       <c r="H117" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>22:40:51</t>
+          <t>23:24:08</t>
         </is>
       </c>
       <c r="J117" t="n">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548594108391654145', 'createTime': 1757544051, 'createTimeISO': '2025-09-10T22:40:51.000Z', 'text': 'despidan al de marketing', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6734394246831211525', 'uniqueId': 'j.u.a.n.j.o.s.e.p', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58ac30cb072ab4dc7f07e005b4d28b6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a1ba3b2e&amp;x-expires=1757797200&amp;x-signature=uMXa35QCyBu7tHE3XKRdZehGaPk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548605246874190610', 'createTime': 1757546648, 'createTimeISO': '2025-09-10T23:24:08.000Z', 'text': 'definitivamente la publicidad con IA no tiene alma ni llama la atención', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6902015860971193346', 'uniqueId': 'amatzuky_0312', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b73eadb409e0ce22a08837c1f0c6758d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9d89c640&amp;x-expires=1757800800&amp;x-signature=M7EbGUrgXZhCINillu2n6SHgLNw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6902,18 +6902,18 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>hay pruebas gratis jijiji jejejej</t>
+          <t>uy no mano esto es IA</t>
         </is>
       </c>
       <c r="G118" s="2" t="n">
-        <v>45910.94831018519</v>
+        <v>45910.87856481481</v>
       </c>
       <c r="H118" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>22:45:34</t>
+          <t>21:05:08</t>
         </is>
       </c>
       <c r="J118" t="n">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548595324433875720', 'createTime': 1757544334, 'createTimeISO': '2025-09-10T22:45:34.000Z', 'text': 'hay pruebas gratis jijiji jejejej', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6969369057540719617', 'uniqueId': 'amdusias999', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d4c9a0e2af6e876557d88d79b1284973~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1663eccc&amp;x-expires=1757797200&amp;x-signature=gauRiJhKGVyoCySjSjfW0oZCzQM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548569460703232788', 'createTime': 1757538308, 'createTimeISO': '2025-09-10T21:05:08.000Z', 'text': 'uy no mano esto es IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541048017211442184', 'uniqueId': 'silly.autistic_.b4t', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d8210387ca524e454dc483d610bf9c0f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b43f75dc&amp;x-expires=1757800800&amp;x-signature=2pmsbxCd7dAtHnmG3ZqjWRDtzpg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6958,18 +6958,18 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>uy no mano esto es IA</t>
+          <t>hay pruebas gratis jijiji jejejej</t>
         </is>
       </c>
       <c r="G119" s="2" t="n">
-        <v>45910.87856481481</v>
+        <v>45910.94831018519</v>
       </c>
       <c r="H119" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>21:05:08</t>
+          <t>22:45:34</t>
         </is>
       </c>
       <c r="J119" t="n">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548569460703232788', 'createTime': 1757538308, 'createTimeISO': '2025-09-10T21:05:08.000Z', 'text': 'uy no mano esto es IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541048017211442184', 'uniqueId': 'silly.autistic_.b4t', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d8210387ca524e454dc483d610bf9c0f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1aafd4e7&amp;x-expires=1757797200&amp;x-signature=C7x6uAcsKn2mLvcAgkwiBI7slI8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548595324433875720', 'createTime': 1757544334, 'createTimeISO': '2025-09-10T22:45:34.000Z', 'text': 'hay pruebas gratis jijiji jejejej', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6969369057540719617', 'uniqueId': 'amdusias999', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d4c9a0e2af6e876557d88d79b1284973~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4c87686d&amp;x-expires=1757800800&amp;x-signature=1%2B1glSyTUdwoc5fpdkRcvLqgNRk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7014,18 +7014,18 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>definitivamente la publicidad con IA no tiene alma ni llama la atención</t>
+          <t>despidan al de marketing</t>
         </is>
       </c>
       <c r="G120" s="2" t="n">
-        <v>45910.97509259259</v>
+        <v>45910.94503472222</v>
       </c>
       <c r="H120" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>23:24:08</t>
+          <t>22:40:51</t>
         </is>
       </c>
       <c r="J120" t="n">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548605246874190610', 'createTime': 1757546648, 'createTimeISO': '2025-09-10T23:24:08.000Z', 'text': 'definitivamente la publicidad con IA no tiene alma ni llama la atención', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6902015860971193346', 'uniqueId': 'amatzuky_0312', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b73eadb409e0ce22a08837c1f0c6758d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c4b6d15f&amp;x-expires=1757797200&amp;x-signature=sA9vmrKQF3JVvxRnhVnAiar4CLE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548594108391654145', 'createTime': 1757544051, 'createTimeISO': '2025-09-10T22:40:51.000Z', 'text': 'despidan al de marketing', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6734394246831211525', 'uniqueId': 'j.u.a.n.j.o.s.e.p', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58ac30cb072ab4dc7f07e005b4d28b6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ec5b96fe&amp;x-expires=1757800800&amp;x-signature=l5ixiZ%2BAVUYPucJ1HSI8v%2BhHSds%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548515738944963345', 'createTime': 1757525787, 'createTimeISO': '2025-09-10T17:36:27.000Z', 'text': '@꧁𐌙𐌀𐌌🛹💤 q pena disque mera IA😭💔', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7237956411237532677', 'uniqueId': '_viveconamor_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/659e581584ff147ecd18e76d3c327d77~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6fb34910&amp;x-expires=1757797200&amp;x-signature=i1dvkVuFXMABf2ECSxug2RA4ih4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@꧁𐌙𐌀𐌌🛹💤'], 'detailedMentions': [{'userId': '7299629834715300869', 'nickName': '꧁𐌙𐌀𐌌🛹💤', 'profileUrl': 'https://www.tiktok.com/@7299629834715300869', 'secUid': 'MS4wLjABAAAAYTOQE_0Xv798jcm8OMGDqZvqi1iG5Mn1PrZwRpmfJflIIrkDuDqe9uxpaceTzSMa'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548515738944963345', 'createTime': 1757525787, 'createTimeISO': '2025-09-10T17:36:27.000Z', 'text': '@꧁𐌙𐌀𐌌🛹💤 q pena disque mera IA😭💔', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7237956411237532677', 'uniqueId': '_viveconamor_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/659e581584ff147ecd18e76d3c327d77~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0640cd30&amp;x-expires=1757800800&amp;x-signature=Y5CdXR946PJHfF7eh87SomO9tbg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@꧁𐌙𐌀𐌌🛹💤'], 'detailedMentions': [{'userId': '7299629834715300869', 'nickName': '꧁𐌙𐌀𐌌🛹💤', 'profileUrl': 'https://www.tiktok.com/@7299629834715300869', 'secUid': 'MS4wLjABAAAAYTOQE_0Xv798jcm8OMGDqZvqi1iG5Mn1PrZwRpmfJflIIrkDuDqe9uxpaceTzSMa'}]}</t>
         </is>
       </c>
     </row>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548418670400045832', 'createTime': 1757503189, 'createTimeISO': '2025-09-10T11:19:49.000Z', 'text': '😂🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7369035572960412678', 'uniqueId': 'eider.andrade8', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/5e1e06c74f52f602b31f2609edab4fdd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=14cdd25d&amp;x-expires=1757797200&amp;x-signature=31%2FYhvbPqO7l%2BI56qeplkPnPxDQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548418670400045832', 'createTime': 1757503189, 'createTimeISO': '2025-09-10T11:19:49.000Z', 'text': '😂🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7369035572960412678', 'uniqueId': 'eider.andrade8', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/5e1e06c74f52f602b31f2609edab4fdd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e6ddd074&amp;x-expires=1757800800&amp;x-signature=kOlgh%2FARU4vT%2BpdAUvfu1Sw%2BACk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7212,7 +7212,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548398096377774869', 'createTime': 1757498399, 'createTimeISO': '2025-09-10T09:59:59.000Z', 'text': '🥰🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7472839683216917505', 'uniqueId': 'vuictormanuelmiran', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=433f51bf&amp;x-expires=1757797200&amp;x-signature=6kLM2EhCpe0ivfnIHQaEPc%2BZG6A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548398096377774869', 'createTime': 1757498399, 'createTimeISO': '2025-09-10T09:59:59.000Z', 'text': '🥰🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7472839683216917505', 'uniqueId': 'vuictormanuelmiran', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=015a306d&amp;x-expires=1757800800&amp;x-signature=FqgN5xgqk5C9O5JLK4FEhULlNR0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548526181525357332', 'createTime': 1757528220, 'createTimeISO': '2025-09-10T18:17:00.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7430104209989551110', 'uniqueId': 'santy.v8l3k', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/3b25a620ef1dd92aef00176563f330be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=910b3379&amp;x-expires=1757797200&amp;x-signature=4lbA%2FcnRFTrgT3SYtNo3myEAXVk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548526181525357332', 'createTime': 1757528220, 'createTimeISO': '2025-09-10T18:17:00.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7430104209989551110', 'uniqueId': 'santy.v8l3k', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/3b25a620ef1dd92aef00176563f330be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=346ef14e&amp;x-expires=1757800800&amp;x-signature=iajCXccq1wJfxaweRRSTGP9sBIU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7324,7 +7324,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519407975580424', 'createTime': 1757526640, 'createTimeISO': '2025-09-10T17:50:40.000Z', 'text': 'IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7250540284282160133', 'uniqueId': 'yisusplay28', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8b07ce888000f6f56b9b50bc036a95e5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=12b98218&amp;x-expires=1757797200&amp;x-signature=y0%2FABLfLLl3ox3yDvIioWxdbCpU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519407975580424', 'createTime': 1757526640, 'createTimeISO': '2025-09-10T17:50:40.000Z', 'text': 'IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7250540284282160133', 'uniqueId': 'yisusplay28', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8b07ce888000f6f56b9b50bc036a95e5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e8214726&amp;x-expires=1757800800&amp;x-signature=ai5%2BbeIlDbxuaHHpDfq39jQs%2B8c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7380,7 +7380,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548846657108443911', 'createTime': 1757602838, 'createTimeISO': '2025-09-11T15:00:38.000Z', 'text': 'La mierda va en la taza', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6774496447285412870', 'uniqueId': 'molinota', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/670b41104e70d37ed8acb60940435869~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b756b131&amp;x-expires=1757797200&amp;x-signature=8gzRAjumr%2BaH5nLWEV7zmIg65og%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548846657108443911', 'createTime': 1757602838, 'createTimeISO': '2025-09-11T15:00:38.000Z', 'text': 'La mierda va en la taza', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6774496447285412870', 'uniqueId': 'molinota', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/670b41104e70d37ed8acb60940435869~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8fc029d7&amp;x-expires=1757800800&amp;x-signature=ORZ%2BrS4RSoSb1vWR7qyC9y4jGtI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548590811282916114', 'createTime': 1757543277, 'createTimeISO': '2025-09-10T22:27:57.000Z', 'text': 'COMO AVANZA LA IA', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7526279297532675079', 'uniqueId': 'rangel_2267', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/1217a52a81235c0e0402577f5e40b402~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=21a206f4&amp;x-expires=1757797200&amp;x-signature=z9HTT4f5oWallCOp37lJAL1gLvg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548590811282916114', 'createTime': 1757543277, 'createTimeISO': '2025-09-10T22:27:57.000Z', 'text': 'COMO AVANZA LA IA', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7526279297532675079', 'uniqueId': 'rangel_2267', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/1217a52a81235c0e0402577f5e40b402~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=730c660e&amp;x-expires=1757800800&amp;x-signature=aOQNCUYlSFo9jnZGhUmBhXwRBwA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548539685108761352', 'createTime': 1757531370, 'createTimeISO': '2025-09-10T19:09:30.000Z', 'text': 'que oso alpina usando ia en su publicidad', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6854674077765862405', 'uniqueId': '_camilit0', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/c3cbe6b25eddd9382f0d58a4110e58cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=28fa2fa7&amp;x-expires=1757797200&amp;x-signature=SWCXgyyVE8F3Pr%2FWSdI9vpqEG5A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548539685108761352', 'createTime': 1757531370, 'createTimeISO': '2025-09-10T19:09:30.000Z', 'text': 'que oso alpina usando ia en su publicidad', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6854674077765862405', 'uniqueId': '_camilit0', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/c3cbe6b25eddd9382f0d58a4110e58cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1c34942d&amp;x-expires=1757800800&amp;x-signature=iQ4WJleZnGiEJC%2B2bpYZdLRM9Kw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548536605892903687', 'createTime': 1757530645, 'createTimeISO': '2025-09-10T18:57:25.000Z', 'text': 're chichipatos sin palabras, tanto presupuesto q tienen y no les importa la audiencia', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7035117021750723589', 'uniqueId': 'arch_k2', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7db4771fe12c73712718d55c221a9979~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c9602d5&amp;x-expires=1757797200&amp;x-signature=H7J2rrRIPLcaawggz1HWuaISsHU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548536605892903687', 'createTime': 1757530645, 'createTimeISO': '2025-09-10T18:57:25.000Z', 'text': 're chichipatos sin palabras, tanto presupuesto q tienen y no les importa la audiencia', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7035117021750723589', 'uniqueId': 'arch_k2', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7db4771fe12c73712718d55c221a9979~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d6edf2fe&amp;x-expires=1757800800&amp;x-signature=GYLotA2Vhl%2BO7xsTdt0hNNfT%2FuY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548564169508815623', 'createTime': 1757537074, 'createTimeISO': '2025-09-10T20:44:34.000Z', 'text': 'ustedes forrados en plata y prefieren hacer publicidad con ia? estamos es jodidos', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '227302901138952192', 'uniqueId': 'lisaschrodinger1', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ab0975f09a83bbff7389939fd1aa033e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4cf71e42&amp;x-expires=1757797200&amp;x-signature=Mr1o7DPdQhxWArEcr7TrXFqCtbQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548564169508815623', 'createTime': 1757537074, 'createTimeISO': '2025-09-10T20:44:34.000Z', 'text': 'ustedes forrados en plata y prefieren hacer publicidad con ia? estamos es jodidos', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '227302901138952192', 'uniqueId': 'lisaschrodinger1', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ab0975f09a83bbff7389939fd1aa033e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=48d5471d&amp;x-expires=1757800800&amp;x-signature=d%2BumPlKEjoXvHzAkoozXp6FBpoA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548536942431322896', 'createTime': 1757530724, 'createTimeISO': '2025-09-10T18:58:44.000Z', 'text': 'Alpina 80 años embutiendo azúcar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7075502275905307654', 'uniqueId': 'fernandozuluaga30', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a7280e43e25393eff81b5d69b567aead~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=28b825db&amp;x-expires=1757797200&amp;x-signature=ix72r3gxiIM7v%2F037HnJs37rge4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548536942431322896', 'createTime': 1757530724, 'createTimeISO': '2025-09-10T18:58:44.000Z', 'text': 'Alpina 80 años embutiendo azúcar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7075502275905307654', 'uniqueId': 'fernandozuluaga30', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a7280e43e25393eff81b5d69b567aead~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2e269541&amp;x-expires=1757800800&amp;x-signature=K1mx2jR%2Fkq96QfwWxgNNdodMMYw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7686,18 +7686,18 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>No usen mas ia, ni que no tuvieran pa contratar un artista</t>
+          <t>Podrán ocultar 3.000 comentarios y seguiran recibiendo mas comentarios de hate por usar ia y no pagar un comercial decente</t>
         </is>
       </c>
       <c r="G132" s="2" t="n">
-        <v>45911.07997685186</v>
+        <v>45910.99325231482</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>01:55:10</t>
+          <t>23:50:17</t>
         </is>
       </c>
       <c r="J132" t="n">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548644253654024967', 'createTime': 1757555710, 'createTimeISO': '2025-09-11T01:55:10.000Z', 'text': 'No usen mas ia, ni que no tuvieran pa contratar un artista', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157796127009653766', 'uniqueId': 'lmsplvd', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/6653e38ef36c04d8d8bef2841fdcef65~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=54b7d7ed&amp;x-expires=1757797200&amp;x-signature=lxTWkJ%2BiKeZEdHrDk%2FM006uc7tc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548612049145611013', 'createTime': 1757548217, 'createTimeISO': '2025-09-10T23:50:17.000Z', 'text': 'Podrán ocultar 3.000 comentarios y seguiran recibiendo mas comentarios de hate por usar ia y no pagar un comercial decente', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765670494865998854', 'uniqueId': 'tangoplay_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/409f39217ab640e340f6fceb506be4f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=11b22d6d&amp;x-expires=1757800800&amp;x-signature=9sjL34WpDgoPQftqD9Zie%2BXYL18%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7772,7 +7772,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548621218876031764', 'createTime': 1757550360, 'createTimeISO': '2025-09-11T00:26:00.000Z', 'text': 'qué asco, se me antojo mejor comprar productos de Alquería', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959343841239254021', 'uniqueId': 'nolesealtiktok1', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/daaf0bea50ae18b7baeb7056dbb7d72e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3cfa2d8e&amp;x-expires=1757797200&amp;x-signature=zlqKebu%2BnjGrb%2BKr2OjRouYYZss%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548621218876031764', 'createTime': 1757550360, 'createTimeISO': '2025-09-11T00:26:00.000Z', 'text': 'qué asco, se me antojo mejor comprar productos de Alquería', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959343841239254021', 'uniqueId': 'nolesealtiktok1', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/daaf0bea50ae18b7baeb7056dbb7d72e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ae29865e&amp;x-expires=1757800800&amp;x-signature=L6OXmgwrG8TXq3QJmUqxTIyqJA0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7798,22 +7798,22 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Podrán ocultar 3.000 comentarios y seguiran recibiendo mas comentarios de hate por usar ia y no pagar un comercial decente</t>
+          <t>la IA es un riesgo reputacional</t>
         </is>
       </c>
       <c r="G134" s="2" t="n">
-        <v>45910.99325231482</v>
+        <v>45910.72884259259</v>
       </c>
       <c r="H134" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>23:50:17</t>
+          <t>17:29:32</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
@@ -7828,7 +7828,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548612049145611013', 'createTime': 1757548217, 'createTimeISO': '2025-09-10T23:50:17.000Z', 'text': 'Podrán ocultar 3.000 comentarios y seguiran recibiendo mas comentarios de hate por usar ia y no pagar un comercial decente', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765670494865998854', 'uniqueId': 'tangoplay_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/409f39217ab640e340f6fceb506be4f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=82b398b2&amp;x-expires=1757797200&amp;x-signature=SYMVa8A24Ee5IdvGmzYrBg4tnT8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548513969955177234', 'createTime': 1757525372, 'createTimeISO': '2025-09-10T17:29:32.000Z', 'text': 'la IA es un riesgo reputacional', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6952613095761232901', 'uniqueId': 'mikahvlogsyvainas', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/312fe242f8ec4030f33476fcc826cb2a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f597c0c&amp;x-expires=1757800800&amp;x-signature=2pDCTVdw1mJMNSToeL6gtmjH2G0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7854,22 +7854,22 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>la IA es un riesgo reputacional</t>
+          <t>No usen mas ia, ni que no tuvieran pa contratar un artista</t>
         </is>
       </c>
       <c r="G135" s="2" t="n">
-        <v>45910.72884259259</v>
+        <v>45911.07997685186</v>
       </c>
       <c r="H135" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>17:29:32</t>
+          <t>01:55:10</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -7884,7 +7884,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548513969955177234', 'createTime': 1757525372, 'createTimeISO': '2025-09-10T17:29:32.000Z', 'text': 'la IA es un riesgo reputacional', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6952613095761232901', 'uniqueId': 'mikahvlogsyvainas', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/312fe242f8ec4030f33476fcc826cb2a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ca736a3c&amp;x-expires=1757797200&amp;x-signature=N9ViYRTZpAQ%2B1JrBcME6smQJd9w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548644253654024967', 'createTime': 1757555710, 'createTimeISO': '2025-09-11T01:55:10.000Z', 'text': 'No usen mas ia, ni que no tuvieran pa contratar un artista', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157796127009653766', 'uniqueId': 'lmsplvd', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/6653e38ef36c04d8d8bef2841fdcef65~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=87a40d30&amp;x-expires=1757800800&amp;x-signature=PJVoO3llZSzzbsqYWuKFNagkLYI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548429649220207367', 'createTime': 1757505744, 'createTimeISO': '2025-09-10T12:02:24.000Z', 'text': 'Es mejor alqueria', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6957915898419004422', 'uniqueId': 'josecaliz139', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/395344c2e9877ae91bf78e159110c4de~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c751083c&amp;x-expires=1757797200&amp;x-signature=lQvWysxf5EhTb5OeUKFAqdcU%2Fpc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548429649220207367', 'createTime': 1757505744, 'createTimeISO': '2025-09-10T12:02:24.000Z', 'text': 'Es mejor alqueria', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6957915898419004422', 'uniqueId': 'josecaliz139', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/395344c2e9877ae91bf78e159110c4de~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=cfc6118c&amp;x-expires=1757800800&amp;x-signature=%2FLIsU6p1%2Bb6IKI%2FR2HN%2B0oUOYEE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890366343171346', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346', 'cid': '7548914095299494663', 'createTime': 1757618537, 'createTimeISO': '2025-09-11T19:22:17.000Z', 'text': 'jaaaa yo fui igual mis padres tambien tenían una tienda🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541075771877573638', 'uniqueId': 'nancyfula5', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7a534c9ddae5fc04e653b04994a642fe~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6bdf9ebb&amp;x-expires=1757797200&amp;x-signature=jR17jRtDY2Zan%2BJcz8YwCwQsbcQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890366343171346', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346', 'cid': '7548914095299494663', 'createTime': 1757618537, 'createTimeISO': '2025-09-11T19:22:17.000Z', 'text': 'jaaaa yo fui igual mis padres tambien tenían una tienda🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541075771877573638', 'uniqueId': 'nancyfula5', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7a534c9ddae5fc04e653b04994a642fe~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7bcd91c0&amp;x-expires=1757800800&amp;x-signature=PNTol%2F%2BrUQFPuIm0J37ot79XHOE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890371032419591', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'cid': '7548950376810005266', 'createTime': 1757626996, 'createTimeISO': '2025-09-11T21:43:16.000Z', 'text': 'cuando no le echaban 💧🔫 agua😁😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352620795581121541', 'uniqueId': 'berni8553', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/db334debe59ecc7ed516818d0130fb32~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6f4d75f2&amp;x-expires=1757797200&amp;x-signature=OY2789bn5nHMirTWGd%2Bf6sIVrHQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890371032419591', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'cid': '7548950376810005266', 'createTime': 1757626996, 'createTimeISO': '2025-09-11T21:43:16.000Z', 'text': 'cuando no le echaban 💧🔫 agua😁😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352620795581121541', 'uniqueId': 'berni8553', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/db334debe59ecc7ed516818d0130fb32~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d7030e76&amp;x-expires=1757800800&amp;x-signature=2dN1ccr0DScdVLXISPnZ3j%2Fqkf8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8108,7 +8108,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548878181538693909', 'createTime': 1757610176, 'createTimeISO': '2025-09-11T17:02:56.000Z', 'text': 'tantos animadores por favor', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7110768307757679622', 'uniqueId': 'marveliver11', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7110768834667249670~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f165951e&amp;x-expires=1757797200&amp;x-signature=Xc%2FAJBkHh6CVovMIYNjxapDSlmw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548878181538693909', 'createTime': 1757610176, 'createTimeISO': '2025-09-11T17:02:56.000Z', 'text': 'tantos animadores por favor', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7110768307757679622', 'uniqueId': 'marveliver11', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7110768834667249670~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=49eaf4d7&amp;x-expires=1757800800&amp;x-signature=9y%2FOwEAudyLmm23N0wXUuP5lZAo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548876641469825793', 'createTime': 1757609817, 'createTimeISO': '2025-09-11T16:56:57.000Z', 'text': 'ya no se esfuerzan no😂😂😂', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7436936124830139448', 'uniqueId': 'killerof.killers', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/8764645bd2eb0906b859cf55866541ec~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8aa9bd51&amp;x-expires=1757797200&amp;x-signature=xARE6cGwUmySvuAOtJKdqkHtCKU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548876641469825793', 'createTime': 1757609817, 'createTimeISO': '2025-09-11T16:56:57.000Z', 'text': 'ya no se esfuerzan no😂😂😂', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7436936124830139448', 'uniqueId': 'killerof.killers', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/8764645bd2eb0906b859cf55866541ec~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=29419a2e&amp;x-expires=1757800800&amp;x-signature=GRY3In%2BXdRTNZZzdQ2KlaZQ3EAI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548880586518938375', 'createTime': 1757610736, 'createTimeISO': '2025-09-11T17:12:16.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7448332016402236421', 'uniqueId': 'mazo54381', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/1ddeec96484b7529b6bd78e8b8d4c343~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=08386fe9&amp;x-expires=1757797200&amp;x-signature=r%2BEWghceZ%2Bltno4yRTJGjF95DqE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548880586518938375', 'createTime': 1757610736, 'createTimeISO': '2025-09-11T17:12:16.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7448332016402236421', 'uniqueId': 'mazo54381', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1ddeec96484b7529b6bd78e8b8d4c343~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d8450cc3&amp;x-expires=1757800800&amp;x-signature=4QQGPC1uTX%2BDfsdlKwQWK7dzCPY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8276,7 +8276,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548986822430491410', 'createTime': 1757635485, 'createTimeISO': '2025-09-12T00:04:45.000Z', 'text': 'njd paguen un animador', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7270237640099021830', 'uniqueId': 'jeanp_42', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/09654db54b40858085ed47450f828fe0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aede54f2&amp;x-expires=1757797200&amp;x-signature=WCsDqsH2PyFjEgoOsnmZQzn%2B5Ks%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548986822430491410', 'createTime': 1757635485, 'createTimeISO': '2025-09-12T00:04:45.000Z', 'text': 'njd paguen un animador', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7270237640099021830', 'uniqueId': 'jeanp_42', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/09654db54b40858085ed47450f828fe0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ee0aabfe&amp;x-expires=1757800800&amp;x-signature=bk3bL0cdaXXqilHuSmnnRzfT408%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8439,7 +8439,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="n">
-        <v>1515</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="7">
@@ -8481,7 +8481,7 @@
         <v>47</v>
       </c>
       <c r="E8" t="n">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="9">

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,29 +433,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
-    <col width="24" customWidth="1" min="7" max="7"/>
-    <col width="18" customWidth="1" min="8" max="8"/>
-    <col width="17" customWidth="1" min="9" max="9"/>
-    <col width="13" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="26" customWidth="1" min="13" max="13"/>
-    <col width="50" customWidth="1" min="14" max="14"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -598,9 +582,17 @@
           <t>Eran alpina eras más chévere antes</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="G3" s="2" t="n">
+        <v>45912.81303240741</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>19:30:46</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>0</t>
@@ -615,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1765338114346772', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3NjUzMzgxMTQzNDY3NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzY1MzM4MTE0MzQ2Nzcy', 'date': '2025-09-12T19:30:46.000Z', 'text': 'Eran alpina eras más chévere antes', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/491395119_2482748972059706_1272209331354308727_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OdzgUUI9lewQ7kNvwGZ98Vj&amp;_nc_oc=Adn4zaZlUtUq4H1jBIE5jB_hewANu2RH-kAfqSs9hvGC6DBh7uc-uHXdte5ivfvrMZE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=3oOifmtbiSmk9xodDrU91Q&amp;oh=00_AfYewvYchRSD8rk5WEwIjbt9_YlTc6LZikGKAtpCRlfL-g&amp;oe=68CA6700', 'profileId': '100009738815049', 'profileName': 'Damián Arley Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1765338114346772', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3NjUzMzgxMTQzNDY3NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzY1MzM4MTE0MzQ2Nzcy', 'date': '2025-09-12T19:30:46.000Z', 'text': 'Eran alpina eras más chévere antes', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/491395119_2482748972059706_1272209331354308727_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OdzgUUI9lewQ7kNvwEBy8bX&amp;_nc_oc=Adl2BS-6s9U5om_0Kk8p-afdS8kIkOXRhAkWXCcWAILVzZjDXSBcBa2eWElrQ3wyb30&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=e5vFn6ueVaeRcJO_-8TLzw&amp;oh=00_AfZOy11SC9w5Bum5fq4qPMLT2puH7HAx0vJsNUhJp2PN3g&amp;oe=68CA9F40', 'profileId': '100009738815049', 'profileName': 'Damián Arley Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -644,9 +636,17 @@
           <t>Jajajaja Pero es IA gaxxxxx</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="G4" s="2" t="n">
+        <v>45912.49671296297</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>11:55:16</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>3</t>
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1097803569200070', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwOTc4MDM1NjkyMDAwNzA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDk3ODAzNTY5MjAwMDcw', 'date': '2025-09-12T11:55:16.000Z', 'text': 'Jajajaja Pero es IA gaxxxxx', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/503436742_1253835902986899_1384652200062589429_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=3xfZIHAzeNgQ7kNvwGbKmHK&amp;_nc_oc=AdmxBcJaWouVGTr4cb-nR9mIPij0ruoyiylNfFYN9rIdi8qY7pt9py3sANrRgAk_5TU&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=3oOifmtbiSmk9xodDrU91Q&amp;oh=00_AfZ2LUGvV7nCm_NWKOyDbhqX11S0hJI0CuETlfQCmOBIkw&amp;oe=68CA5B12', 'profileId': '100050815038837', 'profileName': 'Zyon Jhonn', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1097803569200070', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwOTc4MDM1NjkyMDAwNzA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDk3ODAzNTY5MjAwMDcw', 'date': '2025-09-12T11:55:16.000Z', 'text': 'Jajajaja Pero es IA gaxxxxx', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/503436742_1253835902986899_1384652200062589429_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=3xfZIHAzeNgQ7kNvwFVj6Gm&amp;_nc_oc=AdkP4B6sBt3vBFDDW9ro57NBGm3Q9FsUO_xNSVxo-NO3xWozUjNUGpZ2MEwsTSY6YSQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=e5vFn6ueVaeRcJO_-8TLzw&amp;oh=00_Afa0H4Yix5Cs-5Bqd4qGKxa4sX-8Yh-y6URk8zq_UpnTHQ&amp;oe=68CA9352', 'profileId': '100050815038837', 'profileName': 'Zyon Jhonn', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -690,9 +690,17 @@
           <t>Pero porque todo con ia</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="G5" s="2" t="n">
+        <v>45911.95452546296</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>22:54:31</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>5</t>
@@ -707,7 +715,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2281864825666658', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yMjgxODY0ODI1NjY2NjU4', 'date': '2025-09-11T22:54:31.000Z', 'text': 'Pero porque todo con ia', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/465968903_28163068836613657_4647340187890363470_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jXPGjaZlumEQ7kNvwHSzz1r&amp;_nc_oc=AdnXuYGbFsjwFFopBXmnodEmz4vNoQSTQDJR28S4kW6Zeqw3N1iznIK4jZ7yol9u5XY&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=3oOifmtbiSmk9xodDrU91Q&amp;oh=00_AfYuTTotugufkXsjjaR_sNT3TAXQ2qrP6J7hsw9CsaelyA&amp;oe=68CA6CD8', 'profileId': 'pfbid0Zzt98TerKg7rkfZFnPsiXSQ8eAJcWrEfgjgx2KT6K41iH5psQS7V2UKLY9PypJcXl', 'profileName': 'Jonathan Acuña', 'likesCount': '5', 'commentsCount': 1, 'comments': [{'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2281864825666658&amp;reply_comment_id=1735151283926476', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3MzUxNTEyODM5MjY0NzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzM1MTUxMjgzOTI2NDc2', 'date': '2025-09-12T14:44:57.000Z', 'text': 'Jonathan Acuña así están los de paleta Drácula', 'profileUrl': 'https://www.facebook.com/kevincaicedo.izquierdo', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/475183094_10231119286038356_7368772389638380458_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=w5dCJkFvYG4Q7kNvwHzQyyf&amp;_nc_oc=AdlGtaClWj44Ow12B-NOkMYc0UQ6OXXS3uXrcpIWDjWZORi9HF8h8BeewcAxPf0POVw&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=3oOifmtbiSmk9xodDrU91Q&amp;oh=00_Afb2KMSE_OVpc4FSRYfHFO3vGsb_AeAm1G9fLZyms9Zp8w&amp;oe=68CA7485', 'profileId': 'pfbid023KQrEy6v3FFZEV9G8fvAKTHLnkJL7PNwaKEp9JVrannS1MxmDFQq8HdUidpc3Rixl', 'profileName': 'Kevin Caicedo Izquierdo', 'likesCount': '0', 'threadingDepth': 1, 'replyToCommentId': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg=', 'parentComment': {'author': {'__typename': 'User', 'name': 'Jonathan Acuña', 'short_name': 'Jonathan', 'id': 'pfbid0Zzt98TerKg7rkfZFnPsiXSQ8eAJcWrEfgjgx2KT6K41iH5psQS7V2UKLY9PypJcXl'}, 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg='}, 'parentReply': {'author': {'__typename': 'User', 'name': 'Jonathan Acuña', 'gender': 'MALE', 'id': 'pfbid0Zzt98TerKg7rkfZFnPsiXSQ8eAJcWrEfgjgx2KT6K41iH5psQS7V2UKLY9PypJcXl'}, 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg='}}], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2281864825666658', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yMjgxODY0ODI1NjY2NjU4', 'date': '2025-09-11T22:54:31.000Z', 'text': 'Pero porque todo con ia', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/465968903_28163068836613657_4647340187890363470_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jXPGjaZlumEQ7kNvwHlv7x1&amp;_nc_oc=AdlsIaYTqT66Bt22toq3WLqJ0BdqgsUNWOMwjmw_2FbMuBGoTob0Xr5QUoGp0lc3UaM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=e5vFn6ueVaeRcJO_-8TLzw&amp;oh=00_AfZ4sOBpa2tCC5rla1oBNNydv4NO6gFlJLPtGpMcFnnBzw&amp;oe=68CA6CD8', 'profileId': 'pfbid0Zzt98TerKg7rkfZFnPsiXSQ8eAJcWrEfgjgx2KT6K41iH5psQS7V2UKLY9PypJcXl', 'profileName': 'Jonathan Acuña', 'likesCount': '5', 'commentsCount': 1, 'comments': [{'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2281864825666658&amp;reply_comment_id=1735151283926476', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3MzUxNTEyODM5MjY0NzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzM1MTUxMjgzOTI2NDc2', 'date': '2025-09-12T14:44:57.000Z', 'text': 'Jonathan Acuña así están los de paleta Drácula', 'profileUrl': 'https://www.facebook.com/kevincaicedo.izquierdo', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/475183094_10231119286038356_7368772389638380458_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=w5dCJkFvYG4Q7kNvwGHHOzE&amp;_nc_oc=AdmLG8JSHkpFQNpHDtsSDci3N8MCNeO8XR3LgFhHJRaNKkHzm7DWu33oqxhwccSCL-A&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=e5vFn6ueVaeRcJO_-8TLzw&amp;oh=00_AfbtdYkOWzxo1W9P-y3lF5P3VHFgU8eeb5FvS5wEKmKfCQ&amp;oe=68CA7485', 'profileId': 'pfbid023KQrEy6v3FFZEV9G8fvAKTHLnkJL7PNwaKEp9JVrannS1MxmDFQq8HdUidpc3Rixl', 'profileName': 'Kevin Caicedo Izquierdo', 'likesCount': '0', 'threadingDepth': 1, 'replyToCommentId': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg=', 'parentComment': {'author': {'__typename': 'User', 'name': 'Jonathan Acuña', 'short_name': 'Jonathan', 'id': 'pfbid0Zzt98TerKg7rkfZFnPsiXSQ8eAJcWrEfgjgx2KT6K41iH5psQS7V2UKLY9PypJcXl'}, 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg='}, 'parentReply': {'author': {'__typename': 'User', 'name': 'Jonathan Acuña', 'gender': 'MALE', 'id': 'pfbid0Zzt98TerKg7rkfZFnPsiXSQ8eAJcWrEfgjgx2KT6K41iH5psQS7V2UKLY9PypJcXl'}, 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg='}}], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -736,9 +744,17 @@
           <t>No usen ia, esta horrible ese anuncio</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="G6" s="2" t="n">
+        <v>45912.74690972222</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>17:55:33</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>0</t>
@@ -753,7 +769,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2520321701679273', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzI1MjAzMjE3MDE2NzkyNzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yNTIwMzIxNzAxNjc5Mjcz', 'date': '2025-09-12T17:55:33.000Z', 'text': 'No usen ia, esta horrible ese anuncio', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=7CsbLZRM9FQQ7kNvwGtUjLi&amp;_nc_oc=Adl6hlBxB7EjR5kNLWnLrGdecOJDvDny98VRtwvI_9p6kAI7OlNqvshV4xsNdngzFhg&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;oh=00_Afa1HB4xDPgDgUlz4GePNE7iYbktKmQM9XSnsn-NciXtOQ&amp;oe=68EC157A', 'profileId': 'pfbid0HL9u7D6kZBSwugJJbpRR8ZCrYuJ8LgKWNiCLzeQSaEpXh6TdRZP8umyRoh4K1NHXl', 'profileName': 'Alexius Solborne', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2520321701679273', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzI1MjAzMjE3MDE2NzkyNzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yNTIwMzIxNzAxNjc5Mjcz', 'date': '2025-09-12T17:55:33.000Z', 'text': 'No usen ia, esta horrible ese anuncio', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=7CsbLZRM9FQQ7kNvwH-dMTN&amp;_nc_oc=AdlJjz3NxHV9qJRwIn7TlFmym-KrBJjBAa_Y8VQHJBxnc_bZw1ZGtbvpQ2ZQSS6_2XY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;oh=00_AfajKBi8BKS4UufQALI6agBSEBtvAl9WPcHKq0nxyV9Iwg&amp;oe=68EC157A', 'profileId': 'pfbid0HL9u7D6kZBSwugJJbpRR8ZCrYuJ8LgKWNiCLzeQSaEpXh6TdRZP8umyRoh4K1NHXl', 'profileName': 'Alexius Solborne', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -783,9 +799,17 @@
 También dejan en manos de la AI su control de salubridad?</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="G7" s="2" t="n">
+        <v>45912.73665509259</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>17:40:47</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>1</t>
@@ -800,7 +824,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1101092795498355', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzExMDEwOTI3OTU0OTgzNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMTAxMDkyNzk1NDk4MzU1', 'date': '2025-09-12T17:40:47.000Z', 'text': 'Tienen recursos de sobra para contratar un artista 3D y en lugar de hacerlo suben esta basura hecha con AI, qué le dice eso al consumidor sobre sus productos?\nTambién dejan en manos de la AI su control de salubridad?', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30808-1/492693542_2389131311480256_190548770418542821_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=y2ZEw6G3rKUQ7kNvwEJjTQ0&amp;_nc_oc=AdkldzDZSK0hB_MR3cu4vx3Mr8_SlGM-w_94Y6Bs9CBlv_4fKacBXrQW6DY0vcfOFDE&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.xx&amp;_nc_gid=3oOifmtbiSmk9xodDrU91Q&amp;oh=00_AfZ4qLqaRWCOdxnXlL6b5i8FSI5KqixyeWSU_EvVDWLC0Q&amp;oe=68CA7D89', 'profileId': 'pfbid0c4o41kiHqSVRngCoeXq6A9vrUvjKBg2fYSJLVs5KUtqB24ncTk1nHs3SqyuosWJbl', 'profileName': 'Víctor Martínez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1101092795498355', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzExMDEwOTI3OTU0OTgzNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMTAxMDkyNzk1NDk4MzU1', 'date': '2025-09-12T17:40:47.000Z', 'text': 'Tienen recursos de sobra para contratar un artista 3D y en lugar de hacerlo suben esta basura hecha con AI, qué le dice eso al consumidor sobre sus productos?\nTambién dejan en manos de la AI su control de salubridad?', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/492693542_2389131311480256_190548770418542821_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=y2ZEw6G3rKUQ7kNvwHw6xbA&amp;_nc_oc=AdnU1o3tMTKuYgD7Xb6Kpa1t1Y24kpAyG5U4Ir0l-wsYzUs9knQNM83P4bdpat1x3nM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=e5vFn6ueVaeRcJO_-8TLzw&amp;oh=00_Afb0NPe6R9JIdnVpA-L70Au1u2wEGfkeCx-aw8NtotODlA&amp;oe=68CA7D89', 'profileId': 'pfbid0c4o41kiHqSVRngCoeXq6A9vrUvjKBg2fYSJLVs5KUtqB24ncTk1nHs3SqyuosWJbl', 'profileName': 'Víctor Martínez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -829,9 +853,17 @@
           <t>Q hpta asco hahahaha</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="G8" s="2" t="n">
+        <v>45912.07883101852</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>01:53:31</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>1</t>
@@ -846,7 +878,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=757322997083065', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3Xzc1NzMyMjk5NzA4MzA2NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN183NTczMjI5OTcwODMwNjU=', 'date': '2025-09-12T01:53:31.000Z', 'text': 'Q hpta asco hahahaha', 'profileUrl': 'https://www.facebook.com/juandamr', 'profilePicture': 'https://scontent-lax3-2.xx.fbcdn.net/v/t39.30808-1/482085481_10237447593192940_7097130589724547644_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=IHXi1jIJOMsQ7kNvwFFwk-_&amp;_nc_oc=AdlD5NczBFy0lJj9Hz5uXtfFzLi8w7NKDSVsJjXWJlqiaYn41Qxav6yMem616XlF6T0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-2.xx&amp;_nc_gid=3oOifmtbiSmk9xodDrU91Q&amp;oh=00_AfbNjPcwncxBrpPaRJoFfQKGApxblSVh49Kb7GWiwDr9Wg&amp;oe=68CA6D16', 'profileId': '1343667140', 'profileName': 'Juanda Muñoz Rico', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=757322997083065', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3Xzc1NzMyMjk5NzA4MzA2NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN183NTczMjI5OTcwODMwNjU=', 'date': '2025-09-12T01:53:31.000Z', 'text': 'Q hpta asco hahahaha', 'profileUrl': 'https://www.facebook.com/juandamr', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/482085481_10237447593192940_7097130589724547644_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=IHXi1jIJOMsQ7kNvwE63snY&amp;_nc_oc=AdkBA0ZdHe5a8mhMnwWdeivP7J6dh0HJ3_OnCCz6ztB5bqungngYswBbucuwkROtZF4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=e5vFn6ueVaeRcJO_-8TLzw&amp;oh=00_Afaa2hcqQh56GTG7eoeXeI9dAh6ER6kME6RqKuep0chB8A&amp;oe=68CA6D16', 'profileId': '1343667140', 'profileName': 'Juanda Muñoz Rico', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -875,9 +907,17 @@
           <t>Pinchi animación toda culera, si van a invertir en hacer animación, inviertan en una buena IA</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="G9" s="2" t="n">
+        <v>45912.52608796296</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>12:37:34</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>0</t>
@@ -892,7 +932,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1518033859195059', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE1MTgwMzM4NTkxOTUwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xNTE4MDMzODU5MTk1MDU5', 'date': '2025-09-12T12:37:34.000Z', 'text': 'Pinchi animación toda culera, si van a invertir en hacer animación, inviertan en una buena IA', 'profileUrl': 'https://www.facebook.com/juancho.barajas.7', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/483861579_9365490916877333_3937309200038098582_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=wSGBuX9yfzwQ7kNvwGyjL8-&amp;_nc_oc=AdmYV_6HvYYVXoOFMQmO82f6eiEAnKkFNEeky36E6Dq3-T8PO2BDBtVTG3OJjS1IehI&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=6ZuOJnww-XxIB7Ew30xjLg&amp;oh=00_AfZaqxRsrFFiQz6p9amEmDdaDfUjj4ynADu2ad4ftsMO8g&amp;oe=68CA8074', 'profileId': '100002495548710', 'profileName': 'Juancho Barajas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1518033859195059', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE1MTgwMzM4NTkxOTUwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xNTE4MDMzODU5MTk1MDU5', 'date': '2025-09-12T12:37:34.000Z', 'text': 'Pinchi animación toda culera, si van a invertir en hacer animación, inviertan en una buena IA', 'profileUrl': 'https://www.facebook.com/juancho.barajas.7', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/483861579_9365490916877333_3937309200038098582_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=wSGBuX9yfzwQ7kNvwEwH_Ct&amp;_nc_oc=AdkRqfOAStYrwDS0poYteAHhq1LUj-NsOOlqcRXAbrpnFgYm2gbfscZGCzJlgHR2BZo&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=8A6ZFriQm14YzIRyacpKfg&amp;oh=00_AfZAnthHGXev0momuclGnOtq4RMLMn_8FCeN2ZfYE4angA&amp;oe=68CA8074', 'profileId': '100002495548710', 'profileName': 'Juancho Barajas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -921,9 +961,17 @@
           <t>Si, se ve poco real esa animación. ojalá la IA les compres sus productos.</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="G10" s="2" t="n">
+        <v>45912.28892361111</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>06:56:03</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>0</t>
@@ -938,7 +986,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=729207126799156', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcyOTIwNzEyNjc5OTE1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MjkyMDcxMjY3OTkxNTY=', 'date': '2025-09-12T06:56:03.000Z', 'text': 'Si, se ve poco real esa animación. ojalá la IA les compres sus productos.', 'profileUrl': 'https://www.facebook.com/fernandpsb', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/457372791_8271573726262434_7931313235547901570_n.jpg?stp=c448.0.1152.1152a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=WUwHhP1sFJwQ7kNvwHFR1w8&amp;_nc_oc=AdkEHlKS6kEVa85Y5EktK61-n6i3AIfviKuEH_1-qJF8bftfAkFwlCAMZ41tZnQfSno&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=6ZuOJnww-XxIB7Ew30xjLg&amp;oh=00_AfbwF2FbvhQcOLyvKpG6A-Flre8kiLM0BqHppCaQrdKjrg&amp;oe=68CA6B0A', 'profileId': '100002296670340', 'profileName': 'Fernando Rodríguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=729207126799156', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcyOTIwNzEyNjc5OTE1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MjkyMDcxMjY3OTkxNTY=', 'date': '2025-09-12T06:56:03.000Z', 'text': 'Si, se ve poco real esa animación. ojalá la IA les compres sus productos.', 'profileUrl': 'https://www.facebook.com/fernandpsb', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/457372791_8271573726262434_7931313235547901570_n.jpg?stp=c448.0.1152.1152a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=WUwHhP1sFJwQ7kNvwFWOy2n&amp;_nc_oc=Adkzwp_GFSk9FmFXu0kNn7WSaMR6aleOnjoCA6CLxf-wHvljwHPWxHY5afAjWYAUHgw&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=8A6ZFriQm14YzIRyacpKfg&amp;oh=00_AfaleTV6M5pthSgbno8D3VsJ8ogymg1ujVpiuYUEDnoznw&amp;oe=68CA6B0A', 'profileId': '100002296670340', 'profileName': 'Fernando Rodríguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -967,9 +1015,17 @@
           <t>..</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="G11" s="2" t="n">
+        <v>45912.23135416667</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>05:33:09</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>0</t>
@@ -984,7 +1040,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=714344698306073', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcxNDM0NDY5ODMwNjA3Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MTQzNDQ2OTgzMDYwNzM=', 'date': '2025-09-12T05:33:09.000Z', 'text': '..', 'profileUrl': 'https://www.facebook.com/luzmarina.jimenez.234064', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/518417845_122144505974773963_726240798875025477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wEX-0MLaUP4Q7kNvwFhe0qn&amp;_nc_oc=AdlCBfcTe7fYxJvhPk69yEjhgEBek0narpuVQqSrhr_oAGIqpm5Zf5Iu6oUgGapWKLQ&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=6ZuOJnww-XxIB7Ew30xjLg&amp;oh=00_AfZEqNPrtrfAzffumMorDZvYnWW6WCmBrgnnPefDPKLDpQ&amp;oe=68CA6716', 'profileId': 'pfbid02UVsvVFB18EC9pXj8t4zhYcA3LFipwbySaCyLmkiV8bre82ppzCpiK3Z2jePhfxALl', 'profileName': 'LuzMarina Jimenez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=714344698306073', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcxNDM0NDY5ODMwNjA3Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MTQzNDQ2OTgzMDYwNzM=', 'date': '2025-09-12T05:33:09.000Z', 'text': '..', 'profileUrl': 'https://www.facebook.com/luzmarina.jimenez.234064', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/518417845_122144505974773963_726240798875025477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wEX-0MLaUP4Q7kNvwFONvz3&amp;_nc_oc=AdmnW5f0iKFYacJ5-2JGpcnaRWbOAOlVLTS0EG5FMSUv5hnZJExxZ2-whiERJAN3amM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=8A6ZFriQm14YzIRyacpKfg&amp;oh=00_AfaA73yUPsKl3I5uGVh9BxHuWS80jZdvjal3UGrBH63A5A&amp;oe=68CA9F56', 'profileId': 'pfbid02UVsvVFB18EC9pXj8t4zhYcA3LFipwbySaCyLmkiV8bre82ppzCpiK3Z2jePhfxALl', 'profileName': 'LuzMarina Jimenez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1013,9 +1069,17 @@
           <t>Hay un poco de IA en tu animación 🤢</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="G12" s="2" t="n">
+        <v>45911.88256944445</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>21:10:54</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>1</t>
@@ -1030,7 +1094,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1976178152957224', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE5NzYxNzgxNTI5NTcyMjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xOTc2MTc4MTUyOTU3MjI0', 'date': '2025-09-11T21:10:54.000Z', 'text': 'Hay un poco de IA en tu animación 🤢', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/535652007_10162869566184929_6951913208270813003_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QgbNse6La-gQ7kNvwHN2-Z_&amp;_nc_oc=AdnVPzcawahjAGH_VFpl-LuMeBdbZPXnLWMLYmerH5nEDz5zTXJ9EaVZrxYSn43UXoY&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=6ZuOJnww-XxIB7Ew30xjLg&amp;oh=00_Afbp5e1x09CXI16JWj34rzcw2PSt-R3vu_NiIsN6a--yVA&amp;oe=68CA62A9', 'profileId': '672709928', 'profileName': 'Hv Helmut', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1976178152957224', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE5NzYxNzgxNTI5NTcyMjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xOTc2MTc4MTUyOTU3MjI0', 'date': '2025-09-11T21:10:54.000Z', 'text': 'Hay un poco de IA en tu animación 🤢', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/535652007_10162869566184929_6951913208270813003_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QgbNse6La-gQ7kNvwEkwjWb&amp;_nc_oc=Adn2nf65AZ1Us5dG9LDam3B8Wh9NGsBES8SU1hfuckexG-fRSrvhI-OFwyhmXW-Yfzk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=8A6ZFriQm14YzIRyacpKfg&amp;oh=00_AfZ_8mLtRnv-_YJ6AW-YiidtxCnjtxpcJkXRn-bXAFBn2g&amp;oe=68CA9AE9', 'profileId': '672709928', 'profileName': 'Hv Helmut', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1059,9 +1123,17 @@
           <t>Hese cuatro pelos hp solo a echo es robar al pueblo y volverse rico</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="G13" s="2" t="n">
+        <v>45912.00564814815</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>00:08:08</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>0</t>
@@ -1076,7 +1148,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=839435021752790', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgzOTQzNTAyMTc1Mjc5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84Mzk0MzUwMjE3NTI3OTA=', 'date': '2025-09-12T00:08:08.000Z', 'text': 'Hese cuatro pelos hp solo a echo es robar al pueblo y volverse rico', 'profileUrl': 'https://www.facebook.com/hector.ortegaperafan', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/544910070_2212986202509976_2116931927882062195_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oTAt7hvXzTEQ7kNvwFyfsaQ&amp;_nc_oc=Adk9JlhDLvn5Oa5IAJUyiyW1q4_VpcvRo26pdrCaQaJSeQdhM1_uG2YBgC4-U1k3e8w&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=6ZuOJnww-XxIB7Ew30xjLg&amp;oh=00_AfZ9VHUn7XAqpsXOn-036P0lOd6TQ2VnuX0y4fDwB4TxwA&amp;oe=68CA5678', 'profileId': 'pfbid023RxuD8PPjwwEuX7PSzJr1m1cqDB3ku83GMAJc9x2mPKic1uNs43A7zHBrTAcnjKSl', 'profileName': 'Hector Ortega Perafan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=839435021752790', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgzOTQzNTAyMTc1Mjc5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84Mzk0MzUwMjE3NTI3OTA=', 'date': '2025-09-12T00:08:08.000Z', 'text': 'Hese cuatro pelos hp solo a echo es robar al pueblo y volverse rico', 'profileUrl': 'https://www.facebook.com/hector.ortegaperafan', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/544910070_2212986202509976_2116931927882062195_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oTAt7hvXzTEQ7kNvwGGzjgl&amp;_nc_oc=AdmPTrjAKEc2VhrcVv6plEBaGd-NW6okvBcGbi-R4w69Mv4KWaR67q7ptJrS0LoFwT0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=8A6ZFriQm14YzIRyacpKfg&amp;oh=00_AfZ3JeBtehbxLRWESziv_oxVexUMr9S7aV29POrJmJssCQ&amp;oe=68CA8EB8', 'profileId': 'pfbid023RxuD8PPjwwEuX7PSzJr1m1cqDB3ku83GMAJc9x2mPKic1uNs43A7zHBrTAcnjKSl', 'profileName': 'Hector Ortega Perafan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1101,9 +1173,17 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="G14" s="2" t="n">
+        <v>45911.95805555556</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>22:59:36</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>0</t>
@@ -1118,7 +1198,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=816939231005497', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgxNjkzOTIzMTAwNTQ5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84MTY5MzkyMzEwMDU0OTc=', 'date': '2025-09-11T22:59:36.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=cx_Qsz0r8zUQ7kNvwH61doZ&amp;_nc_oc=AdmNiozje0rRMkU4j4rjj7XbanXz5WVyn5oo9yXGnmSjO6YyoWcyR1aMtJYn3oAFXXY&amp;_nc_zt=23&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=6ZuOJnww-XxIB7Ew30xjLg&amp;oh=00_AfZ3YAPGoJLuKh9uWbjFjwINeipxxscQzHGEEtlqsfT4Yw&amp;oe=68CA68AD'}, 'id': '122132915732892467', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 720}, 'image': {'uri': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=cx_Qsz0r8zUQ7kNvwH61doZ&amp;_nc_oc=AdmNiozje0rRMkU4j4rjj7XbanXz5WVyn5oo9yXGnmSjO6YyoWcyR1aMtJYn3oAFXXY&amp;_nc_zt=23&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=6ZuOJnww-XxIB7Ew30xjLg&amp;oh=00_AfYABIm4LpiN2uuOQBOX50csVZdviksFd3uYO2ZpifgWrA&amp;oe=68CA68AD', 'width': 261, 'height': 196}, 'ocrText': 'May be an image of 2 people, bird and goosedown coat'}], 'profileUrl': 'https://www.facebook.com/people/Tropi-Pollo-Aves/pfbid0vyoxHZ2RJmXW7hrisAEzVTNe42JuhhTufUdcGLTa6RUYHLoxRDPPgjVCgFNUkGJvl/', 'profilePicture': 'https://scontent-msp1-1.xx.fbcdn.net/v/t39.30808-1/503603154_122103355172892467_5961930638299244588_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CP6nZIIvwpoQ7kNvwERiyIm&amp;_nc_oc=AdkhHfqvHH2wYrfSG1tKS2_mriX7rlFqAtIEDcgpU81Ej-MXd3WujFL7hnuNXbZKmxc&amp;_nc_zt=24&amp;_nc_ht=scontent-msp1-1.xx&amp;_nc_gid=6ZuOJnww-XxIB7Ew30xjLg&amp;oh=00_AfbSlUcNP6wl60nM79Af1aLE5_zM_f0MgEYpzqwxYfZ2HA&amp;oe=68CA53C9', 'profileId': 'pfbid0vyoxHZ2RJmXW7hrisAEzVTNe42JuhhTufUdcGLTa6RUYHLoxRDPPgjVCgFNUkGJvl', 'profileName': 'Tropi Pollo Aves', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=816939231005497', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgxNjkzOTIzMTAwNTQ5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84MTY5MzkyMzEwMDU0OTc=', 'date': '2025-09-11T22:59:36.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=cx_Qsz0r8zUQ7kNvwF6-REe&amp;_nc_oc=Adn-VVeGZgymC6nowlme3cleDSkNxlia5Bf3WSUJGqN2WAPV_xZVLJV4Gve0Pz9Eo30&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=8A6ZFriQm14YzIRyacpKfg&amp;oh=00_AfYJ1nWOtADFatgWX9qzxODCoHqflJUMOS7_RXdKci0fdg&amp;oe=68CAA0ED'}, 'id': '122132915732892467', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 720}, 'image': {'uri': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=cx_Qsz0r8zUQ7kNvwF6-REe&amp;_nc_oc=Adn-VVeGZgymC6nowlme3cleDSkNxlia5Bf3WSUJGqN2WAPV_xZVLJV4Gve0Pz9Eo30&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=8A6ZFriQm14YzIRyacpKfg&amp;oh=00_AfayQmW9BlKVVPzN3WFJ3WY9BfKu7kdYXeAqTlNBYYwjOA&amp;oe=68CAA0ED', 'width': 261, 'height': 196}, 'ocrText': 'May be an image of 2 people, bird and goosedown coat'}], 'profileUrl': 'https://www.facebook.com/people/Tropi-Pollo-Aves/pfbid0vyoxHZ2RJmXW7hrisAEzVTNe42JuhhTufUdcGLTa6RUYHLoxRDPPgjVCgFNUkGJvl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/503603154_122103355172892467_5961930638299244588_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CP6nZIIvwpoQ7kNvwE7KB32&amp;_nc_oc=AdkwAv_y0H4RmDL-g0p9iz9nNAPl_tkxSUXf6wpeC2w52iJHQgtNvqijC6RLc8gOKOA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=8A6ZFriQm14YzIRyacpKfg&amp;oh=00_AfblEYGzYNg30PB1zDZLqXtBSG1CsDrO7rtnW6B0RQ4V0Q&amp;oe=68CA8C09', 'profileId': 'pfbid0vyoxHZ2RJmXW7hrisAEzVTNe42JuhhTufUdcGLTa6RUYHLoxRDPPgjVCgFNUkGJvl', 'profileName': 'Tropi Pollo Aves', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1188,25 +1268,25 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>usaba IA y ni sentido tenía el anuncio</t>
+          <t>Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45910.30898148148</v>
+        <v>45911.09158564815</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>07:24:56</t>
+          <t>02:11:53</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>546</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1218,7 +1298,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548358154200974098', 'createTime': 1757489096, 'createTimeISO': '2025-09-10T07:24:56.000Z', 'text': 'usaba IA y ni sentido tenía el anuncio', 'diggCount': 546, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7522680959197971464', 'uniqueId': 'angel_fox_axel', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9ed7bfea88e1b69f3a128b1f8039235e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fcc9dfd5&amp;x-expires=1757800800&amp;x-signature=mqkuwagKr4NsEteFEsQdWtZfDU0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548648557948683026', 'createTime': 1757556713, 'createTimeISO': '2025-09-11T02:11:53.000Z', 'text': 'Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6976617115294139397', 'uniqueId': 'chowder9273', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/21ce081563d432fdfb13dc114a97d005~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5fbde96f&amp;x-expires=1757808000&amp;x-signature=IiyQ%2F03tDbrBdNfH1t0ChlIXmKo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1244,25 +1324,25 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Muy mal alpina 😔</t>
+          <t>usaba IA y ni sentido tenía el anuncio</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45910.72035879629</v>
+        <v>45910.30898148148</v>
       </c>
       <c r="H17" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>17:17:19</t>
+          <t>07:24:56</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>55</v>
+        <v>546</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1274,7 +1354,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548510815235048210', 'createTime': 1757524639, 'createTimeISO': '2025-09-10T17:17:19.000Z', 'text': 'Muy mal alpina 😔', 'diggCount': 55, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7401980556445189125', 'uniqueId': 'vanshi432', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9593619d8a1f3f6623ca0b4ba781b0f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2dce2aec&amp;x-expires=1757800800&amp;x-signature=sPko9TI4Ys%2FUsK3FRNtz9dBPhUI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548358154200974098', 'createTime': 1757489096, 'createTimeISO': '2025-09-10T07:24:56.000Z', 'text': 'usaba IA y ni sentido tenía el anuncio', 'diggCount': 546, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7522680959197971464', 'uniqueId': 'angel_fox_axel', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9ed7bfea88e1b69f3a128b1f8039235e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f5495ee1&amp;x-expires=1757808000&amp;x-signature=y%2FOd%2BhqWCtMYUuiFX6xRA4%2BEi5Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1380,22 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Se me cayó un ídolo, en la mala Alpina</t>
+          <t>empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>45910.90369212963</v>
+        <v>45910.92006944444</v>
       </c>
       <c r="H18" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>21:41:19</t>
+          <t>22:04:54</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1330,7 +1410,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578807612277511', 'createTime': 1757540479, 'createTimeISO': '2025-09-10T21:41:19.000Z', 'text': 'Se me cayó un ídolo, en la mala Alpina', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6859385792315769861', 'uniqueId': 'bomkly2', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a0f29357a9e54e5054e5669e06d564aa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=af8d1183&amp;x-expires=1757800800&amp;x-signature=ZQCaYk%2BzFDxu8rJ02mWFJ8CpKDk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548584862849942280', 'createTime': 1757541894, 'createTimeISO': '2025-09-10T22:04:54.000Z', 'text': 'empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6774471423067997190', 'uniqueId': 'xiewww_h', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ba1a8119f4148ea45db46fad9dcf764b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=def6048f&amp;x-expires=1757808000&amp;x-signature=E34uPMhUldaEMjwdqB5EwybtWHA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1356,22 +1436,22 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀</t>
+          <t>Muy mal alpina 😔</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45910.92006944444</v>
+        <v>45910.72035879629</v>
       </c>
       <c r="H19" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>22:04:54</t>
+          <t>17:17:19</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1386,7 +1466,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548584862849942280', 'createTime': 1757541894, 'createTimeISO': '2025-09-10T22:04:54.000Z', 'text': 'empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6774471423067997190', 'uniqueId': 'xiewww_h', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ba1a8119f4148ea45db46fad9dcf764b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2460c06c&amp;x-expires=1757800800&amp;x-signature=79g6JOkTFlmOscQsUCGqgU%2FGL9I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548510815235048210', 'createTime': 1757524639, 'createTimeISO': '2025-09-10T17:17:19.000Z', 'text': 'Muy mal alpina 😔', 'diggCount': 52, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7401980556445189125', 'uniqueId': 'vanshi432', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9593619d8a1f3f6623ca0b4ba781b0f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=127c327d&amp;x-expires=1757808000&amp;x-signature=3w3%2Bfkm2RHc3%2FQcskqImmZzCrcE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1412,22 +1492,22 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>contratar a una persona no cuesta mucho Alpina</t>
+          <t>Se me cayó un ídolo, en la mala Alpina</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45910.47868055556</v>
+        <v>45910.90369212963</v>
       </c>
       <c r="H20" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>11:29:18</t>
+          <t>21:41:19</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1442,7 +1522,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548421120124125959', 'createTime': 1757503758, 'createTimeISO': '2025-09-10T11:29:18.000Z', 'text': 'contratar a una persona no cuesta mucho Alpina', 'diggCount': 9, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156043383616898053', 'uniqueId': 'luperdoxx_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/840d9686754e8cd8db4f8178cac937f8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1cbb165a&amp;x-expires=1757800800&amp;x-signature=lBRyIvLfC%2B2xOqmYCrqZEAopuzc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578807612277511', 'createTime': 1757540479, 'createTimeISO': '2025-09-10T21:41:19.000Z', 'text': 'Se me cayó un ídolo, en la mala Alpina', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6859385792315769861', 'uniqueId': 'bomkly2', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a0f29357a9e54e5054e5669e06d564aa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ed6679bf&amp;x-expires=1757808000&amp;x-signature=9dktf5e1PQsVzhQQs93Eap15kzA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1468,25 +1548,25 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>¿IA? Wow ,tanto que ganan y no pagan un animador</t>
+          <t>Como que les pesa mucho pagarle a un artista que si haga algo bueno</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>45910.79232638889</v>
+        <v>45911.01646990741</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>19:00:57</t>
+          <t>00:23:43</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -1498,7 +1578,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548537516107088660', 'createTime': 1757530857, 'createTimeISO': '2025-09-10T19:00:57.000Z', 'text': '¿IA? Wow ,tanto que ganan y no pagan un animador', 'diggCount': 144, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7071862501012784133', 'uniqueId': 'el.gelatinas45', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8964867b1446081d4e48af3405f3abbf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4cea30a7&amp;x-expires=1757800800&amp;x-signature=9TIxMAi5XKcRng6unzepohn4p24%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620601164104456', 'createTime': 1757550223, 'createTimeISO': '2025-09-11T00:23:43.000Z', 'text': 'Como que les pesa mucho pagarle a un artista que si haga algo bueno', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6797840408039703558', 'uniqueId': 'sstarberry__', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/4c4a684c8f37aa01fa09d888a9d7df43~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4f20d382&amp;x-expires=1757808000&amp;x-signature=tqKcuPH3nC37aHA7ln5sM4TRpvU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1524,25 +1604,25 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Recuerdan esos comerciales de animales bailando en el bosque y cantando?</t>
+          <t>¿IA? Wow ,tanto que ganan y no pagan un animador</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45910.90331018518</v>
+        <v>45910.79232638889</v>
       </c>
       <c r="H22" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>21:40:46</t>
+          <t>19:00:57</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -1554,7 +1634,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578559905923856', 'createTime': 1757540446, 'createTimeISO': '2025-09-10T21:40:46.000Z', 'text': 'Recuerdan esos comerciales de animales bailando en el bosque y cantando?', 'diggCount': 27, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6750702320714155013', 'uniqueId': 'wakingleo', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7331160055510728710~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=827c9ce8&amp;x-expires=1757800800&amp;x-signature=2EF5sqJJlFA2YqCxjLcF4bw8XzY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548537516107088660', 'createTime': 1757530857, 'createTimeISO': '2025-09-10T19:00:57.000Z', 'text': '¿IA? Wow ,tanto que ganan y no pagan un animador', 'diggCount': 144, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7071862501012784133', 'uniqueId': 'el.gelatinas45', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8964867b1446081d4e48af3405f3abbf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=29a877cb&amp;x-expires=1757808000&amp;x-signature=3LYNRjnzUvCqYvYOQ8Z2YmoaY9Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1580,22 +1660,22 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bro como se perdió el arte</t>
+          <t>Recuerdan esos comerciales de animales bailando en el bosque y cantando?</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45910.55045138889</v>
+        <v>45910.90331018518</v>
       </c>
       <c r="H23" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>13:12:39</t>
+          <t>21:40:46</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1610,7 +1690,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447770353435410', 'createTime': 1757509959, 'createTimeISO': '2025-09-10T13:12:39.000Z', 'text': 'Bro como se perdió el arte', 'diggCount': 86, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7523791630316717074', 'uniqueId': 'nyako9311', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7941680fa88f973347764837a49a9b1f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=30d6b809&amp;x-expires=1757800800&amp;x-signature=Eqw87s0c02J1eVPpR%2BzboQIrxL4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578559905923856', 'createTime': 1757540446, 'createTimeISO': '2025-09-10T21:40:46.000Z', 'text': 'Recuerdan esos comerciales de animales bailando en el bosque y cantando?', 'diggCount': 28, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6750702320714155013', 'uniqueId': 'wakingleo', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7331160055510728710~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c67ef44&amp;x-expires=1757808000&amp;x-signature=EE%2Fsj0exmYpEvm6rt1rL6a%2BdrDs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1636,22 +1716,22 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Como que les pesa mucho pagarle a un artista que si haga algo bueno</t>
+          <t>contratar a una persona no cuesta mucho Alpina</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45911.01646990741</v>
+        <v>45910.47868055556</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>00:23:43</t>
+          <t>11:29:18</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1666,7 +1746,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620601164104456', 'createTime': 1757550223, 'createTimeISO': '2025-09-11T00:23:43.000Z', 'text': 'Como que les pesa mucho pagarle a un artista que si haga algo bueno', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6797840408039703558', 'uniqueId': 'sstarberry__', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/4c4a684c8f37aa01fa09d888a9d7df43~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dba794ee&amp;x-expires=1757800800&amp;x-signature=T1n5ACZ0tjy98Yi7mAW97dgqgkk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548421120124125959', 'createTime': 1757503758, 'createTimeISO': '2025-09-10T11:29:18.000Z', 'text': 'contratar a una persona no cuesta mucho Alpina', 'diggCount': 9, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156043383616898053', 'uniqueId': 'luperdoxx_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/840d9686754e8cd8db4f8178cac937f8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=54584480&amp;x-expires=1757808000&amp;x-signature=q7xZtRO9O6SBsvfGERozrIQL5KA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1692,22 +1772,22 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza</t>
+          <t>Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente</t>
         </is>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45911.09158564815</v>
+        <v>45910.85172453704</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>02:11:53</t>
+          <t>20:26:29</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1722,7 +1802,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548648557948683026', 'createTime': 1757556713, 'createTimeISO': '2025-09-11T02:11:53.000Z', 'text': 'Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6976617115294139397', 'uniqueId': 'chowder9273', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/21ce081563d432fdfb13dc114a97d005~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fe077826&amp;x-expires=1757800800&amp;x-signature=815Hq%2FFY7gHpqPTCz1AsA7BBpLc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548559525466374930', 'createTime': 1757535989, 'createTimeISO': '2025-09-10T20:26:29.000Z', 'text': 'Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente', 'diggCount': 38, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6603056868959666181', 'uniqueId': 'linsynose', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a547dda6766e2346d6cc85551ffa9599~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=83c04d5b&amp;x-expires=1757808000&amp;x-signature=ylwyBaD8tRk2dYclhWFFWAWGI2w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1748,22 +1828,22 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente</t>
+          <t>Bro como se perdió el arte</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45910.85172453704</v>
+        <v>45910.55045138889</v>
       </c>
       <c r="H26" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>20:26:29</t>
+          <t>13:12:39</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1778,7 +1858,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548559525466374930', 'createTime': 1757535989, 'createTimeISO': '2025-09-10T20:26:29.000Z', 'text': 'Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente', 'diggCount': 38, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6603056868959666181', 'uniqueId': 'linsynose', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a547dda6766e2346d6cc85551ffa9599~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f6143107&amp;x-expires=1757800800&amp;x-signature=VCJk5qLbPGk63SQS5qlnXg2gK8k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447770353435410', 'createTime': 1757509959, 'createTimeISO': '2025-09-10T13:12:39.000Z', 'text': 'Bro como se perdió el arte', 'diggCount': 86, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7523791630316717074', 'uniqueId': 'nyako9311', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7941680fa88f973347764837a49a9b1f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=db12161d&amp;x-expires=1757808000&amp;x-signature=VbPap0A2JptnJ0BPsZYOdnDEso8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1804,22 +1884,22 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>se ve barato con la AI alpina que dececion</t>
+          <t>espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45910.70459490741</v>
+        <v>45910.97085648148</v>
       </c>
       <c r="H27" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>16:54:37</t>
+          <t>23:18:02</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1834,7 +1914,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548504964740694802', 'createTime': 1757523277, 'createTimeISO': '2025-09-10T16:54:37.000Z', 'text': 'se ve barato con la AI alpina que dececion', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842124879065515013', 'uniqueId': 'flanapoli', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b4c439341ae460ae62d6bf8327e9c318~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=075523b7&amp;x-expires=1757800800&amp;x-signature=owllgBpfmCqdrdZX%2Br6tmkmCf%2B4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548603750441599752', 'createTime': 1757546282, 'createTimeISO': '2025-09-10T23:18:02.000Z', 'text': 'espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6904343806360224773', 'uniqueId': 'thekambril', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/843de1e638535b6c4c44e34dcdd6dc88~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=125da61a&amp;x-expires=1757808000&amp;x-signature=4ujjXVmRooq1y1OCXR953ml6esk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1970,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548561345027752712', 'createTime': 1757536409, 'createTimeISO': '2025-09-10T20:33:29.000Z', 'text': 'sin presupuesto para publicidad , como sera el producto?', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6918781103953642502', 'uniqueId': 'avenaytamal', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/aa9181c161417e5dc803fcad15cc0d03~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cf935d35&amp;x-expires=1757800800&amp;x-signature=shTtxg1uyRUDHGVlt4Pk%2FVWo%2BiA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548561345027752712', 'createTime': 1757536409, 'createTimeISO': '2025-09-10T20:33:29.000Z', 'text': 'sin presupuesto para publicidad , como sera el producto?', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6918781103953642502', 'uniqueId': 'avenaytamal', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/aa9181c161417e5dc803fcad15cc0d03~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=90477d6b&amp;x-expires=1757808000&amp;x-signature=Ljab%2B8QBXEhWMJg%2BRq7PZi1Mwig%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1916,25 +1996,25 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Un anuncio de IA, en serio?...</t>
+          <t>que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45910.90475694444</v>
+        <v>45910.92987268518</v>
       </c>
       <c r="H29" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>21:42:51</t>
+          <t>22:19:01</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -1946,7 +2026,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548579047941669648', 'createTime': 1757540571, 'createTimeISO': '2025-09-10T21:42:51.000Z', 'text': 'Un anuncio de IA, en serio?...', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7267330640268559365', 'uniqueId': 'akg4lv1x', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/0cb47ff876dbe865901193337182695a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=53c1540b&amp;x-expires=1757800800&amp;x-signature=gTLK3qvRdt9SalrA%2FYRwaeXahkY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548588516893311762', 'createTime': 1757542741, 'createTimeISO': '2025-09-10T22:19:01.000Z', 'text': 'que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817878389598012422', 'uniqueId': 'alexo1208', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/ef7e2adcf8630799385cd64832d218ab~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2b2c8eda&amp;x-expires=1757808000&amp;x-signature=Bfd4ooY7o1mmf%2BZ308W2S2I9G1I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1972,22 +2052,22 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>increible el esfuerzo wow. 💔🥀</t>
+          <t>Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45910.87224537037</v>
+        <v>45910.91199074074</v>
       </c>
       <c r="H30" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>20:56:02</t>
+          <t>21:53:16</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2002,7 +2082,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548567124958348039', 'createTime': 1757537762, 'createTimeISO': '2025-09-10T20:56:02.000Z', 'text': 'increible el esfuerzo wow. 💔🥀', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7320483299197043717', 'uniqueId': 'dogfoj', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/80cf6fca533cc8d0175ee3672b20e6ca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=38c8f842&amp;x-expires=1757800800&amp;x-signature=DTKgKd8tmJ6r%2BkVM6XTUqWHhE1E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548581903085421319', 'createTime': 1757541196, 'createTimeISO': '2025-09-10T21:53:16.000Z', 'text': 'Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '242092892885082112', 'uniqueId': 'valiwolf', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/d46604217618ad37cce4d76a7a04cd46~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=988a94ff&amp;x-expires=1757808000&amp;x-signature=bXGySAIzOnE0%2BjmC%2B%2BT6JWamewM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2028,22 +2108,22 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>que es eso alpina</t>
+          <t>se ve barato con la AI alpina que dececion</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45910.94694444445</v>
+        <v>45910.70459490741</v>
       </c>
       <c r="H31" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>22:43:36</t>
+          <t>16:54:37</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2058,7 +2138,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548594843954447122', 'createTime': 1757544216, 'createTimeISO': '2025-09-10T22:43:36.000Z', 'text': 'que es eso alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6965117807211136002', 'uniqueId': 'bmn18920', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/06c0075ce87455af04698a541ffd2d51~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8e3aaf64&amp;x-expires=1757800800&amp;x-signature=guR92RiZquHmZUkYnqet%2F20pTYU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548504964740694802', 'createTime': 1757523277, 'createTimeISO': '2025-09-10T16:54:37.000Z', 'text': 'se ve barato con la AI alpina que dececion', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842124879065515013', 'uniqueId': 'flanapoli', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b4c439341ae460ae62d6bf8327e9c318~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ea9064ef&amp;x-expires=1757808000&amp;x-signature=OIGg6kyd6yz6IhqUUdWYuxMNZ4g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2084,22 +2164,22 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>tanto que ganan y ni un animador se dignan a pagar, el colmo.</t>
+          <t>Alpin que paso para llegar hasta este punto?</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45911.01949074074</v>
+        <v>45910.35961805555</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>00:28:04</t>
+          <t>08:37:51</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2114,7 +2194,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548621347896492801', 'createTime': 1757550484, 'createTimeISO': '2025-09-11T00:28:04.000Z', 'text': 'tanto que ganan y ni un animador se dignan a pagar, el colmo.', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959106580772471813', 'uniqueId': 'ans0fyyy', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/5787aa89d78fc130687462d5427a1653~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a8bcd73c&amp;x-expires=1757800800&amp;x-signature=vyPwNWjXZpI46h8LAhrkGih1uVs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548376941066732306', 'createTime': 1757493471, 'createTimeISO': '2025-09-10T08:37:51.000Z', 'text': 'Alpin que paso para llegar hasta este punto?', 'diggCount': 134, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7027306156922242054', 'uniqueId': 'zebis', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7e6922dadb62002e9255466f9bea4e5c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e4e5c8dd&amp;x-expires=1757808000&amp;x-signature=YuawQdQmEr1M0LdbJpqXA89xz6k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2140,22 +2220,22 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>IA enserio?</t>
+          <t>increible el esfuerzo wow. 💔🥀</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45910.895625</v>
+        <v>45910.87224537037</v>
       </c>
       <c r="H33" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>21:29:42</t>
+          <t>20:56:02</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2170,7 +2250,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548575782660162311', 'createTime': 1757539782, 'createTimeISO': '2025-09-10T21:29:42.000Z', 'text': 'IA enserio?', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6636493445244813317', 'uniqueId': 'jhunjunar', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7325239266097774597~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b5053619&amp;x-expires=1757800800&amp;x-signature=NUifEMuvwQ%2BsdlVzxTBL5XM9XWs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548567124958348039', 'createTime': 1757537762, 'createTimeISO': '2025-09-10T20:56:02.000Z', 'text': 'increible el esfuerzo wow. 💔🥀', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7320483299197043717', 'uniqueId': 'dogfoj', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/80cf6fca533cc8d0175ee3672b20e6ca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=767a62dd&amp;x-expires=1757808000&amp;x-signature=bX0kTNgvPvWb52jfmx9yUkhApIE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2196,22 +2276,22 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores</t>
+          <t>IA 😬</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45910.97085648148</v>
+        <v>45910.79935185185</v>
       </c>
       <c r="H34" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>23:18:02</t>
+          <t>19:11:04</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -2226,7 +2306,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548603750441599752', 'createTime': 1757546282, 'createTimeISO': '2025-09-10T23:18:02.000Z', 'text': 'espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6904343806360224773', 'uniqueId': 'thekambril', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/843de1e638535b6c4c44e34dcdd6dc88~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=621f8892&amp;x-expires=1757800800&amp;x-signature=bpLgRuoezq1siss3ZuIuyvpCc5o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548540108145328904', 'createTime': 1757531464, 'createTimeISO': '2025-09-10T19:11:04.000Z', 'text': 'IA 😬', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6878771113729967109', 'uniqueId': 'andresmartinez_co', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/0e4fa031bfb76175d309ce7aad482cd3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cc4793c5&amp;x-expires=1757808000&amp;x-signature=2gKyE2bxJ7R8oXi6IxoRLspe%2FOY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2252,22 +2332,22 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>IA 😬</t>
+          <t>Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45910.79935185185</v>
+        <v>45910.5497337963</v>
       </c>
       <c r="H35" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>19:11:04</t>
+          <t>13:11:37</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -2282,7 +2362,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548540108145328904', 'createTime': 1757531464, 'createTimeISO': '2025-09-10T19:11:04.000Z', 'text': 'IA 😬', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6878771113729967109', 'uniqueId': 'andresmartinez_co', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/0e4fa031bfb76175d309ce7aad482cd3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ea0aee91&amp;x-expires=1757800800&amp;x-signature=NMrRiV0Fto9KQ1K9aLMMagHe%2FN4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447494344131335', 'createTime': 1757509897, 'createTimeISO': '2025-09-10T13:11:37.000Z', 'text': 'Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.', 'diggCount': 39, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7039532507280196614', 'uniqueId': 'dulce_de_nata', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7332498416135274502~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6422c2c8&amp;x-expires=1757808000&amp;x-signature=Ck32Or9WC1C9syOZpNT1foWyGtc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2308,22 +2388,22 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje</t>
+          <t>que es eso alpina</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45910.91199074074</v>
+        <v>45910.94694444445</v>
       </c>
       <c r="H36" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>21:53:16</t>
+          <t>22:43:36</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2338,7 +2418,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548581903085421319', 'createTime': 1757541196, 'createTimeISO': '2025-09-10T21:53:16.000Z', 'text': 'Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '242092892885082112', 'uniqueId': 'valiwolf', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/d46604217618ad37cce4d76a7a04cd46~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9f833f59&amp;x-expires=1757800800&amp;x-signature=E4209uIEVY5MctL6QO%2BcZ9EAcdM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548594843954447122', 'createTime': 1757544216, 'createTimeISO': '2025-09-10T22:43:36.000Z', 'text': 'que es eso alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6965117807211136002', 'uniqueId': 'bmn18920', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/06c0075ce87455af04698a541ffd2d51~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2dbae077&amp;x-expires=1757808000&amp;x-signature=AIoguPF3njk7rhJGaXBp%2B2gnBes%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2364,22 +2444,22 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.</t>
+          <t>tanto que ganan y ni un animador se dignan a pagar, el colmo.</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45910.5497337963</v>
+        <v>45911.01949074074</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>13:11:37</t>
+          <t>00:28:04</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2394,7 +2474,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447494344131335', 'createTime': 1757509897, 'createTimeISO': '2025-09-10T13:11:37.000Z', 'text': 'Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.', 'diggCount': 39, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7039532507280196614', 'uniqueId': 'dulce_de_nata', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7332498416135274502~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c63d4512&amp;x-expires=1757800800&amp;x-signature=6PSCEFEMXF%2FBxuJulKUbYQAbQzw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548621347896492801', 'createTime': 1757550484, 'createTimeISO': '2025-09-11T00:28:04.000Z', 'text': 'tanto que ganan y ni un animador se dignan a pagar, el colmo.', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959106580772471813', 'uniqueId': 'ans0fyyy', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/5787aa89d78fc130687462d5427a1653~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fbaf5711&amp;x-expires=1757808000&amp;x-signature=FkJ0gx9yC56ZsoYPDPOr8CTmSXI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2420,25 +2500,25 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>tan lindo comercial 🥰🥰🥰🥰🥰</t>
+          <t>IA enserio?</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45910.40491898148</v>
+        <v>45910.895625</v>
       </c>
       <c r="H38" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>09:43:05</t>
+          <t>21:29:42</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -2450,7 +2530,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548393761517601554', 'createTime': 1757497385, 'createTimeISO': '2025-09-10T09:43:05.000Z', 'text': 'tan lindo comercial 🥰🥰🥰🥰🥰', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7461491967327962129', 'uniqueId': 'caro11.18', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/90a40a0ee147200def68ba2dfc2b1dca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=19db2a98&amp;x-expires=1757800800&amp;x-signature=QlhbkXdlaX949RtPyDLzqP9sIbc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548575782660162311', 'createTime': 1757539782, 'createTimeISO': '2025-09-10T21:29:42.000Z', 'text': 'IA enserio?', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6636493445244813317', 'uniqueId': 'jhunjunar', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7325239266097774597~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=85c041a4&amp;x-expires=1757808000&amp;x-signature=OHF7N7wNwHl5Ds88m54%2FkngwaJQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2476,22 +2556,22 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋</t>
+          <t>tan lindo comercial 🥰🥰🥰🥰🥰</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>45910.92987268518</v>
+        <v>45910.40491898148</v>
       </c>
       <c r="H39" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>22:19:01</t>
+          <t>09:43:05</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -2506,7 +2586,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548588516893311762', 'createTime': 1757542741, 'createTimeISO': '2025-09-10T22:19:01.000Z', 'text': 'que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817878389598012422', 'uniqueId': 'alexo1208', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/ef7e2adcf8630799385cd64832d218ab~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6625628c&amp;x-expires=1757800800&amp;x-signature=MS3uhegM3VhYHmuh4oh25Q8tb8Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548393761517601554', 'createTime': 1757497385, 'createTimeISO': '2025-09-10T09:43:05.000Z', 'text': 'tan lindo comercial 🥰🥰🥰🥰🥰', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7461491967327962129', 'uniqueId': 'caro11.18', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/90a40a0ee147200def68ba2dfc2b1dca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=abea12d1&amp;x-expires=1757808000&amp;x-signature=7YGtomWxZKO40pWonAkz8i98pQQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2532,25 +2612,25 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙</t>
+          <t>Un anuncio de IA, en serio?...</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45910.9325462963</v>
+        <v>45910.90475694444</v>
       </c>
       <c r="H40" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>22:22:52</t>
+          <t>21:42:51</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -2562,7 +2642,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548589473309754130', 'createTime': 1757542972, 'createTimeISO': '2025-09-10T22:22:52.000Z', 'text': 'Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6876120312544838661', 'uniqueId': 'andreselgatouriza', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a1737248c6e55a0fb70d1cb876e69804~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=926c4a51&amp;x-expires=1757800800&amp;x-signature=WSGS%2BWKDYI5OAfKs4v3vTd4MBWk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548579047941669648', 'createTime': 1757540571, 'createTimeISO': '2025-09-10T21:42:51.000Z', 'text': 'Un anuncio de IA, en serio?...', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7267330640268559365', 'uniqueId': 'akg4lv1x', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/0cb47ff876dbe865901193337182695a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=91b6be8c&amp;x-expires=1757808000&amp;x-signature=ysYe36sRFp6C%2FXAHpvX12YT3Csk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2588,25 +2668,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Me veo linda en mi historia?</t>
+          <t>Divino!!!! Amo la historia</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45910.42668981481</v>
+        <v>45910.97527777778</v>
       </c>
       <c r="H41" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>10:14:26</t>
+          <t>23:24:24</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -2618,7 +2698,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548401767362806534', 'createTime': 1757499266, 'createTimeISO': '2025-09-10T10:14:26.000Z', 'text': 'Me veo linda en mi historia?', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 5, 'uid': '7237572995751937029', 'uniqueId': 'escarletgiron3', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/90f45fbb28c045f99beaef24f4d1bcc5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ecc7d2f1&amp;x-expires=1757800800&amp;x-signature=dw%2F8eL8WKK6y0wPNCuc6Li9UUtU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548605334442967816', 'createTime': 1757546664, 'createTimeISO': '2025-09-10T23:24:24.000Z', 'text': 'Divino!!!! Amo la historia', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807194247927710726', 'uniqueId': 'isabelagarciag16', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/b88517984d3050fcaa52657a475e3d78~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fd21749e&amp;x-expires=1757808000&amp;x-signature=KVaXU5BMYLc7P%2BAd4GjBUJs%2FVtI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2644,25 +2724,25 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Divino!!!! Amo la historia</t>
+          <t>Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45910.97527777778</v>
+        <v>45910.93565972222</v>
       </c>
       <c r="H42" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>23:24:24</t>
+          <t>22:27:21</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -2674,7 +2754,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548605334442967816', 'createTime': 1757546664, 'createTimeISO': '2025-09-10T23:24:24.000Z', 'text': 'Divino!!!! Amo la historia', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807194247927710726', 'uniqueId': 'isabelagarciag16', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/b88517984d3050fcaa52657a475e3d78~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b182a8b1&amp;x-expires=1757800800&amp;x-signature=X2kvEWUzCSbYk62G9Y%2FNM5sHcgk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548590640369173255', 'createTime': 1757543241, 'createTimeISO': '2025-09-10T22:27:21.000Z', 'text': 'Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7111661840812639237', 'uniqueId': 'juliandavidmuri10', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7111662424408096774~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=49266d0c&amp;x-expires=1757808000&amp;x-signature=DW%2FIimjn85YKC99p3RvT49hF9lc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2700,25 +2780,25 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>una historia muy original 💙 Alpina llegando a nuestros hogares por más de 80 años 🤗</t>
+          <t>¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45910.95302083333</v>
+        <v>45910.95050925926</v>
       </c>
       <c r="H43" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>22:52:21</t>
+          <t>22:48:44</t>
         </is>
       </c>
       <c r="J43" t="n">
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -2730,7 +2810,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548597086792696594', 'createTime': 1757544741, 'createTimeISO': '2025-09-10T22:52:21.000Z', 'text': 'una historia muy original 💙 Alpina llegando a nuestros hogares por más de 80 años 🤗', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6808353821459350534', 'uniqueId': 'kathemia1002', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/74284c3455ff47a191f0cbc0236da720~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b6ec9f1f&amp;x-expires=1757800800&amp;x-signature=3mCZJCCm3BKcoTa%2Fp5AyRcLXj28%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548596179627049736', 'createTime': 1757544524, 'createTimeISO': '2025-09-10T22:48:44.000Z', 'text': '¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '6892483566695154694', 'uniqueId': 'karenarres', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8e7f13a6edbd9f1e73869cf96c40fede~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d587ae61&amp;x-expires=1757808000&amp;x-signature=syIAx98MrVAUMojX3MCn1jM%2Fo78%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2756,25 +2836,25 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Si usan IA no me fío de los procesos de sus lácteos 😅</t>
+          <t>Me veo linda en mi historia?</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45911.16465277778</v>
+        <v>45910.42668981481</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>03:57:06</t>
+          <t>10:14:26</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -2786,7 +2866,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548675672371430152', 'createTime': 1757563026, 'createTimeISO': '2025-09-11T03:57:06.000Z', 'text': 'Si usan IA no me fío de los procesos de sus lácteos 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7035757402419250181', 'uniqueId': 'saan_300', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7335925676140625926~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e27c4410&amp;x-expires=1757800800&amp;x-signature=OVFkCxChrT5ygAddwRNweTa0ZNQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548401767362806534', 'createTime': 1757499266, 'createTimeISO': '2025-09-10T10:14:26.000Z', 'text': 'Me veo linda en mi historia?', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 5, 'uid': '7237572995751937029', 'uniqueId': 'escarletgiron3', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/90f45fbb28c045f99beaef24f4d1bcc5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3875986d&amp;x-expires=1757808000&amp;x-signature=K8YioJFcMPJrcPKUPMA0FxQUtfs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2812,25 +2892,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Alpin que paso para llegar hasta este punto?</t>
+          <t>una historia muy original 💙 Alpina llegando a nuestros hogares por más de 80 años 🤗</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45910.35961805555</v>
+        <v>45910.95302083333</v>
       </c>
       <c r="H45" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>08:37:51</t>
+          <t>22:52:21</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -2842,7 +2922,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548376941066732306', 'createTime': 1757493471, 'createTimeISO': '2025-09-10T08:37:51.000Z', 'text': 'Alpin que paso para llegar hasta este punto?', 'diggCount': 134, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7027306156922242054', 'uniqueId': 'zebis', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7e6922dadb62002e9255466f9bea4e5c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=df17dc37&amp;x-expires=1757800800&amp;x-signature=kBo%2BwEYBgkk1lFOLThA2lombLUU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548597086792696594', 'createTime': 1757544741, 'createTimeISO': '2025-09-10T22:52:21.000Z', 'text': 'una historia muy original 💙 Alpina llegando a nuestros hogares por más de 80 años 🤗', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6808353821459350534', 'uniqueId': 'kathemia1002', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/74284c3455ff47a191f0cbc0236da720~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=166c680f&amp;x-expires=1757808000&amp;x-signature=Cz8lNnBmPzGjzJTaFuR1RxqrS3s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2868,25 +2948,25 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd</t>
+          <t>Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45911.09881944444</v>
+        <v>45910.96769675926</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>02:22:18</t>
+          <t>23:13:29</t>
         </is>
       </c>
       <c r="J46" t="n">
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -2898,7 +2978,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548651242424926994', 'createTime': 1757557338, 'createTimeISO': '2025-09-11T02:22:18.000Z', 'text': 'y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7127269324398822406', 'uniqueId': 'art_vlogs_124453', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/776a09d992ac899821136707d41a334f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c64fed3&amp;x-expires=1757800800&amp;x-signature=0KvT7VoAUNE5r4NPct8e%2FdS84Po%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548602541611041544', 'createTime': 1757546009, 'createTimeISO': '2025-09-10T23:13:29.000Z', 'text': 'Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7497728292843521025', 'uniqueId': 'johncisf05', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/505945559d7145fdfd55587e4211927a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=50891f3c&amp;x-expires=1757808000&amp;x-signature=VZmvpPqyGQ%2FiyYh9FV1T%2Fm%2BWmlg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2924,26 +3004,26 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Me encanta 💙</t>
+          <t>Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45910.96372685185</v>
+        <v>45910.9325462963</v>
       </c>
       <c r="H47" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>23:07:46</t>
+          <t>22:22:52</t>
         </is>
       </c>
       <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" t="n">
         <v>1</v>
       </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
@@ -2954,7 +3034,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548601049558713106', 'createTime': 1757545666, 'createTimeISO': '2025-09-10T23:07:46.000Z', 'text': 'Me encanta 💙', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765986832699999237', 'uniqueId': 'maiteito', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a3685ad22846cc5cdb0de3282e771d00~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7b2b6afa&amp;x-expires=1757800800&amp;x-signature=HizyI5Cmy2qfymnpzkZbpn%2FWdIo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548589473309754130', 'createTime': 1757542972, 'createTimeISO': '2025-09-10T22:22:52.000Z', 'text': 'Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6876120312544838661', 'uniqueId': 'andreselgatouriza', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/a1737248c6e55a0fb70d1cb876e69804~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=61a7ce9d&amp;x-expires=1757808000&amp;x-signature=NYAnTmk%2FzReDbC7jIJQ0CeBFHqg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2980,25 +3060,25 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙</t>
+          <t>Qué linda está historiaa! Me encanta</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45910.93565972222</v>
+        <v>45910.64038194445</v>
       </c>
       <c r="H48" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>22:27:21</t>
+          <t>15:22:09</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -3010,7 +3090,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548590640369173255', 'createTime': 1757543241, 'createTimeISO': '2025-09-10T22:27:21.000Z', 'text': 'Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7111661840812639237', 'uniqueId': 'juliandavidmuri10', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7111662424408096774~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a65a14b6&amp;x-expires=1757800800&amp;x-signature=%2BpBbkXszhRO4J0Q1dxhFTjX4Q1I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548481145101763335', 'createTime': 1757517729, 'createTimeISO': '2025-09-10T15:22:09.000Z', 'text': 'Qué linda está historiaa! Me encanta', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807939541208237061', 'uniqueId': 'arestrepo1', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7331111760105046022~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=4e5c160f&amp;x-expires=1757808000&amp;x-signature=lpFvjtKW2cjTmJn310MQEqzFTMg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3036,25 +3116,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!</t>
+          <t>Si usan IA no me fío de los procesos de sus lácteos 😅</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45910.96769675926</v>
+        <v>45911.16465277778</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>23:13:29</t>
+          <t>03:57:06</t>
         </is>
       </c>
       <c r="J49" t="n">
         <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -3066,7 +3146,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548602541611041544', 'createTime': 1757546009, 'createTimeISO': '2025-09-10T23:13:29.000Z', 'text': 'Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7497728292843521025', 'uniqueId': 'johncisf05', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/505945559d7145fdfd55587e4211927a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=323eb79c&amp;x-expires=1757800800&amp;x-signature=hFZPkA576pClodxrN8OfHaqX%2FjA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548675672371430152', 'createTime': 1757563026, 'createTimeISO': '2025-09-11T03:57:06.000Z', 'text': 'Si usan IA no me fío de los procesos de sus lácteos 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7035757402419250181', 'uniqueId': 'saan_300', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7335925676140625926~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a3870f55&amp;x-expires=1757808000&amp;x-signature=4kaEiupVrf5KbE2Ir4wKHkUsQZo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3092,23 +3172,22 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>deseo vender sus productos
-gracias</t>
+          <t>y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45910.47114583333</v>
+        <v>45911.09881944444</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>11:18:27</t>
+          <t>02:22:18</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -3123,7 +3202,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548418329276318472', 'createTime': 1757503107, 'createTimeISO': '2025-09-10T11:18:27.000Z', 'text': 'deseo vender sus productos\ngracias', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7450631040689423366', 'uniqueId': 'leonbsxez4f', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ac3a90e3&amp;x-expires=1757800800&amp;x-signature=AdQO1Ek7axnG9LQzNuh2igzarw4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548651242424926994', 'createTime': 1757557338, 'createTimeISO': '2025-09-11T02:22:18.000Z', 'text': 'y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7127269324398822406', 'uniqueId': 'art_vlogs_124453', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/776a09d992ac899821136707d41a334f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ae4a0503&amp;x-expires=1757808000&amp;x-signature=l0VrtIWncmJDcHYwfdTzyH2Wdnc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3149,25 +3228,25 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛</t>
+          <t>Me encanta 💙</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45910.95050925926</v>
+        <v>45911.94859953703</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>22:48:44</t>
+          <t>22:45:59</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -3179,7 +3258,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548596179627049736', 'createTime': 1757544524, 'createTimeISO': '2025-09-10T22:48:44.000Z', 'text': '¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '6892483566695154694', 'uniqueId': 'karenarres', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8e7f13a6edbd9f1e73869cf96c40fede~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b3ec7dc2&amp;x-expires=1757800800&amp;x-signature=YOqozOGK0i57pUFza3eS4v80NUQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548966545201693458', 'createTime': 1757630759, 'createTimeISO': '2025-09-11T22:45:59.000Z', 'text': 'Me encanta 💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7192343363575530502', 'uniqueId': 'pilarcardona90', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f0ff25a33bba318f336930d217532900~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=bd4c6dab&amp;x-expires=1757808000&amp;x-signature=Q9Sf0l5T71s2nHdk%2BAswB07OtB8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3205,18 +3284,18 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Me encanta 💙</t>
+          <t>ia?</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45911.94859953703</v>
+        <v>45910.9887037037</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>22:45:59</t>
+          <t>23:43:44</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -3235,7 +3314,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548966545201693458', 'createTime': 1757630759, 'createTimeISO': '2025-09-11T22:45:59.000Z', 'text': 'Me encanta 💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7192343363575530502', 'uniqueId': 'pilarcardona90', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f0ff25a33bba318f336930d217532900~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=bc028339&amp;x-expires=1757800800&amp;x-signature=gJx5P5xFqWPD%2FYpL4Z5ftnzTHSE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548610361759449863', 'createTime': 1757547824, 'createTimeISO': '2025-09-10T23:43:44.000Z', 'text': 'ia?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6912837321592488965', 'uniqueId': 'lennin.palacio', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/faee210c34b84e9f531a921eda58429b~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=376a3dc9&amp;x-expires=1757808000&amp;x-signature=O%2Fdk1g77qpQHqgGtMguS77tGXTw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3261,25 +3340,26 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Qué linda está historiaa! Me encanta</t>
+          <t>deseo vender sus productos
+gracias</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45910.64038194445</v>
+        <v>45910.47114583333</v>
       </c>
       <c r="H53" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>15:22:09</t>
+          <t>11:18:27</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -3291,7 +3371,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548481145101763335', 'createTime': 1757517729, 'createTimeISO': '2025-09-10T15:22:09.000Z', 'text': 'Qué linda está historiaa! Me encanta', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807939541208237061', 'uniqueId': 'arestrepo1', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7331111760105046022~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3d42f26c&amp;x-expires=1757800800&amp;x-signature=0fSW0iUZfwY0dqUFTc0xS%2BaYs8U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548418329276318472', 'createTime': 1757503107, 'createTimeISO': '2025-09-10T11:18:27.000Z', 'text': 'deseo vender sus productos\ngracias', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7450631040689423366', 'uniqueId': 'leonbsxez4f', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=60d7697c&amp;x-expires=1757808000&amp;x-signature=3Kc0sPy4rNqGxM28KuJKLElUwbA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3317,22 +3397,22 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ia?</t>
+          <t>Un cliente menos por usar IA. Lo mínimo sería que se esforzaran.</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45910.9887037037</v>
+        <v>45910.44918981481</v>
       </c>
       <c r="H54" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>23:43:44</t>
+          <t>10:46:50</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -3347,7 +3427,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548610361759449863', 'createTime': 1757547824, 'createTimeISO': '2025-09-10T23:43:44.000Z', 'text': 'ia?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6912837321592488965', 'uniqueId': 'lennin.palacio', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/faee210c34b84e9f531a921eda58429b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fdc65f55&amp;x-expires=1757800800&amp;x-signature=T%2Bnp9nhohI%2FDT%2BfeVK4YfCU%2BKi0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548410183963149063', 'createTime': 1757501210, 'createTimeISO': '2025-09-10T10:46:50.000Z', 'text': 'Un cliente menos por usar IA. Lo mínimo sería que se esforzaran.', 'diggCount': 19, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6831317940266632198', 'uniqueId': 'hfwxkmii', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c073c67778fa163af85e8ec12e9f7b34~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5c63abf2&amp;x-expires=1757808000&amp;x-signature=y9cLG9%2F9misEsY9BD5TI8p2gIVo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3373,22 +3453,22 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Un cliente menos por usar IA. Lo mínimo sería que se esforzaran.</t>
+          <t>la ia mato la originalidad, extraño los anuncios de antes de alpin</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45910.44918981481</v>
+        <v>45910.41877314815</v>
       </c>
       <c r="H55" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>10:46:50</t>
+          <t>10:03:02</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -3403,7 +3483,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548410183963149063', 'createTime': 1757501210, 'createTimeISO': '2025-09-10T10:46:50.000Z', 'text': 'Un cliente menos por usar IA. Lo mínimo sería que se esforzaran.', 'diggCount': 19, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6831317940266632198', 'uniqueId': 'hfwxkmii', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c073c67778fa163af85e8ec12e9f7b34~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2c24940b&amp;x-expires=1757800800&amp;x-signature=uAWorcUCUEWnWKVhLUtC%2BwZN2co%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548398904514036496', 'createTime': 1757498582, 'createTimeISO': '2025-09-10T10:03:02.000Z', 'text': 'la ia mato la originalidad, extraño los anuncios de antes de alpin', 'diggCount': 30, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7423950923732534278', 'uniqueId': 'n_sin_ideas', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/778bdb3c77f3b1186ea08862f026d708~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5902ccd3&amp;x-expires=1757808000&amp;x-signature=%2F3H5P6CozJk9BHQzkLt589ivatA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3429,22 +3509,22 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>la ia mato la originalidad, extraño los anuncios de antes de alpin</t>
+          <t>Ya le dan pereza hacer una animación ya hasta usan IA</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>45910.41877314815</v>
+        <v>45910.25746527778</v>
       </c>
       <c r="H56" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>10:03:02</t>
+          <t>06:10:45</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -3459,7 +3539,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548398904514036496', 'createTime': 1757498582, 'createTimeISO': '2025-09-10T10:03:02.000Z', 'text': 'la ia mato la originalidad, extraño los anuncios de antes de alpin', 'diggCount': 30, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7423950923732534278', 'uniqueId': 'n_sin_ideas', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/778bdb3c77f3b1186ea08862f026d708~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fcd5e26e&amp;x-expires=1757800800&amp;x-signature=lXf5e0AnzoHTudt6E3an5tI8ICs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548339039976506130', 'createTime': 1757484645, 'createTimeISO': '2025-09-10T06:10:45.000Z', 'text': 'Ya le dan pereza hacer una animación ya hasta usan IA', 'diggCount': 63, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7052150802987156485', 'uniqueId': 'jhon_87g', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/03ffe7e0084a217762b94e6878473788~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7b91535a&amp;x-expires=1757808000&amp;x-signature=D9VjpQwteJNg8CUPkqrvt249%2BN8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3485,22 +3565,22 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ya le dan pereza hacer una animación ya hasta usan IA</t>
+          <t>que bajo usar ia.</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45910.25746527778</v>
+        <v>45910.27891203704</v>
       </c>
       <c r="H57" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>06:10:45</t>
+          <t>06:41:38</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -3515,7 +3595,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548339039976506130', 'createTime': 1757484645, 'createTimeISO': '2025-09-10T06:10:45.000Z', 'text': 'Ya le dan pereza hacer una animación ya hasta usan IA', 'diggCount': 63, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7052150802987156485', 'uniqueId': 'jhon_87g', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/03ffe7e0084a217762b94e6878473788~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0f532897&amp;x-expires=1757800800&amp;x-signature=HVYfZZrMcHckawIfuA0FM6sVxIw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548346981217157895', 'createTime': 1757486498, 'createTimeISO': '2025-09-10T06:41:38.000Z', 'text': 'que bajo usar ia.', 'diggCount': 42, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7167799974063031302', 'uniqueId': 'dummynicki', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/888d77da15c4f8e8f72e228123fe8864~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0f4775a2&amp;x-expires=1757808000&amp;x-signature=10qH4NWMF4KYzL8Iku53VKTjns8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3541,25 +3621,25 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>que bajo usar ia.</t>
+          <t>Uno espera eso de marcas chiquitas que no les alcanza para publicidad</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45910.27891203704</v>
+        <v>45910.36795138889</v>
       </c>
       <c r="H58" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>06:41:38</t>
+          <t>08:49:51</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -3571,7 +3651,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548346981217157895', 'createTime': 1757486498, 'createTimeISO': '2025-09-10T06:41:38.000Z', 'text': 'que bajo usar ia.', 'diggCount': 42, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7167799974063031302', 'uniqueId': 'dummynicki', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/888d77da15c4f8e8f72e228123fe8864~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8c3fac08&amp;x-expires=1757800800&amp;x-signature=fXWbwFjEDYuoz2r1r3X81AdMRWQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548380036207395605', 'createTime': 1757494191, 'createTimeISO': '2025-09-10T08:49:51.000Z', 'text': 'Uno espera eso de marcas chiquitas que no les alcanza para publicidad', 'diggCount': 20, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6916860526317700102', 'uniqueId': 'danyelangelb', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/724928af54d82cb730b74befb561dc8b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bf4972d7&amp;x-expires=1757808000&amp;x-signature=jkFZyvBUVp6otlPgKQL2PUUwAlE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3597,25 +3677,25 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Uno espera eso de marcas chiquitas que no les alcanza para publicidad</t>
+          <t>IA 💀💀💀💀</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45910.36795138889</v>
+        <v>45910.57609953704</v>
       </c>
       <c r="H59" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>08:49:51</t>
+          <t>13:49:35</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
@@ -3627,7 +3707,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548380036207395605', 'createTime': 1757494191, 'createTimeISO': '2025-09-10T08:49:51.000Z', 'text': 'Uno espera eso de marcas chiquitas que no les alcanza para publicidad', 'diggCount': 20, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6916860526317700102', 'uniqueId': 'danyelangelb', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/724928af54d82cb730b74befb561dc8b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=153d25db&amp;x-expires=1757800800&amp;x-signature=3zTKWC2l3%2Bl56RpeZN49Ei0uMfk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548457290329604882', 'createTime': 1757512175, 'createTimeISO': '2025-09-10T13:49:35.000Z', 'text': 'IA 💀💀💀💀', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7332704', 'uniqueId': 'andreandreandreaaa', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/af674a3010d5299eb3031b6029febf13~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=87505808&amp;x-expires=1757808000&amp;x-signature=elzthidlJN19XhzP1PX7vk6FT3k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3653,22 +3733,22 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>IA 💀💀💀💀</t>
+          <t>trátame serio</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45910.57609953704</v>
+        <v>45910.39059027778</v>
       </c>
       <c r="H60" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>13:49:35</t>
+          <t>09:22:27</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -3683,7 +3763,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548457290329604882', 'createTime': 1757512175, 'createTimeISO': '2025-09-10T13:49:35.000Z', 'text': 'IA 💀💀💀💀', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7332704', 'uniqueId': 'andreandreandreaaa', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/af674a3010d5299eb3031b6029febf13~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=00d725c2&amp;x-expires=1757800800&amp;x-signature=oD3bUN%2B%2FYQwBhiqu9AiSgrNqzss%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548388399540732673', 'createTime': 1757496147, 'createTimeISO': '2025-09-10T09:22:27.000Z', 'text': 'trátame serio', 'diggCount': 17, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7269821787213759493', 'uniqueId': 'horrendoporro', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/5a352fff86558acc67aa91907eb9d00f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8abf79a0&amp;x-expires=1757808000&amp;x-signature=Tx6etniVwCZapYPSY%2F6oMqB5IBw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3709,22 +3789,22 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>trátame serio</t>
+          <t>cómo diseñadora y futura animadora, me duele ver qué usa IA. sabiendo que es una empresa millonaria</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45910.39059027778</v>
+        <v>45910.89931712963</v>
       </c>
       <c r="H61" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>09:22:27</t>
+          <t>21:35:01</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -3739,7 +3819,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548388399540732673', 'createTime': 1757496147, 'createTimeISO': '2025-09-10T09:22:27.000Z', 'text': 'trátame serio', 'diggCount': 17, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7269821787213759493', 'uniqueId': 'horrendoporro', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/5a352fff86558acc67aa91907eb9d00f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=31d334de&amp;x-expires=1757800800&amp;x-signature=ct3tDf1aV1eXJ7CxJzA8nFYp0u8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548577179987297045', 'createTime': 1757540101, 'createTimeISO': '2025-09-10T21:35:01.000Z', 'text': 'cómo diseñadora y futura animadora, me duele ver qué usa IA. sabiendo que es una empresa millonaria', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7088423636848280581', 'uniqueId': '__kim_.dan_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d86b34aeb7ca62450a58e8618a1437da~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ae2c0127&amp;x-expires=1757808000&amp;x-signature=onKwoIA12nIZXC5BP%2BR1sVMKV98%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3765,22 +3845,22 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>cómo diseñadora y futura animadora, me duele ver qué usa IA. sabiendo que es una empresa millonaria</t>
+          <t>por eso es mejor la marca pureza</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45910.89931712963</v>
+        <v>45910.43903935186</v>
       </c>
       <c r="H62" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>21:35:01</t>
+          <t>10:32:13</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -3795,7 +3875,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548577179987297045', 'createTime': 1757540101, 'createTimeISO': '2025-09-10T21:35:01.000Z', 'text': 'cómo diseñadora y futura animadora, me duele ver qué usa IA. sabiendo que es una empresa millonaria', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7088423636848280581', 'uniqueId': '__kim_.dan_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d86b34aeb7ca62450a58e8618a1437da~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fd19b824&amp;x-expires=1757800800&amp;x-signature=eOl3U6TBjd55i0LtamI9mfxuXig%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548406411652023048', 'createTime': 1757500333, 'createTimeISO': '2025-09-10T10:32:13.000Z', 'text': 'por eso es mejor la marca pureza', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7532305065131033608', 'uniqueId': 'annshixd', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/96e56ac3430174ee911ad04eff7233af~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e303328d&amp;x-expires=1757808000&amp;x-signature=mDhy4O1QpsXbbAWO5j1Ui1lZSdM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3821,22 +3901,22 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>por eso es mejor la marca pureza</t>
+          <t>hasta yo que no se animar lo hago mejor</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45910.43903935186</v>
+        <v>45910.75954861111</v>
       </c>
       <c r="H63" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>10:32:13</t>
+          <t>18:13:45</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3851,7 +3931,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548406411652023048', 'createTime': 1757500333, 'createTimeISO': '2025-09-10T10:32:13.000Z', 'text': 'por eso es mejor la marca pureza', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7532305065131033608', 'uniqueId': 'annshixd', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/96e56ac3430174ee911ad04eff7233af~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a864fb6d&amp;x-expires=1757800800&amp;x-signature=R1pPk3Su05gyqLXgwYXhnqL6nJU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548525337766298386', 'createTime': 1757528025, 'createTimeISO': '2025-09-10T18:13:45.000Z', 'text': 'hasta yo que no se animar lo hago mejor', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6821105890537964550', 'uniqueId': 'doodle_tam', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b6955c33763a61b586f923a3d4c6fff8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=be6c71ad&amp;x-expires=1757808000&amp;x-signature=K2DkKoEt3iD6DYMZ0ofGQuTcURM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3877,22 +3957,22 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>hasta yo que no se animar lo hago mejor</t>
+          <t>Así de artificial son los nutriente 😅</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45910.75954861111</v>
+        <v>45910.89015046296</v>
       </c>
       <c r="H64" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>18:13:45</t>
+          <t>21:21:49</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -3907,7 +3987,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548525337766298386', 'createTime': 1757528025, 'createTimeISO': '2025-09-10T18:13:45.000Z', 'text': 'hasta yo que no se animar lo hago mejor', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6821105890537964550', 'uniqueId': 'doodle_tam', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b6955c33763a61b586f923a3d4c6fff8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=20e33b55&amp;x-expires=1757800800&amp;x-signature=y1dBRZa70NPEUp1%2FGAk4CC7A%2F3Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548573780232045320', 'createTime': 1757539309, 'createTimeISO': '2025-09-10T21:21:49.000Z', 'text': 'Así de artificial son los nutriente 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6789799898302284805', 'uniqueId': 'ladeliagendas', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/9009b02feb54b951748fb889574a258d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=75cf0949&amp;x-expires=1757808000&amp;x-signature=FTqEuFF67XzvH8XIHrFAdTF85xU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3933,18 +4013,18 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Así de artificial son los nutriente 😅</t>
+          <t>no les dolía tanto e bolsillo comisionar a un artista de verdad sabes??😅😅</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45910.89015046296</v>
+        <v>45910.81274305555</v>
       </c>
       <c r="H65" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>21:21:49</t>
+          <t>19:30:21</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -3963,7 +4043,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548573780232045320', 'createTime': 1757539309, 'createTimeISO': '2025-09-10T21:21:49.000Z', 'text': 'Así de artificial son los nutriente 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6789799898302284805', 'uniqueId': 'ladeliagendas', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/9009b02feb54b951748fb889574a258d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d57aa9bf&amp;x-expires=1757800800&amp;x-signature=lQZ%2FCgm4U0PhC6raPR58SEdCVeY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548545077762605832', 'createTime': 1757532621, 'createTimeISO': '2025-09-10T19:30:21.000Z', 'text': 'no les dolía tanto e bolsillo comisionar a un artista de verdad sabes??😅😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7043924049042916357', 'uniqueId': 'isariosss7', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/97a9036a3d513b6e6f9089ac76500f9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5ef5c5da&amp;x-expires=1757808000&amp;x-signature=vQCIgtlKXIu5IGhopm62%2FmFonuA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3989,18 +4069,18 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>no les dolía tanto e bolsillo comisionar a un artista de verdad sabes??😅😅</t>
+          <t>duro de ver</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45910.81274305555</v>
+        <v>45910.79689814815</v>
       </c>
       <c r="H66" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>19:30:21</t>
+          <t>19:07:32</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -4019,7 +4099,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548545077762605832', 'createTime': 1757532621, 'createTimeISO': '2025-09-10T19:30:21.000Z', 'text': 'no les dolía tanto e bolsillo comisionar a un artista de verdad sabes??😅😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7043924049042916357', 'uniqueId': 'isariosss7', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/97a9036a3d513b6e6f9089ac76500f9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=09d31d6d&amp;x-expires=1757800800&amp;x-signature=Hzrx7Dw2Ma80SghtGxsI7IQGRtQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548539172203954962', 'createTime': 1757531252, 'createTimeISO': '2025-09-10T19:07:32.000Z', 'text': 'duro de ver', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6848315334416483334', 'uniqueId': 'uyyuart', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/64238889da285c6d545191932696d173~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7d662679&amp;x-expires=1757808000&amp;x-signature=pUnT5EBB9ORxZePRo7p5DlFzZtk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4045,18 +4125,18 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>duro de ver</t>
+          <t>Bro?💀</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45910.79689814815</v>
+        <v>45910.73438657408</v>
       </c>
       <c r="H67" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>19:07:32</t>
+          <t>17:37:31</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -4075,7 +4155,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548539172203954962', 'createTime': 1757531252, 'createTimeISO': '2025-09-10T19:07:32.000Z', 'text': 'duro de ver', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6848315334416483334', 'uniqueId': 'uyyuart', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/64238889da285c6d545191932696d173~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2c86b1e9&amp;x-expires=1757800800&amp;x-signature=WF8qZJJFKhQ8J%2BzGrs9Ana1jyGE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548516020722909960', 'createTime': 1757525851, 'createTimeISO': '2025-09-10T17:37:31.000Z', 'text': 'Bro?💀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7062546552564237317', 'uniqueId': 'umji_238', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/775b6041c9fdd0f49cde43fb9deb54fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3ac7436e&amp;x-expires=1757808000&amp;x-signature=vOrZk%2FMIrliJ0KZEPtni7wRmeww%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4101,22 +4181,22 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Bro?💀</t>
+          <t>Uy amigos por lo menos disimulen la ia porque se ve horrible ese comercial</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45910.73438657408</v>
+        <v>45910.58208333333</v>
       </c>
       <c r="H68" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>17:37:31</t>
+          <t>13:58:12</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -4131,7 +4211,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548516020722909960', 'createTime': 1757525851, 'createTimeISO': '2025-09-10T17:37:31.000Z', 'text': 'Bro?💀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7062546552564237317', 'uniqueId': 'umji_238', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/775b6041c9fdd0f49cde43fb9deb54fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5d0e8d31&amp;x-expires=1757800800&amp;x-signature=ShcFwC0aNvqjcncStfytdojYxaA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548459511968121608', 'createTime': 1757512692, 'createTimeISO': '2025-09-10T13:58:12.000Z', 'text': 'Uy amigos por lo menos disimulen la ia porque se ve horrible ese comercial', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6754154606328808453', 'uniqueId': 'lecterspov', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a09d318b4f042339bb2945ad8ac0a33a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3d3f6181&amp;x-expires=1757808000&amp;x-signature=ml26zsPx0OS8%2Bynj6ZRU9pwKyw8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4157,22 +4237,22 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Uy amigos por lo menos disimulen la ia porque se ve horrible ese comercial</t>
+          <t>Dios la animacion hizo que sangraran mis ojos</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45910.58208333333</v>
+        <v>45911.23148148148</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>13:58:12</t>
+          <t>05:33:20</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4187,7 +4267,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548459511968121608', 'createTime': 1757512692, 'createTimeISO': '2025-09-10T13:58:12.000Z', 'text': 'Uy amigos por lo menos disimulen la ia porque se ve horrible ese comercial', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6754154606328808453', 'uniqueId': 'lecterspov', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a09d318b4f042339bb2945ad8ac0a33a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aa50128d&amp;x-expires=1757800800&amp;x-signature=WHblzlOYd9mVg8lzo4z3aw%2BHEUY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548700471956865812', 'createTime': 1757568800, 'createTimeISO': '2025-09-11T05:33:20.000Z', 'text': 'Dios la animacion hizo que sangraran mis ojos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6938471178873635846', 'uniqueId': 'fred.pendly', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/e89d64cfe3f0b62bb357738336fc27cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6529cba3&amp;x-expires=1757808000&amp;x-signature=gkTnbY3h3AXSFdmh4qcyowWxlIU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4213,22 +4293,22 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Dios la animacion hizo que sangraran mis ojos</t>
+          <t>Alpina, una de las marcas más reconocidas y exitosas del país, no tiene para pagarle a un estudio de animación y le dieron ese trabajo al primer tipo que sugirió escribir prompts y sacar este anuncio tan flojo y feo</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45911.23148148148</v>
+        <v>45910.33052083333</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>05:33:20</t>
+          <t>07:55:57</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -4243,7 +4323,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548700471956865812', 'createTime': 1757568800, 'createTimeISO': '2025-09-11T05:33:20.000Z', 'text': 'Dios la animacion hizo que sangraran mis ojos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6938471178873635846', 'uniqueId': 'fred.pendly', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/e89d64cfe3f0b62bb357738336fc27cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=276cebb0&amp;x-expires=1757800800&amp;x-signature=m3hNcGVnwCG80cMEtlVIgYXogGM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548366156965495570', 'createTime': 1757490957, 'createTimeISO': '2025-09-10T07:55:57.000Z', 'text': 'Alpina, una de las marcas más reconocidas y exitosas del país, no tiene para pagarle a un estudio de animación y le dieron ese trabajo al primer tipo que sugirió escribir prompts y sacar este anuncio tan flojo y feo', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806565442996487174', 'uniqueId': 'maikylart', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/53277bd06fe07cea9179d145496d1ddc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b381daeb&amp;x-expires=1757808000&amp;x-signature=CcmH8QrcOy89VIzV11MndCEY%2Bes%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4269,22 +4349,22 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Alpina, una de las marcas más reconocidas y exitosas del país, no tiene para pagarle a un estudio de animación y le dieron ese trabajo al primer tipo que sugirió escribir prompts y sacar este anuncio tan flojo y feo</t>
+          <t>Contraten artistas reales, tacaños</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>45910.33052083333</v>
+        <v>45910.44408564815</v>
       </c>
       <c r="H71" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>07:55:57</t>
+          <t>10:39:29</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -4299,7 +4379,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548366156965495570', 'createTime': 1757490957, 'createTimeISO': '2025-09-10T07:55:57.000Z', 'text': 'Alpina, una de las marcas más reconocidas y exitosas del país, no tiene para pagarle a un estudio de animación y le dieron ese trabajo al primer tipo que sugirió escribir prompts y sacar este anuncio tan flojo y feo', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806565442996487174', 'uniqueId': 'maikylart', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/53277bd06fe07cea9179d145496d1ddc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ddd6ddfc&amp;x-expires=1757800800&amp;x-signature=3K%2By%2Bdcne3yveQC0l6m%2B1ITsAZA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548408060374860545', 'createTime': 1757500769, 'createTimeISO': '2025-09-10T10:39:29.000Z', 'text': 'Contraten artistas reales, tacaños', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7392782108512912390', 'uniqueId': 'stuffilike.alien', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/859aa727b06ccb2a701c3a4133f034a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2090f839&amp;x-expires=1757808000&amp;x-signature=9%2F66Ey5QNeQQGKXC42gdXXyq3Kg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4325,25 +4405,25 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Contraten artistas reales, tacaños</t>
+          <t>esa ia que, bajenle el sueldo al del marketing</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45910.44408564815</v>
+        <v>45910.44768518519</v>
       </c>
       <c r="H72" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>10:39:29</t>
+          <t>10:44:40</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L72" t="b">
         <v>0</v>
@@ -4355,7 +4435,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548408060374860545', 'createTime': 1757500769, 'createTimeISO': '2025-09-10T10:39:29.000Z', 'text': 'Contraten artistas reales, tacaños', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7392782108512912390', 'uniqueId': 'stuffilike.alien', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/859aa727b06ccb2a701c3a4133f034a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5845153e&amp;x-expires=1757800800&amp;x-signature=ZsCVai%2B2lrRwHIi66QyWSfuiBBE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548409627651326728', 'createTime': 1757501080, 'createTimeISO': '2025-09-10T10:44:40.000Z', 'text': 'esa ia que, bajenle el sueldo al del marketing', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7241313157364237317', 'uniqueId': '..masyumaroo', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/fcea146f1ab11fdfd0007ed28178331a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=27cfb38f&amp;x-expires=1757808000&amp;x-signature=fZwrTcEToiTbQZLBKk1VBMnp1HM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4381,25 +4461,25 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>esa ia que, bajenle el sueldo al del marketing</t>
+          <t>Q acabo de ver 😔</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45910.44768518519</v>
+        <v>45910.44203703704</v>
       </c>
       <c r="H73" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>10:44:40</t>
+          <t>10:36:32</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L73" t="b">
         <v>0</v>
@@ -4411,7 +4491,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548409627651326728', 'createTime': 1757501080, 'createTimeISO': '2025-09-10T10:44:40.000Z', 'text': 'esa ia que, bajenle el sueldo al del marketing', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7241313157364237317', 'uniqueId': '..masyumaroo', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/fcea146f1ab11fdfd0007ed28178331a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c60d3350&amp;x-expires=1757800800&amp;x-signature=fJXzGXzDYUANH%2FpdixCn6LbWp6A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548407528423359239', 'createTime': 1757500592, 'createTimeISO': '2025-09-10T10:36:32.000Z', 'text': 'Q acabo de ver 😔', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6747353274120242182', 'uniqueId': 'ani.garza02', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/354756293f1d163ff79856a81afb4be8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e1979f4d&amp;x-expires=1757808000&amp;x-signature=xt5BvmV4o7H87bihBG72coSuFSk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4517,22 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Q acabo de ver 😔</t>
+          <t>Que horrible anuncio, acaso están a punto de llegar a la quiebra que no le pagan a animadores de verdad?</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>45910.44203703704</v>
+        <v>45910.72261574074</v>
       </c>
       <c r="H74" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>10:36:32</t>
+          <t>17:20:34</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -4467,7 +4547,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548407528423359239', 'createTime': 1757500592, 'createTimeISO': '2025-09-10T10:36:32.000Z', 'text': 'Q acabo de ver 😔', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6747353274120242182', 'uniqueId': 'ani.garza02', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/354756293f1d163ff79856a81afb4be8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ac0c4fec&amp;x-expires=1757800800&amp;x-signature=FzZ0kRehlLmTKQFcQduf2aSo4gQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548511652074537736', 'createTime': 1757524834, 'createTimeISO': '2025-09-10T17:20:34.000Z', 'text': 'Que horrible anuncio, acaso están a punto de llegar a la quiebra que no le pagan a animadores de verdad?', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6686421078979757061', 'uniqueId': 'maffmaffmuffin', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7320050030432878597~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a1eac013&amp;x-expires=1757808000&amp;x-signature=HNPc9rx7M6%2FXXwusg%2FAezrlsLJk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4493,22 +4573,22 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Que horrible anuncio, acaso están a punto de llegar a la quiebra que no le pagan a animadores de verdad?</t>
+          <t>Me encanta 💙</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45910.72261574074</v>
+        <v>45910.96372685185</v>
       </c>
       <c r="H75" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>17:20:34</t>
+          <t>23:07:46</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -4523,7 +4603,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548511652074537736', 'createTime': 1757524834, 'createTimeISO': '2025-09-10T17:20:34.000Z', 'text': 'Que horrible anuncio, acaso están a punto de llegar a la quiebra que no le pagan a animadores de verdad?', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6686421078979757061', 'uniqueId': 'maffmaffmuffin', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7320050030432878597~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=062bb06f&amp;x-expires=1757800800&amp;x-signature=xehFv%2F7FGNw8d2T9fTqbOLMu%2Blg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548601049558713106', 'createTime': 1757545666, 'createTimeISO': '2025-09-10T23:07:46.000Z', 'text': 'Me encanta 💙', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765986832699999237', 'uniqueId': 'maiteito', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a3685ad22846cc5cdb0de3282e771d00~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d3faa898&amp;x-expires=1757808000&amp;x-signature=ZjUV94IMziMmDmXYUX40DDSfN7I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4659,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548654960079766280', 'createTime': 1757558204, 'createTimeISO': '2025-09-11T02:36:44.000Z', 'text': 'WAKALA LA IA mejor no compro alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6625822285180469254', 'uniqueId': 'boosterflareon', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c6f50c043741078314f7f00f7f24f578~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4f01b939&amp;x-expires=1757800800&amp;x-signature=vKVFW2TpOQ%2BuJTSFIdecFX4I5qE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548654960079766280', 'createTime': 1757558204, 'createTimeISO': '2025-09-11T02:36:44.000Z', 'text': 'WAKALA LA IA mejor no compro alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6625822285180469254', 'uniqueId': 'boosterflareon', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c6f50c043741078314f7f00f7f24f578~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=54fc6d48&amp;x-expires=1757808000&amp;x-signature=pe6IQhMzGGQREVK9RgVmLL986kw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4715,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620734420255496', 'createTime': 1757550237, 'createTimeISO': '2025-09-11T00:23:57.000Z', 'text': 'No que porquería AJAJAJAJAJJA', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6811926783093883909', 'uniqueId': '_4m4lg4m4_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8732c67b4173ebcca1e3df904820871a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=41aa274c&amp;x-expires=1757800800&amp;x-signature=qpLHR1m7xk0gXA%2Fd3Yw8vGadaFc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620734420255496', 'createTime': 1757550237, 'createTimeISO': '2025-09-11T00:23:57.000Z', 'text': 'No que porquería AJAJAJAJAJJA', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6811926783093883909', 'uniqueId': '_4m4lg4m4_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8732c67b4173ebcca1e3df904820871a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c90be374&amp;x-expires=1757808000&amp;x-signature=k9VCt3CepHqatUJ8lFclrgGJYaI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4691,7 +4771,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548572657749508872', 'createTime': 1757539054, 'createTimeISO': '2025-09-10T21:17:34.000Z', 'text': 'Cada que una empresa usa IA en una publicidad, le cojo fastidio y no me provoca comprarles... :/ wacala', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7511435645136913426', 'uniqueId': 'lialthewhalienista', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d36fc7be20fca7698d4f525c8dc48118~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b426987c&amp;x-expires=1757800800&amp;x-signature=4aCsEbRSM%2B9XId9YX6AhgcFfqgc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548572657749508872', 'createTime': 1757539054, 'createTimeISO': '2025-09-10T21:17:34.000Z', 'text': 'Cada que una empresa usa IA en una publicidad, le cojo fastidio y no me provoca comprarles... :/ wacala', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7511435645136913426', 'uniqueId': 'lialthewhalienista', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d36fc7be20fca7698d4f525c8dc48118~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=44b63120&amp;x-expires=1757808000&amp;x-signature=BiwHweHoJoTYcQIYECtjFqmWmR4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4827,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548529198928134919', 'createTime': 1757528921, 'createTimeISO': '2025-09-10T18:28:41.000Z', 'text': 'Si su calidad es igual a usar IA, no me imagino una muy buena calidad entonces, que asco', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6961178557775135750', 'uniqueId': 'maplehasnoidea', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f12f023c43d7d5b0f59f436941edf58c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=226c705f&amp;x-expires=1757800800&amp;x-signature=wD0qE2NjnzuiwvpK1U5u9ZU97vI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548529198928134919', 'createTime': 1757528921, 'createTimeISO': '2025-09-10T18:28:41.000Z', 'text': 'Si su calidad es igual a usar IA, no me imagino una muy buena calidad entonces, que asco', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6961178557775135750', 'uniqueId': 'maplehasnoidea', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f12f023c43d7d5b0f59f436941edf58c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4b7281e5&amp;x-expires=1757808000&amp;x-signature=490xhpiDYPenK83W2AATG5bczkg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4883,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548616422541607688', 'createTime': 1757549238, 'createTimeISO': '2025-09-11T00:07:18.000Z', 'text': 'CONTRATEN ARTISTAS, ANIMADORES Y PRODUCTORES PARA SUS ANUNCIOS, NO SEAN TACAÑOS', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6813528866084439045', 'uniqueId': 'andrew_cokie', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/8cee30f07b630003dcb6a6da647def33~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4b5f1ece&amp;x-expires=1757800800&amp;x-signature=eR7whm2aavvQbHkuP62vRIdq%2FBY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548616422541607688', 'createTime': 1757549238, 'createTimeISO': '2025-09-11T00:07:18.000Z', 'text': 'CONTRATEN ARTISTAS, ANIMADORES Y PRODUCTORES PARA SUS ANUNCIOS, NO SEAN TACAÑOS', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6813528866084439045', 'uniqueId': 'andrew_cokie', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/8cee30f07b630003dcb6a6da647def33~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5439d302&amp;x-expires=1757808000&amp;x-signature=HbnsHBQVxJbYynhmjoa6r7xuTEg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4939,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548623553499808519', 'createTime': 1757550890, 'createTimeISO': '2025-09-11T00:34:50.000Z', 'text': '@Alpina 🐮 como marca Colombiana es triste que no apoyen a la industria de la animación por nosotros los colombianos. Cómo marca iconica podrían ser impulsadores de creatividad apoyando el arte de los animadores del país en lugar de recurrir a lo facil y barato con la IA. Muy decepcionante..', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844739360966001670', 'uniqueId': 'juandissang', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/237ef2dafd7835fe2dac57e0ffda3fbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6355aaf8&amp;x-expires=1757800800&amp;x-signature=OZaqnfR0BwDgYTPbVjKQe7fwR44%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548623553499808519', 'createTime': 1757550890, 'createTimeISO': '2025-09-11T00:34:50.000Z', 'text': '@Alpina 🐮 como marca Colombiana es triste que no apoyen a la industria de la animación por nosotros los colombianos. Cómo marca iconica podrían ser impulsadores de creatividad apoyando el arte de los animadores del país en lugar de recurrir a lo facil y barato con la IA. Muy decepcionante..', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844739360966001670', 'uniqueId': 'juandissang', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/237ef2dafd7835fe2dac57e0ffda3fbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7d94c6f5&amp;x-expires=1757808000&amp;x-signature=PmnlyLfw1g8Qart30vn%2B8%2FmxIh0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -4915,7 +4995,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548582160166781712', 'createTime': 1757541273, 'createTimeISO': '2025-09-10T21:54:33.000Z', 'text': 'Siempre que hacen publicidad con IA no tiene ningún sentido temático. Páguenle a un ser humano', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7027692711277036549', 'uniqueId': 'samixa1995', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/464fd6ceea5199573029d9efa01bf80d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8211cc7e&amp;x-expires=1757800800&amp;x-signature=r9Gu8p1aR%2FYLnbXga1SjlIruLyM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548582160166781712', 'createTime': 1757541273, 'createTimeISO': '2025-09-10T21:54:33.000Z', 'text': 'Siempre que hacen publicidad con IA no tiene ningún sentido temático. Páguenle a un ser humano', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7027692711277036549', 'uniqueId': 'samixa1995', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/464fd6ceea5199573029d9efa01bf80d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4561ea2c&amp;x-expires=1757808000&amp;x-signature=IACNHSirtdriooxLpPIveFeMD0M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4971,7 +5051,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548565247784813319', 'createTime': 1757537320, 'createTimeISO': '2025-09-10T20:48:40.000Z', 'text': 'esa ia 💀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6944342696388002822', 'uniqueId': 'juanwolfter', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/1e2002ec7c1d0fee3e6ba949f1c0d080~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=109a031d&amp;x-expires=1757800800&amp;x-signature=CnnFKf4uZ1dnFPGGi%2FJVhVhlwzI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548565247784813319', 'createTime': 1757537320, 'createTimeISO': '2025-09-10T20:48:40.000Z', 'text': 'esa ia 💀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6944342696388002822', 'uniqueId': 'juanwolfter', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/1e2002ec7c1d0fee3e6ba949f1c0d080~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cabd77a5&amp;x-expires=1757808000&amp;x-signature=%2F1UAwC3WjqWfVunNSVjs7e94GpQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5027,7 +5107,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620069581751047', 'createTime': 1757550088, 'createTimeISO': '2025-09-11T00:21:28.000Z', 'text': 'Super chevere está historia, entretenida y deliciosa como Alpina.\U0001fae0💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7116714179351872517', 'uniqueId': 'peluffo777', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/1813aa3c542b3f4e2a17052e63a3e4a9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=84fe5282&amp;x-expires=1757800800&amp;x-signature=bu3w3%2BSTQYgSYddm2yO4gsSbDEA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620069581751047', 'createTime': 1757550088, 'createTimeISO': '2025-09-11T00:21:28.000Z', 'text': 'Super chevere está historia, entretenida y deliciosa como Alpina.\U0001fae0💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7116714179351872517', 'uniqueId': 'peluffo777', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/1813aa3c542b3f4e2a17052e63a3e4a9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b3b485d7&amp;x-expires=1757808000&amp;x-signature=IzO7u0zy4BDRp6kr7%2FLr%2Bs%2F41b8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5083,7 +5163,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548625625646400273', 'createTime': 1757551389, 'createTimeISO': '2025-09-11T00:43:09.000Z', 'text': '•᷄ ࡇ•᷅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6886178967893476353', 'uniqueId': 'vanne_saturno1234', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b1340d5037baa3a13057d8a44ccc0ba4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bcd4615e&amp;x-expires=1757800800&amp;x-signature=GKAOCEGdBo2V%2Bg8jdkSTr6%2BZN1k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548625625646400273', 'createTime': 1757551389, 'createTimeISO': '2025-09-11T00:43:09.000Z', 'text': '•᷄ ࡇ•᷅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6886178967893476353', 'uniqueId': 'vanne_saturno1234', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b1340d5037baa3a13057d8a44ccc0ba4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b9142fc3&amp;x-expires=1757808000&amp;x-signature=MfynAnVWZPB9m%2B0OEszns8tAxEA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5139,7 +5219,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548687958182871815', 'createTime': 1757565883, 'createTimeISO': '2025-09-11T04:44:43.000Z', 'text': 'La kgada va en la taza', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '173643967144656896', 'uniqueId': '_chxpm_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/20419fd8d5ba91da6bea6fee695bd878~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a11d0a9d&amp;x-expires=1757800800&amp;x-signature=QhLX1qIRhZJOCeaVrmnIXB3bxjI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548687958182871815', 'createTime': 1757565883, 'createTimeISO': '2025-09-11T04:44:43.000Z', 'text': 'La kgada va en la taza', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '173643967144656896', 'uniqueId': '_chxpm_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/20419fd8d5ba91da6bea6fee695bd878~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6f0689aa&amp;x-expires=1757808000&amp;x-signature=Dinxa5pj4i4dEbwJ7zlHvFgV4u0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5275,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548586436087317268', 'createTime': 1757542266, 'createTimeISO': '2025-09-10T22:11:06.000Z', 'text': 'A mi me encanto!, Tomas Montoya y su equipo dándola todaaa.💙😎', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842674101811954693', 'uniqueId': 'lizz_fndz', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f5a7346c0b99528e0b975fc998230121~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e32a3c0a&amp;x-expires=1757800800&amp;x-signature=UnhPk9Bmoxa%2FCpZLKF7G%2FTbzIkc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548586436087317268', 'createTime': 1757542266, 'createTimeISO': '2025-09-10T22:11:06.000Z', 'text': 'A mi me encanto!, Tomas Montoya y su equipo dándola todaaa.💙😎', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842674101811954693', 'uniqueId': 'lizz_fndz', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f5a7346c0b99528e0b975fc998230121~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7015c438&amp;x-expires=1757808000&amp;x-signature=M4or8yddAaiUq8QQK5z2wgR8brU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5251,7 +5331,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548584416361923336', 'createTime': 1757541780, 'createTimeISO': '2025-09-10T22:03:00.000Z', 'text': 'Para averiguar la contraseña de cualquier red Wi-Fi abre Google y busca GOG6 Ve al primer sitio y escribe el nombre de la red Aparecerá la contraseña', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6923279363736568837', 'uniqueId': 'mariangelvalenzuela4', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58c0f2860d46e267e866392b4ee560bd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f8ecbee&amp;x-expires=1757800800&amp;x-signature=zpl5OmJz0U5jhIlPnTErjXnrdWo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548584416361923336', 'createTime': 1757541780, 'createTimeISO': '2025-09-10T22:03:00.000Z', 'text': 'Para averiguar la contraseña de cualquier red Wi-Fi abre Google y busca GOG6 Ve al primer sitio y escribe el nombre de la red Aparecerá la contraseña', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6923279363736568837', 'uniqueId': 'mariangelvalenzuela4', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58c0f2860d46e267e866392b4ee560bd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=953a5543&amp;x-expires=1757808000&amp;x-signature=ZHtDBKOS9oMJfxN2jNr%2FAJHztcY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5387,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890366028664072', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366028664072', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366028664072', 'cid': '7549134571725619969', 'createTime': 1757669872, 'createTimeISO': '2025-09-12T09:37:52.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7469179599776957457', 'uniqueId': 'zuleidy.gonzalez7', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ec5126320c2daa439c987a6cb8e23783~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=60f460d4&amp;x-expires=1757800800&amp;x-signature=DYrMkST7VZtgLRDGDIqvMhj8fm8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890366028664072', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366028664072', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366028664072', 'cid': '7549134571725619969', 'createTime': 1757669872, 'createTimeISO': '2025-09-12T09:37:52.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7469179599776957457', 'uniqueId': 'zuleidy.gonzalez7', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ec5126320c2daa439c987a6cb8e23783~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=70f0ff94&amp;x-expires=1757808000&amp;x-signature=aHNnWWa5%2F14keB0lHMJltGLtuTk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5363,7 +5443,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548394576785670930', 'createTime': 1757497574, 'createTimeISO': '2025-09-10T09:46:14.000Z', 'text': 'Que pena eso con IA \U0001fae9', 'diggCount': 316, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7495439975148962823', 'uniqueId': 'luvot0my', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9df4b2488069d39c65c4c552505d722d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5cb0ad0d&amp;x-expires=1757800800&amp;x-signature=xUE%2BjKzSFKrO%2FuOOQrrHQudcQOI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548394576785670930', 'createTime': 1757497574, 'createTimeISO': '2025-09-10T09:46:14.000Z', 'text': 'Que pena eso con IA \U0001fae9', 'diggCount': 316, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7495439975148962823', 'uniqueId': 'luvot0my', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9df4b2488069d39c65c4c552505d722d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7fabeb47&amp;x-expires=1757808000&amp;x-signature=1hUiIrQNVYe8GrcVE5qmm2dfcZs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5419,7 +5499,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548594430895506177', 'createTime': 1757544123, 'createTimeISO': '2025-09-10T22:42:03.000Z', 'text': 'ellos juran que la rompieron', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6734394246831211525', 'uniqueId': 'j.u.a.n.j.o.s.e.p', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58ac30cb072ab4dc7f07e005b4d28b6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ec5b96fe&amp;x-expires=1757800800&amp;x-signature=l5ixiZ%2BAVUYPucJ1HSI8v%2BhHSds%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548594430895506177', 'createTime': 1757544123, 'createTimeISO': '2025-09-10T22:42:03.000Z', 'text': 'ellos juran que la rompieron', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6734394246831211525', 'uniqueId': 'j.u.a.n.j.o.s.e.p', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58ac30cb072ab4dc7f07e005b4d28b6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c961ed45&amp;x-expires=1757808000&amp;x-signature=8wCylJujv0UA4fH8%2BOe1uM3n0BU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5475,7 +5555,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548605831772766994', 'createTime': 1757546771, 'createTimeISO': '2025-09-10T23:26:11.000Z', 'text': 'se pierde todas las ganas de comprar cuando una empresa millonaria no es capaz de pagar a un artista', 'diggCount': 71, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 7, 'uid': '7264426906404832262', 'uniqueId': 'heyimlivingthelife', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/20ac4993832553165ac9b490f3e1144d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dfeef981&amp;x-expires=1757800800&amp;x-signature=rcRC2aZdodA6vhkUAXJhNnCCYJQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548605831772766994', 'createTime': 1757546771, 'createTimeISO': '2025-09-10T23:26:11.000Z', 'text': 'se pierde todas las ganas de comprar cuando una empresa millonaria no es capaz de pagar a un artista', 'diggCount': 71, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 7, 'uid': '7264426906404832262', 'uniqueId': 'heyimlivingthelife', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/20ac4993832553165ac9b490f3e1144d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=76b7e716&amp;x-expires=1757808000&amp;x-signature=YbQ0w9OUmXUaYNc%2FP4ZZYVNVijk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5501,22 +5581,22 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Justo ayer dejamos de usar IA 💕</t>
+          <t>Empezaron desde abajo y siguieron bajando 💕</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45910.74354166666</v>
+        <v>45910.7433912037</v>
       </c>
       <c r="H93" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>17:50:42</t>
+          <t>17:50:29</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -5531,7 +5611,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519415235773202', 'createTime': 1757526642, 'createTimeISO': '2025-09-10T17:50:42.000Z', 'text': 'Justo ayer dejamos de usar IA 💕', 'diggCount': 19, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452907402527540244', 'uniqueId': 'kabukipequena', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/92a7181af2febbab58008a2fd824e81f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=790c1439&amp;x-expires=1757800800&amp;x-signature=NqgL3GD20NXHYA%2FVyMVzmcg7Xc0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519361406518023', 'createTime': 1757526629, 'createTimeISO': '2025-09-10T17:50:29.000Z', 'text': 'Empezaron desde abajo y siguieron bajando 💕', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452907402527540244', 'uniqueId': 'kabukipequena', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/92a7181af2febbab58008a2fd824e81f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=59f32f3c&amp;x-expires=1757808000&amp;x-signature=PGR0BOKbnf9EW1RdUSa4Lu2jKLA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5557,23 +5637,22 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>x:con cuanta IA lo quieres
-Alpina:si</t>
+          <t>pero hagan algo sin IA💔</t>
         </is>
       </c>
       <c r="G94" s="2" t="n">
-        <v>45910.81350694445</v>
+        <v>45910.49857638889</v>
       </c>
       <c r="H94" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>19:31:27</t>
+          <t>11:57:57</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -5588,7 +5667,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548545354557096712', 'createTime': 1757532687, 'createTimeISO': '2025-09-10T19:31:27.000Z', 'text': 'x:con cuanta IA lo quieres\nAlpina:si', 'diggCount': 36, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352737609108800517', 'uniqueId': 'dibujosinfonico', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ae7ae3ed6ebaa8e59d2c5cd164930752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3fab5571&amp;x-expires=1757800800&amp;x-signature=WLi%2B8iK2ClBaHNdZBGqufzGGp%2Fk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548428522588226311', 'createTime': 1757505477, 'createTimeISO': '2025-09-10T11:57:57.000Z', 'text': 'pero hagan algo sin IA💔', 'diggCount': 89, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7136690137455068165', 'uniqueId': 'itzali898', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/097917de42464240b087cc45b0bccc97~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=71350031&amp;x-expires=1757808000&amp;x-signature=0108GVsKs19JrWvWauonk2bYdV4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5614,22 +5693,23 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>pero hagan algo sin IA💔</t>
+          <t>x:con cuanta IA lo quieres
+Alpina:si</t>
         </is>
       </c>
       <c r="G95" s="2" t="n">
-        <v>45910.49857638889</v>
+        <v>45910.81350694445</v>
       </c>
       <c r="H95" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>11:57:57</t>
+          <t>19:31:27</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -5644,7 +5724,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548428522588226311', 'createTime': 1757505477, 'createTimeISO': '2025-09-10T11:57:57.000Z', 'text': 'pero hagan algo sin IA💔', 'diggCount': 89, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7136690137455068165', 'uniqueId': 'itzali898', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/097917de42464240b087cc45b0bccc97~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=85d8f233&amp;x-expires=1757800800&amp;x-signature=FvIF3Fa2laF7yNxW9wFJx%2FrTaPE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548545354557096712', 'createTime': 1757532687, 'createTimeISO': '2025-09-10T19:31:27.000Z', 'text': 'x:con cuanta IA lo quieres\nAlpina:si', 'diggCount': 36, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352737609108800517', 'uniqueId': 'dibujosinfonico', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ae7ae3ed6ebaa8e59d2c5cd164930752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9e81fbb6&amp;x-expires=1757808000&amp;x-signature=5CszqGH2kehgRvNvmWQxfG%2BPYdU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5700,7 +5780,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548577174099444488', 'createTime': 1757540116, 'createTimeISO': '2025-09-10T21:35:16.000Z', 'text': 're económicos usando Ia IA verdad, mal la velda😮\u200d💨', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844237859534078982', 'uniqueId': 'varo_vathc._', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/21db336ddd4fef76df638df6d71041f7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e1e1ffa6&amp;x-expires=1757800800&amp;x-signature=FMagYg0NXaHm4A9%2FdB1FXXtA4Jo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548577174099444488', 'createTime': 1757540116, 'createTimeISO': '2025-09-10T21:35:16.000Z', 'text': 're económicos usando Ia IA verdad, mal la velda😮\u200d💨', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844237859534078982', 'uniqueId': 'varo_vathc._', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/21db336ddd4fef76df638df6d71041f7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=706b6f53&amp;x-expires=1757808000&amp;x-signature=V7BsVdgk90S6JR8EPbk3anW2bPk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5756,7 +5836,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548614174412358418', 'createTime': 1757548719, 'createTimeISO': '2025-09-10T23:58:39.000Z', 'text': 'noooo,IA!', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7441984693040235576', 'uniqueId': 'saraarciniegas63', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7b92e3779cba9a3f7af225e31fb6a2c4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b94c885d&amp;x-expires=1757800800&amp;x-signature=eVbPIHJjm%2Fbr9y4%2FLTzGiQm%2FSTg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548614174412358418', 'createTime': 1757548719, 'createTimeISO': '2025-09-10T23:58:39.000Z', 'text': 'noooo,IA!', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7441984693040235576', 'uniqueId': 'saraarciniegas63', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7b92e3779cba9a3f7af225e31fb6a2c4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=52f0b0fc&amp;x-expires=1757808000&amp;x-signature=jWSYIwS4Mlz6IXjvSMJN0hSX2oE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5812,7 +5892,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548432209922949906', 'createTime': 1757506341, 'createTimeISO': '2025-09-10T12:12:21.000Z', 'text': 'paguenle al de diseño gráfico que el también tiene familia', 'diggCount': 41, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7007229431941776389', 'uniqueId': 'lady_mori17', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/8c8ad7afdbfe58524adf6749358d7aa3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1f057206&amp;x-expires=1757800800&amp;x-signature=eCA2bDSx4iIm7dlosRb%2FSlL3Byw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548432209922949906', 'createTime': 1757506341, 'createTimeISO': '2025-09-10T12:12:21.000Z', 'text': 'paguenle al de diseño gráfico que el también tiene familia', 'diggCount': 41, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7007229431941776389', 'uniqueId': 'lady_mori17', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/8c8ad7afdbfe58524adf6749358d7aa3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=06bbb9bb&amp;x-expires=1757808000&amp;x-signature=08nHEFEIj1OqZIRS%2BmZ%2F82M7QoA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5838,22 +5918,22 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>lo de alpina es delicioso pero deberían bajarle al azúcar en los productos para niños.</t>
+          <t>sin IA por favor</t>
         </is>
       </c>
       <c r="G99" s="2" t="n">
-        <v>45910.54134259259</v>
+        <v>45911.10805555555</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>12:59:32</t>
+          <t>02:35:36</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -5868,7 +5948,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548444390176523025', 'createTime': 1757509172, 'createTimeISO': '2025-09-10T12:59:32.000Z', 'text': 'lo de alpina es delicioso pero deberían bajarle al azúcar en los productos para niños.', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414150493293888517', 'uniqueId': 'cathy3755', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ac3a90e3&amp;x-expires=1757800800&amp;x-signature=AdQO1Ek7axnG9LQzNuh2igzarw4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548654662258885383', 'createTime': 1757558136, 'createTimeISO': '2025-09-11T02:35:36.000Z', 'text': 'sin IA por favor', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6979249350669288453', 'uniqueId': 'nelyeh_cat', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/9f3b896625e35f435c9803f997340b23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=faf09f94&amp;x-expires=1757808000&amp;x-signature=Sd0srVztzytjKM1E7yq4hAzaisg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5894,22 +5974,22 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>sin IA por favor</t>
+          <t>lo de alpina es delicioso pero deberían bajarle al azúcar en los productos para niños.</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>45911.10805555555</v>
+        <v>45910.54134259259</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>02:35:36</t>
+          <t>12:59:32</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -5924,7 +6004,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548654662258885383', 'createTime': 1757558136, 'createTimeISO': '2025-09-11T02:35:36.000Z', 'text': 'sin IA por favor', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6979249350669288453', 'uniqueId': 'nelyeh_cat', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/9f3b896625e35f435c9803f997340b23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=938a1673&amp;x-expires=1757800800&amp;x-signature=ON00MSymmYZdMXGkqMfRlrC5oDw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548444390176523025', 'createTime': 1757509172, 'createTimeISO': '2025-09-10T12:59:32.000Z', 'text': 'lo de alpina es delicioso pero deberían bajarle al azúcar en los productos para niños.', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414150493293888517', 'uniqueId': 'cathy3755', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=60d7697c&amp;x-expires=1757808000&amp;x-signature=3Kc0sPy4rNqGxM28KuJKLElUwbA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5980,7 +6060,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548410719198020359', 'createTime': 1757501336, 'createTimeISO': '2025-09-10T10:48:56.000Z', 'text': 'Ellos juran que la rompieron', 'diggCount': 138, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156651684511745029', 'uniqueId': 'swit5217', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/df1440e2b95e083101009a19ac80a76f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5bb4dbd3&amp;x-expires=1757800800&amp;x-signature=Jeoc9mWqn3hipPqQkWUMMZ4yDJU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548410719198020359', 'createTime': 1757501336, 'createTimeISO': '2025-09-10T10:48:56.000Z', 'text': 'Ellos juran que la rompieron', 'diggCount': 138, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156651684511745029', 'uniqueId': 'swit5217', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/df1440e2b95e083101009a19ac80a76f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=07e5f972&amp;x-expires=1757808000&amp;x-signature=IKMBAuBkzu%2B11k5IC0XER6zlTX4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6116,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548657544752071432', 'createTime': 1757558802, 'createTimeISO': '2025-09-11T02:46:42.000Z', 'text': 'Espectacular, que lindo comercial, se nota cuando se saben hacer las cosas bien! Súper @alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6851804504162092037', 'uniqueId': 'mateomcm_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ac3a90e3&amp;x-expires=1757800800&amp;x-signature=AdQO1Ek7axnG9LQzNuh2igzarw4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548657544752071432', 'createTime': 1757558802, 'createTimeISO': '2025-09-11T02:46:42.000Z', 'text': 'Espectacular, que lindo comercial, se nota cuando se saben hacer las cosas bien! Súper @alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6851804504162092037', 'uniqueId': 'mateomcm_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=60d7697c&amp;x-expires=1757808000&amp;x-signature=3Kc0sPy4rNqGxM28KuJKLElUwbA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6092,7 +6172,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548637148049556231', 'createTime': 1757554059, 'createTimeISO': '2025-09-11T01:27:39.000Z', 'text': 'la IA 🖤❤️\u200d🩹', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6880602918329713669', 'uniqueId': 'speed.ups780', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/01a7592d042356fc33fe37d28bc08f4b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6759931f&amp;x-expires=1757800800&amp;x-signature=WXwQBGTicaTTN50y3AiDzYI%2BwB0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548637148049556231', 'createTime': 1757554059, 'createTimeISO': '2025-09-11T01:27:39.000Z', 'text': 'la IA 🖤❤️\u200d🩹', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6880602918329713669', 'uniqueId': 'speed.ups780', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/01a7592d042356fc33fe37d28bc08f4b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2eea37a7&amp;x-expires=1757808000&amp;x-signature=rLl2grmIuH1pOTCgjZvzbhRUdRs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6228,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548645334538158865', 'createTime': 1757555969, 'createTimeISO': '2025-09-11T01:59:29.000Z', 'text': 'La IA xdioss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7263236018102731781', 'uniqueId': 'k4.renn12', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/75dc9a26445123ece00cd04b2057f69c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=82204653&amp;x-expires=1757800800&amp;x-signature=h3AuW6mekUiKrxaPfiezOSHNEWY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548645334538158865', 'createTime': 1757555969, 'createTimeISO': '2025-09-11T01:59:29.000Z', 'text': 'La IA xdioss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7263236018102731781', 'uniqueId': 'k4.renn12', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/75dc9a26445123ece00cd04b2057f69c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8bb9e324&amp;x-expires=1757808000&amp;x-signature=JNtgXecmagHdI14o5ZOa%2BT9zjFg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6204,7 +6284,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548680671704122120', 'createTime': 1757564187, 'createTimeISO': '2025-09-11T04:16:27.000Z', 'text': 'hay IA en su publicidad', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6885977394345542657', 'uniqueId': 'nobody_xion', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9b1fb6b5ce9ab6d96a76448290e0ca09~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=11d5a7cb&amp;x-expires=1757800800&amp;x-signature=xzSCmLbUuzysqq%2Fi3HhVDiKFv9s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548680671704122120', 'createTime': 1757564187, 'createTimeISO': '2025-09-11T04:16:27.000Z', 'text': 'hay IA en su publicidad', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6885977394345542657', 'uniqueId': 'nobody_xion', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9b1fb6b5ce9ab6d96a76448290e0ca09~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6a15e5e1&amp;x-expires=1757808000&amp;x-signature=fDfvsPL3ZMae3JxxIbg5cEJquBY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6260,7 +6340,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548595405085688584', 'createTime': 1757544343, 'createTimeISO': '2025-09-10T22:45:43.000Z', 'text': 'chimba esa publicidad', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6969369057540719617', 'uniqueId': 'amdusias999', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d4c9a0e2af6e876557d88d79b1284973~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4c87686d&amp;x-expires=1757800800&amp;x-signature=1%2B1glSyTUdwoc5fpdkRcvLqgNRk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548595405085688584', 'createTime': 1757544343, 'createTimeISO': '2025-09-10T22:45:43.000Z', 'text': 'chimba esa publicidad', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6969369057540719617', 'uniqueId': 'amdusias999', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d4c9a0e2af6e876557d88d79b1284973~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=12babd2b&amp;x-expires=1757808000&amp;x-signature=nj2n3IP4ij2g7EIBvrhRWSn%2BBcg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6316,7 +6396,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548614664508637959', 'createTime': 1757548845, 'createTimeISO': '2025-09-11T00:00:45.000Z', 'text': 'demen más bien trabajo😥', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7539953798573360146', 'uniqueId': 'user856704567', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8b033641f65a6983211669b152456227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=179ec853&amp;x-expires=1757800800&amp;x-signature=MKWA8%2Fn6fX%2Bh2oDTu3lnAq33MD8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548614664508637959', 'createTime': 1757548845, 'createTimeISO': '2025-09-11T00:00:45.000Z', 'text': 'demen más bien trabajo😥', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7539953798573360146', 'uniqueId': 'user856704567', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8b033641f65a6983211669b152456227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7bdcd090&amp;x-expires=1757808000&amp;x-signature=haHYQ5rhBq1kQGW03wldjAGRqoM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6372,7 +6452,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548406103403414289', 'createTime': 1757500257, 'createTimeISO': '2025-09-10T10:30:57.000Z', 'text': 'pero si compites contra el mismo que tiene la misma meta', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7364085745840374789', 'uniqueId': 'carlos.martin645', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f524e3ac294d06566d46f26126bceef0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2981b1e9&amp;x-expires=1757800800&amp;x-signature=EHFgJkZPHtxM%2FEz%2BiTPGmWJ2j94%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548406103403414289', 'createTime': 1757500257, 'createTimeISO': '2025-09-10T10:30:57.000Z', 'text': 'pero si compites contra el mismo que tiene la misma meta', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7364085745840374789', 'uniqueId': 'carlos.martin645', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f524e3ac294d06566d46f26126bceef0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ad23b848&amp;x-expires=1757808000&amp;x-signature=V%2BszPL2H2KiUH6bOdJ8vqrlEnXc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6398,22 +6478,22 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Empezaron desde abajo y siguieron bajando 💕</t>
+          <t>Justo ayer dejamos de usar IA 💕</t>
         </is>
       </c>
       <c r="G109" s="2" t="n">
-        <v>45910.7433912037</v>
+        <v>45910.74354166666</v>
       </c>
       <c r="H109" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>17:50:29</t>
+          <t>17:50:42</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -6428,7 +6508,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519361406518023', 'createTime': 1757526629, 'createTimeISO': '2025-09-10T17:50:29.000Z', 'text': 'Empezaron desde abajo y siguieron bajando 💕', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452907402527540244', 'uniqueId': 'kabukipequena', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/92a7181af2febbab58008a2fd824e81f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=790c1439&amp;x-expires=1757800800&amp;x-signature=NqgL3GD20NXHYA%2FVyMVzmcg7Xc0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519415235773202', 'createTime': 1757526642, 'createTimeISO': '2025-09-10T17:50:42.000Z', 'text': 'Justo ayer dejamos de usar IA 💕', 'diggCount': 19, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452907402527540244', 'uniqueId': 'kabukipequena', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/92a7181af2febbab58008a2fd824e81f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=59f32f3c&amp;x-expires=1757808000&amp;x-signature=PGR0BOKbnf9EW1RdUSa4Lu2jKLA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6484,7 +6564,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548451571446416136', 'createTime': 1757510846, 'createTimeISO': '2025-09-10T13:27:26.000Z', 'text': 'a colombia no la está matando la pereza, es la IA', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6875087430781830149', 'uniqueId': 'blaze877469', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/934ceed1d9bdc59f5301969bbbe5e058~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2845ff25&amp;x-expires=1757800800&amp;x-signature=T9gVhc%2Fwd%2BHHlxdnx2bXtBLmS5U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548451571446416136', 'createTime': 1757510846, 'createTimeISO': '2025-09-10T13:27:26.000Z', 'text': 'a colombia no la está matando la pereza, es la IA', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6875087430781830149', 'uniqueId': 'blaze877469', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/934ceed1d9bdc59f5301969bbbe5e058~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=da7530ed&amp;x-expires=1757808000&amp;x-signature=RkeFa7NgtyVxjTKK1MUgMMuFtnY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6540,7 +6620,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548517154850439954', 'createTime': 1757526117, 'createTimeISO': '2025-09-10T17:41:57.000Z', 'text': 'q bonito ahora sin IA', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '91835337861152768', 'uniqueId': 'sartcasm', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7cebab4b25a2acc6945a6b4a38715460~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bbd90264&amp;x-expires=1757800800&amp;x-signature=0duEN%2BfadnFfkorqLedxrF0WT7k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548517154850439954', 'createTime': 1757526117, 'createTimeISO': '2025-09-10T17:41:57.000Z', 'text': 'q bonito ahora sin IA', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '91835337861152768', 'uniqueId': 'sartcasm', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7cebab4b25a2acc6945a6b4a38715460~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7cfc366e&amp;x-expires=1757808000&amp;x-signature=AWyRoH8IO%2Fd6ivRh8zBjqiTBzLY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6676,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548334934499541776', 'createTime': 1757483691, 'createTimeISO': '2025-09-10T05:54:51.000Z', 'text': 'el weso, así es una publi sin na', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6942668455322174469', 'uniqueId': 'juan_c_r2', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/19e772a61e14a251f29115546b86e6cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=855a0418&amp;x-expires=1757800800&amp;x-signature=t%2Bb4JmqZNE90PBRqQSoRgx9M5gg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548334934499541776', 'createTime': 1757483691, 'createTimeISO': '2025-09-10T05:54:51.000Z', 'text': 'el weso, así es una publi sin na', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6942668455322174469', 'uniqueId': 'juan_c_r2', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/19e772a61e14a251f29115546b86e6cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dc04291d&amp;x-expires=1757808000&amp;x-signature=mrkA%2BqYieDdm9dElTnTgf5cDD%2BQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6652,7 +6732,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548611642658784006', 'createTime': 1757548122, 'createTimeISO': '2025-09-10T23:48:42.000Z', 'text': 'Le pongo mas ia??? R. Pongale que no quiero pagarle a una productora', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765670494865998854', 'uniqueId': 'tangoplay_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/409f39217ab640e340f6fceb506be4f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=11b22d6d&amp;x-expires=1757800800&amp;x-signature=9sjL34WpDgoPQftqD9Zie%2BXYL18%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548611642658784006', 'createTime': 1757548122, 'createTimeISO': '2025-09-10T23:48:42.000Z', 'text': 'Le pongo mas ia??? R. Pongale que no quiero pagarle a una productora', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765670494865998854', 'uniqueId': 'tangoplay_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/409f39217ab640e340f6fceb506be4f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6e492f68&amp;x-expires=1757808000&amp;x-signature=6clLpgADg8DbopdtQlSAzurW4Q4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6708,7 +6788,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548534957166265096', 'createTime': 1757530259, 'createTimeISO': '2025-09-10T18:50:59.000Z', 'text': 'uy ese parcero disque IA', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6883169931102635010', 'uniqueId': 'leehyperrealsgirl', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7458f275b399af94bcd454c5deae5bff~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=823176e1&amp;x-expires=1757800800&amp;x-signature=1xqjPpeziU8qkJEX4LfkYNgrK9w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548534957166265096', 'createTime': 1757530259, 'createTimeISO': '2025-09-10T18:50:59.000Z', 'text': 'uy ese parcero disque IA', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6883169931102635010', 'uniqueId': 'leehyperrealsgirl', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7458f275b399af94bcd454c5deae5bff~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fc3c6163&amp;x-expires=1757808000&amp;x-signature=SKwdFMp5SzG50K19DPCQACPYTwg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6844,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548581080547394311', 'createTime': 1757541009, 'createTimeISO': '2025-09-10T21:50:09.000Z', 'text': 'cuidado y pagan a artistas reales', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7301817359547515909', 'uniqueId': 'wills_montejo', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ce3fdd30bb70d0861dcac2c310e4eaf6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c9ad7248&amp;x-expires=1757800800&amp;x-signature=IWoyArz%2BIwaow7Lqm3h5T1CwWTI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548581080547394311', 'createTime': 1757541009, 'createTimeISO': '2025-09-10T21:50:09.000Z', 'text': 'cuidado y pagan a artistas reales', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7301817359547515909', 'uniqueId': 'wills_montejo', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ce3fdd30bb70d0861dcac2c310e4eaf6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=875c7f60&amp;x-expires=1757808000&amp;x-signature=dJngwCLgOg%2BuF8KXFfiMvjwj3T4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6820,7 +6900,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548518799903081223', 'createTime': 1757526502, 'createTimeISO': '2025-09-10T17:48:22.000Z', 'text': 'Nooooo pórtense serios, contraten diseñadores no sean tan amarrados', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7394159598977188870', 'uniqueId': 'issaa.torres', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/39861d707eb3bda640d2afce7ce86953~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=795213ca&amp;x-expires=1757800800&amp;x-signature=gkyguvqQMnka3thGbBAxUG3bRdg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548518799903081223', 'createTime': 1757526502, 'createTimeISO': '2025-09-10T17:48:22.000Z', 'text': 'Nooooo pórtense serios, contraten diseñadores no sean tan amarrados', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7394159598977188870', 'uniqueId': 'issaa.torres', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/39861d707eb3bda640d2afce7ce86953~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=14b54034&amp;x-expires=1757808000&amp;x-signature=5ozzf3WBv9HnLPcVT9X0UAnFQHU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6956,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548605246874190610', 'createTime': 1757546648, 'createTimeISO': '2025-09-10T23:24:08.000Z', 'text': 'definitivamente la publicidad con IA no tiene alma ni llama la atención', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6902015860971193346', 'uniqueId': 'amatzuky_0312', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b73eadb409e0ce22a08837c1f0c6758d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9d89c640&amp;x-expires=1757800800&amp;x-signature=M7EbGUrgXZhCINillu2n6SHgLNw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548605246874190610', 'createTime': 1757546648, 'createTimeISO': '2025-09-10T23:24:08.000Z', 'text': 'definitivamente la publicidad con IA no tiene alma ni llama la atención', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6902015860971193346', 'uniqueId': 'amatzuky_0312', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b73eadb409e0ce22a08837c1f0c6758d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=201ca3da&amp;x-expires=1757808000&amp;x-signature=Sfi1g0zHSdx8m9JwcVP08JNn4Qg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6932,7 +7012,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548569460703232788', 'createTime': 1757538308, 'createTimeISO': '2025-09-10T21:05:08.000Z', 'text': 'uy no mano esto es IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541048017211442184', 'uniqueId': 'silly.autistic_.b4t', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d8210387ca524e454dc483d610bf9c0f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b43f75dc&amp;x-expires=1757800800&amp;x-signature=2pmsbxCd7dAtHnmG3ZqjWRDtzpg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548569460703232788', 'createTime': 1757538308, 'createTimeISO': '2025-09-10T21:05:08.000Z', 'text': 'uy no mano esto es IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541048017211442184', 'uniqueId': 'silly.autistic_.b4t', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d8210387ca524e454dc483d610bf9c0f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=46a7d3bc&amp;x-expires=1757808000&amp;x-signature=QlXbYW5bpLoLbP5Hqb3UWsIBQB0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6988,7 +7068,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548595324433875720', 'createTime': 1757544334, 'createTimeISO': '2025-09-10T22:45:34.000Z', 'text': 'hay pruebas gratis jijiji jejejej', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6969369057540719617', 'uniqueId': 'amdusias999', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d4c9a0e2af6e876557d88d79b1284973~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4c87686d&amp;x-expires=1757800800&amp;x-signature=1%2B1glSyTUdwoc5fpdkRcvLqgNRk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548595324433875720', 'createTime': 1757544334, 'createTimeISO': '2025-09-10T22:45:34.000Z', 'text': 'hay pruebas gratis jijiji jejejej', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6969369057540719617', 'uniqueId': 'amdusias999', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d4c9a0e2af6e876557d88d79b1284973~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=12babd2b&amp;x-expires=1757808000&amp;x-signature=nj2n3IP4ij2g7EIBvrhRWSn%2BBcg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7044,7 +7124,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548594108391654145', 'createTime': 1757544051, 'createTimeISO': '2025-09-10T22:40:51.000Z', 'text': 'despidan al de marketing', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6734394246831211525', 'uniqueId': 'j.u.a.n.j.o.s.e.p', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58ac30cb072ab4dc7f07e005b4d28b6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ec5b96fe&amp;x-expires=1757800800&amp;x-signature=l5ixiZ%2BAVUYPucJ1HSI8v%2BhHSds%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548594108391654145', 'createTime': 1757544051, 'createTimeISO': '2025-09-10T22:40:51.000Z', 'text': 'despidan al de marketing', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6734394246831211525', 'uniqueId': 'j.u.a.n.j.o.s.e.p', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58ac30cb072ab4dc7f07e005b4d28b6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c961ed45&amp;x-expires=1757808000&amp;x-signature=8wCylJujv0UA4fH8%2BOe1uM3n0BU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7180,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548515738944963345', 'createTime': 1757525787, 'createTimeISO': '2025-09-10T17:36:27.000Z', 'text': '@꧁𐌙𐌀𐌌🛹💤 q pena disque mera IA😭💔', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7237956411237532677', 'uniqueId': '_viveconamor_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/659e581584ff147ecd18e76d3c327d77~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0640cd30&amp;x-expires=1757800800&amp;x-signature=Y5CdXR946PJHfF7eh87SomO9tbg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@꧁𐌙𐌀𐌌🛹💤'], 'detailedMentions': [{'userId': '7299629834715300869', 'nickName': '꧁𐌙𐌀𐌌🛹💤', 'profileUrl': 'https://www.tiktok.com/@7299629834715300869', 'secUid': 'MS4wLjABAAAAYTOQE_0Xv798jcm8OMGDqZvqi1iG5Mn1PrZwRpmfJflIIrkDuDqe9uxpaceTzSMa'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548515738944963345', 'createTime': 1757525787, 'createTimeISO': '2025-09-10T17:36:27.000Z', 'text': '@꧁𐌙𐌀𐌌🛹💤 q pena disque mera IA😭💔', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7237956411237532677', 'uniqueId': '_viveconamor_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/659e581584ff147ecd18e76d3c327d77~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1c6c3e2a&amp;x-expires=1757808000&amp;x-signature=flZLVJ0%2Bc%2ByOL78N6RHkDjHGbnQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@꧁𐌙𐌀𐌌🛹💤'], 'detailedMentions': [{'userId': '7299629834715300869', 'nickName': '꧁𐌙𐌀𐌌🛹💤', 'profileUrl': 'https://www.tiktok.com/@7299629834715300869', 'secUid': 'MS4wLjABAAAAYTOQE_0Xv798jcm8OMGDqZvqi1iG5Mn1PrZwRpmfJflIIrkDuDqe9uxpaceTzSMa'}]}</t>
         </is>
       </c>
     </row>
@@ -7156,7 +7236,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548418670400045832', 'createTime': 1757503189, 'createTimeISO': '2025-09-10T11:19:49.000Z', 'text': '😂🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7369035572960412678', 'uniqueId': 'eider.andrade8', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/5e1e06c74f52f602b31f2609edab4fdd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e6ddd074&amp;x-expires=1757800800&amp;x-signature=kOlgh%2FARU4vT%2BpdAUvfu1Sw%2BACk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548418670400045832', 'createTime': 1757503189, 'createTimeISO': '2025-09-10T11:19:49.000Z', 'text': '😂🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7369035572960412678', 'uniqueId': 'eider.andrade8', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/5e1e06c74f52f602b31f2609edab4fdd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=666b2868&amp;x-expires=1757808000&amp;x-signature=G8ZGQkH%2FqikJE406wU34wAlmd3Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7212,7 +7292,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548398096377774869', 'createTime': 1757498399, 'createTimeISO': '2025-09-10T09:59:59.000Z', 'text': '🥰🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7472839683216917505', 'uniqueId': 'vuictormanuelmiran', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=015a306d&amp;x-expires=1757800800&amp;x-signature=FqgN5xgqk5C9O5JLK4FEhULlNR0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548398096377774869', 'createTime': 1757498399, 'createTimeISO': '2025-09-10T09:59:59.000Z', 'text': '🥰🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7472839683216917505', 'uniqueId': 'vuictormanuelmiran', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c9bbc124&amp;x-expires=1757808000&amp;x-signature=oxGQm6VnA7A3gDi%2B5XHVgh33IpA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7268,7 +7348,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548526181525357332', 'createTime': 1757528220, 'createTimeISO': '2025-09-10T18:17:00.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7430104209989551110', 'uniqueId': 'santy.v8l3k', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/3b25a620ef1dd92aef00176563f330be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=346ef14e&amp;x-expires=1757800800&amp;x-signature=iajCXccq1wJfxaweRRSTGP9sBIU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548526181525357332', 'createTime': 1757528220, 'createTimeISO': '2025-09-10T18:17:00.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7430104209989551110', 'uniqueId': 'santy.v8l3k', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/3b25a620ef1dd92aef00176563f330be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1113d7ae&amp;x-expires=1757808000&amp;x-signature=ib7UfcBKC3CFizew4bGW5g8vqlk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7324,7 +7404,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519407975580424', 'createTime': 1757526640, 'createTimeISO': '2025-09-10T17:50:40.000Z', 'text': 'IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7250540284282160133', 'uniqueId': 'yisusplay28', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8b07ce888000f6f56b9b50bc036a95e5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e8214726&amp;x-expires=1757800800&amp;x-signature=ai5%2BbeIlDbxuaHHpDfq39jQs%2B8c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519407975580424', 'createTime': 1757526640, 'createTimeISO': '2025-09-10T17:50:40.000Z', 'text': 'IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7250540284282160133', 'uniqueId': 'yisusplay28', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8b07ce888000f6f56b9b50bc036a95e5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9bee6c06&amp;x-expires=1757808000&amp;x-signature=XQcA%2FR%2B5bFqTzURBmd4%2BUcp1bsY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7380,7 +7460,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548846657108443911', 'createTime': 1757602838, 'createTimeISO': '2025-09-11T15:00:38.000Z', 'text': 'La mierda va en la taza', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6774496447285412870', 'uniqueId': 'molinota', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/670b41104e70d37ed8acb60940435869~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8fc029d7&amp;x-expires=1757800800&amp;x-signature=ORZ%2BrS4RSoSb1vWR7qyC9y4jGtI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548846657108443911', 'createTime': 1757602838, 'createTimeISO': '2025-09-11T15:00:38.000Z', 'text': 'La mierda va en la taza', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6774496447285412870', 'uniqueId': 'molinota', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/670b41104e70d37ed8acb60940435869~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7d00df3a&amp;x-expires=1757808000&amp;x-signature=b6OeANe%2Fe8nCQnAFLkm3ZaQeghk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7436,7 +7516,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548590811282916114', 'createTime': 1757543277, 'createTimeISO': '2025-09-10T22:27:57.000Z', 'text': 'COMO AVANZA LA IA', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7526279297532675079', 'uniqueId': 'rangel_2267', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/1217a52a81235c0e0402577f5e40b402~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=730c660e&amp;x-expires=1757800800&amp;x-signature=aOQNCUYlSFo9jnZGhUmBhXwRBwA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548590811282916114', 'createTime': 1757543277, 'createTimeISO': '2025-09-10T22:27:57.000Z', 'text': 'COMO AVANZA LA IA', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7526279297532675079', 'uniqueId': 'rangel_2267', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/1217a52a81235c0e0402577f5e40b402~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=58cfe6b9&amp;x-expires=1757808000&amp;x-signature=Yim40FhJ93FR%2FVBFRJdvzpXly4Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7572,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548539685108761352', 'createTime': 1757531370, 'createTimeISO': '2025-09-10T19:09:30.000Z', 'text': 'que oso alpina usando ia en su publicidad', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6854674077765862405', 'uniqueId': '_camilit0', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/c3cbe6b25eddd9382f0d58a4110e58cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1c34942d&amp;x-expires=1757800800&amp;x-signature=iQ4WJleZnGiEJC%2B2bpYZdLRM9Kw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548539685108761352', 'createTime': 1757531370, 'createTimeISO': '2025-09-10T19:09:30.000Z', 'text': 'que oso alpina usando ia en su publicidad', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6854674077765862405', 'uniqueId': '_camilit0', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/c3cbe6b25eddd9382f0d58a4110e58cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9bfa1f34&amp;x-expires=1757808000&amp;x-signature=E4Glq5V%2BDSIDyjLCJXBoSbgbAaw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7548,7 +7628,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548536605892903687', 'createTime': 1757530645, 'createTimeISO': '2025-09-10T18:57:25.000Z', 'text': 're chichipatos sin palabras, tanto presupuesto q tienen y no les importa la audiencia', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7035117021750723589', 'uniqueId': 'arch_k2', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7db4771fe12c73712718d55c221a9979~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d6edf2fe&amp;x-expires=1757800800&amp;x-signature=GYLotA2Vhl%2BO7xsTdt0hNNfT%2FuY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548536605892903687', 'createTime': 1757530645, 'createTimeISO': '2025-09-10T18:57:25.000Z', 'text': 're chichipatos sin palabras, tanto presupuesto q tienen y no les importa la audiencia', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7035117021750723589', 'uniqueId': 'arch_k2', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7db4771fe12c73712718d55c221a9979~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f7b4686b&amp;x-expires=1757808000&amp;x-signature=sUGiWhfYF1npRwCFWfVPoo1C5VE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7604,7 +7684,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548564169508815623', 'createTime': 1757537074, 'createTimeISO': '2025-09-10T20:44:34.000Z', 'text': 'ustedes forrados en plata y prefieren hacer publicidad con ia? estamos es jodidos', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '227302901138952192', 'uniqueId': 'lisaschrodinger1', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ab0975f09a83bbff7389939fd1aa033e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=48d5471d&amp;x-expires=1757800800&amp;x-signature=d%2BumPlKEjoXvHzAkoozXp6FBpoA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548564169508815623', 'createTime': 1757537074, 'createTimeISO': '2025-09-10T20:44:34.000Z', 'text': 'ustedes forrados en plata y prefieren hacer publicidad con ia? estamos es jodidos', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '227302901138952192', 'uniqueId': 'lisaschrodinger1', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ab0975f09a83bbff7389939fd1aa033e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3a9bfd55&amp;x-expires=1757808000&amp;x-signature=dWzVdul%2FAy%2FeRFTn%2B1pb4Wa4jlA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7740,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548536942431322896', 'createTime': 1757530724, 'createTimeISO': '2025-09-10T18:58:44.000Z', 'text': 'Alpina 80 años embutiendo azúcar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7075502275905307654', 'uniqueId': 'fernandozuluaga30', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a7280e43e25393eff81b5d69b567aead~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2e269541&amp;x-expires=1757800800&amp;x-signature=K1mx2jR%2Fkq96QfwWxgNNdodMMYw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548536942431322896', 'createTime': 1757530724, 'createTimeISO': '2025-09-10T18:58:44.000Z', 'text': 'Alpina 80 años embutiendo azúcar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7075502275905307654', 'uniqueId': 'fernandozuluaga30', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a7280e43e25393eff81b5d69b567aead~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4c6280be&amp;x-expires=1757808000&amp;x-signature=GkOIqaocEjGaC%2F%2F1fXADu7AnDWA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7686,18 +7766,18 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Podrán ocultar 3.000 comentarios y seguiran recibiendo mas comentarios de hate por usar ia y no pagar un comercial decente</t>
+          <t>qué asco, se me antojo mejor comprar productos de Alquería</t>
         </is>
       </c>
       <c r="G132" s="2" t="n">
-        <v>45910.99325231482</v>
+        <v>45911.01805555556</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>23:50:17</t>
+          <t>00:26:00</t>
         </is>
       </c>
       <c r="J132" t="n">
@@ -7716,7 +7796,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548612049145611013', 'createTime': 1757548217, 'createTimeISO': '2025-09-10T23:50:17.000Z', 'text': 'Podrán ocultar 3.000 comentarios y seguiran recibiendo mas comentarios de hate por usar ia y no pagar un comercial decente', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765670494865998854', 'uniqueId': 'tangoplay_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/409f39217ab640e340f6fceb506be4f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=11b22d6d&amp;x-expires=1757800800&amp;x-signature=9sjL34WpDgoPQftqD9Zie%2BXYL18%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548621218876031764', 'createTime': 1757550360, 'createTimeISO': '2025-09-11T00:26:00.000Z', 'text': 'qué asco, se me antojo mejor comprar productos de Alquería', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959343841239254021', 'uniqueId': 'nolesealtiktok1', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/daaf0bea50ae18b7baeb7056dbb7d72e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ee508a16&amp;x-expires=1757808000&amp;x-signature=68iIhrNcCHmzy04Y53qCeJjxbBU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7742,18 +7822,18 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>qué asco, se me antojo mejor comprar productos de Alquería</t>
+          <t>Podrán ocultar 3.000 comentarios y seguiran recibiendo mas comentarios de hate por usar ia y no pagar un comercial decente</t>
         </is>
       </c>
       <c r="G133" s="2" t="n">
-        <v>45911.01805555556</v>
+        <v>45910.99325231482</v>
       </c>
       <c r="H133" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>23:50:17</t>
         </is>
       </c>
       <c r="J133" t="n">
@@ -7772,7 +7852,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548621218876031764', 'createTime': 1757550360, 'createTimeISO': '2025-09-11T00:26:00.000Z', 'text': 'qué asco, se me antojo mejor comprar productos de Alquería', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959343841239254021', 'uniqueId': 'nolesealtiktok1', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/daaf0bea50ae18b7baeb7056dbb7d72e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ae29865e&amp;x-expires=1757800800&amp;x-signature=L6OXmgwrG8TXq3QJmUqxTIyqJA0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548612049145611013', 'createTime': 1757548217, 'createTimeISO': '2025-09-10T23:50:17.000Z', 'text': 'Podrán ocultar 3.000 comentarios y seguiran recibiendo mas comentarios de hate por usar ia y no pagar un comercial decente', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765670494865998854', 'uniqueId': 'tangoplay_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/409f39217ab640e340f6fceb506be4f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6e492f68&amp;x-expires=1757808000&amp;x-signature=6clLpgADg8DbopdtQlSAzurW4Q4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7828,7 +7908,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548513969955177234', 'createTime': 1757525372, 'createTimeISO': '2025-09-10T17:29:32.000Z', 'text': 'la IA es un riesgo reputacional', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6952613095761232901', 'uniqueId': 'mikahvlogsyvainas', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/312fe242f8ec4030f33476fcc826cb2a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f597c0c&amp;x-expires=1757800800&amp;x-signature=2pDCTVdw1mJMNSToeL6gtmjH2G0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548513969955177234', 'createTime': 1757525372, 'createTimeISO': '2025-09-10T17:29:32.000Z', 'text': 'la IA es un riesgo reputacional', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6952613095761232901', 'uniqueId': 'mikahvlogsyvainas', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/312fe242f8ec4030f33476fcc826cb2a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e1981ee7&amp;x-expires=1757808000&amp;x-signature=o6sS3vvRqyicUP3Xa0RMn9aQc7c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7884,7 +7964,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548644253654024967', 'createTime': 1757555710, 'createTimeISO': '2025-09-11T01:55:10.000Z', 'text': 'No usen mas ia, ni que no tuvieran pa contratar un artista', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157796127009653766', 'uniqueId': 'lmsplvd', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/6653e38ef36c04d8d8bef2841fdcef65~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=87a40d30&amp;x-expires=1757800800&amp;x-signature=PJVoO3llZSzzbsqYWuKFNagkLYI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548644253654024967', 'createTime': 1757555710, 'createTimeISO': '2025-09-11T01:55:10.000Z', 'text': 'No usen mas ia, ni que no tuvieran pa contratar un artista', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157796127009653766', 'uniqueId': 'lmsplvd', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/6653e38ef36c04d8d8bef2841fdcef65~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9435607d&amp;x-expires=1757808000&amp;x-signature=TgpRaosD4UBoI36Q5gWGH71FtJQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7910,22 +7990,22 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Es mejor alqueria</t>
+          <t>Ya me imagino a los jefazos de Alpina diciendo; “Metele IA, que eso le gusta a la chaviza”, T_T no se puede estar más desconectado de tu audiencia, y lo uncanny que se ven estos ads, la verdad</t>
         </is>
       </c>
       <c r="G136" s="2" t="n">
-        <v>45910.50166666666</v>
+        <v>45910.39724537037</v>
       </c>
       <c r="H136" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>12:02:24</t>
+          <t>09:32:02</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K136" t="n">
         <v>0</v>
@@ -7940,13 +8020,13 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548429649220207367', 'createTime': 1757505744, 'createTimeISO': '2025-09-10T12:02:24.000Z', 'text': 'Es mejor alqueria', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6957915898419004422', 'uniqueId': 'josecaliz139', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/395344c2e9877ae91bf78e159110c4de~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=cfc6118c&amp;x-expires=1757800800&amp;x-signature=%2FLIsU6p1%2Bb6IKI%2FR2HN%2B0oUOYEE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548390911198823189', 'createTime': 1757496722, 'createTimeISO': '2025-09-10T09:32:02.000Z', 'text': 'Ya me imagino a los jefazos de Alpina diciendo; “Metele IA, que eso le gusta a la chaviza”, T_T no se puede estar más desconectado de tu audiencia, y lo uncanny que se ven estos ads, la verdad', 'diggCount': 23, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7125833323087381510', 'uniqueId': 'galaxia_0', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f8a648e2cc961d9b94e3d701ffe1aa66~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=aa777c0c&amp;x-expires=1757808000&amp;x-signature=ww5JiVyEVuVUg1lKiJpsTDkD540%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -7960,28 +8040,28 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346?_r=1&amp;_t=ZS-8zeOAge5FPm</t>
+          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>jaaaa yo fui igual mis padres tambien tenían una tienda🤣</t>
+          <t>Es mejor alqueria</t>
         </is>
       </c>
       <c r="G137" s="2" t="n">
-        <v>45911.8071412037</v>
+        <v>45910.50166666666</v>
       </c>
       <c r="H137" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>19:22:17</t>
+          <t>12:02:24</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K137" t="n">
         <v>0</v>
@@ -7996,13 +8076,13 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890366343171346', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346', 'cid': '7548914095299494663', 'createTime': 1757618537, 'createTimeISO': '2025-09-11T19:22:17.000Z', 'text': 'jaaaa yo fui igual mis padres tambien tenían una tienda🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541075771877573638', 'uniqueId': 'nancyfula5', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7a534c9ddae5fc04e653b04994a642fe~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7bcd91c0&amp;x-expires=1757800800&amp;x-signature=PNTol%2F%2BrUQFPuIm0J37ot79XHOE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548429649220207367', 'createTime': 1757505744, 'createTimeISO': '2025-09-10T12:02:24.000Z', 'text': 'Es mejor alqueria', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6957915898419004422', 'uniqueId': 'josecaliz139', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/395344c2e9877ae91bf78e159110c4de~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=4c436dda&amp;x-expires=1757808000&amp;x-signature=mM2iZ9LPx6eN94BkUdozTnKxKYc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -8016,24 +8096,24 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591?_r=1&amp;_t=ZS-8zeOBRN6iBE</t>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490?_r=1&amp;_t=ZS-8zeO9hmWXF2</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>cuando no le echaban 💧🔫 agua😁😁😁</t>
+          <t>😂😂😂</t>
         </is>
       </c>
       <c r="G138" s="2" t="n">
-        <v>45911.9050462963</v>
+        <v>45912.9568287037</v>
       </c>
       <c r="H138" s="3" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>21:43:16</t>
+          <t>22:57:50</t>
         </is>
       </c>
       <c r="J138" t="n">
@@ -8052,13 +8132,13 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890371032419591', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'cid': '7548950376810005266', 'createTime': 1757626996, 'createTimeISO': '2025-09-11T21:43:16.000Z', 'text': 'cuando no le echaban 💧🔫 agua😁😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352620795581121541', 'uniqueId': 'berni8553', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/db334debe59ecc7ed516818d0130fb32~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d7030e76&amp;x-expires=1757800800&amp;x-signature=2dN1ccr0DScdVLXISPnZ3j%2Fqkf8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548918352757001490', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'cid': '7549340703403344658', 'createTime': 1757717870, 'createTimeISO': '2025-09-12T22:57:50.000Z', 'text': '😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7328476897858798597', 'uniqueId': 'oscar.escorche', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/3b7930daf0df3da7427cd2c1c186c680~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a87fd55e&amp;x-expires=1757808000&amp;x-signature=aXS75JcfDc8UBk8K9ERAQDYvtfQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -8072,28 +8152,28 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401?_r=1&amp;_t=ZS-8zeOEQFvD1j</t>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346?_r=1&amp;_t=ZS-8zeOAge5FPm</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>tantos animadores por favor</t>
+          <t>jaaaa yo fui igual mis padres tambien tenían una tienda🤣</t>
         </is>
       </c>
       <c r="G139" s="2" t="n">
-        <v>45911.71037037037</v>
+        <v>45911.8071412037</v>
       </c>
       <c r="H139" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>17:02:56</t>
+          <t>19:22:17</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -8108,13 +8188,13 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548878181538693909', 'createTime': 1757610176, 'createTimeISO': '2025-09-11T17:02:56.000Z', 'text': 'tantos animadores por favor', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7110768307757679622', 'uniqueId': 'marveliver11', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7110768834667249670~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=49eaf4d7&amp;x-expires=1757800800&amp;x-signature=9y%2FOwEAudyLmm23N0wXUuP5lZAo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890366343171346', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346', 'cid': '7548914095299494663', 'createTime': 1757618537, 'createTimeISO': '2025-09-11T19:22:17.000Z', 'text': 'jaaaa yo fui igual mis padres tambien tenían una tienda🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541075771877573638', 'uniqueId': 'nancyfula5', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7a534c9ddae5fc04e653b04994a642fe~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ffb285f0&amp;x-expires=1757808000&amp;x-signature=UTSX4O85OZZra%2F75B0gswQWPgEg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -8128,28 +8208,28 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401?_r=1&amp;_t=ZS-8zeOEQFvD1j</t>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591?_r=1&amp;_t=ZS-8zeOBRN6iBE</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ya no se esfuerzan no😂😂😂</t>
+          <t>cuando no le echaban 💧🔫 agua😁😁😁</t>
         </is>
       </c>
       <c r="G140" s="2" t="n">
-        <v>45911.70621527778</v>
+        <v>45911.9050462963</v>
       </c>
       <c r="H140" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>16:56:57</t>
+          <t>21:43:16</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
@@ -8164,7 +8244,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548876641469825793', 'createTime': 1757609817, 'createTimeISO': '2025-09-11T16:56:57.000Z', 'text': 'ya no se esfuerzan no😂😂😂', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7436936124830139448', 'uniqueId': 'killerof.killers', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/8764645bd2eb0906b859cf55866541ec~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=29419a2e&amp;x-expires=1757800800&amp;x-signature=GRY3In%2BXdRTNZZzdQ2KlaZQ3EAI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890371032419591', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'cid': '7548950376810005266', 'createTime': 1757626996, 'createTimeISO': '2025-09-11T21:43:16.000Z', 'text': 'cuando no le echaban 💧🔫 agua😁😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352620795581121541', 'uniqueId': 'berni8553', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/db334debe59ecc7ed516818d0130fb32~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0649bfcb&amp;x-expires=1757808000&amp;x-signature=jHqzzT8KNsLQ6POGvD%2FO2yBGYzg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8190,22 +8270,22 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>tantos animadores por favor</t>
         </is>
       </c>
       <c r="G141" s="2" t="n">
-        <v>45911.71685185185</v>
+        <v>45911.71037037037</v>
       </c>
       <c r="H141" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>17:12:16</t>
+          <t>17:02:56</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K141" t="n">
         <v>0</v>
@@ -8220,7 +8300,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548880586518938375', 'createTime': 1757610736, 'createTimeISO': '2025-09-11T17:12:16.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7448332016402236421', 'uniqueId': 'mazo54381', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1ddeec96484b7529b6bd78e8b8d4c343~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d8450cc3&amp;x-expires=1757800800&amp;x-signature=4QQGPC1uTX%2BDfsdlKwQWK7dzCPY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548878181538693909', 'createTime': 1757610176, 'createTimeISO': '2025-09-11T17:02:56.000Z', 'text': 'tantos animadores por favor', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7110768307757679622', 'uniqueId': 'marveliver11', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7110768834667249670~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ded0e062&amp;x-expires=1757808000&amp;x-signature=bCHy7C0ShGS8iFTcGUQFyMa4qzo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8246,37 +8326,149 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
+          <t>ya no se esfuerzan no😂😂😂</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="n">
+        <v>45911.70621527778</v>
+      </c>
+      <c r="H142" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>16:56:57</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>2</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="b">
+        <v>0</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548876641469825793', 'createTime': 1757609817, 'createTimeISO': '2025-09-11T16:56:57.000Z', 'text': 'ya no se esfuerzan no😂😂😂', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7436936124830139448', 'uniqueId': 'killerof.killers', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/8764645bd2eb0906b859cf55866541ec~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f6be7315&amp;x-expires=1757808000&amp;x-signature=4xp9sBgBMADPKhtqC2%2FvYPKBp0w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>11</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401?_r=1&amp;_t=ZS-8zeOEQFvD1j</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>😂</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="n">
+        <v>45911.71685185185</v>
+      </c>
+      <c r="H143" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>17:12:16</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="b">
+        <v>0</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548880586518938375', 'createTime': 1757610736, 'createTimeISO': '2025-09-11T17:12:16.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7448332016402236421', 'uniqueId': 'mazo54381', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/1ddeec96484b7529b6bd78e8b8d4c343~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=102674a6&amp;x-expires=1757808000&amp;x-signature=sep%2FwSOo9TuGiw7uTIhXM5E8cUo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>11</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401?_r=1&amp;_t=ZS-8zeOEQFvD1j</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
           <t>njd paguen un animador</t>
         </is>
       </c>
-      <c r="G142" s="2" t="n">
+      <c r="G144" s="2" t="n">
         <v>45912.00329861111</v>
       </c>
-      <c r="H142" s="3" t="n">
+      <c r="H144" s="3" t="n">
         <v>45912</v>
       </c>
-      <c r="I142" t="inlineStr">
+      <c r="I144" t="inlineStr">
         <is>
           <t>00:04:45</t>
         </is>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0</v>
-      </c>
-      <c r="L142" t="b">
-        <v>0</v>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548986822430491410', 'createTime': 1757635485, 'createTimeISO': '2025-09-12T00:04:45.000Z', 'text': 'njd paguen un animador', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7270237640099021830', 'uniqueId': 'jeanp_42', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/09654db54b40858085ed47450f828fe0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ee0aabfe&amp;x-expires=1757800800&amp;x-signature=bk3bL0cdaXXqilHuSmnnRzfT408%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548986822430491410', 'createTime': 1757635485, 'createTimeISO': '2025-09-12T00:04:45.000Z', 'text': 'njd paguen un animador', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7270237640099021830', 'uniqueId': 'jeanp_42', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/09654db54b40858085ed47450f828fe0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=de96e167&amp;x-expires=1757808000&amp;x-signature=PNKyh9yoL6LWOfDbs6OmXwCp4V4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8291,20 +8483,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -8439,7 +8624,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="n">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="7">
@@ -8478,15 +8663,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="n">
-        <v>810</v>
+        <v>833</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -8495,7 +8680,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346?_r=1&amp;_t=ZS-8zeOAge5FPm</t>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490?_r=1&amp;_t=ZS-8zeO9hmWXF2</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -8507,7 +8692,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -8516,7 +8701,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591?_r=1&amp;_t=ZS-8zeOBRN6iBE</t>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346?_r=1&amp;_t=ZS-8zeOAge5FPm</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -8528,23 +8713,44 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591?_r=1&amp;_t=ZS-8zeOBRN6iBE</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401?_r=1&amp;_t=ZS-8zeOEQFvD1j</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E11" t="n">
-        <v>7</v>
+      <c r="E12" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:N164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,18 +579,18 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Eran alpina eras más chévere antes</t>
+          <t>Amén Amén y Amén</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45912.81303240741</v>
+        <v>45915.06318287037</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>19:30:46</t>
+          <t>01:30:59</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -607,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1765338114346772', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3NjUzMzgxMTQzNDY3NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzY1MzM4MTE0MzQ2Nzcy', 'date': '2025-09-12T19:30:46.000Z', 'text': 'Eran alpina eras más chévere antes', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/491395119_2482748972059706_1272209331354308727_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=OdzgUUI9lewQ7kNvwEBy8bX&amp;_nc_oc=Adl2BS-6s9U5om_0Kk8p-afdS8kIkOXRhAkWXCcWAILVzZjDXSBcBa2eWElrQ3wyb30&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=e5vFn6ueVaeRcJO_-8TLzw&amp;oh=00_AfZOy11SC9w5Bum5fq4qPMLT2puH7HAx0vJsNUhJp2PN3g&amp;oe=68CA9F40', 'profileId': '100009738815049', 'profileName': 'Damián Arley Hernández', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1053499723343285', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwNTM0OTk3MjMzNDMyODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDUzNDk5NzIzMzQzMjg1', 'date': '2025-09-15T01:30:59.000Z', 'text': 'Amén Amén y Amén', 'profileUrl': 'https://www.facebook.com/essy.deltorogarcia', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/448782048_1564499247442897_1237187302337303624_n.jpg?stp=c0.0.819.819a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XsuyZhnh0lMQ7kNvwFonOo3&amp;_nc_oc=AdlZ8poroVJS4E4375VkMANMOjR6dMk-g5aZWI8uIuoXj7lzlGVm9NgJISNkgHRfjS91xlmjt7Pzn6FI_Bv18QwH&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfZYE-hVLmZikQW_eHb8mpAmTYsf_JYGnNDel3xRfgdBSw&amp;oe=68CE0DC3', 'profileId': 'pfbid02UALBGfzeTskJ725nX8WE6xV2cjGAbBa8xbA9a3ZPU5ei56gxJafBSPcfguBK2wvZl', 'profileName': 'Essy Del Toro Garcia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -633,23 +633,23 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Jajajaja Pero es IA gaxxxxx</t>
+          <t>Amen</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45912.49671296297</v>
+        <v>45915.10070601852</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11:55:16</t>
+          <t>02:25:01</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1097803569200070', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwOTc4MDM1NjkyMDAwNzA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDk3ODAzNTY5MjAwMDcw', 'date': '2025-09-12T11:55:16.000Z', 'text': 'Jajajaja Pero es IA gaxxxxx', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/503436742_1253835902986899_1384652200062589429_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=3xfZIHAzeNgQ7kNvwFVj6Gm&amp;_nc_oc=AdkP4B6sBt3vBFDDW9ro57NBGm3Q9FsUO_xNSVxo-NO3xWozUjNUGpZ2MEwsTSY6YSQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=e5vFn6ueVaeRcJO_-8TLzw&amp;oh=00_Afa0H4Yix5Cs-5Bqd4qGKxa4sX-8Yh-y6URk8zq_UpnTHQ&amp;oe=68CA9352', 'profileId': '100050815038837', 'profileName': 'Zyon Jhonn', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1839340746791552', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE4MzkzNDA3NDY3OTE1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xODM5MzQwNzQ2NzkxNTUy', 'date': '2025-09-15T02:25:01.000Z', 'text': 'Amen', 'profileUrl': 'https://www.facebook.com/jaime.leon.mazo.perez', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=uF0fUKiBKJsQ7kNvwHJYsc0&amp;_nc_oc=AdnaF3iSOzSm1ehrpRx51JOhbxiLwxsg06xx0jZPNKp8AU4cD6NbVk7Qw6xbieF1LI2KashJLfjBMAom05uDcXYm&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfYfxZZ_bo5Z7uYK-arBe0_2GlKa753XtdhZ_t7WGkUvrg&amp;oe=68EF997A', 'profileId': 'pfbid0cVb1ehbXwA68AmMhERmaS3c1w8XtRQ3LBoZY4mpDhikx5Tjp1XutPKx3XdbAkxS7l', 'profileName': 'Jaime León Mazo Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -687,23 +687,23 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pero porque todo con ia</t>
+          <t>Eran alpina eras más chévere antes</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45911.95452546296</v>
+        <v>45912.81303240741</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>22:54:31</t>
+          <t>19:30:46</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -715,7 +715,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2281864825666658', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yMjgxODY0ODI1NjY2NjU4', 'date': '2025-09-11T22:54:31.000Z', 'text': 'Pero porque todo con ia', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/465968903_28163068836613657_4647340187890363470_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=jXPGjaZlumEQ7kNvwHlv7x1&amp;_nc_oc=AdlsIaYTqT66Bt22toq3WLqJ0BdqgsUNWOMwjmw_2FbMuBGoTob0Xr5QUoGp0lc3UaM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=e5vFn6ueVaeRcJO_-8TLzw&amp;oh=00_AfZ4sOBpa2tCC5rla1oBNNydv4NO6gFlJLPtGpMcFnnBzw&amp;oe=68CA6CD8', 'profileId': 'pfbid0Zzt98TerKg7rkfZFnPsiXSQ8eAJcWrEfgjgx2KT6K41iH5psQS7V2UKLY9PypJcXl', 'profileName': 'Jonathan Acuña', 'likesCount': '5', 'commentsCount': 1, 'comments': [{'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2281864825666658&amp;reply_comment_id=1735151283926476', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3MzUxNTEyODM5MjY0NzY=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzM1MTUxMjgzOTI2NDc2', 'date': '2025-09-12T14:44:57.000Z', 'text': 'Jonathan Acuña así están los de paleta Drácula', 'profileUrl': 'https://www.facebook.com/kevincaicedo.izquierdo', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/475183094_10231119286038356_7368772389638380458_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=w5dCJkFvYG4Q7kNvwGHHOzE&amp;_nc_oc=AdmLG8JSHkpFQNpHDtsSDci3N8MCNeO8XR3LgFhHJRaNKkHzm7DWu33oqxhwccSCL-A&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=e5vFn6ueVaeRcJO_-8TLzw&amp;oh=00_AfbtdYkOWzxo1W9P-y3lF5P3VHFgU8eeb5FvS5wEKmKfCQ&amp;oe=68CA7485', 'profileId': 'pfbid023KQrEy6v3FFZEV9G8fvAKTHLnkJL7PNwaKEp9JVrannS1MxmDFQq8HdUidpc3Rixl', 'profileName': 'Kevin Caicedo Izquierdo', 'likesCount': '0', 'threadingDepth': 1, 'replyToCommentId': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg=', 'parentComment': {'author': {'__typename': 'User', 'name': 'Jonathan Acuña', 'short_name': 'Jonathan', 'id': 'pfbid0Zzt98TerKg7rkfZFnPsiXSQ8eAJcWrEfgjgx2KT6K41iH5psQS7V2UKLY9PypJcXl'}, 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg='}, 'parentReply': {'author': {'__typename': 'User', 'name': 'Jonathan Acuña', 'gender': 'MALE', 'id': 'pfbid0Zzt98TerKg7rkfZFnPsiXSQ8eAJcWrEfgjgx2KT6K41iH5psQS7V2UKLY9PypJcXl'}, 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg='}}], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1765338114346772', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3NjUzMzgxMTQzNDY3NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzY1MzM4MTE0MzQ2Nzcy', 'date': '2025-09-12T19:30:46.000Z', 'text': 'Eran alpina eras más chévere antes', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/491395119_2482748972059706_1272209331354308727_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=hPr5oAQRr7QQ7kNvwGM88E4&amp;_nc_oc=AdlNys9S_Fz1CCN6MSpM37j15aP7zgsGv_QUYRzoRQFAqtq4-6XlHBocUee6HwBjL6pR3F3Tn5Lf5T2Y4GwArVvi&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfYqq88hMfJsV2NBhy1CDGIQdg9z0AttPCs1rN41JMbWDg&amp;oe=68CDEB00', 'profileId': '100009738815049', 'profileName': 'Damián Arley Hernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -741,23 +741,23 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>No usen ia, esta horrible ese anuncio</t>
+          <t>La publicidad con IA dice mucho de la calidad de su trabajo.</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45912.74690972222</v>
+        <v>45913.93961805556</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>17:55:33</t>
+          <t>22:33:03</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -769,7 +769,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2520321701679273', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzI1MjAzMjE3MDE2NzkyNzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yNTIwMzIxNzAxNjc5Mjcz', 'date': '2025-09-12T17:55:33.000Z', 'text': 'No usen ia, esta horrible ese anuncio', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=7CsbLZRM9FQQ7kNvwH-dMTN&amp;_nc_oc=AdlJjz3NxHV9qJRwIn7TlFmym-KrBJjBAa_Y8VQHJBxnc_bZw1ZGtbvpQ2ZQSS6_2XY&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;oh=00_AfajKBi8BKS4UufQALI6agBSEBtvAl9WPcHKq0nxyV9Iwg&amp;oe=68EC157A', 'profileId': 'pfbid0HL9u7D6kZBSwugJJbpRR8ZCrYuJ8LgKWNiCLzeQSaEpXh6TdRZP8umyRoh4K1NHXl', 'profileName': 'Alexius Solborne', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1711482479808279', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3MTE0ODI0Nzk4MDgyNzk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzExNDgyNDc5ODA4Mjc5', 'date': '2025-09-13T22:33:03.000Z', 'text': 'La publicidad con IA dice mucho de la calidad de su trabajo.', 'profileUrl': 'https://www.facebook.com/pierrot.bleu', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/527764992_122267880128029292_4555020448627783100_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=r3fsMY-BIp8Q7kNvwHNYAPH&amp;_nc_oc=AdmlPQxdklUQzCZiMj9WcyC01EtWfy9Y6frWhVkcKD18mI_ykCR3qr1wQw1rSWNBqgCItCP0eC8lEt6XKnV-BRjN&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_Afb7Vx4SJ5qOY4J6Ak-iatCK7CqJOy7EinG67zYQcs3IKQ&amp;oe=68CDEA08', 'profileId': '61550878779366', 'profileName': 'Pierrot Bleu', 'likesCount': '3', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -793,26 +793,21 @@
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Tienen recursos de sobra para contratar un artista 3D y en lugar de hacerlo suben esta basura hecha con AI, qué le dice eso al consumidor sobre sus productos?
-También dejan en manos de la AI su control de salubridad?</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" s="2" t="n">
-        <v>45912.73665509259</v>
+        <v>45914.58787037037</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>17:40:47</t>
+          <t>14:06:32</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -824,7 +819,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1101092795498355', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzExMDEwOTI3OTU0OTgzNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMTAxMDkyNzk1NDk4MzU1', 'date': '2025-09-12T17:40:47.000Z', 'text': 'Tienen recursos de sobra para contratar un artista 3D y en lugar de hacerlo suben esta basura hecha con AI, qué le dice eso al consumidor sobre sus productos?\nTambién dejan en manos de la AI su control de salubridad?', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/492693542_2389131311480256_190548770418542821_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=y2ZEw6G3rKUQ7kNvwHw6xbA&amp;_nc_oc=AdnU1o3tMTKuYgD7Xb6Kpa1t1Y24kpAyG5U4Ir0l-wsYzUs9knQNM83P4bdpat1x3nM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=e5vFn6ueVaeRcJO_-8TLzw&amp;oh=00_Afb0NPe6R9JIdnVpA-L70Au1u2wEGfkeCx-aw8NtotODlA&amp;oe=68CA7D89', 'profileId': 'pfbid0c4o41kiHqSVRngCoeXq6A9vrUvjKBg2fYSJLVs5KUtqB24ncTk1nHs3SqyuosWJbl', 'profileName': 'Víctor Martínez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1838498053713253', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE4Mzg0OTgwNTM3MTMyNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xODM4NDk4MDUzNzEzMjUz', 'date': '2025-09-14T14:06:32.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-6/547286903_813695251049460_5430494300695876333_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ntEh2GspGdYQ7kNvwFNqfPe&amp;_nc_oc=AdkcJfEfue6o4E9bGvtwP5DEFfFVQ3hqSGdK_qul0ZAPNI91gNHV8hSmh5WTmST4U43KgyPoKxxcvyQyRmNgsIuE&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfYYZjpuFIAyGTbiSRZQ0I5o5XKWHE7qm7ze827dXyGx4Q&amp;oe=68CDFD0E'}, 'id': '813695247716127', 'cix_screen': None, 'massive_image': {'width': 640, 'height': 960}, 'image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-6/547286903_813695251049460_5430494300695876333_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ntEh2GspGdYQ7kNvwFNqfPe&amp;_nc_oc=AdkcJfEfue6o4E9bGvtwP5DEFfFVQ3hqSGdK_qul0ZAPNI91gNHV8hSmh5WTmST4U43KgyPoKxxcvyQyRmNgsIuE&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfZoj17tWGAMuZOKft3c7ZbiwinPImI0J75wFb_aAvcNkQ&amp;oe=68CDFD0E', 'width': 150, 'height': 225}, 'ocrText': "May be an image of heart and text that says 'AMOR... Recuerdas que tienes a alguien que te ama con locura y te recuerda en todo momento. Luisaf dedicatorias del corazón.'"}], 'profileUrl': 'https://www.facebook.com/jose.arias.336103', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/538116307_796990922719893_2820109332826313784_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mc1uTS-UGZoQ7kNvwEzR8z5&amp;_nc_oc=AdnvkLGSSi86IRGUgGLqRAvxA3OzVSHVDST6K1jJB9fDRhrMPRsOq71KxNHIPTW0mhGvv2TvTaAOXf0mxCv2blJp&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfZ2zUvm0hrVL5QclHPo9PzudwGAZ1M3RBVov80GNsrh1A&amp;oe=68CDF480', 'profileId': '100072269771691', 'profileName': 'Jose Arias', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -850,23 +845,23 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Q hpta asco hahahaha</t>
+          <t>Jajajaja Pero es IA gaxxxxx</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45912.07883101852</v>
+        <v>45912.49671296297</v>
       </c>
       <c r="H8" s="3" t="n">
         <v>45912</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>01:53:31</t>
+          <t>11:55:16</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -878,13 +873,13 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=757322997083065', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3Xzc1NzMyMjk5NzA4MzA2NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN183NTczMjI5OTcwODMwNjU=', 'date': '2025-09-12T01:53:31.000Z', 'text': 'Q hpta asco hahahaha', 'profileUrl': 'https://www.facebook.com/juandamr', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/482085481_10237447593192940_7097130589724547644_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=IHXi1jIJOMsQ7kNvwE63snY&amp;_nc_oc=AdkBA0ZdHe5a8mhMnwWdeivP7J6dh0HJ3_OnCCz6ztB5bqungngYswBbucuwkROtZF4&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=e5vFn6ueVaeRcJO_-8TLzw&amp;oh=00_Afaa2hcqQh56GTG7eoeXeI9dAh6ER6kME6RqKuep0chB8A&amp;oe=68CA6D16', 'profileId': '1343667140', 'profileName': 'Juanda Muñoz Rico', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1097803569200070', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwOTc4MDM1NjkyMDAwNzA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDk3ODAzNTY5MjAwMDcw', 'date': '2025-09-12T11:55:16.000Z', 'text': 'Jajajaja Pero es IA gaxxxxx', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/503436742_1253835902986899_1384652200062589429_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=MNwh2TDnu0kQ7kNvwEmYYpy&amp;_nc_oc=AdmM3eSDMR7CkvuNrhr06Gg-QYBMLmNM_jIGJngh-6gMLB59kZ31svRZR7xCNwP5FP48vALuo-V9LvFTSKdbXClW&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfYJe_6Vb2d9aMp8-34LPAAUuc63fTlcbWuFOdSRQwi0oQ&amp;oe=68CE1752', 'profileId': '100050815038837', 'profileName': 'Zyon Jhonn', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -898,29 +893,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217383833767187/?dco_ad_token=AaoI_1TcTGLFpUm7WcXykrP4fE3pj5Rq_cZiUmubnPAj2HghH9agXsDDsIgxAbIUjgyyQP8CAV2U0B9Z&amp;dco_ad_id=120234933289600640</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217384173767153/?dco_ad_token=AaoUMSR4O0Jn0kI9WJNgACCt818bH-qdkhOz0IzQxlGq3C6LvYpk-Hul05udjhZh7O2IEZtYs9sGUyhI&amp;dco_ad_id=120234933628460640</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pinchi animación toda culera, si van a invertir en hacer animación, inviertan en una buena IA</t>
+          <t>Pero porque todo con ia</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45912.52608796296</v>
+        <v>45911.95452546296</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>12:37:34</t>
+          <t>22:54:31</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -932,13 +927,13 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1518033859195059', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE1MTgwMzM4NTkxOTUwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xNTE4MDMzODU5MTk1MDU5', 'date': '2025-09-12T12:37:34.000Z', 'text': 'Pinchi animación toda culera, si van a invertir en hacer animación, inviertan en una buena IA', 'profileUrl': 'https://www.facebook.com/juancho.barajas.7', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/483861579_9365490916877333_3937309200038098582_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=wSGBuX9yfzwQ7kNvwEwH_Ct&amp;_nc_oc=AdkRqfOAStYrwDS0poYteAHhq1LUj-NsOOlqcRXAbrpnFgYm2gbfscZGCzJlgHR2BZo&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=8A6ZFriQm14YzIRyacpKfg&amp;oh=00_AfZAnthHGXev0momuclGnOtq4RMLMn_8FCeN2ZfYE4angA&amp;oe=68CA8074', 'profileId': '100002495548710', 'profileName': 'Juancho Barajas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2281864825666658', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yMjgxODY0ODI1NjY2NjU4', 'date': '2025-09-11T22:54:31.000Z', 'text': 'Pero porque todo con ia', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/465968903_28163068836613657_4647340187890363470_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xjiEi4iS6qQQ7kNvwHVAION&amp;_nc_oc=Adm_Q5OuVQrwAHpqaljHuyrLw5TrfIDhmPGS9JAcIM-OD03bmUbjwfA3NYTu0AN38PJkuKHxzIctOfEo2M2KpP7e&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfaQdfhKHIx9nJFWbXDPea5C2a65grjs4OwH-mL-uBVMSw&amp;oe=68CDF0D8', 'profileId': 'pfbid0Zpj8qKP7WGvkrgYQ3kWMbYUgfZzgZkqWtYtEcFNUjPZoy1YzRbmekeypLdaVFP9tl', 'profileName': 'Jonathan Acuña', 'likesCount': '7', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -952,24 +947,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217383833767187/?dco_ad_token=AaoI_1TcTGLFpUm7WcXykrP4fE3pj5Rq_cZiUmubnPAj2HghH9agXsDDsIgxAbIUjgyyQP8CAV2U0B9Z&amp;dco_ad_id=120234933289600640</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217384173767153/?dco_ad_token=AaoUMSR4O0Jn0kI9WJNgACCt818bH-qdkhOz0IzQxlGq3C6LvYpk-Hul05udjhZh7O2IEZtYs9sGUyhI&amp;dco_ad_id=120234933628460640</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Si, se ve poco real esa animación. ojalá la IA les compres sus productos.</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" s="2" t="n">
-        <v>45912.28892361111</v>
+        <v>45914.58793981482</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>06:56:03</t>
+          <t>14:06:38</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -986,13 +977,13 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=729207126799156', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcyOTIwNzEyNjc5OTE1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MjkyMDcxMjY3OTkxNTY=', 'date': '2025-09-12T06:56:03.000Z', 'text': 'Si, se ve poco real esa animación. ojalá la IA les compres sus productos.', 'profileUrl': 'https://www.facebook.com/fernandpsb', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/457372791_8271573726262434_7931313235547901570_n.jpg?stp=c448.0.1152.1152a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=WUwHhP1sFJwQ7kNvwFWOy2n&amp;_nc_oc=Adkzwp_GFSk9FmFXu0kNn7WSaMR6aleOnjoCA6CLxf-wHvljwHPWxHY5afAjWYAUHgw&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=8A6ZFriQm14YzIRyacpKfg&amp;oh=00_AfaleTV6M5pthSgbno8D3VsJ8ogymg1ujVpiuYUEDnoznw&amp;oe=68CA6B0A', 'profileId': '100002296670340', 'profileName': 'Fernando Rodríguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1893369451562335', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE4OTMzNjk0NTE1NjIzMzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xODkzMzY5NDUxNTYyMzM1', 'date': '2025-09-14T14:06:38.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-6/548527386_813695361049449_121925468336332210_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=wsZT2wjrPIkQ7kNvwH5UYOw&amp;_nc_oc=AdkxgTe8fVc8F_AZQjSv9u2WHgNjDBSvD_jytDOj2k_gLygQ-AhKLH6oU0YXDIl6oYCRgVIr0wHB0TfXevxLppsk&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfYUeWk9W1AYoJ0qoCKr13MIixFjRXVs3EFQVcuqqcEqfQ&amp;oe=68CE12E4'}, 'id': '813695357716116', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 960}, 'image': {'uri': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-6/548527386_813695361049449_121925468336332210_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=wsZT2wjrPIkQ7kNvwH5UYOw&amp;_nc_oc=AdkxgTe8fVc8F_AZQjSv9u2WHgNjDBSvD_jytDOj2k_gLygQ-AhKLH6oU0YXDIl6oYCRgVIr0wHB0TfXevxLppsk&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfarYMCXx6B7NBdkJKqSMF5dgk8pRV9paFnCU-U5N60WeQ&amp;oe=68CE12E4', 'width': 225, 'height': 225}, 'ocrText': 'May be an image of 1 person and hat'}], 'profileUrl': 'https://www.facebook.com/jose.arias.336103', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/538116307_796990922719893_2820109332826313784_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mc1uTS-UGZoQ7kNvwEzR8z5&amp;_nc_oc=AdnvkLGSSi86IRGUgGLqRAvxA3OzVSHVDST6K1jJB9fDRhrMPRsOq71KxNHIPTW0mhGvv2TvTaAOXf0mxCv2blJp&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfZ2zUvm0hrVL5QclHPo9PzudwGAZ1M3RBVov80GNsrh1A&amp;oe=68CDF480', 'profileId': '100072269771691', 'profileName': 'Jose Arias', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1006,24 +997,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217383833767187/?dco_ad_token=AaoI_1TcTGLFpUm7WcXykrP4fE3pj5Rq_cZiUmubnPAj2HghH9agXsDDsIgxAbIUjgyyQP8CAV2U0B9Z&amp;dco_ad_id=120234933289600640</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217384173767153/?dco_ad_token=AaoUMSR4O0Jn0kI9WJNgACCt818bH-qdkhOz0IzQxlGq3C6LvYpk-Hul05udjhZh7O2IEZtYs9sGUyhI&amp;dco_ad_id=120234933628460640</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>..</t>
+          <t>Natalia Guiral</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45912.23135416667</v>
+        <v>45914.9031712963</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>05:33:09</t>
+          <t>21:40:34</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1040,13 +1031,13 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=714344698306073', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcxNDM0NDY5ODMwNjA3Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MTQzNDQ2OTgzMDYwNzM=', 'date': '2025-09-12T05:33:09.000Z', 'text': '..', 'profileUrl': 'https://www.facebook.com/luzmarina.jimenez.234064', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/518417845_122144505974773963_726240798875025477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wEX-0MLaUP4Q7kNvwFONvz3&amp;_nc_oc=AdmnW5f0iKFYacJ5-2JGpcnaRWbOAOlVLTS0EG5FMSUv5hnZJExxZ2-whiERJAN3amM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=8A6ZFriQm14YzIRyacpKfg&amp;oh=00_AfaA73yUPsKl3I5uGVh9BxHuWS80jZdvjal3UGrBH63A5A&amp;oe=68CA9F56', 'profileId': 'pfbid02UVsvVFB18EC9pXj8t4zhYcA3LFipwbySaCyLmkiV8bre82ppzCpiK3Z2jePhfxALl', 'profileName': 'LuzMarina Jimenez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2177053922804233', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIxNzcwNTM5MjI4MDQyMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yMTc3MDUzOTIyODA0MjMz', 'date': '2025-09-14T21:40:34.000Z', 'text': 'Natalia Guiral', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/526649106_1416424272810766_2142715909551217946_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qadorHhyM_wQ7kNvwG4sts2&amp;_nc_oc=AdmhiI00_3FT-oiqbpLsSGAW0afZxPMU7lqkl9d1DRS1-T83R-UMqNAT9qtQ4s1Qfw0uWjyc4_4-merIk-taEI7Z&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfYyfXRE65rKLH8qZhM2q2H6x2Ncg5F6qh_fQdvqdPwwgA&amp;oe=68CDEECD', 'profileId': '100033296202905', 'profileName': 'Camilo Sierra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1060,29 +1051,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217383833767187/?dco_ad_token=AaoI_1TcTGLFpUm7WcXykrP4fE3pj5Rq_cZiUmubnPAj2HghH9agXsDDsIgxAbIUjgyyQP8CAV2U0B9Z&amp;dco_ad_id=120234933289600640</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217384173767153/?dco_ad_token=AaoUMSR4O0Jn0kI9WJNgACCt818bH-qdkhOz0IzQxlGq3C6LvYpk-Hul05udjhZh7O2IEZtYs9sGUyhI&amp;dco_ad_id=120234933628460640</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Hay un poco de IA en tu animación 🤢</t>
+          <t>Ese anuncio parece que fuera hecho por una IA</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45911.88256944445</v>
+        <v>45913.84262731481</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21:10:54</t>
+          <t>20:13:23</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1094,13 +1085,13 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1976178152957224', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE5NzYxNzgxNTI5NTcyMjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xOTc2MTc4MTUyOTU3MjI0', 'date': '2025-09-11T21:10:54.000Z', 'text': 'Hay un poco de IA en tu animación 🤢', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/535652007_10162869566184929_6951913208270813003_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QgbNse6La-gQ7kNvwEkwjWb&amp;_nc_oc=Adn2nf65AZ1Us5dG9LDam3B8Wh9NGsBES8SU1hfuckexG-fRSrvhI-OFwyhmXW-Yfzk&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=8A6ZFriQm14YzIRyacpKfg&amp;oh=00_AfZ_8mLtRnv-_YJ6AW-YiidtxCnjtxpcJkXRn-bXAFBn2g&amp;oe=68CA9AE9', 'profileId': '672709928', 'profileName': 'Hv Helmut', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1664621124232859', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE2NjQ2MjExMjQyMzI4NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNjY0NjIxMTI0MjMyODU5', 'date': '2025-09-13T20:13:23.000Z', 'text': 'Ese anuncio parece que fuera hecho por una IA', 'attachments': [{'__typename': 'GenericAttachmentMedia', 'sticker_image': {'__typename': 'Image', 'uri': 'https://external-atl3-3.xx.fbcdn.net/emg1/v/t13/5857999671244395827?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FePElaRFmszMAAAAC%2Fwtf-disbelief.gif&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-gif_fr_q75&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;_nc_oc=Adlf9q2CLfKPMSqfJ-h9A-_WY9IkYGJYkFYeZeYj9Wp9RXNEWVoc8HlLncEDSTU-zP1fko-Fnt9ef36ejtVfyS0s&amp;ccb=13-1&amp;oh=06_Q3-3AcICJjJJf47GBT9MH_4aD5xs7vpyBz034cjNSSro-jEg&amp;oe=68C9F9EB&amp;_nc_sid=9e3c15'}, 'id': '10163514651722147', 'image': {'height': 280, 'width': 395, 'uri': 'https://external-atl3-3.xx.fbcdn.net/emg1/v/t13/5857999671244395827?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FePElaRFmszMAAAAC%2Fwtf-disbelief.gif&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-emg0_q75_s396x280_tt6&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;_nc_oc=Adlf9q2CLfKPMSqfJ-h9A-_WY9IkYGJYkFYeZeYj9Wp9RXNEWVoc8HlLncEDSTU-zP1fko-Fnt9ef36ejtVfyS0s&amp;ccb=13-1&amp;oh=06_Q3-3AeK6tFIcCWBzp0zzI2Hsa50Zwacj6tcXXD1LtuBZoBKX&amp;oe=68C9F9EB&amp;_nc_sid=c97757'}, 'animated_image': {'height': 353, 'width': 498, 'uri': 'https://external-atl3-3.xx.fbcdn.net/emg1/v/t13/5857999671244395827?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FePElaRFmszMAAAAC%2Fwtf-disbelief.gif&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-gif_fr_q75&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;_nc_oc=Adlf9q2CLfKPMSqfJ-h9A-_WY9IkYGJYkFYeZeYj9Wp9RXNEWVoc8HlLncEDSTU-zP1fko-Fnt9ef36ejtVfyS0s&amp;ccb=13-1&amp;oh=06_Q3-3AcICJjJJf47GBT9MH_4aD5xs7vpyBz034cjNSSro-jEg&amp;oe=68C9F9EB&amp;_nc_sid=9e3c15'}, 'animated_image_caption': None, 'animated_image_attribution': 'Tenor'}], 'profileUrl': 'https://www.facebook.com/jesus.eduardo.sarmiento.ortiz', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/509599110_10163104690482147_8948077689991658004_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=a-pljVgAL0oQ7kNvwE9cQZ7&amp;_nc_oc=Adk0yV0npOxZ4sIXqBloRCJ35iIQf_G5tlt2byvW_Uc0HcwcS5tXM50lOnaNPwcDcQKKNgA1chwCR-ktWc7SvJ5H&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_Afa530QHU8xEETIgaFlLzyCOBwyD58GUExa3DEogE7-HRw&amp;oe=68CE1218', 'profileId': '689672146', 'profileName': 'Jesus Eduardo Sarmiento Ortiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1114,29 +1105,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217383833767187/?dco_ad_token=AaoI_1TcTGLFpUm7WcXykrP4fE3pj5Rq_cZiUmubnPAj2HghH9agXsDDsIgxAbIUjgyyQP8CAV2U0B9Z&amp;dco_ad_id=120234933289600640</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217384173767153/?dco_ad_token=AaoUMSR4O0Jn0kI9WJNgACCt818bH-qdkhOz0IzQxlGq3C6LvYpk-Hul05udjhZh7O2IEZtYs9sGUyhI&amp;dco_ad_id=120234933628460640</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hese cuatro pelos hp solo a echo es robar al pueblo y volverse rico</t>
+          <t>Tienen recursos de sobra para contratar un artista 3D y en lugar de hacerlo suben esta basura hecha con AI, qué le dice eso al consumidor sobre sus productos?
+También dejan en manos de la AI su control de salubridad?</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45912.00564814815</v>
+        <v>45912.73665509259</v>
       </c>
       <c r="H13" s="3" t="n">
         <v>45912</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>00:08:08</t>
+          <t>17:40:47</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -1148,13 +1140,13 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=839435021752790', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgzOTQzNTAyMTc1Mjc5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84Mzk0MzUwMjE3NTI3OTA=', 'date': '2025-09-12T00:08:08.000Z', 'text': 'Hese cuatro pelos hp solo a echo es robar al pueblo y volverse rico', 'profileUrl': 'https://www.facebook.com/hector.ortegaperafan', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/544910070_2212986202509976_2116931927882062195_n.jpg?stp=c0.0.768.768a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=oTAt7hvXzTEQ7kNvwGGzjgl&amp;_nc_oc=AdmPTrjAKEc2VhrcVv6plEBaGd-NW6okvBcGbi-R4w69Mv4KWaR67q7ptJrS0LoFwT0&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=8A6ZFriQm14YzIRyacpKfg&amp;oh=00_AfZ3JeBtehbxLRWESziv_oxVexUMr9S7aV29POrJmJssCQ&amp;oe=68CA8EB8', 'profileId': 'pfbid023RxuD8PPjwwEuX7PSzJr1m1cqDB3ku83GMAJc9x2mPKic1uNs43A7zHBrTAcnjKSl', 'profileName': 'Hector Ortega Perafan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1101092795498355', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzExMDEwOTI3OTU0OTgzNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMTAxMDkyNzk1NDk4MzU1', 'date': '2025-09-12T17:40:47.000Z', 'text': 'Tienen recursos de sobra para contratar un artista 3D y en lugar de hacerlo suben esta basura hecha con AI, qué le dice eso al consumidor sobre sus productos?\nTambién dejan en manos de la AI su control de salubridad?', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/492693542_2389131311480256_190548770418542821_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yFVs17EmMnMQ7kNvwGifrau&amp;_nc_oc=AdntR252vp8lSLV5kfPsj4n0YCiMM1qEU1YvoVmN43u7nwjOAOwX9NtplezelXF63Ic&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=BD1-55bIzA5NDNU4oezOOg&amp;oh=00_AfZr1khtygm1gTAuQlslVYUnUjmo48_BkE2eYTTOBfSpPw&amp;oe=68CE0189', 'profileId': 'pfbid02fk5kuHNNsFZQob5mS5q4o7ryEvYtsG66y9LavcMpJHuURN1HEh7AUJuNLn76bZNFl', 'profileName': 'Víctor Martínez', 'likesCount': '6', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1168,20 +1160,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1217383833767187/?dco_ad_token=AaoI_1TcTGLFpUm7WcXykrP4fE3pj5Rq_cZiUmubnPAj2HghH9agXsDDsIgxAbIUjgyyQP8CAV2U0B9Z&amp;dco_ad_id=120234933289600640</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217384173767153/?dco_ad_token=AaoUMSR4O0Jn0kI9WJNgACCt818bH-qdkhOz0IzQxlGq3C6LvYpk-Hul05udjhZh7O2IEZtYs9sGUyhI&amp;dco_ad_id=120234933628460640</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Te olvidaste de paco el flaco , ya no eres chevere</t>
+        </is>
+      </c>
       <c r="G14" s="2" t="n">
-        <v>45911.95805555556</v>
+        <v>45913.87543981482</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>22:59:36</t>
+          <t>21:00:38</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1198,17 +1194,17 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=816939231005497', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgxNjkzOTIzMTAwNTQ5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84MTY5MzkyMzEwMDU0OTc=', 'date': '2025-09-11T22:59:36.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=cx_Qsz0r8zUQ7kNvwF6-REe&amp;_nc_oc=Adn-VVeGZgymC6nowlme3cleDSkNxlia5Bf3WSUJGqN2WAPV_xZVLJV4Gve0Pz9Eo30&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=8A6ZFriQm14YzIRyacpKfg&amp;oh=00_AfYJ1nWOtADFatgWX9qzxODCoHqflJUMOS7_RXdKci0fdg&amp;oe=68CAA0ED'}, 'id': '122132915732892467', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 720}, 'image': {'uri': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=cx_Qsz0r8zUQ7kNvwF6-REe&amp;_nc_oc=Adn-VVeGZgymC6nowlme3cleDSkNxlia5Bf3WSUJGqN2WAPV_xZVLJV4Gve0Pz9Eo30&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=8A6ZFriQm14YzIRyacpKfg&amp;oh=00_AfayQmW9BlKVVPzN3WFJ3WY9BfKu7kdYXeAqTlNBYYwjOA&amp;oe=68CAA0ED', 'width': 261, 'height': 196}, 'ocrText': 'May be an image of 2 people, bird and goosedown coat'}], 'profileUrl': 'https://www.facebook.com/people/Tropi-Pollo-Aves/pfbid0vyoxHZ2RJmXW7hrisAEzVTNe42JuhhTufUdcGLTa6RUYHLoxRDPPgjVCgFNUkGJvl/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/503603154_122103355172892467_5961930638299244588_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CP6nZIIvwpoQ7kNvwE7KB32&amp;_nc_oc=AdkwAv_y0H4RmDL-g0p9iz9nNAPl_tkxSUXf6wpeC2w52iJHQgtNvqijC6RLc8gOKOA&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=8A6ZFriQm14YzIRyacpKfg&amp;oh=00_AfblEYGzYNg30PB1zDZLqXtBSG1CsDrO7rtnW6B0RQ4V0Q&amp;oe=68CA8C09', 'profileId': 'pfbid0vyoxHZ2RJmXW7hrisAEzVTNe42JuhhTufUdcGLTa6RUYHLoxRDPPgjVCgFNUkGJvl', 'profileName': 'Tropi Pollo Aves', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=682639247500754', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzY4MjYzOTI0NzUwMDc1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN182ODI2MzkyNDc1MDA3NTQ=', 'date': '2025-09-13T21:00:38.000Z', 'text': 'Te olvidaste de paco el flaco , ya no eres chevere', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/494556812_9997048570352085_7807488651924379435_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6VRxtK06hDgQ7kNvwEFW6pF&amp;_nc_oc=AdlN51ThUyR1vufVjgyxG9dMBqh5rXKU9B1il0ZP6TGv3c7RPHeQDElsaTq5uQ14dvs&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=BD1-55bIzA5NDNU4oezOOg&amp;oh=00_AfZYkL3f6yvxE3aIHDF7YzlNt_jqKj2S9lmpdI8tFUxr2Q&amp;oe=68CDF1FC', 'profileId': '100001411256913', 'profileName': 'Ramos Chriz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1218,16 +1214,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DOeAYHHABLU/#advertiser</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217384173767153/?dco_ad_token=AaoUMSR4O0Jn0kI9WJNgACCt818bH-qdkhOz0IzQxlGq3C6LvYpk-Hul05udjhZh7O2IEZtYs9sGUyhI&amp;dco_ad_id=120234933628460640</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>0</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Borran los comentarios pero sigue saliendo la publicidad. Siguen con la basura de IA? Así de mediocres son como sus productos? 🤣🤣🤣</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>45913.53368055556</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>45913</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>12:48:30</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1235,24 +1245,20 @@
       <c r="L15" t="b">
         <v>0</v>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DOeAYHHABLU/#advertiser', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1092979139584408', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwOTI5NzkxMzk1ODQ0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDkyOTc5MTM5NTg0NDA4', 'date': '2025-09-13T12:48:30.000Z', 'text': 'Borran los comentarios pero sigue saliendo la publicidad. Siguen con la basura de IA? Así de mediocres son como sus productos? 🤣🤣🤣', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/535652007_10162869566184929_6951913208270813003_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7dwcI7pd8JwQ7kNvwFzZCBw&amp;_nc_oc=AdlHBuHlit7W6wLBhQF8eK-FTJb5NIl5nJXY2H43KxNsTfaEwMrvJ1vYX6RxC5bf91M&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=BD1-55bIzA5NDNU4oezOOg&amp;oh=00_Afbn67HuGGQKhd43cPVzNEacggYGWhsoOVCsT3ZClbkbUQ&amp;oe=68CDE6A9', 'profileId': '672709928', 'profileName': 'Hv Helmut', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1262,28 +1268,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217384173767153/?dco_ad_token=AaoUMSR4O0Jn0kI9WJNgACCt818bH-qdkhOz0IzQxlGq3C6LvYpk-Hul05udjhZh7O2IEZtYs9sGUyhI&amp;dco_ad_id=120234933628460640</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" s="2" t="n">
-        <v>45911.09158564815</v>
+        <v>45914.8812962963</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>45911</v>
+        <v>45914</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>02:11:53</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>5</v>
+          <t>21:09:04</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1291,24 +1295,20 @@
       <c r="L16" t="b">
         <v>0</v>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548648557948683026', 'createTime': 1757556713, 'createTimeISO': '2025-09-11T02:11:53.000Z', 'text': 'Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6976617115294139397', 'uniqueId': 'chowder9273', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/21ce081563d432fdfb13dc114a97d005~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5fbde96f&amp;x-expires=1757808000&amp;x-signature=IiyQ%2F03tDbrBdNfH1t0ChlIXmKo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1942711319859153', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE5NDI3MTEzMTk4NTkxNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xOTQyNzExMzE5ODU5MTUz', 'date': '2025-09-14T21:09:04.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-6/547418942_122157628748757442_6393092434355388902_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=AxBg7qZS-i0Q7kNvwGCdXOA&amp;_nc_oc=AdkPWzRrQNZTP-igcgNwTHQnLnfxCgGWLtPO27s-IktaqeaJaZkMHQUfj8nWwYdbuNM&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=BD1-55bIzA5NDNU4oezOOg&amp;oh=00_AfYctmOpofxiQPp46-5VrdIQWEbNwxTnTFP4hL8LEXkZDw&amp;oe=68CDF3D6'}, 'id': '122157628742757442', 'cix_screen': None, 'massive_image': {'width': 232, 'height': 168}, 'image': {'uri': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-6/547418942_122157628748757442_6393092434355388902_n.jpg?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=AxBg7qZS-i0Q7kNvwGCdXOA&amp;_nc_oc=AdkPWzRrQNZTP-igcgNwTHQnLnfxCgGWLtPO27s-IktaqeaJaZkMHQUfj8nWwYdbuNM&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=BD1-55bIzA5NDNU4oezOOg&amp;oh=00_AfYPxC9PzLtwdcemnN3giaY4mqvguP9f839akSiuNNfJ4Q&amp;oe=68CDF3D6', 'width': 232, 'height': 168}, 'ocrText': 'No photo description available.'}], 'profileUrl': 'https://www.facebook.com/daniel.hernandez.71375', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/517315363_122144482658757442_8804516840594546914_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=td41Sabd6n4Q7kNvwFGTmfp&amp;_nc_oc=AdlHSDUbJWVhpWc2Pj5Z9XlzY1KpQ5dLgX0lSSt00x4WtluRxn5fyBP1JYn_Hpz_tM0&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=BD1-55bIzA5NDNU4oezOOg&amp;oh=00_Afat8NA-AVdlQk3c0TbQwViC7K1hwQ7af8_Fl6ZrW2_ZDA&amp;oe=68CDEAE4', 'profileId': '61572723281159', 'profileName': 'Daniel Hernández ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1318,53 +1318,51 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217384173767153/?dco_ad_token=AaoUMSR4O0Jn0kI9WJNgACCt818bH-qdkhOz0IzQxlGq3C6LvYpk-Hul05udjhZh7O2IEZtYs9sGUyhI&amp;dco_ad_id=120234933628460640</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>usaba IA y ni sentido tenía el anuncio</t>
+          <t>Q hpta asco hahahaha</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45910.30898148148</v>
+        <v>45912.07883101852</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>07:24:56</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>546</v>
+          <t>01:53:31</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548358154200974098', 'createTime': 1757489096, 'createTimeISO': '2025-09-10T07:24:56.000Z', 'text': 'usaba IA y ni sentido tenía el anuncio', 'diggCount': 546, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7522680959197971464', 'uniqueId': 'angel_fox_axel', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9ed7bfea88e1b69f3a128b1f8039235e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f5495ee1&amp;x-expires=1757808000&amp;x-signature=y%2FOd%2BhqWCtMYUuiFX6xRA4%2BEi5Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=757322997083065', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3Xzc1NzMyMjk5NzA4MzA2NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN183NTczMjI5OTcwODMwNjU=', 'date': '2025-09-12T01:53:31.000Z', 'text': 'Q hpta asco hahahaha', 'profileUrl': 'https://www.facebook.com/juandamr', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/482085481_10237447593192940_7097130589724547644_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qmU0muu0k7IQ7kNvwHAAF48&amp;_nc_oc=AdknL-F5Wb6RQg031SqYq_JNle_xE-5-ncQF80SqyURj1bR33E5Z_XShUGRCoFvk5TE&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=BD1-55bIzA5NDNU4oezOOg&amp;oh=00_AfY-nU1cDvzz6qANLnVp3nEszmIo21NPXFtZbi66-AO-uQ&amp;oe=68CDF116', 'profileId': '1343667140', 'profileName': 'Juanda Muñoz Rico', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1374,28 +1372,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217383833767187/?dco_ad_token=AaoI_1TcTGLFpUm7WcXykrP4fE3pj5Rq_cZiUmubnPAj2HghH9agXsDDsIgxAbIUjgyyQP8CAV2U0B9Z&amp;dco_ad_id=120234933289600640</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀</t>
+          <t>Pinchi animación toda culera, si van a invertir en hacer animación, inviertan en una buena IA</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>45910.92006944444</v>
+        <v>45912.52608796296</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>22:04:54</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>12</v>
+          <t>12:37:34</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1403,24 +1403,20 @@
       <c r="L18" t="b">
         <v>0</v>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548584862849942280', 'createTime': 1757541894, 'createTimeISO': '2025-09-10T22:04:54.000Z', 'text': 'empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6774471423067997190', 'uniqueId': 'xiewww_h', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ba1a8119f4148ea45db46fad9dcf764b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=def6048f&amp;x-expires=1757808000&amp;x-signature=E34uPMhUldaEMjwdqB5EwybtWHA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1518033859195059', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE1MTgwMzM4NTkxOTUwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xNTE4MDMzODU5MTk1MDU5', 'date': '2025-09-12T12:37:34.000Z', 'text': 'Pinchi animación toda culera, si van a invertir en hacer animación, inviertan en una buena IA', 'profileUrl': 'https://www.facebook.com/juancho.barajas.7', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/483861579_9365490916877333_3937309200038098582_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=AJN3hH-A_E4Q7kNvwG198iS&amp;_nc_oc=AdnVEfELwKRvWvfHeax_urepQl1FcDIGVcRt3eZ7rX9ra6UiQm5jUF2s91cJUnshMls&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=QlAcCGrzkF7lMFAC_e2zXA&amp;oh=00_AfZTVaCwVgccK7NkBeU_tHmlNn7-cGQiftjp0DWI5hPcjQ&amp;oe=68CE0474', 'profileId': '100002495548710', 'profileName': 'Juancho Barajas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1430,28 +1426,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217383833767187/?dco_ad_token=AaoI_1TcTGLFpUm7WcXykrP4fE3pj5Rq_cZiUmubnPAj2HghH9agXsDDsIgxAbIUjgyyQP8CAV2U0B9Z&amp;dco_ad_id=120234933289600640</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Muy mal alpina 😔</t>
+          <t>Si, se ve poco real esa animación. ojalá la IA les compres sus productos.</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45910.72035879629</v>
+        <v>45912.28892361111</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>17:17:19</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>52</v>
+          <t>06:56:03</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1459,24 +1457,20 @@
       <c r="L19" t="b">
         <v>0</v>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548510815235048210', 'createTime': 1757524639, 'createTimeISO': '2025-09-10T17:17:19.000Z', 'text': 'Muy mal alpina 😔', 'diggCount': 52, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7401980556445189125', 'uniqueId': 'vanshi432', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9593619d8a1f3f6623ca0b4ba781b0f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=127c327d&amp;x-expires=1757808000&amp;x-signature=3w3%2Bfkm2RHc3%2FQcskqImmZzCrcE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=729207126799156', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcyOTIwNzEyNjc5OTE1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MjkyMDcxMjY3OTkxNTY=', 'date': '2025-09-12T06:56:03.000Z', 'text': 'Si, se ve poco real esa animación. ojalá la IA les compres sus productos.', 'profileUrl': 'https://www.facebook.com/fernandpsb', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/457372791_8271573726262434_7931313235547901570_n.jpg?stp=c448.0.1152.1152a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QwxIVWOlPAMQ7kNvwGnLduz&amp;_nc_oc=Adkci63nemHnU92nRMjlYJhejNsdYwbGCN3RAS_sobBc-DvcoZoCw9XtxkkJvfPeAW0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=QlAcCGrzkF7lMFAC_e2zXA&amp;oh=00_AfYf_Vp-YPqq-4xpJ80YuU6rL9_HpyEn7UM-l20wRVFrFQ&amp;oe=68CDEF0A', 'profileId': '100002296670340', 'profileName': 'Fernando Rodríguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1486,28 +1480,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217383833767187/?dco_ad_token=AaoI_1TcTGLFpUm7WcXykrP4fE3pj5Rq_cZiUmubnPAj2HghH9agXsDDsIgxAbIUjgyyQP8CAV2U0B9Z&amp;dco_ad_id=120234933289600640</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Se me cayó un ídolo, en la mala Alpina</t>
+          <t>..</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45910.90369212963</v>
+        <v>45912.23135416667</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>21:41:19</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>6</v>
+          <t>05:33:09</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1515,24 +1511,20 @@
       <c r="L20" t="b">
         <v>0</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578807612277511', 'createTime': 1757540479, 'createTimeISO': '2025-09-10T21:41:19.000Z', 'text': 'Se me cayó un ídolo, en la mala Alpina', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6859385792315769861', 'uniqueId': 'bomkly2', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a0f29357a9e54e5054e5669e06d564aa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ed6679bf&amp;x-expires=1757808000&amp;x-signature=9dktf5e1PQsVzhQQs93Eap15kzA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=714344698306073', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcxNDM0NDY5ODMwNjA3Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MTQzNDQ2OTgzMDYwNzM=', 'date': '2025-09-12T05:33:09.000Z', 'text': '..', 'profileUrl': 'https://www.facebook.com/luzmarina.jimenez.234064', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/518417845_122144505974773963_726240798875025477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7l53SEM_6JsQ7kNvwGOQW_J&amp;_nc_oc=Adl65NhGkn5LnPMIxnqwnMCRQEok9VsA6SS9peWjxtf7FlHpSL11AZjEZccD9xIRzGE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=QlAcCGrzkF7lMFAC_e2zXA&amp;oh=00_AfYmChR4JB7KmrK1ZG0VCGZiKOrGhdY4HJj_nngYxbUCbQ&amp;oe=68CDEB16', 'profileId': 'pfbid02UKivC6uGJjkNQX2hrPmm79FvmYUrRQRxP17jbRGJxJtNDfHbZYR6vKZ4xv3WokNcl', 'profileName': 'LuzMarina Jimenez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1542,28 +1534,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217383833767187/?dco_ad_token=AaoI_1TcTGLFpUm7WcXykrP4fE3pj5Rq_cZiUmubnPAj2HghH9agXsDDsIgxAbIUjgyyQP8CAV2U0B9Z&amp;dco_ad_id=120234933289600640</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Como que les pesa mucho pagarle a un artista que si haga algo bueno</t>
+          <t>Hay un poco de IA en tu animación 🤢</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>45911.01646990741</v>
+        <v>45911.88256944445</v>
       </c>
       <c r="H21" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>00:23:43</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>11</v>
+          <t>21:10:54</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1571,24 +1565,20 @@
       <c r="L21" t="b">
         <v>0</v>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620601164104456', 'createTime': 1757550223, 'createTimeISO': '2025-09-11T00:23:43.000Z', 'text': 'Como que les pesa mucho pagarle a un artista que si haga algo bueno', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6797840408039703558', 'uniqueId': 'sstarberry__', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/4c4a684c8f37aa01fa09d888a9d7df43~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4f20d382&amp;x-expires=1757808000&amp;x-signature=tqKcuPH3nC37aHA7ln5sM4TRpvU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1976178152957224', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE5NzYxNzgxNTI5NTcyMjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xOTc2MTc4MTUyOTU3MjI0', 'date': '2025-09-11T21:10:54.000Z', 'text': 'Hay un poco de IA en tu animación 🤢', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/535652007_10162869566184929_6951913208270813003_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7dwcI7pd8JwQ7kNvwH8E-1d&amp;_nc_oc=AdnTQ-eoIHHuhajYV7jufd9qF5S7_ywSxyKxsoUC2JSwFnJVS4JoOrdGSDOr4J3bfBk&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=QlAcCGrzkF7lMFAC_e2zXA&amp;oh=00_AfaUMity1XEsxrWCQs1OuOIKL-iLVLKmI9QY_-3QvU4RRQ&amp;oe=68CDE6A9', 'profileId': '672709928', 'profileName': 'Hv Helmut', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1598,53 +1588,51 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217383833767187/?dco_ad_token=AaoI_1TcTGLFpUm7WcXykrP4fE3pj5Rq_cZiUmubnPAj2HghH9agXsDDsIgxAbIUjgyyQP8CAV2U0B9Z&amp;dco_ad_id=120234933289600640</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>¿IA? Wow ,tanto que ganan y no pagan un animador</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45910.79232638889</v>
+        <v>45913.86857638889</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>45910</v>
+        <v>45913</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>19:00:57</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>144</v>
+          <t>20:50:45</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548537516107088660', 'createTime': 1757530857, 'createTimeISO': '2025-09-10T19:00:57.000Z', 'text': '¿IA? Wow ,tanto que ganan y no pagan un animador', 'diggCount': 144, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7071862501012784133', 'uniqueId': 'el.gelatinas45', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8964867b1446081d4e48af3405f3abbf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=29a877cb&amp;x-expires=1757808000&amp;x-signature=3LYNRjnzUvCqYvYOQ8Z2YmoaY9Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1729573124421371', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE3Mjk1NzMxMjQ0MjEzNzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xNzI5NTczMTI0NDIxMzcx', 'date': '2025-09-13T20:50:45.000Z', 'text': 'Monday', 'profileUrl': 'https://www.facebook.com/alejandro.caicedobernal', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/242392669_5209370355814624_1966482618955649755_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FigEmkHrmb0Q7kNvwE478aD&amp;_nc_oc=AdmSt9XQ1QE3KJPEFc0yC0igF_UmwfHAUz7Y-xsjoRX3SGv4PJO6DmigIa4wwhuxusU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=QlAcCGrzkF7lMFAC_e2zXA&amp;oh=00_Afbln0Ye3XangpKPL0I-r2xx5SR9zmJgMKescAlPijsKXQ&amp;oe=68CE100F', 'profileId': 'pfbid02D6S24vc5enbk68g63fjry2L8W6crBKQnc76KJHLpHvydHva23kbvMqSHdB73Qz8Xl', 'profileName': 'Alejandro Kycdo B', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1654,28 +1642,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217383833767187/?dco_ad_token=AaoI_1TcTGLFpUm7WcXykrP4fE3pj5Rq_cZiUmubnPAj2HghH9agXsDDsIgxAbIUjgyyQP8CAV2U0B9Z&amp;dco_ad_id=120234933289600640</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Recuerdan esos comerciales de animales bailando en el bosque y cantando?</t>
+          <t>Hese cuatro pelos hp solo a echo es robar al pueblo y volverse rico</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45910.90331018518</v>
+        <v>45912.00564814815</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>21:40:46</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v>28</v>
+          <t>00:08:08</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1683,24 +1673,20 @@
       <c r="L23" t="b">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578559905923856', 'createTime': 1757540446, 'createTimeISO': '2025-09-10T21:40:46.000Z', 'text': 'Recuerdan esos comerciales de animales bailando en el bosque y cantando?', 'diggCount': 28, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6750702320714155013', 'uniqueId': 'wakingleo', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7331160055510728710~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3c67ef44&amp;x-expires=1757808000&amp;x-signature=EE%2Fsj0exmYpEvm6rt1rL6a%2BdrDs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=839435021752790', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgzOTQzNTAyMTc1Mjc5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84Mzk0MzUwMjE3NTI3OTA=', 'date': '2025-09-12T00:08:08.000Z', 'text': 'Hese cuatro pelos hp solo a echo es robar al pueblo y volverse rico', 'profileUrl': 'https://www.facebook.com/hector.ortegaperafan', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/548196774_2217580448717218_467712799311994276_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-8E3IBeg8rMQ7kNvwHtk3Y_&amp;_nc_oc=AdkDX2jC6fm6DwdPvWtheN6KV8EFGxy7vuwz3xZ6LygObST9MskO86fEypq-ow0J7QE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=QlAcCGrzkF7lMFAC_e2zXA&amp;oh=00_AfZB-sbYxffaexLbB5TaLzlSvMrBR9gV-5E2JJNnEZc40A&amp;oe=68CE074C', 'profileId': 'pfbid023Fotuz7evJ1A6g6wt8vj9FkQw9mZmfhZ3HboR5KaPowSGpMbtf4mXG6SuceRs3ncl', 'profileName': 'Hector Ortega Perafan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1710,28 +1696,26 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
+          <t>https://www.facebook.com/100064867445065/posts/1217383833767187/?dco_ad_token=AaoI_1TcTGLFpUm7WcXykrP4fE3pj5Rq_cZiUmubnPAj2HghH9agXsDDsIgxAbIUjgyyQP8CAV2U0B9Z&amp;dco_ad_id=120234933289600640</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>contratar a una persona no cuesta mucho Alpina</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" s="2" t="n">
-        <v>45910.47868055556</v>
+        <v>45911.95805555556</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11:29:18</t>
-        </is>
-      </c>
-      <c r="J24" t="n">
-        <v>9</v>
+          <t>22:59:36</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1739,24 +1723,20 @@
       <c r="L24" t="b">
         <v>0</v>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548421120124125959', 'createTime': 1757503758, 'createTimeISO': '2025-09-10T11:29:18.000Z', 'text': 'contratar a una persona no cuesta mucho Alpina', 'diggCount': 9, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156043383616898053', 'uniqueId': 'luperdoxx_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/840d9686754e8cd8db4f8178cac937f8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=54584480&amp;x-expires=1757808000&amp;x-signature=q7xZtRO9O6SBsvfGERozrIQL5KA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=816939231005497', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgxNjkzOTIzMTAwNTQ5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84MTY5MzkyMzEwMDU0OTc=', 'date': '2025-09-11T22:59:36.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ug_LbFolQPgQ7kNvwFSlweX&amp;_nc_oc=AdmcFwcMtF5vXqbnvsbVRTFe1NEFzleiolZtG63ciZo1dwLSZDk027mCzY5pyu54TYE&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=QlAcCGrzkF7lMFAC_e2zXA&amp;oh=00_Afa6y_M3tsneB_mVKmqonFLnxoA5E07u8lR8IkFgJ8Wu1w&amp;oe=68CDECAD'}, 'id': '122132915732892467', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 720}, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ug_LbFolQPgQ7kNvwFSlweX&amp;_nc_oc=AdmcFwcMtF5vXqbnvsbVRTFe1NEFzleiolZtG63ciZo1dwLSZDk027mCzY5pyu54TYE&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=QlAcCGrzkF7lMFAC_e2zXA&amp;oh=00_AfZ68mDuM18XrzssfFH-uDh8SzatelDEkOA983itg6Xv4w&amp;oe=68CDECAD', 'width': 261, 'height': 196}, 'ocrText': 'May be an image of 2 people, bird and goosedown coat'}], 'profileUrl': 'https://www.facebook.com/people/Tropi-Pollo-Aves/pfbid02zf6fB5gWLdmv7Riu9QzWMbXQ7WjLJcBQztCLFgqJ8XvS3nFXLgshuhbDGvKt1WGul/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/503603154_122103355172892467_5961930638299244588_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CP6nZIIvwpoQ7kNvwG7T2sX&amp;_nc_oc=Admu0vfJGid3SJMTf0oA_GAJ_OtLGpH86zKQOKaFZSWxTVohGSeVRHn2HE_JZIX0n_Q&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=QlAcCGrzkF7lMFAC_e2zXA&amp;oh=00_AfZnpe_gdW0HJa1H7fyrxfRJzhUAFjSXSinrMX4bW6NE8A&amp;oe=68CE1009', 'profileId': 'pfbid02zf6fB5gWLdmv7Riu9QzWMbXQ7WjLJcBQztCLFgqJ8XvS3nFXLgshuhbDGvKt1WGul', 'profileName': 'Tropi Pollo Aves', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1766,28 +1746,28 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente</t>
-        </is>
-      </c>
+          <t>https://www.instagram.com/p/DOeAYHHABLU/#advertiser</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>joespal_</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" s="2" t="n">
-        <v>45910.85172453704</v>
+        <v>45914.58081018519</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>45910</v>
+        <v>45914</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>20:26:29</t>
+          <t>13:56:22</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1797,12 +1777,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@</t>
+          <t>https://instagram.com/joespal_</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548559525466374930', 'createTime': 1757535989, 'createTimeISO': '2025-09-10T20:26:29.000Z', 'text': 'Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente', 'diggCount': 38, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6603056868959666181', 'uniqueId': 'linsynose', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a547dda6766e2346d6cc85551ffa9599~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=83c04d5b&amp;x-expires=1757808000&amp;x-signature=ylwyBaD8tRk2dYclhWFFWAWGI2w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DOeAYHHABLU/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DOeAYHHABLU/c/18090245113750619', 'id': '18090245113750619', 'text': '', 'ownerUsername': 'joespal_', 'ownerProfilePicUrl': 'https://scontent-fra5-1.cdninstagram.com/v/t51.2885-19/427642126_404248165476654_4857125397841767816_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDc0LkMzIn0%3D&amp;_nc_ohc=JeRN6JWx1V8Q7kNvwGh1gD5&amp;_nc_oc=AdmDaGEaRpOGtD1tvrocHF-pdZd9a-bTdg1bOjZvOsAuiY732MQ46-P0s9p2d7W_hHM&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-fra5-1.cdninstagram.com&amp;oh=00_AfbXQQafDCnFE27X1BFa7o5Pedt_0VCe4hTRRAhb9fKZZg&amp;oe=68CE12C5', 'timestamp': '2025-09-14T13:56:22.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841458844733298', 'full_name': "Hi, I'm JOESPAL.", 'id': '58826385491', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '3304048002741260371', 'profile_pic_url': 'https://scontent-fra5-1.cdninstagram.com/v/t51.2885-19/427642126_404248165476654_4857125397841767816_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDc0LkMzIn0%3D&amp;_nc_ohc=JeRN6JWx1V8Q7kNvwGh1gD5&amp;_nc_oc=AdmDaGEaRpOGtD1tvrocHF-pdZd9a-bTdg1bOjZvOsAuiY732MQ46-P0s9p2d7W_hHM&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-fra5-1.cdninstagram.com&amp;oh=00_AfbXQQafDCnFE27X1BFa7o5Pedt_0VCe4hTRRAhb9fKZZg&amp;oe=68CE12C5', 'username': 'joespal_'}, 'media': {'_is__TOnXDTCommentGiphyMediaInfo__0': 'XDTCommentGiphyMediaInfo', 'gif_media_id': 'brTZaptNRGdvyLaFMp', 'id': '751656264372439', 'images': {'fixed_height': {'height': 200, 'mp4': 'https://media2.giphy.com/media/v1.Y2lkPWFlZWNjYzExYXpxNDB6Z3p6bWRrcXo2dDZpNnBlanNhaXZjeXl2Z3U0dGw2cnF1NiZlcD12MV9naWZzJmN0PWc/brTZaptNRGdvyLaFMp/200.mp4', 'mp4_size': 9381, 'size': 9899, 'url': 'https://media2.giphy.com/media/v1.Y2lkPWFlZWNjYzExYXpxNDB6Z3p6bWRrcXo2dDZpNnBlanNhaXZjeXl2Z3U0dGw2cnF1NiZlcD12MV9naWZzJmN0PWc/brTZaptNRGdvyLaFMp/200.gif', 'webp': 'https://media2.giphy.com/media/v1.Y2lkPWFlZWNjYzExYXpxNDB6Z3p6bWRrcXo2dDZpNnBlanNhaXZjeXl2Z3U0dGw2cnF1NiZlcD12MV9naWZzJmN0PWc/brTZaptNRGdvyLaFMp/200.webp', 'webp_size': 9672, 'width': 200}}, 'is_sticker': False, 'title': 'Digital Art GIF', 'username': 'williejimenez'}}</t>
         </is>
       </c>
     </row>
@@ -1828,25 +1808,25 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bro como se perdió el arte</t>
+          <t>usaba IA y ni sentido tenía el anuncio</t>
         </is>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45910.55045138889</v>
+        <v>45910.30898148148</v>
       </c>
       <c r="H26" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>13:12:39</t>
+          <t>07:24:56</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>86</v>
+        <v>546</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -1858,7 +1838,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447770353435410', 'createTime': 1757509959, 'createTimeISO': '2025-09-10T13:12:39.000Z', 'text': 'Bro como se perdió el arte', 'diggCount': 86, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7523791630316717074', 'uniqueId': 'nyako9311', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7941680fa88f973347764837a49a9b1f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=db12161d&amp;x-expires=1757808000&amp;x-signature=VbPap0A2JptnJ0BPsZYOdnDEso8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548358154200974098', 'createTime': 1757489096, 'createTimeISO': '2025-09-10T07:24:56.000Z', 'text': 'usaba IA y ni sentido tenía el anuncio', 'diggCount': 546, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7522680959197971464', 'uniqueId': 'angel_fox_axel', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9ed7bfea88e1b69f3a128b1f8039235e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=460f2895&amp;x-expires=1758034800&amp;x-signature=Mb3p9S08IBP%2FIeKp4styhQqONiY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1884,22 +1864,22 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores</t>
+          <t>Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45910.97085648148</v>
+        <v>45911.09158564815</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>23:18:02</t>
+          <t>02:11:53</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1914,7 +1894,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548603750441599752', 'createTime': 1757546282, 'createTimeISO': '2025-09-10T23:18:02.000Z', 'text': 'espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6904343806360224773', 'uniqueId': 'thekambril', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/843de1e638535b6c4c44e34dcdd6dc88~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=125da61a&amp;x-expires=1757808000&amp;x-signature=4ujjXVmRooq1y1OCXR953ml6esk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548648557948683026', 'createTime': 1757556713, 'createTimeISO': '2025-09-11T02:11:53.000Z', 'text': 'Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6976617115294139397', 'uniqueId': 'chowder9273', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/21ce081563d432fdfb13dc114a97d005~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1452a050&amp;x-expires=1758034800&amp;x-signature=3zH7R%2Ff9AZ%2F4Ib1scJEbKR3BNx8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1940,22 +1920,22 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>sin presupuesto para publicidad , como sera el producto?</t>
+          <t>empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45910.85658564815</v>
+        <v>45910.92006944444</v>
       </c>
       <c r="H28" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>20:33:29</t>
+          <t>22:04:54</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1970,7 +1950,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548561345027752712', 'createTime': 1757536409, 'createTimeISO': '2025-09-10T20:33:29.000Z', 'text': 'sin presupuesto para publicidad , como sera el producto?', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6918781103953642502', 'uniqueId': 'avenaytamal', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/aa9181c161417e5dc803fcad15cc0d03~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=90477d6b&amp;x-expires=1757808000&amp;x-signature=Ljab%2B8QBXEhWMJg%2BRq7PZi1Mwig%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548584862849942280', 'createTime': 1757541894, 'createTimeISO': '2025-09-10T22:04:54.000Z', 'text': 'empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6774471423067997190', 'uniqueId': 'xiewww_h', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ba1a8119f4148ea45db46fad9dcf764b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cf8a492f&amp;x-expires=1758034800&amp;x-signature=Vdf66k2bWantdnmO33Nml74XBbw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1996,25 +1976,25 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋</t>
+          <t>Muy mal alpina 😔</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45910.92987268518</v>
+        <v>45910.72035879629</v>
       </c>
       <c r="H29" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>22:19:01</t>
+          <t>17:17:19</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2026,7 +2006,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548588516893311762', 'createTime': 1757542741, 'createTimeISO': '2025-09-10T22:19:01.000Z', 'text': 'que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817878389598012422', 'uniqueId': 'alexo1208', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/ef7e2adcf8630799385cd64832d218ab~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2b2c8eda&amp;x-expires=1757808000&amp;x-signature=Bfd4ooY7o1mmf%2BZ308W2S2I9G1I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548510815235048210', 'createTime': 1757524639, 'createTimeISO': '2025-09-10T17:17:19.000Z', 'text': 'Muy mal alpina 😔', 'diggCount': 52, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7401980556445189125', 'uniqueId': 'vanshi432', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9593619d8a1f3f6623ca0b4ba781b0f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ef18018d&amp;x-expires=1758034800&amp;x-signature=sDqdfnqFNf5X9zEoe5UYDG3JjzU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2052,18 +2032,18 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje</t>
+          <t>Se me cayó un ídolo, en la mala Alpina</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45910.91199074074</v>
+        <v>45910.90369212963</v>
       </c>
       <c r="H30" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>21:53:16</t>
+          <t>21:41:19</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -2082,7 +2062,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548581903085421319', 'createTime': 1757541196, 'createTimeISO': '2025-09-10T21:53:16.000Z', 'text': 'Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '242092892885082112', 'uniqueId': 'valiwolf', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/d46604217618ad37cce4d76a7a04cd46~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=988a94ff&amp;x-expires=1757808000&amp;x-signature=bXGySAIzOnE0%2BjmC%2B%2BT6JWamewM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578807612277511', 'createTime': 1757540479, 'createTimeISO': '2025-09-10T21:41:19.000Z', 'text': 'Se me cayó un ídolo, en la mala Alpina', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6859385792315769861', 'uniqueId': 'bomkly2', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a0f29357a9e54e5054e5669e06d564aa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=183f402a&amp;x-expires=1758034800&amp;x-signature=h0ywAYER0YIcQsR94xjjgk1Df34%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2108,22 +2088,22 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>se ve barato con la AI alpina que dececion</t>
+          <t>contratar a una persona no cuesta mucho Alpina</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45910.70459490741</v>
+        <v>45910.47868055556</v>
       </c>
       <c r="H31" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>16:54:37</t>
+          <t>11:29:18</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2138,7 +2118,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548504964740694802', 'createTime': 1757523277, 'createTimeISO': '2025-09-10T16:54:37.000Z', 'text': 'se ve barato con la AI alpina que dececion', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842124879065515013', 'uniqueId': 'flanapoli', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b4c439341ae460ae62d6bf8327e9c318~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ea9064ef&amp;x-expires=1757808000&amp;x-signature=OIGg6kyd6yz6IhqUUdWYuxMNZ4g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548421120124125959', 'createTime': 1757503758, 'createTimeISO': '2025-09-10T11:29:18.000Z', 'text': 'contratar a una persona no cuesta mucho Alpina', 'diggCount': 9, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156043383616898053', 'uniqueId': 'luperdoxx_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/73d7285035cb26f9f4f152a9df04c1fb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4bd1faca&amp;x-expires=1758034800&amp;x-signature=3waPkNuXb9JyXgv3Lvvdx3SqRVs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2164,22 +2144,22 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Alpin que paso para llegar hasta este punto?</t>
+          <t>Como que les pesa mucho pagarle a un artista que si haga algo bueno</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45910.35961805555</v>
+        <v>45911.01646990741</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>08:37:51</t>
+          <t>00:23:43</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2194,7 +2174,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548376941066732306', 'createTime': 1757493471, 'createTimeISO': '2025-09-10T08:37:51.000Z', 'text': 'Alpin que paso para llegar hasta este punto?', 'diggCount': 134, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7027306156922242054', 'uniqueId': 'zebis', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7e6922dadb62002e9255466f9bea4e5c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e4e5c8dd&amp;x-expires=1757808000&amp;x-signature=YuawQdQmEr1M0LdbJpqXA89xz6k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620601164104456', 'createTime': 1757550223, 'createTimeISO': '2025-09-11T00:23:43.000Z', 'text': 'Como que les pesa mucho pagarle a un artista que si haga algo bueno', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6797840408039703558', 'uniqueId': 'sstarberry__', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/4c4a684c8f37aa01fa09d888a9d7df43~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c9fb33c1&amp;x-expires=1758034800&amp;x-signature=Mc%2B97Q5ZWkBWGN2GY7Wo3r8iYq8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2220,22 +2200,22 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>increible el esfuerzo wow. 💔🥀</t>
+          <t>Un anuncio de IA, en serio?...</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45910.87224537037</v>
+        <v>45910.90475694444</v>
       </c>
       <c r="H33" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>20:56:02</t>
+          <t>21:42:51</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2250,7 +2230,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548567124958348039', 'createTime': 1757537762, 'createTimeISO': '2025-09-10T20:56:02.000Z', 'text': 'increible el esfuerzo wow. 💔🥀', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7320483299197043717', 'uniqueId': 'dogfoj', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/80cf6fca533cc8d0175ee3672b20e6ca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=767a62dd&amp;x-expires=1757808000&amp;x-signature=bX0kTNgvPvWb52jfmx9yUkhApIE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548579047941669648', 'createTime': 1757540571, 'createTimeISO': '2025-09-10T21:42:51.000Z', 'text': 'Un anuncio de IA, en serio?...', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7267330640268559365', 'uniqueId': 'akg4lv1x', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/0cb47ff876dbe865901193337182695a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=eea2805f&amp;x-expires=1758034800&amp;x-signature=aipoa5GV1Ou%2FF62t%2Bp9efSFpgG8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2276,25 +2256,25 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>IA 😬</t>
+          <t>¿IA? Wow ,tanto que ganan y no pagan un animador</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45910.79935185185</v>
+        <v>45910.79232638889</v>
       </c>
       <c r="H34" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>19:11:04</t>
+          <t>19:00:57</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -2306,7 +2286,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548540108145328904', 'createTime': 1757531464, 'createTimeISO': '2025-09-10T19:11:04.000Z', 'text': 'IA 😬', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6878771113729967109', 'uniqueId': 'andresmartinez_co', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/0e4fa031bfb76175d309ce7aad482cd3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cc4793c5&amp;x-expires=1757808000&amp;x-signature=2gKyE2bxJ7R8oXi6IxoRLspe%2FOY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548537516107088660', 'createTime': 1757530857, 'createTimeISO': '2025-09-10T19:00:57.000Z', 'text': '¿IA? Wow ,tanto que ganan y no pagan un animador', 'diggCount': 145, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7071862501012784133', 'uniqueId': 'el.gelatinas45', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8964867b1446081d4e48af3405f3abbf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cc314886&amp;x-expires=1758034800&amp;x-signature=uLMciDTgGGFZBwW39Qq7lkteXrg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2332,22 +2312,22 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.</t>
+          <t>Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45910.5497337963</v>
+        <v>45910.91199074074</v>
       </c>
       <c r="H35" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>13:11:37</t>
+          <t>21:53:16</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -2362,7 +2342,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447494344131335', 'createTime': 1757509897, 'createTimeISO': '2025-09-10T13:11:37.000Z', 'text': 'Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.', 'diggCount': 39, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7039532507280196614', 'uniqueId': 'dulce_de_nata', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7332498416135274502~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6422c2c8&amp;x-expires=1757808000&amp;x-signature=Ck32Or9WC1C9syOZpNT1foWyGtc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548581903085421319', 'createTime': 1757541196, 'createTimeISO': '2025-09-10T21:53:16.000Z', 'text': 'Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '242092892885082112', 'uniqueId': 'valiwolf', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/d46604217618ad37cce4d76a7a04cd46~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=67ee49ad&amp;x-expires=1758034800&amp;x-signature=v7bga65XY4olaFslUyAyGzPhj4A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2388,22 +2368,22 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>que es eso alpina</t>
+          <t>espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45910.94694444445</v>
+        <v>45910.97085648148</v>
       </c>
       <c r="H36" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>22:43:36</t>
+          <t>23:18:02</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2418,7 +2398,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548594843954447122', 'createTime': 1757544216, 'createTimeISO': '2025-09-10T22:43:36.000Z', 'text': 'que es eso alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6965117807211136002', 'uniqueId': 'bmn18920', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/06c0075ce87455af04698a541ffd2d51~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2dbae077&amp;x-expires=1757808000&amp;x-signature=AIoguPF3njk7rhJGaXBp%2B2gnBes%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548603750441599752', 'createTime': 1757546282, 'createTimeISO': '2025-09-10T23:18:02.000Z', 'text': 'espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6904343806360224773', 'uniqueId': 'thekambril', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/843de1e638535b6c4c44e34dcdd6dc88~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=28e362d1&amp;x-expires=1758034800&amp;x-signature=FgSoC3sJV28BBoTgpMMyYa8bmP4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2444,22 +2424,22 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>tanto que ganan y ni un animador se dignan a pagar, el colmo.</t>
+          <t>Alpin que paso para llegar hasta este punto?</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45911.01949074074</v>
+        <v>45910.35961805555</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>00:28:04</t>
+          <t>08:37:51</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2474,7 +2454,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548621347896492801', 'createTime': 1757550484, 'createTimeISO': '2025-09-11T00:28:04.000Z', 'text': 'tanto que ganan y ni un animador se dignan a pagar, el colmo.', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959106580772471813', 'uniqueId': 'ans0fyyy', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/5787aa89d78fc130687462d5427a1653~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fbaf5711&amp;x-expires=1757808000&amp;x-signature=FkJ0gx9yC56ZsoYPDPOr8CTmSXI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548376941066732306', 'createTime': 1757493471, 'createTimeISO': '2025-09-10T08:37:51.000Z', 'text': 'Alpin que paso para llegar hasta este punto?', 'diggCount': 134, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7027306156922242054', 'uniqueId': 'zebis', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7e6922dadb62002e9255466f9bea4e5c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fac20550&amp;x-expires=1758034800&amp;x-signature=JaONbe3JmWG7nn3ybi2jvCX%2F5jc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2500,22 +2480,22 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>IA enserio?</t>
+          <t>Recuerdan esos comerciales de animales bailando en el bosque y cantando?</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45910.895625</v>
+        <v>45910.90331018518</v>
       </c>
       <c r="H38" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>21:29:42</t>
+          <t>21:40:46</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2530,7 +2510,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548575782660162311', 'createTime': 1757539782, 'createTimeISO': '2025-09-10T21:29:42.000Z', 'text': 'IA enserio?', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6636493445244813317', 'uniqueId': 'jhunjunar', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7325239266097774597~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=85c041a4&amp;x-expires=1757808000&amp;x-signature=OHF7N7wNwHl5Ds88m54%2FkngwaJQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578559905923856', 'createTime': 1757540446, 'createTimeISO': '2025-09-10T21:40:46.000Z', 'text': 'Recuerdan esos comerciales de animales bailando en el bosque y cantando?', 'diggCount': 28, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6750702320714155013', 'uniqueId': 'wakingleo', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7331160055510728710~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=896c30ae&amp;x-expires=1758034800&amp;x-signature=3RoQLlniXrxumr%2BHS7mkCckqbWA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2556,25 +2536,25 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>tan lindo comercial 🥰🥰🥰🥰🥰</t>
+          <t>sin presupuesto para publicidad , como sera el producto?</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>45910.40491898148</v>
+        <v>45910.85658564815</v>
       </c>
       <c r="H39" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>09:43:05</t>
+          <t>20:33:29</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -2586,7 +2566,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548393761517601554', 'createTime': 1757497385, 'createTimeISO': '2025-09-10T09:43:05.000Z', 'text': 'tan lindo comercial 🥰🥰🥰🥰🥰', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7461491967327962129', 'uniqueId': 'caro11.18', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/90a40a0ee147200def68ba2dfc2b1dca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=abea12d1&amp;x-expires=1757808000&amp;x-signature=7YGtomWxZKO40pWonAkz8i98pQQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548561345027752712', 'createTime': 1757536409, 'createTimeISO': '2025-09-10T20:33:29.000Z', 'text': 'sin presupuesto para publicidad , como sera el producto?', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6918781103953642502', 'uniqueId': 'avenaytamal', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/aa9181c161417e5dc803fcad15cc0d03~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=201c4c82&amp;x-expires=1758034800&amp;x-signature=rPQ8lWIgF685LmDzn4zGPxyBP0U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2612,22 +2592,22 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Un anuncio de IA, en serio?...</t>
+          <t>Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45910.90475694444</v>
+        <v>45910.85172453704</v>
       </c>
       <c r="H40" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>21:42:51</t>
+          <t>20:26:29</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2642,7 +2622,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548579047941669648', 'createTime': 1757540571, 'createTimeISO': '2025-09-10T21:42:51.000Z', 'text': 'Un anuncio de IA, en serio?...', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7267330640268559365', 'uniqueId': 'akg4lv1x', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/0cb47ff876dbe865901193337182695a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=91b6be8c&amp;x-expires=1757808000&amp;x-signature=ysYe36sRFp6C%2FXAHpvX12YT3Csk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548559525466374930', 'createTime': 1757535989, 'createTimeISO': '2025-09-10T20:26:29.000Z', 'text': 'Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente', 'diggCount': 38, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6603056868959666181', 'uniqueId': 'linsynose', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a547dda6766e2346d6cc85551ffa9599~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b7d1b6c4&amp;x-expires=1758034800&amp;x-signature=%2BqfcgdidU6dkGm0%2FTkJ0duuH%2BVw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2648,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Divino!!!! Amo la historia</t>
+          <t>IA 😬</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45910.97527777778</v>
+        <v>45910.79935185185</v>
       </c>
       <c r="H41" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>23:24:24</t>
+          <t>19:11:04</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -2698,7 +2678,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548605334442967816', 'createTime': 1757546664, 'createTimeISO': '2025-09-10T23:24:24.000Z', 'text': 'Divino!!!! Amo la historia', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807194247927710726', 'uniqueId': 'isabelagarciag16', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/b88517984d3050fcaa52657a475e3d78~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fd21749e&amp;x-expires=1757808000&amp;x-signature=KVaXU5BMYLc7P%2BAd4GjBUJs%2FVtI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548540108145328904', 'createTime': 1757531464, 'createTimeISO': '2025-09-10T19:11:04.000Z', 'text': 'IA 😬', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6878771113729967109', 'uniqueId': 'andresmartinez_co', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/0e4fa031bfb76175d309ce7aad482cd3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f2f425f9&amp;x-expires=1758034800&amp;x-signature=hrQEkzDIQ9ftJl05hx9919Ie3Ag%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2724,25 +2704,25 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙</t>
+          <t>Bro como se perdió el arte</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45910.93565972222</v>
+        <v>45910.55045138889</v>
       </c>
       <c r="H42" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>22:27:21</t>
+          <t>13:12:39</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -2754,7 +2734,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548590640369173255', 'createTime': 1757543241, 'createTimeISO': '2025-09-10T22:27:21.000Z', 'text': 'Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7111661840812639237', 'uniqueId': 'juliandavidmuri10', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7111662424408096774~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=49266d0c&amp;x-expires=1757808000&amp;x-signature=DW%2FIimjn85YKC99p3RvT49hF9lc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447770353435410', 'createTime': 1757509959, 'createTimeISO': '2025-09-10T13:12:39.000Z', 'text': 'Bro como se perdió el arte', 'diggCount': 86, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7523791630316717074', 'uniqueId': 'nyako9311', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7941680fa88f973347764837a49a9b1f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f7e51a6c&amp;x-expires=1758034800&amp;x-signature=fRpaU179BpiPGsojh3alNiU9zvk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2780,25 +2760,25 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛</t>
+          <t>IA enserio?</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45910.95050925926</v>
+        <v>45910.895625</v>
       </c>
       <c r="H43" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>22:48:44</t>
+          <t>21:29:42</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -2810,7 +2790,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548596179627049736', 'createTime': 1757544524, 'createTimeISO': '2025-09-10T22:48:44.000Z', 'text': '¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '6892483566695154694', 'uniqueId': 'karenarres', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8e7f13a6edbd9f1e73869cf96c40fede~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d587ae61&amp;x-expires=1757808000&amp;x-signature=syIAx98MrVAUMojX3MCn1jM%2Fo78%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548575782660162311', 'createTime': 1757539782, 'createTimeISO': '2025-09-10T21:29:42.000Z', 'text': 'IA enserio?', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6636493445244813317', 'uniqueId': 'jhunjunar', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7325239266097774597~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=58bdc067&amp;x-expires=1758034800&amp;x-signature=jkvJU9lnqtUdvWkvv%2Bxb5uAmWfY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2836,25 +2816,25 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Me veo linda en mi historia?</t>
+          <t>increible el esfuerzo wow. 💔🥀</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45910.42668981481</v>
+        <v>45910.87224537037</v>
       </c>
       <c r="H44" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>10:14:26</t>
+          <t>20:56:02</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -2866,7 +2846,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548401767362806534', 'createTime': 1757499266, 'createTimeISO': '2025-09-10T10:14:26.000Z', 'text': 'Me veo linda en mi historia?', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 5, 'uid': '7237572995751937029', 'uniqueId': 'escarletgiron3', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/90f45fbb28c045f99beaef24f4d1bcc5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3875986d&amp;x-expires=1757808000&amp;x-signature=K8YioJFcMPJrcPKUPMA0FxQUtfs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548567124958348039', 'createTime': 1757537762, 'createTimeISO': '2025-09-10T20:56:02.000Z', 'text': 'increible el esfuerzo wow. 💔🥀', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7320483299197043717', 'uniqueId': 'pepelover0401', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/80cf6fca533cc8d0175ee3672b20e6ca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=292c4cd4&amp;x-expires=1758034800&amp;x-signature=0nTiAiKGp10v1k%2FP2heW6RmLCwk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2922,7 +2902,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548597086792696594', 'createTime': 1757544741, 'createTimeISO': '2025-09-10T22:52:21.000Z', 'text': 'una historia muy original 💙 Alpina llegando a nuestros hogares por más de 80 años 🤗', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6808353821459350534', 'uniqueId': 'kathemia1002', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/74284c3455ff47a191f0cbc0236da720~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=166c680f&amp;x-expires=1757808000&amp;x-signature=Cz8lNnBmPzGjzJTaFuR1RxqrS3s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548597086792696594', 'createTime': 1757544741, 'createTimeISO': '2025-09-10T22:52:21.000Z', 'text': 'una historia muy original 💙 Alpina llegando a nuestros hogares por más de 80 años 🤗', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6808353821459350534', 'uniqueId': 'kathemia1002', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/74284c3455ff47a191f0cbc0236da720~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f713868&amp;x-expires=1758034800&amp;x-signature=1auaVclzRo%2B6Vr0NlDhS5obluGw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2948,25 +2928,25 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!</t>
+          <t>tanto que ganan y ni un animador se dignan a pagar, el colmo.</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45910.96769675926</v>
+        <v>45911.01949074074</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>23:13:29</t>
+          <t>00:28:04</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -2978,7 +2958,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548602541611041544', 'createTime': 1757546009, 'createTimeISO': '2025-09-10T23:13:29.000Z', 'text': 'Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7497728292843521025', 'uniqueId': 'johncisf05', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/505945559d7145fdfd55587e4211927a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=50891f3c&amp;x-expires=1757808000&amp;x-signature=VZmvpPqyGQ%2FiyYh9FV1T%2Fm%2BWmlg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548621347896492801', 'createTime': 1757550484, 'createTimeISO': '2025-09-11T00:28:04.000Z', 'text': 'tanto que ganan y ni un animador se dignan a pagar, el colmo.', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959106580772471813', 'uniqueId': 'ans0fyyy', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/5787aa89d78fc130687462d5427a1653~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3b06f2bf&amp;x-expires=1758034800&amp;x-signature=2nM7aVqpc3njavtVkDGtG5UQcEw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3004,22 +2984,22 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙</t>
+          <t>Divino!!!! Amo la historia</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45910.9325462963</v>
+        <v>45910.97527777778</v>
       </c>
       <c r="H47" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>22:22:52</t>
+          <t>23:24:24</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -3034,7 +3014,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548589473309754130', 'createTime': 1757542972, 'createTimeISO': '2025-09-10T22:22:52.000Z', 'text': 'Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6876120312544838661', 'uniqueId': 'andreselgatouriza', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/a1737248c6e55a0fb70d1cb876e69804~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=61a7ce9d&amp;x-expires=1757808000&amp;x-signature=NYAnTmk%2FzReDbC7jIJQ0CeBFHqg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548605334442967816', 'createTime': 1757546664, 'createTimeISO': '2025-09-10T23:24:24.000Z', 'text': 'Divino!!!! Amo la historia', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807194247927710726', 'uniqueId': 'isabelagarciag16', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/b88517984d3050fcaa52657a475e3d78~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ed4987f4&amp;x-expires=1758034800&amp;x-signature=LzBb7WpLRrHCinWLKqnIWDMNd0Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3060,25 +3040,25 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Qué linda está historiaa! Me encanta</t>
+          <t>se ve barato con la AI alpina que dececion</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45910.64038194445</v>
+        <v>45910.70459490741</v>
       </c>
       <c r="H48" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>15:22:09</t>
+          <t>16:54:37</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -3090,7 +3070,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548481145101763335', 'createTime': 1757517729, 'createTimeISO': '2025-09-10T15:22:09.000Z', 'text': 'Qué linda está historiaa! Me encanta', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807939541208237061', 'uniqueId': 'arestrepo1', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7331111760105046022~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=4e5c160f&amp;x-expires=1757808000&amp;x-signature=lpFvjtKW2cjTmJn310MQEqzFTMg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548504964740694802', 'createTime': 1757523277, 'createTimeISO': '2025-09-10T16:54:37.000Z', 'text': 'se ve barato con la AI alpina que dececion', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842124879065515013', 'uniqueId': 'flanapoli', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b4c439341ae460ae62d6bf8327e9c318~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c3d3b6a5&amp;x-expires=1758034800&amp;x-signature=TtXb3L8ueAwjJxc1kLsjOFtxNWM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3116,25 +3096,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Si usan IA no me fío de los procesos de sus lácteos 😅</t>
+          <t>Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45911.16465277778</v>
+        <v>45910.93565972222</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>03:57:06</t>
+          <t>22:27:21</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -3146,7 +3126,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548675672371430152', 'createTime': 1757563026, 'createTimeISO': '2025-09-11T03:57:06.000Z', 'text': 'Si usan IA no me fío de los procesos de sus lácteos 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7035757402419250181', 'uniqueId': 'saan_300', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7335925676140625926~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a3870f55&amp;x-expires=1757808000&amp;x-signature=4kaEiupVrf5KbE2Ir4wKHkUsQZo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548590640369173255', 'createTime': 1757543241, 'createTimeISO': '2025-09-10T22:27:21.000Z', 'text': 'Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7111661840812639237', 'uniqueId': 'juliandavidmuri10', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7111662424408096774~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ed5ec550&amp;x-expires=1758034800&amp;x-signature=lf%2Frh9afiIU2TLjW1LKTduhogZU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3172,26 +3152,26 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd</t>
+          <t>que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45911.09881944444</v>
+        <v>45910.92987268518</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>02:22:18</t>
+          <t>22:19:01</t>
         </is>
       </c>
       <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
         <v>1</v>
       </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
       <c r="L50" t="b">
         <v>0</v>
       </c>
@@ -3202,7 +3182,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548651242424926994', 'createTime': 1757557338, 'createTimeISO': '2025-09-11T02:22:18.000Z', 'text': 'y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7127269324398822406', 'uniqueId': 'art_vlogs_124453', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/776a09d992ac899821136707d41a334f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ae4a0503&amp;x-expires=1757808000&amp;x-signature=l0VrtIWncmJDcHYwfdTzyH2Wdnc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548588516893311762', 'createTime': 1757542741, 'createTimeISO': '2025-09-10T22:19:01.000Z', 'text': 'que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817878389598012422', 'uniqueId': 'alexo1208', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/ef7e2adcf8630799385cd64832d218ab~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ac1f5682&amp;x-expires=1758034800&amp;x-signature=denhoDDGCfL4V5qcBn4xVrqmJsI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3228,22 +3208,22 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Me encanta 💙</t>
+          <t>Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45911.94859953703</v>
+        <v>45910.5497337963</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>22:45:59</t>
+          <t>13:11:37</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -3258,7 +3238,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548966545201693458', 'createTime': 1757630759, 'createTimeISO': '2025-09-11T22:45:59.000Z', 'text': 'Me encanta 💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7192343363575530502', 'uniqueId': 'pilarcardona90', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f0ff25a33bba318f336930d217532900~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=bd4c6dab&amp;x-expires=1757808000&amp;x-signature=Q9Sf0l5T71s2nHdk%2BAswB07OtB8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447494344131335', 'createTime': 1757509897, 'createTimeISO': '2025-09-10T13:11:37.000Z', 'text': 'Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.', 'diggCount': 39, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7039532507280196614', 'uniqueId': 'dulce_de_nata', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7332498416135274502~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=de95b8f5&amp;x-expires=1758034800&amp;x-signature=DD1CYacl5cuRbwJLFJVS3NCbLmU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3284,25 +3264,25 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ia?</t>
+          <t>tan lindo comercial 🥰🥰🥰🥰🥰</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45910.9887037037</v>
+        <v>45910.40491898148</v>
       </c>
       <c r="H52" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>23:43:44</t>
+          <t>09:43:05</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -3314,7 +3294,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548610361759449863', 'createTime': 1757547824, 'createTimeISO': '2025-09-10T23:43:44.000Z', 'text': 'ia?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6912837321592488965', 'uniqueId': 'lennin.palacio', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/faee210c34b84e9f531a921eda58429b~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=376a3dc9&amp;x-expires=1757808000&amp;x-signature=O%2Fdk1g77qpQHqgGtMguS77tGXTw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548393761517601554', 'createTime': 1757497385, 'createTimeISO': '2025-09-10T09:43:05.000Z', 'text': 'tan lindo comercial 🥰🥰🥰🥰🥰', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7461491967327962129', 'uniqueId': 'caro11.18', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/90a40a0ee147200def68ba2dfc2b1dca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9b532a28&amp;x-expires=1758034800&amp;x-signature=Oro45oT152oWrgUHYLvl%2F7GwJqA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3340,23 +3320,22 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>deseo vender sus productos
-gracias</t>
+          <t>que es eso alpina</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45910.47114583333</v>
+        <v>45910.94694444445</v>
       </c>
       <c r="H53" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>11:18:27</t>
+          <t>22:43:36</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -3371,7 +3350,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548418329276318472', 'createTime': 1757503107, 'createTimeISO': '2025-09-10T11:18:27.000Z', 'text': 'deseo vender sus productos\ngracias', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7450631040689423366', 'uniqueId': 'leonbsxez4f', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=60d7697c&amp;x-expires=1757808000&amp;x-signature=3Kc0sPy4rNqGxM28KuJKLElUwbA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548594843954447122', 'createTime': 1757544216, 'createTimeISO': '2025-09-10T22:43:36.000Z', 'text': 'que es eso alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6965117807211136002', 'uniqueId': 'bmn18920', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/06c0075ce87455af04698a541ffd2d51~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1f876799&amp;x-expires=1758034800&amp;x-signature=o1VRShD1Mw4AGXoDr47kZxHu0kI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3397,25 +3376,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Un cliente menos por usar IA. Lo mínimo sería que se esforzaran.</t>
+          <t>Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45910.44918981481</v>
+        <v>45910.9325462963</v>
       </c>
       <c r="H54" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>10:46:50</t>
+          <t>22:22:52</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -3427,7 +3406,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548410183963149063', 'createTime': 1757501210, 'createTimeISO': '2025-09-10T10:46:50.000Z', 'text': 'Un cliente menos por usar IA. Lo mínimo sería que se esforzaran.', 'diggCount': 19, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6831317940266632198', 'uniqueId': 'hfwxkmii', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c073c67778fa163af85e8ec12e9f7b34~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5c63abf2&amp;x-expires=1757808000&amp;x-signature=y9cLG9%2F9misEsY9BD5TI8p2gIVo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548589473309754130', 'createTime': 1757542972, 'createTimeISO': '2025-09-10T22:22:52.000Z', 'text': 'Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6876120312544838661', 'uniqueId': 'andreselgatouriza', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a1737248c6e55a0fb70d1cb876e69804~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=81ee7246&amp;x-expires=1758034800&amp;x-signature=kXCCnd8kzzzL1ceZCv1x49JrTzQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3453,25 +3432,25 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>la ia mato la originalidad, extraño los anuncios de antes de alpin</t>
+          <t>¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45910.41877314815</v>
+        <v>45910.95050925926</v>
       </c>
       <c r="H55" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>10:03:02</t>
+          <t>22:48:44</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -3483,7 +3462,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548398904514036496', 'createTime': 1757498582, 'createTimeISO': '2025-09-10T10:03:02.000Z', 'text': 'la ia mato la originalidad, extraño los anuncios de antes de alpin', 'diggCount': 30, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7423950923732534278', 'uniqueId': 'n_sin_ideas', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/778bdb3c77f3b1186ea08862f026d708~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5902ccd3&amp;x-expires=1757808000&amp;x-signature=%2F3H5P6CozJk9BHQzkLt589ivatA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548596179627049736', 'createTime': 1757544524, 'createTimeISO': '2025-09-10T22:48:44.000Z', 'text': '¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '6892483566695154694', 'uniqueId': 'karenarres', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8e7f13a6edbd9f1e73869cf96c40fede~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aa32edcc&amp;x-expires=1758034800&amp;x-signature=vrnHRr8yB1zdwsBboStMx7IPTIw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3509,25 +3488,25 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ya le dan pereza hacer una animación ya hasta usan IA</t>
+          <t>Qué linda está historiaa! Me encanta</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>45910.25746527778</v>
+        <v>45910.64038194445</v>
       </c>
       <c r="H56" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>06:10:45</t>
+          <t>15:22:09</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
@@ -3539,7 +3518,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548339039976506130', 'createTime': 1757484645, 'createTimeISO': '2025-09-10T06:10:45.000Z', 'text': 'Ya le dan pereza hacer una animación ya hasta usan IA', 'diggCount': 63, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7052150802987156485', 'uniqueId': 'jhon_87g', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/03ffe7e0084a217762b94e6878473788~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7b91535a&amp;x-expires=1757808000&amp;x-signature=D9VjpQwteJNg8CUPkqrvt249%2BN8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548481145101763335', 'createTime': 1757517729, 'createTimeISO': '2025-09-10T15:22:09.000Z', 'text': 'Qué linda está historiaa! Me encanta', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807939541208237061', 'uniqueId': 'arestrepo1', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7331111760105046022~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1b5f9c8e&amp;x-expires=1758034800&amp;x-signature=P2%2BveFhymBecXhzl5j7EBo%2BzKnY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3565,22 +3544,22 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>que bajo usar ia.</t>
+          <t>Si usan IA no me fío de los procesos de sus lácteos 😅</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45910.27891203704</v>
+        <v>45911.16465277778</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>06:41:38</t>
+          <t>03:57:06</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -3595,7 +3574,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548346981217157895', 'createTime': 1757486498, 'createTimeISO': '2025-09-10T06:41:38.000Z', 'text': 'que bajo usar ia.', 'diggCount': 42, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7167799974063031302', 'uniqueId': 'dummynicki', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/888d77da15c4f8e8f72e228123fe8864~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0f4775a2&amp;x-expires=1757808000&amp;x-signature=10qH4NWMF4KYzL8Iku53VKTjns8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548675672371430152', 'createTime': 1757563026, 'createTimeISO': '2025-09-11T03:57:06.000Z', 'text': 'Si usan IA no me fío de los procesos de sus lácteos 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7035757402419250181', 'uniqueId': 'saan_300', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7335925676140625926~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0771b861&amp;x-expires=1758034800&amp;x-signature=TJUwA2ofpt8LQ%2BrTTj0Sr18INu8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3621,25 +3600,25 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Uno espera eso de marcas chiquitas que no les alcanza para publicidad</t>
+          <t>Me veo linda en mi historia?</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45910.36795138889</v>
+        <v>45910.42668981481</v>
       </c>
       <c r="H58" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>08:49:51</t>
+          <t>10:14:26</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -3651,7 +3630,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548380036207395605', 'createTime': 1757494191, 'createTimeISO': '2025-09-10T08:49:51.000Z', 'text': 'Uno espera eso de marcas chiquitas que no les alcanza para publicidad', 'diggCount': 20, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6916860526317700102', 'uniqueId': 'danyelangelb', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/724928af54d82cb730b74befb561dc8b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bf4972d7&amp;x-expires=1757808000&amp;x-signature=jkFZyvBUVp6otlPgKQL2PUUwAlE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548401767362806534', 'createTime': 1757499266, 'createTimeISO': '2025-09-10T10:14:26.000Z', 'text': 'Me veo linda en mi historia?', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 5, 'uid': '7237572995751937029', 'uniqueId': 'escarletgiron3', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/90f45fbb28c045f99beaef24f4d1bcc5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3999f238&amp;x-expires=1758034800&amp;x-signature=tY8fWE3lPPRDBdaiaLIdDR5t2OM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3677,22 +3656,22 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>IA 💀💀💀💀</t>
+          <t>Me encanta 💙</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45910.57609953704</v>
+        <v>45911.94859953703</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>13:49:35</t>
+          <t>22:45:59</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -3707,7 +3686,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548457290329604882', 'createTime': 1757512175, 'createTimeISO': '2025-09-10T13:49:35.000Z', 'text': 'IA 💀💀💀💀', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7332704', 'uniqueId': 'andreandreandreaaa', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/af674a3010d5299eb3031b6029febf13~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=87505808&amp;x-expires=1757808000&amp;x-signature=elzthidlJN19XhzP1PX7vk6FT3k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548966545201693458', 'createTime': 1757630759, 'createTimeISO': '2025-09-11T22:45:59.000Z', 'text': 'Me encanta 💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7192343363575530502', 'uniqueId': 'pilarcardona90', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f0ff25a33bba318f336930d217532900~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=97109c78&amp;x-expires=1758034800&amp;x-signature=GzUU3WqMMcl5grFcL3SKZ63px10%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3733,22 +3712,22 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>trátame serio</t>
+          <t>y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45910.39059027778</v>
+        <v>45911.09881944444</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>09:22:27</t>
+          <t>02:22:18</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -3763,7 +3742,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548388399540732673', 'createTime': 1757496147, 'createTimeISO': '2025-09-10T09:22:27.000Z', 'text': 'trátame serio', 'diggCount': 17, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7269821787213759493', 'uniqueId': 'horrendoporro', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/5a352fff86558acc67aa91907eb9d00f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8abf79a0&amp;x-expires=1757808000&amp;x-signature=Tx6etniVwCZapYPSY%2F6oMqB5IBw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548651242424926994', 'createTime': 1757557338, 'createTimeISO': '2025-09-11T02:22:18.000Z', 'text': 'y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7127269324398822406', 'uniqueId': 'art_vlogs_124453', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/776a09d992ac899821136707d41a334f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c74a5ba7&amp;x-expires=1758034800&amp;x-signature=qsAmaNXLAJjKRyjLw%2BkdnQtmwUI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3789,22 +3768,22 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>cómo diseñadora y futura animadora, me duele ver qué usa IA. sabiendo que es una empresa millonaria</t>
+          <t>ia?</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45910.89931712963</v>
+        <v>45910.9887037037</v>
       </c>
       <c r="H61" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>21:35:01</t>
+          <t>23:43:44</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -3819,7 +3798,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548577179987297045', 'createTime': 1757540101, 'createTimeISO': '2025-09-10T21:35:01.000Z', 'text': 'cómo diseñadora y futura animadora, me duele ver qué usa IA. sabiendo que es una empresa millonaria', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7088423636848280581', 'uniqueId': '__kim_.dan_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d86b34aeb7ca62450a58e8618a1437da~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ae2c0127&amp;x-expires=1757808000&amp;x-signature=onKwoIA12nIZXC5BP%2BR1sVMKV98%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548610361759449863', 'createTime': 1757547824, 'createTimeISO': '2025-09-10T23:43:44.000Z', 'text': 'ia?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6912837321592488965', 'uniqueId': 'lennin.palacio', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/faee210c34b84e9f531a921eda58429b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b4d84efa&amp;x-expires=1758034800&amp;x-signature=OnNmEplsLzyOqt0Q4vzMxoDQ7tU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3845,22 +3824,23 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>por eso es mejor la marca pureza</t>
+          <t>deseo vender sus productos
+gracias</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45910.43903935186</v>
+        <v>45910.47114583333</v>
       </c>
       <c r="H62" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>10:32:13</t>
+          <t>11:18:27</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -3875,7 +3855,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548406411652023048', 'createTime': 1757500333, 'createTimeISO': '2025-09-10T10:32:13.000Z', 'text': 'por eso es mejor la marca pureza', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7532305065131033608', 'uniqueId': 'annshixd', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/96e56ac3430174ee911ad04eff7233af~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e303328d&amp;x-expires=1757808000&amp;x-signature=mDhy4O1QpsXbbAWO5j1Ui1lZSdM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548418329276318472', 'createTime': 1757503107, 'createTimeISO': '2025-09-10T11:18:27.000Z', 'text': 'deseo vender sus productos\ngracias', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7450631040689423366', 'uniqueId': 'leonbsxez4f', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a3dfe747&amp;x-expires=1758034800&amp;x-signature=teA4SOxYpw5ZyVTwLc8TYTVhmGY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3901,25 +3881,25 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>hasta yo que no se animar lo hago mejor</t>
+          <t>Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45910.75954861111</v>
+        <v>45910.96769675926</v>
       </c>
       <c r="H63" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>18:13:45</t>
+          <t>23:13:29</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
@@ -3931,7 +3911,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548525337766298386', 'createTime': 1757528025, 'createTimeISO': '2025-09-10T18:13:45.000Z', 'text': 'hasta yo que no se animar lo hago mejor', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6821105890537964550', 'uniqueId': 'doodle_tam', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b6955c33763a61b586f923a3d4c6fff8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=be6c71ad&amp;x-expires=1757808000&amp;x-signature=K2DkKoEt3iD6DYMZ0ofGQuTcURM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548602541611041544', 'createTime': 1757546009, 'createTimeISO': '2025-09-10T23:13:29.000Z', 'text': 'Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7497728292843521025', 'uniqueId': 'johncisf05', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/505945559d7145fdfd55587e4211927a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=853d0908&amp;x-expires=1758034800&amp;x-signature=jZpRfNWcQybtbaGue%2FfJSjQIeJ4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3957,18 +3937,18 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Así de artificial son los nutriente 😅</t>
+          <t>Me encanta 💙</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45910.89015046296</v>
+        <v>45910.96372685185</v>
       </c>
       <c r="H64" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>21:21:49</t>
+          <t>23:07:46</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -3987,7 +3967,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548573780232045320', 'createTime': 1757539309, 'createTimeISO': '2025-09-10T21:21:49.000Z', 'text': 'Así de artificial son los nutriente 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6789799898302284805', 'uniqueId': 'ladeliagendas', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/9009b02feb54b951748fb889574a258d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=75cf0949&amp;x-expires=1757808000&amp;x-signature=FTqEuFF67XzvH8XIHrFAdTF85xU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548601049558713106', 'createTime': 1757545666, 'createTimeISO': '2025-09-10T23:07:46.000Z', 'text': 'Me encanta 💙', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765986832699999237', 'uniqueId': 'maiteito', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a3685ad22846cc5cdb0de3282e771d00~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b291fae2&amp;x-expires=1758034800&amp;x-signature=lmCEWWlopXqcR0lhL9aY48UBBK0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4013,22 +3993,22 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>no les dolía tanto e bolsillo comisionar a un artista de verdad sabes??😅😅</t>
+          <t>Un cliente menos por usar IA. Lo mínimo sería que se esforzaran.</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45910.81274305555</v>
+        <v>45910.44918981481</v>
       </c>
       <c r="H65" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>19:30:21</t>
+          <t>10:46:50</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -4043,7 +4023,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548545077762605832', 'createTime': 1757532621, 'createTimeISO': '2025-09-10T19:30:21.000Z', 'text': 'no les dolía tanto e bolsillo comisionar a un artista de verdad sabes??😅😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7043924049042916357', 'uniqueId': 'isariosss7', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/97a9036a3d513b6e6f9089ac76500f9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5ef5c5da&amp;x-expires=1757808000&amp;x-signature=vQCIgtlKXIu5IGhopm62%2FmFonuA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548410183963149063', 'createTime': 1757501210, 'createTimeISO': '2025-09-10T10:46:50.000Z', 'text': 'Un cliente menos por usar IA. Lo mínimo sería que se esforzaran.', 'diggCount': 19, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6831317940266632198', 'uniqueId': 'hfwxkmii', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c073c67778fa163af85e8ec12e9f7b34~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=51530e2f&amp;x-expires=1758034800&amp;x-signature=AdRMMO%2FiuBZI47WoxlZGkmv2YVQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4069,25 +4049,25 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>duro de ver</t>
+          <t>esa ia que, bajenle el sueldo al del marketing</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45910.79689814815</v>
+        <v>45910.44768518519</v>
       </c>
       <c r="H66" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>19:07:32</t>
+          <t>10:44:40</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L66" t="b">
         <v>0</v>
@@ -4099,7 +4079,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548539172203954962', 'createTime': 1757531252, 'createTimeISO': '2025-09-10T19:07:32.000Z', 'text': 'duro de ver', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6848315334416483334', 'uniqueId': 'uyyuart', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/64238889da285c6d545191932696d173~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7d662679&amp;x-expires=1757808000&amp;x-signature=pUnT5EBB9ORxZePRo7p5DlFzZtk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548409627651326728', 'createTime': 1757501080, 'createTimeISO': '2025-09-10T10:44:40.000Z', 'text': 'esa ia que, bajenle el sueldo al del marketing', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7241313157364237317', 'uniqueId': '..masyumaroo', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/fcea146f1ab11fdfd0007ed28178331a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a035c8de&amp;x-expires=1758034800&amp;x-signature=xbf%2Fnr9MvW9StPKF%2FDBeG%2BJRr%2FE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4125,22 +4105,22 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bro?💀</t>
+          <t>la ia mato la originalidad, extraño los anuncios de antes de alpin</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45910.73438657408</v>
+        <v>45910.41877314815</v>
       </c>
       <c r="H67" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>17:37:31</t>
+          <t>10:03:02</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -4155,7 +4135,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548516020722909960', 'createTime': 1757525851, 'createTimeISO': '2025-09-10T17:37:31.000Z', 'text': 'Bro?💀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7062546552564237317', 'uniqueId': 'umji_238', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/775b6041c9fdd0f49cde43fb9deb54fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3ac7436e&amp;x-expires=1757808000&amp;x-signature=vOrZk%2FMIrliJ0KZEPtni7wRmeww%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548398904514036496', 'createTime': 1757498582, 'createTimeISO': '2025-09-10T10:03:02.000Z', 'text': 'la ia mato la originalidad, extraño los anuncios de antes de alpin', 'diggCount': 30, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7423950923732534278', 'uniqueId': 'n_sin_ideas', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/778bdb3c77f3b1186ea08862f026d708~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=606cc51a&amp;x-expires=1758034800&amp;x-signature=6q43eS3EaL9lMT93bU3fovns4sA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4181,22 +4161,22 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Uy amigos por lo menos disimulen la ia porque se ve horrible ese comercial</t>
+          <t>Ya le dan pereza hacer una animación ya hasta usan IA</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45910.58208333333</v>
+        <v>45910.25746527778</v>
       </c>
       <c r="H68" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>13:58:12</t>
+          <t>06:10:45</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -4211,7 +4191,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548459511968121608', 'createTime': 1757512692, 'createTimeISO': '2025-09-10T13:58:12.000Z', 'text': 'Uy amigos por lo menos disimulen la ia porque se ve horrible ese comercial', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6754154606328808453', 'uniqueId': 'lecterspov', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a09d318b4f042339bb2945ad8ac0a33a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3d3f6181&amp;x-expires=1757808000&amp;x-signature=ml26zsPx0OS8%2Bynj6ZRU9pwKyw8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548339039976506130', 'createTime': 1757484645, 'createTimeISO': '2025-09-10T06:10:45.000Z', 'text': 'Ya le dan pereza hacer una animación ya hasta usan IA', 'diggCount': 63, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7052150802987156485', 'uniqueId': 'jhon_87g', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/03ffe7e0084a217762b94e6878473788~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f684a5e4&amp;x-expires=1758034800&amp;x-signature=FWmbwnlL5LUUJPNvB%2FtoM4Cfo3I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4237,22 +4217,22 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Dios la animacion hizo que sangraran mis ojos</t>
+          <t>que bajo usar ia.</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45911.23148148148</v>
+        <v>45910.27891203704</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>05:33:20</t>
+          <t>06:41:38</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4267,7 +4247,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548700471956865812', 'createTime': 1757568800, 'createTimeISO': '2025-09-11T05:33:20.000Z', 'text': 'Dios la animacion hizo que sangraran mis ojos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6938471178873635846', 'uniqueId': 'fred.pendly', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/e89d64cfe3f0b62bb357738336fc27cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6529cba3&amp;x-expires=1757808000&amp;x-signature=gkTnbY3h3AXSFdmh4qcyowWxlIU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548346981217157895', 'createTime': 1757486498, 'createTimeISO': '2025-09-10T06:41:38.000Z', 'text': 'que bajo usar ia.', 'diggCount': 42, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7167799974063031302', 'uniqueId': 'dummynicki', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/5b83b697a53a425bd669997398de954d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=37c2f924&amp;x-expires=1758034800&amp;x-signature=SQ%2FGq1xc2hbCHl5yA9vbMRjdyXI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4293,22 +4273,22 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Alpina, una de las marcas más reconocidas y exitosas del país, no tiene para pagarle a un estudio de animación y le dieron ese trabajo al primer tipo que sugirió escribir prompts y sacar este anuncio tan flojo y feo</t>
+          <t>Q acabo de ver 😔</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45910.33052083333</v>
+        <v>45910.44203703704</v>
       </c>
       <c r="H70" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>07:55:57</t>
+          <t>10:36:32</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -4323,7 +4303,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548366156965495570', 'createTime': 1757490957, 'createTimeISO': '2025-09-10T07:55:57.000Z', 'text': 'Alpina, una de las marcas más reconocidas y exitosas del país, no tiene para pagarle a un estudio de animación y le dieron ese trabajo al primer tipo que sugirió escribir prompts y sacar este anuncio tan flojo y feo', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806565442996487174', 'uniqueId': 'maikylart', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/53277bd06fe07cea9179d145496d1ddc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b381daeb&amp;x-expires=1757808000&amp;x-signature=CcmH8QrcOy89VIzV11MndCEY%2Bes%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548407528423359239', 'createTime': 1757500592, 'createTimeISO': '2025-09-10T10:36:32.000Z', 'text': 'Q acabo de ver 😔', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6747353274120242182', 'uniqueId': 'ani.garza02', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/354756293f1d163ff79856a81afb4be8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=291f1450&amp;x-expires=1758034800&amp;x-signature=D9VWjjtxWQHaaNcQ80wZvwtX%2FCY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4349,25 +4329,25 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Contraten artistas reales, tacaños</t>
+          <t>Uno espera eso de marcas chiquitas que no les alcanza para publicidad</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>45910.44408564815</v>
+        <v>45910.36795138889</v>
       </c>
       <c r="H71" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>10:39:29</t>
+          <t>08:49:51</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="b">
         <v>0</v>
@@ -4379,7 +4359,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548408060374860545', 'createTime': 1757500769, 'createTimeISO': '2025-09-10T10:39:29.000Z', 'text': 'Contraten artistas reales, tacaños', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7392782108512912390', 'uniqueId': 'stuffilike.alien', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/859aa727b06ccb2a701c3a4133f034a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2090f839&amp;x-expires=1757808000&amp;x-signature=9%2F66Ey5QNeQQGKXC42gdXXyq3Kg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548380036207395605', 'createTime': 1757494191, 'createTimeISO': '2025-09-10T08:49:51.000Z', 'text': 'Uno espera eso de marcas chiquitas que no les alcanza para publicidad', 'diggCount': 20, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6916860526317700102', 'uniqueId': 'danyelangelb', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/724928af54d82cb730b74befb561dc8b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=34ced182&amp;x-expires=1758034800&amp;x-signature=4ww3EpEIA5kUZQVzFTVOHS1aj5w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4405,25 +4385,25 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>esa ia que, bajenle el sueldo al del marketing</t>
+          <t>IA 💀💀💀💀</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45910.44768518519</v>
+        <v>45910.57609953704</v>
       </c>
       <c r="H72" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>10:44:40</t>
+          <t>13:49:35</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L72" t="b">
         <v>0</v>
@@ -4435,7 +4415,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548409627651326728', 'createTime': 1757501080, 'createTimeISO': '2025-09-10T10:44:40.000Z', 'text': 'esa ia que, bajenle el sueldo al del marketing', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7241313157364237317', 'uniqueId': '..masyumaroo', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/fcea146f1ab11fdfd0007ed28178331a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=27cfb38f&amp;x-expires=1757808000&amp;x-signature=fZwrTcEToiTbQZLBKk1VBMnp1HM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548457290329604882', 'createTime': 1757512175, 'createTimeISO': '2025-09-10T13:49:35.000Z', 'text': 'IA 💀💀💀💀', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7332704', 'uniqueId': 'andreandreandreaaa', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/af674a3010d5299eb3031b6029febf13~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f52adb0&amp;x-expires=1758034800&amp;x-signature=Stlv%2FLlsTUN4KQm0TX2YUM%2FkeYM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4461,22 +4441,22 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Q acabo de ver 😔</t>
+          <t>trátame serio</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45910.44203703704</v>
+        <v>45910.39059027778</v>
       </c>
       <c r="H73" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>10:36:32</t>
+          <t>09:22:27</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -4491,7 +4471,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548407528423359239', 'createTime': 1757500592, 'createTimeISO': '2025-09-10T10:36:32.000Z', 'text': 'Q acabo de ver 😔', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6747353274120242182', 'uniqueId': 'ani.garza02', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/354756293f1d163ff79856a81afb4be8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e1979f4d&amp;x-expires=1757808000&amp;x-signature=xt5BvmV4o7H87bihBG72coSuFSk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548388399540732673', 'createTime': 1757496147, 'createTimeISO': '2025-09-10T09:22:27.000Z', 'text': 'trátame serio', 'diggCount': 17, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7269821787213759493', 'uniqueId': 'horrendoporro', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/5a352fff86558acc67aa91907eb9d00f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=df63f897&amp;x-expires=1758034800&amp;x-signature=o2iFw9%2F3sgGLmYNj1W7FtQ2RGOo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4517,22 +4497,22 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Que horrible anuncio, acaso están a punto de llegar a la quiebra que no le pagan a animadores de verdad?</t>
+          <t>cómo diseñadora y futura animadora, me duele ver qué usa IA. sabiendo que es una empresa millonaria</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>45910.72261574074</v>
+        <v>45910.89931712963</v>
       </c>
       <c r="H74" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>17:20:34</t>
+          <t>21:35:01</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -4547,7 +4527,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548511652074537736', 'createTime': 1757524834, 'createTimeISO': '2025-09-10T17:20:34.000Z', 'text': 'Que horrible anuncio, acaso están a punto de llegar a la quiebra que no le pagan a animadores de verdad?', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6686421078979757061', 'uniqueId': 'maffmaffmuffin', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7320050030432878597~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a1eac013&amp;x-expires=1757808000&amp;x-signature=HNPc9rx7M6%2FXXwusg%2FAezrlsLJk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548577179987297045', 'createTime': 1757540101, 'createTimeISO': '2025-09-10T21:35:01.000Z', 'text': 'cómo diseñadora y futura animadora, me duele ver qué usa IA. sabiendo que es una empresa millonaria', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7088423636848280581', 'uniqueId': '__kim_.dan_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d86b34aeb7ca62450a58e8618a1437da~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5af30bf3&amp;x-expires=1758034800&amp;x-signature=7jIAjhywyDGTDxUDGsi6MMhM6sM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4573,22 +4553,22 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Me encanta 💙</t>
+          <t>por eso es mejor la marca pureza</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45910.96372685185</v>
+        <v>45910.43903935186</v>
       </c>
       <c r="H75" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>23:07:46</t>
+          <t>10:32:13</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -4603,7 +4583,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548601049558713106', 'createTime': 1757545666, 'createTimeISO': '2025-09-10T23:07:46.000Z', 'text': 'Me encanta 💙', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765986832699999237', 'uniqueId': 'maiteito', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a3685ad22846cc5cdb0de3282e771d00~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d3faa898&amp;x-expires=1757808000&amp;x-signature=ZjUV94IMziMmDmXYUX40DDSfN7I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548406411652023048', 'createTime': 1757500333, 'createTimeISO': '2025-09-10T10:32:13.000Z', 'text': 'por eso es mejor la marca pureza', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7532305065131033608', 'uniqueId': 'annshixd', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/96e56ac3430174ee911ad04eff7233af~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7ab93295&amp;x-expires=1758034800&amp;x-signature=KX5eJarbs%2BhPVtjS7zG2pCMHJXc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4609,22 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>WAKALA LA IA mejor no compro alpina</t>
+          <t>hasta yo que no se animar lo hago mejor</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>45911.10884259259</v>
+        <v>45910.75954861111</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>02:36:44</t>
+          <t>18:13:45</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -4659,7 +4639,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548654960079766280', 'createTime': 1757558204, 'createTimeISO': '2025-09-11T02:36:44.000Z', 'text': 'WAKALA LA IA mejor no compro alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6625822285180469254', 'uniqueId': 'boosterflareon', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c6f50c043741078314f7f00f7f24f578~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=54fc6d48&amp;x-expires=1757808000&amp;x-signature=pe6IQhMzGGQREVK9RgVmLL986kw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548525337766298386', 'createTime': 1757528025, 'createTimeISO': '2025-09-10T18:13:45.000Z', 'text': 'hasta yo que no se animar lo hago mejor', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6821105890537964550', 'uniqueId': 'doodle_tam', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b6955c33763a61b586f923a3d4c6fff8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bbc7f2c2&amp;x-expires=1758034800&amp;x-signature=xajYS9pXWshdoGGHGCDdJUeZXV4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4685,22 +4665,22 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>No que porquería AJAJAJAJAJJA</t>
+          <t>Así de artificial son los nutriente 😅</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45911.01663194445</v>
+        <v>45910.89015046296</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>00:23:57</t>
+          <t>21:21:49</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4715,7 +4695,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620734420255496', 'createTime': 1757550237, 'createTimeISO': '2025-09-11T00:23:57.000Z', 'text': 'No que porquería AJAJAJAJAJJA', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6811926783093883909', 'uniqueId': '_4m4lg4m4_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8732c67b4173ebcca1e3df904820871a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c90be374&amp;x-expires=1757808000&amp;x-signature=k9VCt3CepHqatUJ8lFclrgGJYaI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548573780232045320', 'createTime': 1757539309, 'createTimeISO': '2025-09-10T21:21:49.000Z', 'text': 'Así de artificial son los nutriente 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6789799898302284805', 'uniqueId': 'ladeliagendas', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/9009b02feb54b951748fb889574a258d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1801b814&amp;x-expires=1758034800&amp;x-signature=6u%2Bsnp0nGlWscQPOF4TGP%2BcSCdA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4741,22 +4721,22 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Cada que una empresa usa IA en una publicidad, le cojo fastidio y no me provoca comprarles... :/ wacala</t>
+          <t>duro de ver</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45910.88719907407</v>
+        <v>45910.79689814815</v>
       </c>
       <c r="H78" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>21:17:34</t>
+          <t>19:07:32</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4771,7 +4751,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548572657749508872', 'createTime': 1757539054, 'createTimeISO': '2025-09-10T21:17:34.000Z', 'text': 'Cada que una empresa usa IA en una publicidad, le cojo fastidio y no me provoca comprarles... :/ wacala', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7511435645136913426', 'uniqueId': 'lialthewhalienista', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d36fc7be20fca7698d4f525c8dc48118~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=44b63120&amp;x-expires=1757808000&amp;x-signature=BiwHweHoJoTYcQIYECtjFqmWmR4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548539172203954962', 'createTime': 1757531252, 'createTimeISO': '2025-09-10T19:07:32.000Z', 'text': 'duro de ver', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6848315334416483334', 'uniqueId': 'uyyuart', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/64238889da285c6d545191932696d173~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=baea4eaa&amp;x-expires=1758034800&amp;x-signature=1D2d1mlawRH0tKvmZZ6Yb36Xo8k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4797,22 +4777,22 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Si su calidad es igual a usar IA, no me imagino una muy buena calidad entonces, que asco</t>
+          <t>no les dolía tanto e bolsillo comisionar a un artista de verdad sabes??😅😅</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>45910.76991898148</v>
+        <v>45910.81274305555</v>
       </c>
       <c r="H79" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>18:28:41</t>
+          <t>19:30:21</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -4827,7 +4807,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548529198928134919', 'createTime': 1757528921, 'createTimeISO': '2025-09-10T18:28:41.000Z', 'text': 'Si su calidad es igual a usar IA, no me imagino una muy buena calidad entonces, que asco', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6961178557775135750', 'uniqueId': 'maplehasnoidea', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f12f023c43d7d5b0f59f436941edf58c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4b7281e5&amp;x-expires=1757808000&amp;x-signature=490xhpiDYPenK83W2AATG5bczkg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548545077762605832', 'createTime': 1757532621, 'createTimeISO': '2025-09-10T19:30:21.000Z', 'text': 'no les dolía tanto e bolsillo comisionar a un artista de verdad sabes??😅😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7043924049042916357', 'uniqueId': 'isariosss7', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/97a9036a3d513b6e6f9089ac76500f9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=575d1bc1&amp;x-expires=1758034800&amp;x-signature=RG7CqqLkQ9wd6vPn5qPTR0zL4tM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4853,18 +4833,18 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>CONTRATEN ARTISTAS, ANIMADORES Y PRODUCTORES PARA SUS ANUNCIOS, NO SEAN TACAÑOS</t>
+          <t>Bro?💀</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>45911.00506944444</v>
+        <v>45910.73438657408</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>00:07:18</t>
+          <t>17:37:31</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -4883,7 +4863,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548616422541607688', 'createTime': 1757549238, 'createTimeISO': '2025-09-11T00:07:18.000Z', 'text': 'CONTRATEN ARTISTAS, ANIMADORES Y PRODUCTORES PARA SUS ANUNCIOS, NO SEAN TACAÑOS', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6813528866084439045', 'uniqueId': 'andrew_cokie', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/8cee30f07b630003dcb6a6da647def33~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5439d302&amp;x-expires=1757808000&amp;x-signature=HbnsHBQVxJbYynhmjoa6r7xuTEg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548516020722909960', 'createTime': 1757525851, 'createTimeISO': '2025-09-10T17:37:31.000Z', 'text': 'Bro?💀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7062546552564237317', 'uniqueId': 'umji_238', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/775b6041c9fdd0f49cde43fb9deb54fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=14783821&amp;x-expires=1758034800&amp;x-signature=rCtTJtFuhfVKJBA5r6MVPC2FqEM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4909,22 +4889,22 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>@Alpina 🐮 como marca Colombiana es triste que no apoyen a la industria de la animación por nosotros los colombianos. Cómo marca iconica podrían ser impulsadores de creatividad apoyando el arte de los animadores del país en lugar de recurrir a lo facil y barato con la IA. Muy decepcionante..</t>
+          <t>Que horrible anuncio, acaso están a punto de llegar a la quiebra que no le pagan a animadores de verdad?</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45911.02418981482</v>
+        <v>45910.72261574074</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>00:34:50</t>
+          <t>17:20:34</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -4939,7 +4919,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548623553499808519', 'createTime': 1757550890, 'createTimeISO': '2025-09-11T00:34:50.000Z', 'text': '@Alpina 🐮 como marca Colombiana es triste que no apoyen a la industria de la animación por nosotros los colombianos. Cómo marca iconica podrían ser impulsadores de creatividad apoyando el arte de los animadores del país en lugar de recurrir a lo facil y barato con la IA. Muy decepcionante..', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844739360966001670', 'uniqueId': 'juandissang', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/237ef2dafd7835fe2dac57e0ffda3fbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7d94c6f5&amp;x-expires=1757808000&amp;x-signature=PmnlyLfw1g8Qart30vn%2B8%2FmxIh0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548511652074537736', 'createTime': 1757524834, 'createTimeISO': '2025-09-10T17:20:34.000Z', 'text': 'Que horrible anuncio, acaso están a punto de llegar a la quiebra que no le pagan a animadores de verdad?', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6686421078979757061', 'uniqueId': 'maffmaffmuffin', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7320050030432878597~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=488dfb2d&amp;x-expires=1758034800&amp;x-signature=a%2Fax7aOEUowTMVKHuIm1NsOGg%2Fc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4965,22 +4945,22 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Siempre que hacen publicidad con IA no tiene ningún sentido temático. Páguenle a un ser humano</t>
+          <t>Uy amigos por lo menos disimulen la ia porque se ve horrible ese comercial</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>45910.91288194444</v>
+        <v>45910.58208333333</v>
       </c>
       <c r="H82" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>21:54:33</t>
+          <t>13:58:12</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
@@ -4995,7 +4975,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548582160166781712', 'createTime': 1757541273, 'createTimeISO': '2025-09-10T21:54:33.000Z', 'text': 'Siempre que hacen publicidad con IA no tiene ningún sentido temático. Páguenle a un ser humano', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7027692711277036549', 'uniqueId': 'samixa1995', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/464fd6ceea5199573029d9efa01bf80d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4561ea2c&amp;x-expires=1757808000&amp;x-signature=IACNHSirtdriooxLpPIveFeMD0M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548459511968121608', 'createTime': 1757512692, 'createTimeISO': '2025-09-10T13:58:12.000Z', 'text': 'Uy amigos por lo menos disimulen la ia porque se ve horrible ese comercial', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6754154606328808453', 'uniqueId': 'lecterspov', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a09d318b4f042339bb2945ad8ac0a33a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0b253a2a&amp;x-expires=1758034800&amp;x-signature=pX%2BFlDjtxnPT7%2BdV6CMjIFR9ovI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5021,22 +5001,22 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>esa ia 💀</t>
+          <t>Dios la animacion hizo que sangraran mis ojos</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>45910.86712962963</v>
+        <v>45911.23148148148</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>20:48:40</t>
+          <t>05:33:20</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -5051,7 +5031,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548565247784813319', 'createTime': 1757537320, 'createTimeISO': '2025-09-10T20:48:40.000Z', 'text': 'esa ia 💀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6944342696388002822', 'uniqueId': 'juanwolfter', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/1e2002ec7c1d0fee3e6ba949f1c0d080~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cabd77a5&amp;x-expires=1757808000&amp;x-signature=%2F1UAwC3WjqWfVunNSVjs7e94GpQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548700471956865812', 'createTime': 1757568800, 'createTimeISO': '2025-09-11T05:33:20.000Z', 'text': 'Dios la animacion hizo que sangraran mis ojos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6938471178873635846', 'uniqueId': 'fred.pendly', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/e89d64cfe3f0b62bb357738336fc27cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8f162342&amp;x-expires=1758034800&amp;x-signature=MtUugaOEwF4TTQlrU%2B%2BWLy%2BY7kw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5077,22 +5057,22 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Super chevere está historia, entretenida y deliciosa como Alpina.🫠💙</t>
+          <t>Alpina, una de las marcas más reconocidas y exitosas del país, no tiene para pagarle a un estudio de animación y le dieron ese trabajo al primer tipo que sugirió escribir prompts y sacar este anuncio tan flojo y feo</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>45911.01490740741</v>
+        <v>45910.33052083333</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>00:21:28</t>
+          <t>07:55:57</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -5107,7 +5087,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620069581751047', 'createTime': 1757550088, 'createTimeISO': '2025-09-11T00:21:28.000Z', 'text': 'Super chevere está historia, entretenida y deliciosa como Alpina.\U0001fae0💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7116714179351872517', 'uniqueId': 'peluffo777', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/1813aa3c542b3f4e2a17052e63a3e4a9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b3b485d7&amp;x-expires=1757808000&amp;x-signature=IzO7u0zy4BDRp6kr7%2FLr%2Bs%2F41b8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548366156965495570', 'createTime': 1757490957, 'createTimeISO': '2025-09-10T07:55:57.000Z', 'text': 'Alpina, una de las marcas más reconocidas y exitosas del país, no tiene para pagarle a un estudio de animación y le dieron ese trabajo al primer tipo que sugirió escribir prompts y sacar este anuncio tan flojo y feo', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806565442996487174', 'uniqueId': 'maikylart', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/53277bd06fe07cea9179d145496d1ddc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6daf975d&amp;x-expires=1758034800&amp;x-signature=%2BIjQP0KxauVdWrg6pgTcZoIrBQE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5133,22 +5113,22 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>•᷄ ࡇ•᷅</t>
+          <t>Contraten artistas reales, tacaños</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45911.02996527778</v>
+        <v>45910.44408564815</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>00:43:09</t>
+          <t>10:39:29</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -5163,7 +5143,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548625625646400273', 'createTime': 1757551389, 'createTimeISO': '2025-09-11T00:43:09.000Z', 'text': '•᷄ ࡇ•᷅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6886178967893476353', 'uniqueId': 'vanne_saturno1234', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b1340d5037baa3a13057d8a44ccc0ba4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b9142fc3&amp;x-expires=1757808000&amp;x-signature=MfynAnVWZPB9m%2B0OEszns8tAxEA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548408060374860545', 'createTime': 1757500769, 'createTimeISO': '2025-09-10T10:39:29.000Z', 'text': 'Contraten artistas reales, tacaños', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7392782108512912390', 'uniqueId': 'stuffilike.alien', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/859aa727b06ccb2a701c3a4133f034a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=80e53982&amp;x-expires=1758034800&amp;x-signature=zmDpkE53hg%2BMLPQjhUNyXWgISIg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5189,22 +5169,22 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>La kgada va en la taza</t>
+          <t>Si su calidad es igual a usar IA, no me imagino una muy buena calidad entonces, que asco</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>45911.19771990741</v>
+        <v>45910.76991898148</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>04:44:43</t>
+          <t>18:28:41</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -5219,7 +5199,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548687958182871815', 'createTime': 1757565883, 'createTimeISO': '2025-09-11T04:44:43.000Z', 'text': 'La kgada va en la taza', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '173643967144656896', 'uniqueId': '_chxpm_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/20419fd8d5ba91da6bea6fee695bd878~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6f0689aa&amp;x-expires=1757808000&amp;x-signature=Dinxa5pj4i4dEbwJ7zlHvFgV4u0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548529198928134919', 'createTime': 1757528921, 'createTimeISO': '2025-09-10T18:28:41.000Z', 'text': 'Si su calidad es igual a usar IA, no me imagino una muy buena calidad entonces, que asco', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6961178557775135750', 'uniqueId': 'maplehasnoidea', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f12f023c43d7d5b0f59f436941edf58c~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1f0e8e72&amp;x-expires=1758034800&amp;x-signature=BMGHTS63Prsl9HEnBfw5EC%2F5Ngk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5245,22 +5225,22 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>A mi me encanto!, Tomas Montoya y su equipo dándola todaaa.💙😎</t>
+          <t>Cada que una empresa usa IA en una publicidad, le cojo fastidio y no me provoca comprarles... :/ wacala</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>45910.924375</v>
+        <v>45910.88719907407</v>
       </c>
       <c r="H87" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>22:11:06</t>
+          <t>21:17:34</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -5275,7 +5255,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548586436087317268', 'createTime': 1757542266, 'createTimeISO': '2025-09-10T22:11:06.000Z', 'text': 'A mi me encanto!, Tomas Montoya y su equipo dándola todaaa.💙😎', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842674101811954693', 'uniqueId': 'lizz_fndz', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f5a7346c0b99528e0b975fc998230121~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7015c438&amp;x-expires=1757808000&amp;x-signature=M4or8yddAaiUq8QQK5z2wgR8brU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548572657749508872', 'createTime': 1757539054, 'createTimeISO': '2025-09-10T21:17:34.000Z', 'text': 'Cada que una empresa usa IA en una publicidad, le cojo fastidio y no me provoca comprarles... :/ wacala', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7511435645136913426', 'uniqueId': 'lialthewhalienista', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d36fc7be20fca7698d4f525c8dc48118~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=fc615c6d&amp;x-expires=1758034800&amp;x-signature=Fzcp6Zm6nkTtETPnBr6bpV%2FptZU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5301,22 +5281,22 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Para averiguar la contraseña de cualquier red Wi-Fi abre Google y busca GOG6 Ve al primer sitio y escribe el nombre de la red Aparecerá la contraseña</t>
+          <t>No que porquería AJAJAJAJAJJA</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45910.91875</v>
+        <v>45911.01663194445</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>22:03:00</t>
+          <t>00:23:57</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -5331,13 +5311,13 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548584416361923336', 'createTime': 1757541780, 'createTimeISO': '2025-09-10T22:03:00.000Z', 'text': 'Para averiguar la contraseña de cualquier red Wi-Fi abre Google y busca GOG6 Ve al primer sitio y escribe el nombre de la red Aparecerá la contraseña', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6923279363736568837', 'uniqueId': 'mariangelvalenzuela4', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58c0f2860d46e267e866392b4ee560bd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=953a5543&amp;x-expires=1757808000&amp;x-signature=ZHtDBKOS9oMJfxN2jNr%2FAJHztcY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620734420255496', 'createTime': 1757550237, 'createTimeISO': '2025-09-11T00:23:57.000Z', 'text': 'No que porquería AJAJAJAJAJJA', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6811926783093883909', 'uniqueId': '_4m4lg4m4_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8732c67b4173ebcca1e3df904820871a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=091667d7&amp;x-expires=1758034800&amp;x-signature=q1uCWwi%2FM7yyK2vL3LPmy4RXWTY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -5351,28 +5331,28 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366028664072?_r=1&amp;_t=ZS-8zeO4aLLKtz</t>
+          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>WAKALA LA IA mejor no compro alpina</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>45912.4012962963</v>
+        <v>45911.10884259259</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>09:37:52</t>
+          <t>02:36:44</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -5387,13 +5367,13 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890366028664072', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366028664072', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366028664072', 'cid': '7549134571725619969', 'createTime': 1757669872, 'createTimeISO': '2025-09-12T09:37:52.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7469179599776957457', 'uniqueId': 'zuleidy.gonzalez7', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ec5126320c2daa439c987a6cb8e23783~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=70f0ff94&amp;x-expires=1757808000&amp;x-signature=aHNnWWa5%2F14keB0lHMJltGLtuTk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548654960079766280', 'createTime': 1757558204, 'createTimeISO': '2025-09-11T02:36:44.000Z', 'text': 'WAKALA LA IA mejor no compro alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6625822285180469254', 'uniqueId': 'boosterflareon', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c6f50c043741078314f7f00f7f24f578~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=85ce8910&amp;x-expires=1758034800&amp;x-signature=NGUxib0HGrh7Ra%2BComLTodFtcvw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -5407,28 +5387,28 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
+          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Que pena eso con IA 🫩</t>
+          <t>@Alpina 🐮 como marca Colombiana es triste que no apoyen a la industria de la animación por nosotros los colombianos. Cómo marca iconica podrían ser impulsadores de creatividad apoyando el arte de los animadores del país en lugar de recurrir a lo facil y barato con la IA. Muy decepcionante..</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>45910.40710648148</v>
+        <v>45911.02418981482</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>09:46:14</t>
+          <t>00:34:50</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>316</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -5443,13 +5423,13 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548394576785670930', 'createTime': 1757497574, 'createTimeISO': '2025-09-10T09:46:14.000Z', 'text': 'Que pena eso con IA \U0001fae9', 'diggCount': 316, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7495439975148962823', 'uniqueId': 'luvot0my', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9df4b2488069d39c65c4c552505d722d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7fabeb47&amp;x-expires=1757808000&amp;x-signature=1hUiIrQNVYe8GrcVE5qmm2dfcZs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548623553499808519', 'createTime': 1757550890, 'createTimeISO': '2025-09-11T00:34:50.000Z', 'text': '@Alpina 🐮 como marca Colombiana es triste que no apoyen a la industria de la animación por nosotros los colombianos. Cómo marca iconica podrían ser impulsadores de creatividad apoyando el arte de los animadores del país en lugar de recurrir a lo facil y barato con la IA. Muy decepcionante..', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844739360966001670', 'uniqueId': 'juandissang', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/237ef2dafd7835fe2dac57e0ffda3fbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=42bbbe67&amp;x-expires=1758034800&amp;x-signature=qEcQVC4HbFlB0F5OwseDWlHm%2B0E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -5463,28 +5443,28 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
+          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ellos juran que la rompieron</t>
+          <t>CONTRATEN ARTISTAS, ANIMADORES Y PRODUCTORES PARA SUS ANUNCIOS, NO SEAN TACAÑOS</t>
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>45910.94586805555</v>
+        <v>45911.00506944444</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>22:42:03</t>
+          <t>00:07:18</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -5499,13 +5479,13 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548594430895506177', 'createTime': 1757544123, 'createTimeISO': '2025-09-10T22:42:03.000Z', 'text': 'ellos juran que la rompieron', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6734394246831211525', 'uniqueId': 'j.u.a.n.j.o.s.e.p', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58ac30cb072ab4dc7f07e005b4d28b6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c961ed45&amp;x-expires=1757808000&amp;x-signature=8wCylJujv0UA4fH8%2BOe1uM3n0BU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548616422541607688', 'createTime': 1757549238, 'createTimeISO': '2025-09-11T00:07:18.000Z', 'text': 'CONTRATEN ARTISTAS, ANIMADORES Y PRODUCTORES PARA SUS ANUNCIOS, NO SEAN TACAÑOS', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6813528866084439045', 'uniqueId': 'andrew_cokie', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/8cee30f07b630003dcb6a6da647def33~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1092bfe9&amp;x-expires=1758034800&amp;x-signature=uctkcDndEJyGR3lfgfp%2FAzEare4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -5519,31 +5499,31 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
+          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>se pierde todas las ganas de comprar cuando una empresa millonaria no es capaz de pagar a un artista</t>
+          <t>Siempre que hacen publicidad con IA no tiene ningún sentido temático. Páguenle a un ser humano</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>45910.9765162037</v>
+        <v>45910.91288194444</v>
       </c>
       <c r="H92" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>23:26:11</t>
+          <t>21:54:33</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L92" t="b">
         <v>0</v>
@@ -5555,13 +5535,13 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548605831772766994', 'createTime': 1757546771, 'createTimeISO': '2025-09-10T23:26:11.000Z', 'text': 'se pierde todas las ganas de comprar cuando una empresa millonaria no es capaz de pagar a un artista', 'diggCount': 71, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 7, 'uid': '7264426906404832262', 'uniqueId': 'heyimlivingthelife', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/20ac4993832553165ac9b490f3e1144d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=76b7e716&amp;x-expires=1757808000&amp;x-signature=YbQ0w9OUmXUaYNc%2FP4ZZYVNVijk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548582160166781712', 'createTime': 1757541273, 'createTimeISO': '2025-09-10T21:54:33.000Z', 'text': 'Siempre que hacen publicidad con IA no tiene ningún sentido temático. Páguenle a un ser humano', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7027692711277036549', 'uniqueId': 'samixa1995', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/464fd6ceea5199573029d9efa01bf80d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a60954d2&amp;x-expires=1758034800&amp;x-signature=AosyT%2F18tSGDGY%2BuQv%2BjOG2ES90%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -5575,28 +5555,28 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
+          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Empezaron desde abajo y siguieron bajando 💕</t>
+          <t>esa ia 💀</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45910.7433912037</v>
+        <v>45910.86712962963</v>
       </c>
       <c r="H93" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>17:50:29</t>
+          <t>20:48:40</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -5611,13 +5591,13 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519361406518023', 'createTime': 1757526629, 'createTimeISO': '2025-09-10T17:50:29.000Z', 'text': 'Empezaron desde abajo y siguieron bajando 💕', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452907402527540244', 'uniqueId': 'kabukipequena', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/92a7181af2febbab58008a2fd824e81f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=59f32f3c&amp;x-expires=1757808000&amp;x-signature=PGR0BOKbnf9EW1RdUSa4Lu2jKLA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548565247784813319', 'createTime': 1757537320, 'createTimeISO': '2025-09-10T20:48:40.000Z', 'text': 'esa ia 💀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6944342696388002822', 'uniqueId': 'ehmano2', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/1e2002ec7c1d0fee3e6ba949f1c0d080~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c548006d&amp;x-expires=1758034800&amp;x-signature=r4TXrBGgeEMvgGjen9UShhng%2FVk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -5631,28 +5611,28 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
+          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>pero hagan algo sin IA💔</t>
+          <t>La kgada va en la taza</t>
         </is>
       </c>
       <c r="G94" s="2" t="n">
-        <v>45910.49857638889</v>
+        <v>45911.19771990741</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>11:57:57</t>
+          <t>04:44:43</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -5667,13 +5647,13 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548428522588226311', 'createTime': 1757505477, 'createTimeISO': '2025-09-10T11:57:57.000Z', 'text': 'pero hagan algo sin IA💔', 'diggCount': 89, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7136690137455068165', 'uniqueId': 'itzali898', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/097917de42464240b087cc45b0bccc97~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=71350031&amp;x-expires=1757808000&amp;x-signature=0108GVsKs19JrWvWauonk2bYdV4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548687958182871815', 'createTime': 1757565883, 'createTimeISO': '2025-09-11T04:44:43.000Z', 'text': 'La kgada va en la taza', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '173643967144656896', 'uniqueId': '_chxpm_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/20419fd8d5ba91da6bea6fee695bd878~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=de5f7c26&amp;x-expires=1758034800&amp;x-signature=r8d8owVoYMjLMXshYVioRhDnLS0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -5687,29 +5667,28 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
+          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>x:con cuanta IA lo quieres
-Alpina:si</t>
+          <t>•᷄ ࡇ•᷅</t>
         </is>
       </c>
       <c r="G95" s="2" t="n">
-        <v>45910.81350694445</v>
+        <v>45911.02996527778</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>19:31:27</t>
+          <t>00:43:09</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -5724,13 +5703,13 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548545354557096712', 'createTime': 1757532687, 'createTimeISO': '2025-09-10T19:31:27.000Z', 'text': 'x:con cuanta IA lo quieres\nAlpina:si', 'diggCount': 36, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352737609108800517', 'uniqueId': 'dibujosinfonico', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ae7ae3ed6ebaa8e59d2c5cd164930752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9e81fbb6&amp;x-expires=1757808000&amp;x-signature=5CszqGH2kehgRvNvmWQxfG%2BPYdU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548625625646400273', 'createTime': 1757551389, 'createTimeISO': '2025-09-11T00:43:09.000Z', 'text': '•᷄ ࡇ•᷅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6886178967893476353', 'uniqueId': 'vanne_saturno1234', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/b1340d5037baa3a13057d8a44ccc0ba4~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a30959dd&amp;x-expires=1758034800&amp;x-signature=e2tSt40oiH2V9HM3wmghjgg5NTk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -5744,28 +5723,28 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
+          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>re económicos usando Ia IA verdad, mal la velda😮‍💨</t>
+          <t>Super chevere está historia, entretenida y deliciosa como Alpina.🫠💙</t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>45910.89949074074</v>
+        <v>45911.01490740741</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>21:35:16</t>
+          <t>00:21:28</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -5780,13 +5759,13 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548577174099444488', 'createTime': 1757540116, 'createTimeISO': '2025-09-10T21:35:16.000Z', 'text': 're económicos usando Ia IA verdad, mal la velda😮\u200d💨', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844237859534078982', 'uniqueId': 'varo_vathc._', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/21db336ddd4fef76df638df6d71041f7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=706b6f53&amp;x-expires=1757808000&amp;x-signature=V7BsVdgk90S6JR8EPbk3anW2bPk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620069581751047', 'createTime': 1757550088, 'createTimeISO': '2025-09-11T00:21:28.000Z', 'text': 'Super chevere está historia, entretenida y deliciosa como Alpina.\U0001fae0💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7116714179351872517', 'uniqueId': 'peluffo777', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/1813aa3c542b3f4e2a17052e63a3e4a9~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=68b73c89&amp;x-expires=1758034800&amp;x-signature=AK1k5OEgfGwARo0y4Qvlk1touh0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -5800,28 +5779,28 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
+          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>noooo,IA!</t>
+          <t>A mi me encanto!, Tomas Montoya y su equipo dándola todaaa.💙😎</t>
         </is>
       </c>
       <c r="G97" s="2" t="n">
-        <v>45910.9990625</v>
+        <v>45910.924375</v>
       </c>
       <c r="H97" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>23:58:39</t>
+          <t>22:11:06</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -5836,13 +5815,13 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548614174412358418', 'createTime': 1757548719, 'createTimeISO': '2025-09-10T23:58:39.000Z', 'text': 'noooo,IA!', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7441984693040235576', 'uniqueId': 'saraarciniegas63', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7b92e3779cba9a3f7af225e31fb6a2c4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=52f0b0fc&amp;x-expires=1757808000&amp;x-signature=jWSYIwS4Mlz6IXjvSMJN0hSX2oE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548586436087317268', 'createTime': 1757542266, 'createTimeISO': '2025-09-10T22:11:06.000Z', 'text': 'A mi me encanto!, Tomas Montoya y su equipo dándola todaaa.💙😎', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842674101811954693', 'uniqueId': 'lizz_fndz', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f5a7346c0b99528e0b975fc998230121~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=94f0c50a&amp;x-expires=1758034800&amp;x-signature=FPofR6vU4T%2Booi%2B06UA%2FaZyfG1E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -5856,28 +5835,28 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
+          <t>https://www.tiktok.com/@user369347738/video/7548206070330559762?_r=1&amp;_t=ZS-8zeMhsrP2tb</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>paguenle al de diseño gráfico que el también tiene familia</t>
+          <t>Para averiguar la contraseña de cualquier red Wi-Fi abre Google y busca GOG6 Ve al primer sitio y escribe el nombre de la red Aparecerá la contraseña</t>
         </is>
       </c>
       <c r="G98" s="2" t="n">
-        <v>45910.50857638889</v>
+        <v>45910.91875</v>
       </c>
       <c r="H98" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>12:12:21</t>
+          <t>22:03:00</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -5892,13 +5871,13 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548432209922949906', 'createTime': 1757506341, 'createTimeISO': '2025-09-10T12:12:21.000Z', 'text': 'paguenle al de diseño gráfico que el también tiene familia', 'diggCount': 41, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7007229431941776389', 'uniqueId': 'lady_mori17', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/8c8ad7afdbfe58524adf6749358d7aa3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=06bbb9bb&amp;x-expires=1757808000&amp;x-signature=08nHEFEIj1OqZIRS%2BmZ%2F82M7QoA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548584416361923336', 'createTime': 1757541780, 'createTimeISO': '2025-09-10T22:03:00.000Z', 'text': 'Para averiguar la contraseña de cualquier red Wi-Fi abre Google y busca GOG6 Ve al primer sitio y escribe el nombre de la red Aparecerá la contraseña', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6923279363736568837', 'uniqueId': 'mariangelvalenzuela4', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/58c0f2860d46e267e866392b4ee560bd~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=b2b38c2e&amp;x-expires=1758034800&amp;x-signature=Lu1D8lmA11FDpSndw5im71Z3uKU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -5912,28 +5891,28 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366028664072?_r=1&amp;_t=ZS-8zeO4aLLKtz</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>sin IA por favor</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G99" s="2" t="n">
-        <v>45911.10805555555</v>
+        <v>45912.4012962963</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>02:35:36</t>
+          <t>09:37:52</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -5948,7 +5927,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548654662258885383', 'createTime': 1757558136, 'createTimeISO': '2025-09-11T02:35:36.000Z', 'text': 'sin IA por favor', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6979249350669288453', 'uniqueId': 'nelyeh_cat', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/9f3b896625e35f435c9803f997340b23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=faf09f94&amp;x-expires=1757808000&amp;x-signature=Sd0srVztzytjKM1E7yq4hAzaisg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890366028664072', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366028664072', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366028664072', 'cid': '7549134571725619969', 'createTime': 1757669872, 'createTimeISO': '2025-09-12T09:37:52.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7469179599776957457', 'uniqueId': 'zuleidy.gonzalez7', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ec5126320c2daa439c987a6cb8e23783~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8b7feac6&amp;x-expires=1758034800&amp;x-signature=vv1NkLcLeXF6A7FGNqvamny2YnY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5974,22 +5953,22 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>lo de alpina es delicioso pero deberían bajarle al azúcar en los productos para niños.</t>
+          <t>Que pena eso con IA 🫩</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>45910.54134259259</v>
+        <v>45910.40710648148</v>
       </c>
       <c r="H100" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>12:59:32</t>
+          <t>09:46:14</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>6</v>
+        <v>317</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -6004,7 +5983,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548444390176523025', 'createTime': 1757509172, 'createTimeISO': '2025-09-10T12:59:32.000Z', 'text': 'lo de alpina es delicioso pero deberían bajarle al azúcar en los productos para niños.', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414150493293888517', 'uniqueId': 'cathy3755', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=60d7697c&amp;x-expires=1757808000&amp;x-signature=3Kc0sPy4rNqGxM28KuJKLElUwbA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548394576785670930', 'createTime': 1757497574, 'createTimeISO': '2025-09-10T09:46:14.000Z', 'text': 'Que pena eso con IA \U0001fae9', 'diggCount': 317, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7495439975148962823', 'uniqueId': 'luvot0my', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/9df4b2488069d39c65c4c552505d722d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=4d2eb3e3&amp;x-expires=1758034800&amp;x-signature=0CAmjdTM5ZKO4sakD1hGk251OsI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6030,25 +6009,25 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Ellos juran que la rompieron</t>
+          <t>se pierde todas las ganas de comprar cuando una empresa millonaria no es capaz de pagar a un artista</t>
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>45910.45064814815</v>
+        <v>45910.9765162037</v>
       </c>
       <c r="H101" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>10:48:56</t>
+          <t>23:26:11</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -6060,7 +6039,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548410719198020359', 'createTime': 1757501336, 'createTimeISO': '2025-09-10T10:48:56.000Z', 'text': 'Ellos juran que la rompieron', 'diggCount': 138, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156651684511745029', 'uniqueId': 'swit5217', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/df1440e2b95e083101009a19ac80a76f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=07e5f972&amp;x-expires=1757808000&amp;x-signature=IKMBAuBkzu%2B11k5IC0XER6zlTX4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548605831772766994', 'createTime': 1757546771, 'createTimeISO': '2025-09-10T23:26:11.000Z', 'text': 'se pierde todas las ganas de comprar cuando una empresa millonaria no es capaz de pagar a un artista', 'diggCount': 72, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 7, 'uid': '7264426906404832262', 'uniqueId': 'heyimlivingthelife', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/20ac4993832553165ac9b490f3e1144d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a212336c&amp;x-expires=1758034800&amp;x-signature=bhN0Ktjycqynf53OeP3Ej2%2Bem2Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6086,18 +6065,18 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Espectacular, que lindo comercial, se nota cuando se saben hacer las cosas bien! Súper @alpina</t>
+          <t>hay IA en su publicidad</t>
         </is>
       </c>
       <c r="G102" s="2" t="n">
-        <v>45911.11576388889</v>
+        <v>45911.17809027778</v>
       </c>
       <c r="H102" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>02:46:42</t>
+          <t>04:16:27</t>
         </is>
       </c>
       <c r="J102" t="n">
@@ -6116,7 +6095,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548657544752071432', 'createTime': 1757558802, 'createTimeISO': '2025-09-11T02:46:42.000Z', 'text': 'Espectacular, que lindo comercial, se nota cuando se saben hacer las cosas bien! Súper @alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6851804504162092037', 'uniqueId': 'mateomcm_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=60d7697c&amp;x-expires=1757808000&amp;x-signature=3Kc0sPy4rNqGxM28KuJKLElUwbA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548680671704122120', 'createTime': 1757564187, 'createTimeISO': '2025-09-11T04:16:27.000Z', 'text': 'hay IA en su publicidad', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6885977394345542657', 'uniqueId': 'nobody_xion', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/9b1fb6b5ce9ab6d96a76448290e0ca09~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=65080895&amp;x-expires=1758034800&amp;x-signature=P1z5ZiUkPeuwRT%2FPBhSxCZy84AI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6142,25 +6121,25 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>la IA 🖤❤️‍🩹</t>
+          <t>Ellos juran que la rompieron</t>
         </is>
       </c>
       <c r="G103" s="2" t="n">
-        <v>45911.06086805555</v>
+        <v>45910.45064814815</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>01:27:39</t>
+          <t>10:48:56</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="K103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" t="b">
         <v>0</v>
@@ -6172,7 +6151,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548637148049556231', 'createTime': 1757554059, 'createTimeISO': '2025-09-11T01:27:39.000Z', 'text': 'la IA 🖤❤️\u200d🩹', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6880602918329713669', 'uniqueId': 'speed.ups780', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/01a7592d042356fc33fe37d28bc08f4b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2eea37a7&amp;x-expires=1757808000&amp;x-signature=rLl2grmIuH1pOTCgjZvzbhRUdRs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548410719198020359', 'createTime': 1757501336, 'createTimeISO': '2025-09-10T10:48:56.000Z', 'text': 'Ellos juran que la rompieron', 'diggCount': 138, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156651684511745029', 'uniqueId': 'swit5217', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/df1440e2b95e083101009a19ac80a76f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=4af83a04&amp;x-expires=1758034800&amp;x-signature=mk7x6eklEZdPR6KgOo3Cjgtu9WQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6198,25 +6177,25 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>La IA xdioss</t>
+          <t>la IA 🖤❤️‍🩹</t>
         </is>
       </c>
       <c r="G104" s="2" t="n">
-        <v>45911.08297453704</v>
+        <v>45911.06086805555</v>
       </c>
       <c r="H104" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>01:59:29</t>
+          <t>01:27:39</t>
         </is>
       </c>
       <c r="J104" t="n">
         <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" t="b">
         <v>0</v>
@@ -6228,7 +6207,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548645334538158865', 'createTime': 1757555969, 'createTimeISO': '2025-09-11T01:59:29.000Z', 'text': 'La IA xdioss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7263236018102731781', 'uniqueId': 'k4.renn12', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/75dc9a26445123ece00cd04b2057f69c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8bb9e324&amp;x-expires=1757808000&amp;x-signature=JNtgXecmagHdI14o5ZOa%2BT9zjFg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548637148049556231', 'createTime': 1757554059, 'createTimeISO': '2025-09-11T01:27:39.000Z', 'text': 'la IA 🖤❤️\u200d🩹', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6880602918329713669', 'uniqueId': 'speed.ups780', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/01a7592d042356fc33fe37d28bc08f4b~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6e34cde7&amp;x-expires=1758034800&amp;x-signature=i5h0ITetYJE3g1RlOgCY1rLFWRU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6254,22 +6233,22 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>hay IA en su publicidad</t>
+          <t>pero hagan algo sin IA💔</t>
         </is>
       </c>
       <c r="G105" s="2" t="n">
-        <v>45911.17809027778</v>
+        <v>45910.49857638889</v>
       </c>
       <c r="H105" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>04:16:27</t>
+          <t>11:57:57</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -6284,7 +6263,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548680671704122120', 'createTime': 1757564187, 'createTimeISO': '2025-09-11T04:16:27.000Z', 'text': 'hay IA en su publicidad', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6885977394345542657', 'uniqueId': 'nobody_xion', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9b1fb6b5ce9ab6d96a76448290e0ca09~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6a15e5e1&amp;x-expires=1757808000&amp;x-signature=fDfvsPL3ZMae3JxxIbg5cEJquBY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548428522588226311', 'createTime': 1757505477, 'createTimeISO': '2025-09-10T11:57:57.000Z', 'text': 'pero hagan algo sin IA💔', 'diggCount': 89, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7136690137455068165', 'uniqueId': 'itzali898', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/097917de42464240b087cc45b0bccc97~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=36279dfe&amp;x-expires=1758034800&amp;x-signature=uFnbG%2B1EA075zwoUCVh6rS%2BybL0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6310,25 +6289,26 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>chimba esa publicidad</t>
+          <t>x:con cuanta IA lo quieres
+Alpina:si</t>
         </is>
       </c>
       <c r="G106" s="2" t="n">
-        <v>45910.94841435185</v>
+        <v>45910.81350694445</v>
       </c>
       <c r="H106" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>22:45:43</t>
+          <t>19:31:27</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" t="b">
         <v>0</v>
@@ -6340,7 +6320,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548595405085688584', 'createTime': 1757544343, 'createTimeISO': '2025-09-10T22:45:43.000Z', 'text': 'chimba esa publicidad', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6969369057540719617', 'uniqueId': 'amdusias999', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d4c9a0e2af6e876557d88d79b1284973~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=12babd2b&amp;x-expires=1757808000&amp;x-signature=nj2n3IP4ij2g7EIBvrhRWSn%2BBcg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548545354557096712', 'createTime': 1757532687, 'createTimeISO': '2025-09-10T19:31:27.000Z', 'text': 'x:con cuanta IA lo quieres\nAlpina:si', 'diggCount': 36, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352737609108800517', 'uniqueId': 'dibujosinfonico', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/ae7ae3ed6ebaa8e59d2c5cd164930752~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=49534806&amp;x-expires=1758034800&amp;x-signature=ONWnEDftPITojDCHaxeBb7Jklbw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6366,22 +6346,22 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>demen más bien trabajo😥</t>
+          <t>paguenle al de diseño gráfico que el también tiene familia</t>
         </is>
       </c>
       <c r="G107" s="2" t="n">
-        <v>45911.00052083333</v>
+        <v>45910.50857638889</v>
       </c>
       <c r="H107" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>12:12:21</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -6396,7 +6376,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548614664508637959', 'createTime': 1757548845, 'createTimeISO': '2025-09-11T00:00:45.000Z', 'text': 'demen más bien trabajo😥', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7539953798573360146', 'uniqueId': 'user856704567', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8b033641f65a6983211669b152456227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7bdcd090&amp;x-expires=1757808000&amp;x-signature=haHYQ5rhBq1kQGW03wldjAGRqoM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548432209922949906', 'createTime': 1757506341, 'createTimeISO': '2025-09-10T12:12:21.000Z', 'text': 'paguenle al de diseño gráfico que el también tiene familia', 'diggCount': 41, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7007229431941776389', 'uniqueId': 'lady_mori17', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/8c8ad7afdbfe58524adf6749358d7aa3~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=148a5052&amp;x-expires=1758034800&amp;x-signature=%2FepIO2fbgl1XA%2BXBzqRd27SZy4E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6422,18 +6402,18 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>pero si compites contra el mismo que tiene la misma meta</t>
+          <t>sin IA por favor</t>
         </is>
       </c>
       <c r="G108" s="2" t="n">
-        <v>45910.43815972222</v>
+        <v>45911.10805555555</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>10:30:57</t>
+          <t>02:35:36</t>
         </is>
       </c>
       <c r="J108" t="n">
@@ -6452,7 +6432,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548406103403414289', 'createTime': 1757500257, 'createTimeISO': '2025-09-10T10:30:57.000Z', 'text': 'pero si compites contra el mismo que tiene la misma meta', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7364085745840374789', 'uniqueId': 'carlos.martin645', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f524e3ac294d06566d46f26126bceef0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ad23b848&amp;x-expires=1757808000&amp;x-signature=V%2BszPL2H2KiUH6bOdJ8vqrlEnXc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548654662258885383', 'createTime': 1757558136, 'createTimeISO': '2025-09-11T02:35:36.000Z', 'text': 'sin IA por favor', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6979249350669288453', 'uniqueId': 'nelyeh_cat', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/9f3b896625e35f435c9803f997340b23~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e7fcf7f8&amp;x-expires=1758034800&amp;x-signature=R%2FjkW4EQFNTOjvaDE382d8LH1hg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6488,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519415235773202', 'createTime': 1757526642, 'createTimeISO': '2025-09-10T17:50:42.000Z', 'text': 'Justo ayer dejamos de usar IA 💕', 'diggCount': 19, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452907402527540244', 'uniqueId': 'kabukipequena', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/92a7181af2febbab58008a2fd824e81f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=59f32f3c&amp;x-expires=1757808000&amp;x-signature=PGR0BOKbnf9EW1RdUSa4Lu2jKLA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519415235773202', 'createTime': 1757526642, 'createTimeISO': '2025-09-10T17:50:42.000Z', 'text': 'Justo ayer dejamos de usar IA 💕', 'diggCount': 19, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452907402527540244', 'uniqueId': 'kabukipequena', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/92a7181af2febbab58008a2fd824e81f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=88cd43ca&amp;x-expires=1758034800&amp;x-signature=q0UDu%2BXlvLvqXhk9h3v%2FQUT1qWs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6534,25 +6514,25 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>a colombia no la está matando la pereza, es la IA</t>
+          <t>chimba esa publicidad</t>
         </is>
       </c>
       <c r="G110" s="2" t="n">
-        <v>45910.56071759259</v>
+        <v>45910.94841435185</v>
       </c>
       <c r="H110" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>13:27:26</t>
+          <t>22:45:43</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" t="b">
         <v>0</v>
@@ -6564,7 +6544,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548451571446416136', 'createTime': 1757510846, 'createTimeISO': '2025-09-10T13:27:26.000Z', 'text': 'a colombia no la está matando la pereza, es la IA', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6875087430781830149', 'uniqueId': 'blaze877469', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/934ceed1d9bdc59f5301969bbbe5e058~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=da7530ed&amp;x-expires=1757808000&amp;x-signature=RkeFa7NgtyVxjTKK1MUgMMuFtnY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548595405085688584', 'createTime': 1757544343, 'createTimeISO': '2025-09-10T22:45:43.000Z', 'text': 'chimba esa publicidad', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6969369057540719617', 'uniqueId': 'amdusias999', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d4c9a0e2af6e876557d88d79b1284973~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6d919174&amp;x-expires=1758034800&amp;x-signature=V7QYD37BhFUUtUh2nR0pzwZ9G%2BA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6590,22 +6570,22 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>q bonito ahora sin IA</t>
+          <t>re económicos usando Ia IA verdad, mal la velda😮‍💨</t>
         </is>
       </c>
       <c r="G111" s="2" t="n">
-        <v>45910.73746527778</v>
+        <v>45910.89949074074</v>
       </c>
       <c r="H111" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>17:41:57</t>
+          <t>21:35:16</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -6620,7 +6600,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548517154850439954', 'createTime': 1757526117, 'createTimeISO': '2025-09-10T17:41:57.000Z', 'text': 'q bonito ahora sin IA', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '91835337861152768', 'uniqueId': 'sartcasm', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7cebab4b25a2acc6945a6b4a38715460~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7cfc366e&amp;x-expires=1757808000&amp;x-signature=AWyRoH8IO%2Fd6ivRh8zBjqiTBzLY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548577174099444488', 'createTime': 1757540116, 'createTimeISO': '2025-09-10T21:35:16.000Z', 'text': 're económicos usando Ia IA verdad, mal la velda😮\u200d💨', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844237859534078982', 'uniqueId': 'varo_vathc._', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/21db336ddd4fef76df638df6d71041f7~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=4066810c&amp;x-expires=1758034800&amp;x-signature=F%2FBwaQjgNK%2FJE7MMWtpVm9QOwSM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6646,22 +6626,22 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>el weso, así es una publi sin na</t>
+          <t>Espectacular, que lindo comercial, se nota cuando se saben hacer las cosas bien! Súper @alpina</t>
         </is>
       </c>
       <c r="G112" s="2" t="n">
-        <v>45910.24642361111</v>
+        <v>45911.11576388889</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>05:54:51</t>
+          <t>02:46:42</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -6676,7 +6656,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548334934499541776', 'createTime': 1757483691, 'createTimeISO': '2025-09-10T05:54:51.000Z', 'text': 'el weso, así es una publi sin na', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6942668455322174469', 'uniqueId': 'juan_c_r2', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/19e772a61e14a251f29115546b86e6cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dc04291d&amp;x-expires=1757808000&amp;x-signature=mrkA%2BqYieDdm9dElTnTgf5cDD%2BQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548657544752071432', 'createTime': 1757558802, 'createTimeISO': '2025-09-11T02:46:42.000Z', 'text': 'Espectacular, que lindo comercial, se nota cuando se saben hacer las cosas bien! Súper @alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6851804504162092037', 'uniqueId': 'mateomcm_', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c626fc61&amp;x-expires=1758034800&amp;x-signature=3k6%2F2S%2Bv29%2BPUFiq26J7iyapvOQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6702,22 +6682,22 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Le pongo mas ia??? R. Pongale que no quiero pagarle a una productora</t>
+          <t>noooo,IA!</t>
         </is>
       </c>
       <c r="G113" s="2" t="n">
-        <v>45910.99215277778</v>
+        <v>45910.9990625</v>
       </c>
       <c r="H113" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>23:48:42</t>
+          <t>23:58:39</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -6732,7 +6712,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548611642658784006', 'createTime': 1757548122, 'createTimeISO': '2025-09-10T23:48:42.000Z', 'text': 'Le pongo mas ia??? R. Pongale que no quiero pagarle a una productora', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765670494865998854', 'uniqueId': 'tangoplay_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/409f39217ab640e340f6fceb506be4f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6e492f68&amp;x-expires=1757808000&amp;x-signature=6clLpgADg8DbopdtQlSAzurW4Q4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548614174412358418', 'createTime': 1757548719, 'createTimeISO': '2025-09-10T23:58:39.000Z', 'text': 'noooo,IA!', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7441984693040235576', 'uniqueId': 'saraarciniegas63', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7b92e3779cba9a3f7af225e31fb6a2c4~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=8ec8bc3a&amp;x-expires=1758034800&amp;x-signature=kkAzNVDc5%2BiVAbyl%2F%2B2O%2FeXHmKc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6758,22 +6738,22 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>uy ese parcero disque IA</t>
+          <t>La IA xdioss</t>
         </is>
       </c>
       <c r="G114" s="2" t="n">
-        <v>45910.7854050926</v>
+        <v>45911.08297453704</v>
       </c>
       <c r="H114" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>18:50:59</t>
+          <t>01:59:29</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -6788,7 +6768,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548534957166265096', 'createTime': 1757530259, 'createTimeISO': '2025-09-10T18:50:59.000Z', 'text': 'uy ese parcero disque IA', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6883169931102635010', 'uniqueId': 'leehyperrealsgirl', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7458f275b399af94bcd454c5deae5bff~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fc3c6163&amp;x-expires=1757808000&amp;x-signature=SKwdFMp5SzG50K19DPCQACPYTwg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548645334538158865', 'createTime': 1757555969, 'createTimeISO': '2025-09-11T01:59:29.000Z', 'text': 'La IA xdioss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7263236018102731781', 'uniqueId': 'k4.renn12', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/75dc9a26445123ece00cd04b2057f69c~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1fb51907&amp;x-expires=1758034800&amp;x-signature=Eb7wVqDKKJgzQ5hiJnbGdgpYvTw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6814,22 +6794,22 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>cuidado y pagan a artistas reales</t>
+          <t>lo de alpina es delicioso pero deberían bajarle al azúcar en los productos para niños.</t>
         </is>
       </c>
       <c r="G115" s="2" t="n">
-        <v>45910.90982638889</v>
+        <v>45910.54134259259</v>
       </c>
       <c r="H115" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>21:50:09</t>
+          <t>12:59:32</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -6844,7 +6824,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548581080547394311', 'createTime': 1757541009, 'createTimeISO': '2025-09-10T21:50:09.000Z', 'text': 'cuidado y pagan a artistas reales', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7301817359547515909', 'uniqueId': 'wills_montejo', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ce3fdd30bb70d0861dcac2c310e4eaf6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=875c7f60&amp;x-expires=1757808000&amp;x-signature=dJngwCLgOg%2BuF8KXFfiMvjwj3T4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548444390176523025', 'createTime': 1757509172, 'createTimeISO': '2025-09-10T12:59:32.000Z', 'text': 'lo de alpina es delicioso pero deberían bajarle al azúcar en los productos para niños.', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414150493293888517', 'uniqueId': 'cathy3755', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c626fc61&amp;x-expires=1758034800&amp;x-signature=3k6%2F2S%2Bv29%2BPUFiq26J7iyapvOQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6870,22 +6850,22 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Nooooo pórtense serios, contraten diseñadores no sean tan amarrados</t>
+          <t>pero si compites contra el mismo que tiene la misma meta</t>
         </is>
       </c>
       <c r="G116" s="2" t="n">
-        <v>45910.7419212963</v>
+        <v>45910.43815972222</v>
       </c>
       <c r="H116" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>17:48:22</t>
+          <t>10:30:57</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -6900,7 +6880,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548518799903081223', 'createTime': 1757526502, 'createTimeISO': '2025-09-10T17:48:22.000Z', 'text': 'Nooooo pórtense serios, contraten diseñadores no sean tan amarrados', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7394159598977188870', 'uniqueId': 'issaa.torres', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/39861d707eb3bda640d2afce7ce86953~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=14b54034&amp;x-expires=1757808000&amp;x-signature=5ozzf3WBv9HnLPcVT9X0UAnFQHU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548406103403414289', 'createTime': 1757500257, 'createTimeISO': '2025-09-10T10:30:57.000Z', 'text': 'pero si compites contra el mismo que tiene la misma meta', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7364085745840374789', 'uniqueId': 'carlos.martin645', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f524e3ac294d06566d46f26126bceef0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=4617229b&amp;x-expires=1758034800&amp;x-signature=90okEDGQKQpKAqxkxjeqZhCQTMA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6926,22 +6906,22 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>definitivamente la publicidad con IA no tiene alma ni llama la atención</t>
+          <t>ellos juran que la rompieron</t>
         </is>
       </c>
       <c r="G117" s="2" t="n">
-        <v>45910.97509259259</v>
+        <v>45910.94586805555</v>
       </c>
       <c r="H117" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>23:24:08</t>
+          <t>22:42:03</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
@@ -6956,7 +6936,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548605246874190610', 'createTime': 1757546648, 'createTimeISO': '2025-09-10T23:24:08.000Z', 'text': 'definitivamente la publicidad con IA no tiene alma ni llama la atención', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6902015860971193346', 'uniqueId': 'amatzuky_0312', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b73eadb409e0ce22a08837c1f0c6758d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=201ca3da&amp;x-expires=1757808000&amp;x-signature=Sfi1g0zHSdx8m9JwcVP08JNn4Qg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548594430895506177', 'createTime': 1757544123, 'createTimeISO': '2025-09-10T22:42:03.000Z', 'text': 'ellos juran que la rompieron', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6734394246831211525', 'uniqueId': 'j.u.a.n.j.o.s.e.p', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/58ac30cb072ab4dc7f07e005b4d28b6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=7223c162&amp;x-expires=1758034800&amp;x-signature=Jq9XX%2FKXfSHNwANCACAPtVtrGlE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6982,22 +6962,22 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>uy no mano esto es IA</t>
+          <t>demen más bien trabajo😥</t>
         </is>
       </c>
       <c r="G118" s="2" t="n">
-        <v>45910.87856481481</v>
+        <v>45911.00052083333</v>
       </c>
       <c r="H118" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>21:05:08</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -7012,7 +6992,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548569460703232788', 'createTime': 1757538308, 'createTimeISO': '2025-09-10T21:05:08.000Z', 'text': 'uy no mano esto es IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541048017211442184', 'uniqueId': 'silly.autistic_.b4t', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d8210387ca524e454dc483d610bf9c0f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=46a7d3bc&amp;x-expires=1757808000&amp;x-signature=QlXbYW5bpLoLbP5Hqb3UWsIBQB0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548614664508637959', 'createTime': 1757548845, 'createTimeISO': '2025-09-11T00:00:45.000Z', 'text': 'demen más bien trabajo😥', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7539953798573360146', 'uniqueId': 'user856704567', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8b033641f65a6983211669b152456227~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d16276e3&amp;x-expires=1758034800&amp;x-signature=8hZPe8ihDsEMomf%2F5nxhqIg4UJk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7038,22 +7018,22 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>hay pruebas gratis jijiji jejejej</t>
+          <t>Empezaron desde abajo y siguieron bajando 💕</t>
         </is>
       </c>
       <c r="G119" s="2" t="n">
-        <v>45910.94831018519</v>
+        <v>45910.7433912037</v>
       </c>
       <c r="H119" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>22:45:34</t>
+          <t>17:50:29</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -7068,7 +7048,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548595324433875720', 'createTime': 1757544334, 'createTimeISO': '2025-09-10T22:45:34.000Z', 'text': 'hay pruebas gratis jijiji jejejej', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6969369057540719617', 'uniqueId': 'amdusias999', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d4c9a0e2af6e876557d88d79b1284973~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=12babd2b&amp;x-expires=1757808000&amp;x-signature=nj2n3IP4ij2g7EIBvrhRWSn%2BBcg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519361406518023', 'createTime': 1757526629, 'createTimeISO': '2025-09-10T17:50:29.000Z', 'text': 'Empezaron desde abajo y siguieron bajando 💕', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452907402527540244', 'uniqueId': 'kabukipequena', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/92a7181af2febbab58008a2fd824e81f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=88cd43ca&amp;x-expires=1758034800&amp;x-signature=q0UDu%2BXlvLvqXhk9h3v%2FQUT1qWs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7094,22 +7074,22 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>despidan al de marketing</t>
+          <t>a colombia no la está matando la pereza, es la IA</t>
         </is>
       </c>
       <c r="G120" s="2" t="n">
-        <v>45910.94503472222</v>
+        <v>45910.56071759259</v>
       </c>
       <c r="H120" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>22:40:51</t>
+          <t>13:27:26</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -7124,7 +7104,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548594108391654145', 'createTime': 1757544051, 'createTimeISO': '2025-09-10T22:40:51.000Z', 'text': 'despidan al de marketing', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6734394246831211525', 'uniqueId': 'j.u.a.n.j.o.s.e.p', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58ac30cb072ab4dc7f07e005b4d28b6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c961ed45&amp;x-expires=1757808000&amp;x-signature=8wCylJujv0UA4fH8%2BOe1uM3n0BU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548451571446416136', 'createTime': 1757510846, 'createTimeISO': '2025-09-10T13:27:26.000Z', 'text': 'a colombia no la está matando la pereza, es la IA', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6875087430781830149', 'uniqueId': 'blaze877469', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/934ceed1d9bdc59f5301969bbbe5e058~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=f828cbe0&amp;x-expires=1758034800&amp;x-signature=bXREgpG6DNWgq6%2FaojkZcPYUnCM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7150,22 +7130,22 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>@꧁𐌙𐌀𐌌🛹💤 q pena disque mera IA😭💔</t>
+          <t>el weso, así es una publi sin na</t>
         </is>
       </c>
       <c r="G121" s="2" t="n">
-        <v>45910.73364583333</v>
+        <v>45910.24642361111</v>
       </c>
       <c r="H121" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>17:36:27</t>
+          <t>05:54:51</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -7180,7 +7160,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548515738944963345', 'createTime': 1757525787, 'createTimeISO': '2025-09-10T17:36:27.000Z', 'text': '@꧁𐌙𐌀𐌌🛹💤 q pena disque mera IA😭💔', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7237956411237532677', 'uniqueId': '_viveconamor_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/659e581584ff147ecd18e76d3c327d77~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1c6c3e2a&amp;x-expires=1757808000&amp;x-signature=flZLVJ0%2Bc%2ByOL78N6RHkDjHGbnQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@꧁𐌙𐌀𐌌🛹💤'], 'detailedMentions': [{'userId': '7299629834715300869', 'nickName': '꧁𐌙𐌀𐌌🛹💤', 'profileUrl': 'https://www.tiktok.com/@7299629834715300869', 'secUid': 'MS4wLjABAAAAYTOQE_0Xv798jcm8OMGDqZvqi1iG5Mn1PrZwRpmfJflIIrkDuDqe9uxpaceTzSMa'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548334934499541776', 'createTime': 1757483691, 'createTimeISO': '2025-09-10T05:54:51.000Z', 'text': 'el weso, así es una publi sin na', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6942668455322174469', 'uniqueId': 'juan_c_r2', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/19e772a61e14a251f29115546b86e6cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=f3d3f75a&amp;x-expires=1758034800&amp;x-signature=01xMdbzvjd9B%2F1j9FBCL%2FbURBf4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7206,22 +7186,22 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
-          <t>😂🥰🥰</t>
+          <t>Es mejor alqueria</t>
         </is>
       </c>
       <c r="G122" s="2" t="n">
-        <v>45910.47209490741</v>
+        <v>45910.50166666666</v>
       </c>
       <c r="H122" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>11:19:49</t>
+          <t>12:02:24</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -7236,7 +7216,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548418670400045832', 'createTime': 1757503189, 'createTimeISO': '2025-09-10T11:19:49.000Z', 'text': '😂🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7369035572960412678', 'uniqueId': 'eider.andrade8', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/5e1e06c74f52f602b31f2609edab4fdd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=666b2868&amp;x-expires=1757808000&amp;x-signature=G8ZGQkH%2FqikJE406wU34wAlmd3Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548429649220207367', 'createTime': 1757505744, 'createTimeISO': '2025-09-10T12:02:24.000Z', 'text': 'Es mejor alqueria', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6957915898419004422', 'uniqueId': 'josecaliz139', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/395344c2e9877ae91bf78e159110c4de~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0c1da4c0&amp;x-expires=1758034800&amp;x-signature=tX7N1bIVHD3QoFjzHejhb8mtsAs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7262,22 +7242,22 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>🥰🥰🥰</t>
+          <t>q bonito ahora sin IA</t>
         </is>
       </c>
       <c r="G123" s="2" t="n">
-        <v>45910.41665509259</v>
+        <v>45910.73746527778</v>
       </c>
       <c r="H123" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>09:59:59</t>
+          <t>17:41:57</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
@@ -7292,7 +7272,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548398096377774869', 'createTime': 1757498399, 'createTimeISO': '2025-09-10T09:59:59.000Z', 'text': '🥰🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7472839683216917505', 'uniqueId': 'vuictormanuelmiran', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c9bbc124&amp;x-expires=1757808000&amp;x-signature=oxGQm6VnA7A3gDi%2B5XHVgh33IpA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548517154850439954', 'createTime': 1757526117, 'createTimeISO': '2025-09-10T17:41:57.000Z', 'text': 'q bonito ahora sin IA', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '91835337861152768', 'uniqueId': 'sartcasm', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7cebab4b25a2acc6945a6b4a38715460~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=f6064a4d&amp;x-expires=1758034800&amp;x-signature=hDarXniJgSSik94haABMbksTP2k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7318,22 +7298,22 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>uy ese parcero disque IA</t>
         </is>
       </c>
       <c r="G124" s="2" t="n">
-        <v>45910.76180555556</v>
+        <v>45910.7854050926</v>
       </c>
       <c r="H124" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>18:17:00</t>
+          <t>18:50:59</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
@@ -7348,7 +7328,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548526181525357332', 'createTime': 1757528220, 'createTimeISO': '2025-09-10T18:17:00.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7430104209989551110', 'uniqueId': 'santy.v8l3k', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/3b25a620ef1dd92aef00176563f330be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1113d7ae&amp;x-expires=1757808000&amp;x-signature=ib7UfcBKC3CFizew4bGW5g8vqlk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548534957166265096', 'createTime': 1757530259, 'createTimeISO': '2025-09-10T18:50:59.000Z', 'text': 'uy ese parcero disque IA', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6883169931102635010', 'uniqueId': 'leehyperrealsgirl', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7458f275b399af94bcd454c5deae5bff~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0e97f90d&amp;x-expires=1758034800&amp;x-signature=v2xXHrJ%2F0iAPyrQkCekSZBETrls%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7374,22 +7354,22 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>Le pongo mas ia??? R. Pongale que no quiero pagarle a una productora</t>
         </is>
       </c>
       <c r="G125" s="2" t="n">
-        <v>45910.74351851852</v>
+        <v>45910.99215277778</v>
       </c>
       <c r="H125" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>17:50:40</t>
+          <t>23:48:42</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
@@ -7404,7 +7384,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519407975580424', 'createTime': 1757526640, 'createTimeISO': '2025-09-10T17:50:40.000Z', 'text': 'IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7250540284282160133', 'uniqueId': 'yisusplay28', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8b07ce888000f6f56b9b50bc036a95e5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9bee6c06&amp;x-expires=1757808000&amp;x-signature=XQcA%2FR%2B5bFqTzURBmd4%2BUcp1bsY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548611642658784006', 'createTime': 1757548122, 'createTimeISO': '2025-09-10T23:48:42.000Z', 'text': 'Le pongo mas ia??? R. Pongale que no quiero pagarle a una productora', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765670494865998854', 'uniqueId': 'tangoplay_', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/409f39217ab640e340f6fceb506be4f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6f067351&amp;x-expires=1758034800&amp;x-signature=qrNABMm07PzsOu9Zamy5rQ6%2B9T8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7430,18 +7410,18 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>La mierda va en la taza</t>
+          <t>cuidado y pagan a artistas reales</t>
         </is>
       </c>
       <c r="G126" s="2" t="n">
-        <v>45911.62543981482</v>
+        <v>45910.90982638889</v>
       </c>
       <c r="H126" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>15:00:38</t>
+          <t>21:50:09</t>
         </is>
       </c>
       <c r="J126" t="n">
@@ -7460,7 +7440,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548846657108443911', 'createTime': 1757602838, 'createTimeISO': '2025-09-11T15:00:38.000Z', 'text': 'La mierda va en la taza', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6774496447285412870', 'uniqueId': 'molinota', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/670b41104e70d37ed8acb60940435869~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7d00df3a&amp;x-expires=1757808000&amp;x-signature=b6OeANe%2Fe8nCQnAFLkm3ZaQeghk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548581080547394311', 'createTime': 1757541009, 'createTimeISO': '2025-09-10T21:50:09.000Z', 'text': 'cuidado y pagan a artistas reales', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7301817359547515909', 'uniqueId': 'wills_montejo', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/ce3fdd30bb70d0861dcac2c310e4eaf6~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=012762ce&amp;x-expires=1758034800&amp;x-signature=fpAeSoWRyRue%2FE0ZjAafyPkphNE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7486,22 +7466,22 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>COMO AVANZA LA IA</t>
+          <t>Nooooo pórtense serios, contraten diseñadores no sean tan amarrados</t>
         </is>
       </c>
       <c r="G127" s="2" t="n">
-        <v>45910.93607638889</v>
+        <v>45910.7419212963</v>
       </c>
       <c r="H127" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>22:27:57</t>
+          <t>17:48:22</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -7516,7 +7496,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548590811282916114', 'createTime': 1757543277, 'createTimeISO': '2025-09-10T22:27:57.000Z', 'text': 'COMO AVANZA LA IA', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7526279297532675079', 'uniqueId': 'rangel_2267', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/1217a52a81235c0e0402577f5e40b402~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=58cfe6b9&amp;x-expires=1757808000&amp;x-signature=Yim40FhJ93FR%2FVBFRJdvzpXly4Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548518799903081223', 'createTime': 1757526502, 'createTimeISO': '2025-09-10T17:48:22.000Z', 'text': 'Nooooo pórtense serios, contraten diseñadores no sean tan amarrados', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7394159598977188870', 'uniqueId': 'issaa.torres', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/39861d707eb3bda640d2afce7ce86953~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e2e5d7d0&amp;x-expires=1758034800&amp;x-signature=MyG0R%2FbUPuc9tpPRhRR2Ee%2FtqW8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7542,22 +7522,22 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>que oso alpina usando ia en su publicidad</t>
+          <t>definitivamente la publicidad con IA no tiene alma ni llama la atención</t>
         </is>
       </c>
       <c r="G128" s="2" t="n">
-        <v>45910.79826388889</v>
+        <v>45910.97509259259</v>
       </c>
       <c r="H128" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>19:09:30</t>
+          <t>23:24:08</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
@@ -7572,7 +7552,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548539685108761352', 'createTime': 1757531370, 'createTimeISO': '2025-09-10T19:09:30.000Z', 'text': 'que oso alpina usando ia en su publicidad', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6854674077765862405', 'uniqueId': '_camilit0', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/c3cbe6b25eddd9382f0d58a4110e58cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9bfa1f34&amp;x-expires=1757808000&amp;x-signature=E4Glq5V%2BDSIDyjLCJXBoSbgbAaw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548605246874190610', 'createTime': 1757546648, 'createTimeISO': '2025-09-10T23:24:08.000Z', 'text': 'definitivamente la publicidad con IA no tiene alma ni llama la atención', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6902015860971193346', 'uniqueId': 'amatzuky_0312', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/b73eadb409e0ce22a08837c1f0c6758d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e684953b&amp;x-expires=1758034800&amp;x-signature=QynKHSaa7ZxOLIjB1CNsxTKpEGQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7598,25 +7578,25 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>re chichipatos sin palabras, tanto presupuesto q tienen y no les importa la audiencia</t>
+          <t>hay pruebas gratis jijiji jejejej</t>
         </is>
       </c>
       <c r="G129" s="2" t="n">
-        <v>45910.78987268519</v>
+        <v>45910.94831018519</v>
       </c>
       <c r="H129" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>18:57:25</t>
+          <t>22:45:34</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129" t="b">
         <v>0</v>
@@ -7628,7 +7608,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548536605892903687', 'createTime': 1757530645, 'createTimeISO': '2025-09-10T18:57:25.000Z', 'text': 're chichipatos sin palabras, tanto presupuesto q tienen y no les importa la audiencia', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7035117021750723589', 'uniqueId': 'arch_k2', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7db4771fe12c73712718d55c221a9979~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f7b4686b&amp;x-expires=1757808000&amp;x-signature=sUGiWhfYF1npRwCFWfVPoo1C5VE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548595324433875720', 'createTime': 1757544334, 'createTimeISO': '2025-09-10T22:45:34.000Z', 'text': 'hay pruebas gratis jijiji jejejej', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6969369057540719617', 'uniqueId': 'amdusias999', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d4c9a0e2af6e876557d88d79b1284973~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6d919174&amp;x-expires=1758034800&amp;x-signature=V7QYD37BhFUUtUh2nR0pzwZ9G%2BA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7654,22 +7634,22 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>ustedes forrados en plata y prefieren hacer publicidad con ia? estamos es jodidos</t>
+          <t>uy no mano esto es IA</t>
         </is>
       </c>
       <c r="G130" s="2" t="n">
-        <v>45910.8642824074</v>
+        <v>45910.87856481481</v>
       </c>
       <c r="H130" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>20:44:34</t>
+          <t>21:05:08</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
@@ -7684,7 +7664,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548564169508815623', 'createTime': 1757537074, 'createTimeISO': '2025-09-10T20:44:34.000Z', 'text': 'ustedes forrados en plata y prefieren hacer publicidad con ia? estamos es jodidos', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '227302901138952192', 'uniqueId': 'lisaschrodinger1', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ab0975f09a83bbff7389939fd1aa033e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3a9bfd55&amp;x-expires=1757808000&amp;x-signature=dWzVdul%2FAy%2FeRFTn%2B1pb4Wa4jlA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548569460703232788', 'createTime': 1757538308, 'createTimeISO': '2025-09-10T21:05:08.000Z', 'text': 'uy no mano esto es IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541048017211442184', 'uniqueId': 'silly.autistic_.b4t', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d8210387ca524e454dc483d610bf9c0f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c6220aea&amp;x-expires=1758034800&amp;x-signature=UGVKpMYchn6G%2B4Dis0YJFzU9QBw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7710,18 +7690,18 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Alpina 80 años embutiendo azúcar</t>
+          <t>despidan al de marketing</t>
         </is>
       </c>
       <c r="G131" s="2" t="n">
-        <v>45910.79078703704</v>
+        <v>45910.94503472222</v>
       </c>
       <c r="H131" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>18:58:44</t>
+          <t>22:40:51</t>
         </is>
       </c>
       <c r="J131" t="n">
@@ -7740,7 +7720,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548536942431322896', 'createTime': 1757530724, 'createTimeISO': '2025-09-10T18:58:44.000Z', 'text': 'Alpina 80 años embutiendo azúcar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7075502275905307654', 'uniqueId': 'fernandozuluaga30', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a7280e43e25393eff81b5d69b567aead~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4c6280be&amp;x-expires=1757808000&amp;x-signature=GkOIqaocEjGaC%2F%2F1fXADu7AnDWA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548594108391654145', 'createTime': 1757544051, 'createTimeISO': '2025-09-10T22:40:51.000Z', 'text': 'despidan al de marketing', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6734394246831211525', 'uniqueId': 'j.u.a.n.j.o.s.e.p', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58ac30cb072ab4dc7f07e005b4d28b6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ee534772&amp;x-expires=1758034800&amp;x-signature=tgYZtCtuIf9NHoMYYpMVVU5M9h0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7766,22 +7746,22 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>qué asco, se me antojo mejor comprar productos de Alquería</t>
+          <t>@꧁𐌙𐌀𐌌🛹💤 q pena disque mera IA😭💔</t>
         </is>
       </c>
       <c r="G132" s="2" t="n">
-        <v>45911.01805555556</v>
+        <v>45910.73364583333</v>
       </c>
       <c r="H132" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>17:36:27</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -7796,7 +7776,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548621218876031764', 'createTime': 1757550360, 'createTimeISO': '2025-09-11T00:26:00.000Z', 'text': 'qué asco, se me antojo mejor comprar productos de Alquería', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959343841239254021', 'uniqueId': 'nolesealtiktok1', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/daaf0bea50ae18b7baeb7056dbb7d72e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ee508a16&amp;x-expires=1757808000&amp;x-signature=68iIhrNcCHmzy04Y53qCeJjxbBU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548515738944963345', 'createTime': 1757525787, 'createTimeISO': '2025-09-10T17:36:27.000Z', 'text': '@꧁𐌙𐌀𐌌🛹💤 q pena disque mera IA😭💔', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7237956411237532677', 'uniqueId': '_viveconamor_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/659e581584ff147ecd18e76d3c327d77~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=78899e78&amp;x-expires=1758034800&amp;x-signature=wSZFcX%2B%2BCfhOKRF9OEXe6YgG9fQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@꧁𐌙𐌀𐌌🛹💤'], 'detailedMentions': [{'userId': '7299629834715300869', 'nickName': '꧁𐌙𐌀𐌌🛹💤', 'profileUrl': 'https://www.tiktok.com/@7299629834715300869', 'secUid': 'MS4wLjABAAAAYTOQE_0Xv798jcm8OMGDqZvqi1iG5Mn1PrZwRpmfJflIIrkDuDqe9uxpaceTzSMa'}]}</t>
         </is>
       </c>
     </row>
@@ -7822,22 +7802,22 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Podrán ocultar 3.000 comentarios y seguiran recibiendo mas comentarios de hate por usar ia y no pagar un comercial decente</t>
+          <t>😂🥰🥰</t>
         </is>
       </c>
       <c r="G133" s="2" t="n">
-        <v>45910.99325231482</v>
+        <v>45910.47209490741</v>
       </c>
       <c r="H133" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>23:50:17</t>
+          <t>11:19:49</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
@@ -7852,7 +7832,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548612049145611013', 'createTime': 1757548217, 'createTimeISO': '2025-09-10T23:50:17.000Z', 'text': 'Podrán ocultar 3.000 comentarios y seguiran recibiendo mas comentarios de hate por usar ia y no pagar un comercial decente', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765670494865998854', 'uniqueId': 'tangoplay_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/409f39217ab640e340f6fceb506be4f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6e492f68&amp;x-expires=1757808000&amp;x-signature=6clLpgADg8DbopdtQlSAzurW4Q4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548418670400045832', 'createTime': 1757503189, 'createTimeISO': '2025-09-10T11:19:49.000Z', 'text': '😂🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7369035572960412678', 'uniqueId': 'eider.andrade8', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/5e1e06c74f52f602b31f2609edab4fdd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=83961fea&amp;x-expires=1758034800&amp;x-signature=dsNb6wLcT20uubZTi7oQ369rpoc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7878,18 +7858,18 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>la IA es un riesgo reputacional</t>
+          <t>🥰🥰🥰</t>
         </is>
       </c>
       <c r="G134" s="2" t="n">
-        <v>45910.72884259259</v>
+        <v>45910.41665509259</v>
       </c>
       <c r="H134" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>17:29:32</t>
+          <t>09:59:59</t>
         </is>
       </c>
       <c r="J134" t="n">
@@ -7908,7 +7888,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548513969955177234', 'createTime': 1757525372, 'createTimeISO': '2025-09-10T17:29:32.000Z', 'text': 'la IA es un riesgo reputacional', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6952613095761232901', 'uniqueId': 'mikahvlogsyvainas', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/312fe242f8ec4030f33476fcc826cb2a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e1981ee7&amp;x-expires=1757808000&amp;x-signature=o6sS3vvRqyicUP3Xa0RMn9aQc7c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548398096377774869', 'createTime': 1757498399, 'createTimeISO': '2025-09-10T09:59:59.000Z', 'text': '🥰🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7472839683216917505', 'uniqueId': 'vuictormanuelmiran', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a3dfe747&amp;x-expires=1758034800&amp;x-signature=teA4SOxYpw5ZyVTwLc8TYTVhmGY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7934,18 +7914,18 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>No usen mas ia, ni que no tuvieran pa contratar un artista</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G135" s="2" t="n">
-        <v>45911.07997685186</v>
+        <v>45910.76180555556</v>
       </c>
       <c r="H135" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>01:55:10</t>
+          <t>18:17:00</t>
         </is>
       </c>
       <c r="J135" t="n">
@@ -7964,7 +7944,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548644253654024967', 'createTime': 1757555710, 'createTimeISO': '2025-09-11T01:55:10.000Z', 'text': 'No usen mas ia, ni que no tuvieran pa contratar un artista', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157796127009653766', 'uniqueId': 'lmsplvd', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/6653e38ef36c04d8d8bef2841fdcef65~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9435607d&amp;x-expires=1757808000&amp;x-signature=TgpRaosD4UBoI36Q5gWGH71FtJQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548526181525357332', 'createTime': 1757528220, 'createTimeISO': '2025-09-10T18:17:00.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7430104209989551110', 'uniqueId': 'santy.v8l3k', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/3b25a620ef1dd92aef00176563f330be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=29e18914&amp;x-expires=1758034800&amp;x-signature=BSnuQQLhbW7kDbtNcYYCFYSRd7Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7990,22 +7970,22 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Ya me imagino a los jefazos de Alpina diciendo; “Metele IA, que eso le gusta a la chaviza”, T_T no se puede estar más desconectado de tu audiencia, y lo uncanny que se ven estos ads, la verdad</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="G136" s="2" t="n">
-        <v>45910.39724537037</v>
+        <v>45910.74351851852</v>
       </c>
       <c r="H136" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>09:32:02</t>
+          <t>17:50:40</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K136" t="n">
         <v>0</v>
@@ -8020,7 +8000,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548390911198823189', 'createTime': 1757496722, 'createTimeISO': '2025-09-10T09:32:02.000Z', 'text': 'Ya me imagino a los jefazos de Alpina diciendo; “Metele IA, que eso le gusta a la chaviza”, T_T no se puede estar más desconectado de tu audiencia, y lo uncanny que se ven estos ads, la verdad', 'diggCount': 23, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7125833323087381510', 'uniqueId': 'galaxia_0', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f8a648e2cc961d9b94e3d701ffe1aa66~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=aa777c0c&amp;x-expires=1757808000&amp;x-signature=ww5JiVyEVuVUg1lKiJpsTDkD540%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519407975580424', 'createTime': 1757526640, 'createTimeISO': '2025-09-10T17:50:40.000Z', 'text': 'IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7250540284282160133', 'uniqueId': 'yisusplay28', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8b07ce888000f6f56b9b50bc036a95e5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=31293f08&amp;x-expires=1758034800&amp;x-signature=K8QdNntCa10vuB22%2FmECRuT0S4k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8046,22 +8026,22 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Es mejor alqueria</t>
+          <t>La mierda va en la taza</t>
         </is>
       </c>
       <c r="G137" s="2" t="n">
-        <v>45910.50166666666</v>
+        <v>45911.62543981482</v>
       </c>
       <c r="H137" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>12:02:24</t>
+          <t>15:00:38</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K137" t="n">
         <v>0</v>
@@ -8076,13 +8056,13 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548429649220207367', 'createTime': 1757505744, 'createTimeISO': '2025-09-10T12:02:24.000Z', 'text': 'Es mejor alqueria', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6957915898419004422', 'uniqueId': 'josecaliz139', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/395344c2e9877ae91bf78e159110c4de~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=4c436dda&amp;x-expires=1757808000&amp;x-signature=mM2iZ9LPx6eN94BkUdozTnKxKYc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548846657108443911', 'createTime': 1757602838, 'createTimeISO': '2025-09-11T15:00:38.000Z', 'text': 'La mierda va en la taza', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6774496447285412870', 'uniqueId': 'molinota', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/670b41104e70d37ed8acb60940435869~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=41115901&amp;x-expires=1758034800&amp;x-signature=juQ8D%2BUwNAzQvYSmGD1vvT3sY6Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -8096,28 +8076,28 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490?_r=1&amp;_t=ZS-8zeO9hmWXF2</t>
+          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>😂😂😂</t>
+          <t>COMO AVANZA LA IA</t>
         </is>
       </c>
       <c r="G138" s="2" t="n">
-        <v>45912.9568287037</v>
+        <v>45910.93607638889</v>
       </c>
       <c r="H138" s="3" t="n">
-        <v>45912</v>
+        <v>45910</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>22:57:50</t>
+          <t>22:27:57</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K138" t="n">
         <v>0</v>
@@ -8132,13 +8112,13 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548918352757001490', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'cid': '7549340703403344658', 'createTime': 1757717870, 'createTimeISO': '2025-09-12T22:57:50.000Z', 'text': '😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7328476897858798597', 'uniqueId': 'oscar.escorche', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/3b7930daf0df3da7427cd2c1c186c680~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a87fd55e&amp;x-expires=1757808000&amp;x-signature=aXS75JcfDc8UBk8K9ERAQDYvtfQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548590811282916114', 'createTime': 1757543277, 'createTimeISO': '2025-09-10T22:27:57.000Z', 'text': 'COMO AVANZA LA IA', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7526279297532675079', 'uniqueId': 'daniel_rangel_226', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/610137ad20d9caaf45d80acbf209e2d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7dc7633a&amp;x-expires=1758034800&amp;x-signature=7gqft9Kg7qQw39l28nWk8XFz6bI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -8152,28 +8132,28 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346?_r=1&amp;_t=ZS-8zeOAge5FPm</t>
+          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>jaaaa yo fui igual mis padres tambien tenían una tienda🤣</t>
+          <t>que oso alpina usando ia en su publicidad</t>
         </is>
       </c>
       <c r="G139" s="2" t="n">
-        <v>45911.8071412037</v>
+        <v>45910.79826388889</v>
       </c>
       <c r="H139" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>19:22:17</t>
+          <t>19:09:30</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
@@ -8188,13 +8168,13 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890366343171346', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346', 'cid': '7548914095299494663', 'createTime': 1757618537, 'createTimeISO': '2025-09-11T19:22:17.000Z', 'text': 'jaaaa yo fui igual mis padres tambien tenían una tienda🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541075771877573638', 'uniqueId': 'nancyfula5', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7a534c9ddae5fc04e653b04994a642fe~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ffb285f0&amp;x-expires=1757808000&amp;x-signature=UTSX4O85OZZra%2F75B0gswQWPgEg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548539685108761352', 'createTime': 1757531370, 'createTimeISO': '2025-09-10T19:09:30.000Z', 'text': 'que oso alpina usando ia en su publicidad', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6854674077765862405', 'uniqueId': '_camilit0', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/c3cbe6b25eddd9382f0d58a4110e58cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=62212cf2&amp;x-expires=1758034800&amp;x-signature=Yzw%2BaayczLRaptuY%2FzKQTv3gt3M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -8208,31 +8188,31 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591?_r=1&amp;_t=ZS-8zeOBRN6iBE</t>
+          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>cuando no le echaban 💧🔫 agua😁😁😁</t>
+          <t>re chichipatos sin palabras, tanto presupuesto q tienen y no les importa la audiencia</t>
         </is>
       </c>
       <c r="G140" s="2" t="n">
-        <v>45911.9050462963</v>
+        <v>45910.78987268519</v>
       </c>
       <c r="H140" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>21:43:16</t>
+          <t>18:57:25</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140" t="b">
         <v>0</v>
@@ -8244,13 +8224,13 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890371032419591', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'cid': '7548950376810005266', 'createTime': 1757626996, 'createTimeISO': '2025-09-11T21:43:16.000Z', 'text': 'cuando no le echaban 💧🔫 agua😁😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352620795581121541', 'uniqueId': 'berni8553', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/db334debe59ecc7ed516818d0130fb32~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0649bfcb&amp;x-expires=1757808000&amp;x-signature=jHqzzT8KNsLQ6POGvD%2FO2yBGYzg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548536605892903687', 'createTime': 1757530645, 'createTimeISO': '2025-09-10T18:57:25.000Z', 'text': 're chichipatos sin palabras, tanto presupuesto q tienen y no les importa la audiencia', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7035117021750723589', 'uniqueId': 'arch_k2', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7db4771fe12c73712718d55c221a9979~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b6a86d55&amp;x-expires=1758034800&amp;x-signature=5HPTsUqjoZa7dfxsd4qDiwoA%2F9c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -8264,28 +8244,28 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401?_r=1&amp;_t=ZS-8zeOEQFvD1j</t>
+          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>tantos animadores por favor</t>
+          <t>ustedes forrados en plata y prefieren hacer publicidad con ia? estamos es jodidos</t>
         </is>
       </c>
       <c r="G141" s="2" t="n">
-        <v>45911.71037037037</v>
+        <v>45910.8642824074</v>
       </c>
       <c r="H141" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>17:02:56</t>
+          <t>20:44:34</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K141" t="n">
         <v>0</v>
@@ -8300,13 +8280,13 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548878181538693909', 'createTime': 1757610176, 'createTimeISO': '2025-09-11T17:02:56.000Z', 'text': 'tantos animadores por favor', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7110768307757679622', 'uniqueId': 'marveliver11', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7110768834667249670~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ded0e062&amp;x-expires=1757808000&amp;x-signature=bCHy7C0ShGS8iFTcGUQFyMa4qzo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548564169508815623', 'createTime': 1757537074, 'createTimeISO': '2025-09-10T20:44:34.000Z', 'text': 'ustedes forrados en plata y prefieren hacer publicidad con ia? estamos es jodidos', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '227302901138952192', 'uniqueId': 'lisaschrodinger1', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ab0975f09a83bbff7389939fd1aa033e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fd89ef90&amp;x-expires=1758034800&amp;x-signature=ffj553sUGvMTkDkDJfW6ZkZuTfA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -8320,28 +8300,28 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401?_r=1&amp;_t=ZS-8zeOEQFvD1j</t>
+          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>ya no se esfuerzan no😂😂😂</t>
+          <t>Alpina 80 años embutiendo azúcar</t>
         </is>
       </c>
       <c r="G142" s="2" t="n">
-        <v>45911.70621527778</v>
+        <v>45910.79078703704</v>
       </c>
       <c r="H142" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>16:56:57</t>
+          <t>18:58:44</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K142" t="n">
         <v>0</v>
@@ -8356,13 +8336,13 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548876641469825793', 'createTime': 1757609817, 'createTimeISO': '2025-09-11T16:56:57.000Z', 'text': 'ya no se esfuerzan no😂😂😂', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7436936124830139448', 'uniqueId': 'killerof.killers', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/8764645bd2eb0906b859cf55866541ec~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f6be7315&amp;x-expires=1757808000&amp;x-signature=4xp9sBgBMADPKhtqC2%2FvYPKBp0w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548536942431322896', 'createTime': 1757530724, 'createTimeISO': '2025-09-10T18:58:44.000Z', 'text': 'Alpina 80 años embutiendo azúcar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7075502275905307654', 'uniqueId': 'fernandozuluaga30', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a7280e43e25393eff81b5d69b567aead~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f8a2f048&amp;x-expires=1758034800&amp;x-signature=jo%2F3T2OHFhn4vOkQ%2Bz6o0uy%2F2W8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -8376,24 +8356,24 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401?_r=1&amp;_t=ZS-8zeOEQFvD1j</t>
+          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>No usen mas ia, ni que no tuvieran pa contratar un artista</t>
         </is>
       </c>
       <c r="G143" s="2" t="n">
-        <v>45911.71685185185</v>
+        <v>45911.07997685186</v>
       </c>
       <c r="H143" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>17:12:16</t>
+          <t>01:55:10</t>
         </is>
       </c>
       <c r="J143" t="n">
@@ -8412,13 +8392,13 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548880586518938375', 'createTime': 1757610736, 'createTimeISO': '2025-09-11T17:12:16.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7448332016402236421', 'uniqueId': 'mazo54381', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/1ddeec96484b7529b6bd78e8b8d4c343~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=102674a6&amp;x-expires=1757808000&amp;x-signature=sep%2FwSOo9TuGiw7uTIhXM5E8cUo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548644253654024967', 'createTime': 1757555710, 'createTimeISO': '2025-09-11T01:55:10.000Z', 'text': 'No usen mas ia, ni que no tuvieran pa contratar un artista', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157796127009653766', 'uniqueId': 'lmsplvd', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/6653e38ef36c04d8d8bef2841fdcef65~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8998c198&amp;x-expires=1758034800&amp;x-signature=69eptcnH84JaUVvFCjXl%2FyhYgo8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -8432,43 +8412,1163 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401?_r=1&amp;_t=ZS-8zeOEQFvD1j</t>
+          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
+          <t>qué asco, se me antojo mejor comprar productos de Alquería</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>45911.01805555556</v>
+      </c>
+      <c r="H144" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>00:26:00</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548621218876031764', 'createTime': 1757550360, 'createTimeISO': '2025-09-11T00:26:00.000Z', 'text': 'qué asco, se me antojo mejor comprar productos de Alquería', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959343841239254021', 'uniqueId': 'nolesealtiktok1', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/daaf0bea50ae18b7baeb7056dbb7d72e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=413cab9b&amp;x-expires=1758034800&amp;x-signature=s%2B3Gk1XzEAOx0LFI7S%2FmG%2BxPEDc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>7</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Podrán ocultar 3.000 comentarios y seguiran recibiendo mas comentarios de hate por usar ia y no pagar un comercial decente</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>45910.99325231482</v>
+      </c>
+      <c r="H145" s="3" t="n">
+        <v>45910</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>23:50:17</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="b">
+        <v>0</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548612049145611013', 'createTime': 1757548217, 'createTimeISO': '2025-09-10T23:50:17.000Z', 'text': 'Podrán ocultar 3.000 comentarios y seguiran recibiendo mas comentarios de hate por usar ia y no pagar un comercial decente', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765670494865998854', 'uniqueId': 'tangoplay_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/409f39217ab640e340f6fceb506be4f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8f1c2343&amp;x-expires=1758034800&amp;x-signature=rkzyA5LtUEr2QptOkR1JcjQVPow%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>7</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>la IA es un riesgo reputacional</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>45910.72884259259</v>
+      </c>
+      <c r="H146" s="3" t="n">
+        <v>45910</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>17:29:32</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="b">
+        <v>0</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548513969955177234', 'createTime': 1757525372, 'createTimeISO': '2025-09-10T17:29:32.000Z', 'text': 'la IA es un riesgo reputacional', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6952613095761232901', 'uniqueId': 'mikahvlogsyvainas', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/312fe242f8ec4030f33476fcc826cb2a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ce0e798b&amp;x-expires=1758034800&amp;x-signature=uYlDq7PDK4ZiGKo3YAqq08AAg%2F8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>7</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Ya me imagino a los jefazos de Alpina diciendo; “Metele IA, que eso le gusta a la chaviza”, T_T no se puede estar más desconectado de tu audiencia, y lo uncanny que se ven estos ads, la verdad</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="n">
+        <v>45910.39724537037</v>
+      </c>
+      <c r="H147" s="3" t="n">
+        <v>45910</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>09:32:02</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>23</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="b">
+        <v>0</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548390911198823189', 'createTime': 1757496722, 'createTimeISO': '2025-09-10T09:32:02.000Z', 'text': 'Ya me imagino a los jefazos de Alpina diciendo; “Metele IA, que eso le gusta a la chaviza”, T_T no se puede estar más desconectado de tu audiencia, y lo uncanny que se ven estos ads, la verdad', 'diggCount': 23, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7125833323087381510', 'uniqueId': 'galaxia_0', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f8a648e2cc961d9b94e3d701ffe1aa66~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=2a795574&amp;x-expires=1758034800&amp;x-signature=0fNbdO0USdwN%2BcWHMZB8L4EItvs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>8</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490?_r=1&amp;_t=ZS-8zeO9hmWXF2</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>jajajaa sos 😂😂😂😂</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>45914.95876157407</v>
+      </c>
+      <c r="H148" s="3" t="n">
+        <v>45914</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>23:00:37</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>2</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="b">
+        <v>0</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548918352757001490', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'cid': '7550083506242011922', 'createTime': 1757890837, 'createTimeISO': '2025-09-14T23:00:37.000Z', 'text': 'jajajaa sos 😂😂😂😂', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808353821459350534', 'uniqueId': 'kathemia1002', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/74284c3455ff47a191f0cbc0236da720~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f713868&amp;x-expires=1758034800&amp;x-signature=1auaVclzRo%2B6Vr0NlDhS5obluGw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>8</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490?_r=1&amp;_t=ZS-8zeO9hmWXF2</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>jajaaj yop</t>
+        </is>
+      </c>
+      <c r="G149" s="2" t="n">
+        <v>45913.97104166666</v>
+      </c>
+      <c r="H149" s="3" t="n">
+        <v>45913</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>23:18:18</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="b">
+        <v>0</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548918352757001490', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'cid': '7549717031286391559', 'createTime': 1757805498, 'createTimeISO': '2025-09-13T23:18:18.000Z', 'text': 'jajaaj yop', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7420988758155215877', 'uniqueId': 'user2246175873177', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/2811ccc140fb3cd185a5c4fb60426848~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=053abd53&amp;x-expires=1758034800&amp;x-signature=Y4GmFj4Q3e9q%2FtN3YDItjsJO6IA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>8</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490?_r=1&amp;_t=ZS-8zeO9hmWXF2</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>esoo monetizando 🥰🥰</t>
+        </is>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>45913.0119675926</v>
+      </c>
+      <c r="H150" s="3" t="n">
+        <v>45913</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>00:17:14</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="b">
+        <v>0</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548918352757001490', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'cid': '7549361161436119826', 'createTime': 1757722634, 'createTimeISO': '2025-09-13T00:17:14.000Z', 'text': 'esoo monetizando 🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6820139902073979909', 'uniqueId': 'nhora_maty', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/da744a8e23fbc21641340ce09688ae8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=521f9ab9&amp;x-expires=1758034800&amp;x-signature=sBBpCE7zjP3XVw1pHJG3nFj1E8s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>8</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490?_r=1&amp;_t=ZS-8zeO9hmWXF2</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Jajjaa 😂😂😂😂😂</t>
+        </is>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>45914.98524305555</v>
+      </c>
+      <c r="H151" s="3" t="n">
+        <v>45914</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>23:38:45</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="b">
+        <v>0</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548918352757001490', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'cid': '7550093261051740945', 'createTime': 1757893125, 'createTimeISO': '2025-09-14T23:38:45.000Z', 'text': 'Jajjaa 😂😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6960784199813186565', 'uniqueId': 'alisonsolarte845', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/b3712a9a491d5e130a9ca10b9476dd87~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a79dd687&amp;x-expires=1758034800&amp;x-signature=0D6rYO4qmPgrTLgpUT1Hqd%2BA4TE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>8</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490?_r=1&amp;_t=ZS-8zeO9hmWXF2</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>😂😂😂</t>
+        </is>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>45912.9568287037</v>
+      </c>
+      <c r="H152" s="3" t="n">
+        <v>45912</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>22:57:50</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="b">
+        <v>0</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548918352757001490', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'cid': '7549340703403344658', 'createTime': 1757717870, 'createTimeISO': '2025-09-12T22:57:50.000Z', 'text': '😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7328476897858798597', 'uniqueId': 'oscar.escorche', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/3b7930daf0df3da7427cd2c1c186c680~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=74bd2e92&amp;x-expires=1758034800&amp;x-signature=0F0Jzj6QGeHm6SreXZbuEPIc9qs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>9</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346?_r=1&amp;_t=ZS-8zeOAge5FPm</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>jaaaa yo fui igual mis padres tambien tenían una tienda🤣</t>
+        </is>
+      </c>
+      <c r="G153" s="2" t="n">
+        <v>45911.8071412037</v>
+      </c>
+      <c r="H153" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>19:22:17</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="b">
+        <v>0</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890366343171346', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346', 'cid': '7548914095299494663', 'createTime': 1757618537, 'createTimeISO': '2025-09-11T19:22:17.000Z', 'text': 'jaaaa yo fui igual mis padres tambien tenían una tienda🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541075771877573638', 'uniqueId': 'nancyfula5', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7a534c9ddae5fc04e653b04994a642fe~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3a7d075d&amp;x-expires=1758034800&amp;x-signature=CgBao5I%2Fz1BmTJEwU5X33a0YYcs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>10</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591?_r=1&amp;_t=ZS-8zeOBRN6iBE</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>yo cierro los ojos y me vengo</t>
+        </is>
+      </c>
+      <c r="G154" s="2" t="n">
+        <v>45914.78924768518</v>
+      </c>
+      <c r="H154" s="3" t="n">
+        <v>45914</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>18:56:31</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="b">
+        <v>0</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890371032419591', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'cid': '7550020648061551361', 'createTime': 1757876191, 'createTimeISO': '2025-09-14T18:56:31.000Z', 'text': 'yo cierro los ojos y me vengo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6828690858185016326', 'uniqueId': 'vicmego', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a3f6d3cab6b502f0343090cefbb705d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bf3cac6c&amp;x-expires=1758034800&amp;x-signature=ocRpVlZwc8CeZuvgLiMsTFYM%2Bbg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>10</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591?_r=1&amp;_t=ZS-8zeOBRN6iBE</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Amo a don javi 🥰</t>
+        </is>
+      </c>
+      <c r="G155" s="2" t="n">
+        <v>45915.19373842593</v>
+      </c>
+      <c r="H155" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>04:38:59</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="b">
+        <v>0</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890371032419591', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'cid': '7550170816676446994', 'createTime': 1757911139, 'createTimeISO': '2025-09-15T04:38:59.000Z', 'text': 'Amo a don javi 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808328867154756613', 'uniqueId': 'ailyngallegovera', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7336229818985512965~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3813f38b&amp;x-expires=1758034800&amp;x-signature=MoOiupb6GV5XOv2i2GHdDA2bnVQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>10</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591?_r=1&amp;_t=ZS-8zeOBRN6iBE</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>uuuuuy que le paso a luis Alberto posada😁😁😁</t>
+        </is>
+      </c>
+      <c r="G156" s="2" t="n">
+        <v>45915.45001157407</v>
+      </c>
+      <c r="H156" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>10:48:01</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="b">
+        <v>0</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890371032419591', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'cid': '7550265925740675847', 'createTime': 1757933281, 'createTimeISO': '2025-09-15T10:48:01.000Z', 'text': 'uuuuuy que le paso a luis Alberto posada😁😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7294230742023275525', 'uniqueId': 'dimer534', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/58a9e0e23c05e9927aef18ede54e2fad~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e6237167&amp;x-expires=1758034800&amp;x-signature=80cBJzvhkn0ivAEj8QY%2F0Ok0s2w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>10</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591?_r=1&amp;_t=ZS-8zeOBRN6iBE</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>cuando no le echaban 💧🔫 agua😁😁😁</t>
+        </is>
+      </c>
+      <c r="G157" s="2" t="n">
+        <v>45911.9050462963</v>
+      </c>
+      <c r="H157" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>21:43:16</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="b">
+        <v>0</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890371032419591', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'cid': '7548950376810005266', 'createTime': 1757626996, 'createTimeISO': '2025-09-11T21:43:16.000Z', 'text': 'cuando no le echaban 💧🔫 agua😁😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352620795581121541', 'uniqueId': 'berni8553', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/db334debe59ecc7ed516818d0130fb32~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=de2f377e&amp;x-expires=1758034800&amp;x-signature=lQ%2BgJCcY%2F%2FWqZw7UJHGkmLEj%2FNw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>11</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401?_r=1&amp;_t=ZS-8zeOEQFvD1j</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>tantos animadores por favor</t>
+        </is>
+      </c>
+      <c r="G158" s="2" t="n">
+        <v>45911.71037037037</v>
+      </c>
+      <c r="H158" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>17:02:56</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>12</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="b">
+        <v>0</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548878181538693909', 'createTime': 1757610176, 'createTimeISO': '2025-09-11T17:02:56.000Z', 'text': 'tantos animadores por favor', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7110768307757679622', 'uniqueId': 'marveliver11', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7110768834667249670~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b9a098a1&amp;x-expires=1758034800&amp;x-signature=2boz%2FvvVsyhIUaveg8hbBE%2BUctQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>11</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401?_r=1&amp;_t=ZS-8zeOEQFvD1j</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>ya no se esfuerzan no😂😂😂</t>
+        </is>
+      </c>
+      <c r="G159" s="2" t="n">
+        <v>45911.70621527778</v>
+      </c>
+      <c r="H159" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>16:56:57</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>4</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="b">
+        <v>0</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548876641469825793', 'createTime': 1757609817, 'createTimeISO': '2025-09-11T16:56:57.000Z', 'text': 'ya no se esfuerzan no😂😂😂', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7436936124830139448', 'uniqueId': 'killerof.killers', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/8764645bd2eb0906b859cf55866541ec~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bc715422&amp;x-expires=1758034800&amp;x-signature=1LHuvI0lj0q0xcHWDkq5eK7uE6g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>11</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401?_r=1&amp;_t=ZS-8zeOEQFvD1j</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Mejor nada</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="n">
+        <v>45914.07890046296</v>
+      </c>
+      <c r="H160" s="3" t="n">
+        <v>45914</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>01:53:37</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="b">
+        <v>0</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7549757123589325576', 'createTime': 1757814817, 'createTimeISO': '2025-09-14T01:53:37.000Z', 'text': 'Mejor nada', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6625050715386347526', 'uniqueId': 'z4ptr4p', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c0117a776ba63c5c0d167b4aa148f265~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a89899a4&amp;x-expires=1758034800&amp;x-signature=eM9aKrSATSKJuk9WO%2BiWnFo5heI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>11</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401?_r=1&amp;_t=ZS-8zeOEQFvD1j</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>De que les sirve ahorrar presupuesto si van a hacer tremendo mojón de animación con IA, que no les duela el bolsillo y paguen a un animador</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="n">
+        <v>45915.30900462963</v>
+      </c>
+      <c r="H161" s="3" t="n">
+        <v>45915</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>07:24:58</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="b">
+        <v>0</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7550213597914399506', 'createTime': 1757921098, 'createTimeISO': '2025-09-15T07:24:58.000Z', 'text': 'De que les sirve ahorrar presupuesto si van a hacer tremendo mojón de animación con IA, que no les duela el bolsillo y paguen a un animador', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6807232169782592518', 'uniqueId': 'syrextitan_avirama', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/cd79386170afe8f8e076025849e158c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=930d5872&amp;x-expires=1758034800&amp;x-signature=doedgpz1jUz7ot7MbdLNizqC9mE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>11</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401?_r=1&amp;_t=ZS-8zeOEQFvD1j</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>😂</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="n">
+        <v>45911.71685185185</v>
+      </c>
+      <c r="H162" s="3" t="n">
+        <v>45911</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>17:12:16</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="b">
+        <v>0</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548880586518938375', 'createTime': 1757610736, 'createTimeISO': '2025-09-11T17:12:16.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7448332016402236421', 'uniqueId': 'mazo54381', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/1ddeec96484b7529b6bd78e8b8d4c343~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2845d06d&amp;x-expires=1758034800&amp;x-signature=MEApG8usdWyKNf56YTNkd2LZqJQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>11</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401?_r=1&amp;_t=ZS-8zeOEQFvD1j</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
           <t>njd paguen un animador</t>
         </is>
       </c>
-      <c r="G144" s="2" t="n">
+      <c r="G163" s="2" t="n">
         <v>45912.00329861111</v>
       </c>
-      <c r="H144" s="3" t="n">
+      <c r="H163" s="3" t="n">
         <v>45912</v>
       </c>
-      <c r="I144" t="inlineStr">
+      <c r="I163" t="inlineStr">
         <is>
           <t>00:04:45</t>
         </is>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" t="b">
-        <v>0</v>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548986822430491410', 'createTime': 1757635485, 'createTimeISO': '2025-09-12T00:04:45.000Z', 'text': 'njd paguen un animador', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7270237640099021830', 'uniqueId': 'jeanp_42', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/09654db54b40858085ed47450f828fe0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=de96e167&amp;x-expires=1757808000&amp;x-signature=PNKyh9yoL6LWOfDbs6OmXwCp4V4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="b">
+        <v>0</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548986822430491410', 'createTime': 1757635485, 'createTimeISO': '2025-09-12T00:04:45.000Z', 'text': 'njd paguen un animador', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7270237640099021830', 'uniqueId': 'jeanp_42', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/09654db54b40858085ed47450f828fe0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=717aaabb&amp;x-expires=1758034800&amp;x-signature=Ndu%2BWVEJ6YgQFPwbFkKn7haeUoI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>11</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401?_r=1&amp;_t=ZS-8zeOEQFvD1j</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>llevo 5 meses dándole la avena de alimento. a mí bebé le encanta no estaría mal si me regalaran algunas 🤭🤭🤭</t>
+        </is>
+      </c>
+      <c r="G164" s="2" t="n">
+        <v>45914.84824074074</v>
+      </c>
+      <c r="H164" s="3" t="n">
+        <v>45914</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>20:21:28</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="b">
+        <v>0</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7550042553770738440', 'createTime': 1757881288, 'createTimeISO': '2025-09-14T20:21:28.000Z', 'text': 'llevo 5 meses dándole la avena de alimento. a mí bebé le encanta no estaría mal si me regalaran algunas 🤭🤭🤭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7548267095990649874', 'uniqueId': 'rosana.cedeo8', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b195a0f7dc80646c9e6893a68e2eaaef~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aed5d3c1&amp;x-expires=1758034800&amp;x-signature=lE%2FQQIsklP6BKEzZLleijCaC12w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8554,11 +9654,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>035011</t>
+          <t>001308700060002</t>
         </is>
       </c>
     </row>
@@ -8577,11 +9677,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>1103000</t>
         </is>
       </c>
     </row>
@@ -8624,7 +9724,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="n">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="7">
@@ -8666,7 +9766,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="n">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="9">
@@ -8684,10 +9784,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -8726,7 +9826,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -8747,10 +9847,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N164"/>
+  <dimension ref="A1:N163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1053499723343285', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwNTM0OTk3MjMzNDMyODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDUzNDk5NzIzMzQzMjg1', 'date': '2025-09-15T01:30:59.000Z', 'text': 'Amén Amén y Amén', 'profileUrl': 'https://www.facebook.com/essy.deltorogarcia', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/448782048_1564499247442897_1237187302337303624_n.jpg?stp=c0.0.819.819a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XsuyZhnh0lMQ7kNvwFonOo3&amp;_nc_oc=AdlZ8poroVJS4E4375VkMANMOjR6dMk-g5aZWI8uIuoXj7lzlGVm9NgJISNkgHRfjS91xlmjt7Pzn6FI_Bv18QwH&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfZYE-hVLmZikQW_eHb8mpAmTYsf_JYGnNDel3xRfgdBSw&amp;oe=68CE0DC3', 'profileId': 'pfbid02UALBGfzeTskJ725nX8WE6xV2cjGAbBa8xbA9a3ZPU5ei56gxJafBSPcfguBK2wvZl', 'profileName': 'Essy Del Toro Garcia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1053499723343285', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwNTM0OTk3MjMzNDMyODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDUzNDk5NzIzMzQzMjg1', 'date': '2025-09-15T01:30:59.000Z', 'text': 'Amén Amén y Amén', 'profileUrl': 'https://www.facebook.com/essy.deltorogarcia', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/448782048_1564499247442897_1237187302337303624_n.jpg?stp=c0.0.819.819a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XsuyZhnh0lMQ7kNvwF6OKKV&amp;_nc_oc=AdkoKLTALIKSKJzMomj3moZEJDw-5cPPR2OK4ti3CSm-Rh_LkCvIu0SeRIWHHyw-T9s&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_AfZRjR6XGIedc5spegVzKKilHmA83aB7LbaYwSjxeTaoIg&amp;oe=68CE4603', 'profileId': 'pfbid02UALBGfzeTskJ725nX8WE6xV2cjGAbBa8xbA9a3ZPU5ei56gxJafBSPcfguBK2wvZl', 'profileName': 'Essy Del Toro Garcia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1839340746791552', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE4MzkzNDA3NDY3OTE1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xODM5MzQwNzQ2NzkxNTUy', 'date': '2025-09-15T02:25:01.000Z', 'text': 'Amen', 'profileUrl': 'https://www.facebook.com/jaime.leon.mazo.perez', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=uF0fUKiBKJsQ7kNvwHJYsc0&amp;_nc_oc=AdnaF3iSOzSm1ehrpRx51JOhbxiLwxsg06xx0jZPNKp8AU4cD6NbVk7Qw6xbieF1LI2KashJLfjBMAom05uDcXYm&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;oh=00_AfYfxZZ_bo5Z7uYK-arBe0_2GlKa753XtdhZ_t7WGkUvrg&amp;oe=68EF997A', 'profileId': 'pfbid0cVb1ehbXwA68AmMhERmaS3c1w8XtRQ3LBoZY4mpDhikx5Tjp1XutPKx3XdbAkxS7l', 'profileName': 'Jaime León Mazo Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1839340746791552', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE4MzkzNDA3NDY3OTE1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xODM5MzQwNzQ2NzkxNTUy', 'date': '2025-09-15T02:25:01.000Z', 'text': 'Amen', 'profileUrl': 'https://www.facebook.com/jaime.leon.mazo.perez', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=uF0fUKiBKJsQ7kNvwFAPJOu&amp;_nc_oc=Adm5Ul1yS0pMVfUhGpvTx3HHHDjs6MoFpJcEpPVCHMTap-UPTJyBKy1LttvbxDnZVHo&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;oh=00_AfawCMhOC54smcVE-bvm3QEQ62yGpmB2NgqjREl3j0YZig&amp;oe=68EFD1BA', 'profileId': 'pfbid0cVb1ehbXwA68AmMhERmaS3c1w8XtRQ3LBoZY4mpDhikx5Tjp1XutPKx3XdbAkxS7l', 'profileName': 'Jaime León Mazo Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1765338114346772', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3NjUzMzgxMTQzNDY3NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzY1MzM4MTE0MzQ2Nzcy', 'date': '2025-09-12T19:30:46.000Z', 'text': 'Eran alpina eras más chévere antes', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/491395119_2482748972059706_1272209331354308727_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=hPr5oAQRr7QQ7kNvwGM88E4&amp;_nc_oc=AdlNys9S_Fz1CCN6MSpM37j15aP7zgsGv_QUYRzoRQFAqtq4-6XlHBocUee6HwBjL6pR3F3Tn5Lf5T2Y4GwArVvi&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfYqq88hMfJsV2NBhy1CDGIQdg9z0AttPCs1rN41JMbWDg&amp;oe=68CDEB00', 'profileId': '100009738815049', 'profileName': 'Damián Arley Hernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1765338114346772', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3NjUzMzgxMTQzNDY3NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzY1MzM4MTE0MzQ2Nzcy', 'date': '2025-09-12T19:30:46.000Z', 'text': 'Eran alpina eras más chévere antes', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/491395119_2482748972059706_1272209331354308727_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=hPr5oAQRr7QQ7kNvwFc_bGn&amp;_nc_oc=AdlsoX8UXJ8GFrMYMhhqlGvad-pFz5_tNU88KYe6iouI129FD5xScY0yfqP7R9aKZhI&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_AfZhnWXUe40d0bs00IIdaCVExkfhYYD0A7JIXzE8ykDINg&amp;oe=68CE5B80', 'profileId': '100009738815049', 'profileName': 'Damián Arley Hernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1711482479808279', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3MTE0ODI0Nzk4MDgyNzk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzExNDgyNDc5ODA4Mjc5', 'date': '2025-09-13T22:33:03.000Z', 'text': 'La publicidad con IA dice mucho de la calidad de su trabajo.', 'profileUrl': 'https://www.facebook.com/pierrot.bleu', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/527764992_122267880128029292_4555020448627783100_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=r3fsMY-BIp8Q7kNvwHNYAPH&amp;_nc_oc=AdmlPQxdklUQzCZiMj9WcyC01EtWfy9Y6frWhVkcKD18mI_ykCR3qr1wQw1rSWNBqgCItCP0eC8lEt6XKnV-BRjN&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_Afb7Vx4SJ5qOY4J6Ak-iatCK7CqJOy7EinG67zYQcs3IKQ&amp;oe=68CDEA08', 'profileId': '61550878779366', 'profileName': 'Pierrot Bleu', 'likesCount': '3', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1711482479808279', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3MTE0ODI0Nzk4MDgyNzk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzExNDgyNDc5ODA4Mjc5', 'date': '2025-09-13T22:33:03.000Z', 'text': 'La publicidad con IA dice mucho de la calidad de su trabajo.', 'profileUrl': 'https://www.facebook.com/pierrot.bleu', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/527764992_122267880128029292_4555020448627783100_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=r3fsMY-BIp8Q7kNvwEI5Zt8&amp;_nc_oc=Adku4EGIf3Pkpvi1zDXo5bNlX79sMog0P9mi8BuyGTCRZz-9XYl_s_DWH-SMIumkTv0&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_AfZ9nRPGNELZ6bT_Gzxr2KCRYlu1Q_mrFhBcDc-eIjS-Og&amp;oe=68CE5A88', 'profileId': '61550878779366', 'profileName': 'Pierrot Bleu', 'likesCount': '3', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1838498053713253', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE4Mzg0OTgwNTM3MTMyNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xODM4NDk4MDUzNzEzMjUz', 'date': '2025-09-14T14:06:32.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-6/547286903_813695251049460_5430494300695876333_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ntEh2GspGdYQ7kNvwFNqfPe&amp;_nc_oc=AdkcJfEfue6o4E9bGvtwP5DEFfFVQ3hqSGdK_qul0ZAPNI91gNHV8hSmh5WTmST4U43KgyPoKxxcvyQyRmNgsIuE&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfYYZjpuFIAyGTbiSRZQ0I5o5XKWHE7qm7ze827dXyGx4Q&amp;oe=68CDFD0E'}, 'id': '813695247716127', 'cix_screen': None, 'massive_image': {'width': 640, 'height': 960}, 'image': {'uri': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-6/547286903_813695251049460_5430494300695876333_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ntEh2GspGdYQ7kNvwFNqfPe&amp;_nc_oc=AdkcJfEfue6o4E9bGvtwP5DEFfFVQ3hqSGdK_qul0ZAPNI91gNHV8hSmh5WTmST4U43KgyPoKxxcvyQyRmNgsIuE&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfZoj17tWGAMuZOKft3c7ZbiwinPImI0J75wFb_aAvcNkQ&amp;oe=68CDFD0E', 'width': 150, 'height': 225}, 'ocrText': "May be an image of heart and text that says 'AMOR... Recuerdas que tienes a alguien que te ama con locura y te recuerda en todo momento. Luisaf dedicatorias del corazón.'"}], 'profileUrl': 'https://www.facebook.com/jose.arias.336103', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/538116307_796990922719893_2820109332826313784_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mc1uTS-UGZoQ7kNvwEzR8z5&amp;_nc_oc=AdnvkLGSSi86IRGUgGLqRAvxA3OzVSHVDST6K1jJB9fDRhrMPRsOq71KxNHIPTW0mhGvv2TvTaAOXf0mxCv2blJp&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfZ2zUvm0hrVL5QclHPo9PzudwGAZ1M3RBVov80GNsrh1A&amp;oe=68CDF480', 'profileId': '100072269771691', 'profileName': 'Jose Arias', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1838498053713253', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE4Mzg0OTgwNTM3MTMyNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xODM4NDk4MDUzNzEzMjUz', 'date': '2025-09-14T14:06:32.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-6/547286903_813695251049460_5430494300695876333_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ntEh2GspGdYQ7kNvwESHSDP&amp;_nc_oc=AdnyG12a_YYWjxVdJCvApZI-VPSHNa_wCA9r0YnWXBoQ8LizLrjkhUkXi567xZme1rM&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_Afaada7GJ12O2PwW4GSgwJIKtir8UejjZM6wWwfegdQODw&amp;oe=68CE354E'}, 'id': '813695247716127', 'cix_screen': None, 'massive_image': {'width': 640, 'height': 960}, 'image': {'uri': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-6/547286903_813695251049460_5430494300695876333_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ntEh2GspGdYQ7kNvwESHSDP&amp;_nc_oc=AdnyG12a_YYWjxVdJCvApZI-VPSHNa_wCA9r0YnWXBoQ8LizLrjkhUkXi567xZme1rM&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_AfY55-nbr-njPRgZ6UnrUAnp9baKmhinP_mzsx_qB45AAg&amp;oe=68CE354E', 'width': 150, 'height': 225}, 'ocrText': "May be an image of heart and text that says 'AMOR... Recuerdas que tienes a alguien que te ama con locura y te recuerda en todo momento. Luisaf dedicatorias del corazón.'"}], 'profileUrl': 'https://www.facebook.com/jose.arias.336103', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/538116307_796990922719893_2820109332826313784_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mc1uTS-UGZoQ7kNvwGtRJkv&amp;_nc_oc=AdlBaJXIVJMYA42_znhKkJGS1G2Di7BMTTgmYyN1Rt5zEzP4x5INxbA84TdT4dm14cQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_Afa7Gki_kf2sGGNWZfBxC7uErj0E6aPDuk7If4XAvyO2jA&amp;oe=68CE2CC0', 'profileId': '100072269771691', 'profileName': 'Jose Arias', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1097803569200070', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwOTc4MDM1NjkyMDAwNzA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDk3ODAzNTY5MjAwMDcw', 'date': '2025-09-12T11:55:16.000Z', 'text': 'Jajajaja Pero es IA gaxxxxx', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/503436742_1253835902986899_1384652200062589429_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=MNwh2TDnu0kQ7kNvwEmYYpy&amp;_nc_oc=AdmM3eSDMR7CkvuNrhr06Gg-QYBMLmNM_jIGJngh-6gMLB59kZ31svRZR7xCNwP5FP48vALuo-V9LvFTSKdbXClW&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfYJe_6Vb2d9aMp8-34LPAAUuc63fTlcbWuFOdSRQwi0oQ&amp;oe=68CE1752', 'profileId': '100050815038837', 'profileName': 'Zyon Jhonn', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1097803569200070', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwOTc4MDM1NjkyMDAwNzA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDk3ODAzNTY5MjAwMDcw', 'date': '2025-09-12T11:55:16.000Z', 'text': 'Jajajaja Pero es IA gaxxxxx', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/503436742_1253835902986899_1384652200062589429_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=MNwh2TDnu0kQ7kNvwFDOLLO&amp;_nc_oc=AdlvnkwbcriOfBPtrNUyB65pPghstN0Jkcz9qQDnEfla8gQL-znj2uDTcIP9RLUnFPU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_AfZUHTZbOdxBRNUAz_ji5sWGVDy40Rva0Ni6XHAsRsHjXA&amp;oe=68CE4F92', 'profileId': '100050815038837', 'profileName': 'Zyon Jhonn', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2281864825666658', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yMjgxODY0ODI1NjY2NjU4', 'date': '2025-09-11T22:54:31.000Z', 'text': 'Pero porque todo con ia', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/465968903_28163068836613657_4647340187890363470_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xjiEi4iS6qQQ7kNvwHVAION&amp;_nc_oc=Adm_Q5OuVQrwAHpqaljHuyrLw5TrfIDhmPGS9JAcIM-OD03bmUbjwfA3NYTu0AN38PJkuKHxzIctOfEo2M2KpP7e&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfaQdfhKHIx9nJFWbXDPea5C2a65grjs4OwH-mL-uBVMSw&amp;oe=68CDF0D8', 'profileId': 'pfbid0Zpj8qKP7WGvkrgYQ3kWMbYUgfZzgZkqWtYtEcFNUjPZoy1YzRbmekeypLdaVFP9tl', 'profileName': 'Jonathan Acuña', 'likesCount': '7', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2281864825666658', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yMjgxODY0ODI1NjY2NjU4', 'date': '2025-09-11T22:54:31.000Z', 'text': 'Pero porque todo con ia', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/465968903_28163068836613657_4647340187890363470_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xjiEi4iS6qQQ7kNvwG1RrAn&amp;_nc_oc=AdkLMjQm9f6-I21c-a4kkuCo3Oz7xRSGawQTAGHkZBgiAc_XYqFaWuVwbJmYDPUQTTM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_AfYDyV6TBXHMuq_F9aDNH03Jjcs9rXgMtwG9t_ul6LXcqA&amp;oe=68CE6158', 'profileId': 'pfbid02dgAr1zJwMeWzzCHdHqEJM7L4RSCL1XbiikUtpwAeaFEur76LYWfeiUEq7nV2H3Bul', 'profileName': 'Jonathan Acuña', 'likesCount': '7', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1893369451562335', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE4OTMzNjk0NTE1NjIzMzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xODkzMzY5NDUxNTYyMzM1', 'date': '2025-09-14T14:06:38.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-6/548527386_813695361049449_121925468336332210_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=wsZT2wjrPIkQ7kNvwH5UYOw&amp;_nc_oc=AdkxgTe8fVc8F_AZQjSv9u2WHgNjDBSvD_jytDOj2k_gLygQ-AhKLH6oU0YXDIl6oYCRgVIr0wHB0TfXevxLppsk&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfYUeWk9W1AYoJ0qoCKr13MIixFjRXVs3EFQVcuqqcEqfQ&amp;oe=68CE12E4'}, 'id': '813695357716116', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 960}, 'image': {'uri': 'https://scontent-atl3-1.xx.fbcdn.net/v/t39.30808-6/548527386_813695361049449_121925468336332210_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=wsZT2wjrPIkQ7kNvwH5UYOw&amp;_nc_oc=AdkxgTe8fVc8F_AZQjSv9u2WHgNjDBSvD_jytDOj2k_gLygQ-AhKLH6oU0YXDIl6oYCRgVIr0wHB0TfXevxLppsk&amp;_nc_zt=23&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfarYMCXx6B7NBdkJKqSMF5dgk8pRV9paFnCU-U5N60WeQ&amp;oe=68CE12E4', 'width': 225, 'height': 225}, 'ocrText': 'May be an image of 1 person and hat'}], 'profileUrl': 'https://www.facebook.com/jose.arias.336103', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/538116307_796990922719893_2820109332826313784_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mc1uTS-UGZoQ7kNvwEzR8z5&amp;_nc_oc=AdnvkLGSSi86IRGUgGLqRAvxA3OzVSHVDST6K1jJB9fDRhrMPRsOq71KxNHIPTW0mhGvv2TvTaAOXf0mxCv2blJp&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfZ2zUvm0hrVL5QclHPo9PzudwGAZ1M3RBVov80GNsrh1A&amp;oe=68CDF480', 'profileId': '100072269771691', 'profileName': 'Jose Arias', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1893369451562335', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE4OTMzNjk0NTE1NjIzMzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xODkzMzY5NDUxNTYyMzM1', 'date': '2025-09-14T14:06:38.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-6/548527386_813695361049449_121925468336332210_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=wsZT2wjrPIkQ7kNvwEMkOCg&amp;_nc_oc=Adm6otSwmnm6pvOYoBsBWH4zkU7-2Xr-4NAM-rcqkwvYbjndecvE6APKD7oAZECMDV0&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_AfaQNjWs5k9yee0jakWSgbx0WDryaC9X3AEu-Q-B-QqPvg&amp;oe=68CE4B24'}, 'id': '813695357716116', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 960}, 'image': {'uri': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-6/548527386_813695361049449_121925468336332210_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=wsZT2wjrPIkQ7kNvwEMkOCg&amp;_nc_oc=Adm6otSwmnm6pvOYoBsBWH4zkU7-2Xr-4NAM-rcqkwvYbjndecvE6APKD7oAZECMDV0&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_AfanTqw8RhqraKKsNglj2dbqbB97Ku74_f-ko4uVzCK-FA&amp;oe=68CE4B24', 'width': 225, 'height': 225}, 'ocrText': 'May be an image of 1 person and hat'}], 'profileUrl': 'https://www.facebook.com/jose.arias.336103', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/538116307_796990922719893_2820109332826313784_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mc1uTS-UGZoQ7kNvwGtRJkv&amp;_nc_oc=AdlBaJXIVJMYA42_znhKkJGS1G2Di7BMTTgmYyN1Rt5zEzP4x5INxbA84TdT4dm14cQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_Afa7Gki_kf2sGGNWZfBxC7uErj0E6aPDuk7If4XAvyO2jA&amp;oe=68CE2CC0', 'profileId': '100072269771691', 'profileName': 'Jose Arias', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2177053922804233', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIxNzcwNTM5MjI4MDQyMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yMTc3MDUzOTIyODA0MjMz', 'date': '2025-09-14T21:40:34.000Z', 'text': 'Natalia Guiral', 'profilePicture': 'https://scontent-atl3-3.xx.fbcdn.net/v/t39.30808-1/526649106_1416424272810766_2142715909551217946_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qadorHhyM_wQ7kNvwG4sts2&amp;_nc_oc=AdmhiI00_3FT-oiqbpLsSGAW0afZxPMU7lqkl9d1DRS1-T83R-UMqNAT9qtQ4s1Qfw0uWjyc4_4-merIk-taEI7Z&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-3.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_AfYyfXRE65rKLH8qZhM2q2H6x2Ncg5F6qh_fQdvqdPwwgA&amp;oe=68CDEECD', 'profileId': '100033296202905', 'profileName': 'Camilo Sierra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2177053922804233', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIxNzcwNTM5MjI4MDQyMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yMTc3MDUzOTIyODA0MjMz', 'date': '2025-09-14T21:40:34.000Z', 'text': 'Natalia Guiral', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/526649106_1416424272810766_2142715909551217946_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qadorHhyM_wQ7kNvwHALgLE&amp;_nc_oc=AdnIZFeX0dMa7kQ4SJwIUxnR-XzeBtvUQHnij3ofSh2A7NdePrBd3KVA68_qBH9zwYk&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_Afbv4TrfJe-ov2CO5_-vvfFwYBEQULvfsPoT87zwn4dsog&amp;oe=68CE5F4D', 'profileId': '100033296202905', 'profileName': 'Camilo Sierra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1664621124232859', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE2NjQ2MjExMjQyMzI4NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNjY0NjIxMTI0MjMyODU5', 'date': '2025-09-13T20:13:23.000Z', 'text': 'Ese anuncio parece que fuera hecho por una IA', 'attachments': [{'__typename': 'GenericAttachmentMedia', 'sticker_image': {'__typename': 'Image', 'uri': 'https://external-atl3-3.xx.fbcdn.net/emg1/v/t13/5857999671244395827?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FePElaRFmszMAAAAC%2Fwtf-disbelief.gif&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-gif_fr_q75&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;_nc_oc=Adlf9q2CLfKPMSqfJ-h9A-_WY9IkYGJYkFYeZeYj9Wp9RXNEWVoc8HlLncEDSTU-zP1fko-Fnt9ef36ejtVfyS0s&amp;ccb=13-1&amp;oh=06_Q3-3AcICJjJJf47GBT9MH_4aD5xs7vpyBz034cjNSSro-jEg&amp;oe=68C9F9EB&amp;_nc_sid=9e3c15'}, 'id': '10163514651722147', 'image': {'height': 280, 'width': 395, 'uri': 'https://external-atl3-3.xx.fbcdn.net/emg1/v/t13/5857999671244395827?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FePElaRFmszMAAAAC%2Fwtf-disbelief.gif&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-emg0_q75_s396x280_tt6&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;_nc_oc=Adlf9q2CLfKPMSqfJ-h9A-_WY9IkYGJYkFYeZeYj9Wp9RXNEWVoc8HlLncEDSTU-zP1fko-Fnt9ef36ejtVfyS0s&amp;ccb=13-1&amp;oh=06_Q3-3AeK6tFIcCWBzp0zzI2Hsa50Zwacj6tcXXD1LtuBZoBKX&amp;oe=68C9F9EB&amp;_nc_sid=c97757'}, 'animated_image': {'height': 353, 'width': 498, 'uri': 'https://external-atl3-3.xx.fbcdn.net/emg1/v/t13/5857999671244395827?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FePElaRFmszMAAAAC%2Fwtf-disbelief.gif&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-gif_fr_q75&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;_nc_oc=Adlf9q2CLfKPMSqfJ-h9A-_WY9IkYGJYkFYeZeYj9Wp9RXNEWVoc8HlLncEDSTU-zP1fko-Fnt9ef36ejtVfyS0s&amp;ccb=13-1&amp;oh=06_Q3-3AcICJjJJf47GBT9MH_4aD5xs7vpyBz034cjNSSro-jEg&amp;oe=68C9F9EB&amp;_nc_sid=9e3c15'}, 'animated_image_caption': None, 'animated_image_attribution': 'Tenor'}], 'profileUrl': 'https://www.facebook.com/jesus.eduardo.sarmiento.ortiz', 'profilePicture': 'https://scontent-atl3-2.xx.fbcdn.net/v/t39.30808-1/509599110_10163104690482147_8948077689991658004_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=a-pljVgAL0oQ7kNvwE9cQZ7&amp;_nc_oc=Adk0yV0npOxZ4sIXqBloRCJ35iIQf_G5tlt2byvW_Uc0HcwcS5tXM50lOnaNPwcDcQKKNgA1chwCR-ktWc7SvJ5H&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-2.xx&amp;_nc_gid=P7M_5ZqU9DOdWYUEFxQNYA&amp;oh=00_Afa530QHU8xEETIgaFlLzyCOBwyD58GUExa3DEogE7-HRw&amp;oe=68CE1218', 'profileId': '689672146', 'profileName': 'Jesus Eduardo Sarmiento Ortiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1664621124232859', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE2NjQ2MjExMjQyMzI4NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNjY0NjIxMTI0MjMyODU5', 'date': '2025-09-13T20:13:23.000Z', 'text': 'Ese anuncio parece que fuera hecho por una IA', 'attachments': [{'__typename': 'GenericAttachmentMedia', 'sticker_image': {'__typename': 'Image', 'uri': 'https://external-mia3-3.xx.fbcdn.net/emg1/v/t13/5857999671244395827?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FePElaRFmszMAAAAC%2Fwtf-disbelief.gif&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-gif_fr_q75&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;_nc_oc=AdkIcJNT3hfD01QxHbvqSrRtoU-aICSVjulh5A1hizA8j2-FBZap-h8_biqUJyadnJg&amp;ccb=13-1&amp;oh=06_Q3-3AVZPDbfWDS4zsSKWFUQSadN056LO4usnA_EZrTGUUuGv&amp;oe=68CA6A6B&amp;_nc_sid=9e3c15'}, 'id': '10163514651722147', 'image': {'height': 280, 'width': 395, 'uri': 'https://external-mia3-3.xx.fbcdn.net/emg1/v/t13/5857999671244395827?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FePElaRFmszMAAAAC%2Fwtf-disbelief.gif&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-emg0_q75_s396x280_tt6&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;_nc_oc=AdkIcJNT3hfD01QxHbvqSrRtoU-aICSVjulh5A1hizA8j2-FBZap-h8_biqUJyadnJg&amp;ccb=13-1&amp;oh=06_Q3-3AZDGqssIBCr54dh7XwwMB6uql5QZA_m-qPesDZ9Kq-9d&amp;oe=68CA6A6B&amp;_nc_sid=c97757'}, 'animated_image': {'height': 353, 'width': 498, 'uri': 'https://external-mia3-3.xx.fbcdn.net/emg1/v/t13/5857999671244395827?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FePElaRFmszMAAAAC%2Fwtf-disbelief.gif&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-gif_fr_q75&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;_nc_oc=AdkIcJNT3hfD01QxHbvqSrRtoU-aICSVjulh5A1hizA8j2-FBZap-h8_biqUJyadnJg&amp;ccb=13-1&amp;oh=06_Q3-3AVZPDbfWDS4zsSKWFUQSadN056LO4usnA_EZrTGUUuGv&amp;oe=68CA6A6B&amp;_nc_sid=9e3c15'}, 'animated_image_caption': None, 'animated_image_attribution': 'Tenor'}], 'profileUrl': 'https://www.facebook.com/jesus.eduardo.sarmiento.ortiz', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/509599110_10163104690482147_8948077689991658004_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=a-pljVgAL0oQ7kNvwFzN5zR&amp;_nc_oc=Admx5YrAuoYIDtnVIa9fL8yebZyv4c953CSkTG2jsfTZOvzZmaPkPtelKYqnDXGpAhQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_Afaaz2uePJ5q_3mwEFMTZvzXgwcO3zHCQuxl6JBL4uzZvg&amp;oe=68CE4A58', 'profileId': '689672146', 'profileName': 'Jesus Eduardo Sarmiento Ortiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1101092795498355', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzExMDEwOTI3OTU0OTgzNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMTAxMDkyNzk1NDk4MzU1', 'date': '2025-09-12T17:40:47.000Z', 'text': 'Tienen recursos de sobra para contratar un artista 3D y en lugar de hacerlo suben esta basura hecha con AI, qué le dice eso al consumidor sobre sus productos?\nTambién dejan en manos de la AI su control de salubridad?', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/492693542_2389131311480256_190548770418542821_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yFVs17EmMnMQ7kNvwGifrau&amp;_nc_oc=AdntR252vp8lSLV5kfPsj4n0YCiMM1qEU1YvoVmN43u7nwjOAOwX9NtplezelXF63Ic&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=BD1-55bIzA5NDNU4oezOOg&amp;oh=00_AfZr1khtygm1gTAuQlslVYUnUjmo48_BkE2eYTTOBfSpPw&amp;oe=68CE0189', 'profileId': 'pfbid02fk5kuHNNsFZQob5mS5q4o7ryEvYtsG66y9LavcMpJHuURN1HEh7AUJuNLn76bZNFl', 'profileName': 'Víctor Martínez', 'likesCount': '6', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1101092795498355', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzExMDEwOTI3OTU0OTgzNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMTAxMDkyNzk1NDk4MzU1', 'date': '2025-09-12T17:40:47.000Z', 'text': 'Tienen recursos de sobra para contratar un artista 3D y en lugar de hacerlo suben esta basura hecha con AI, qué le dice eso al consumidor sobre sus productos?\nTambién dejan en manos de la AI su control de salubridad?', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/492693542_2389131311480256_190548770418542821_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yFVs17EmMnMQ7kNvwFBS8eP&amp;_nc_oc=AdktRcQhypFFXgzrQKJM0q9KUpcqow2gaEJfsqiT_BuWGyv1d6MdnAG1173JIYdmPj8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=FJE4hDEAu7PNBwxtWBFRsg&amp;oh=00_AfY-7f7YSwzY_j0Fp62IaHzOGZgeFxrZvBphpEtZKhaoRg&amp;oe=68CE39C9', 'profileId': 'pfbid02fk5kuHNNsFZQob5mS5q4o7ryEvYtsG66y9LavcMpJHuURN1HEh7AUJuNLn76bZNFl', 'profileName': 'Víctor Martínez', 'likesCount': '6', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=682639247500754', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzY4MjYzOTI0NzUwMDc1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN182ODI2MzkyNDc1MDA3NTQ=', 'date': '2025-09-13T21:00:38.000Z', 'text': 'Te olvidaste de paco el flaco , ya no eres chevere', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/494556812_9997048570352085_7807488651924379435_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6VRxtK06hDgQ7kNvwEFW6pF&amp;_nc_oc=AdlN51ThUyR1vufVjgyxG9dMBqh5rXKU9B1il0ZP6TGv3c7RPHeQDElsaTq5uQ14dvs&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=BD1-55bIzA5NDNU4oezOOg&amp;oh=00_AfZYkL3f6yvxE3aIHDF7YzlNt_jqKj2S9lmpdI8tFUxr2Q&amp;oe=68CDF1FC', 'profileId': '100001411256913', 'profileName': 'Ramos Chriz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=682639247500754', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzY4MjYzOTI0NzUwMDc1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN182ODI2MzkyNDc1MDA3NTQ=', 'date': '2025-09-13T21:00:38.000Z', 'text': 'Te olvidaste de paco el flaco , ya no eres chevere', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/494556812_9997048570352085_7807488651924379435_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6VRxtK06hDgQ7kNvwFQDo_Q&amp;_nc_oc=Adk3qynmNZ4R45Chs166iUyWWpfd-f2ZXDVsSzr7p8pT6bQ8QTg2iF2X3CHdbEWdwAs&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=FJE4hDEAu7PNBwxtWBFRsg&amp;oh=00_AfaJmpDSHR3CCbUMEl6MKP1lkymUatMpF9m3e5qQBJ1eAw&amp;oe=68CE627C', 'profileId': '100001411256913', 'profileName': 'Ramos Chriz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1092979139584408', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwOTI5NzkxMzk1ODQ0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDkyOTc5MTM5NTg0NDA4', 'date': '2025-09-13T12:48:30.000Z', 'text': 'Borran los comentarios pero sigue saliendo la publicidad. Siguen con la basura de IA? Así de mediocres son como sus productos? 🤣🤣🤣', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/535652007_10162869566184929_6951913208270813003_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7dwcI7pd8JwQ7kNvwFzZCBw&amp;_nc_oc=AdlHBuHlit7W6wLBhQF8eK-FTJb5NIl5nJXY2H43KxNsTfaEwMrvJ1vYX6RxC5bf91M&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=BD1-55bIzA5NDNU4oezOOg&amp;oh=00_Afbn67HuGGQKhd43cPVzNEacggYGWhsoOVCsT3ZClbkbUQ&amp;oe=68CDE6A9', 'profileId': '672709928', 'profileName': 'Hv Helmut', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1092979139584408', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwOTI5NzkxMzk1ODQ0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDkyOTc5MTM5NTg0NDA4', 'date': '2025-09-13T12:48:30.000Z', 'text': 'Borran los comentarios pero sigue saliendo la publicidad. Siguen con la basura de IA? Así de mediocres son como sus productos? 🤣🤣🤣', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/535652007_10162869566184929_6951913208270813003_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7dwcI7pd8JwQ7kNvwF0e-6D&amp;_nc_oc=Adl8cfeKFFv3-gkTVqLd1gOT1ymlmuUQ3KCRZNnK_UmnMW2VxFsPXaO7GNYG3mFIypQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=FJE4hDEAu7PNBwxtWBFRsg&amp;oh=00_AfY8v9LPnJxwEh72pg-mO2uJnVYDDrAZ-iW0ZRyNz7N13Q&amp;oe=68CE5729', 'profileId': '672709928', 'profileName': 'Hv Helmut', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1942711319859153', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE5NDI3MTEzMTk4NTkxNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xOTQyNzExMzE5ODU5MTUz', 'date': '2025-09-14T21:09:04.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-6/547418942_122157628748757442_6393092434355388902_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=AxBg7qZS-i0Q7kNvwGCdXOA&amp;_nc_oc=AdkPWzRrQNZTP-igcgNwTHQnLnfxCgGWLtPO27s-IktaqeaJaZkMHQUfj8nWwYdbuNM&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=BD1-55bIzA5NDNU4oezOOg&amp;oh=00_AfYctmOpofxiQPp46-5VrdIQWEbNwxTnTFP4hL8LEXkZDw&amp;oe=68CDF3D6'}, 'id': '122157628742757442', 'cix_screen': None, 'massive_image': {'width': 232, 'height': 168}, 'image': {'uri': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-6/547418942_122157628748757442_6393092434355388902_n.jpg?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=AxBg7qZS-i0Q7kNvwGCdXOA&amp;_nc_oc=AdkPWzRrQNZTP-igcgNwTHQnLnfxCgGWLtPO27s-IktaqeaJaZkMHQUfj8nWwYdbuNM&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=BD1-55bIzA5NDNU4oezOOg&amp;oh=00_AfYPxC9PzLtwdcemnN3giaY4mqvguP9f839akSiuNNfJ4Q&amp;oe=68CDF3D6', 'width': 232, 'height': 168}, 'ocrText': 'No photo description available.'}], 'profileUrl': 'https://www.facebook.com/daniel.hernandez.71375', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/517315363_122144482658757442_8804516840594546914_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=td41Sabd6n4Q7kNvwFGTmfp&amp;_nc_oc=AdlHSDUbJWVhpWc2Pj5Z9XlzY1KpQ5dLgX0lSSt00x4WtluRxn5fyBP1JYn_Hpz_tM0&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=BD1-55bIzA5NDNU4oezOOg&amp;oh=00_Afat8NA-AVdlQk3c0TbQwViC7K1hwQ7af8_Fl6ZrW2_ZDA&amp;oe=68CDEAE4', 'profileId': '61572723281159', 'profileName': 'Daniel Hernández ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1942711319859153', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE5NDI3MTEzMTk4NTkxNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xOTQyNzExMzE5ODU5MTUz', 'date': '2025-09-14T21:09:04.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-6/547418942_122157628748757442_6393092434355388902_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=AxBg7qZS-i0Q7kNvwHPe50z&amp;_nc_oc=AdmpoNDbMUfkbTXT2Yz2ea9GIE0j_iYTbO8I-uP15aYgNppu_TM7y4I3JSOLGe57FLo&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=FJE4hDEAu7PNBwxtWBFRsg&amp;oh=00_AfavoPx58GgXIWRBot3i08MJ_CZt-S9j4DylqIWT42Su6Q&amp;oe=68CE6456'}, 'id': '122157628742757442', 'cix_screen': None, 'massive_image': {'width': 232, 'height': 168}, 'image': {'uri': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-6/547418942_122157628748757442_6393092434355388902_n.jpg?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=AxBg7qZS-i0Q7kNvwHPe50z&amp;_nc_oc=AdmpoNDbMUfkbTXT2Yz2ea9GIE0j_iYTbO8I-uP15aYgNppu_TM7y4I3JSOLGe57FLo&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=FJE4hDEAu7PNBwxtWBFRsg&amp;oh=00_AfZKRH5cr_1qsq4x1EjEQMVzgSbAQBX8RoCGTHiqhLddxA&amp;oe=68CE6456', 'width': 232, 'height': 168}, 'ocrText': 'No photo description available.'}], 'profileUrl': 'https://www.facebook.com/daniel.hernandez.71375', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/517315363_122144482658757442_8804516840594546914_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=td41Sabd6n4Q7kNvwE0WLey&amp;_nc_oc=AdmEv1w6-NglQXdNZjezipSjTflJwo9gemO3uRnFPUo_syR2q87uFQNrthtR5SPnHxA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=FJE4hDEAu7PNBwxtWBFRsg&amp;oh=00_AfZQxc_e-WnwhS-k2uCILjKRTnYhJMStnODUIKrNdqIZaQ&amp;oe=68CE5B64', 'profileId': '61572723281159', 'profileName': 'Daniel Hernández ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=757322997083065', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3Xzc1NzMyMjk5NzA4MzA2NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN183NTczMjI5OTcwODMwNjU=', 'date': '2025-09-12T01:53:31.000Z', 'text': 'Q hpta asco hahahaha', 'profileUrl': 'https://www.facebook.com/juandamr', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/482085481_10237447593192940_7097130589724547644_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qmU0muu0k7IQ7kNvwHAAF48&amp;_nc_oc=AdknL-F5Wb6RQg031SqYq_JNle_xE-5-ncQF80SqyURj1bR33E5Z_XShUGRCoFvk5TE&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=BD1-55bIzA5NDNU4oezOOg&amp;oh=00_AfY-nU1cDvzz6qANLnVp3nEszmIo21NPXFtZbi66-AO-uQ&amp;oe=68CDF116', 'profileId': '1343667140', 'profileName': 'Juanda Muñoz Rico', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=757322997083065', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3Xzc1NzMyMjk5NzA4MzA2NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN183NTczMjI5OTcwODMwNjU=', 'date': '2025-09-12T01:53:31.000Z', 'text': 'Q hpta asco hahahaha', 'profileUrl': 'https://www.facebook.com/juandamr', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/482085481_10237447593192940_7097130589724547644_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qmU0muu0k7IQ7kNvwHZw68n&amp;_nc_oc=Adk2xyrIRNf1PMzSXQcEZcm6uqrWOo1u6nmOxvi4vwINiEuPIhdN3L31r1ntlKxxQQ4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=FJE4hDEAu7PNBwxtWBFRsg&amp;oh=00_AfbRK500vpuZmOOrykT2Vis76aLl7a9RbQTJXQKZuFbbng&amp;oe=68CE6196', 'profileId': '1343667140', 'profileName': 'Juanda Muñoz Rico', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1518033859195059', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE1MTgwMzM4NTkxOTUwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xNTE4MDMzODU5MTk1MDU5', 'date': '2025-09-12T12:37:34.000Z', 'text': 'Pinchi animación toda culera, si van a invertir en hacer animación, inviertan en una buena IA', 'profileUrl': 'https://www.facebook.com/juancho.barajas.7', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/483861579_9365490916877333_3937309200038098582_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=AJN3hH-A_E4Q7kNvwG198iS&amp;_nc_oc=AdnVEfELwKRvWvfHeax_urepQl1FcDIGVcRt3eZ7rX9ra6UiQm5jUF2s91cJUnshMls&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=QlAcCGrzkF7lMFAC_e2zXA&amp;oh=00_AfZTVaCwVgccK7NkBeU_tHmlNn7-cGQiftjp0DWI5hPcjQ&amp;oe=68CE0474', 'profileId': '100002495548710', 'profileName': 'Juancho Barajas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1518033859195059', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE1MTgwMzM4NTkxOTUwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xNTE4MDMzODU5MTk1MDU5', 'date': '2025-09-12T12:37:34.000Z', 'text': 'Pinchi animación toda culera, si van a invertir en hacer animación, inviertan en una buena IA', 'profileUrl': 'https://www.facebook.com/juancho.barajas.7', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/483861579_9365490916877333_3937309200038098582_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=AJN3hH-A_E4Q7kNvwFXRlJD&amp;_nc_oc=Adl10ictOxml-0WF8H-522gLPqvFGqGNjwXJ9WTYNmXYzK_nt8R0DC-80q3iKY8u-rn9uXSrqG4ALLZdmnUmCCKs&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=Bd1njThLeQQFdbzWqiEkQw&amp;oh=00_AfbwODuofdeFjoQSczHlVAzi7R2B9EOYqwlegfgEZyGTQQ&amp;oe=68CE3CB4', 'profileId': '100002495548710', 'profileName': 'Juancho Barajas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=729207126799156', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcyOTIwNzEyNjc5OTE1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MjkyMDcxMjY3OTkxNTY=', 'date': '2025-09-12T06:56:03.000Z', 'text': 'Si, se ve poco real esa animación. ojalá la IA les compres sus productos.', 'profileUrl': 'https://www.facebook.com/fernandpsb', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/457372791_8271573726262434_7931313235547901570_n.jpg?stp=c448.0.1152.1152a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QwxIVWOlPAMQ7kNvwGnLduz&amp;_nc_oc=Adkci63nemHnU92nRMjlYJhejNsdYwbGCN3RAS_sobBc-DvcoZoCw9XtxkkJvfPeAW0&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=QlAcCGrzkF7lMFAC_e2zXA&amp;oh=00_AfYf_Vp-YPqq-4xpJ80YuU6rL9_HpyEn7UM-l20wRVFrFQ&amp;oe=68CDEF0A', 'profileId': '100002296670340', 'profileName': 'Fernando Rodríguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=729207126799156', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcyOTIwNzEyNjc5OTE1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MjkyMDcxMjY3OTkxNTY=', 'date': '2025-09-12T06:56:03.000Z', 'text': 'Si, se ve poco real esa animación. ojalá la IA les compres sus productos.', 'profileUrl': 'https://www.facebook.com/fernandpsb', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/457372791_8271573726262434_7931313235547901570_n.jpg?stp=c448.0.1152.1152a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QwxIVWOlPAMQ7kNvwES3ZZv&amp;_nc_oc=AdkIlIAgmdug04S4n-a0A2c3PFp_0Gwnxwvc9HLRaT5MVJ9EqXjetCtegA14sCqG3wmUhiIpR3c2oMG12jiCMM8G&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Bd1njThLeQQFdbzWqiEkQw&amp;oh=00_AfY8SRj145OevUKbFZZqkkfV4CPWrdiEXanLvfqlc_YfHA&amp;oe=68CE5F8A', 'profileId': '100002296670340', 'profileName': 'Fernando Rodríguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=714344698306073', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcxNDM0NDY5ODMwNjA3Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MTQzNDQ2OTgzMDYwNzM=', 'date': '2025-09-12T05:33:09.000Z', 'text': '..', 'profileUrl': 'https://www.facebook.com/luzmarina.jimenez.234064', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/518417845_122144505974773963_726240798875025477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7l53SEM_6JsQ7kNvwGOQW_J&amp;_nc_oc=Adl65NhGkn5LnPMIxnqwnMCRQEok9VsA6SS9peWjxtf7FlHpSL11AZjEZccD9xIRzGE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=QlAcCGrzkF7lMFAC_e2zXA&amp;oh=00_AfYmChR4JB7KmrK1ZG0VCGZiKOrGhdY4HJj_nngYxbUCbQ&amp;oe=68CDEB16', 'profileId': 'pfbid02UKivC6uGJjkNQX2hrPmm79FvmYUrRQRxP17jbRGJxJtNDfHbZYR6vKZ4xv3WokNcl', 'profileName': 'LuzMarina Jimenez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=714344698306073', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcxNDM0NDY5ODMwNjA3Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MTQzNDQ2OTgzMDYwNzM=', 'date': '2025-09-12T05:33:09.000Z', 'text': '..', 'profileUrl': 'https://www.facebook.com/luzmarina.jimenez.234064', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/518417845_122144505974773963_726240798875025477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7l53SEM_6JsQ7kNvwFThzLu&amp;_nc_oc=Adnvafya6KszWwmQ0liHfooG7e5Y1VwakdYJ2a_Zg2yjGBcLt47X1F5vd81bac8UPJkW1NEw8c5aXOuv5iwjtqYM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=Bd1njThLeQQFdbzWqiEkQw&amp;oh=00_Afa_jpTq1gwDCB9Zah1OEJblaDeQGIhYJZeWt8UaMJxOwQ&amp;oe=68CE5B96', 'profileId': 'pfbid0Qn5jGwGuTMYUFKxoZWEdQaJucy6FCdjQJattsfYv3KhUz96s1c5Eaa44fxnGWG3tl', 'profileName': 'LuzMarina Jimenez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1976178152957224', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE5NzYxNzgxNTI5NTcyMjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xOTc2MTc4MTUyOTU3MjI0', 'date': '2025-09-11T21:10:54.000Z', 'text': 'Hay un poco de IA en tu animación 🤢', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/535652007_10162869566184929_6951913208270813003_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7dwcI7pd8JwQ7kNvwH8E-1d&amp;_nc_oc=AdnTQ-eoIHHuhajYV7jufd9qF5S7_ywSxyKxsoUC2JSwFnJVS4JoOrdGSDOr4J3bfBk&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=QlAcCGrzkF7lMFAC_e2zXA&amp;oh=00_AfaUMity1XEsxrWCQs1OuOIKL-iLVLKmI9QY_-3QvU4RRQ&amp;oe=68CDE6A9', 'profileId': '672709928', 'profileName': 'Hv Helmut', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1976178152957224', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE5NzYxNzgxNTI5NTcyMjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xOTc2MTc4MTUyOTU3MjI0', 'date': '2025-09-11T21:10:54.000Z', 'text': 'Hay un poco de IA en tu animación 🤢', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/535652007_10162869566184929_6951913208270813003_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7dwcI7pd8JwQ7kNvwHRA5Zr&amp;_nc_oc=AdlrGKT7uPJzO6RfVTaRO0TZwfez28Zb7XiHDKrH_6MWI1seTpzCa-62V8Bfcub9SqCousdAvA9lBDZ56Z_hQdkp&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Bd1njThLeQQFdbzWqiEkQw&amp;oh=00_AfbP1R7NobICDQdWg-nmV--KhptF-mreysK8oFh8oTcj5Q&amp;oe=68CE5729', 'profileId': '672709928', 'profileName': 'Hv Helmut', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1729573124421371', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE3Mjk1NzMxMjQ0MjEzNzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xNzI5NTczMTI0NDIxMzcx', 'date': '2025-09-13T20:50:45.000Z', 'text': 'Monday', 'profileUrl': 'https://www.facebook.com/alejandro.caicedobernal', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/242392669_5209370355814624_1966482618955649755_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FigEmkHrmb0Q7kNvwE478aD&amp;_nc_oc=AdmSt9XQ1QE3KJPEFc0yC0igF_UmwfHAUz7Y-xsjoRX3SGv4PJO6DmigIa4wwhuxusU&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=QlAcCGrzkF7lMFAC_e2zXA&amp;oh=00_Afbln0Ye3XangpKPL0I-r2xx5SR9zmJgMKescAlPijsKXQ&amp;oe=68CE100F', 'profileId': 'pfbid02D6S24vc5enbk68g63fjry2L8W6crBKQnc76KJHLpHvydHva23kbvMqSHdB73Qz8Xl', 'profileName': 'Alejandro Kycdo B', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1729573124421371', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE3Mjk1NzMxMjQ0MjEzNzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xNzI5NTczMTI0NDIxMzcx', 'date': '2025-09-13T20:50:45.000Z', 'text': 'Monday', 'profileUrl': 'https://www.facebook.com/alejandro.caicedobernal', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/242392669_5209370355814624_1966482618955649755_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FigEmkHrmb0Q7kNvwF_2PSo&amp;_nc_oc=AdlVEXK8Qqq4zZh-4k1dSJNE98WZut63hM9g8SJyFfRd9dMQ4nk_FsVKXlrQq-pv75x6dBOcMENVHDfTXlhYvcHM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Bd1njThLeQQFdbzWqiEkQw&amp;oh=00_AfaZ3GTc0dZ5qtKj-zLX21SWisgKy_LKbAVKI3XKxdlILQ&amp;oe=68CE484F', 'profileId': 'pfbid02D6S24vc5enbk68g63fjry2L8W6crBKQnc76KJHLpHvydHva23kbvMqSHdB73Qz8Xl', 'profileName': 'Alejandro Kycdo B', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=839435021752790', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgzOTQzNTAyMTc1Mjc5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84Mzk0MzUwMjE3NTI3OTA=', 'date': '2025-09-12T00:08:08.000Z', 'text': 'Hese cuatro pelos hp solo a echo es robar al pueblo y volverse rico', 'profileUrl': 'https://www.facebook.com/hector.ortegaperafan', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/548196774_2217580448717218_467712799311994276_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-8E3IBeg8rMQ7kNvwHtk3Y_&amp;_nc_oc=AdkDX2jC6fm6DwdPvWtheN6KV8EFGxy7vuwz3xZ6LygObST9MskO86fEypq-ow0J7QE&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=QlAcCGrzkF7lMFAC_e2zXA&amp;oh=00_AfZB-sbYxffaexLbB5TaLzlSvMrBR9gV-5E2JJNnEZc40A&amp;oe=68CE074C', 'profileId': 'pfbid023Fotuz7evJ1A6g6wt8vj9FkQw9mZmfhZ3HboR5KaPowSGpMbtf4mXG6SuceRs3ncl', 'profileName': 'Hector Ortega Perafan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=839435021752790', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgzOTQzNTAyMTc1Mjc5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84Mzk0MzUwMjE3NTI3OTA=', 'date': '2025-09-12T00:08:08.000Z', 'text': 'Hese cuatro pelos hp solo a echo es robar al pueblo y volverse rico', 'profileUrl': 'https://www.facebook.com/hector.ortegaperafan', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/548196774_2217580448717218_467712799311994276_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-8E3IBeg8rMQ7kNvwF0kyEL&amp;_nc_oc=AdnUyYVky2BN5iQw8xADmVWugH2pplLxgEgNTtLx_J1fGm4Telf7jmSqy17jCURhRfmqmuYvjF82ezu_DiQiFaHs&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Bd1njThLeQQFdbzWqiEkQw&amp;oh=00_Afa2p45Q90vyaJ9v_p4mPDA348ahR_7jvgPBokqLfpJz6w&amp;oe=68CE3F8C', 'profileId': 'pfbid0377Fc6f3UmjfWdZYc5dCwbpqsgBS1LozcrJS6cktQUmehtezR7aJveYjbEKvvL2Scl', 'profileName': 'Hector Ortega Perafan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=816939231005497', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgxNjkzOTIzMTAwNTQ5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84MTY5MzkyMzEwMDU0OTc=', 'date': '2025-09-11T22:59:36.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ug_LbFolQPgQ7kNvwFSlweX&amp;_nc_oc=AdmcFwcMtF5vXqbnvsbVRTFe1NEFzleiolZtG63ciZo1dwLSZDk027mCzY5pyu54TYE&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=QlAcCGrzkF7lMFAC_e2zXA&amp;oh=00_Afa6y_M3tsneB_mVKmqonFLnxoA5E07u8lR8IkFgJ8Wu1w&amp;oe=68CDECAD'}, 'id': '122132915732892467', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 720}, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ug_LbFolQPgQ7kNvwFSlweX&amp;_nc_oc=AdmcFwcMtF5vXqbnvsbVRTFe1NEFzleiolZtG63ciZo1dwLSZDk027mCzY5pyu54TYE&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=QlAcCGrzkF7lMFAC_e2zXA&amp;oh=00_AfZ68mDuM18XrzssfFH-uDh8SzatelDEkOA983itg6Xv4w&amp;oe=68CDECAD', 'width': 261, 'height': 196}, 'ocrText': 'May be an image of 2 people, bird and goosedown coat'}], 'profileUrl': 'https://www.facebook.com/people/Tropi-Pollo-Aves/pfbid02zf6fB5gWLdmv7Riu9QzWMbXQ7WjLJcBQztCLFgqJ8XvS3nFXLgshuhbDGvKt1WGul/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/503603154_122103355172892467_5961930638299244588_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=CP6nZIIvwpoQ7kNvwG7T2sX&amp;_nc_oc=Admu0vfJGid3SJMTf0oA_GAJ_OtLGpH86zKQOKaFZSWxTVohGSeVRHn2HE_JZIX0n_Q&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=QlAcCGrzkF7lMFAC_e2zXA&amp;oh=00_AfZnpe_gdW0HJa1H7fyrxfRJzhUAFjSXSinrMX4bW6NE8A&amp;oe=68CE1009', 'profileId': 'pfbid02zf6fB5gWLdmv7Riu9QzWMbXQ7WjLJcBQztCLFgqJ8XvS3nFXLgshuhbDGvKt1WGul', 'profileName': 'Tropi Pollo Aves', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=816939231005497', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgxNjkzOTIzMTAwNTQ5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84MTY5MzkyMzEwMDU0OTc=', 'date': '2025-09-11T22:59:36.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ug_LbFolQPgQ7kNvwFqoMuH&amp;_nc_oc=AdlJxRfpc-6cRkYovKznhD8mNUD9NNKkP6IX57S05GX2Y22sX9_wJv38T7JLbVSQDWwteTB6lzf2uvab2lSXroY4&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=Bd1njThLeQQFdbzWqiEkQw&amp;oh=00_AfZBRxHBRJk42RThrBSZa1_1vAbCr1pQD-3CgwVhf0NkhQ&amp;oe=68CE5D2D'}, 'id': '122132915732892467', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 720}, 'image': {'uri': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ug_LbFolQPgQ7kNvwFqoMuH&amp;_nc_oc=AdlJxRfpc-6cRkYovKznhD8mNUD9NNKkP6IX57S05GX2Y22sX9_wJv38T7JLbVSQDWwteTB6lzf2uvab2lSXroY4&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=Bd1njThLeQQFdbzWqiEkQw&amp;oh=00_AfY5Z9BInS6OeRHt7gzu5jhAsjBBMngb7D6a5XLUZWTIbw&amp;oe=68CE5D2D', 'width': 261, 'height': 196}, 'ocrText': 'May be an image of 2 people, bird and goosedown coat'}], 'profileUrl': 'https://www.facebook.com/people/Tropi-Pollo-Aves/pfbid02zf6fB5gWLdmv7Riu9QzWMbXQ7WjLJcBQztCLFgqJ8XvS3nFXLgshuhbDGvKt1WGul/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/503603154_122103355172892467_5961930638299244588_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=hJJNroNwelUQ7kNvwHAQ_X3&amp;_nc_oc=Adl7T6T4j4TdXGQ4ag3SfHoxQLElQrx7Bp03VDr2bj7lqNYW0RbmBnHhRuhZbLIzRBcGNnXIY_XvicH8I7IfCd7y&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Bd1njThLeQQFdbzWqiEkQw&amp;oh=00_AfbIK51YL2HH4luqfTuYCKUXdE1Qls6JzLacmxmpYwPqlw&amp;oe=68CE4849', 'profileId': 'pfbid02zf6fB5gWLdmv7Riu9QzWMbXQ7WjLJcBQztCLFgqJ8XvS3nFXLgshuhbDGvKt1WGul', 'profileName': 'Tropi Pollo Aves', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'postUrl': 'https://www.instagram.com/p/DOeAYHHABLU/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DOeAYHHABLU/c/18090245113750619', 'id': '18090245113750619', 'text': '', 'ownerUsername': 'joespal_', 'ownerProfilePicUrl': 'https://scontent-fra5-1.cdninstagram.com/v/t51.2885-19/427642126_404248165476654_4857125397841767816_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDc0LkMzIn0%3D&amp;_nc_ohc=JeRN6JWx1V8Q7kNvwGh1gD5&amp;_nc_oc=AdmDaGEaRpOGtD1tvrocHF-pdZd9a-bTdg1bOjZvOsAuiY732MQ46-P0s9p2d7W_hHM&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-fra5-1.cdninstagram.com&amp;oh=00_AfbXQQafDCnFE27X1BFa7o5Pedt_0VCe4hTRRAhb9fKZZg&amp;oe=68CE12C5', 'timestamp': '2025-09-14T13:56:22.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841458844733298', 'full_name': "Hi, I'm JOESPAL.", 'id': '58826385491', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '3304048002741260371', 'profile_pic_url': 'https://scontent-fra5-1.cdninstagram.com/v/t51.2885-19/427642126_404248165476654_4857125397841767816_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ccb=7-5&amp;_nc_sid=f7ccc5&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDc0LkMzIn0%3D&amp;_nc_ohc=JeRN6JWx1V8Q7kNvwGh1gD5&amp;_nc_oc=AdmDaGEaRpOGtD1tvrocHF-pdZd9a-bTdg1bOjZvOsAuiY732MQ46-P0s9p2d7W_hHM&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-fra5-1.cdninstagram.com&amp;oh=00_AfbXQQafDCnFE27X1BFa7o5Pedt_0VCe4hTRRAhb9fKZZg&amp;oe=68CE12C5', 'username': 'joespal_'}, 'media': {'_is__TOnXDTCommentGiphyMediaInfo__0': 'XDTCommentGiphyMediaInfo', 'gif_media_id': 'brTZaptNRGdvyLaFMp', 'id': '751656264372439', 'images': {'fixed_height': {'height': 200, 'mp4': 'https://media2.giphy.com/media/v1.Y2lkPWFlZWNjYzExYXpxNDB6Z3p6bWRrcXo2dDZpNnBlanNhaXZjeXl2Z3U0dGw2cnF1NiZlcD12MV9naWZzJmN0PWc/brTZaptNRGdvyLaFMp/200.mp4', 'mp4_size': 9381, 'size': 9899, 'url': 'https://media2.giphy.com/media/v1.Y2lkPWFlZWNjYzExYXpxNDB6Z3p6bWRrcXo2dDZpNnBlanNhaXZjeXl2Z3U0dGw2cnF1NiZlcD12MV9naWZzJmN0PWc/brTZaptNRGdvyLaFMp/200.gif', 'webp': 'https://media2.giphy.com/media/v1.Y2lkPWFlZWNjYzExYXpxNDB6Z3p6bWRrcXo2dDZpNnBlanNhaXZjeXl2Z3U0dGw2cnF1NiZlcD12MV9naWZzJmN0PWc/brTZaptNRGdvyLaFMp/200.webp', 'webp_size': 9672, 'width': 200}}, 'is_sticker': False, 'title': 'Digital Art GIF', 'username': 'williejimenez'}}</t>
+          <t>{'postUrl': 'https://www.instagram.com/p/DOeAYHHABLU/#advertiser', 'commentUrl': 'https://www.instagram.com/p/DOeAYHHABLU/c/18090245113750619', 'id': '18090245113750619', 'text': '', 'ownerUsername': 'joespal_', 'ownerProfilePicUrl': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/427642126_404248165476654_4857125397841767816_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ig_cache_key=GA5NfRku6U1cqW8BAIjt4q-Q_WdDbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDc0LkMzIn0%3D&amp;_nc_ohc=JeRN6JWx1V8Q7kNvwEtCqQX&amp;_nc_oc=AdmM97x631Hnb1CjupTeFUXuxzbxB5RUtknvXnRBjx0CpDyRMLgf5GPov6Hy9OPUsGg&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfZY2CaZCMFkNL12R88XCos3AoXN83ZkzTG_DVScIzkGAA&amp;oe=68CE4B05', 'timestamp': '2025-09-14T13:56:22.000Z', 'repliesCount': 0, 'replies': [], 'likesCount': 0, 'owner': {'fbid_v2': '17841458844733298', 'full_name': "Hi, I'm JOESPAL.", 'id': '58826385491', 'is_mentionable': True, 'is_private': False, 'is_verified': False, 'latest_reel_media': 0, 'profile_pic_id': '3304048002741260371', 'profile_pic_url': 'https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/427642126_404248165476654_4857125397841767816_n.jpg?stp=dst-jpg_e0_s150x150_tt6&amp;_nc_cat=102&amp;ig_cache_key=GA5NfRku6U1cqW8BAIjt4q-Q_WdDbkULAAAB1501500j-ccb7-5&amp;ccb=7-5&amp;_nc_sid=669407&amp;efg=eyJ2ZW5jb2RlX3RhZyI6InByb2ZpbGVfcGljLnd3dy4xMDc0LkMzIn0%3D&amp;_nc_ohc=JeRN6JWx1V8Q7kNvwEtCqQX&amp;_nc_oc=AdmM97x631Hnb1CjupTeFUXuxzbxB5RUtknvXnRBjx0CpDyRMLgf5GPov6Hy9OPUsGg&amp;_nc_ad=z-m&amp;_nc_cid=0&amp;_nc_zt=24&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;oh=00_AfZY2CaZCMFkNL12R88XCos3AoXN83ZkzTG_DVScIzkGAA&amp;oe=68CE4B05', 'username': 'joespal_'}, 'media': {'_is__TOnXDTCommentGiphyMediaInfo__0': 'XDTCommentGiphyMediaInfo', 'gif_media_id': 'brTZaptNRGdvyLaFMp', 'id': '751656264372439', 'images': {'fixed_height': {'height': 200, 'mp4': 'https://media2.giphy.com/media/v1.Y2lkPWFlZWNjYzExYXpxNDB6Z3p6bWRrcXo2dDZpNnBlanNhaXZjeXl2Z3U0dGw2cnF1NiZlcD12MV9naWZzJmN0PWc/brTZaptNRGdvyLaFMp/200.mp4', 'mp4_size': 9381, 'size': 9899, 'url': 'https://media2.giphy.com/media/v1.Y2lkPWFlZWNjYzExYXpxNDB6Z3p6bWRrcXo2dDZpNnBlanNhaXZjeXl2Z3U0dGw2cnF1NiZlcD12MV9naWZzJmN0PWc/brTZaptNRGdvyLaFMp/200.gif', 'webp': 'https://media2.giphy.com/media/v1.Y2lkPWFlZWNjYzExYXpxNDB6Z3p6bWRrcXo2dDZpNnBlanNhaXZjeXl2Z3U0dGw2cnF1NiZlcD12MV9naWZzJmN0PWc/brTZaptNRGdvyLaFMp/200.webp', 'webp_size': 9672, 'width': 200}}, 'is_sticker': False, 'title': 'Digital Art GIF', 'username': 'williejimenez'}}</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548358154200974098', 'createTime': 1757489096, 'createTimeISO': '2025-09-10T07:24:56.000Z', 'text': 'usaba IA y ni sentido tenía el anuncio', 'diggCount': 546, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7522680959197971464', 'uniqueId': 'angel_fox_axel', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9ed7bfea88e1b69f3a128b1f8039235e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=460f2895&amp;x-expires=1758034800&amp;x-signature=Mb3p9S08IBP%2FIeKp4styhQqONiY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548358154200974098', 'createTime': 1757489096, 'createTimeISO': '2025-09-10T07:24:56.000Z', 'text': 'usaba IA y ni sentido tenía el anuncio', 'diggCount': 546, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7522680959197971464', 'uniqueId': 'angel_fox_axel', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/9ed7bfea88e1b69f3a128b1f8039235e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=2272866c&amp;x-expires=1758052800&amp;x-signature=ITcmIRuoFTIgiw9QTrsRqnEjFEM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1864,26 +1864,26 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza</t>
+          <t>Me veo linda en mi historia?</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45911.09158564815</v>
+        <v>45910.42668981481</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>02:11:53</t>
+          <t>10:14:26</t>
         </is>
       </c>
       <c r="J27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" t="n">
         <v>5</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="b">
         <v>0</v>
       </c>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548648557948683026', 'createTime': 1757556713, 'createTimeISO': '2025-09-11T02:11:53.000Z', 'text': 'Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6976617115294139397', 'uniqueId': 'chowder9273', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/21ce081563d432fdfb13dc114a97d005~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1452a050&amp;x-expires=1758034800&amp;x-signature=3zH7R%2Ff9AZ%2F4Ib1scJEbKR3BNx8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548401767362806534', 'createTime': 1757499266, 'createTimeISO': '2025-09-10T10:14:26.000Z', 'text': 'Me veo linda en mi historia?', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 5, 'uid': '7237572995751937029', 'uniqueId': 'escarletgiron3', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/90f45fbb28c045f99beaef24f4d1bcc5~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3d5b38da&amp;x-expires=1758052800&amp;x-signature=JYq5jLeLw2T2j7oOlWoYDHdX2eI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1920,25 +1920,25 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀</t>
+          <t>¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45910.92006944444</v>
+        <v>45910.95050925926</v>
       </c>
       <c r="H28" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>22:04:54</t>
+          <t>22:48:44</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548584862849942280', 'createTime': 1757541894, 'createTimeISO': '2025-09-10T22:04:54.000Z', 'text': 'empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6774471423067997190', 'uniqueId': 'xiewww_h', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ba1a8119f4148ea45db46fad9dcf764b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cf8a492f&amp;x-expires=1758034800&amp;x-signature=Vdf66k2bWantdnmO33Nml74XBbw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548596179627049736', 'createTime': 1757544524, 'createTimeISO': '2025-09-10T22:48:44.000Z', 'text': '¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '6892483566695154694', 'uniqueId': 'karenarres', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8e7f13a6edbd9f1e73869cf96c40fede~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=97970192&amp;x-expires=1758052800&amp;x-signature=SgQr60J%2BeLK8PwTr4cuPp3nikrs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1976,25 +1976,25 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Muy mal alpina 😔</t>
+          <t>¿IA? Wow ,tanto que ganan y no pagan un animador</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45910.72035879629</v>
+        <v>45910.79232638889</v>
       </c>
       <c r="H29" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>17:17:19</t>
+          <t>19:00:57</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548510815235048210', 'createTime': 1757524639, 'createTimeISO': '2025-09-10T17:17:19.000Z', 'text': 'Muy mal alpina 😔', 'diggCount': 52, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7401980556445189125', 'uniqueId': 'vanshi432', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9593619d8a1f3f6623ca0b4ba781b0f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ef18018d&amp;x-expires=1758034800&amp;x-signature=sDqdfnqFNf5X9zEoe5UYDG3JjzU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548537516107088660', 'createTime': 1757530857, 'createTimeISO': '2025-09-10T19:00:57.000Z', 'text': '¿IA? Wow ,tanto que ganan y no pagan un animador', 'diggCount': 145, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7071862501012784133', 'uniqueId': 'el.gelatinas45', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8964867b1446081d4e48af3405f3abbf~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=2b93ccd2&amp;x-expires=1758052800&amp;x-signature=UjgCt4%2BMQCiH%2BluKrWtM1rGfi2M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2032,22 +2032,22 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Se me cayó un ídolo, en la mala Alpina</t>
+          <t>Me encanta 💙</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45910.90369212963</v>
+        <v>45911.94859953703</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>21:41:19</t>
+          <t>22:45:59</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578807612277511', 'createTime': 1757540479, 'createTimeISO': '2025-09-10T21:41:19.000Z', 'text': 'Se me cayó un ídolo, en la mala Alpina', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6859385792315769861', 'uniqueId': 'bomkly2', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a0f29357a9e54e5054e5669e06d564aa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=183f402a&amp;x-expires=1758034800&amp;x-signature=h0ywAYER0YIcQsR94xjjgk1Df34%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548966545201693458', 'createTime': 1757630759, 'createTimeISO': '2025-09-11T22:45:59.000Z', 'text': 'Me encanta 💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7192343363575530502', 'uniqueId': 'pilarcardona90', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f0ff25a33bba318f336930d217532900~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a997e0d1&amp;x-expires=1758052800&amp;x-signature=w1Liq%2BFFJzmd3abziG%2FUWh3Popc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2088,25 +2088,25 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>contratar a una persona no cuesta mucho Alpina</t>
+          <t>que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45910.47868055556</v>
+        <v>45910.92987268518</v>
       </c>
       <c r="H31" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11:29:18</t>
+          <t>22:19:01</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548421120124125959', 'createTime': 1757503758, 'createTimeISO': '2025-09-10T11:29:18.000Z', 'text': 'contratar a una persona no cuesta mucho Alpina', 'diggCount': 9, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156043383616898053', 'uniqueId': 'luperdoxx_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/73d7285035cb26f9f4f152a9df04c1fb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4bd1faca&amp;x-expires=1758034800&amp;x-signature=3waPkNuXb9JyXgv3Lvvdx3SqRVs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548588516893311762', 'createTime': 1757542741, 'createTimeISO': '2025-09-10T22:19:01.000Z', 'text': 'que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817878389598012422', 'uniqueId': 'alexo1208', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/ef7e2adcf8630799385cd64832d218ab~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=7bb48a0c&amp;x-expires=1758052800&amp;x-signature=1XW%2FVtlAnLnnB4FP69Yif2hjFgs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2144,25 +2144,25 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Como que les pesa mucho pagarle a un artista que si haga algo bueno</t>
+          <t>Divino!!!! Amo la historia</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45911.01646990741</v>
+        <v>45910.97527777778</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>00:23:43</t>
+          <t>23:24:24</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620601164104456', 'createTime': 1757550223, 'createTimeISO': '2025-09-11T00:23:43.000Z', 'text': 'Como que les pesa mucho pagarle a un artista que si haga algo bueno', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6797840408039703558', 'uniqueId': 'sstarberry__', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/4c4a684c8f37aa01fa09d888a9d7df43~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c9fb33c1&amp;x-expires=1758034800&amp;x-signature=Mc%2B97Q5ZWkBWGN2GY7Wo3r8iYq8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548605334442967816', 'createTime': 1757546664, 'createTimeISO': '2025-09-10T23:24:24.000Z', 'text': 'Divino!!!! Amo la historia', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807194247927710726', 'uniqueId': 'isabelagarciag16', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/b88517984d3050fcaa52657a475e3d78~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c5004268&amp;x-expires=1758052800&amp;x-signature=amznXVnFwRflshlAtJHb9FYWlDM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2200,25 +2200,25 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Un anuncio de IA, en serio?...</t>
+          <t>Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45910.90475694444</v>
+        <v>45910.96769675926</v>
       </c>
       <c r="H33" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>21:42:51</t>
+          <t>23:13:29</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548579047941669648', 'createTime': 1757540571, 'createTimeISO': '2025-09-10T21:42:51.000Z', 'text': 'Un anuncio de IA, en serio?...', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7267330640268559365', 'uniqueId': 'akg4lv1x', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/0cb47ff876dbe865901193337182695a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=eea2805f&amp;x-expires=1758034800&amp;x-signature=aipoa5GV1Ou%2FF62t%2Bp9efSFpgG8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548602541611041544', 'createTime': 1757546009, 'createTimeISO': '2025-09-10T23:13:29.000Z', 'text': 'Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7497728292843521025', 'uniqueId': 'johncisf05', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/505945559d7145fdfd55587e4211927a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=af882b36&amp;x-expires=1758052800&amp;x-signature=GNDiI2VXKP4q0pL%2F88xl6T%2FYzBk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2256,22 +2256,22 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>¿IA? Wow ,tanto que ganan y no pagan un animador</t>
+          <t>Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45910.79232638889</v>
+        <v>45910.9325462963</v>
       </c>
       <c r="H34" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>19:00:57</t>
+          <t>22:22:52</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548537516107088660', 'createTime': 1757530857, 'createTimeISO': '2025-09-10T19:00:57.000Z', 'text': '¿IA? Wow ,tanto que ganan y no pagan un animador', 'diggCount': 145, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7071862501012784133', 'uniqueId': 'el.gelatinas45', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8964867b1446081d4e48af3405f3abbf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cc314886&amp;x-expires=1758034800&amp;x-signature=uLMciDTgGGFZBwW39Qq7lkteXrg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548589473309754130', 'createTime': 1757542972, 'createTimeISO': '2025-09-10T22:22:52.000Z', 'text': 'Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6876120312544838661', 'uniqueId': 'andreselgatouriza', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/a1737248c6e55a0fb70d1cb876e69804~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=45810f58&amp;x-expires=1758052800&amp;x-signature=bI60jM6VYpkf5W%2BIxqrXEHOR4iQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2312,25 +2312,25 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje</t>
+          <t>una historia muy original 💙 Alpina llegando a nuestros hogares por más de 80 años 🤗</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45910.91199074074</v>
+        <v>45910.95302083333</v>
       </c>
       <c r="H35" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>21:53:16</t>
+          <t>22:52:21</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548581903085421319', 'createTime': 1757541196, 'createTimeISO': '2025-09-10T21:53:16.000Z', 'text': 'Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '242092892885082112', 'uniqueId': 'valiwolf', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/d46604217618ad37cce4d76a7a04cd46~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=67ee49ad&amp;x-expires=1758034800&amp;x-signature=v7bga65XY4olaFslUyAyGzPhj4A%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548597086792696594', 'createTime': 1757544741, 'createTimeISO': '2025-09-10T22:52:21.000Z', 'text': 'una historia muy original 💙 Alpina llegando a nuestros hogares por más de 80 años 🤗', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6808353821459350534', 'uniqueId': 'kathemia1002', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/74284c3455ff47a191f0cbc0236da720~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=294370d4&amp;x-expires=1758052800&amp;x-signature=Yj6SkOQ3XJoyNEmQbE1%2F0kWvnZk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2368,22 +2368,22 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores</t>
+          <t>Si usan IA no me fío de los procesos de sus lácteos 😅</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45910.97085648148</v>
+        <v>45911.16465277778</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>23:18:02</t>
+          <t>03:57:06</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548603750441599752', 'createTime': 1757546282, 'createTimeISO': '2025-09-10T23:18:02.000Z', 'text': 'espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6904343806360224773', 'uniqueId': 'thekambril', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/843de1e638535b6c4c44e34dcdd6dc88~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=28e362d1&amp;x-expires=1758034800&amp;x-signature=FgSoC3sJV28BBoTgpMMyYa8bmP4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548675672371430152', 'createTime': 1757563026, 'createTimeISO': '2025-09-11T03:57:06.000Z', 'text': 'Si usan IA no me fío de los procesos de sus lácteos 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7035757402419250181', 'uniqueId': 'saan_300', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7335925676140625926~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=855d60ed&amp;x-expires=1758052800&amp;x-signature=pOB30jfesR60EltfIh%2Bbx86toUA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2424,25 +2424,25 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Alpin que paso para llegar hasta este punto?</t>
+          <t>Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45910.35961805555</v>
+        <v>45910.93565972222</v>
       </c>
       <c r="H37" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>08:37:51</t>
+          <t>22:27:21</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>134</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548376941066732306', 'createTime': 1757493471, 'createTimeISO': '2025-09-10T08:37:51.000Z', 'text': 'Alpin que paso para llegar hasta este punto?', 'diggCount': 134, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7027306156922242054', 'uniqueId': 'zebis', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7e6922dadb62002e9255466f9bea4e5c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fac20550&amp;x-expires=1758034800&amp;x-signature=JaONbe3JmWG7nn3ybi2jvCX%2F5jc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548590640369173255', 'createTime': 1757543241, 'createTimeISO': '2025-09-10T22:27:21.000Z', 'text': 'Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7111661840812639237', 'uniqueId': 'juliandavidmuri10', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7111662424408096774~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=dc9146a1&amp;x-expires=1758052800&amp;x-signature=UFxl6EY8LOuiGLvdo%2FvnCZTTUrc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2480,22 +2480,22 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Recuerdan esos comerciales de animales bailando en el bosque y cantando?</t>
+          <t>Bro como se perdió el arte</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45910.90331018518</v>
+        <v>45910.55045138889</v>
       </c>
       <c r="H38" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>21:40:46</t>
+          <t>13:12:39</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578559905923856', 'createTime': 1757540446, 'createTimeISO': '2025-09-10T21:40:46.000Z', 'text': 'Recuerdan esos comerciales de animales bailando en el bosque y cantando?', 'diggCount': 28, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6750702320714155013', 'uniqueId': 'wakingleo', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7331160055510728710~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=896c30ae&amp;x-expires=1758034800&amp;x-signature=3RoQLlniXrxumr%2BHS7mkCckqbWA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447770353435410', 'createTime': 1757509959, 'createTimeISO': '2025-09-10T13:12:39.000Z', 'text': 'Bro como se perdió el arte', 'diggCount': 86, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7523791630316717074', 'uniqueId': 'nyako9311', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7941680fa88f973347764837a49a9b1f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5a27b30b&amp;x-expires=1758052800&amp;x-signature=lFIA11y3mPjzV46%2F7z7FtOqUvNA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2536,22 +2536,22 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>sin presupuesto para publicidad , como sera el producto?</t>
+          <t>Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>45910.85658564815</v>
+        <v>45910.5497337963</v>
       </c>
       <c r="H39" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>20:33:29</t>
+          <t>13:11:37</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548561345027752712', 'createTime': 1757536409, 'createTimeISO': '2025-09-10T20:33:29.000Z', 'text': 'sin presupuesto para publicidad , como sera el producto?', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6918781103953642502', 'uniqueId': 'avenaytamal', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/aa9181c161417e5dc803fcad15cc0d03~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=201c4c82&amp;x-expires=1758034800&amp;x-signature=rPQ8lWIgF685LmDzn4zGPxyBP0U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447494344131335', 'createTime': 1757509897, 'createTimeISO': '2025-09-10T13:11:37.000Z', 'text': 'Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.', 'diggCount': 39, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7039532507280196614', 'uniqueId': 'dulce_de_nata', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7332498416135274502~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=34f87cda&amp;x-expires=1758052800&amp;x-signature=T3wbZSCRn9As854QuJpXL%2BTD%2FPY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2592,25 +2592,25 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente</t>
+          <t>Qué linda está historiaa! Me encanta</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45910.85172453704</v>
+        <v>45910.64038194445</v>
       </c>
       <c r="H40" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>20:26:29</t>
+          <t>15:22:09</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548559525466374930', 'createTime': 1757535989, 'createTimeISO': '2025-09-10T20:26:29.000Z', 'text': 'Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente', 'diggCount': 38, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6603056868959666181', 'uniqueId': 'linsynose', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a547dda6766e2346d6cc85551ffa9599~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b7d1b6c4&amp;x-expires=1758034800&amp;x-signature=%2BqfcgdidU6dkGm0%2FTkJ0duuH%2BVw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548481145101763335', 'createTime': 1757517729, 'createTimeISO': '2025-09-10T15:22:09.000Z', 'text': 'Qué linda está historiaa! Me encanta', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807939541208237061', 'uniqueId': 'arestrepo1', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7331111760105046022~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=86fe028c&amp;x-expires=1758052800&amp;x-signature=Kd%2FcfCxMHzSEw67bhmr6baGDQn4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2648,22 +2648,22 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>IA 😬</t>
+          <t>Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45910.79935185185</v>
+        <v>45910.85172453704</v>
       </c>
       <c r="H41" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>19:11:04</t>
+          <t>20:26:29</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548540108145328904', 'createTime': 1757531464, 'createTimeISO': '2025-09-10T19:11:04.000Z', 'text': 'IA 😬', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6878771113729967109', 'uniqueId': 'andresmartinez_co', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/0e4fa031bfb76175d309ce7aad482cd3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f2f425f9&amp;x-expires=1758034800&amp;x-signature=hrQEkzDIQ9ftJl05hx9919Ie3Ag%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548559525466374930', 'createTime': 1757535989, 'createTimeISO': '2025-09-10T20:26:29.000Z', 'text': 'Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente', 'diggCount': 38, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6603056868959666181', 'uniqueId': 'linsynose', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a547dda6766e2346d6cc85551ffa9599~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=8319babd&amp;x-expires=1758052800&amp;x-signature=OMJ5QMbdllKJL3H%2BKlRFobuAxR8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2704,22 +2704,22 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bro como se perdió el arte</t>
+          <t>Recuerdan esos comerciales de animales bailando en el bosque y cantando?</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45910.55045138889</v>
+        <v>45910.90331018518</v>
       </c>
       <c r="H42" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>13:12:39</t>
+          <t>21:40:46</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447770353435410', 'createTime': 1757509959, 'createTimeISO': '2025-09-10T13:12:39.000Z', 'text': 'Bro como se perdió el arte', 'diggCount': 86, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7523791630316717074', 'uniqueId': 'nyako9311', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7941680fa88f973347764837a49a9b1f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f7e51a6c&amp;x-expires=1758034800&amp;x-signature=fRpaU179BpiPGsojh3alNiU9zvk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578559905923856', 'createTime': 1757540446, 'createTimeISO': '2025-09-10T21:40:46.000Z', 'text': 'Recuerdan esos comerciales de animales bailando en el bosque y cantando?', 'diggCount': 27, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6750702320714155013', 'uniqueId': 'wakingleo', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7331160055510728710~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=bf54d8b6&amp;x-expires=1758052800&amp;x-signature=Z6e2qv24p%2B4O7Ptu0aK4m6mihqo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2760,22 +2760,22 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>IA enserio?</t>
+          <t>Alpin que paso para llegar hasta este punto?</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45910.895625</v>
+        <v>45910.35961805555</v>
       </c>
       <c r="H43" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>21:29:42</t>
+          <t>08:37:51</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548575782660162311', 'createTime': 1757539782, 'createTimeISO': '2025-09-10T21:29:42.000Z', 'text': 'IA enserio?', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6636493445244813317', 'uniqueId': 'jhunjunar', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7325239266097774597~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=58bdc067&amp;x-expires=1758034800&amp;x-signature=jkvJU9lnqtUdvWkvv%2Bxb5uAmWfY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548376941066732306', 'createTime': 1757493471, 'createTimeISO': '2025-09-10T08:37:51.000Z', 'text': 'Alpin que paso para llegar hasta este punto?', 'diggCount': 134, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7027306156922242054', 'uniqueId': 'zebis', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7e6922dadb62002e9255466f9bea4e5c~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=75e1e458&amp;x-expires=1758052800&amp;x-signature=%2BQqqb4EvobcuwGhDenlL34iGQwU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2816,25 +2816,25 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>increible el esfuerzo wow. 💔🥀</t>
+          <t>tan lindo comercial 🥰🥰🥰🥰🥰</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45910.87224537037</v>
+        <v>45910.40491898148</v>
       </c>
       <c r="H44" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>20:56:02</t>
+          <t>09:43:05</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548567124958348039', 'createTime': 1757537762, 'createTimeISO': '2025-09-10T20:56:02.000Z', 'text': 'increible el esfuerzo wow. 💔🥀', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7320483299197043717', 'uniqueId': 'pepelover0401', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/80cf6fca533cc8d0175ee3672b20e6ca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=292c4cd4&amp;x-expires=1758034800&amp;x-signature=0nTiAiKGp10v1k%2FP2heW6RmLCwk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548393761517601554', 'createTime': 1757497385, 'createTimeISO': '2025-09-10T09:43:05.000Z', 'text': 'tan lindo comercial 🥰🥰🥰🥰🥰', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7461491967327962129', 'uniqueId': 'caro11.18', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/90a40a0ee147200def68ba2dfc2b1dca~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=58f6f2b4&amp;x-expires=1758052800&amp;x-signature=A4nwheWaTYZxHt7mFmQiuUNnpAo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2872,25 +2872,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>una historia muy original 💙 Alpina llegando a nuestros hogares por más de 80 años 🤗</t>
+          <t>empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45910.95302083333</v>
+        <v>45910.92006944444</v>
       </c>
       <c r="H45" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>22:52:21</t>
+          <t>22:04:54</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548597086792696594', 'createTime': 1757544741, 'createTimeISO': '2025-09-10T22:52:21.000Z', 'text': 'una historia muy original 💙 Alpina llegando a nuestros hogares por más de 80 años 🤗', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6808353821459350534', 'uniqueId': 'kathemia1002', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/74284c3455ff47a191f0cbc0236da720~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f713868&amp;x-expires=1758034800&amp;x-signature=1auaVclzRo%2B6Vr0NlDhS5obluGw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548584862849942280', 'createTime': 1757541894, 'createTimeISO': '2025-09-10T22:04:54.000Z', 'text': 'empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6774471423067997190', 'uniqueId': 'xiewww_h', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/ba1a8119f4148ea45db46fad9dcf764b~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=fbbb7bad&amp;x-expires=1758052800&amp;x-signature=u%2Fk0x5aAjMZ5PtQBTXD3Wa52ps0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2928,22 +2928,22 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>tanto que ganan y ni un animador se dignan a pagar, el colmo.</t>
+          <t>IA 😬</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45911.01949074074</v>
+        <v>45910.79935185185</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>00:28:04</t>
+          <t>19:11:04</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548621347896492801', 'createTime': 1757550484, 'createTimeISO': '2025-09-11T00:28:04.000Z', 'text': 'tanto que ganan y ni un animador se dignan a pagar, el colmo.', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959106580772471813', 'uniqueId': 'ans0fyyy', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/5787aa89d78fc130687462d5427a1653~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3b06f2bf&amp;x-expires=1758034800&amp;x-signature=2nM7aVqpc3njavtVkDGtG5UQcEw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548540108145328904', 'createTime': 1757531464, 'createTimeISO': '2025-09-10T19:11:04.000Z', 'text': 'IA 😬', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6878771113729967109', 'uniqueId': 'andresmartinez_co', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/0e4fa031bfb76175d309ce7aad482cd3~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e900e47e&amp;x-expires=1758052800&amp;x-signature=qCQkSV%2BVtPHxhIUHfc1rr%2Fepkmo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2984,25 +2984,25 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Divino!!!! Amo la historia</t>
+          <t>Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45910.97527777778</v>
+        <v>45910.91199074074</v>
       </c>
       <c r="H47" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>23:24:24</t>
+          <t>21:53:16</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548605334442967816', 'createTime': 1757546664, 'createTimeISO': '2025-09-10T23:24:24.000Z', 'text': 'Divino!!!! Amo la historia', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807194247927710726', 'uniqueId': 'isabelagarciag16', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/b88517984d3050fcaa52657a475e3d78~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ed4987f4&amp;x-expires=1758034800&amp;x-signature=LzBb7WpLRrHCinWLKqnIWDMNd0Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548581903085421319', 'createTime': 1757541196, 'createTimeISO': '2025-09-10T21:53:16.000Z', 'text': 'Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '242092892885082112', 'uniqueId': 'valiwolf', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/d46604217618ad37cce4d76a7a04cd46~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1e372722&amp;x-expires=1758052800&amp;x-signature=3uUgrfExgexqBZCi6pAn5rc%2B2bA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3040,22 +3040,22 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>se ve barato con la AI alpina que dececion</t>
+          <t>Como que les pesa mucho pagarle a un artista que si haga algo bueno</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45910.70459490741</v>
+        <v>45911.01646990741</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>16:54:37</t>
+          <t>00:23:43</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548504964740694802', 'createTime': 1757523277, 'createTimeISO': '2025-09-10T16:54:37.000Z', 'text': 'se ve barato con la AI alpina que dececion', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842124879065515013', 'uniqueId': 'flanapoli', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b4c439341ae460ae62d6bf8327e9c318~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c3d3b6a5&amp;x-expires=1758034800&amp;x-signature=TtXb3L8ueAwjJxc1kLsjOFtxNWM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620601164104456', 'createTime': 1757550223, 'createTimeISO': '2025-09-11T00:23:43.000Z', 'text': 'Como que les pesa mucho pagarle a un artista que si haga algo bueno', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6797840408039703558', 'uniqueId': 'sstarberry__', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/4c4a684c8f37aa01fa09d888a9d7df43~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=365b3bc8&amp;x-expires=1758052800&amp;x-signature=6FN5LkmwLYrW6tadbTgy0V8b09g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3096,25 +3096,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙</t>
+          <t>Se me cayó un ídolo, en la mala Alpina</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45910.93565972222</v>
+        <v>45910.90369212963</v>
       </c>
       <c r="H49" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>22:27:21</t>
+          <t>21:41:19</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548590640369173255', 'createTime': 1757543241, 'createTimeISO': '2025-09-10T22:27:21.000Z', 'text': 'Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7111661840812639237', 'uniqueId': 'juliandavidmuri10', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7111662424408096774~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ed5ec550&amp;x-expires=1758034800&amp;x-signature=lf%2Frh9afiIU2TLjW1LKTduhogZU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578807612277511', 'createTime': 1757540479, 'createTimeISO': '2025-09-10T21:41:19.000Z', 'text': 'Se me cayó un ídolo, en la mala Alpina', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6859385792315769861', 'uniqueId': 'bomkly2', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a0f29357a9e54e5054e5669e06d564aa~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=97bea04e&amp;x-expires=1758052800&amp;x-signature=G4qykV2Y8dgbCCEqh3g1efToFos%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3152,25 +3152,25 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋</t>
+          <t>IA enserio?</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45910.92987268518</v>
+        <v>45910.895625</v>
       </c>
       <c r="H50" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>22:19:01</t>
+          <t>21:29:42</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548588516893311762', 'createTime': 1757542741, 'createTimeISO': '2025-09-10T22:19:01.000Z', 'text': 'que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817878389598012422', 'uniqueId': 'alexo1208', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/ef7e2adcf8630799385cd64832d218ab~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ac1f5682&amp;x-expires=1758034800&amp;x-signature=denhoDDGCfL4V5qcBn4xVrqmJsI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548575782660162311', 'createTime': 1757539782, 'createTimeISO': '2025-09-10T21:29:42.000Z', 'text': 'IA enserio?', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6636493445244813317', 'uniqueId': 'jhunjunar', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7325239266097774597~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6989d28f&amp;x-expires=1758052800&amp;x-signature=HxjKS4Z7q5Swj2VWDk%2FiVJZ4Cio%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3208,22 +3208,22 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.</t>
+          <t>sin presupuesto para publicidad , como sera el producto?</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45910.5497337963</v>
+        <v>45910.85658564815</v>
       </c>
       <c r="H51" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>13:11:37</t>
+          <t>20:33:29</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447494344131335', 'createTime': 1757509897, 'createTimeISO': '2025-09-10T13:11:37.000Z', 'text': 'Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.', 'diggCount': 39, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7039532507280196614', 'uniqueId': 'dulce_de_nata', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7332498416135274502~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=de95b8f5&amp;x-expires=1758034800&amp;x-signature=DD1CYacl5cuRbwJLFJVS3NCbLmU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548561345027752712', 'createTime': 1757536409, 'createTimeISO': '2025-09-10T20:33:29.000Z', 'text': 'sin presupuesto para publicidad , como sera el producto?', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6918781103953642502', 'uniqueId': 'avenaytamal', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/aa9181c161417e5dc803fcad15cc0d03~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=62d1ffce&amp;x-expires=1758052800&amp;x-signature=L1%2F%2BJt60IDdYKtT81hLWt1cYeDM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3264,25 +3264,25 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>tan lindo comercial 🥰🥰🥰🥰🥰</t>
+          <t>Un anuncio de IA, en serio?...</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45910.40491898148</v>
+        <v>45910.90475694444</v>
       </c>
       <c r="H52" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>09:43:05</t>
+          <t>21:42:51</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548393761517601554', 'createTime': 1757497385, 'createTimeISO': '2025-09-10T09:43:05.000Z', 'text': 'tan lindo comercial 🥰🥰🥰🥰🥰', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7461491967327962129', 'uniqueId': 'caro11.18', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/90a40a0ee147200def68ba2dfc2b1dca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9b532a28&amp;x-expires=1758034800&amp;x-signature=Oro45oT152oWrgUHYLvl%2F7GwJqA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548579047941669648', 'createTime': 1757540571, 'createTimeISO': '2025-09-10T21:42:51.000Z', 'text': 'Un anuncio de IA, en serio?...', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7267330640268559365', 'uniqueId': 'akg4lv1x', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/0cb47ff876dbe865901193337182695a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ac3d3d12&amp;x-expires=1758052800&amp;x-signature=SIM4rMcQyMwptALOHJleKW%2FOMIk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3320,22 +3320,22 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>que es eso alpina</t>
+          <t>increible el esfuerzo wow. 💔🥀</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45910.94694444445</v>
+        <v>45910.87224537037</v>
       </c>
       <c r="H53" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>22:43:36</t>
+          <t>20:56:02</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548594843954447122', 'createTime': 1757544216, 'createTimeISO': '2025-09-10T22:43:36.000Z', 'text': 'que es eso alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6965117807211136002', 'uniqueId': 'bmn18920', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/06c0075ce87455af04698a541ffd2d51~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1f876799&amp;x-expires=1758034800&amp;x-signature=o1VRShD1Mw4AGXoDr47kZxHu0kI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548567124958348039', 'createTime': 1757537762, 'createTimeISO': '2025-09-10T20:56:02.000Z', 'text': 'increible el esfuerzo wow. 💔🥀', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7320483299197043717', 'uniqueId': 'pepelover0401', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/80cf6fca533cc8d0175ee3672b20e6ca~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=42a0bccb&amp;x-expires=1758052800&amp;x-signature=MXwiFPF3hpNiIKPzq9%2FwNkqyURI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3376,25 +3376,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙</t>
+          <t>espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45910.9325462963</v>
+        <v>45910.97085648148</v>
       </c>
       <c r="H54" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>22:22:52</t>
+          <t>23:18:02</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548589473309754130', 'createTime': 1757542972, 'createTimeISO': '2025-09-10T22:22:52.000Z', 'text': 'Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6876120312544838661', 'uniqueId': 'andreselgatouriza', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a1737248c6e55a0fb70d1cb876e69804~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=81ee7246&amp;x-expires=1758034800&amp;x-signature=kXCCnd8kzzzL1ceZCv1x49JrTzQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548603750441599752', 'createTime': 1757546282, 'createTimeISO': '2025-09-10T23:18:02.000Z', 'text': 'espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6904343806360224773', 'uniqueId': 'thekambril', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/843de1e638535b6c4c44e34dcdd6dc88~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ef127467&amp;x-expires=1758052800&amp;x-signature=lPLhstJv6UbZ5UmaNxOeuhXo2%2Fk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3432,25 +3432,25 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛</t>
+          <t>tanto que ganan y ni un animador se dignan a pagar, el colmo.</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45910.95050925926</v>
+        <v>45911.01949074074</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>22:48:44</t>
+          <t>00:28:04</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548596179627049736', 'createTime': 1757544524, 'createTimeISO': '2025-09-10T22:48:44.000Z', 'text': '¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '6892483566695154694', 'uniqueId': 'karenarres', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8e7f13a6edbd9f1e73869cf96c40fede~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aa32edcc&amp;x-expires=1758034800&amp;x-signature=vrnHRr8yB1zdwsBboStMx7IPTIw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548621347896492801', 'createTime': 1757550484, 'createTimeISO': '2025-09-11T00:28:04.000Z', 'text': 'tanto que ganan y ni un animador se dignan a pagar, el colmo.', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959106580772471813', 'uniqueId': 'ans0fyyy', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/5787aa89d78fc130687462d5427a1653~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=80d25f67&amp;x-expires=1758052800&amp;x-signature=5WNpiFHAymmndPogwu8jCrHbLIo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3488,25 +3488,25 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Qué linda está historiaa! Me encanta</t>
+          <t>y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>45910.64038194445</v>
+        <v>45911.09881944444</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>15:22:09</t>
+          <t>02:22:18</t>
         </is>
       </c>
       <c r="J56" t="n">
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548481145101763335', 'createTime': 1757517729, 'createTimeISO': '2025-09-10T15:22:09.000Z', 'text': 'Qué linda está historiaa! Me encanta', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807939541208237061', 'uniqueId': 'arestrepo1', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7331111760105046022~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1b5f9c8e&amp;x-expires=1758034800&amp;x-signature=P2%2BveFhymBecXhzl5j7EBo%2BzKnY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548651242424926994', 'createTime': 1757557338, 'createTimeISO': '2025-09-11T02:22:18.000Z', 'text': 'y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7127269324398822406', 'uniqueId': 'art_vlogs_124453', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/776a09d992ac899821136707d41a334f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=baca62e2&amp;x-expires=1758052800&amp;x-signature=cTehhiT5%2F2PpyFWDswpZ4oRGmPo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3544,22 +3544,23 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Si usan IA no me fío de los procesos de sus lácteos 😅</t>
+          <t>deseo vender sus productos
+gracias</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45911.16465277778</v>
+        <v>45910.47114583333</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>03:57:06</t>
+          <t>11:18:27</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -3574,7 +3575,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548675672371430152', 'createTime': 1757563026, 'createTimeISO': '2025-09-11T03:57:06.000Z', 'text': 'Si usan IA no me fío de los procesos de sus lácteos 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7035757402419250181', 'uniqueId': 'saan_300', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7335925676140625926~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0771b861&amp;x-expires=1758034800&amp;x-signature=TJUwA2ofpt8LQ%2BrTTj0Sr18INu8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548418329276318472', 'createTime': 1757503107, 'createTimeISO': '2025-09-10T11:18:27.000Z', 'text': 'deseo vender sus productos\ngracias', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7450631040689423366', 'uniqueId': 'leonbsxez4f', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=33ae5891&amp;x-expires=1758052800&amp;x-signature=suGlnP1LkkF7vGkNT5ApNgsneQk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3600,25 +3601,25 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Me veo linda en mi historia?</t>
+          <t>ia?</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45910.42668981481</v>
+        <v>45910.9887037037</v>
       </c>
       <c r="H58" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>10:14:26</t>
+          <t>23:43:44</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -3630,7 +3631,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548401767362806534', 'createTime': 1757499266, 'createTimeISO': '2025-09-10T10:14:26.000Z', 'text': 'Me veo linda en mi historia?', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 5, 'uid': '7237572995751937029', 'uniqueId': 'escarletgiron3', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/90f45fbb28c045f99beaef24f4d1bcc5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3999f238&amp;x-expires=1758034800&amp;x-signature=tY8fWE3lPPRDBdaiaLIdDR5t2OM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548610361759449863', 'createTime': 1757547824, 'createTimeISO': '2025-09-10T23:43:44.000Z', 'text': 'ia?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6912837321592488965', 'uniqueId': 'lennin.palacio', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/faee210c34b84e9f531a921eda58429b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5fba2296&amp;x-expires=1758052800&amp;x-signature=m8IQmK0qbUD7vUCsHjGdBFyEy3w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3656,22 +3657,22 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Me encanta 💙</t>
+          <t>Muy mal alpina 😔</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45911.94859953703</v>
+        <v>45910.72035879629</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>22:45:59</t>
+          <t>17:17:19</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -3686,7 +3687,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548966545201693458', 'createTime': 1757630759, 'createTimeISO': '2025-09-11T22:45:59.000Z', 'text': 'Me encanta 💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7192343363575530502', 'uniqueId': 'pilarcardona90', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f0ff25a33bba318f336930d217532900~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=97109c78&amp;x-expires=1758034800&amp;x-signature=GzUU3WqMMcl5grFcL3SKZ63px10%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548510815235048210', 'createTime': 1757524639, 'createTimeISO': '2025-09-10T17:17:19.000Z', 'text': 'Muy mal alpina 😔', 'diggCount': 52, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7401980556445189125', 'uniqueId': 'vanshi432', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9593619d8a1f3f6623ca0b4ba781b0f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6716a12c&amp;x-expires=1758052800&amp;x-signature=ZSFZENQiO41UKQafNopzS%2FNkc%2Fc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3712,22 +3713,22 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd</t>
+          <t>contratar a una persona no cuesta mucho Alpina</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45911.09881944444</v>
+        <v>45910.47868055556</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>02:22:18</t>
+          <t>11:29:18</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -3742,7 +3743,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548651242424926994', 'createTime': 1757557338, 'createTimeISO': '2025-09-11T02:22:18.000Z', 'text': 'y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7127269324398822406', 'uniqueId': 'art_vlogs_124453', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/776a09d992ac899821136707d41a334f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c74a5ba7&amp;x-expires=1758034800&amp;x-signature=qsAmaNXLAJjKRyjLw%2BkdnQtmwUI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548421120124125959', 'createTime': 1757503758, 'createTimeISO': '2025-09-10T11:29:18.000Z', 'text': 'contratar a una persona no cuesta mucho Alpina', 'diggCount': 9, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156043383616898053', 'uniqueId': 'luperdoxx_', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/73d7285035cb26f9f4f152a9df04c1fb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0f27e72a&amp;x-expires=1758052800&amp;x-signature=pbOb4WhrLCbPykUZhU8GiCLuuzU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3768,22 +3769,22 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ia?</t>
+          <t>Un cliente menos por usar IA. Lo mínimo sería que se esforzaran.</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45910.9887037037</v>
+        <v>45910.44918981481</v>
       </c>
       <c r="H61" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>23:43:44</t>
+          <t>10:46:50</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -3798,7 +3799,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548610361759449863', 'createTime': 1757547824, 'createTimeISO': '2025-09-10T23:43:44.000Z', 'text': 'ia?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6912837321592488965', 'uniqueId': 'lennin.palacio', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/faee210c34b84e9f531a921eda58429b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b4d84efa&amp;x-expires=1758034800&amp;x-signature=OnNmEplsLzyOqt0Q4vzMxoDQ7tU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548410183963149063', 'createTime': 1757501210, 'createTimeISO': '2025-09-10T10:46:50.000Z', 'text': 'Un cliente menos por usar IA. Lo mínimo sería que se esforzaran.', 'diggCount': 19, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6831317940266632198', 'uniqueId': 'hfwxkmii', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c073c67778fa163af85e8ec12e9f7b34~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3de26a01&amp;x-expires=1758052800&amp;x-signature=j%2FPiP2kV33q%2BpNgc1I9yPcs5O4Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3824,27 +3825,26 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>deseo vender sus productos
-gracias</t>
+          <t>esa ia que, bajenle el sueldo al del marketing</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45910.47114583333</v>
+        <v>45910.44768518519</v>
       </c>
       <c r="H62" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>11:18:27</t>
+          <t>10:44:40</t>
         </is>
       </c>
       <c r="J62" t="n">
+        <v>34</v>
+      </c>
+      <c r="K62" t="n">
         <v>2</v>
       </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
       <c r="L62" t="b">
         <v>0</v>
       </c>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548418329276318472', 'createTime': 1757503107, 'createTimeISO': '2025-09-10T11:18:27.000Z', 'text': 'deseo vender sus productos\ngracias', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7450631040689423366', 'uniqueId': 'leonbsxez4f', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a3dfe747&amp;x-expires=1758034800&amp;x-signature=teA4SOxYpw5ZyVTwLc8TYTVhmGY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548409627651326728', 'createTime': 1757501080, 'createTimeISO': '2025-09-10T10:44:40.000Z', 'text': 'esa ia que, bajenle el sueldo al del marketing', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7241313157364237317', 'uniqueId': '..masyumaroo', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/fcea146f1ab11fdfd0007ed28178331a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=560fe373&amp;x-expires=1758052800&amp;x-signature=ZBaEJAxsBeO5yj8Rdj0C99kJKbg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3881,25 +3881,25 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!</t>
+          <t>la ia mato la originalidad, extraño los anuncios de antes de alpin</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45910.96769675926</v>
+        <v>45910.41877314815</v>
       </c>
       <c r="H63" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>23:13:29</t>
+          <t>10:03:02</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548602541611041544', 'createTime': 1757546009, 'createTimeISO': '2025-09-10T23:13:29.000Z', 'text': 'Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7497728292843521025', 'uniqueId': 'johncisf05', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/505945559d7145fdfd55587e4211927a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=853d0908&amp;x-expires=1758034800&amp;x-signature=jZpRfNWcQybtbaGue%2FfJSjQIeJ4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548398904514036496', 'createTime': 1757498582, 'createTimeISO': '2025-09-10T10:03:02.000Z', 'text': 'la ia mato la originalidad, extraño los anuncios de antes de alpin', 'diggCount': 30, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7423950923732534278', 'uniqueId': 'n_sin_ideas', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/778bdb3c77f3b1186ea08862f026d708~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b57c9f8a&amp;x-expires=1758052800&amp;x-signature=aOlL203IhGEhc0mL9%2F4ozeq6Nj8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3937,22 +3937,22 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Me encanta 💙</t>
+          <t>Ya le dan pereza hacer una animación ya hasta usan IA</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45910.96372685185</v>
+        <v>45910.25746527778</v>
       </c>
       <c r="H64" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>23:07:46</t>
+          <t>06:10:45</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548601049558713106', 'createTime': 1757545666, 'createTimeISO': '2025-09-10T23:07:46.000Z', 'text': 'Me encanta 💙', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765986832699999237', 'uniqueId': 'maiteito', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a3685ad22846cc5cdb0de3282e771d00~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b291fae2&amp;x-expires=1758034800&amp;x-signature=lmCEWWlopXqcR0lhL9aY48UBBK0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548339039976506130', 'createTime': 1757484645, 'createTimeISO': '2025-09-10T06:10:45.000Z', 'text': 'Ya le dan pereza hacer una animación ya hasta usan IA', 'diggCount': 63, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7052150802987156485', 'uniqueId': 'jhon_87g', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/03ffe7e0084a217762b94e6878473788~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=60d3c274&amp;x-expires=1758052800&amp;x-signature=lTD%2BlDZHWLP5uFQKn3O3npHtsNo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3993,22 +3993,22 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Un cliente menos por usar IA. Lo mínimo sería que se esforzaran.</t>
+          <t>que bajo usar ia.</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45910.44918981481</v>
+        <v>45910.27891203704</v>
       </c>
       <c r="H65" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>10:46:50</t>
+          <t>06:41:38</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548410183963149063', 'createTime': 1757501210, 'createTimeISO': '2025-09-10T10:46:50.000Z', 'text': 'Un cliente menos por usar IA. Lo mínimo sería que se esforzaran.', 'diggCount': 19, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6831317940266632198', 'uniqueId': 'hfwxkmii', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c073c67778fa163af85e8ec12e9f7b34~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=51530e2f&amp;x-expires=1758034800&amp;x-signature=AdRMMO%2FiuBZI47WoxlZGkmv2YVQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548346981217157895', 'createTime': 1757486498, 'createTimeISO': '2025-09-10T06:41:38.000Z', 'text': 'que bajo usar ia.', 'diggCount': 42, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7167799974063031302', 'uniqueId': 'dummynicki', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/5b83b697a53a425bd669997398de954d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7a921aeb&amp;x-expires=1758052800&amp;x-signature=A4%2B%2FhvapJ5C329N8iPvIjuztyF4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4049,25 +4049,25 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>esa ia que, bajenle el sueldo al del marketing</t>
+          <t>Q acabo de ver 😔</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45910.44768518519</v>
+        <v>45910.44203703704</v>
       </c>
       <c r="H66" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>10:44:40</t>
+          <t>10:36:32</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L66" t="b">
         <v>0</v>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548409627651326728', 'createTime': 1757501080, 'createTimeISO': '2025-09-10T10:44:40.000Z', 'text': 'esa ia que, bajenle el sueldo al del marketing', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7241313157364237317', 'uniqueId': '..masyumaroo', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/fcea146f1ab11fdfd0007ed28178331a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a035c8de&amp;x-expires=1758034800&amp;x-signature=xbf%2Fnr9MvW9StPKF%2FDBeG%2BJRr%2FE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548407528423359239', 'createTime': 1757500592, 'createTimeISO': '2025-09-10T10:36:32.000Z', 'text': 'Q acabo de ver 😔', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6747353274120242182', 'uniqueId': 'ani.garza02', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/354756293f1d163ff79856a81afb4be8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e8501709&amp;x-expires=1758052800&amp;x-signature=lA%2FCO8tZR1b4eC%2FU8f63%2BFrr5sU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4105,25 +4105,25 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>la ia mato la originalidad, extraño los anuncios de antes de alpin</t>
+          <t>Uno espera eso de marcas chiquitas que no les alcanza para publicidad</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45910.41877314815</v>
+        <v>45910.36795138889</v>
       </c>
       <c r="H67" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>10:03:02</t>
+          <t>08:49:51</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="b">
         <v>0</v>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548398904514036496', 'createTime': 1757498582, 'createTimeISO': '2025-09-10T10:03:02.000Z', 'text': 'la ia mato la originalidad, extraño los anuncios de antes de alpin', 'diggCount': 30, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7423950923732534278', 'uniqueId': 'n_sin_ideas', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/778bdb3c77f3b1186ea08862f026d708~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=606cc51a&amp;x-expires=1758034800&amp;x-signature=6q43eS3EaL9lMT93bU3fovns4sA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548380036207395605', 'createTime': 1757494191, 'createTimeISO': '2025-09-10T08:49:51.000Z', 'text': 'Uno espera eso de marcas chiquitas que no les alcanza para publicidad', 'diggCount': 20, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6916860526317700102', 'uniqueId': 'danyelangelb', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/724928af54d82cb730b74befb561dc8b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=899c8023&amp;x-expires=1758052800&amp;x-signature=vc7fTOzh5nl3iCL65GizEBgeqqk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Ya le dan pereza hacer una animación ya hasta usan IA</t>
+          <t>IA 💀💀💀💀</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45910.25746527778</v>
+        <v>45910.57609953704</v>
       </c>
       <c r="H68" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>06:10:45</t>
+          <t>13:49:35</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548339039976506130', 'createTime': 1757484645, 'createTimeISO': '2025-09-10T06:10:45.000Z', 'text': 'Ya le dan pereza hacer una animación ya hasta usan IA', 'diggCount': 63, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7052150802987156485', 'uniqueId': 'jhon_87g', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/03ffe7e0084a217762b94e6878473788~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f684a5e4&amp;x-expires=1758034800&amp;x-signature=FWmbwnlL5LUUJPNvB%2FtoM4Cfo3I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548457290329604882', 'createTime': 1757512175, 'createTimeISO': '2025-09-10T13:49:35.000Z', 'text': 'IA 💀💀💀💀', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7332704', 'uniqueId': 'andreandreandreaaa', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/af674a3010d5299eb3031b6029febf13~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b23119f1&amp;x-expires=1758052800&amp;x-signature=N1BHsuWkn1ngrJeqFDcGqGT6uoY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4217,22 +4217,22 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>que bajo usar ia.</t>
+          <t>trátame serio</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45910.27891203704</v>
+        <v>45910.39059027778</v>
       </c>
       <c r="H69" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>06:41:38</t>
+          <t>09:22:27</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548346981217157895', 'createTime': 1757486498, 'createTimeISO': '2025-09-10T06:41:38.000Z', 'text': 'que bajo usar ia.', 'diggCount': 42, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7167799974063031302', 'uniqueId': 'dummynicki', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/5b83b697a53a425bd669997398de954d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=37c2f924&amp;x-expires=1758034800&amp;x-signature=SQ%2FGq1xc2hbCHl5yA9vbMRjdyXI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548388399540732673', 'createTime': 1757496147, 'createTimeISO': '2025-09-10T09:22:27.000Z', 'text': 'trátame serio', 'diggCount': 17, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7269821787213759493', 'uniqueId': 'horrendoporro', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/5a352fff86558acc67aa91907eb9d00f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bedb1901&amp;x-expires=1758052800&amp;x-signature=MkYDVk8ohiV2w8wDhrdK%2FWb%2BDh0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4273,22 +4273,22 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Q acabo de ver 😔</t>
+          <t>cómo diseñadora y futura animadora, me duele ver qué usa IA. sabiendo que es una empresa millonaria</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45910.44203703704</v>
+        <v>45910.89931712963</v>
       </c>
       <c r="H70" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>10:36:32</t>
+          <t>21:35:01</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548407528423359239', 'createTime': 1757500592, 'createTimeISO': '2025-09-10T10:36:32.000Z', 'text': 'Q acabo de ver 😔', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6747353274120242182', 'uniqueId': 'ani.garza02', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/354756293f1d163ff79856a81afb4be8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=291f1450&amp;x-expires=1758034800&amp;x-signature=D9VWjjtxWQHaaNcQ80wZvwtX%2FCY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548577179987297045', 'createTime': 1757540101, 'createTimeISO': '2025-09-10T21:35:01.000Z', 'text': 'cómo diseñadora y futura animadora, me duele ver qué usa IA. sabiendo que es una empresa millonaria', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7088423636848280581', 'uniqueId': '__kim_.dan_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d86b34aeb7ca62450a58e8618a1437da~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=213eed01&amp;x-expires=1758052800&amp;x-signature=BAIUyiZw1jDRg0v06p%2FVig36vcA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4329,25 +4329,25 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Uno espera eso de marcas chiquitas que no les alcanza para publicidad</t>
+          <t>que es eso alpina</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>45910.36795138889</v>
+        <v>45910.94694444445</v>
       </c>
       <c r="H71" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>08:49:51</t>
+          <t>22:43:36</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="b">
         <v>0</v>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548380036207395605', 'createTime': 1757494191, 'createTimeISO': '2025-09-10T08:49:51.000Z', 'text': 'Uno espera eso de marcas chiquitas que no les alcanza para publicidad', 'diggCount': 20, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6916860526317700102', 'uniqueId': 'danyelangelb', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/724928af54d82cb730b74befb561dc8b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=34ced182&amp;x-expires=1758034800&amp;x-signature=4ww3EpEIA5kUZQVzFTVOHS1aj5w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548594843954447122', 'createTime': 1757544216, 'createTimeISO': '2025-09-10T22:43:36.000Z', 'text': 'que es eso alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6965117807211136002', 'uniqueId': 'bmn18920', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/06c0075ce87455af04698a541ffd2d51~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=21a85555&amp;x-expires=1758052800&amp;x-signature=8McblsqfzW809hqbruvvbByXk9k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4385,22 +4385,22 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>IA 💀💀💀💀</t>
+          <t>por eso es mejor la marca pureza</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45910.57609953704</v>
+        <v>45910.43903935186</v>
       </c>
       <c r="H72" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>13:49:35</t>
+          <t>10:32:13</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548457290329604882', 'createTime': 1757512175, 'createTimeISO': '2025-09-10T13:49:35.000Z', 'text': 'IA 💀💀💀💀', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7332704', 'uniqueId': 'andreandreandreaaa', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/af674a3010d5299eb3031b6029febf13~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f52adb0&amp;x-expires=1758034800&amp;x-signature=Stlv%2FLlsTUN4KQm0TX2YUM%2FkeYM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548406411652023048', 'createTime': 1757500333, 'createTimeISO': '2025-09-10T10:32:13.000Z', 'text': 'por eso es mejor la marca pureza', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7532305065131033608', 'uniqueId': 'annshixd', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/96e56ac3430174ee911ad04eff7233af~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=306d05db&amp;x-expires=1758052800&amp;x-signature=p0QVFKsl%2FOr8SNnoPiUKfkD0I04%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4441,22 +4441,22 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>trátame serio</t>
+          <t>hasta yo que no se animar lo hago mejor</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45910.39059027778</v>
+        <v>45910.75954861111</v>
       </c>
       <c r="H73" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>09:22:27</t>
+          <t>18:13:45</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548388399540732673', 'createTime': 1757496147, 'createTimeISO': '2025-09-10T09:22:27.000Z', 'text': 'trátame serio', 'diggCount': 17, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7269821787213759493', 'uniqueId': 'horrendoporro', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/5a352fff86558acc67aa91907eb9d00f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=df63f897&amp;x-expires=1758034800&amp;x-signature=o2iFw9%2F3sgGLmYNj1W7FtQ2RGOo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548525337766298386', 'createTime': 1757528025, 'createTimeISO': '2025-09-10T18:13:45.000Z', 'text': 'hasta yo que no se animar lo hago mejor', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6821105890537964550', 'uniqueId': 'doodle_tam', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b6955c33763a61b586f923a3d4c6fff8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e27dec85&amp;x-expires=1758052800&amp;x-signature=6%2BiSR7x%2F%2FiAM4M0rf44MnGP%2BzBw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4497,22 +4497,22 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>cómo diseñadora y futura animadora, me duele ver qué usa IA. sabiendo que es una empresa millonaria</t>
+          <t>Así de artificial son los nutriente 😅</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>45910.89931712963</v>
+        <v>45910.89015046296</v>
       </c>
       <c r="H74" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>21:35:01</t>
+          <t>21:21:49</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548577179987297045', 'createTime': 1757540101, 'createTimeISO': '2025-09-10T21:35:01.000Z', 'text': 'cómo diseñadora y futura animadora, me duele ver qué usa IA. sabiendo que es una empresa millonaria', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7088423636848280581', 'uniqueId': '__kim_.dan_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d86b34aeb7ca62450a58e8618a1437da~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5af30bf3&amp;x-expires=1758034800&amp;x-signature=7jIAjhywyDGTDxUDGsi6MMhM6sM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548573780232045320', 'createTime': 1757539309, 'createTimeISO': '2025-09-10T21:21:49.000Z', 'text': 'Así de artificial son los nutriente 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6789799898302284805', 'uniqueId': 'ladeliagendas', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/9009b02feb54b951748fb889574a258d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=30f2dd2c&amp;x-expires=1758052800&amp;x-signature=ig%2BWyT98Mv0lxvDs%2B9qxpv8fUlk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4553,22 +4553,22 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>por eso es mejor la marca pureza</t>
+          <t>no les dolía tanto e bolsillo comisionar a un artista de verdad sabes??😅😅</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45910.43903935186</v>
+        <v>45910.81274305555</v>
       </c>
       <c r="H75" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>10:32:13</t>
+          <t>19:30:21</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548406411652023048', 'createTime': 1757500333, 'createTimeISO': '2025-09-10T10:32:13.000Z', 'text': 'por eso es mejor la marca pureza', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7532305065131033608', 'uniqueId': 'annshixd', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/96e56ac3430174ee911ad04eff7233af~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7ab93295&amp;x-expires=1758034800&amp;x-signature=KX5eJarbs%2BhPVtjS7zG2pCMHJXc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548545077762605832', 'createTime': 1757532621, 'createTimeISO': '2025-09-10T19:30:21.000Z', 'text': 'no les dolía tanto e bolsillo comisionar a un artista de verdad sabes??😅😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7043924049042916357', 'uniqueId': 'isariosss7', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/97a9036a3d513b6e6f9089ac76500f9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0a98b0b7&amp;x-expires=1758052800&amp;x-signature=0EgRAqsfDTZWbp76irKD%2FuGUKsk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4609,22 +4609,22 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>hasta yo que no se animar lo hago mejor</t>
+          <t>duro de ver</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>45910.75954861111</v>
+        <v>45910.79689814815</v>
       </c>
       <c r="H76" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>18:13:45</t>
+          <t>19:07:32</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -4639,7 +4639,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548525337766298386', 'createTime': 1757528025, 'createTimeISO': '2025-09-10T18:13:45.000Z', 'text': 'hasta yo que no se animar lo hago mejor', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6821105890537964550', 'uniqueId': 'doodle_tam', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b6955c33763a61b586f923a3d4c6fff8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bbc7f2c2&amp;x-expires=1758034800&amp;x-signature=xajYS9pXWshdoGGHGCDdJUeZXV4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548539172203954962', 'createTime': 1757531252, 'createTimeISO': '2025-09-10T19:07:32.000Z', 'text': 'duro de ver', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6848315334416483334', 'uniqueId': 'uyyuart', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/64238889da285c6d545191932696d173~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cb1a5bc5&amp;x-expires=1758052800&amp;x-signature=%2BNp1iquOjwx7L7DJqOmtdGJPc7s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4665,18 +4665,18 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Así de artificial son los nutriente 😅</t>
+          <t>Bro?💀</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45910.89015046296</v>
+        <v>45910.73438657408</v>
       </c>
       <c r="H77" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>21:21:49</t>
+          <t>17:37:31</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548573780232045320', 'createTime': 1757539309, 'createTimeISO': '2025-09-10T21:21:49.000Z', 'text': 'Así de artificial son los nutriente 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6789799898302284805', 'uniqueId': 'ladeliagendas', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/9009b02feb54b951748fb889574a258d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1801b814&amp;x-expires=1758034800&amp;x-signature=6u%2Bsnp0nGlWscQPOF4TGP%2BcSCdA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548516020722909960', 'createTime': 1757525851, 'createTimeISO': '2025-09-10T17:37:31.000Z', 'text': 'Bro?💀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7062546552564237317', 'uniqueId': 'umji_238', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/775b6041c9fdd0f49cde43fb9deb54fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f6f934a5&amp;x-expires=1758052800&amp;x-signature=DelBdJ1CUgTdTkKaQOLbtkXx%2Bmc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4721,22 +4721,22 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>duro de ver</t>
+          <t>Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45910.79689814815</v>
+        <v>45911.09158564815</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>19:07:32</t>
+          <t>02:11:53</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548539172203954962', 'createTime': 1757531252, 'createTimeISO': '2025-09-10T19:07:32.000Z', 'text': 'duro de ver', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6848315334416483334', 'uniqueId': 'uyyuart', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/64238889da285c6d545191932696d173~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=baea4eaa&amp;x-expires=1758034800&amp;x-signature=1D2d1mlawRH0tKvmZZ6Yb36Xo8k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548648557948683026', 'createTime': 1757556713, 'createTimeISO': '2025-09-11T02:11:53.000Z', 'text': 'Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6976617115294139397', 'uniqueId': 'chowder9273', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/21ce081563d432fdfb13dc114a97d005~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2690e612&amp;x-expires=1758052800&amp;x-signature=NvHUjwc%2Fm6hY4lUa9yTNecFS89w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4777,22 +4777,22 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>no les dolía tanto e bolsillo comisionar a un artista de verdad sabes??😅😅</t>
+          <t>Que horrible anuncio, acaso están a punto de llegar a la quiebra que no le pagan a animadores de verdad?</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>45910.81274305555</v>
+        <v>45910.72261574074</v>
       </c>
       <c r="H79" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>19:30:21</t>
+          <t>17:20:34</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548545077762605832', 'createTime': 1757532621, 'createTimeISO': '2025-09-10T19:30:21.000Z', 'text': 'no les dolía tanto e bolsillo comisionar a un artista de verdad sabes??😅😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7043924049042916357', 'uniqueId': 'isariosss7', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/97a9036a3d513b6e6f9089ac76500f9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=575d1bc1&amp;x-expires=1758034800&amp;x-signature=RG7CqqLkQ9wd6vPn5qPTR0zL4tM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548511652074537736', 'createTime': 1757524834, 'createTimeISO': '2025-09-10T17:20:34.000Z', 'text': 'Que horrible anuncio, acaso están a punto de llegar a la quiebra que no le pagan a animadores de verdad?', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6686421078979757061', 'uniqueId': 'maffmaffmuffin', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7320050030432878597~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f891c70e&amp;x-expires=1758052800&amp;x-signature=Jlddc8bbia1oYyGHSz2zqwF1vtg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4833,22 +4833,22 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bro?💀</t>
+          <t>Uy amigos por lo menos disimulen la ia porque se ve horrible ese comercial</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>45910.73438657408</v>
+        <v>45910.58208333333</v>
       </c>
       <c r="H80" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>17:37:31</t>
+          <t>13:58:12</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548516020722909960', 'createTime': 1757525851, 'createTimeISO': '2025-09-10T17:37:31.000Z', 'text': 'Bro?💀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7062546552564237317', 'uniqueId': 'umji_238', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/775b6041c9fdd0f49cde43fb9deb54fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=14783821&amp;x-expires=1758034800&amp;x-signature=rCtTJtFuhfVKJBA5r6MVPC2FqEM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548459511968121608', 'createTime': 1757512692, 'createTimeISO': '2025-09-10T13:58:12.000Z', 'text': 'Uy amigos por lo menos disimulen la ia porque se ve horrible ese comercial', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6754154606328808453', 'uniqueId': 'lecterspov', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a09d318b4f042339bb2945ad8ac0a33a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ca3bf8f1&amp;x-expires=1758052800&amp;x-signature=UyoecxiJnrrNcOw%2BiiUSZPmpxHQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4889,22 +4889,22 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Que horrible anuncio, acaso están a punto de llegar a la quiebra que no le pagan a animadores de verdad?</t>
+          <t>Dios la animacion hizo que sangraran mis ojos</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45910.72261574074</v>
+        <v>45911.23148148148</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>17:20:34</t>
+          <t>05:33:20</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548511652074537736', 'createTime': 1757524834, 'createTimeISO': '2025-09-10T17:20:34.000Z', 'text': 'Que horrible anuncio, acaso están a punto de llegar a la quiebra que no le pagan a animadores de verdad?', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6686421078979757061', 'uniqueId': 'maffmaffmuffin', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7320050030432878597~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=488dfb2d&amp;x-expires=1758034800&amp;x-signature=a%2Fax7aOEUowTMVKHuIm1NsOGg%2Fc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548700471956865812', 'createTime': 1757568800, 'createTimeISO': '2025-09-11T05:33:20.000Z', 'text': 'Dios la animacion hizo que sangraran mis ojos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6938471178873635846', 'uniqueId': 'fred.pendly', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/e89d64cfe3f0b62bb357738336fc27cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5bdc71b5&amp;x-expires=1758052800&amp;x-signature=6VPqzsug7INy%2FKBQd%2FS0JcX%2B3ts%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4945,22 +4945,22 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Uy amigos por lo menos disimulen la ia porque se ve horrible ese comercial</t>
+          <t>Alpina, una de las marcas más reconocidas y exitosas del país, no tiene para pagarle a un estudio de animación y le dieron ese trabajo al primer tipo que sugirió escribir prompts y sacar este anuncio tan flojo y feo</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>45910.58208333333</v>
+        <v>45910.33052083333</v>
       </c>
       <c r="H82" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>13:58:12</t>
+          <t>07:55:57</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548459511968121608', 'createTime': 1757512692, 'createTimeISO': '2025-09-10T13:58:12.000Z', 'text': 'Uy amigos por lo menos disimulen la ia porque se ve horrible ese comercial', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6754154606328808453', 'uniqueId': 'lecterspov', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a09d318b4f042339bb2945ad8ac0a33a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0b253a2a&amp;x-expires=1758034800&amp;x-signature=pX%2BFlDjtxnPT7%2BdV6CMjIFR9ovI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548366156965495570', 'createTime': 1757490957, 'createTimeISO': '2025-09-10T07:55:57.000Z', 'text': 'Alpina, una de las marcas más reconocidas y exitosas del país, no tiene para pagarle a un estudio de animación y le dieron ese trabajo al primer tipo que sugirió escribir prompts y sacar este anuncio tan flojo y feo', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806565442996487174', 'uniqueId': 'maikylart', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/53277bd06fe07cea9179d145496d1ddc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=52be5951&amp;x-expires=1758052800&amp;x-signature=clUqwyrl%2FztdCkqyUncTc3G0rPw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5001,22 +5001,22 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Dios la animacion hizo que sangraran mis ojos</t>
+          <t>Contraten artistas reales, tacaños</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>45911.23148148148</v>
+        <v>45910.44408564815</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>05:33:20</t>
+          <t>10:39:29</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548700471956865812', 'createTime': 1757568800, 'createTimeISO': '2025-09-11T05:33:20.000Z', 'text': 'Dios la animacion hizo que sangraran mis ojos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6938471178873635846', 'uniqueId': 'fred.pendly', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/e89d64cfe3f0b62bb357738336fc27cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8f162342&amp;x-expires=1758034800&amp;x-signature=MtUugaOEwF4TTQlrU%2B%2BWLy%2BY7kw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548408060374860545', 'createTime': 1757500769, 'createTimeISO': '2025-09-10T10:39:29.000Z', 'text': 'Contraten artistas reales, tacaños', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7392782108512912390', 'uniqueId': 'stuffilike.alien', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/859aa727b06ccb2a701c3a4133f034a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=439a8dae&amp;x-expires=1758052800&amp;x-signature=Lck2ZVEU3fAVFaRlawG10n211iI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5057,22 +5057,22 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Alpina, una de las marcas más reconocidas y exitosas del país, no tiene para pagarle a un estudio de animación y le dieron ese trabajo al primer tipo que sugirió escribir prompts y sacar este anuncio tan flojo y feo</t>
+          <t>se ve barato con la AI alpina que dececion</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>45910.33052083333</v>
+        <v>45910.70459490741</v>
       </c>
       <c r="H84" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>07:55:57</t>
+          <t>16:54:37</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548366156965495570', 'createTime': 1757490957, 'createTimeISO': '2025-09-10T07:55:57.000Z', 'text': 'Alpina, una de las marcas más reconocidas y exitosas del país, no tiene para pagarle a un estudio de animación y le dieron ese trabajo al primer tipo que sugirió escribir prompts y sacar este anuncio tan flojo y feo', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806565442996487174', 'uniqueId': 'maikylart', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/53277bd06fe07cea9179d145496d1ddc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6daf975d&amp;x-expires=1758034800&amp;x-signature=%2BIjQP0KxauVdWrg6pgTcZoIrBQE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548504964740694802', 'createTime': 1757523277, 'createTimeISO': '2025-09-10T16:54:37.000Z', 'text': 'se ve barato con la AI alpina que dececion', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842124879065515013', 'uniqueId': 'flanapoli', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b4c439341ae460ae62d6bf8327e9c318~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=35c9e1ac&amp;x-expires=1758052800&amp;x-signature=vqjXq0Hi4UkAEjuVan1%2FhvRoZVY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5113,22 +5113,22 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Contraten artistas reales, tacaños</t>
+          <t>WAKALA LA IA mejor no compro alpina</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45910.44408564815</v>
+        <v>45911.10884259259</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>10:39:29</t>
+          <t>02:36:44</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548408060374860545', 'createTime': 1757500769, 'createTimeISO': '2025-09-10T10:39:29.000Z', 'text': 'Contraten artistas reales, tacaños', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7392782108512912390', 'uniqueId': 'stuffilike.alien', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/859aa727b06ccb2a701c3a4133f034a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=80e53982&amp;x-expires=1758034800&amp;x-signature=zmDpkE53hg%2BMLPQjhUNyXWgISIg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548654960079766280', 'createTime': 1757558204, 'createTimeISO': '2025-09-11T02:36:44.000Z', 'text': 'WAKALA LA IA mejor no compro alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6625822285180469254', 'uniqueId': 'boosterflareon', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c6f50c043741078314f7f00f7f24f578~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c435a729&amp;x-expires=1758052800&amp;x-signature=bucOGdTk5j46PB3vnbKHbhfoT2Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5169,22 +5169,22 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Si su calidad es igual a usar IA, no me imagino una muy buena calidad entonces, que asco</t>
+          <t>No que porquería AJAJAJAJAJJA</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>45910.76991898148</v>
+        <v>45911.01663194445</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>18:28:41</t>
+          <t>00:23:57</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548529198928134919', 'createTime': 1757528921, 'createTimeISO': '2025-09-10T18:28:41.000Z', 'text': 'Si su calidad es igual a usar IA, no me imagino una muy buena calidad entonces, que asco', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6961178557775135750', 'uniqueId': 'maplehasnoidea', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f12f023c43d7d5b0f59f436941edf58c~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1f0e8e72&amp;x-expires=1758034800&amp;x-signature=BMGHTS63Prsl9HEnBfw5EC%2F5Ngk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620734420255496', 'createTime': 1757550237, 'createTimeISO': '2025-09-11T00:23:57.000Z', 'text': 'No que porquería AJAJAJAJAJJA', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6811926783093883909', 'uniqueId': '_4m4lg4m4_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8732c67b4173ebcca1e3df904820871a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3aa87c05&amp;x-expires=1758052800&amp;x-signature=ZKfBNSqgn2lxQAfTbvcb4dGb1tw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548572657749508872', 'createTime': 1757539054, 'createTimeISO': '2025-09-10T21:17:34.000Z', 'text': 'Cada que una empresa usa IA en una publicidad, le cojo fastidio y no me provoca comprarles... :/ wacala', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7511435645136913426', 'uniqueId': 'lialthewhalienista', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d36fc7be20fca7698d4f525c8dc48118~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=fc615c6d&amp;x-expires=1758034800&amp;x-signature=Fzcp6Zm6nkTtETPnBr6bpV%2FptZU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548572657749508872', 'createTime': 1757539054, 'createTimeISO': '2025-09-10T21:17:34.000Z', 'text': 'Cada que una empresa usa IA en una publicidad, le cojo fastidio y no me provoca comprarles... :/ wacala', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7511435645136913426', 'uniqueId': 'lialthewhalienista', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d36fc7be20fca7698d4f525c8dc48118~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4f6e40b4&amp;x-expires=1758052800&amp;x-signature=zSEGRPplxnYAk44BwA%2Flb5Z4OqE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5281,22 +5281,22 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>No que porquería AJAJAJAJAJJA</t>
+          <t>Si su calidad es igual a usar IA, no me imagino una muy buena calidad entonces, que asco</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45911.01663194445</v>
+        <v>45910.76991898148</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>00:23:57</t>
+          <t>18:28:41</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620734420255496', 'createTime': 1757550237, 'createTimeISO': '2025-09-11T00:23:57.000Z', 'text': 'No que porquería AJAJAJAJAJJA', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6811926783093883909', 'uniqueId': '_4m4lg4m4_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8732c67b4173ebcca1e3df904820871a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=091667d7&amp;x-expires=1758034800&amp;x-signature=q1uCWwi%2FM7yyK2vL3LPmy4RXWTY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548529198928134919', 'createTime': 1757528921, 'createTimeISO': '2025-09-10T18:28:41.000Z', 'text': 'Si su calidad es igual a usar IA, no me imagino una muy buena calidad entonces, que asco', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6961178557775135750', 'uniqueId': 'maplehasnoidea', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f12f023c43d7d5b0f59f436941edf58c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=888e37ab&amp;x-expires=1758052800&amp;x-signature=KSCWAqlU0bYkOtslnIvEIdjJYXc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5337,18 +5337,18 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>WAKALA LA IA mejor no compro alpina</t>
+          <t>CONTRATEN ARTISTAS, ANIMADORES Y PRODUCTORES PARA SUS ANUNCIOS, NO SEAN TACAÑOS</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>45911.10884259259</v>
+        <v>45911.00506944444</v>
       </c>
       <c r="H89" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>02:36:44</t>
+          <t>00:07:18</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548654960079766280', 'createTime': 1757558204, 'createTimeISO': '2025-09-11T02:36:44.000Z', 'text': 'WAKALA LA IA mejor no compro alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6625822285180469254', 'uniqueId': 'boosterflareon', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c6f50c043741078314f7f00f7f24f578~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=85ce8910&amp;x-expires=1758034800&amp;x-signature=NGUxib0HGrh7Ra%2BComLTodFtcvw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548616422541607688', 'createTime': 1757549238, 'createTimeISO': '2025-09-11T00:07:18.000Z', 'text': 'CONTRATEN ARTISTAS, ANIMADORES Y PRODUCTORES PARA SUS ANUNCIOS, NO SEAN TACAÑOS', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6813528866084439045', 'uniqueId': 'andrew_cokie', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/8cee30f07b630003dcb6a6da647def33~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1e047d35&amp;x-expires=1758052800&amp;x-signature=dH0kHZAH3%2Bg9GU9Wlo67FbI9LaU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548623553499808519', 'createTime': 1757550890, 'createTimeISO': '2025-09-11T00:34:50.000Z', 'text': '@Alpina 🐮 como marca Colombiana es triste que no apoyen a la industria de la animación por nosotros los colombianos. Cómo marca iconica podrían ser impulsadores de creatividad apoyando el arte de los animadores del país en lugar de recurrir a lo facil y barato con la IA. Muy decepcionante..', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844739360966001670', 'uniqueId': 'juandissang', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/237ef2dafd7835fe2dac57e0ffda3fbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=42bbbe67&amp;x-expires=1758034800&amp;x-signature=qEcQVC4HbFlB0F5OwseDWlHm%2B0E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548623553499808519', 'createTime': 1757550890, 'createTimeISO': '2025-09-11T00:34:50.000Z', 'text': '@Alpina 🐮 como marca Colombiana es triste que no apoyen a la industria de la animación por nosotros los colombianos. Cómo marca iconica podrían ser impulsadores de creatividad apoyando el arte de los animadores del país en lugar de recurrir a lo facil y barato con la IA. Muy decepcionante..', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844739360966001670', 'uniqueId': 'juandissang', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/237ef2dafd7835fe2dac57e0ffda3fbb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=110f4e9f&amp;x-expires=1758052800&amp;x-signature=YCXnYUC4rPZ8%2Bk8Ba4pYVK8vh9g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@Alpina 🐮'], 'detailedMentions': [{'userId': '7104365507802039302', 'nickName': 'Alpina 🐮', 'profileUrl': 'https://www.tiktok.com/@7104365507802039302', 'secUid': 'MS4wLjABAAAAhVHJ_4YoWtjsb-ppI1tP9-jNJT-8YzbXw-Vuk4Y6Yl0s6Wro7Kt4qB6jp8arD-9S'}]}</t>
         </is>
       </c>
     </row>
@@ -5449,18 +5449,18 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>CONTRATEN ARTISTAS, ANIMADORES Y PRODUCTORES PARA SUS ANUNCIOS, NO SEAN TACAÑOS</t>
+          <t>Siempre que hacen publicidad con IA no tiene ningún sentido temático. Páguenle a un ser humano</t>
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>45911.00506944444</v>
+        <v>45910.91288194444</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>00:07:18</t>
+          <t>21:54:33</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548616422541607688', 'createTime': 1757549238, 'createTimeISO': '2025-09-11T00:07:18.000Z', 'text': 'CONTRATEN ARTISTAS, ANIMADORES Y PRODUCTORES PARA SUS ANUNCIOS, NO SEAN TACAÑOS', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6813528866084439045', 'uniqueId': 'andrew_cokie', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/8cee30f07b630003dcb6a6da647def33~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1092bfe9&amp;x-expires=1758034800&amp;x-signature=uctkcDndEJyGR3lfgfp%2FAzEare4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548582160166781712', 'createTime': 1757541273, 'createTimeISO': '2025-09-10T21:54:33.000Z', 'text': 'Siempre que hacen publicidad con IA no tiene ningún sentido temático. Páguenle a un ser humano', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7027692711277036549', 'uniqueId': 'samixa1995', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/464fd6ceea5199573029d9efa01bf80d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cefe2379&amp;x-expires=1758052800&amp;x-signature=LsDg04px43xiT%2FINXlp9Rd0EHOA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5505,18 +5505,18 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Siempre que hacen publicidad con IA no tiene ningún sentido temático. Páguenle a un ser humano</t>
+          <t>esa ia 💀</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>45910.91288194444</v>
+        <v>45910.86712962963</v>
       </c>
       <c r="H92" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>21:54:33</t>
+          <t>20:48:40</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548582160166781712', 'createTime': 1757541273, 'createTimeISO': '2025-09-10T21:54:33.000Z', 'text': 'Siempre que hacen publicidad con IA no tiene ningún sentido temático. Páguenle a un ser humano', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7027692711277036549', 'uniqueId': 'samixa1995', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/464fd6ceea5199573029d9efa01bf80d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a60954d2&amp;x-expires=1758034800&amp;x-signature=AosyT%2F18tSGDGY%2BuQv%2BjOG2ES90%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548565247784813319', 'createTime': 1757537320, 'createTimeISO': '2025-09-10T20:48:40.000Z', 'text': 'esa ia 💀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6944342696388002822', 'uniqueId': 'ehmano2', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/1e2002ec7c1d0fee3e6ba949f1c0d080~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0584e8f5&amp;x-expires=1758052800&amp;x-signature=EqFGFAu7Zw7dUk9c%2Fr0t4Veny4w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5561,22 +5561,22 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>esa ia 💀</t>
+          <t>Super chevere está historia, entretenida y deliciosa como Alpina.🫠💙</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45910.86712962963</v>
+        <v>45911.01490740741</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>20:48:40</t>
+          <t>00:21:28</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548565247784813319', 'createTime': 1757537320, 'createTimeISO': '2025-09-10T20:48:40.000Z', 'text': 'esa ia 💀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6944342696388002822', 'uniqueId': 'ehmano2', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/1e2002ec7c1d0fee3e6ba949f1c0d080~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c548006d&amp;x-expires=1758034800&amp;x-signature=r4TXrBGgeEMvgGjen9UShhng%2FVk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620069581751047', 'createTime': 1757550088, 'createTimeISO': '2025-09-11T00:21:28.000Z', 'text': 'Super chevere está historia, entretenida y deliciosa como Alpina.\U0001fae0💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7116714179351872517', 'uniqueId': 'peluffo777', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/1813aa3c542b3f4e2a17052e63a3e4a9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=290cf4d4&amp;x-expires=1758052800&amp;x-signature=T1pgrwaHMH1Cv5duWg1R3TNvBuI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5617,18 +5617,18 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>La kgada va en la taza</t>
+          <t>•᷄ ࡇ•᷅</t>
         </is>
       </c>
       <c r="G94" s="2" t="n">
-        <v>45911.19771990741</v>
+        <v>45911.02996527778</v>
       </c>
       <c r="H94" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>04:44:43</t>
+          <t>00:43:09</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548687958182871815', 'createTime': 1757565883, 'createTimeISO': '2025-09-11T04:44:43.000Z', 'text': 'La kgada va en la taza', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '173643967144656896', 'uniqueId': '_chxpm_', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/20419fd8d5ba91da6bea6fee695bd878~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=de5f7c26&amp;x-expires=1758034800&amp;x-signature=r8d8owVoYMjLMXshYVioRhDnLS0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548625625646400273', 'createTime': 1757551389, 'createTimeISO': '2025-09-11T00:43:09.000Z', 'text': '•᷄ ࡇ•᷅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6886178967893476353', 'uniqueId': 'vanne_saturno1234', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b1340d5037baa3a13057d8a44ccc0ba4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f09aac4&amp;x-expires=1758052800&amp;x-signature=bZH57zJp8H8H1GRn7SKKBEhR4yU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5673,18 +5673,18 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>•᷄ ࡇ•᷅</t>
+          <t>A mi me encanto!, Tomas Montoya y su equipo dándola todaaa.💙😎</t>
         </is>
       </c>
       <c r="G95" s="2" t="n">
-        <v>45911.02996527778</v>
+        <v>45910.924375</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>00:43:09</t>
+          <t>22:11:06</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548625625646400273', 'createTime': 1757551389, 'createTimeISO': '2025-09-11T00:43:09.000Z', 'text': '•᷄ ࡇ•᷅', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6886178967893476353', 'uniqueId': 'vanne_saturno1234', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/b1340d5037baa3a13057d8a44ccc0ba4~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a30959dd&amp;x-expires=1758034800&amp;x-signature=e2tSt40oiH2V9HM3wmghjgg5NTk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548586436087317268', 'createTime': 1757542266, 'createTimeISO': '2025-09-10T22:11:06.000Z', 'text': 'A mi me encanto!, Tomas Montoya y su equipo dándola todaaa.💙😎', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842674101811954693', 'uniqueId': 'lizz_fndz', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f5a7346c0b99528e0b975fc998230121~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=08bfe60f&amp;x-expires=1758052800&amp;x-signature=yHdmZKZPvgeWXPQyaiWtXgRHLAc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5729,18 +5729,18 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Super chevere está historia, entretenida y deliciosa como Alpina.🫠💙</t>
+          <t>Para averiguar la contraseña de cualquier red Wi-Fi abre Google y busca GOG6 Ve al primer sitio y escribe el nombre de la red Aparecerá la contraseña</t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>45911.01490740741</v>
+        <v>45910.91875</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>00:21:28</t>
+          <t>22:03:00</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -5759,7 +5759,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620069581751047', 'createTime': 1757550088, 'createTimeISO': '2025-09-11T00:21:28.000Z', 'text': 'Super chevere está historia, entretenida y deliciosa como Alpina.\U0001fae0💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7116714179351872517', 'uniqueId': 'peluffo777', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/1813aa3c542b3f4e2a17052e63a3e4a9~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=68b73c89&amp;x-expires=1758034800&amp;x-signature=AK1k5OEgfGwARo0y4Qvlk1touh0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548584416361923336', 'createTime': 1757541780, 'createTimeISO': '2025-09-10T22:03:00.000Z', 'text': 'Para averiguar la contraseña de cualquier red Wi-Fi abre Google y busca GOG6 Ve al primer sitio y escribe el nombre de la red Aparecerá la contraseña', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6923279363736568837', 'uniqueId': 'mariangelvalenzuela4', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58c0f2860d46e267e866392b4ee560bd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3e6d37cf&amp;x-expires=1758052800&amp;x-signature=3vvMUhlAxPSSGrPhE2enk7uju38%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5785,18 +5785,18 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>A mi me encanto!, Tomas Montoya y su equipo dándola todaaa.💙😎</t>
+          <t>La kgada va en la taza</t>
         </is>
       </c>
       <c r="G97" s="2" t="n">
-        <v>45910.924375</v>
+        <v>45911.19771990741</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>22:11:06</t>
+          <t>04:44:43</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548586436087317268', 'createTime': 1757542266, 'createTimeISO': '2025-09-10T22:11:06.000Z', 'text': 'A mi me encanto!, Tomas Montoya y su equipo dándola todaaa.💙😎', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842674101811954693', 'uniqueId': 'lizz_fndz', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f5a7346c0b99528e0b975fc998230121~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=94f0c50a&amp;x-expires=1758034800&amp;x-signature=FPofR6vU4T%2Booi%2B06UA%2FaZyfG1E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548687958182871815', 'createTime': 1757565883, 'createTimeISO': '2025-09-11T04:44:43.000Z', 'text': 'La kgada va en la taza', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '173643967144656896', 'uniqueId': '_chxpm_', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/20419fd8d5ba91da6bea6fee695bd878~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e58c3db1&amp;x-expires=1758052800&amp;x-signature=NDKKRQYYqJXo2EmAIwc37efxwJQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5841,22 +5841,22 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Para averiguar la contraseña de cualquier red Wi-Fi abre Google y busca GOG6 Ve al primer sitio y escribe el nombre de la red Aparecerá la contraseña</t>
+          <t>Me encanta 💙</t>
         </is>
       </c>
       <c r="G98" s="2" t="n">
-        <v>45910.91875</v>
+        <v>45910.96372685185</v>
       </c>
       <c r="H98" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>22:03:00</t>
+          <t>23:07:46</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548584416361923336', 'createTime': 1757541780, 'createTimeISO': '2025-09-10T22:03:00.000Z', 'text': 'Para averiguar la contraseña de cualquier red Wi-Fi abre Google y busca GOG6 Ve al primer sitio y escribe el nombre de la red Aparecerá la contraseña', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6923279363736568837', 'uniqueId': 'mariangelvalenzuela4', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/58c0f2860d46e267e866392b4ee560bd~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=b2b38c2e&amp;x-expires=1758034800&amp;x-signature=Lu1D8lmA11FDpSndw5im71Z3uKU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548601049558713106', 'createTime': 1757545666, 'createTimeISO': '2025-09-10T23:07:46.000Z', 'text': 'Me encanta 💙', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765986832699999237', 'uniqueId': 'maiteito', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a3685ad22846cc5cdb0de3282e771d00~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0126579f&amp;x-expires=1758052800&amp;x-signature=cQmZoZPeybJ18gDRyNVKN%2Bh%2Fnt4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890366028664072', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366028664072', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366028664072', 'cid': '7549134571725619969', 'createTime': 1757669872, 'createTimeISO': '2025-09-12T09:37:52.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7469179599776957457', 'uniqueId': 'zuleidy.gonzalez7', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ec5126320c2daa439c987a6cb8e23783~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8b7feac6&amp;x-expires=1758034800&amp;x-signature=vv1NkLcLeXF6A7FGNqvamny2YnY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890366028664072', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366028664072', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366028664072', 'cid': '7549134571725619969', 'createTime': 1757669872, 'createTimeISO': '2025-09-12T09:37:52.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7469179599776957457', 'uniqueId': 'zuleidy.gonzalez7', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ec5126320c2daa439c987a6cb8e23783~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=424198b6&amp;x-expires=1758052800&amp;x-signature=sCyv8cZuaZjuaDHlmm8FK1Qwx0Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548394576785670930', 'createTime': 1757497574, 'createTimeISO': '2025-09-10T09:46:14.000Z', 'text': 'Que pena eso con IA \U0001fae9', 'diggCount': 317, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7495439975148962823', 'uniqueId': 'luvot0my', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/9df4b2488069d39c65c4c552505d722d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=4d2eb3e3&amp;x-expires=1758034800&amp;x-signature=0CAmjdTM5ZKO4sakD1hGk251OsI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548394576785670930', 'createTime': 1757497574, 'createTimeISO': '2025-09-10T09:46:14.000Z', 'text': 'Que pena eso con IA \U0001fae9', 'diggCount': 317, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7495439975148962823', 'uniqueId': 'luvot0my', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9df4b2488069d39c65c4c552505d722d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c3d135b4&amp;x-expires=1758052800&amp;x-signature=ve%2BFrsMvgsUfr6a5dg6yAAlAtA0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6009,25 +6009,25 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>se pierde todas las ganas de comprar cuando una empresa millonaria no es capaz de pagar a un artista</t>
+          <t>Ellos juran que la rompieron</t>
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>45910.9765162037</v>
+        <v>45910.45064814815</v>
       </c>
       <c r="H101" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>23:26:11</t>
+          <t>10:48:56</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="K101" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L101" t="b">
         <v>0</v>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548605831772766994', 'createTime': 1757546771, 'createTimeISO': '2025-09-10T23:26:11.000Z', 'text': 'se pierde todas las ganas de comprar cuando una empresa millonaria no es capaz de pagar a un artista', 'diggCount': 72, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 7, 'uid': '7264426906404832262', 'uniqueId': 'heyimlivingthelife', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/20ac4993832553165ac9b490f3e1144d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a212336c&amp;x-expires=1758034800&amp;x-signature=bhN0Ktjycqynf53OeP3Ej2%2Bem2Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548410719198020359', 'createTime': 1757501336, 'createTimeISO': '2025-09-10T10:48:56.000Z', 'text': 'Ellos juran que la rompieron', 'diggCount': 138, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156651684511745029', 'uniqueId': 'swit5217', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/df1440e2b95e083101009a19ac80a76f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=43d80152&amp;x-expires=1758052800&amp;x-signature=qzY3tjomB0Z93eTK8kR6bJQv54k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6065,25 +6065,25 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>hay IA en su publicidad</t>
+          <t>se pierde todas las ganas de comprar cuando una empresa millonaria no es capaz de pagar a un artista</t>
         </is>
       </c>
       <c r="G102" s="2" t="n">
-        <v>45911.17809027778</v>
+        <v>45910.9765162037</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>04:16:27</t>
+          <t>23:26:11</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L102" t="b">
         <v>0</v>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548680671704122120', 'createTime': 1757564187, 'createTimeISO': '2025-09-11T04:16:27.000Z', 'text': 'hay IA en su publicidad', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6885977394345542657', 'uniqueId': 'nobody_xion', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/9b1fb6b5ce9ab6d96a76448290e0ca09~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=65080895&amp;x-expires=1758034800&amp;x-signature=P1z5ZiUkPeuwRT%2FPBhSxCZy84AI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548605831772766994', 'createTime': 1757546771, 'createTimeISO': '2025-09-10T23:26:11.000Z', 'text': 'se pierde todas las ganas de comprar cuando una empresa millonaria no es capaz de pagar a un artista', 'diggCount': 72, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 7, 'uid': '7264426906404832262', 'uniqueId': 'heyimlivingthelife', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/20ac4993832553165ac9b490f3e1144d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8e42616d&amp;x-expires=1758052800&amp;x-signature=PvFhNqSzskWDwXyT%2BXHg2P8PBVM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6121,22 +6121,22 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Ellos juran que la rompieron</t>
+          <t>Justo ayer dejamos de usar IA 💕</t>
         </is>
       </c>
       <c r="G103" s="2" t="n">
-        <v>45910.45064814815</v>
+        <v>45910.74354166666</v>
       </c>
       <c r="H103" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>10:48:56</t>
+          <t>17:50:42</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548410719198020359', 'createTime': 1757501336, 'createTimeISO': '2025-09-10T10:48:56.000Z', 'text': 'Ellos juran que la rompieron', 'diggCount': 138, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156651684511745029', 'uniqueId': 'swit5217', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/df1440e2b95e083101009a19ac80a76f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=4af83a04&amp;x-expires=1758034800&amp;x-signature=mk7x6eklEZdPR6KgOo3Cjgtu9WQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519415235773202', 'createTime': 1757526642, 'createTimeISO': '2025-09-10T17:50:42.000Z', 'text': 'Justo ayer dejamos de usar IA 💕', 'diggCount': 19, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452907402527540244', 'uniqueId': 'kabukipequena', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/92a7181af2febbab58008a2fd824e81f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=072a4e54&amp;x-expires=1758052800&amp;x-signature=dl9FE%2FNyxhGdX5uwH6LcSCrH%2FRA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6177,25 +6177,25 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>la IA 🖤❤️‍🩹</t>
+          <t>noooo,IA!</t>
         </is>
       </c>
       <c r="G104" s="2" t="n">
-        <v>45911.06086805555</v>
+        <v>45910.9990625</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>01:27:39</t>
+          <t>23:58:39</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104" t="b">
         <v>0</v>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548637148049556231', 'createTime': 1757554059, 'createTimeISO': '2025-09-11T01:27:39.000Z', 'text': 'la IA 🖤❤️\u200d🩹', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6880602918329713669', 'uniqueId': 'speed.ups780', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/01a7592d042356fc33fe37d28bc08f4b~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6e34cde7&amp;x-expires=1758034800&amp;x-signature=i5h0ITetYJE3g1RlOgCY1rLFWRU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548614174412358418', 'createTime': 1757548719, 'createTimeISO': '2025-09-10T23:58:39.000Z', 'text': 'noooo,IA!', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7441984693040235576', 'uniqueId': 'saraarciniegas63', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7b92e3779cba9a3f7af225e31fb6a2c4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d374fb40&amp;x-expires=1758052800&amp;x-signature=JGCRhFsE4l0NhurLmqpF7ayVusI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6233,22 +6233,23 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>pero hagan algo sin IA💔</t>
+          <t>x:con cuanta IA lo quieres
+Alpina:si</t>
         </is>
       </c>
       <c r="G105" s="2" t="n">
-        <v>45910.49857638889</v>
+        <v>45910.81350694445</v>
       </c>
       <c r="H105" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>11:57:57</t>
+          <t>19:31:27</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -6263,7 +6264,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548428522588226311', 'createTime': 1757505477, 'createTimeISO': '2025-09-10T11:57:57.000Z', 'text': 'pero hagan algo sin IA💔', 'diggCount': 89, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7136690137455068165', 'uniqueId': 'itzali898', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/097917de42464240b087cc45b0bccc97~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=36279dfe&amp;x-expires=1758034800&amp;x-signature=uFnbG%2B1EA075zwoUCVh6rS%2BybL0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548545354557096712', 'createTime': 1757532687, 'createTimeISO': '2025-09-10T19:31:27.000Z', 'text': 'x:con cuanta IA lo quieres\nAlpina:si', 'diggCount': 36, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352737609108800517', 'uniqueId': 'dibujosinfonico', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ae7ae3ed6ebaa8e59d2c5cd164930752~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=078dee77&amp;x-expires=1758052800&amp;x-signature=bF4X9AgxDdGABJhuBSUrcRyPxKc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6289,23 +6290,22 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>x:con cuanta IA lo quieres
-Alpina:si</t>
+          <t>re económicos usando Ia IA verdad, mal la velda😮‍💨</t>
         </is>
       </c>
       <c r="G106" s="2" t="n">
-        <v>45910.81350694445</v>
+        <v>45910.89949074074</v>
       </c>
       <c r="H106" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>19:31:27</t>
+          <t>21:35:16</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -6320,7 +6320,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548545354557096712', 'createTime': 1757532687, 'createTimeISO': '2025-09-10T19:31:27.000Z', 'text': 'x:con cuanta IA lo quieres\nAlpina:si', 'diggCount': 36, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352737609108800517', 'uniqueId': 'dibujosinfonico', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/ae7ae3ed6ebaa8e59d2c5cd164930752~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=49534806&amp;x-expires=1758034800&amp;x-signature=ONWnEDftPITojDCHaxeBb7Jklbw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548577174099444488', 'createTime': 1757540116, 'createTimeISO': '2025-09-10T21:35:16.000Z', 'text': 're económicos usando Ia IA verdad, mal la velda😮\u200d💨', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844237859534078982', 'uniqueId': 'varo_vathc._', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/21db336ddd4fef76df638df6d71041f7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fa64f0e1&amp;x-expires=1758052800&amp;x-signature=v0Zp2GllJ38V%2BYAMWUM3jn89j6U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6346,22 +6346,22 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>paguenle al de diseño gráfico que el también tiene familia</t>
+          <t>pero hagan algo sin IA💔</t>
         </is>
       </c>
       <c r="G107" s="2" t="n">
-        <v>45910.50857638889</v>
+        <v>45910.49857638889</v>
       </c>
       <c r="H107" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>12:12:21</t>
+          <t>11:57:57</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548432209922949906', 'createTime': 1757506341, 'createTimeISO': '2025-09-10T12:12:21.000Z', 'text': 'paguenle al de diseño gráfico que el también tiene familia', 'diggCount': 41, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7007229431941776389', 'uniqueId': 'lady_mori17', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/8c8ad7afdbfe58524adf6749358d7aa3~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=148a5052&amp;x-expires=1758034800&amp;x-signature=%2FepIO2fbgl1XA%2BXBzqRd27SZy4E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548428522588226311', 'createTime': 1757505477, 'createTimeISO': '2025-09-10T11:57:57.000Z', 'text': 'pero hagan algo sin IA💔', 'diggCount': 89, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7136690137455068165', 'uniqueId': 'itzali898', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/097917de42464240b087cc45b0bccc97~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a315470c&amp;x-expires=1758052800&amp;x-signature=GKtT1k9C%2BoGObsV5toRxprSm3bM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548654662258885383', 'createTime': 1757558136, 'createTimeISO': '2025-09-11T02:35:36.000Z', 'text': 'sin IA por favor', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6979249350669288453', 'uniqueId': 'nelyeh_cat', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/9f3b896625e35f435c9803f997340b23~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e7fcf7f8&amp;x-expires=1758034800&amp;x-signature=R%2FjkW4EQFNTOjvaDE382d8LH1hg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548654662258885383', 'createTime': 1757558136, 'createTimeISO': '2025-09-11T02:35:36.000Z', 'text': 'sin IA por favor', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6979249350669288453', 'uniqueId': 'nelyeh_cat', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/9f3b896625e35f435c9803f997340b23~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4087a405&amp;x-expires=1758052800&amp;x-signature=ax7q%2BYI514tjsirPc7qUY5pWUgo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6458,22 +6458,22 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Justo ayer dejamos de usar IA 💕</t>
+          <t>paguenle al de diseño gráfico que el también tiene familia</t>
         </is>
       </c>
       <c r="G109" s="2" t="n">
-        <v>45910.74354166666</v>
+        <v>45910.50857638889</v>
       </c>
       <c r="H109" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>17:50:42</t>
+          <t>12:12:21</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519415235773202', 'createTime': 1757526642, 'createTimeISO': '2025-09-10T17:50:42.000Z', 'text': 'Justo ayer dejamos de usar IA 💕', 'diggCount': 19, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452907402527540244', 'uniqueId': 'kabukipequena', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/92a7181af2febbab58008a2fd824e81f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=88cd43ca&amp;x-expires=1758034800&amp;x-signature=q0UDu%2BXlvLvqXhk9h3v%2FQUT1qWs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548432209922949906', 'createTime': 1757506341, 'createTimeISO': '2025-09-10T12:12:21.000Z', 'text': 'paguenle al de diseño gráfico que el también tiene familia', 'diggCount': 41, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7007229431941776389', 'uniqueId': 'lady_mori17', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/8c8ad7afdbfe58524adf6749358d7aa3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2c056809&amp;x-expires=1758052800&amp;x-signature=l8oj251zTSd%2FGhrjmg5l18nUoIs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6514,25 +6514,25 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>chimba esa publicidad</t>
+          <t>Espectacular, que lindo comercial, se nota cuando se saben hacer las cosas bien! Súper @alpina</t>
         </is>
       </c>
       <c r="G110" s="2" t="n">
-        <v>45910.94841435185</v>
+        <v>45911.11576388889</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>22:45:43</t>
+          <t>02:46:42</t>
         </is>
       </c>
       <c r="J110" t="n">
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" t="b">
         <v>0</v>
@@ -6544,7 +6544,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548595405085688584', 'createTime': 1757544343, 'createTimeISO': '2025-09-10T22:45:43.000Z', 'text': 'chimba esa publicidad', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6969369057540719617', 'uniqueId': 'amdusias999', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d4c9a0e2af6e876557d88d79b1284973~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6d919174&amp;x-expires=1758034800&amp;x-signature=V7QYD37BhFUUtUh2nR0pzwZ9G%2BA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548657544752071432', 'createTime': 1757558802, 'createTimeISO': '2025-09-11T02:46:42.000Z', 'text': 'Espectacular, que lindo comercial, se nota cuando se saben hacer las cosas bien! Súper @alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6851804504162092037', 'uniqueId': 'mateomcm_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=33ae5891&amp;x-expires=1758052800&amp;x-signature=suGlnP1LkkF7vGkNT5ApNgsneQk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6570,22 +6570,22 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>re económicos usando Ia IA verdad, mal la velda😮‍💨</t>
+          <t>ellos juran que la rompieron</t>
         </is>
       </c>
       <c r="G111" s="2" t="n">
-        <v>45910.89949074074</v>
+        <v>45910.94586805555</v>
       </c>
       <c r="H111" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>21:35:16</t>
+          <t>22:42:03</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -6600,7 +6600,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548577174099444488', 'createTime': 1757540116, 'createTimeISO': '2025-09-10T21:35:16.000Z', 'text': 're económicos usando Ia IA verdad, mal la velda😮\u200d💨', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844237859534078982', 'uniqueId': 'varo_vathc._', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/21db336ddd4fef76df638df6d71041f7~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=4066810c&amp;x-expires=1758034800&amp;x-signature=F%2FBwaQjgNK%2FJE7MMWtpVm9QOwSM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548594430895506177', 'createTime': 1757544123, 'createTimeISO': '2025-09-10T22:42:03.000Z', 'text': 'ellos juran que la rompieron', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6734394246831211525', 'uniqueId': 'j.u.a.n.j.o.s.e.p', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58ac30cb072ab4dc7f07e005b4d28b6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1f3a34f1&amp;x-expires=1758052800&amp;x-signature=Vi6QA3s6y28mxOZdRQ%2B6vsfQ7TY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6626,22 +6626,22 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Espectacular, que lindo comercial, se nota cuando se saben hacer las cosas bien! Súper @alpina</t>
+          <t>lo de alpina es delicioso pero deberían bajarle al azúcar en los productos para niños.</t>
         </is>
       </c>
       <c r="G112" s="2" t="n">
-        <v>45911.11576388889</v>
+        <v>45910.54134259259</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>02:46:42</t>
+          <t>12:59:32</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548657544752071432', 'createTime': 1757558802, 'createTimeISO': '2025-09-11T02:46:42.000Z', 'text': 'Espectacular, que lindo comercial, se nota cuando se saben hacer las cosas bien! Súper @alpina', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6851804504162092037', 'uniqueId': 'mateomcm_', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c626fc61&amp;x-expires=1758034800&amp;x-signature=3k6%2F2S%2Bv29%2BPUFiq26J7iyapvOQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548444390176523025', 'createTime': 1757509172, 'createTimeISO': '2025-09-10T12:59:32.000Z', 'text': 'lo de alpina es delicioso pero deberían bajarle al azúcar en los productos para niños.', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414150493293888517', 'uniqueId': 'cathy3755', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=33ae5891&amp;x-expires=1758052800&amp;x-signature=suGlnP1LkkF7vGkNT5ApNgsneQk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6682,22 +6682,22 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>noooo,IA!</t>
+          <t>hay IA en su publicidad</t>
         </is>
       </c>
       <c r="G113" s="2" t="n">
-        <v>45910.9990625</v>
+        <v>45911.17809027778</v>
       </c>
       <c r="H113" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>23:58:39</t>
+          <t>04:16:27</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548614174412358418', 'createTime': 1757548719, 'createTimeISO': '2025-09-10T23:58:39.000Z', 'text': 'noooo,IA!', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7441984693040235576', 'uniqueId': 'saraarciniegas63', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7b92e3779cba9a3f7af225e31fb6a2c4~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=8ec8bc3a&amp;x-expires=1758034800&amp;x-signature=kkAzNVDc5%2BiVAbyl%2F%2B2O%2FeXHmKc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548680671704122120', 'createTime': 1757564187, 'createTimeISO': '2025-09-11T04:16:27.000Z', 'text': 'hay IA en su publicidad', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6885977394345542657', 'uniqueId': 'nobody_xion', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9b1fb6b5ce9ab6d96a76448290e0ca09~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e3f0afbb&amp;x-expires=1758052800&amp;x-signature=pbpMQqvQ%2B0B2KuELEwOx6KetmsQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6768,7 +6768,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548645334538158865', 'createTime': 1757555969, 'createTimeISO': '2025-09-11T01:59:29.000Z', 'text': 'La IA xdioss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7263236018102731781', 'uniqueId': 'k4.renn12', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/75dc9a26445123ece00cd04b2057f69c~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1fb51907&amp;x-expires=1758034800&amp;x-signature=Eb7wVqDKKJgzQ5hiJnbGdgpYvTw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548645334538158865', 'createTime': 1757555969, 'createTimeISO': '2025-09-11T01:59:29.000Z', 'text': 'La IA xdioss', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7263236018102731781', 'uniqueId': 'k4.renn12', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/75dc9a26445123ece00cd04b2057f69c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=72bbc134&amp;x-expires=1758052800&amp;x-signature=3bj7V4ZU%2FEaJppPoXNlFSah1t8Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6794,25 +6794,25 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>lo de alpina es delicioso pero deberían bajarle al azúcar en los productos para niños.</t>
+          <t>la IA 🖤❤️‍🩹</t>
         </is>
       </c>
       <c r="G115" s="2" t="n">
-        <v>45910.54134259259</v>
+        <v>45911.06086805555</v>
       </c>
       <c r="H115" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>12:59:32</t>
+          <t>01:27:39</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" t="b">
         <v>0</v>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548444390176523025', 'createTime': 1757509172, 'createTimeISO': '2025-09-10T12:59:32.000Z', 'text': 'lo de alpina es delicioso pero deberían bajarle al azúcar en los productos para niños.', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7414150493293888517', 'uniqueId': 'cathy3755', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c626fc61&amp;x-expires=1758034800&amp;x-signature=3k6%2F2S%2Bv29%2BPUFiq26J7iyapvOQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548637148049556231', 'createTime': 1757554059, 'createTimeISO': '2025-09-11T01:27:39.000Z', 'text': 'la IA 🖤❤️\u200d🩹', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6880602918329713669', 'uniqueId': 'speed.ups780', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/01a7592d042356fc33fe37d28bc08f4b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=51f0bcf7&amp;x-expires=1758052800&amp;x-signature=%2FqdP0b5sRAqdqBs6pFgWIpV9NMM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6850,22 +6850,22 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>pero si compites contra el mismo que tiene la misma meta</t>
+          <t>demen más bien trabajo😥</t>
         </is>
       </c>
       <c r="G116" s="2" t="n">
-        <v>45910.43815972222</v>
+        <v>45911.00052083333</v>
       </c>
       <c r="H116" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>10:30:57</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548406103403414289', 'createTime': 1757500257, 'createTimeISO': '2025-09-10T10:30:57.000Z', 'text': 'pero si compites contra el mismo que tiene la misma meta', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7364085745840374789', 'uniqueId': 'carlos.martin645', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f524e3ac294d06566d46f26126bceef0~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=4617229b&amp;x-expires=1758034800&amp;x-signature=90okEDGQKQpKAqxkxjeqZhCQTMA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548614664508637959', 'createTime': 1757548845, 'createTimeISO': '2025-09-11T00:00:45.000Z', 'text': 'demen más bien trabajo😥', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7539953798573360146', 'uniqueId': 'user856704567', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8b033641f65a6983211669b152456227~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8246067d&amp;x-expires=1758052800&amp;x-signature=a8cuo2seFc8okFGuAL4glmFY6zg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6906,25 +6906,25 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>ellos juran que la rompieron</t>
+          <t>chimba esa publicidad</t>
         </is>
       </c>
       <c r="G117" s="2" t="n">
-        <v>45910.94586805555</v>
+        <v>45910.94841435185</v>
       </c>
       <c r="H117" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>22:42:03</t>
+          <t>22:45:43</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117" t="b">
         <v>0</v>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548594430895506177', 'createTime': 1757544123, 'createTimeISO': '2025-09-10T22:42:03.000Z', 'text': 'ellos juran que la rompieron', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6734394246831211525', 'uniqueId': 'j.u.a.n.j.o.s.e.p', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/58ac30cb072ab4dc7f07e005b4d28b6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=7223c162&amp;x-expires=1758034800&amp;x-signature=Jq9XX%2FKXfSHNwANCACAPtVtrGlE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548595405085688584', 'createTime': 1757544343, 'createTimeISO': '2025-09-10T22:45:43.000Z', 'text': 'chimba esa publicidad', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6969369057540719617', 'uniqueId': 'amdusias999', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d4c9a0e2af6e876557d88d79b1284973~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=654fb253&amp;x-expires=1758052800&amp;x-signature=GQ2TIE82PuXpE%2FY5j%2FBAXTb0FZc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6962,22 +6962,22 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>demen más bien trabajo😥</t>
+          <t>pero si compites contra el mismo que tiene la misma meta</t>
         </is>
       </c>
       <c r="G118" s="2" t="n">
-        <v>45911.00052083333</v>
+        <v>45910.43815972222</v>
       </c>
       <c r="H118" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>10:30:57</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -6992,7 +6992,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548614664508637959', 'createTime': 1757548845, 'createTimeISO': '2025-09-11T00:00:45.000Z', 'text': 'demen más bien trabajo😥', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7539953798573360146', 'uniqueId': 'user856704567', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8b033641f65a6983211669b152456227~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=d16276e3&amp;x-expires=1758034800&amp;x-signature=8hZPe8ihDsEMomf%2F5nxhqIg4UJk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548406103403414289', 'createTime': 1757500257, 'createTimeISO': '2025-09-10T10:30:57.000Z', 'text': 'pero si compites contra el mismo que tiene la misma meta', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7364085745840374789', 'uniqueId': 'carlos.martin645', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f524e3ac294d06566d46f26126bceef0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b19c224f&amp;x-expires=1758052800&amp;x-signature=tPC%2FqcMGzi1rbuzpq%2Bx0AcOtezc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519361406518023', 'createTime': 1757526629, 'createTimeISO': '2025-09-10T17:50:29.000Z', 'text': 'Empezaron desde abajo y siguieron bajando 💕', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452907402527540244', 'uniqueId': 'kabukipequena', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/92a7181af2febbab58008a2fd824e81f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=88cd43ca&amp;x-expires=1758034800&amp;x-signature=q0UDu%2BXlvLvqXhk9h3v%2FQUT1qWs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519361406518023', 'createTime': 1757526629, 'createTimeISO': '2025-09-10T17:50:29.000Z', 'text': 'Empezaron desde abajo y siguieron bajando 💕', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7452907402527540244', 'uniqueId': 'kabukipequena', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/92a7181af2febbab58008a2fd824e81f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=072a4e54&amp;x-expires=1758052800&amp;x-signature=dl9FE%2FNyxhGdX5uwH6LcSCrH%2FRA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548451571446416136', 'createTime': 1757510846, 'createTimeISO': '2025-09-10T13:27:26.000Z', 'text': 'a colombia no la está matando la pereza, es la IA', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6875087430781830149', 'uniqueId': 'blaze877469', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/934ceed1d9bdc59f5301969bbbe5e058~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=f828cbe0&amp;x-expires=1758034800&amp;x-signature=bXREgpG6DNWgq6%2FaojkZcPYUnCM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548451571446416136', 'createTime': 1757510846, 'createTimeISO': '2025-09-10T13:27:26.000Z', 'text': 'a colombia no la está matando la pereza, es la IA', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6875087430781830149', 'uniqueId': 'blaze877469', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/934ceed1d9bdc59f5301969bbbe5e058~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8e6bf5e3&amp;x-expires=1758052800&amp;x-signature=9odRTPU0Kc4%2FYU2MKl24e5Be%2BmQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7130,22 +7130,22 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>el weso, así es una publi sin na</t>
+          <t>q bonito ahora sin IA</t>
         </is>
       </c>
       <c r="G121" s="2" t="n">
-        <v>45910.24642361111</v>
+        <v>45910.73746527778</v>
       </c>
       <c r="H121" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>05:54:51</t>
+          <t>17:41:57</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548334934499541776', 'createTime': 1757483691, 'createTimeISO': '2025-09-10T05:54:51.000Z', 'text': 'el weso, así es una publi sin na', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6942668455322174469', 'uniqueId': 'juan_c_r2', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/19e772a61e14a251f29115546b86e6cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=f3d3f75a&amp;x-expires=1758034800&amp;x-signature=01xMdbzvjd9B%2F1j9FBCL%2FbURBf4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548517154850439954', 'createTime': 1757526117, 'createTimeISO': '2025-09-10T17:41:57.000Z', 'text': 'q bonito ahora sin IA', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '91835337861152768', 'uniqueId': 'sartcasm', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7cebab4b25a2acc6945a6b4a38715460~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f10615a4&amp;x-expires=1758052800&amp;x-signature=2WEGhWpwUXwQrSAnvZBLLLH%2BL84%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7186,22 +7186,22 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Es mejor alqueria</t>
+          <t>el weso, así es una publi sin na</t>
         </is>
       </c>
       <c r="G122" s="2" t="n">
-        <v>45910.50166666666</v>
+        <v>45910.24642361111</v>
       </c>
       <c r="H122" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>12:02:24</t>
+          <t>05:54:51</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -7216,7 +7216,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548429649220207367', 'createTime': 1757505744, 'createTimeISO': '2025-09-10T12:02:24.000Z', 'text': 'Es mejor alqueria', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6957915898419004422', 'uniqueId': 'josecaliz139', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/395344c2e9877ae91bf78e159110c4de~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0c1da4c0&amp;x-expires=1758034800&amp;x-signature=tX7N1bIVHD3QoFjzHejhb8mtsAs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548334934499541776', 'createTime': 1757483691, 'createTimeISO': '2025-09-10T05:54:51.000Z', 'text': 'el weso, así es una publi sin na', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6942668455322174469', 'uniqueId': 'juan_c_r2', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/19e772a61e14a251f29115546b86e6cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=856aa1aa&amp;x-expires=1758052800&amp;x-signature=7OvX0%2FyffxtJDjm1caxkCDycQeQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7242,22 +7242,22 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>q bonito ahora sin IA</t>
+          <t>Le pongo mas ia??? R. Pongale que no quiero pagarle a una productora</t>
         </is>
       </c>
       <c r="G123" s="2" t="n">
-        <v>45910.73746527778</v>
+        <v>45910.99215277778</v>
       </c>
       <c r="H123" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>17:41:57</t>
+          <t>23:48:42</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
@@ -7272,7 +7272,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548517154850439954', 'createTime': 1757526117, 'createTimeISO': '2025-09-10T17:41:57.000Z', 'text': 'q bonito ahora sin IA', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '91835337861152768', 'uniqueId': 'sartcasm', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7cebab4b25a2acc6945a6b4a38715460~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=f6064a4d&amp;x-expires=1758034800&amp;x-signature=hDarXniJgSSik94haABMbksTP2k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548611642658784006', 'createTime': 1757548122, 'createTimeISO': '2025-09-10T23:48:42.000Z', 'text': 'Le pongo mas ia??? R. Pongale que no quiero pagarle a una productora', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765670494865998854', 'uniqueId': 'tangoplay_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/409f39217ab640e340f6fceb506be4f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8323cb91&amp;x-expires=1758052800&amp;x-signature=jqJIdeQJbMtWReNBl37VZBUMFTg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7328,7 +7328,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548534957166265096', 'createTime': 1757530259, 'createTimeISO': '2025-09-10T18:50:59.000Z', 'text': 'uy ese parcero disque IA', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6883169931102635010', 'uniqueId': 'leehyperrealsgirl', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7458f275b399af94bcd454c5deae5bff~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=0e97f90d&amp;x-expires=1758034800&amp;x-signature=v2xXHrJ%2F0iAPyrQkCekSZBETrls%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548534957166265096', 'createTime': 1757530259, 'createTimeISO': '2025-09-10T18:50:59.000Z', 'text': 'uy ese parcero disque IA', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6883169931102635010', 'uniqueId': 'leehyperrealsgirl', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7458f275b399af94bcd454c5deae5bff~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0a8a8b83&amp;x-expires=1758052800&amp;x-signature=e7Sj85iPFSGesu4c4m9usidHF%2Bo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7354,18 +7354,18 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Le pongo mas ia??? R. Pongale que no quiero pagarle a una productora</t>
+          <t>cuidado y pagan a artistas reales</t>
         </is>
       </c>
       <c r="G125" s="2" t="n">
-        <v>45910.99215277778</v>
+        <v>45910.90982638889</v>
       </c>
       <c r="H125" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>23:48:42</t>
+          <t>21:50:09</t>
         </is>
       </c>
       <c r="J125" t="n">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548611642658784006', 'createTime': 1757548122, 'createTimeISO': '2025-09-10T23:48:42.000Z', 'text': 'Le pongo mas ia??? R. Pongale que no quiero pagarle a una productora', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765670494865998854', 'uniqueId': 'tangoplay_', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/409f39217ab640e340f6fceb506be4f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6f067351&amp;x-expires=1758034800&amp;x-signature=qrNABMm07PzsOu9Zamy5rQ6%2B9T8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548581080547394311', 'createTime': 1757541009, 'createTimeISO': '2025-09-10T21:50:09.000Z', 'text': 'cuidado y pagan a artistas reales', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7301817359547515909', 'uniqueId': 'wills_montejo', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ce3fdd30bb70d0861dcac2c310e4eaf6~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f2dab25e&amp;x-expires=1758052800&amp;x-signature=fgUDABzrm1837xSrplhVZax%2B5CE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7410,22 +7410,22 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>cuidado y pagan a artistas reales</t>
+          <t>Nooooo pórtense serios, contraten diseñadores no sean tan amarrados</t>
         </is>
       </c>
       <c r="G126" s="2" t="n">
-        <v>45910.90982638889</v>
+        <v>45910.7419212963</v>
       </c>
       <c r="H126" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>21:50:09</t>
+          <t>17:48:22</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548581080547394311', 'createTime': 1757541009, 'createTimeISO': '2025-09-10T21:50:09.000Z', 'text': 'cuidado y pagan a artistas reales', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7301817359547515909', 'uniqueId': 'wills_montejo', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/ce3fdd30bb70d0861dcac2c310e4eaf6~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=012762ce&amp;x-expires=1758034800&amp;x-signature=fpAeSoWRyRue%2FE0ZjAafyPkphNE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548518799903081223', 'createTime': 1757526502, 'createTimeISO': '2025-09-10T17:48:22.000Z', 'text': 'Nooooo pórtense serios, contraten diseñadores no sean tan amarrados', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7394159598977188870', 'uniqueId': 'issaa.torres', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/39861d707eb3bda640d2afce7ce86953~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fc56371d&amp;x-expires=1758052800&amp;x-signature=GaoZ5KhTkbDMWaexPcfJqKC4cno%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7466,22 +7466,22 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Nooooo pórtense serios, contraten diseñadores no sean tan amarrados</t>
+          <t>definitivamente la publicidad con IA no tiene alma ni llama la atención</t>
         </is>
       </c>
       <c r="G127" s="2" t="n">
-        <v>45910.7419212963</v>
+        <v>45910.97509259259</v>
       </c>
       <c r="H127" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>17:48:22</t>
+          <t>23:24:08</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548518799903081223', 'createTime': 1757526502, 'createTimeISO': '2025-09-10T17:48:22.000Z', 'text': 'Nooooo pórtense serios, contraten diseñadores no sean tan amarrados', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7394159598977188870', 'uniqueId': 'issaa.torres', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/39861d707eb3bda640d2afce7ce86953~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e2e5d7d0&amp;x-expires=1758034800&amp;x-signature=MyG0R%2FbUPuc9tpPRhRR2Ee%2FtqW8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548605246874190610', 'createTime': 1757546648, 'createTimeISO': '2025-09-10T23:24:08.000Z', 'text': 'definitivamente la publicidad con IA no tiene alma ni llama la atención', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6902015860971193346', 'uniqueId': 'amatzuky_0312', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b73eadb409e0ce22a08837c1f0c6758d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=76104b76&amp;x-expires=1758052800&amp;x-signature=7IF9oTvTU1h%2FEiGoCwDfO%2BXfCpw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7522,18 +7522,18 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>definitivamente la publicidad con IA no tiene alma ni llama la atención</t>
+          <t>uy no mano esto es IA</t>
         </is>
       </c>
       <c r="G128" s="2" t="n">
-        <v>45910.97509259259</v>
+        <v>45910.87856481481</v>
       </c>
       <c r="H128" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>23:24:08</t>
+          <t>21:05:08</t>
         </is>
       </c>
       <c r="J128" t="n">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548605246874190610', 'createTime': 1757546648, 'createTimeISO': '2025-09-10T23:24:08.000Z', 'text': 'definitivamente la publicidad con IA no tiene alma ni llama la atención', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6902015860971193346', 'uniqueId': 'amatzuky_0312', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/b73eadb409e0ce22a08837c1f0c6758d~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e684953b&amp;x-expires=1758034800&amp;x-signature=QynKHSaa7ZxOLIjB1CNsxTKpEGQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548569460703232788', 'createTime': 1757538308, 'createTimeISO': '2025-09-10T21:05:08.000Z', 'text': 'uy no mano esto es IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541048017211442184', 'uniqueId': 'silly.autistic_.b4t', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d8210387ca524e454dc483d610bf9c0f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9325d586&amp;x-expires=1758052800&amp;x-signature=9%2BANxgydd0cV%2F5F3TdevvQJBO6U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7608,7 +7608,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548595324433875720', 'createTime': 1757544334, 'createTimeISO': '2025-09-10T22:45:34.000Z', 'text': 'hay pruebas gratis jijiji jejejej', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6969369057540719617', 'uniqueId': 'amdusias999', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d4c9a0e2af6e876557d88d79b1284973~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6d919174&amp;x-expires=1758034800&amp;x-signature=V7QYD37BhFUUtUh2nR0pzwZ9G%2BA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548595324433875720', 'createTime': 1757544334, 'createTimeISO': '2025-09-10T22:45:34.000Z', 'text': 'hay pruebas gratis jijiji jejejej', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6969369057540719617', 'uniqueId': 'amdusias999', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d4c9a0e2af6e876557d88d79b1284973~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=654fb253&amp;x-expires=1758052800&amp;x-signature=GQ2TIE82PuXpE%2FY5j%2FBAXTb0FZc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7634,18 +7634,18 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>uy no mano esto es IA</t>
+          <t>despidan al de marketing</t>
         </is>
       </c>
       <c r="G130" s="2" t="n">
-        <v>45910.87856481481</v>
+        <v>45910.94503472222</v>
       </c>
       <c r="H130" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>21:05:08</t>
+          <t>22:40:51</t>
         </is>
       </c>
       <c r="J130" t="n">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548569460703232788', 'createTime': 1757538308, 'createTimeISO': '2025-09-10T21:05:08.000Z', 'text': 'uy no mano esto es IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541048017211442184', 'uniqueId': 'silly.autistic_.b4t', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d8210387ca524e454dc483d610bf9c0f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c6220aea&amp;x-expires=1758034800&amp;x-signature=UGVKpMYchn6G%2B4Dis0YJFzU9QBw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548594108391654145', 'createTime': 1757544051, 'createTimeISO': '2025-09-10T22:40:51.000Z', 'text': 'despidan al de marketing', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6734394246831211525', 'uniqueId': 'j.u.a.n.j.o.s.e.p', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58ac30cb072ab4dc7f07e005b4d28b6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1f3a34f1&amp;x-expires=1758052800&amp;x-signature=Vi6QA3s6y28mxOZdRQ%2B6vsfQ7TY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7690,22 +7690,22 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>despidan al de marketing</t>
+          <t>@꧁𐌙𐌀𐌌🛹💤 q pena disque mera IA😭💔</t>
         </is>
       </c>
       <c r="G131" s="2" t="n">
-        <v>45910.94503472222</v>
+        <v>45910.73364583333</v>
       </c>
       <c r="H131" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>22:40:51</t>
+          <t>17:36:27</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
@@ -7720,7 +7720,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548594108391654145', 'createTime': 1757544051, 'createTimeISO': '2025-09-10T22:40:51.000Z', 'text': 'despidan al de marketing', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6734394246831211525', 'uniqueId': 'j.u.a.n.j.o.s.e.p', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/58ac30cb072ab4dc7f07e005b4d28b6f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ee534772&amp;x-expires=1758034800&amp;x-signature=tgYZtCtuIf9NHoMYYpMVVU5M9h0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548515738944963345', 'createTime': 1757525787, 'createTimeISO': '2025-09-10T17:36:27.000Z', 'text': '@꧁𐌙𐌀𐌌🛹💤 q pena disque mera IA😭💔', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7237956411237532677', 'uniqueId': '_viveconamor_', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/659e581584ff147ecd18e76d3c327d77~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b7a82f3&amp;x-expires=1758052800&amp;x-signature=%2FugZouPKeIO5Rj9g%2Fnsp7ql3n2Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@꧁𐌙𐌀𐌌🛹💤'], 'detailedMentions': [{'userId': '7299629834715300869', 'nickName': '꧁𐌙𐌀𐌌🛹💤', 'profileUrl': 'https://www.tiktok.com/@7299629834715300869', 'secUid': 'MS4wLjABAAAAYTOQE_0Xv798jcm8OMGDqZvqi1iG5Mn1PrZwRpmfJflIIrkDuDqe9uxpaceTzSMa'}]}</t>
         </is>
       </c>
     </row>
@@ -7746,18 +7746,18 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>@꧁𐌙𐌀𐌌🛹💤 q pena disque mera IA😭💔</t>
+          <t>😂🥰🥰</t>
         </is>
       </c>
       <c r="G132" s="2" t="n">
-        <v>45910.73364583333</v>
+        <v>45910.47209490741</v>
       </c>
       <c r="H132" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>17:36:27</t>
+          <t>11:19:49</t>
         </is>
       </c>
       <c r="J132" t="n">
@@ -7776,7 +7776,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548515738944963345', 'createTime': 1757525787, 'createTimeISO': '2025-09-10T17:36:27.000Z', 'text': '@꧁𐌙𐌀𐌌🛹💤 q pena disque mera IA😭💔', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7237956411237532677', 'uniqueId': '_viveconamor_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/659e581584ff147ecd18e76d3c327d77~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=78899e78&amp;x-expires=1758034800&amp;x-signature=wSZFcX%2B%2BCfhOKRF9OEXe6YgG9fQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': ['@꧁𐌙𐌀𐌌🛹💤'], 'detailedMentions': [{'userId': '7299629834715300869', 'nickName': '꧁𐌙𐌀𐌌🛹💤', 'profileUrl': 'https://www.tiktok.com/@7299629834715300869', 'secUid': 'MS4wLjABAAAAYTOQE_0Xv798jcm8OMGDqZvqi1iG5Mn1PrZwRpmfJflIIrkDuDqe9uxpaceTzSMa'}]}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548418670400045832', 'createTime': 1757503189, 'createTimeISO': '2025-09-10T11:19:49.000Z', 'text': '😂🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7369035572960412678', 'uniqueId': 'eider.andrade8', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/5e1e06c74f52f602b31f2609edab4fdd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cd013ada&amp;x-expires=1758052800&amp;x-signature=npvYBId5LPcETeRJD%2FeTH64hKQs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7802,18 +7802,18 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>😂🥰🥰</t>
+          <t>🥰🥰🥰</t>
         </is>
       </c>
       <c r="G133" s="2" t="n">
-        <v>45910.47209490741</v>
+        <v>45910.41665509259</v>
       </c>
       <c r="H133" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>11:19:49</t>
+          <t>09:59:59</t>
         </is>
       </c>
       <c r="J133" t="n">
@@ -7832,7 +7832,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548418670400045832', 'createTime': 1757503189, 'createTimeISO': '2025-09-10T11:19:49.000Z', 'text': '😂🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7369035572960412678', 'uniqueId': 'eider.andrade8', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/5e1e06c74f52f602b31f2609edab4fdd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=83961fea&amp;x-expires=1758034800&amp;x-signature=dsNb6wLcT20uubZTi7oQ369rpoc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548398096377774869', 'createTime': 1757498399, 'createTimeISO': '2025-09-10T09:59:59.000Z', 'text': '🥰🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7472839683216917505', 'uniqueId': 'vuictormanuelmiran', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=33ae5891&amp;x-expires=1758052800&amp;x-signature=suGlnP1LkkF7vGkNT5ApNgsneQk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7858,22 +7858,22 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>🥰🥰🥰</t>
+          <t>😁</t>
         </is>
       </c>
       <c r="G134" s="2" t="n">
-        <v>45910.41665509259</v>
+        <v>45910.76180555556</v>
       </c>
       <c r="H134" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>09:59:59</t>
+          <t>18:17:00</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
@@ -7888,7 +7888,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548398096377774869', 'createTime': 1757498399, 'createTimeISO': '2025-09-10T09:59:59.000Z', 'text': '🥰🥰🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7472839683216917505', 'uniqueId': 'vuictormanuelmiran', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a3dfe747&amp;x-expires=1758034800&amp;x-signature=teA4SOxYpw5ZyVTwLc8TYTVhmGY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548526181525357332', 'createTime': 1757528220, 'createTimeISO': '2025-09-10T18:17:00.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7430104209989551110', 'uniqueId': 'santy.v8l3k', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/3b25a620ef1dd92aef00176563f330be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6a62b3ee&amp;x-expires=1758052800&amp;x-signature=%2BbZv7iO2amIDcBWzbSIfgaX3Xw0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7914,18 +7914,18 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>😁</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="G135" s="2" t="n">
-        <v>45910.76180555556</v>
+        <v>45910.74351851852</v>
       </c>
       <c r="H135" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>18:17:00</t>
+          <t>17:50:40</t>
         </is>
       </c>
       <c r="J135" t="n">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548526181525357332', 'createTime': 1757528220, 'createTimeISO': '2025-09-10T18:17:00.000Z', 'text': '😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7430104209989551110', 'uniqueId': 'santy.v8l3k', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/3b25a620ef1dd92aef00176563f330be~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=29e18914&amp;x-expires=1758034800&amp;x-signature=BSnuQQLhbW7kDbtNcYYCFYSRd7Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519407975580424', 'createTime': 1757526640, 'createTimeISO': '2025-09-10T17:50:40.000Z', 'text': 'IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7250540284282160133', 'uniqueId': 'yisusplay28', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8b07ce888000f6f56b9b50bc036a95e5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=866de183&amp;x-expires=1758052800&amp;x-signature=uQOT9lDs7gx0svqFCVRk1XybtVg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -7970,22 +7970,22 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>La mierda va en la taza</t>
         </is>
       </c>
       <c r="G136" s="2" t="n">
-        <v>45910.74351851852</v>
+        <v>45911.62543981482</v>
       </c>
       <c r="H136" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>17:50:40</t>
+          <t>15:00:38</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K136" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548519407975580424', 'createTime': 1757526640, 'createTimeISO': '2025-09-10T17:50:40.000Z', 'text': 'IA', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7250540284282160133', 'uniqueId': 'yisusplay28', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8b07ce888000f6f56b9b50bc036a95e5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=31293f08&amp;x-expires=1758034800&amp;x-signature=K8QdNntCa10vuB22%2FmECRuT0S4k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548846657108443911', 'createTime': 1757602838, 'createTimeISO': '2025-09-11T15:00:38.000Z', 'text': 'La mierda va en la taza', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6774496447285412870', 'uniqueId': 'molinota', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/670b41104e70d37ed8acb60940435869~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=96201add&amp;x-expires=1758052800&amp;x-signature=rSu2r4KNafrRM%2Bltd%2BARlWqMDBQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8026,18 +8026,18 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>La mierda va en la taza</t>
+          <t>COMO AVANZA LA IA</t>
         </is>
       </c>
       <c r="G137" s="2" t="n">
-        <v>45911.62543981482</v>
+        <v>45910.93607638889</v>
       </c>
       <c r="H137" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>15:00:38</t>
+          <t>22:27:57</t>
         </is>
       </c>
       <c r="J137" t="n">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548846657108443911', 'createTime': 1757602838, 'createTimeISO': '2025-09-11T15:00:38.000Z', 'text': 'La mierda va en la taza', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6774496447285412870', 'uniqueId': 'molinota', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/670b41104e70d37ed8acb60940435869~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=41115901&amp;x-expires=1758034800&amp;x-signature=juQ8D%2BUwNAzQvYSmGD1vvT3sY6Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548590811282916114', 'createTime': 1757543277, 'createTimeISO': '2025-09-10T22:27:57.000Z', 'text': 'COMO AVANZA LA IA', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7526279297532675079', 'uniqueId': 'daniel_rangel_226', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/610137ad20d9caaf45d80acbf209e2d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c76162be&amp;x-expires=1758052800&amp;x-signature=Xjb8aSKjR99vVtptW7bLQzpvY%2Fw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8082,18 +8082,18 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>COMO AVANZA LA IA</t>
+          <t>que oso alpina usando ia en su publicidad</t>
         </is>
       </c>
       <c r="G138" s="2" t="n">
-        <v>45910.93607638889</v>
+        <v>45910.79826388889</v>
       </c>
       <c r="H138" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>22:27:57</t>
+          <t>19:09:30</t>
         </is>
       </c>
       <c r="J138" t="n">
@@ -8112,7 +8112,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548590811282916114', 'createTime': 1757543277, 'createTimeISO': '2025-09-10T22:27:57.000Z', 'text': 'COMO AVANZA LA IA', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7526279297532675079', 'uniqueId': 'daniel_rangel_226', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/610137ad20d9caaf45d80acbf209e2d9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7dc7633a&amp;x-expires=1758034800&amp;x-signature=7gqft9Kg7qQw39l28nWk8XFz6bI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548539685108761352', 'createTime': 1757531370, 'createTimeISO': '2025-09-10T19:09:30.000Z', 'text': 'que oso alpina usando ia en su publicidad', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6854674077765862405', 'uniqueId': '_camilit0', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/c3cbe6b25eddd9382f0d58a4110e58cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=380f9808&amp;x-expires=1758052800&amp;x-signature=Dstur2XbvKe%2B9N%2B2R0%2FP1mQ8cfo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8138,25 +8138,25 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>que oso alpina usando ia en su publicidad</t>
+          <t>re chichipatos sin palabras, tanto presupuesto q tienen y no les importa la audiencia</t>
         </is>
       </c>
       <c r="G139" s="2" t="n">
-        <v>45910.79826388889</v>
+        <v>45910.78987268519</v>
       </c>
       <c r="H139" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>19:09:30</t>
+          <t>18:57:25</t>
         </is>
       </c>
       <c r="J139" t="n">
         <v>2</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139" t="b">
         <v>0</v>
@@ -8168,7 +8168,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548539685108761352', 'createTime': 1757531370, 'createTimeISO': '2025-09-10T19:09:30.000Z', 'text': 'que oso alpina usando ia en su publicidad', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6854674077765862405', 'uniqueId': '_camilit0', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/c3cbe6b25eddd9382f0d58a4110e58cf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=62212cf2&amp;x-expires=1758034800&amp;x-signature=Yzw%2BaayczLRaptuY%2FzKQTv3gt3M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548536605892903687', 'createTime': 1757530645, 'createTimeISO': '2025-09-10T18:57:25.000Z', 'text': 're chichipatos sin palabras, tanto presupuesto q tienen y no les importa la audiencia', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7035117021750723589', 'uniqueId': 'arch_k2', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7db4771fe12c73712718d55c221a9979~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=781351f6&amp;x-expires=1758052800&amp;x-signature=jVVSeZcyoiZCSda6Y%2Ff38i4H61M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8194,25 +8194,25 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>re chichipatos sin palabras, tanto presupuesto q tienen y no les importa la audiencia</t>
+          <t>ustedes forrados en plata y prefieren hacer publicidad con ia? estamos es jodidos</t>
         </is>
       </c>
       <c r="G140" s="2" t="n">
-        <v>45910.78987268519</v>
+        <v>45910.8642824074</v>
       </c>
       <c r="H140" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>18:57:25</t>
+          <t>20:44:34</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L140" t="b">
         <v>0</v>
@@ -8224,7 +8224,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548536605892903687', 'createTime': 1757530645, 'createTimeISO': '2025-09-10T18:57:25.000Z', 'text': 're chichipatos sin palabras, tanto presupuesto q tienen y no les importa la audiencia', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7035117021750723589', 'uniqueId': 'arch_k2', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7db4771fe12c73712718d55c221a9979~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b6a86d55&amp;x-expires=1758034800&amp;x-signature=5HPTsUqjoZa7dfxsd4qDiwoA%2F9c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548564169508815623', 'createTime': 1757537074, 'createTimeISO': '2025-09-10T20:44:34.000Z', 'text': 'ustedes forrados en plata y prefieren hacer publicidad con ia? estamos es jodidos', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '227302901138952192', 'uniqueId': 'lisaschrodinger1', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ab0975f09a83bbff7389939fd1aa033e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e115d3a6&amp;x-expires=1758052800&amp;x-signature=oUduW2Rx8h4UVgdCsWBkLxKXDeo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8250,22 +8250,22 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>ustedes forrados en plata y prefieren hacer publicidad con ia? estamos es jodidos</t>
+          <t>Alpina 80 años embutiendo azúcar</t>
         </is>
       </c>
       <c r="G141" s="2" t="n">
-        <v>45910.8642824074</v>
+        <v>45910.79078703704</v>
       </c>
       <c r="H141" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>20:44:34</t>
+          <t>18:58:44</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K141" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548564169508815623', 'createTime': 1757537074, 'createTimeISO': '2025-09-10T20:44:34.000Z', 'text': 'ustedes forrados en plata y prefieren hacer publicidad con ia? estamos es jodidos', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '227302901138952192', 'uniqueId': 'lisaschrodinger1', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ab0975f09a83bbff7389939fd1aa033e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fd89ef90&amp;x-expires=1758034800&amp;x-signature=ffj553sUGvMTkDkDJfW6ZkZuTfA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548536942431322896', 'createTime': 1757530724, 'createTimeISO': '2025-09-10T18:58:44.000Z', 'text': 'Alpina 80 años embutiendo azúcar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7075502275905307654', 'uniqueId': 'fernandozuluaga30', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a7280e43e25393eff81b5d69b567aead~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c5bda1dc&amp;x-expires=1758052800&amp;x-signature=nMrW%2FLxchlyUN1K4%2F98p%2FNyY2qo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8306,18 +8306,18 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Alpina 80 años embutiendo azúcar</t>
+          <t>Podrán ocultar 3.000 comentarios y seguiran recibiendo mas comentarios de hate por usar ia y no pagar un comercial decente</t>
         </is>
       </c>
       <c r="G142" s="2" t="n">
-        <v>45910.79078703704</v>
+        <v>45910.99325231482</v>
       </c>
       <c r="H142" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>18:58:44</t>
+          <t>23:50:17</t>
         </is>
       </c>
       <c r="J142" t="n">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548536942431322896', 'createTime': 1757530724, 'createTimeISO': '2025-09-10T18:58:44.000Z', 'text': 'Alpina 80 años embutiendo azúcar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7075502275905307654', 'uniqueId': 'fernandozuluaga30', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a7280e43e25393eff81b5d69b567aead~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f8a2f048&amp;x-expires=1758034800&amp;x-signature=jo%2F3T2OHFhn4vOkQ%2Bz6o0uy%2F2W8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548612049145611013', 'createTime': 1757548217, 'createTimeISO': '2025-09-10T23:50:17.000Z', 'text': 'Podrán ocultar 3.000 comentarios y seguiran recibiendo mas comentarios de hate por usar ia y no pagar un comercial decente', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765670494865998854', 'uniqueId': 'tangoplay_', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/409f39217ab640e340f6fceb506be4f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=254f9a9b&amp;x-expires=1758052800&amp;x-signature=Miv4pgW7l0R5OuKN25cM1f1cFdw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8362,18 +8362,18 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>No usen mas ia, ni que no tuvieran pa contratar un artista</t>
+          <t>qué asco, se me antojo mejor comprar productos de Alquería</t>
         </is>
       </c>
       <c r="G143" s="2" t="n">
-        <v>45911.07997685186</v>
+        <v>45911.01805555556</v>
       </c>
       <c r="H143" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>01:55:10</t>
+          <t>00:26:00</t>
         </is>
       </c>
       <c r="J143" t="n">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548644253654024967', 'createTime': 1757555710, 'createTimeISO': '2025-09-11T01:55:10.000Z', 'text': 'No usen mas ia, ni que no tuvieran pa contratar un artista', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157796127009653766', 'uniqueId': 'lmsplvd', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/6653e38ef36c04d8d8bef2841fdcef65~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8998c198&amp;x-expires=1758034800&amp;x-signature=69eptcnH84JaUVvFCjXl%2FyhYgo8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548621218876031764', 'createTime': 1757550360, 'createTimeISO': '2025-09-11T00:26:00.000Z', 'text': 'qué asco, se me antojo mejor comprar productos de Alquería', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959343841239254021', 'uniqueId': 'nolesealtiktok1', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/daaf0bea50ae18b7baeb7056dbb7d72e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e07c0703&amp;x-expires=1758052800&amp;x-signature=GBl2WlwZ8w39UT49Db7yXs960UY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8418,22 +8418,22 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>qué asco, se me antojo mejor comprar productos de Alquería</t>
+          <t>la IA es un riesgo reputacional</t>
         </is>
       </c>
       <c r="G144" s="2" t="n">
-        <v>45911.01805555556</v>
+        <v>45910.72884259259</v>
       </c>
       <c r="H144" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>17:29:32</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548621218876031764', 'createTime': 1757550360, 'createTimeISO': '2025-09-11T00:26:00.000Z', 'text': 'qué asco, se me antojo mejor comprar productos de Alquería', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959343841239254021', 'uniqueId': 'nolesealtiktok1', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/daaf0bea50ae18b7baeb7056dbb7d72e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=413cab9b&amp;x-expires=1758034800&amp;x-signature=s%2B3Gk1XzEAOx0LFI7S%2FmG%2BxPEDc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548513969955177234', 'createTime': 1757525372, 'createTimeISO': '2025-09-10T17:29:32.000Z', 'text': 'la IA es un riesgo reputacional', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6952613095761232901', 'uniqueId': 'mikahvlogsyvainas', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/312fe242f8ec4030f33476fcc826cb2a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=64e7211e&amp;x-expires=1758052800&amp;x-signature=Av8k9mwlrnHaq%2BysJqegOGHpKBE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8474,18 +8474,18 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Podrán ocultar 3.000 comentarios y seguiran recibiendo mas comentarios de hate por usar ia y no pagar un comercial decente</t>
+          <t>No usen mas ia, ni que no tuvieran pa contratar un artista</t>
         </is>
       </c>
       <c r="G145" s="2" t="n">
-        <v>45910.99325231482</v>
+        <v>45911.07997685186</v>
       </c>
       <c r="H145" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>23:50:17</t>
+          <t>01:55:10</t>
         </is>
       </c>
       <c r="J145" t="n">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548612049145611013', 'createTime': 1757548217, 'createTimeISO': '2025-09-10T23:50:17.000Z', 'text': 'Podrán ocultar 3.000 comentarios y seguiran recibiendo mas comentarios de hate por usar ia y no pagar un comercial decente', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765670494865998854', 'uniqueId': 'tangoplay_', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/409f39217ab640e340f6fceb506be4f2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8f1c2343&amp;x-expires=1758034800&amp;x-signature=rkzyA5LtUEr2QptOkR1JcjQVPow%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548644253654024967', 'createTime': 1757555710, 'createTimeISO': '2025-09-11T01:55:10.000Z', 'text': 'No usen mas ia, ni que no tuvieran pa contratar un artista', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7157796127009653766', 'uniqueId': 'lmsplvd', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/6653e38ef36c04d8d8bef2841fdcef65~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=27439056&amp;x-expires=1758052800&amp;x-signature=NPUBKXTdumYE5cleKmwLeVYuZ%2Fc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8530,22 +8530,22 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
-          <t>la IA es un riesgo reputacional</t>
+          <t>Ya me imagino a los jefazos de Alpina diciendo; “Metele IA, que eso le gusta a la chaviza”, T_T no se puede estar más desconectado de tu audiencia, y lo uncanny que se ven estos ads, la verdad</t>
         </is>
       </c>
       <c r="G146" s="2" t="n">
-        <v>45910.72884259259</v>
+        <v>45910.39724537037</v>
       </c>
       <c r="H146" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>17:29:32</t>
+          <t>09:32:02</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="K146" t="n">
         <v>0</v>
@@ -8560,13 +8560,13 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548513969955177234', 'createTime': 1757525372, 'createTimeISO': '2025-09-10T17:29:32.000Z', 'text': 'la IA es un riesgo reputacional', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6952613095761232901', 'uniqueId': 'mikahvlogsyvainas', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/312fe242f8ec4030f33476fcc826cb2a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ce0e798b&amp;x-expires=1758034800&amp;x-signature=uYlDq7PDK4ZiGKo3YAqq08AAg%2F8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548390911198823189', 'createTime': 1757496722, 'createTimeISO': '2025-09-10T09:32:02.000Z', 'text': 'Ya me imagino a los jefazos de Alpina diciendo; “Metele IA, que eso le gusta a la chaviza”, T_T no se puede estar más desconectado de tu audiencia, y lo uncanny que se ven estos ads, la verdad', 'diggCount': 23, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7125833323087381510', 'uniqueId': 'galaxia_0', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f8a648e2cc961d9b94e3d701ffe1aa66~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=510dcf5b&amp;x-expires=1758052800&amp;x-signature=TLYlujLV2d8q0ZlRAC4wqY7qKW8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -8580,28 +8580,28 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@user369347738/video/7548206069886061831?_r=1&amp;_t=ZS-8zeO6GZn8iN</t>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490?_r=1&amp;_t=ZS-8zeO9hmWXF2</t>
         </is>
       </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Ya me imagino a los jefazos de Alpina diciendo; “Metele IA, que eso le gusta a la chaviza”, T_T no se puede estar más desconectado de tu audiencia, y lo uncanny que se ven estos ads, la verdad</t>
+          <t>jajajaa sos 😂😂😂😂</t>
         </is>
       </c>
       <c r="G147" s="2" t="n">
-        <v>45910.39724537037</v>
+        <v>45914.95876157407</v>
       </c>
       <c r="H147" s="3" t="n">
-        <v>45910</v>
+        <v>45914</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>09:32:02</t>
+          <t>23:00:37</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K147" t="n">
         <v>0</v>
@@ -8616,7 +8616,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'input': 'https://www.tiktok.com/@user369347738/video/7548206069886061831', 'cid': '7548390911198823189', 'createTime': 1757496722, 'createTimeISO': '2025-09-10T09:32:02.000Z', 'text': 'Ya me imagino a los jefazos de Alpina diciendo; “Metele IA, que eso le gusta a la chaviza”, T_T no se puede estar más desconectado de tu audiencia, y lo uncanny que se ven estos ads, la verdad', 'diggCount': 23, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7125833323087381510', 'uniqueId': 'galaxia_0', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f8a648e2cc961d9b94e3d701ffe1aa66~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=2a795574&amp;x-expires=1758034800&amp;x-signature=0fNbdO0USdwN%2BcWHMZB8L4EItvs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548918352757001490', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'cid': '7550083506242011922', 'createTime': 1757890837, 'createTimeISO': '2025-09-14T23:00:37.000Z', 'text': 'jajajaa sos 😂😂😂😂', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808353821459350534', 'uniqueId': 'kathemia1002', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/74284c3455ff47a191f0cbc0236da720~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=68e69aa9&amp;x-expires=1758052800&amp;x-signature=hh0%2BNAjKbKTUcVa9eHR1mPIAcQQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8642,22 +8642,22 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>jajajaa sos 😂😂😂😂</t>
+          <t>Jajjaa 😂😂😂😂😂</t>
         </is>
       </c>
       <c r="G148" s="2" t="n">
-        <v>45914.95876157407</v>
+        <v>45914.98524305555</v>
       </c>
       <c r="H148" s="3" t="n">
         <v>45914</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>23:00:37</t>
+          <t>23:38:45</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K148" t="n">
         <v>0</v>
@@ -8672,7 +8672,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548918352757001490', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'cid': '7550083506242011922', 'createTime': 1757890837, 'createTimeISO': '2025-09-14T23:00:37.000Z', 'text': 'jajajaa sos 😂😂😂😂', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808353821459350534', 'uniqueId': 'kathemia1002', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/74284c3455ff47a191f0cbc0236da720~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3f713868&amp;x-expires=1758034800&amp;x-signature=1auaVclzRo%2B6Vr0NlDhS5obluGw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548918352757001490', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'cid': '7550093261051740945', 'createTime': 1757893125, 'createTimeISO': '2025-09-14T23:38:45.000Z', 'text': 'Jajjaa 😂😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6960784199813186565', 'uniqueId': 'alisonsolarte845', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/b3712a9a491d5e130a9ca10b9476dd87~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d43f30e4&amp;x-expires=1758052800&amp;x-signature=5s7lAyJLdj76VUqgrMNVERzC1Mc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8698,22 +8698,22 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>jajaaj yop</t>
+          <t>esoo monetizando 🥰🥰</t>
         </is>
       </c>
       <c r="G149" s="2" t="n">
-        <v>45913.97104166666</v>
+        <v>45913.0119675926</v>
       </c>
       <c r="H149" s="3" t="n">
         <v>45913</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>23:18:18</t>
+          <t>00:17:14</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K149" t="n">
         <v>0</v>
@@ -8728,7 +8728,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548918352757001490', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'cid': '7549717031286391559', 'createTime': 1757805498, 'createTimeISO': '2025-09-13T23:18:18.000Z', 'text': 'jajaaj yop', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7420988758155215877', 'uniqueId': 'user2246175873177', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/2811ccc140fb3cd185a5c4fb60426848~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=053abd53&amp;x-expires=1758034800&amp;x-signature=Y4GmFj4Q3e9q%2FtN3YDItjsJO6IA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548918352757001490', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'cid': '7549361161436119826', 'createTime': 1757722634, 'createTimeISO': '2025-09-13T00:17:14.000Z', 'text': 'esoo monetizando 🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6820139902073979909', 'uniqueId': 'nhora_maty', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/da744a8e23fbc21641340ce09688ae8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=189ec00e&amp;x-expires=1758052800&amp;x-signature=4XDs%2FrYXF9XhtJCJ66%2F50IknZ3U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8754,22 +8754,22 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
         <is>
-          <t>esoo monetizando 🥰🥰</t>
+          <t>jajaaj yop</t>
         </is>
       </c>
       <c r="G150" s="2" t="n">
-        <v>45913.0119675926</v>
+        <v>45913.97104166666</v>
       </c>
       <c r="H150" s="3" t="n">
         <v>45913</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>00:17:14</t>
+          <t>23:18:18</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548918352757001490', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'cid': '7549361161436119826', 'createTime': 1757722634, 'createTimeISO': '2025-09-13T00:17:14.000Z', 'text': 'esoo monetizando 🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6820139902073979909', 'uniqueId': 'nhora_maty', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/da744a8e23fbc21641340ce09688ae8e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=521f9ab9&amp;x-expires=1758034800&amp;x-signature=sBBpCE7zjP3XVw1pHJG3nFj1E8s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548918352757001490', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'cid': '7549717031286391559', 'createTime': 1757805498, 'createTimeISO': '2025-09-13T23:18:18.000Z', 'text': 'jajaaj yop', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7420988758155215877', 'uniqueId': 'user2246175873177', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/2811ccc140fb3cd185a5c4fb60426848~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fe0e8cae&amp;x-expires=1758052800&amp;x-signature=5B2vbPyy0lE5o1LY%2BRySI2xswc0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8810,18 +8810,18 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Jajjaa 😂😂😂😂😂</t>
+          <t>😂😂😂</t>
         </is>
       </c>
       <c r="G151" s="2" t="n">
-        <v>45914.98524305555</v>
+        <v>45912.9568287037</v>
       </c>
       <c r="H151" s="3" t="n">
-        <v>45914</v>
+        <v>45912</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>23:38:45</t>
+          <t>22:57:50</t>
         </is>
       </c>
       <c r="J151" t="n">
@@ -8840,13 +8840,13 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548918352757001490', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'cid': '7550093261051740945', 'createTime': 1757893125, 'createTimeISO': '2025-09-14T23:38:45.000Z', 'text': 'Jajjaa 😂😂😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6960784199813186565', 'uniqueId': 'alisonsolarte845', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/b3712a9a491d5e130a9ca10b9476dd87~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a79dd687&amp;x-expires=1758034800&amp;x-signature=0D6rYO4qmPgrTLgpUT1Hqd%2BA4TE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548918352757001490', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'cid': '7549340703403344658', 'createTime': 1757717870, 'createTimeISO': '2025-09-12T22:57:50.000Z', 'text': '😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7328476897858798597', 'uniqueId': 'oscar.escorche', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/3b7930daf0df3da7427cd2c1c186c680~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=380173c0&amp;x-expires=1758052800&amp;x-signature=KV3ul2JN3iOYfze4oOC%2FLw6xnmA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -8860,24 +8860,24 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490?_r=1&amp;_t=ZS-8zeO9hmWXF2</t>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346?_r=1&amp;_t=ZS-8zeOAge5FPm</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>😂😂😂</t>
+          <t>jaaaa yo fui igual mis padres tambien tenían una tienda🤣</t>
         </is>
       </c>
       <c r="G152" s="2" t="n">
-        <v>45912.9568287037</v>
+        <v>45911.8071412037</v>
       </c>
       <c r="H152" s="3" t="n">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>22:57:50</t>
+          <t>19:22:17</t>
         </is>
       </c>
       <c r="J152" t="n">
@@ -8896,13 +8896,13 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548918352757001490', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548918352757001490', 'cid': '7549340703403344658', 'createTime': 1757717870, 'createTimeISO': '2025-09-12T22:57:50.000Z', 'text': '😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7328476897858798597', 'uniqueId': 'oscar.escorche', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/3b7930daf0df3da7427cd2c1c186c680~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=74bd2e92&amp;x-expires=1758034800&amp;x-signature=0F0Jzj6QGeHm6SreXZbuEPIc9qs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890366343171346', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346', 'cid': '7548914095299494663', 'createTime': 1757618537, 'createTimeISO': '2025-09-11T19:22:17.000Z', 'text': 'jaaaa yo fui igual mis padres tambien tenían una tienda🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541075771877573638', 'uniqueId': 'nancyfula5', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7a534c9ddae5fc04e653b04994a642fe~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=749b1651&amp;x-expires=1758052800&amp;x-signature=aOiiwhd51n0lIHg65YIYaKz2Y%2Bc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -8916,24 +8916,24 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346?_r=1&amp;_t=ZS-8zeOAge5FPm</t>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591?_r=1&amp;_t=ZS-8zeOBRN6iBE</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>jaaaa yo fui igual mis padres tambien tenían una tienda🤣</t>
+          <t>yo cierro los ojos y me vengo</t>
         </is>
       </c>
       <c r="G153" s="2" t="n">
-        <v>45911.8071412037</v>
+        <v>45914.78924768518</v>
       </c>
       <c r="H153" s="3" t="n">
-        <v>45911</v>
+        <v>45914</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>19:22:17</t>
+          <t>18:56:31</t>
         </is>
       </c>
       <c r="J153" t="n">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890366343171346', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890366343171346', 'cid': '7548914095299494663', 'createTime': 1757618537, 'createTimeISO': '2025-09-11T19:22:17.000Z', 'text': 'jaaaa yo fui igual mis padres tambien tenían una tienda🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7541075771877573638', 'uniqueId': 'nancyfula5', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7a534c9ddae5fc04e653b04994a642fe~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3a7d075d&amp;x-expires=1758034800&amp;x-signature=CgBao5I%2Fz1BmTJEwU5X33a0YYcs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890371032419591', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'cid': '7550020648061551361', 'createTime': 1757876191, 'createTimeISO': '2025-09-14T18:56:31.000Z', 'text': 'yo cierro los ojos y me vengo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6828690858185016326', 'uniqueId': 'vicmego', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a3f6d3cab6b502f0343090cefbb705d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=632afe24&amp;x-expires=1758052800&amp;x-signature=JsglmgrsPwtTZHOiJrfnDZASJ%2B0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -8978,18 +8978,18 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
         <is>
-          <t>yo cierro los ojos y me vengo</t>
+          <t>Amo a don javi 🥰</t>
         </is>
       </c>
       <c r="G154" s="2" t="n">
-        <v>45914.78924768518</v>
+        <v>45915.19373842593</v>
       </c>
       <c r="H154" s="3" t="n">
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>18:56:31</t>
+          <t>04:38:59</t>
         </is>
       </c>
       <c r="J154" t="n">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890371032419591', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'cid': '7550020648061551361', 'createTime': 1757876191, 'createTimeISO': '2025-09-14T18:56:31.000Z', 'text': 'yo cierro los ojos y me vengo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6828690858185016326', 'uniqueId': 'vicmego', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a3f6d3cab6b502f0343090cefbb705d4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bf3cac6c&amp;x-expires=1758034800&amp;x-signature=ocRpVlZwc8CeZuvgLiMsTFYM%2Bbg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890371032419591', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'cid': '7550170816676446994', 'createTime': 1757911139, 'createTimeISO': '2025-09-15T04:38:59.000Z', 'text': 'Amo a don javi 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808328867154756613', 'uniqueId': 'ailyngallegovera', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7336229818985512965~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=eb4fe516&amp;x-expires=1758052800&amp;x-signature=pn9dgeRwBOeNhv6uzYptvrhgyng%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9034,18 +9034,18 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Amo a don javi 🥰</t>
+          <t>uuuuuy que le paso a luis Alberto posada😁😁😁</t>
         </is>
       </c>
       <c r="G155" s="2" t="n">
-        <v>45915.19373842593</v>
+        <v>45915.45001157407</v>
       </c>
       <c r="H155" s="3" t="n">
         <v>45915</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>04:38:59</t>
+          <t>10:48:01</t>
         </is>
       </c>
       <c r="J155" t="n">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890371032419591', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'cid': '7550170816676446994', 'createTime': 1757911139, 'createTimeISO': '2025-09-15T04:38:59.000Z', 'text': 'Amo a don javi 🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808328867154756613', 'uniqueId': 'ailyngallegovera', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7336229818985512965~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3813f38b&amp;x-expires=1758034800&amp;x-signature=MoOiupb6GV5XOv2i2GHdDA2bnVQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890371032419591', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'cid': '7550265925740675847', 'createTime': 1757933281, 'createTimeISO': '2025-09-15T10:48:01.000Z', 'text': 'uuuuuy que le paso a luis Alberto posada😁😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7294230742023275525', 'uniqueId': 'dimer534', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/58a9e0e23c05e9927aef18ede54e2fad~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b8c15d76&amp;x-expires=1758052800&amp;x-signature=ckJH0FWZijZWw4dB8i9kkmmJ48Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9090,18 +9090,18 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>uuuuuy que le paso a luis Alberto posada😁😁😁</t>
+          <t>cuando no le echaban 💧🔫 agua😁😁😁</t>
         </is>
       </c>
       <c r="G156" s="2" t="n">
-        <v>45915.45001157407</v>
+        <v>45911.9050462963</v>
       </c>
       <c r="H156" s="3" t="n">
-        <v>45915</v>
+        <v>45911</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>10:48:01</t>
+          <t>21:43:16</t>
         </is>
       </c>
       <c r="J156" t="n">
@@ -9120,13 +9120,13 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890371032419591', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'cid': '7550265925740675847', 'createTime': 1757933281, 'createTimeISO': '2025-09-15T10:48:01.000Z', 'text': 'uuuuuy que le paso a luis Alberto posada😁😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7294230742023275525', 'uniqueId': 'dimer534', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/58a9e0e23c05e9927aef18ede54e2fad~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e6237167&amp;x-expires=1758034800&amp;x-signature=80cBJzvhkn0ivAEj8QY%2F0Ok0s2w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890371032419591', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'cid': '7548950376810005266', 'createTime': 1757626996, 'createTimeISO': '2025-09-11T21:43:16.000Z', 'text': 'cuando no le echaban 💧🔫 agua😁😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352620795581121541', 'uniqueId': 'berni8553', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/db334debe59ecc7ed516818d0130fb32~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bf29004c&amp;x-expires=1758052800&amp;x-signature=56RIN4k0CVgDgavYYAA%2FLBmV6GU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -9140,28 +9140,28 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591?_r=1&amp;_t=ZS-8zeOBRN6iBE</t>
+          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401?_r=1&amp;_t=ZS-8zeOEQFvD1j</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>cuando no le echaban 💧🔫 agua😁😁😁</t>
+          <t>tantos animadores por favor</t>
         </is>
       </c>
       <c r="G157" s="2" t="n">
-        <v>45911.9050462963</v>
+        <v>45911.71037037037</v>
       </c>
       <c r="H157" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>21:43:16</t>
+          <t>17:02:56</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548890371032419591', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548890371032419591', 'cid': '7548950376810005266', 'createTime': 1757626996, 'createTimeISO': '2025-09-11T21:43:16.000Z', 'text': 'cuando no le echaban 💧🔫 agua😁😁😁', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7352620795581121541', 'uniqueId': 'berni8553', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/db334debe59ecc7ed516818d0130fb32~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=de2f377e&amp;x-expires=1758034800&amp;x-signature=lQ%2BgJCcY%2F%2FWqZw7UJHGkmLEj%2FNw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548878181538693909', 'createTime': 1757610176, 'createTimeISO': '2025-09-11T17:02:56.000Z', 'text': 'tantos animadores por favor', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7110768307757679622', 'uniqueId': 'marveliver11', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7110768834667249670~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a8fc51ca&amp;x-expires=1758052800&amp;x-signature=q%2BVPm4HRoC170NBjIl35teikqDY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9202,22 +9202,22 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
         <is>
-          <t>tantos animadores por favor</t>
+          <t>De que les sirve ahorrar presupuesto si van a hacer tremendo mojón de animación con IA, que no les duela el bolsillo y paguen a un animador</t>
         </is>
       </c>
       <c r="G158" s="2" t="n">
-        <v>45911.71037037037</v>
+        <v>45915.30900462963</v>
       </c>
       <c r="H158" s="3" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>17:02:56</t>
+          <t>07:24:58</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K158" t="n">
         <v>0</v>
@@ -9232,7 +9232,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548878181538693909', 'createTime': 1757610176, 'createTimeISO': '2025-09-11T17:02:56.000Z', 'text': 'tantos animadores por favor', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7110768307757679622', 'uniqueId': 'marveliver11', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7110768834667249670~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b9a098a1&amp;x-expires=1758034800&amp;x-signature=2boz%2FvvVsyhIUaveg8hbBE%2BUctQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7550213597914399506', 'createTime': 1757921098, 'createTimeISO': '2025-09-15T07:24:58.000Z', 'text': 'De que les sirve ahorrar presupuesto si van a hacer tremendo mojón de animación con IA, que no les duela el bolsillo y paguen a un animador', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6807232169782592518', 'uniqueId': 'syrextitan_avirama', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/cd79386170afe8f8e076025849e158c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=13271c9e&amp;x-expires=1758052800&amp;x-signature=kfprufafuRfrCfPIioqrus6XypI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9258,22 +9258,22 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
-          <t>ya no se esfuerzan no😂😂😂</t>
+          <t>Mejor nada</t>
         </is>
       </c>
       <c r="G159" s="2" t="n">
-        <v>45911.70621527778</v>
+        <v>45914.07890046296</v>
       </c>
       <c r="H159" s="3" t="n">
-        <v>45911</v>
+        <v>45914</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>16:56:57</t>
+          <t>01:53:37</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -9288,7 +9288,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548876641469825793', 'createTime': 1757609817, 'createTimeISO': '2025-09-11T16:56:57.000Z', 'text': 'ya no se esfuerzan no😂😂😂', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7436936124830139448', 'uniqueId': 'killerof.killers', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/8764645bd2eb0906b859cf55866541ec~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bc715422&amp;x-expires=1758034800&amp;x-signature=1LHuvI0lj0q0xcHWDkq5eK7uE6g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7549757123589325576', 'createTime': 1757814817, 'createTimeISO': '2025-09-14T01:53:37.000Z', 'text': 'Mejor nada', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6625050715386347526', 'uniqueId': 'z4ptr4p', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c0117a776ba63c5c0d167b4aa148f265~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c399d0e0&amp;x-expires=1758052800&amp;x-signature=zWgSpqD9%2FHH9c4jHsDVbElxN%2FKw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9314,22 +9314,22 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Mejor nada</t>
+          <t>ya no se esfuerzan no😂😂😂</t>
         </is>
       </c>
       <c r="G160" s="2" t="n">
-        <v>45914.07890046296</v>
+        <v>45911.70621527778</v>
       </c>
       <c r="H160" s="3" t="n">
-        <v>45914</v>
+        <v>45911</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>01:53:37</t>
+          <t>16:56:57</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7549757123589325576', 'createTime': 1757814817, 'createTimeISO': '2025-09-14T01:53:37.000Z', 'text': 'Mejor nada', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6625050715386347526', 'uniqueId': 'z4ptr4p', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c0117a776ba63c5c0d167b4aa148f265~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a89899a4&amp;x-expires=1758034800&amp;x-signature=eM9aKrSATSKJuk9WO%2BiWnFo5heI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548876641469825793', 'createTime': 1757609817, 'createTimeISO': '2025-09-11T16:56:57.000Z', 'text': 'ya no se esfuerzan no😂😂😂', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7436936124830139448', 'uniqueId': 'killerof.killers', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/8764645bd2eb0906b859cf55866541ec~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=62e16103&amp;x-expires=1758052800&amp;x-signature=77QBnYFaKrs9mePzY8Wi8zydHYM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9370,18 +9370,18 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
-          <t>De que les sirve ahorrar presupuesto si van a hacer tremendo mojón de animación con IA, que no les duela el bolsillo y paguen a un animador</t>
+          <t>😂</t>
         </is>
       </c>
       <c r="G161" s="2" t="n">
-        <v>45915.30900462963</v>
+        <v>45911.71685185185</v>
       </c>
       <c r="H161" s="3" t="n">
-        <v>45915</v>
+        <v>45911</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>07:24:58</t>
+          <t>17:12:16</t>
         </is>
       </c>
       <c r="J161" t="n">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7550213597914399506', 'createTime': 1757921098, 'createTimeISO': '2025-09-15T07:24:58.000Z', 'text': 'De que les sirve ahorrar presupuesto si van a hacer tremendo mojón de animación con IA, que no les duela el bolsillo y paguen a un animador', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6807232169782592518', 'uniqueId': 'syrextitan_avirama', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/cd79386170afe8f8e076025849e158c0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=930d5872&amp;x-expires=1758034800&amp;x-signature=doedgpz1jUz7ot7MbdLNizqC9mE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548880586518938375', 'createTime': 1757610736, 'createTimeISO': '2025-09-11T17:12:16.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7448332016402236421', 'uniqueId': 'mazo54381', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/1ddeec96484b7529b6bd78e8b8d4c343~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f581e09a&amp;x-expires=1758052800&amp;x-signature=HG2K7KqwGoINWFEd3VurIJE984M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9426,22 +9426,22 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
         <is>
-          <t>😂</t>
+          <t>njd paguen un animador</t>
         </is>
       </c>
       <c r="G162" s="2" t="n">
-        <v>45911.71685185185</v>
+        <v>45912.00329861111</v>
       </c>
       <c r="H162" s="3" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>17:12:16</t>
+          <t>00:04:45</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K162" t="n">
         <v>0</v>
@@ -9456,7 +9456,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548880586518938375', 'createTime': 1757610736, 'createTimeISO': '2025-09-11T17:12:16.000Z', 'text': '😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7448332016402236421', 'uniqueId': 'mazo54381', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/1ddeec96484b7529b6bd78e8b8d4c343~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2845d06d&amp;x-expires=1758034800&amp;x-signature=MEApG8usdWyKNf56YTNkd2LZqJQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548986822430491410', 'createTime': 1757635485, 'createTimeISO': '2025-09-12T00:04:45.000Z', 'text': 'njd paguen un animador', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7270237640099021830', 'uniqueId': 'jeanp_42', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/09654db54b40858085ed47450f828fe0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=877ae1c9&amp;x-expires=1758052800&amp;x-signature=tH1Ogq4F53C%2BlgFLwbd1V36bNKg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9482,22 +9482,22 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
-          <t>njd paguen un animador</t>
+          <t>llevo 5 meses dándole la avena de alimento. a mí bebé le encanta no estaría mal si me regalaran algunas 🤭🤭🤭</t>
         </is>
       </c>
       <c r="G163" s="2" t="n">
-        <v>45912.00329861111</v>
+        <v>45914.84824074074</v>
       </c>
       <c r="H163" s="3" t="n">
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>00:04:45</t>
+          <t>20:21:28</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -9512,63 +9512,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7548986822430491410', 'createTime': 1757635485, 'createTimeISO': '2025-09-12T00:04:45.000Z', 'text': 'njd paguen un animador', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7270237640099021830', 'uniqueId': 'jeanp_42', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/09654db54b40858085ed47450f828fe0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=717aaabb&amp;x-expires=1758034800&amp;x-signature=Ndu%2BWVEJ6YgQFPwbFkKn7haeUoI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>11</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401?_r=1&amp;_t=ZS-8zeOEQFvD1j</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>llevo 5 meses dándole la avena de alimento. a mí bebé le encanta no estaría mal si me regalaran algunas 🤭🤭🤭</t>
-        </is>
-      </c>
-      <c r="G164" s="2" t="n">
-        <v>45914.84824074074</v>
-      </c>
-      <c r="H164" s="3" t="n">
-        <v>45914</v>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>20:21:28</t>
-        </is>
-      </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0</v>
-      </c>
-      <c r="L164" t="b">
-        <v>0</v>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7550042553770738440', 'createTime': 1757881288, 'createTimeISO': '2025-09-14T20:21:28.000Z', 'text': 'llevo 5 meses dándole la avena de alimento. a mí bebé le encanta no estaría mal si me regalaran algunas 🤭🤭🤭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7548267095990649874', 'uniqueId': 'rosana.cedeo8', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b195a0f7dc80646c9e6893a68e2eaaef~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aed5d3c1&amp;x-expires=1758034800&amp;x-signature=lE%2FQQIsklP6BKEzZLleijCaC12w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@Alpina Leches/video/7548872989274672401', 'submittedVideoUrl': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'input': 'https://www.tiktok.com/@MS4wLjABAAAAz0g6ilGOuqLdsyj6yj4S_laG21HJXjmypCSGqYY52fGrNTFvF0rbzfybfnxjrpxd/video/7548872989274672401', 'cid': '7550042553770738440', 'createTime': 1757881288, 'createTimeISO': '2025-09-14T20:21:28.000Z', 'text': 'llevo 5 meses dándole la avena de alimento. a mí bebé le encanta no estaría mal si me regalaran algunas 🤭🤭🤭', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7548267095990649874', 'uniqueId': 'rosana.cedeo8', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b195a0f7dc80646c9e6893a68e2eaaef~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9a21dc30&amp;x-expires=1758052800&amp;x-signature=2q59Ddi2ey8KycRlmaZi%2BeH6llM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -9724,7 +9668,7 @@
         <v>73</v>
       </c>
       <c r="E6" t="n">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="7">
@@ -9763,10 +9707,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" t="n">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="9">
@@ -9787,7 +9731,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -9850,7 +9794,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N163"/>
+  <dimension ref="A1:N164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,7 +607,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1053499723343285', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwNTM0OTk3MjMzNDMyODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDUzNDk5NzIzMzQzMjg1', 'date': '2025-09-15T01:30:59.000Z', 'text': 'Amén Amén y Amén', 'profileUrl': 'https://www.facebook.com/essy.deltorogarcia', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/448782048_1564499247442897_1237187302337303624_n.jpg?stp=c0.0.819.819a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XsuyZhnh0lMQ7kNvwF6OKKV&amp;_nc_oc=AdkoKLTALIKSKJzMomj3moZEJDw-5cPPR2OK4ti3CSm-Rh_LkCvIu0SeRIWHHyw-T9s&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_AfZRjR6XGIedc5spegVzKKilHmA83aB7LbaYwSjxeTaoIg&amp;oe=68CE4603', 'profileId': 'pfbid02UALBGfzeTskJ725nX8WE6xV2cjGAbBa8xbA9a3ZPU5ei56gxJafBSPcfguBK2wvZl', 'profileName': 'Essy Del Toro Garcia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1053499723343285', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwNTM0OTk3MjMzNDMyODU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDUzNDk5NzIzMzQzMjg1', 'date': '2025-09-15T01:30:59.000Z', 'text': 'Amén Amén y Amén', 'profileUrl': 'https://www.facebook.com/essy.deltorogarcia', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/448782048_1564499247442897_1237187302337303624_n.jpg?stp=c0.0.819.819a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=XsuyZhnh0lMQ7kNvwHcOxPv&amp;_nc_oc=Adk0UKa3x-d0aIYRHwmA6ioe3YbpkshNraKa0raWdoBce41DlRoPVz42BQ43_Fn9-hM&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=YXOrQcOGV-iLYq35Jht-lQ&amp;oh=00_Afan955VQ8Twb9c8C9g-EGvRvGRo0n5tWxALBkn3JDObrg&amp;oe=68CE4603', 'profileId': 'pfbid02UALBGfzeTskJ725nX8WE6xV2cjGAbBa8xbA9a3ZPU5ei56gxJafBSPcfguBK2wvZl', 'profileName': 'Essy Del Toro Garcia', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1839340746791552', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE4MzkzNDA3NDY3OTE1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xODM5MzQwNzQ2NzkxNTUy', 'date': '2025-09-15T02:25:01.000Z', 'text': 'Amen', 'profileUrl': 'https://www.facebook.com/jaime.leon.mazo.perez', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=uF0fUKiBKJsQ7kNvwFAPJOu&amp;_nc_oc=Adm5Ul1yS0pMVfUhGpvTx3HHHDjs6MoFpJcEpPVCHMTap-UPTJyBKy1LttvbxDnZVHo&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;oh=00_AfawCMhOC54smcVE-bvm3QEQ62yGpmB2NgqjREl3j0YZig&amp;oe=68EFD1BA', 'profileId': 'pfbid0cVb1ehbXwA68AmMhERmaS3c1w8XtRQ3LBoZY4mpDhikx5Tjp1XutPKx3XdbAkxS7l', 'profileName': 'Jaime León Mazo Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1839340746791552', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE4MzkzNDA3NDY3OTE1NTI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xODM5MzQwNzQ2NzkxNTUy', 'date': '2025-09-15T02:25:01.000Z', 'text': 'Amen', 'profileUrl': 'https://www.facebook.com/jaime.leon.mazo.perez', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_2781666950760530985_n.png?stp=cp0_dst-png_s32x32&amp;_nc_cat=1&amp;ccb=1-7&amp;_nc_sid=136b72&amp;_nc_ohc=uF0fUKiBKJsQ7kNvwFLRsR1&amp;_nc_oc=Adm8OJzSWvObvaiaVGdNWxCXT3BmvLSH0C0ZNq_ti7IFxHDVL1b8mqr3rbuxCf9AEuI&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;oh=00_Afa_0mDfFfabL8cq7CH8yK095gaqMyRVzYo-NmQotD9rgQ&amp;oe=68F009FA', 'profileId': 'pfbid0cVb1ehbXwA68AmMhERmaS3c1w8XtRQ3LBoZY4mpDhikx5Tjp1XutPKx3XdbAkxS7l', 'profileName': 'Jaime León Mazo Pérez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1765338114346772', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3NjUzMzgxMTQzNDY3NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzY1MzM4MTE0MzQ2Nzcy', 'date': '2025-09-12T19:30:46.000Z', 'text': 'Eran alpina eras más chévere antes', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/491395119_2482748972059706_1272209331354308727_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=hPr5oAQRr7QQ7kNvwFc_bGn&amp;_nc_oc=AdlsoX8UXJ8GFrMYMhhqlGvad-pFz5_tNU88KYe6iouI129FD5xScY0yfqP7R9aKZhI&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_AfZhnWXUe40d0bs00IIdaCVExkfhYYD0A7JIXzE8ykDINg&amp;oe=68CE5B80', 'profileId': '100009738815049', 'profileName': 'Damián Arley Hernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1765338114346772', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3NjUzMzgxMTQzNDY3NzI=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzY1MzM4MTE0MzQ2Nzcy', 'date': '2025-09-12T19:30:46.000Z', 'text': 'Eran alpina eras más chévere antes', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/491395119_2482748972059706_1272209331354308727_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=hPr5oAQRr7QQ7kNvwEul5FM&amp;_nc_oc=Adlmr5S2wOVrXcIRYlyhPBi85C5w_RuPmIyQjH-nooRqHUixaT5p7PGiiJgEaCGKuOQ&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=YXOrQcOGV-iLYq35Jht-lQ&amp;oh=00_Afb7t0Q9ocQmw_HMofkfhS6NWH7W_8QJn6PMDa_oawjIyw&amp;oe=68CE5B80', 'profileId': '100009738815049', 'profileName': 'Damián Arley Hernández', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1711482479808279', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3MTE0ODI0Nzk4MDgyNzk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzExNDgyNDc5ODA4Mjc5', 'date': '2025-09-13T22:33:03.000Z', 'text': 'La publicidad con IA dice mucho de la calidad de su trabajo.', 'profileUrl': 'https://www.facebook.com/pierrot.bleu', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/527764992_122267880128029292_4555020448627783100_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=r3fsMY-BIp8Q7kNvwEI5Zt8&amp;_nc_oc=Adku4EGIf3Pkpvi1zDXo5bNlX79sMog0P9mi8BuyGTCRZz-9XYl_s_DWH-SMIumkTv0&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_AfZ9nRPGNELZ6bT_Gzxr2KCRYlu1Q_mrFhBcDc-eIjS-Og&amp;oe=68CE5A88', 'profileId': '61550878779366', 'profileName': 'Pierrot Bleu', 'likesCount': '3', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1711482479808279', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE3MTE0ODI0Nzk4MDgyNzk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNzExNDgyNDc5ODA4Mjc5', 'date': '2025-09-13T22:33:03.000Z', 'text': 'La publicidad con IA dice mucho de la calidad de su trabajo.', 'profileUrl': 'https://www.facebook.com/pierrot.bleu', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/527764992_122267880128029292_4555020448627783100_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=r3fsMY-BIp8Q7kNvwGLnTsf&amp;_nc_oc=AdkB3r4itSk4YqI0caWklKRAijTkVwFKBkqk5-VrfLw5GR6lqF3VevP5X29CgMCAzeM&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=YXOrQcOGV-iLYq35Jht-lQ&amp;oh=00_AfbD2-WYVC-SWQ2UfETwQpInX1UBRSrJ7qfcGEVNXs3DRQ&amp;oe=68CE5A88', 'profileId': '61550878779366', 'profileName': 'Pierrot Bleu', 'likesCount': '3', 'commentsCount': 2, 'comments': [], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1838498053713253', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE4Mzg0OTgwNTM3MTMyNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xODM4NDk4MDUzNzEzMjUz', 'date': '2025-09-14T14:06:32.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-6/547286903_813695251049460_5430494300695876333_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ntEh2GspGdYQ7kNvwESHSDP&amp;_nc_oc=AdnyG12a_YYWjxVdJCvApZI-VPSHNa_wCA9r0YnWXBoQ8LizLrjkhUkXi567xZme1rM&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_Afaada7GJ12O2PwW4GSgwJIKtir8UejjZM6wWwfegdQODw&amp;oe=68CE354E'}, 'id': '813695247716127', 'cix_screen': None, 'massive_image': {'width': 640, 'height': 960}, 'image': {'uri': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-6/547286903_813695251049460_5430494300695876333_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ntEh2GspGdYQ7kNvwESHSDP&amp;_nc_oc=AdnyG12a_YYWjxVdJCvApZI-VPSHNa_wCA9r0YnWXBoQ8LizLrjkhUkXi567xZme1rM&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_AfY55-nbr-njPRgZ6UnrUAnp9baKmhinP_mzsx_qB45AAg&amp;oe=68CE354E', 'width': 150, 'height': 225}, 'ocrText': "May be an image of heart and text that says 'AMOR... Recuerdas que tienes a alguien que te ama con locura y te recuerda en todo momento. Luisaf dedicatorias del corazón.'"}], 'profileUrl': 'https://www.facebook.com/jose.arias.336103', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/538116307_796990922719893_2820109332826313784_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mc1uTS-UGZoQ7kNvwGtRJkv&amp;_nc_oc=AdlBaJXIVJMYA42_znhKkJGS1G2Di7BMTTgmYyN1Rt5zEzP4x5INxbA84TdT4dm14cQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_Afa7Gki_kf2sGGNWZfBxC7uErj0E6aPDuk7If4XAvyO2jA&amp;oe=68CE2CC0', 'profileId': '100072269771691', 'profileName': 'Jose Arias', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1838498053713253', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE4Mzg0OTgwNTM3MTMyNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xODM4NDk4MDUzNzEzMjUz', 'date': '2025-09-14T14:06:32.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-6/547286903_813695251049460_5430494300695876333_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ntEh2GspGdYQ7kNvwEVm_6D&amp;_nc_oc=AdlWjoVWn01JovHaFx7mU0glIy1xbhweOWB1MJMQDPfcgzejtG7-iAX-ZvwqgKyY_BY&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=YXOrQcOGV-iLYq35Jht-lQ&amp;oh=00_AfY66LQoioUn8HRGdjcxceDL2-H6QLGuNh0tRMgIQ0LS3w&amp;oe=68CE6D8E'}, 'id': '813695247716127', 'cix_screen': None, 'massive_image': {'width': 640, 'height': 960}, 'image': {'uri': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-6/547286903_813695251049460_5430494300695876333_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ntEh2GspGdYQ7kNvwEVm_6D&amp;_nc_oc=AdlWjoVWn01JovHaFx7mU0glIy1xbhweOWB1MJMQDPfcgzejtG7-iAX-ZvwqgKyY_BY&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=YXOrQcOGV-iLYq35Jht-lQ&amp;oh=00_Afa7UbKBxC9OgSb40r7v_YWY1638WTNP3LbxtUtHXRKNbA&amp;oe=68CE6D8E', 'width': 150, 'height': 225}, 'ocrText': "May be an image of heart and text that says 'AMOR... Recuerdas que tienes a alguien que te ama con locura y te recuerda en todo momento. Luisaf dedicatorias del corazón.'"}], 'profileUrl': 'https://www.facebook.com/jose.arias.336103', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/538116307_796990922719893_2820109332826313784_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mc1uTS-UGZoQ7kNvwFkAS3K&amp;_nc_oc=AdlUJ1PKg5zv_jLv9Wspjdemh907_y8FnTugKJ6W7giaklOL3MNOi8k2QcuoKmmaNmk&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=YXOrQcOGV-iLYq35Jht-lQ&amp;oh=00_AfYyIc4qbcXFe4v7XLYsefvn0FWbOOOppYNfeJu9ZukhgQ&amp;oe=68CE6500', 'profileId': '100072269771691', 'profileName': 'Jose Arias', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1097803569200070', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwOTc4MDM1NjkyMDAwNzA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDk3ODAzNTY5MjAwMDcw', 'date': '2025-09-12T11:55:16.000Z', 'text': 'Jajajaja Pero es IA gaxxxxx', 'profilePicture': 'https://scontent-mia5-1.xx.fbcdn.net/v/t39.30808-1/503436742_1253835902986899_1384652200062589429_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=MNwh2TDnu0kQ7kNvwFDOLLO&amp;_nc_oc=AdlvnkwbcriOfBPtrNUyB65pPghstN0Jkcz9qQDnEfla8gQL-znj2uDTcIP9RLUnFPU&amp;_nc_zt=24&amp;_nc_ht=scontent-mia5-1.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_AfZUHTZbOdxBRNUAz_ji5sWGVDy40Rva0Ni6XHAsRsHjXA&amp;oe=68CE4F92', 'profileId': '100050815038837', 'profileName': 'Zyon Jhonn', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1097803569200070', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwOTc4MDM1NjkyMDAwNzA=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDk3ODAzNTY5MjAwMDcw', 'date': '2025-09-12T11:55:16.000Z', 'text': 'Jajajaja Pero es IA gaxxxxx', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/503436742_1253835902986899_1384652200062589429_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=MNwh2TDnu0kQ7kNvwHgJyVB&amp;_nc_oc=AdkoXIFv3FmaB3DeI01ZOhiu2h5aS0nmK-oeQ7qRByQkXc2GI0RwDSb9RDSIng78Qtk&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=YXOrQcOGV-iLYq35Jht-lQ&amp;oh=00_AfYf9zL_49s89TjgeeW0Pgo56ISnNcNuq6uYeQhcdjcdBg&amp;oe=68CE4F92', 'profileId': '100050815038837', 'profileName': 'Zyon Jhonn', 'likesCount': '8', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2281864825666658', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yMjgxODY0ODI1NjY2NjU4', 'date': '2025-09-11T22:54:31.000Z', 'text': 'Pero porque todo con ia', 'profilePicture': 'https://scontent-mia3-3.xx.fbcdn.net/v/t39.30808-1/465968903_28163068836613657_4647340187890363470_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xjiEi4iS6qQQ7kNvwG1RrAn&amp;_nc_oc=AdkLMjQm9f6-I21c-a4kkuCo3Oz7xRSGawQTAGHkZBgiAc_XYqFaWuVwbJmYDPUQTTM&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-3.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_AfYDyV6TBXHMuq_F9aDNH03Jjcs9rXgMtwG9t_ul6LXcqA&amp;oe=68CE6158', 'profileId': 'pfbid02dgAr1zJwMeWzzCHdHqEJM7L4RSCL1XbiikUtpwAeaFEur76LYWfeiUEq7nV2H3Bul', 'profileName': 'Jonathan Acuña', 'likesCount': '7', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2281864825666658', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIyODE4NjQ4MjU2NjY2NTg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yMjgxODY0ODI1NjY2NjU4', 'date': '2025-09-11T22:54:31.000Z', 'text': 'Pero porque todo con ia', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/465968903_28163068836613657_4647340187890363470_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=xjiEi4iS6qQQ7kNvwHJMsKZ&amp;_nc_oc=Adn7dweYDaNn3M98aet0x3vrWK40aa9sBY9I-MXuN4SnYXiw9iZpChTkSihpLhy0XZ4&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=YXOrQcOGV-iLYq35Jht-lQ&amp;oh=00_Afblx4IlQgpvnWruR8XKUky2JZfZ22-tVRi9Zb2lQgFMUA&amp;oe=68CE6158', 'profileId': 'pfbid02dgAr1zJwMeWzzCHdHqEJM7L4RSCL1XbiikUtpwAeaFEur76LYWfeiUEq7nV2H3Bul', 'profileName': 'Jonathan Acuña', 'likesCount': '7', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1893369451562335', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE4OTMzNjk0NTE1NjIzMzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xODkzMzY5NDUxNTYyMzM1', 'date': '2025-09-14T14:06:38.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-6/548527386_813695361049449_121925468336332210_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=wsZT2wjrPIkQ7kNvwEMkOCg&amp;_nc_oc=Adm6otSwmnm6pvOYoBsBWH4zkU7-2Xr-4NAM-rcqkwvYbjndecvE6APKD7oAZECMDV0&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_AfaQNjWs5k9yee0jakWSgbx0WDryaC9X3AEu-Q-B-QqPvg&amp;oe=68CE4B24'}, 'id': '813695357716116', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 960}, 'image': {'uri': 'https://scontent-mia5-2.xx.fbcdn.net/v/t39.30808-6/548527386_813695361049449_121925468336332210_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=wsZT2wjrPIkQ7kNvwEMkOCg&amp;_nc_oc=Adm6otSwmnm6pvOYoBsBWH4zkU7-2Xr-4NAM-rcqkwvYbjndecvE6APKD7oAZECMDV0&amp;_nc_zt=23&amp;_nc_ht=scontent-mia5-2.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_AfanTqw8RhqraKKsNglj2dbqbB97Ku74_f-ko4uVzCK-FA&amp;oe=68CE4B24', 'width': 225, 'height': 225}, 'ocrText': 'May be an image of 1 person and hat'}], 'profileUrl': 'https://www.facebook.com/jose.arias.336103', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/538116307_796990922719893_2820109332826313784_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mc1uTS-UGZoQ7kNvwGtRJkv&amp;_nc_oc=AdlBaJXIVJMYA42_znhKkJGS1G2Di7BMTTgmYyN1Rt5zEzP4x5INxbA84TdT4dm14cQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_Afa7Gki_kf2sGGNWZfBxC7uErj0E6aPDuk7If4XAvyO2jA&amp;oe=68CE2CC0', 'profileId': '100072269771691', 'profileName': 'Jose Arias', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1893369451562335', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE4OTMzNjk0NTE1NjIzMzU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xODkzMzY5NDUxNTYyMzM1', 'date': '2025-09-14T14:06:38.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-6/548527386_813695361049449_121925468336332210_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=wsZT2wjrPIkQ7kNvwHe1RrS&amp;_nc_oc=AdkXZ9aFKn8vsAzxMqsgp_S1VmyC8IoYCTyXechdyxNCjOjo1NQgxuJC8Iy_1z1J-P8&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=YXOrQcOGV-iLYq35Jht-lQ&amp;oh=00_AfYHC774qfxOIfi9AdUsPi2c9us1vFOnG-x6jxq8Vl4rnw&amp;oe=68CE4B24'}, 'id': '813695357716116', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 960}, 'image': {'uri': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-6/548527386_813695361049449_121925468336332210_n.jpg?stp=dst-jpg_p75x225_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=wsZT2wjrPIkQ7kNvwHe1RrS&amp;_nc_oc=AdkXZ9aFKn8vsAzxMqsgp_S1VmyC8IoYCTyXechdyxNCjOjo1NQgxuJC8Iy_1z1J-P8&amp;_nc_zt=23&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=YXOrQcOGV-iLYq35Jht-lQ&amp;oh=00_AfbliIuYbnIvHfSXKeGlAoK5yVN3Zjn0_3wSerhdCG7nyQ&amp;oe=68CE4B24', 'width': 225, 'height': 225}, 'ocrText': 'May be an image of 1 person and hat'}], 'profileUrl': 'https://www.facebook.com/jose.arias.336103', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/538116307_796990922719893_2820109332826313784_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=mc1uTS-UGZoQ7kNvwFkAS3K&amp;_nc_oc=AdlUJ1PKg5zv_jLv9Wspjdemh907_y8FnTugKJ6W7giaklOL3MNOi8k2QcuoKmmaNmk&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=YXOrQcOGV-iLYq35Jht-lQ&amp;oh=00_AfYyIc4qbcXFe4v7XLYsefvn0FWbOOOppYNfeJu9ZukhgQ&amp;oe=68CE6500', 'profileId': '100072269771691', 'profileName': 'Jose Arias', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2177053922804233', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIxNzcwNTM5MjI4MDQyMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yMTc3MDUzOTIyODA0MjMz', 'date': '2025-09-14T21:40:34.000Z', 'text': 'Natalia Guiral', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/526649106_1416424272810766_2142715909551217946_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qadorHhyM_wQ7kNvwHALgLE&amp;_nc_oc=AdnIZFeX0dMa7kQ4SJwIUxnR-XzeBtvUQHnij3ofSh2A7NdePrBd3KVA68_qBH9zwYk&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_Afbv4TrfJe-ov2CO5_-vvfFwYBEQULvfsPoT87zwn4dsog&amp;oe=68CE5F4D', 'profileId': '100033296202905', 'profileName': 'Camilo Sierra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=2177053922804233', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzIxNzcwNTM5MjI4MDQyMzM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18yMTc3MDUzOTIyODA0MjMz', 'date': '2025-09-14T21:40:34.000Z', 'text': 'Natalia Guiral', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/526649106_1416424272810766_2142715909551217946_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qadorHhyM_wQ7kNvwGvdOdt&amp;_nc_oc=Adl-jUBmAYVKE9qzoWOhXNgPjNF89YJYYp3iDNV1VLz_r8Hs3RwTkkuWVakrzJjfZUM&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=YXOrQcOGV-iLYq35Jht-lQ&amp;oh=00_AfYPeF3B03gc-6tS-tuk93juAgnACPrw6F-sCXMl43BaGw&amp;oe=68CE5F4D', 'profileId': '100033296202905', 'profileName': 'Camilo Sierra', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1664621124232859', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE2NjQ2MjExMjQyMzI4NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNjY0NjIxMTI0MjMyODU5', 'date': '2025-09-13T20:13:23.000Z', 'text': 'Ese anuncio parece que fuera hecho por una IA', 'attachments': [{'__typename': 'GenericAttachmentMedia', 'sticker_image': {'__typename': 'Image', 'uri': 'https://external-mia3-3.xx.fbcdn.net/emg1/v/t13/5857999671244395827?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FePElaRFmszMAAAAC%2Fwtf-disbelief.gif&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-gif_fr_q75&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;_nc_oc=AdkIcJNT3hfD01QxHbvqSrRtoU-aICSVjulh5A1hizA8j2-FBZap-h8_biqUJyadnJg&amp;ccb=13-1&amp;oh=06_Q3-3AVZPDbfWDS4zsSKWFUQSadN056LO4usnA_EZrTGUUuGv&amp;oe=68CA6A6B&amp;_nc_sid=9e3c15'}, 'id': '10163514651722147', 'image': {'height': 280, 'width': 395, 'uri': 'https://external-mia3-3.xx.fbcdn.net/emg1/v/t13/5857999671244395827?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FePElaRFmszMAAAAC%2Fwtf-disbelief.gif&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-emg0_q75_s396x280_tt6&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;_nc_oc=AdkIcJNT3hfD01QxHbvqSrRtoU-aICSVjulh5A1hizA8j2-FBZap-h8_biqUJyadnJg&amp;ccb=13-1&amp;oh=06_Q3-3AZDGqssIBCr54dh7XwwMB6uql5QZA_m-qPesDZ9Kq-9d&amp;oe=68CA6A6B&amp;_nc_sid=c97757'}, 'animated_image': {'height': 353, 'width': 498, 'uri': 'https://external-mia3-3.xx.fbcdn.net/emg1/v/t13/5857999671244395827?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FePElaRFmszMAAAAC%2Fwtf-disbelief.gif&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-gif_fr_q75&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;_nc_oc=AdkIcJNT3hfD01QxHbvqSrRtoU-aICSVjulh5A1hizA8j2-FBZap-h8_biqUJyadnJg&amp;ccb=13-1&amp;oh=06_Q3-3AVZPDbfWDS4zsSKWFUQSadN056LO4usnA_EZrTGUUuGv&amp;oe=68CA6A6B&amp;_nc_sid=9e3c15'}, 'animated_image_caption': None, 'animated_image_attribution': 'Tenor'}], 'profileUrl': 'https://www.facebook.com/jesus.eduardo.sarmiento.ortiz', 'profilePicture': 'https://scontent-mia3-2.xx.fbcdn.net/v/t39.30808-1/509599110_10163104690482147_8948077689991658004_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=a-pljVgAL0oQ7kNvwFzN5zR&amp;_nc_oc=Admx5YrAuoYIDtnVIa9fL8yebZyv4c953CSkTG2jsfTZOvzZmaPkPtelKYqnDXGpAhQ&amp;_nc_zt=24&amp;_nc_ht=scontent-mia3-2.xx&amp;_nc_gid=rUv6ep79IRnPKrWfMyjOdw&amp;oh=00_Afaaz2uePJ5q_3mwEFMTZvzXgwcO3zHCQuxl6JBL4uzZvg&amp;oe=68CE4A58', 'profileId': '689672146', 'profileName': 'Jesus Eduardo Sarmiento Ortiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1664621124232859', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE2NjQ2MjExMjQyMzI4NTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xNjY0NjIxMTI0MjMyODU5', 'date': '2025-09-13T20:13:23.000Z', 'text': 'Ese anuncio parece que fuera hecho por una IA', 'attachments': [{'__typename': 'GenericAttachmentMedia', 'sticker_image': {'__typename': 'Image', 'uri': 'https://external-sjc3-1.xx.fbcdn.net/emg1/v/t13/5857999671244395827?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FePElaRFmszMAAAAC%2Fwtf-disbelief.gif&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-gif_fr_q75&amp;_nc_gid=YXOrQcOGV-iLYq35Jht-lQ&amp;_nc_oc=AdlY_L9q7fikBiBsal4qLtbybDEMKFeXWFzQplpM6aBOzT86MpgjKDrrTEMkCWGWU74&amp;ccb=13-1&amp;oh=06_Q3-3AWGN0LA_HJUStjbV5g5JFh3hNJnBlsWVu0rn7JncweRY&amp;oe=68CA6A6B&amp;_nc_sid=9e3c15'}, 'id': '10163514651722147', 'image': {'height': 280, 'width': 395, 'uri': 'https://external-sjc3-1.xx.fbcdn.net/emg1/v/t13/5857999671244395827?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FePElaRFmszMAAAAC%2Fwtf-disbelief.gif&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-emg0_q75_s396x280_tt6&amp;_nc_gid=YXOrQcOGV-iLYq35Jht-lQ&amp;_nc_oc=AdlY_L9q7fikBiBsal4qLtbybDEMKFeXWFzQplpM6aBOzT86MpgjKDrrTEMkCWGWU74&amp;ccb=13-1&amp;oh=06_Q3-3AYH2qzdmgocDU4y0b5-KHEomzomRpEYdO8jrr9Y399I5&amp;oe=68CA6A6B&amp;_nc_sid=c97757'}, 'animated_image': {'height': 353, 'width': 498, 'uri': 'https://external-sjc3-1.xx.fbcdn.net/emg1/v/t13/5857999671244395827?url=https%3A%2F%2Fmedia1.tenor.co%2Fm%2FePElaRFmszMAAAAC%2Fwtf-disbelief.gif&amp;fb_obo=1&amp;utld=tenor.co&amp;stp=dst-gif_fr_q75&amp;_nc_gid=YXOrQcOGV-iLYq35Jht-lQ&amp;_nc_oc=AdlY_L9q7fikBiBsal4qLtbybDEMKFeXWFzQplpM6aBOzT86MpgjKDrrTEMkCWGWU74&amp;ccb=13-1&amp;oh=06_Q3-3AWGN0LA_HJUStjbV5g5JFh3hNJnBlsWVu0rn7JncweRY&amp;oe=68CA6A6B&amp;_nc_sid=9e3c15'}, 'animated_image_caption': None, 'animated_image_attribution': 'Tenor'}], 'profileUrl': 'https://www.facebook.com/jesus.eduardo.sarmiento.ortiz', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/509599110_10163104690482147_8948077689991658004_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=a-pljVgAL0oQ7kNvwF-s_uj&amp;_nc_oc=Adn9Ff5iRuSu4wR5pRLS2os4FAyJKnA-foxh1YVNBr1HZcbyPcp1l-imiimeUT2M--I&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=YXOrQcOGV-iLYq35Jht-lQ&amp;oh=00_AfZpuBawdjOoHe9L4vN3_02-h_baAaacP5JmJLFKIj6mig&amp;oe=68CE4A58', 'profileId': '689672146', 'profileName': 'Jesus Eduardo Sarmiento Ortiz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1101092795498355', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzExMDEwOTI3OTU0OTgzNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMTAxMDkyNzk1NDk4MzU1', 'date': '2025-09-12T17:40:47.000Z', 'text': 'Tienen recursos de sobra para contratar un artista 3D y en lugar de hacerlo suben esta basura hecha con AI, qué le dice eso al consumidor sobre sus productos?\nTambién dejan en manos de la AI su control de salubridad?', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/492693542_2389131311480256_190548770418542821_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yFVs17EmMnMQ7kNvwFBS8eP&amp;_nc_oc=AdktRcQhypFFXgzrQKJM0q9KUpcqow2gaEJfsqiT_BuWGyv1d6MdnAG1173JIYdmPj8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=FJE4hDEAu7PNBwxtWBFRsg&amp;oh=00_AfY-7f7YSwzY_j0Fp62IaHzOGZgeFxrZvBphpEtZKhaoRg&amp;oe=68CE39C9', 'profileId': 'pfbid02fk5kuHNNsFZQob5mS5q4o7ryEvYtsG66y9LavcMpJHuURN1HEh7AUJuNLn76bZNFl', 'profileName': 'Víctor Martínez', 'likesCount': '6', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1101092795498355', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzExMDEwOTI3OTU0OTgzNTU=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMTAxMDkyNzk1NDk4MzU1', 'date': '2025-09-12T17:40:47.000Z', 'text': 'Tienen recursos de sobra para contratar un artista 3D y en lugar de hacerlo suben esta basura hecha con AI, qué le dice eso al consumidor sobre sus productos?\nTambién dejan en manos de la AI su control de salubridad?', 'profilePicture': 'https://scontent.fbna2-1.fna.fbcdn.net/v/t39.30808-1/492693542_2389131311480256_190548770418542821_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=yFVs17EmMnMQ7kNvwFZcC1h&amp;_nc_oc=Adk03gc2RbBasYbCErpywqvqzSNorvu-W9K9BbnBfuMZCErKLm911_D-fHyBq9x9Nvs&amp;_nc_zt=24&amp;_nc_ht=scontent.fbna2-1.fna&amp;_nc_gid=0QP11rLcVSv2eJvEAg0UtQ&amp;oh=00_AfZQdUi1o39H4zivTNECw_6KO9bRYoZPx1VkOien0RUuPw&amp;oe=68CE7209', 'profileId': 'pfbid02fk5kuHNNsFZQob5mS5q4o7ryEvYtsG66y9LavcMpJHuURN1HEh7AUJuNLn76bZNFl', 'profileName': 'Víctor Martínez', 'likesCount': '6', 'commentsCount': 1, 'comments': [], 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=682639247500754', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzY4MjYzOTI0NzUwMDc1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN182ODI2MzkyNDc1MDA3NTQ=', 'date': '2025-09-13T21:00:38.000Z', 'text': 'Te olvidaste de paco el flaco , ya no eres chevere', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/494556812_9997048570352085_7807488651924379435_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6VRxtK06hDgQ7kNvwFQDo_Q&amp;_nc_oc=Adk3qynmNZ4R45Chs166iUyWWpfd-f2ZXDVsSzr7p8pT6bQ8QTg2iF2X3CHdbEWdwAs&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=FJE4hDEAu7PNBwxtWBFRsg&amp;oh=00_AfaJmpDSHR3CCbUMEl6MKP1lkymUatMpF9m3e5qQBJ1eAw&amp;oe=68CE627C', 'profileId': '100001411256913', 'profileName': 'Ramos Chriz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=682639247500754', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzY4MjYzOTI0NzUwMDc1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN182ODI2MzkyNDc1MDA3NTQ=', 'date': '2025-09-13T21:00:38.000Z', 'text': 'Te olvidaste de paco el flaco , ya no eres chevere', 'profilePicture': 'https://scontent.fbna2-1.fna.fbcdn.net/v/t39.30808-1/494556812_9997048570352085_7807488651924379435_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=6VRxtK06hDgQ7kNvwE961YT&amp;_nc_oc=Adl9fC0kQ8S9EKbkvXrpcburOpZmv0sWh5bmU-1KPVewtYHGyHanuPMgi7Bwm1jHjfU&amp;_nc_zt=24&amp;_nc_ht=scontent.fbna2-1.fna&amp;_nc_gid=0QP11rLcVSv2eJvEAg0UtQ&amp;oh=00_AfbnxAdxnlN_EQxSQ5a0HXqmf5X6Xg1q8y8w2XCrL7vxlw&amp;oe=68CE627C', 'profileId': '100001411256913', 'profileName': 'Ramos Chriz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1092979139584408', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwOTI5NzkxMzk1ODQ0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDkyOTc5MTM5NTg0NDA4', 'date': '2025-09-13T12:48:30.000Z', 'text': 'Borran los comentarios pero sigue saliendo la publicidad. Siguen con la basura de IA? Así de mediocres son como sus productos? 🤣🤣🤣', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/535652007_10162869566184929_6951913208270813003_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7dwcI7pd8JwQ7kNvwF0e-6D&amp;_nc_oc=Adl8cfeKFFv3-gkTVqLd1gOT1ymlmuUQ3KCRZNnK_UmnMW2VxFsPXaO7GNYG3mFIypQ&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=FJE4hDEAu7PNBwxtWBFRsg&amp;oh=00_AfY8v9LPnJxwEh72pg-mO2uJnVYDDrAZ-iW0ZRyNz7N13Q&amp;oe=68CE5729', 'profileId': '672709928', 'profileName': 'Hv Helmut', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1092979139584408', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzEwOTI5NzkxMzk1ODQ0MDg=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xMDkyOTc5MTM5NTg0NDA4', 'date': '2025-09-13T12:48:30.000Z', 'text': 'Borran los comentarios pero sigue saliendo la publicidad. Siguen con la basura de IA? Así de mediocres son como sus productos? 🤣🤣🤣', 'profilePicture': 'https://scontent.fbna2-1.fna.fbcdn.net/v/t39.30808-1/535652007_10162869566184929_6951913208270813003_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7dwcI7pd8JwQ7kNvwHq9uvP&amp;_nc_oc=AdkLB5ggvsNFG4VHmq-UNxOdppNcaDocEr6GD7RUDpKyYNrrdzXhdGlNYiZrNRv8MQY&amp;_nc_zt=24&amp;_nc_ht=scontent.fbna2-1.fna&amp;_nc_gid=0QP11rLcVSv2eJvEAg0UtQ&amp;oh=00_AfaRYdnZhTIp_tZIQqmEY9u7COkSvgeBsPncjHdiy4SzSw&amp;oe=68CE5729', 'profileId': '672709928', 'profileName': 'Hv Helmut', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1942711319859153', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE5NDI3MTEzMTk4NTkxNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xOTQyNzExMzE5ODU5MTUz', 'date': '2025-09-14T21:09:04.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-6/547418942_122157628748757442_6393092434355388902_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=AxBg7qZS-i0Q7kNvwHPe50z&amp;_nc_oc=AdmpoNDbMUfkbTXT2Yz2ea9GIE0j_iYTbO8I-uP15aYgNppu_TM7y4I3JSOLGe57FLo&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=FJE4hDEAu7PNBwxtWBFRsg&amp;oh=00_AfavoPx58GgXIWRBot3i08MJ_CZt-S9j4DylqIWT42Su6Q&amp;oe=68CE6456'}, 'id': '122157628742757442', 'cix_screen': None, 'massive_image': {'width': 232, 'height': 168}, 'image': {'uri': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-6/547418942_122157628748757442_6393092434355388902_n.jpg?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=AxBg7qZS-i0Q7kNvwHPe50z&amp;_nc_oc=AdmpoNDbMUfkbTXT2Yz2ea9GIE0j_iYTbO8I-uP15aYgNppu_TM7y4I3JSOLGe57FLo&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=FJE4hDEAu7PNBwxtWBFRsg&amp;oh=00_AfZKRH5cr_1qsq4x1EjEQMVzgSbAQBX8RoCGTHiqhLddxA&amp;oe=68CE6456', 'width': 232, 'height': 168}, 'ocrText': 'No photo description available.'}], 'profileUrl': 'https://www.facebook.com/daniel.hernandez.71375', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/517315363_122144482658757442_8804516840594546914_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=td41Sabd6n4Q7kNvwE0WLey&amp;_nc_oc=AdmEv1w6-NglQXdNZjezipSjTflJwo9gemO3uRnFPUo_syR2q87uFQNrthtR5SPnHxA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=FJE4hDEAu7PNBwxtWBFRsg&amp;oh=00_AfZQxc_e-WnwhS-k2uCILjKRTnYhJMStnODUIKrNdqIZaQ&amp;oe=68CE5B64', 'profileId': '61572723281159', 'profileName': 'Daniel Hernández ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=1942711319859153', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3XzE5NDI3MTEzMTk4NTkxNTM=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN18xOTQyNzExMzE5ODU5MTUz', 'date': '2025-09-14T21:09:04.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent.fbna2-1.fna.fbcdn.net/v/t39.30808-6/547418942_122157628748757442_6393092434355388902_n.jpg?stp=dst-jpg_fb30_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=AxBg7qZS-i0Q7kNvwEIxI2R&amp;_nc_oc=AdnqEp-q-VrGmtLnsLGV_Pii2ZUyyZU4EEPHMs7m9aTkSiF-ycOfC7SIQs474X9n0dw&amp;_nc_zt=23&amp;_nc_ht=scontent.fbna2-1.fna&amp;_nc_gid=0QP11rLcVSv2eJvEAg0UtQ&amp;oh=00_AfYIn3R10-uMgvDZspejc1YyZdOz2orZCGEG7K3J0ArDLw&amp;oe=68CE6456'}, 'id': '122157628742757442', 'cix_screen': None, 'massive_image': {'width': 232, 'height': 168}, 'image': {'uri': 'https://scontent.fbna2-1.fna.fbcdn.net/v/t39.30808-6/547418942_122157628748757442_6393092434355388902_n.jpg?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=AxBg7qZS-i0Q7kNvwEIxI2R&amp;_nc_oc=AdnqEp-q-VrGmtLnsLGV_Pii2ZUyyZU4EEPHMs7m9aTkSiF-ycOfC7SIQs474X9n0dw&amp;_nc_zt=23&amp;_nc_ht=scontent.fbna2-1.fna&amp;_nc_gid=0QP11rLcVSv2eJvEAg0UtQ&amp;oh=00_AfblSicjUp4YuMhUPaOB6A6tuLn2YgSX5D_t_vltAc10Bg&amp;oe=68CE6456', 'width': 232, 'height': 168}, 'ocrText': 'No photo description available.'}], 'profileUrl': 'https://www.facebook.com/daniel.hernandez.71375', 'profilePicture': 'https://scontent.fbna2-1.fna.fbcdn.net/v/t39.30808-1/517315363_122144482658757442_8804516840594546914_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=111fe6&amp;_nc_ohc=td41Sabd6n4Q7kNvwGCk7M1&amp;_nc_oc=Adnemw35Ut8acu1azz8mVjPEjIFZcLcD6QLwvWlpHkgyudwIyFW22KCy4LZrlLNesQE&amp;_nc_zt=24&amp;_nc_ht=scontent.fbna2-1.fna&amp;_nc_gid=0QP11rLcVSv2eJvEAg0UtQ&amp;oh=00_Afaj8gjTVOnisdPSZn8Tl7bjmBMqc72Fkct8mS9envFhmw&amp;oe=68CE5B64', 'profileId': '61572723281159', 'profileName': 'Daniel Hernández ', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=757322997083065', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3Xzc1NzMyMjk5NzA4MzA2NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN183NTczMjI5OTcwODMwNjU=', 'date': '2025-09-12T01:53:31.000Z', 'text': 'Q hpta asco hahahaha', 'profileUrl': 'https://www.facebook.com/juandamr', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/482085481_10237447593192940_7097130589724547644_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qmU0muu0k7IQ7kNvwHZw68n&amp;_nc_oc=Adk2xyrIRNf1PMzSXQcEZcm6uqrWOo1u6nmOxvi4vwINiEuPIhdN3L31r1ntlKxxQQ4&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=FJE4hDEAu7PNBwxtWBFRsg&amp;oh=00_AfbRK500vpuZmOOrykT2Vis76aLl7a9RbQTJXQKZuFbbng&amp;oe=68CE6196', 'profileId': '1343667140', 'profileName': 'Juanda Muñoz Rico', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/', 'commentUrl': 'https://www.facebook.com/reel/3285670981580627/?comment_id=757322997083065', 'id': 'Y29tbWVudDoxMjE3Mzg1MjAwNDMzNzE3Xzc1NzMyMjk5NzA4MzA2NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4NTIwMDQzMzcxN183NTczMjI5OTcwODMwNjU=', 'date': '2025-09-12T01:53:31.000Z', 'text': 'Q hpta asco hahahaha', 'profileUrl': 'https://www.facebook.com/juandamr', 'profilePicture': 'https://scontent.fbna2-1.fna.fbcdn.net/v/t39.30808-1/482085481_10237447593192940_7097130589724547644_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=qmU0muu0k7IQ7kNvwE93LHI&amp;_nc_oc=AdkwBZ56RMl4XsCpqvSyk5tft9dUXxydYMXcnkCt0ZqISHkI-3KuKxRSY2m_2ZmTwFY&amp;_nc_zt=24&amp;_nc_ht=scontent.fbna2-1.fna&amp;_nc_gid=0QP11rLcVSv2eJvEAg0UtQ&amp;oh=00_AfbKdOmT4wwgBJ_BPZjzMRlEUzDMs7frTmo_i3O5wkaXtQ&amp;oe=68CE6196', 'profileId': '1343667140', 'profileName': 'Juanda Muñoz Rico', 'likesCount': '2', 'threadingDepth': 0, 'facebookId': '1217385200433717', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217384173767153/'}</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1518033859195059', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE1MTgwMzM4NTkxOTUwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xNTE4MDMzODU5MTk1MDU5', 'date': '2025-09-12T12:37:34.000Z', 'text': 'Pinchi animación toda culera, si van a invertir en hacer animación, inviertan en una buena IA', 'profileUrl': 'https://www.facebook.com/juancho.barajas.7', 'profilePicture': 'https://scontent-dfw5-1.xx.fbcdn.net/v/t39.30808-1/483861579_9365490916877333_3937309200038098582_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=AJN3hH-A_E4Q7kNvwFXRlJD&amp;_nc_oc=Adl10ictOxml-0WF8H-522gLPqvFGqGNjwXJ9WTYNmXYzK_nt8R0DC-80q3iKY8u-rn9uXSrqG4ALLZdmnUmCCKs&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-1.xx&amp;_nc_gid=Bd1njThLeQQFdbzWqiEkQw&amp;oh=00_AfbwODuofdeFjoQSczHlVAzi7R2B9EOYqwlegfgEZyGTQQ&amp;oe=68CE3CB4', 'profileId': '100002495548710', 'profileName': 'Juancho Barajas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1518033859195059', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE1MTgwMzM4NTkxOTUwNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xNTE4MDMzODU5MTk1MDU5', 'date': '2025-09-12T12:37:34.000Z', 'text': 'Pinchi animación toda culera, si van a invertir en hacer animación, inviertan en una buena IA', 'profileUrl': 'https://www.facebook.com/juancho.barajas.7', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/483861579_9365490916877333_3937309200038098582_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=AJN3hH-A_E4Q7kNvwGG4dIQ&amp;_nc_oc=Adm9qGDlOQdkeFskytazIl3zDtZt-J4DNat0khAGEi4IY6VzZQzR8k3-Kg9XviC-_kA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=kRwL3hsbgsOq0FGlsduUuQ&amp;oh=00_AfZ01Qfmjz2qV8BtvkKm06iZedxgxUzNYpLxuLKDgZ9dcA&amp;oe=68CE3CB4', 'profileId': '100002495548710', 'profileName': 'Juancho Barajas', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=729207126799156', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcyOTIwNzEyNjc5OTE1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MjkyMDcxMjY3OTkxNTY=', 'date': '2025-09-12T06:56:03.000Z', 'text': 'Si, se ve poco real esa animación. ojalá la IA les compres sus productos.', 'profileUrl': 'https://www.facebook.com/fernandpsb', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/457372791_8271573726262434_7931313235547901570_n.jpg?stp=c448.0.1152.1152a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QwxIVWOlPAMQ7kNvwES3ZZv&amp;_nc_oc=AdkIlIAgmdug04S4n-a0A2c3PFp_0Gwnxwvc9HLRaT5MVJ9EqXjetCtegA14sCqG3wmUhiIpR3c2oMG12jiCMM8G&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Bd1njThLeQQFdbzWqiEkQw&amp;oh=00_AfY8SRj145OevUKbFZZqkkfV4CPWrdiEXanLvfqlc_YfHA&amp;oe=68CE5F8A', 'profileId': '100002296670340', 'profileName': 'Fernando Rodríguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=729207126799156', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcyOTIwNzEyNjc5OTE1Ng==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MjkyMDcxMjY3OTkxNTY=', 'date': '2025-09-12T06:56:03.000Z', 'text': 'Si, se ve poco real esa animación. ojalá la IA les compres sus productos.', 'profileUrl': 'https://www.facebook.com/fernandpsb', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/457372791_8271573726262434_7931313235547901570_n.jpg?stp=c448.0.1152.1152a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=QwxIVWOlPAMQ7kNvwHxfXof&amp;_nc_oc=AdkLYyLsMYMLQxyYVhm8_WwPzrSR8XVMGe4siUaGxb6DqJhrOGEIQry-55P65Ah1Vy8&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=kRwL3hsbgsOq0FGlsduUuQ&amp;oh=00_AfY-ogey2X1TC82In3A6Km-IA8zOlV3chWCbDMfD5Se8bQ&amp;oe=68CE5F8A', 'profileId': '100002296670340', 'profileName': 'Fernando Rodríguez', 'likesCount': '1', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=714344698306073', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcxNDM0NDY5ODMwNjA3Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MTQzNDQ2OTgzMDYwNzM=', 'date': '2025-09-12T05:33:09.000Z', 'text': '..', 'profileUrl': 'https://www.facebook.com/luzmarina.jimenez.234064', 'profilePicture': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-1/518417845_122144505974773963_726240798875025477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7l53SEM_6JsQ7kNvwFThzLu&amp;_nc_oc=Adnvafya6KszWwmQ0liHfooG7e5Y1VwakdYJ2a_Zg2yjGBcLt47X1F5vd81bac8UPJkW1NEw8c5aXOuv5iwjtqYM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=Bd1njThLeQQFdbzWqiEkQw&amp;oh=00_Afa_jpTq1gwDCB9Zah1OEJblaDeQGIhYJZeWt8UaMJxOwQ&amp;oe=68CE5B96', 'profileId': 'pfbid0Qn5jGwGuTMYUFKxoZWEdQaJucy6FCdjQJattsfYv3KhUz96s1c5Eaa44fxnGWG3tl', 'profileName': 'LuzMarina Jimenez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=714344698306073', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzcxNDM0NDY5ODMwNjA3Mw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF83MTQzNDQ2OTgzMDYwNzM=', 'date': '2025-09-12T05:33:09.000Z', 'text': '..', 'profileUrl': 'https://www.facebook.com/luzmarina.jimenez.234064', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/518417845_122144505974773963_726240798875025477_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=7l53SEM_6JsQ7kNvwEZDCnY&amp;_nc_oc=AdnhAzY3BNb7-Hh-C9OUMCr9EO_aGLHKDoANOAnORMPRE6RnAMexG3raMtwSpb1SumY&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=kRwL3hsbgsOq0FGlsduUuQ&amp;oh=00_AfaudOgfM_sVgJSGTpoytoz5EGdv1TEN8I0a5HRa5b4mdQ&amp;oe=68CE5B96', 'profileId': 'pfbid0Qn5jGwGuTMYUFKxoZWEdQaJucy6FCdjQJattsfYv3KhUz96s1c5Eaa44fxnGWG3tl', 'profileName': 'LuzMarina Jimenez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1976178152957224', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE5NzYxNzgxNTI5NTcyMjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xOTc2MTc4MTUyOTU3MjI0', 'date': '2025-09-11T21:10:54.000Z', 'text': 'Hay un poco de IA en tu animación 🤢', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/535652007_10162869566184929_6951913208270813003_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7dwcI7pd8JwQ7kNvwHRA5Zr&amp;_nc_oc=AdlrGKT7uPJzO6RfVTaRO0TZwfez28Zb7XiHDKrH_6MWI1seTpzCa-62V8Bfcub9SqCousdAvA9lBDZ56Z_hQdkp&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Bd1njThLeQQFdbzWqiEkQw&amp;oh=00_AfbP1R7NobICDQdWg-nmV--KhptF-mreysK8oFh8oTcj5Q&amp;oe=68CE5729', 'profileId': '672709928', 'profileName': 'Hv Helmut', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1976178152957224', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE5NzYxNzgxNTI5NTcyMjQ=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xOTc2MTc4MTUyOTU3MjI0', 'date': '2025-09-11T21:10:54.000Z', 'text': 'Hay un poco de IA en tu animación 🤢', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/535652007_10162869566184929_6951913208270813003_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=7dwcI7pd8JwQ7kNvwGpfAL6&amp;_nc_oc=AdnrDTEWIr7kHMINBbXIHrcJZcLY5CpWNJCB9ZbNwpPWZttAkkhZrsZbOfZq0uSg8As&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=kRwL3hsbgsOq0FGlsduUuQ&amp;oh=00_Afa2tFG_pGeEoI6Lw6DPhdSDkyD0o04tMGpYiy1KN8derw&amp;oe=68CE5729', 'profileId': '672709928', 'profileName': 'Hv Helmut', 'likesCount': '3', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1729573124421371', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE3Mjk1NzMxMjQ0MjEzNzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xNzI5NTczMTI0NDIxMzcx', 'date': '2025-09-13T20:50:45.000Z', 'text': 'Monday', 'profileUrl': 'https://www.facebook.com/alejandro.caicedobernal', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/242392669_5209370355814624_1966482618955649755_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FigEmkHrmb0Q7kNvwF_2PSo&amp;_nc_oc=AdlVEXK8Qqq4zZh-4k1dSJNE98WZut63hM9g8SJyFfRd9dMQ4nk_FsVKXlrQq-pv75x6dBOcMENVHDfTXlhYvcHM&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Bd1njThLeQQFdbzWqiEkQw&amp;oh=00_AfaZ3GTc0dZ5qtKj-zLX21SWisgKy_LKbAVKI3XKxdlILQ&amp;oe=68CE484F', 'profileId': 'pfbid02D6S24vc5enbk68g63fjry2L8W6crBKQnc76KJHLpHvydHva23kbvMqSHdB73Qz8Xl', 'profileName': 'Alejandro Kycdo B', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=1729573124421371', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzE3Mjk1NzMxMjQ0MjEzNzE=', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF8xNzI5NTczMTI0NDIxMzcx', 'date': '2025-09-13T20:50:45.000Z', 'text': 'Monday', 'profileUrl': 'https://www.facebook.com/alejandro.caicedobernal', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/242392669_5209370355814624_1966482618955649755_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=FigEmkHrmb0Q7kNvwEa4EbR&amp;_nc_oc=AdkqnUTlupRTcGBoclAU7DnIbaR1vx04NwEupp9sUwDQ2ijNBF8jd_RYa4582JAKftk&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=kRwL3hsbgsOq0FGlsduUuQ&amp;oh=00_AfaoRR-xxZRUTjLsDdSVMq8d8SJdT7gBqkZC1F5zVJ_qpA&amp;oe=68CE484F', 'profileId': 'pfbid02D6S24vc5enbk68g63fjry2L8W6crBKQnc76KJHLpHvydHva23kbvMqSHdB73Qz8Xl', 'profileName': 'Alejandro Kycdo B', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=839435021752790', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgzOTQzNTAyMTc1Mjc5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84Mzk0MzUwMjE3NTI3OTA=', 'date': '2025-09-12T00:08:08.000Z', 'text': 'Hese cuatro pelos hp solo a echo es robar al pueblo y volverse rico', 'profileUrl': 'https://www.facebook.com/hector.ortegaperafan', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/548196774_2217580448717218_467712799311994276_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-8E3IBeg8rMQ7kNvwF0kyEL&amp;_nc_oc=AdnUyYVky2BN5iQw8xADmVWugH2pplLxgEgNTtLx_J1fGm4Telf7jmSqy17jCURhRfmqmuYvjF82ezu_DiQiFaHs&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Bd1njThLeQQFdbzWqiEkQw&amp;oh=00_Afa2p45Q90vyaJ9v_p4mPDA348ahR_7jvgPBokqLfpJz6w&amp;oe=68CE3F8C', 'profileId': 'pfbid0377Fc6f3UmjfWdZYc5dCwbpqsgBS1LozcrJS6cktQUmehtezR7aJveYjbEKvvL2Scl', 'profileName': 'Hector Ortega Perafan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=839435021752790', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgzOTQzNTAyMTc1Mjc5MA==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84Mzk0MzUwMjE3NTI3OTA=', 'date': '2025-09-12T00:08:08.000Z', 'text': 'Hese cuatro pelos hp solo a echo es robar al pueblo y volverse rico', 'profileUrl': 'https://www.facebook.com/hector.ortegaperafan', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/548196774_2217580448717218_467712799311994276_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=-8E3IBeg8rMQ7kNvwF816aT&amp;_nc_oc=AdmWl2AMkT1D10PrXSXchWEqkkB8lB7F5xRE7X0kr2ZuahNVHBw-dzMoWhKLhm9VMXA&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-2.xx&amp;_nc_gid=kRwL3hsbgsOq0FGlsduUuQ&amp;oh=00_AfbNm1_9HxcEoAEyf_HpCjL_sFkmKXr1r6ks8BN9NYqKCQ&amp;oe=68CE3F8C', 'profileId': 'pfbid0377Fc6f3UmjfWdZYc5dCwbpqsgBS1LozcrJS6cktQUmehtezR7aJveYjbEKvvL2Scl', 'profileName': 'Hector Ortega Perafan', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=816939231005497', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgxNjkzOTIzMTAwNTQ5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84MTY5MzkyMzEwMDU0OTc=', 'date': '2025-09-11T22:59:36.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ug_LbFolQPgQ7kNvwFqoMuH&amp;_nc_oc=AdlJxRfpc-6cRkYovKznhD8mNUD9NNKkP6IX57S05GX2Y22sX9_wJv38T7JLbVSQDWwteTB6lzf2uvab2lSXroY4&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=Bd1njThLeQQFdbzWqiEkQw&amp;oh=00_AfZBRxHBRJk42RThrBSZa1_1vAbCr1pQD-3CgwVhf0NkhQ&amp;oe=68CE5D2D'}, 'id': '122132915732892467', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 720}, 'image': {'uri': 'https://scontent-dfw5-3.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ug_LbFolQPgQ7kNvwFqoMuH&amp;_nc_oc=AdlJxRfpc-6cRkYovKznhD8mNUD9NNKkP6IX57S05GX2Y22sX9_wJv38T7JLbVSQDWwteTB6lzf2uvab2lSXroY4&amp;_nc_zt=23&amp;_nc_ht=scontent-dfw5-3.xx&amp;_nc_gid=Bd1njThLeQQFdbzWqiEkQw&amp;oh=00_AfY5Z9BInS6OeRHt7gzu5jhAsjBBMngb7D6a5XLUZWTIbw&amp;oe=68CE5D2D', 'width': 261, 'height': 196}, 'ocrText': 'May be an image of 2 people, bird and goosedown coat'}], 'profileUrl': 'https://www.facebook.com/people/Tropi-Pollo-Aves/pfbid02zf6fB5gWLdmv7Riu9QzWMbXQ7WjLJcBQztCLFgqJ8XvS3nFXLgshuhbDGvKt1WGul/', 'profilePicture': 'https://scontent-dfw5-2.xx.fbcdn.net/v/t39.30808-1/503603154_122103355172892467_5961930638299244588_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=hJJNroNwelUQ7kNvwHAQ_X3&amp;_nc_oc=Adl7T6T4j4TdXGQ4ag3SfHoxQLElQrx7Bp03VDr2bj7lqNYW0RbmBnHhRuhZbLIzRBcGNnXIY_XvicH8I7IfCd7y&amp;_nc_zt=24&amp;_nc_ht=scontent-dfw5-2.xx&amp;_nc_gid=Bd1njThLeQQFdbzWqiEkQw&amp;oh=00_AfbIK51YL2HH4luqfTuYCKUXdE1Qls6JzLacmxmpYwPqlw&amp;oe=68CE4849', 'profileId': 'pfbid02zf6fB5gWLdmv7Riu9QzWMbXQ7WjLJcBQztCLFgqJ8XvS3nFXLgshuhbDGvKt1WGul', 'profileName': 'Tropi Pollo Aves', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/', 'commentUrl': 'https://www.facebook.com/reel/1542512790246892/?comment_id=816939231005497', 'id': 'Y29tbWVudDoxMjE3Mzg5NTIzNzY2NjE4XzgxNjkzOTIzMTAwNTQ5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTIxNzM4OTUyMzc2NjYxOF84MTY5MzkyMzEwMDU0OTc=', 'date': '2025-09-11T22:59:36.000Z', 'attachments': [{'__typename': 'Photo', 'blurred_image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_fb30_s960x960_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ug_LbFolQPgQ7kNvwE3180k&amp;_nc_oc=AdkyTR96APBlc30KYt3LdHHH28rryEri56URphB6XD_jDpQjbyNzSKEbvszIag-hQUU&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=kRwL3hsbgsOq0FGlsduUuQ&amp;oh=00_AfYG9CnaznwgMScYZHRmOeEhuGS2yw9shDZss0Bn2ZPL5w&amp;oe=68CE5D2D'}, 'id': '122132915732892467', 'cix_screen': None, 'massive_image': {'width': 960, 'height': 720}, 'image': {'uri': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-6/547423609_122132915738892467_6467578570531759333_n.jpg?stp=dst-jpg_s261x260_tt6&amp;_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=bd9a62&amp;_nc_ohc=ug_LbFolQPgQ7kNvwE3180k&amp;_nc_oc=AdkyTR96APBlc30KYt3LdHHH28rryEri56URphB6XD_jDpQjbyNzSKEbvszIag-hQUU&amp;_nc_zt=23&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=kRwL3hsbgsOq0FGlsduUuQ&amp;oh=00_AfYV-FPzuNLX3-iUZkFqfj2nCvKro84y6T29FR3mFtE1Qg&amp;oe=68CE5D2D', 'width': 261, 'height': 196}, 'ocrText': 'May be an image of 2 people, bird and goosedown coat'}], 'profileUrl': 'https://www.facebook.com/people/Tropi-Pollo-Aves/pfbid02zf6fB5gWLdmv7Riu9QzWMbXQ7WjLJcBQztCLFgqJ8XvS3nFXLgshuhbDGvKt1WGul/', 'profilePicture': 'https://scontent-iad3-1.xx.fbcdn.net/v/t39.30808-1/503603154_122103355172892467_5961930638299244588_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=hJJNroNwelUQ7kNvwGnq5tQ&amp;_nc_oc=AdmdtWLKKrYFh7WaD9to441L8J2uM6h9Vg2JKiKfUzE3fUytB-aLKHOl4mE7_57Nqac&amp;_nc_zt=24&amp;_nc_ht=scontent-iad3-1.xx&amp;_nc_gid=kRwL3hsbgsOq0FGlsduUuQ&amp;oh=00_AfbY475nL5GYcACGp6y9WKPa8IO0D1mip4jqgCnf4GJefw&amp;oe=68CE4849', 'profileId': 'pfbid02zf6fB5gWLdmv7Riu9QzWMbXQ7WjLJcBQztCLFgqJ8XvS3nFXLgshuhbDGvKt1WGul', 'profileName': 'Tropi Pollo Aves', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1217389523766618', 'postTitle': 'Estas historias de nutrición fueron posibles gracias al talento y dedicación de este equipo.\n\nDirector: Tomás Montoya\nDOP y color: Esteban Congote\nDirector y diseñador IA: Mauricio Tonnon\nIlustrador: Cristian Hernández\nProductor: Juan Felipe Puerta\nProducción musical: Diego Bautista\nEdición y motion graphics: Felipe Bernate', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1217383833767187/'}</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548358154200974098', 'createTime': 1757489096, 'createTimeISO': '2025-09-10T07:24:56.000Z', 'text': 'usaba IA y ni sentido tenía el anuncio', 'diggCount': 546, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7522680959197971464', 'uniqueId': 'angel_fox_axel', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/9ed7bfea88e1b69f3a128b1f8039235e~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=2272866c&amp;x-expires=1758052800&amp;x-signature=ITcmIRuoFTIgiw9QTrsRqnEjFEM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548358154200974098', 'createTime': 1757489096, 'createTimeISO': '2025-09-10T07:24:56.000Z', 'text': 'usaba IA y ni sentido tenía el anuncio', 'diggCount': 546, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7522680959197971464', 'uniqueId': 'angel_fox_axel', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9ed7bfea88e1b69f3a128b1f8039235e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=983de85f&amp;x-expires=1758056400&amp;x-signature=HR5dHMgVaCJxSCh9%2B2ICctxyRPI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1864,25 +1864,25 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Me veo linda en mi historia?</t>
+          <t>empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀</t>
         </is>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45910.42668981481</v>
+        <v>45910.92006944444</v>
       </c>
       <c r="H27" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>10:14:26</t>
+          <t>22:04:54</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548401767362806534', 'createTime': 1757499266, 'createTimeISO': '2025-09-10T10:14:26.000Z', 'text': 'Me veo linda en mi historia?', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 5, 'uid': '7237572995751937029', 'uniqueId': 'escarletgiron3', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/90f45fbb28c045f99beaef24f4d1bcc5~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=3d5b38da&amp;x-expires=1758052800&amp;x-signature=JYq5jLeLw2T2j7oOlWoYDHdX2eI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548584862849942280', 'createTime': 1757541894, 'createTimeISO': '2025-09-10T22:04:54.000Z', 'text': 'empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6774471423067997190', 'uniqueId': 'xiewww_h', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/ba1a8119f4148ea45db46fad9dcf764b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bb11fb01&amp;x-expires=1758056400&amp;x-signature=i4EaZPT%2Fx43SMR3NoFy8cyc57vk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1920,25 +1920,25 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛</t>
+          <t>Se me cayó un ídolo, en la mala Alpina</t>
         </is>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45910.95050925926</v>
+        <v>45910.90369212963</v>
       </c>
       <c r="H28" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>22:48:44</t>
+          <t>21:41:19</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548596179627049736', 'createTime': 1757544524, 'createTimeISO': '2025-09-10T22:48:44.000Z', 'text': '¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '6892483566695154694', 'uniqueId': 'karenarres', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8e7f13a6edbd9f1e73869cf96c40fede~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=97970192&amp;x-expires=1758052800&amp;x-signature=SgQr60J%2BeLK8PwTr4cuPp3nikrs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578807612277511', 'createTime': 1757540479, 'createTimeISO': '2025-09-10T21:41:19.000Z', 'text': 'Se me cayó un ídolo, en la mala Alpina', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6859385792315769861', 'uniqueId': 'bomkly2', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a0f29357a9e54e5054e5669e06d564aa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9e540dfc&amp;x-expires=1758056400&amp;x-signature=kN2LF03aVtwvP%2BjzSaKKkcciWPI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1976,25 +1976,25 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>¿IA? Wow ,tanto que ganan y no pagan un animador</t>
+          <t>Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente</t>
         </is>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45910.79232638889</v>
+        <v>45910.85172453704</v>
       </c>
       <c r="H29" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>19:00:57</t>
+          <t>20:26:29</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548537516107088660', 'createTime': 1757530857, 'createTimeISO': '2025-09-10T19:00:57.000Z', 'text': '¿IA? Wow ,tanto que ganan y no pagan un animador', 'diggCount': 145, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7071862501012784133', 'uniqueId': 'el.gelatinas45', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8964867b1446081d4e48af3405f3abbf~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=2b93ccd2&amp;x-expires=1758052800&amp;x-signature=UjgCt4%2BMQCiH%2BluKrWtM1rGfi2M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548559525466374930', 'createTime': 1757535989, 'createTimeISO': '2025-09-10T20:26:29.000Z', 'text': 'Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente', 'diggCount': 38, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6603056868959666181', 'uniqueId': 'linsynose', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a547dda6766e2346d6cc85551ffa9599~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d978183b&amp;x-expires=1758056400&amp;x-signature=dra25qHo3Z3IB1MUI7WTdUI5SNc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2032,22 +2032,22 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Me encanta 💙</t>
+          <t>Como que les pesa mucho pagarle a un artista que si haga algo bueno</t>
         </is>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45911.94859953703</v>
+        <v>45911.01646990741</v>
       </c>
       <c r="H30" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>22:45:59</t>
+          <t>00:23:43</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548966545201693458', 'createTime': 1757630759, 'createTimeISO': '2025-09-11T22:45:59.000Z', 'text': 'Me encanta 💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7192343363575530502', 'uniqueId': 'pilarcardona90', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f0ff25a33bba318f336930d217532900~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=a997e0d1&amp;x-expires=1758052800&amp;x-signature=w1Liq%2BFFJzmd3abziG%2FUWh3Popc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620601164104456', 'createTime': 1757550223, 'createTimeISO': '2025-09-11T00:23:43.000Z', 'text': 'Como que les pesa mucho pagarle a un artista que si haga algo bueno', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6797840408039703558', 'uniqueId': 'sstarberry__', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/4c4a684c8f37aa01fa09d888a9d7df43~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1bf2e5b9&amp;x-expires=1758056400&amp;x-signature=vi3ny1Gea6Rx0v7gvBv2M30Fjzg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2088,25 +2088,25 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋</t>
+          <t>Un anuncio de IA, en serio?...</t>
         </is>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45910.92987268518</v>
+        <v>45910.90475694444</v>
       </c>
       <c r="H31" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>22:19:01</t>
+          <t>21:42:51</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548588516893311762', 'createTime': 1757542741, 'createTimeISO': '2025-09-10T22:19:01.000Z', 'text': 'que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817878389598012422', 'uniqueId': 'alexo1208', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/ef7e2adcf8630799385cd64832d218ab~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=7bb48a0c&amp;x-expires=1758052800&amp;x-signature=1XW%2FVtlAnLnnB4FP69Yif2hjFgs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548579047941669648', 'createTime': 1757540571, 'createTimeISO': '2025-09-10T21:42:51.000Z', 'text': 'Un anuncio de IA, en serio?...', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7267330640268559365', 'uniqueId': 'akg4lv1x', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/0cb47ff876dbe865901193337182695a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1bd6531d&amp;x-expires=1758056400&amp;x-signature=aOvufrXKCW%2BweIgiyKcJY%2Fu5TE0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2144,25 +2144,25 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Divino!!!! Amo la historia</t>
+          <t>IA 😬</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45910.97527777778</v>
+        <v>45910.79935185185</v>
       </c>
       <c r="H32" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>23:24:24</t>
+          <t>19:11:04</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548605334442967816', 'createTime': 1757546664, 'createTimeISO': '2025-09-10T23:24:24.000Z', 'text': 'Divino!!!! Amo la historia', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807194247927710726', 'uniqueId': 'isabelagarciag16', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/b88517984d3050fcaa52657a475e3d78~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=c5004268&amp;x-expires=1758052800&amp;x-signature=amznXVnFwRflshlAtJHb9FYWlDM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548540108145328904', 'createTime': 1757531464, 'createTimeISO': '2025-09-10T19:11:04.000Z', 'text': 'IA 😬', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6878771113729967109', 'uniqueId': 'andresmartinez_co', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/0e4fa031bfb76175d309ce7aad482cd3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=48939d0a&amp;x-expires=1758056400&amp;x-signature=FYcL3jExP7O6LXDVJO31qK%2Buaw0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2200,25 +2200,25 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!</t>
+          <t>sin presupuesto para publicidad , como sera el producto?</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45910.96769675926</v>
+        <v>45910.85658564815</v>
       </c>
       <c r="H33" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>23:13:29</t>
+          <t>20:33:29</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548602541611041544', 'createTime': 1757546009, 'createTimeISO': '2025-09-10T23:13:29.000Z', 'text': 'Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7497728292843521025', 'uniqueId': 'johncisf05', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/505945559d7145fdfd55587e4211927a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=af882b36&amp;x-expires=1758052800&amp;x-signature=GNDiI2VXKP4q0pL%2F88xl6T%2FYzBk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548561345027752712', 'createTime': 1757536409, 'createTimeISO': '2025-09-10T20:33:29.000Z', 'text': 'sin presupuesto para publicidad , como sera el producto?', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6918781103953642502', 'uniqueId': 'avenaytamal', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/aa9181c161417e5dc803fcad15cc0d03~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5735b3d7&amp;x-expires=1758056400&amp;x-signature=SNjpHh13RwS%2FTP5vpOzUtBROgPg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2256,25 +2256,25 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙</t>
+          <t>Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje</t>
         </is>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45910.9325462963</v>
+        <v>45910.91199074074</v>
       </c>
       <c r="H34" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>22:22:52</t>
+          <t>21:53:16</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548589473309754130', 'createTime': 1757542972, 'createTimeISO': '2025-09-10T22:22:52.000Z', 'text': 'Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6876120312544838661', 'uniqueId': 'andreselgatouriza', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/a1737248c6e55a0fb70d1cb876e69804~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=45810f58&amp;x-expires=1758052800&amp;x-signature=bI60jM6VYpkf5W%2BIxqrXEHOR4iQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548581903085421319', 'createTime': 1757541196, 'createTimeISO': '2025-09-10T21:53:16.000Z', 'text': 'Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '242092892885082112', 'uniqueId': 'valiwolf', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/d46604217618ad37cce4d76a7a04cd46~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=372403d4&amp;x-expires=1758056400&amp;x-signature=kBKwdVXQlXAAmvT8e2C3i%2FN4RTw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2312,25 +2312,25 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>una historia muy original 💙 Alpina llegando a nuestros hogares por más de 80 años 🤗</t>
+          <t>espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores</t>
         </is>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45910.95302083333</v>
+        <v>45910.97085648148</v>
       </c>
       <c r="H35" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>22:52:21</t>
+          <t>23:18:02</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548597086792696594', 'createTime': 1757544741, 'createTimeISO': '2025-09-10T22:52:21.000Z', 'text': 'una historia muy original 💙 Alpina llegando a nuestros hogares por más de 80 años 🤗', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6808353821459350534', 'uniqueId': 'kathemia1002', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/74284c3455ff47a191f0cbc0236da720~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=294370d4&amp;x-expires=1758052800&amp;x-signature=Yj6SkOQ3XJoyNEmQbE1%2F0kWvnZk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548603750441599752', 'createTime': 1757546282, 'createTimeISO': '2025-09-10T23:18:02.000Z', 'text': 'espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6904343806360224773', 'uniqueId': 'thekambril', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/843de1e638535b6c4c44e34dcdd6dc88~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=12f45db6&amp;x-expires=1758056400&amp;x-signature=W0nAoVTxAQlotfX6UJIilTxY1ic%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2368,22 +2368,22 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Si usan IA no me fío de los procesos de sus lácteos 😅</t>
+          <t>increible el esfuerzo wow. 💔🥀</t>
         </is>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45911.16465277778</v>
+        <v>45910.87224537037</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>03:57:06</t>
+          <t>20:56:02</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548675672371430152', 'createTime': 1757563026, 'createTimeISO': '2025-09-11T03:57:06.000Z', 'text': 'Si usan IA no me fío de los procesos de sus lácteos 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7035757402419250181', 'uniqueId': 'saan_300', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7335925676140625926~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=855d60ed&amp;x-expires=1758052800&amp;x-signature=pOB30jfesR60EltfIh%2Bbx86toUA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548567124958348039', 'createTime': 1757537762, 'createTimeISO': '2025-09-10T20:56:02.000Z', 'text': 'increible el esfuerzo wow. 💔🥀', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7320483299197043717', 'uniqueId': 'pepelover0401', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/80cf6fca533cc8d0175ee3672b20e6ca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=17d74c92&amp;x-expires=1758056400&amp;x-signature=BreRnY6Qov5HvXWhFPulnjJE4xg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2424,25 +2424,25 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙</t>
+          <t>Bro como se perdió el arte</t>
         </is>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45910.93565972222</v>
+        <v>45910.55045138889</v>
       </c>
       <c r="H37" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>22:27:21</t>
+          <t>13:12:39</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548590640369173255', 'createTime': 1757543241, 'createTimeISO': '2025-09-10T22:27:21.000Z', 'text': 'Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7111661840812639237', 'uniqueId': 'juliandavidmuri10', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7111662424408096774~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=dc9146a1&amp;x-expires=1758052800&amp;x-signature=UFxl6EY8LOuiGLvdo%2FvnCZTTUrc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447770353435410', 'createTime': 1757509959, 'createTimeISO': '2025-09-10T13:12:39.000Z', 'text': 'Bro como se perdió el arte', 'diggCount': 86, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7523791630316717074', 'uniqueId': 'nyako9311', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/7941680fa88f973347764837a49a9b1f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f9cdb5f2&amp;x-expires=1758056400&amp;x-signature=avYrVhp3ZGciCzEWDrcezGDHUSw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2480,22 +2480,22 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Bro como se perdió el arte</t>
+          <t>IA enserio?</t>
         </is>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45910.55045138889</v>
+        <v>45910.895625</v>
       </c>
       <c r="H38" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>13:12:39</t>
+          <t>21:29:42</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447770353435410', 'createTime': 1757509959, 'createTimeISO': '2025-09-10T13:12:39.000Z', 'text': 'Bro como se perdió el arte', 'diggCount': 86, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7523791630316717074', 'uniqueId': 'nyako9311', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7941680fa88f973347764837a49a9b1f~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=5a27b30b&amp;x-expires=1758052800&amp;x-signature=lFIA11y3mPjzV46%2F7z7FtOqUvNA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548575782660162311', 'createTime': 1757539782, 'createTimeISO': '2025-09-10T21:29:42.000Z', 'text': 'IA enserio?', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6636493445244813317', 'uniqueId': 'jhunjunar', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7325239266097774597~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=41fe466b&amp;x-expires=1758056400&amp;x-signature=CSw%2FHmnGtpf8qSo7p920BsgJPVI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2536,25 +2536,25 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.</t>
+          <t>¿IA? Wow ,tanto que ganan y no pagan un animador</t>
         </is>
       </c>
       <c r="G39" s="2" t="n">
-        <v>45910.5497337963</v>
+        <v>45910.79232638889</v>
       </c>
       <c r="H39" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>13:11:37</t>
+          <t>19:00:57</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447494344131335', 'createTime': 1757509897, 'createTimeISO': '2025-09-10T13:11:37.000Z', 'text': 'Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.', 'diggCount': 39, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7039532507280196614', 'uniqueId': 'dulce_de_nata', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7332498416135274502~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=34f87cda&amp;x-expires=1758052800&amp;x-signature=T3wbZSCRn9As854QuJpXL%2BTD%2FPY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548537516107088660', 'createTime': 1757530857, 'createTimeISO': '2025-09-10T19:00:57.000Z', 'text': '¿IA? Wow ,tanto que ganan y no pagan un animador', 'diggCount': 145, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7071862501012784133', 'uniqueId': 'el.gelatinas45', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8964867b1446081d4e48af3405f3abbf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9ee9cbcb&amp;x-expires=1758056400&amp;x-signature=Wvyn4kX3mhrUwuNPfJGuyplEO2c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2592,25 +2592,25 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Qué linda está historiaa! Me encanta</t>
+          <t>Recuerdan esos comerciales de animales bailando en el bosque y cantando?</t>
         </is>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45910.64038194445</v>
+        <v>45910.90331018518</v>
       </c>
       <c r="H40" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>15:22:09</t>
+          <t>21:40:46</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548481145101763335', 'createTime': 1757517729, 'createTimeISO': '2025-09-10T15:22:09.000Z', 'text': 'Qué linda está historiaa! Me encanta', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807939541208237061', 'uniqueId': 'arestrepo1', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7331111760105046022~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=86fe028c&amp;x-expires=1758052800&amp;x-signature=Kd%2FcfCxMHzSEw67bhmr6baGDQn4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578559905923856', 'createTime': 1757540446, 'createTimeISO': '2025-09-10T21:40:46.000Z', 'text': 'Recuerdan esos comerciales de animales bailando en el bosque y cantando?', 'diggCount': 27, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6750702320714155013', 'uniqueId': 'wakingleo', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7331160055510728710~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8fbd10c9&amp;x-expires=1758056400&amp;x-signature=SLZcqw6eu2iaxvJ69lIEnlOSDvM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2648,22 +2648,22 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente</t>
+          <t>se ve barato con la AI alpina que dececion</t>
         </is>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45910.85172453704</v>
+        <v>45910.70459490741</v>
       </c>
       <c r="H41" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>20:26:29</t>
+          <t>16:54:37</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548559525466374930', 'createTime': 1757535989, 'createTimeISO': '2025-09-10T20:26:29.000Z', 'text': 'Primero las chocolatinas Jet, luego las paletas Drácula y Ahora alpina. los empresarios los esta matando la pereza definitivamente', 'diggCount': 38, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6603056868959666181', 'uniqueId': 'linsynose', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a547dda6766e2346d6cc85551ffa9599~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=8319babd&amp;x-expires=1758052800&amp;x-signature=OMJ5QMbdllKJL3H%2BKlRFobuAxR8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548504964740694802', 'createTime': 1757523277, 'createTimeISO': '2025-09-10T16:54:37.000Z', 'text': 'se ve barato con la AI alpina que dececion', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842124879065515013', 'uniqueId': 'flanapoli', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b4c439341ae460ae62d6bf8327e9c318~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=10ff3e9e&amp;x-expires=1758056400&amp;x-signature=RXNqj9DTkxh8La8jDqXw8TPdpG4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2704,22 +2704,22 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Recuerdan esos comerciales de animales bailando en el bosque y cantando?</t>
+          <t>tanto que ganan y ni un animador se dignan a pagar, el colmo.</t>
         </is>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45910.90331018518</v>
+        <v>45911.01949074074</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>21:40:46</t>
+          <t>00:28:04</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578559905923856', 'createTime': 1757540446, 'createTimeISO': '2025-09-10T21:40:46.000Z', 'text': 'Recuerdan esos comerciales de animales bailando en el bosque y cantando?', 'diggCount': 27, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6750702320714155013', 'uniqueId': 'wakingleo', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7331160055510728710~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=bf54d8b6&amp;x-expires=1758052800&amp;x-signature=Z6e2qv24p%2B4O7Ptu0aK4m6mihqo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548621347896492801', 'createTime': 1757550484, 'createTimeISO': '2025-09-11T00:28:04.000Z', 'text': 'tanto que ganan y ni un animador se dignan a pagar, el colmo.', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959106580772471813', 'uniqueId': 'ans0fyyy', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/5787aa89d78fc130687462d5427a1653~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ab428f3d&amp;x-expires=1758056400&amp;x-signature=K5S1VwKOvA4PlZG0KJ8UCH2Hi2o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2760,22 +2760,22 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Alpin que paso para llegar hasta este punto?</t>
+          <t>Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.</t>
         </is>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45910.35961805555</v>
+        <v>45910.5497337963</v>
       </c>
       <c r="H43" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>08:37:51</t>
+          <t>13:11:37</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548376941066732306', 'createTime': 1757493471, 'createTimeISO': '2025-09-10T08:37:51.000Z', 'text': 'Alpin que paso para llegar hasta este punto?', 'diggCount': 134, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7027306156922242054', 'uniqueId': 'zebis', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7e6922dadb62002e9255466f9bea4e5c~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=75e1e458&amp;x-expires=1758052800&amp;x-signature=%2BQqqb4EvobcuwGhDenlL34iGQwU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548447494344131335', 'createTime': 1757509897, 'createTimeISO': '2025-09-10T13:11:37.000Z', 'text': 'Ni que no tuvieran plata para pagarle a un animador. Menos mal ahora la IA no se puede registrar con derechos de autor.', 'diggCount': 39, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7039532507280196614', 'uniqueId': 'dulce_de_nata', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7332498416135274502~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ef01827e&amp;x-expires=1758056400&amp;x-signature=zDyhAeKkG1dkyfrPXDNApVqAkKs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2816,25 +2816,25 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>tan lindo comercial 🥰🥰🥰🥰🥰</t>
+          <t>Si usan IA no me fío de los procesos de sus lácteos 😅</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45910.40491898148</v>
+        <v>45911.16465277778</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>09:43:05</t>
+          <t>03:57:06</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548393761517601554', 'createTime': 1757497385, 'createTimeISO': '2025-09-10T09:43:05.000Z', 'text': 'tan lindo comercial 🥰🥰🥰🥰🥰', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7461491967327962129', 'uniqueId': 'caro11.18', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/90a40a0ee147200def68ba2dfc2b1dca~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=58f6f2b4&amp;x-expires=1758052800&amp;x-signature=A4nwheWaTYZxHt7mFmQiuUNnpAo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548675672371430152', 'createTime': 1757563026, 'createTimeISO': '2025-09-11T03:57:06.000Z', 'text': 'Si usan IA no me fío de los procesos de sus lácteos 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7035757402419250181', 'uniqueId': 'saan_300', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7335925676140625926~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d2b78bfb&amp;x-expires=1758056400&amp;x-signature=DtSsK%2Bv53FNU0aT6x1uTg1oDowo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2872,25 +2872,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀</t>
+          <t>Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45910.92006944444</v>
+        <v>45910.9325462963</v>
       </c>
       <c r="H45" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>22:04:54</t>
+          <t>22:22:52</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548584862849942280', 'createTime': 1757541894, 'createTimeISO': '2025-09-10T22:04:54.000Z', 'text': 'empresa multimillonaria no tiene dinero para pagarle a un artista por hacer animación 😀', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6774471423067997190', 'uniqueId': 'xiewww_h', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/ba1a8119f4148ea45db46fad9dcf764b~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=fbbb7bad&amp;x-expires=1758052800&amp;x-signature=u%2Fk0x5aAjMZ5PtQBTXD3Wa52ps0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548589473309754130', 'createTime': 1757542972, 'createTimeISO': '2025-09-10T22:22:52.000Z', 'text': 'Con historias creatividad y mucha nutrición Alimentamos saludablemente a nuestra Familia!! 💙💙💙', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6876120312544838661', 'uniqueId': 'andreselgatouriza', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/a1737248c6e55a0fb70d1cb876e69804~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f7bedd2f&amp;x-expires=1758056400&amp;x-signature=c9%2FVcZvg6vA7N0SV8qEW4kZOVjQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2928,22 +2928,22 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>IA 😬</t>
+          <t>y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45910.79935185185</v>
+        <v>45911.09881944444</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>19:11:04</t>
+          <t>02:22:18</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548540108145328904', 'createTime': 1757531464, 'createTimeISO': '2025-09-10T19:11:04.000Z', 'text': 'IA 😬', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6878771113729967109', 'uniqueId': 'andresmartinez_co', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/0e4fa031bfb76175d309ce7aad482cd3~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=e900e47e&amp;x-expires=1758052800&amp;x-signature=qCQkSV%2BVtPHxhIUHfc1rr%2Fepkmo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548651242424926994', 'createTime': 1757557338, 'createTimeISO': '2025-09-11T02:22:18.000Z', 'text': 'y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7127269324398822406', 'uniqueId': 'art_vlogs_124453', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/776a09d992ac899821136707d41a334f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=13b603de&amp;x-expires=1758056400&amp;x-signature=fcXdQOirZ3nwqArdr7DALGIzHG4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2984,25 +2984,25 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje</t>
+          <t>una historia muy original 💙 Alpina llegando a nuestros hogares por más de 80 años 🤗</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45910.91199074074</v>
+        <v>45910.95302083333</v>
       </c>
       <c r="H47" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>21:53:16</t>
+          <t>22:52:21</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548581903085421319', 'createTime': 1757541196, 'createTimeISO': '2025-09-10T21:53:16.000Z', 'text': 'Bravo, desempleando animadores 👏🏻 pudiendo contratar a alguien usan a la IA y no se siente igual de vivo a diferencia de alguien que lo dibuje', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '242092892885082112', 'uniqueId': 'valiwolf', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/d46604217618ad37cce4d76a7a04cd46~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=1e372722&amp;x-expires=1758052800&amp;x-signature=3uUgrfExgexqBZCi6pAn5rc%2B2bA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548597086792696594', 'createTime': 1757544741, 'createTimeISO': '2025-09-10T22:52:21.000Z', 'text': 'una historia muy original 💙 Alpina llegando a nuestros hogares por más de 80 años 🤗', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6808353821459350534', 'uniqueId': 'kathemia1002', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/74284c3455ff47a191f0cbc0236da720~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5000ad81&amp;x-expires=1758056400&amp;x-signature=ITYoQt5%2Ba3UOYpek2%2Bhq4DzkJiM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3040,25 +3040,25 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Como que les pesa mucho pagarle a un artista que si haga algo bueno</t>
+          <t>que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45911.01646990741</v>
+        <v>45910.92987268518</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>00:23:43</t>
+          <t>22:19:01</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620601164104456', 'createTime': 1757550223, 'createTimeISO': '2025-09-11T00:23:43.000Z', 'text': 'Como que les pesa mucho pagarle a un artista que si haga algo bueno', 'diggCount': 11, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6797840408039703558', 'uniqueId': 'sstarberry__', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/4c4a684c8f37aa01fa09d888a9d7df43~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=365b3bc8&amp;x-expires=1758052800&amp;x-signature=6FN5LkmwLYrW6tadbTgy0V8b09g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548588516893311762', 'createTime': 1757542741, 'createTimeISO': '2025-09-10T22:19:01.000Z', 'text': 'que lindo es ver este tipo de videos tan lindos llenos de amor y nutrición 😋', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6817878389598012422', 'uniqueId': 'alexo1208', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/ef7e2adcf8630799385cd64832d218ab~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1ba2b767&amp;x-expires=1758056400&amp;x-signature=ZuZtFSOcz%2FyKoy7geVIlwx4BYHA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3096,25 +3096,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Se me cayó un ídolo, en la mala Alpina</t>
+          <t>Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45910.90369212963</v>
+        <v>45910.93565972222</v>
       </c>
       <c r="H49" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>21:41:19</t>
+          <t>22:27:21</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548578807612277511', 'createTime': 1757540479, 'createTimeISO': '2025-09-10T21:41:19.000Z', 'text': 'Se me cayó un ídolo, en la mala Alpina', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6859385792315769861', 'uniqueId': 'bomkly2', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/a0f29357a9e54e5054e5669e06d564aa~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=97bea04e&amp;x-expires=1758052800&amp;x-signature=G4qykV2Y8dgbCCEqh3g1efToFos%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548590640369173255', 'createTime': 1757543241, 'createTimeISO': '2025-09-10T22:27:21.000Z', 'text': 'Excelente estrategia de marca, La conexión emocional con el consumidor a través de la pasión por la vida y la naturaleza es clave para generar lealtad y Engagement, 80 años nutriendo un mañana 💙', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7111661840812639237', 'uniqueId': 'juliandavidmuri10', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7111662424408096774~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f7a2ee55&amp;x-expires=1758056400&amp;x-signature=sT4VG1iSN627lQsBTJJ7iBc7cRg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3152,25 +3152,25 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>IA enserio?</t>
+          <t>Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45910.895625</v>
+        <v>45910.96769675926</v>
       </c>
       <c r="H50" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>21:29:42</t>
+          <t>23:13:29</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548575782660162311', 'createTime': 1757539782, 'createTimeISO': '2025-09-10T21:29:42.000Z', 'text': 'IA enserio?', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6636493445244813317', 'uniqueId': 'jhunjunar', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7325239266097774597~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=6989d28f&amp;x-expires=1758052800&amp;x-signature=HxjKS4Z7q5Swj2VWDk%2FiVJZ4Cio%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548602541611041544', 'createTime': 1757546009, 'createTimeISO': '2025-09-10T23:13:29.000Z', 'text': 'Otra muestra, de que Alpina tiene el mejor talento, así como el mejor sabor.!!!!', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '7497728292843521025', 'uniqueId': 'johncisf05', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/505945559d7145fdfd55587e4211927a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b8535f04&amp;x-expires=1758056400&amp;x-signature=4FtbWyueKpnRzE%2BzT3xXB9mPsuQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3208,25 +3208,25 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>sin presupuesto para publicidad , como sera el producto?</t>
+          <t>Divino!!!! Amo la historia</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45910.85658564815</v>
+        <v>45910.97527777778</v>
       </c>
       <c r="H51" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>20:33:29</t>
+          <t>23:24:24</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548561345027752712', 'createTime': 1757536409, 'createTimeISO': '2025-09-10T20:33:29.000Z', 'text': 'sin presupuesto para publicidad , como sera el producto?', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6918781103953642502', 'uniqueId': 'avenaytamal', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/aa9181c161417e5dc803fcad15cc0d03~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=62d1ffce&amp;x-expires=1758052800&amp;x-signature=L1%2F%2BJt60IDdYKtT81hLWt1cYeDM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548605334442967816', 'createTime': 1757546664, 'createTimeISO': '2025-09-10T23:24:24.000Z', 'text': 'Divino!!!! Amo la historia', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807194247927710726', 'uniqueId': 'isabelagarciag16', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/b88517984d3050fcaa52657a475e3d78~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c3e05200&amp;x-expires=1758056400&amp;x-signature=EDOnwoR8GZ9z7OPk5iMkzFEzQ%2BU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3264,22 +3264,23 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Un anuncio de IA, en serio?...</t>
+          <t>deseo vender sus productos
+gracias</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45910.90475694444</v>
+        <v>45910.47114583333</v>
       </c>
       <c r="H52" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>21:42:51</t>
+          <t>11:18:27</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -3294,7 +3295,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548579047941669648', 'createTime': 1757540571, 'createTimeISO': '2025-09-10T21:42:51.000Z', 'text': 'Un anuncio de IA, en serio?...', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7267330640268559365', 'uniqueId': 'akg4lv1x', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/0cb47ff876dbe865901193337182695a~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ac3d3d12&amp;x-expires=1758052800&amp;x-signature=SIM4rMcQyMwptALOHJleKW%2FOMIk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548418329276318472', 'createTime': 1757503107, 'createTimeISO': '2025-09-10T11:18:27.000Z', 'text': 'deseo vender sus productos\ngracias', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7450631040689423366', 'uniqueId': 'leonbsxez4f', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=20f14ce7&amp;x-expires=1758056400&amp;x-signature=edcfOOXQJNKoqubATFIxjqkcbyU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3320,25 +3321,25 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>increible el esfuerzo wow. 💔🥀</t>
+          <t>tan lindo comercial 🥰🥰🥰🥰🥰</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45910.87224537037</v>
+        <v>45910.40491898148</v>
       </c>
       <c r="H53" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>20:56:02</t>
+          <t>09:43:05</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -3350,7 +3351,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548567124958348039', 'createTime': 1757537762, 'createTimeISO': '2025-09-10T20:56:02.000Z', 'text': 'increible el esfuerzo wow. 💔🥀', 'diggCount': 7, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7320483299197043717', 'uniqueId': 'pepelover0401', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/80cf6fca533cc8d0175ee3672b20e6ca~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=42a0bccb&amp;x-expires=1758052800&amp;x-signature=MXwiFPF3hpNiIKPzq9%2FwNkqyURI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548393761517601554', 'createTime': 1757497385, 'createTimeISO': '2025-09-10T09:43:05.000Z', 'text': 'tan lindo comercial 🥰🥰🥰🥰🥰', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7461491967327962129', 'uniqueId': 'caro11.18', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/90a40a0ee147200def68ba2dfc2b1dca~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f20ecf6e&amp;x-expires=1758056400&amp;x-signature=7Lyl0fmmvUjata%2FOwHBM89WeHfs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3376,25 +3377,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores</t>
+          <t>¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45910.97085648148</v>
+        <v>45910.95050925926</v>
       </c>
       <c r="H54" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>23:18:02</t>
+          <t>22:48:44</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -3406,7 +3407,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548603750441599752', 'createTime': 1757546282, 'createTimeISO': '2025-09-10T23:18:02.000Z', 'text': 'espero que con esto bajen los precios ya que quieren economizar las experiencias de sus consumidores', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6904343806360224773', 'uniqueId': 'thekambril', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/843de1e638535b6c4c44e34dcdd6dc88~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=ef127467&amp;x-expires=1758052800&amp;x-signature=lPLhstJv6UbZ5UmaNxOeuhXo2%2Fk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548596179627049736', 'createTime': 1757544524, 'createTimeISO': '2025-09-10T22:48:44.000Z', 'text': '¡Qué campaña tan increíble! 🧡 Me encanta cómo Alpina logra transmitir tanta energía positiva y recordarnos lo importante de nutrirnos con todo lo bueno de sus lácteos. 🙌 Genial la creatividad y el talento detrás de esta campaña, realmente conecta. 💪🥛', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 4, 'uid': '6892483566695154694', 'uniqueId': 'karenarres', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/8e7f13a6edbd9f1e73869cf96c40fede~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=d92c232d&amp;x-expires=1758056400&amp;x-signature=565X%2Fjrq0Kv%2BGTMndAg6Aeylmcs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3432,25 +3433,25 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>tanto que ganan y ni un animador se dignan a pagar, el colmo.</t>
+          <t>Me veo linda en mi historia?</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45911.01949074074</v>
+        <v>45910.42668981481</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>00:28:04</t>
+          <t>10:14:26</t>
         </is>
       </c>
       <c r="J55" t="n">
         <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -3462,7 +3463,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548621347896492801', 'createTime': 1757550484, 'createTimeISO': '2025-09-11T00:28:04.000Z', 'text': 'tanto que ganan y ni un animador se dignan a pagar, el colmo.', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6959106580772471813', 'uniqueId': 'ans0fyyy', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/5787aa89d78fc130687462d5427a1653~tplv-tiktokx-cropcenter:100:100.jpg?dr=14579&amp;refresh_token=80d25f67&amp;x-expires=1758052800&amp;x-signature=5WNpiFHAymmndPogwu8jCrHbLIo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=maliva', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548401767362806534', 'createTime': 1757499266, 'createTimeISO': '2025-09-10T10:14:26.000Z', 'text': 'Me veo linda en mi historia?', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 5, 'uid': '7237572995751937029', 'uniqueId': 'escarletgiron3', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/90f45fbb28c045f99beaef24f4d1bcc5~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=458c0c53&amp;x-expires=1758056400&amp;x-signature=cfudmqoOc4XigMPcLoJL0Vrws00%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3488,22 +3489,22 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd</t>
+          <t>Alpin que paso para llegar hasta este punto?</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>45911.09881944444</v>
+        <v>45910.35961805555</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>02:22:18</t>
+          <t>08:37:51</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -3518,7 +3519,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548651242424926994', 'createTime': 1757557338, 'createTimeISO': '2025-09-11T02:22:18.000Z', 'text': 'y la de dibujar no se la saben? no es como que no sean una empresa gigante que no puede costearse una animación real xdd', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7127269324398822406', 'uniqueId': 'art_vlogs_124453', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/776a09d992ac899821136707d41a334f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=baca62e2&amp;x-expires=1758052800&amp;x-signature=cTehhiT5%2F2PpyFWDswpZ4oRGmPo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548376941066732306', 'createTime': 1757493471, 'createTimeISO': '2025-09-10T08:37:51.000Z', 'text': 'Alpin que paso para llegar hasta este punto?', 'diggCount': 134, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7027306156922242054', 'uniqueId': 'zebis', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7e6922dadb62002e9255466f9bea4e5c~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=001be0cd&amp;x-expires=1758056400&amp;x-signature=Dsi66hSABWJpXM7lJrzCbfb7bK0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3544,23 +3545,22 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>deseo vender sus productos
-gracias</t>
+          <t>Me encanta 💙</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45910.47114583333</v>
+        <v>45910.96372685185</v>
       </c>
       <c r="H57" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>11:18:27</t>
+          <t>23:07:46</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548418329276318472', 'createTime': 1757503107, 'createTimeISO': '2025-09-10T11:18:27.000Z', 'text': 'deseo vender sus productos\ngracias', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7450631040689423366', 'uniqueId': 'leonbsxez4f', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=33ae5891&amp;x-expires=1758052800&amp;x-signature=suGlnP1LkkF7vGkNT5ApNgsneQk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548601049558713106', 'createTime': 1757545666, 'createTimeISO': '2025-09-10T23:07:46.000Z', 'text': 'Me encanta 💙', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6765986832699999237', 'uniqueId': 'maiteito', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/a3685ad22846cc5cdb0de3282e771d00~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=293e8859&amp;x-expires=1758056400&amp;x-signature=2H9U6HUO4I%2BNRad0o9USroCuz%2Bg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3601,25 +3601,25 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ia?</t>
+          <t>Qué linda está historiaa! Me encanta</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45910.9887037037</v>
+        <v>45910.64038194445</v>
       </c>
       <c r="H58" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>23:43:44</t>
+          <t>15:22:09</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548610361759449863', 'createTime': 1757547824, 'createTimeISO': '2025-09-10T23:43:44.000Z', 'text': 'ia?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6912837321592488965', 'uniqueId': 'lennin.palacio', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/faee210c34b84e9f531a921eda58429b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5fba2296&amp;x-expires=1758052800&amp;x-signature=m8IQmK0qbUD7vUCsHjGdBFyEy3w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548481145101763335', 'createTime': 1757517729, 'createTimeISO': '2025-09-10T15:22:09.000Z', 'text': 'Qué linda está historiaa! Me encanta', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807939541208237061', 'uniqueId': 'arestrepo1', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7331111760105046022~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=235ef32f&amp;x-expires=1758056400&amp;x-signature=AwVsDdZYLYUMiOztjkoKM%2FmWI8U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3657,22 +3657,22 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Muy mal alpina 😔</t>
+          <t>Me encanta 💙</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45910.72035879629</v>
+        <v>45911.94859953703</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>17:17:19</t>
+          <t>22:45:59</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548510815235048210', 'createTime': 1757524639, 'createTimeISO': '2025-09-10T17:17:19.000Z', 'text': 'Muy mal alpina 😔', 'diggCount': 52, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7401980556445189125', 'uniqueId': 'vanshi432', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9593619d8a1f3f6623ca0b4ba781b0f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6716a12c&amp;x-expires=1758052800&amp;x-signature=ZSFZENQiO41UKQafNopzS%2FNkc%2Fc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548966545201693458', 'createTime': 1757630759, 'createTimeISO': '2025-09-11T22:45:59.000Z', 'text': 'Me encanta 💙', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7192343363575530502', 'uniqueId': 'pilarcardona90', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/f0ff25a33bba318f336930d217532900~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=f4892f1f&amp;x-expires=1758056400&amp;x-signature=3bgfiK3MfpkoHCXkydKBLHif79k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3713,22 +3713,22 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>contratar a una persona no cuesta mucho Alpina</t>
+          <t>Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45910.47868055556</v>
+        <v>45911.09158564815</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>11:29:18</t>
+          <t>02:11:53</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548421120124125959', 'createTime': 1757503758, 'createTimeISO': '2025-09-10T11:29:18.000Z', 'text': 'contratar a una persona no cuesta mucho Alpina', 'diggCount': 9, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156043383616898053', 'uniqueId': 'luperdoxx_', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/73d7285035cb26f9f4f152a9df04c1fb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0f27e72a&amp;x-expires=1758052800&amp;x-signature=pbOb4WhrLCbPykUZhU8GiCLuuzU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548648557948683026', 'createTime': 1757556713, 'createTimeISO': '2025-09-11T02:11:53.000Z', 'text': 'Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6976617115294139397', 'uniqueId': 'chowder9273', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/21ce081563d432fdfb13dc114a97d005~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e9a17a0a&amp;x-expires=1758056400&amp;x-signature=v6od%2FPMVKtvy7IFb4qE3y3xRLA8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3769,22 +3769,22 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Un cliente menos por usar IA. Lo mínimo sería que se esforzaran.</t>
+          <t>contratar a una persona no cuesta mucho Alpina</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45910.44918981481</v>
+        <v>45910.47868055556</v>
       </c>
       <c r="H61" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>10:46:50</t>
+          <t>11:29:18</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548410183963149063', 'createTime': 1757501210, 'createTimeISO': '2025-09-10T10:46:50.000Z', 'text': 'Un cliente menos por usar IA. Lo mínimo sería que se esforzaran.', 'diggCount': 19, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6831317940266632198', 'uniqueId': 'hfwxkmii', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c073c67778fa163af85e8ec12e9f7b34~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3de26a01&amp;x-expires=1758052800&amp;x-signature=j%2FPiP2kV33q%2BpNgc1I9yPcs5O4Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548421120124125959', 'createTime': 1757503758, 'createTimeISO': '2025-09-10T11:29:18.000Z', 'text': 'contratar a una persona no cuesta mucho Alpina', 'diggCount': 9, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7156043383616898053', 'uniqueId': 'luperdoxx_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/73d7285035cb26f9f4f152a9df04c1fb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=44973ad2&amp;x-expires=1758056400&amp;x-signature=1PIasRvcRT0AHz9nqnkcMBRkaYQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3825,25 +3825,25 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>esa ia que, bajenle el sueldo al del marketing</t>
+          <t>Muy mal alpina 😔</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45910.44768518519</v>
+        <v>45910.72035879629</v>
       </c>
       <c r="H62" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>10:44:40</t>
+          <t>17:17:19</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L62" t="b">
         <v>0</v>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548409627651326728', 'createTime': 1757501080, 'createTimeISO': '2025-09-10T10:44:40.000Z', 'text': 'esa ia que, bajenle el sueldo al del marketing', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7241313157364237317', 'uniqueId': '..masyumaroo', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/fcea146f1ab11fdfd0007ed28178331a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=560fe373&amp;x-expires=1758052800&amp;x-signature=ZBaEJAxsBeO5yj8Rdj0C99kJKbg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548510815235048210', 'createTime': 1757524639, 'createTimeISO': '2025-09-10T17:17:19.000Z', 'text': 'Muy mal alpina 😔', 'diggCount': 52, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7401980556445189125', 'uniqueId': 'vanshi432', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/9593619d8a1f3f6623ca0b4ba781b0f0~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=48801ef6&amp;x-expires=1758056400&amp;x-signature=Ua01t%2FIYP6kq1GHjMbh6xS8FwwM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3881,22 +3881,22 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>la ia mato la originalidad, extraño los anuncios de antes de alpin</t>
+          <t>que es eso alpina</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45910.41877314815</v>
+        <v>45910.94694444445</v>
       </c>
       <c r="H63" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>10:03:02</t>
+          <t>22:43:36</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548398904514036496', 'createTime': 1757498582, 'createTimeISO': '2025-09-10T10:03:02.000Z', 'text': 'la ia mato la originalidad, extraño los anuncios de antes de alpin', 'diggCount': 30, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7423950923732534278', 'uniqueId': 'n_sin_ideas', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/778bdb3c77f3b1186ea08862f026d708~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b57c9f8a&amp;x-expires=1758052800&amp;x-signature=aOlL203IhGEhc0mL9%2F4ozeq6Nj8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548594843954447122', 'createTime': 1757544216, 'createTimeISO': '2025-09-10T22:43:36.000Z', 'text': 'que es eso alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6965117807211136002', 'uniqueId': 'bmn18920', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/06c0075ce87455af04698a541ffd2d51~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3df5bcf8&amp;x-expires=1758056400&amp;x-signature=How9MSVZX%2FJ2MRUbFR3lO6Oqxe8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3937,22 +3937,22 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ya le dan pereza hacer una animación ya hasta usan IA</t>
+          <t>ia?</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45910.25746527778</v>
+        <v>45910.9887037037</v>
       </c>
       <c r="H64" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>06:10:45</t>
+          <t>23:43:44</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548339039976506130', 'createTime': 1757484645, 'createTimeISO': '2025-09-10T06:10:45.000Z', 'text': 'Ya le dan pereza hacer una animación ya hasta usan IA', 'diggCount': 63, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7052150802987156485', 'uniqueId': 'jhon_87g', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/03ffe7e0084a217762b94e6878473788~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=60d3c274&amp;x-expires=1758052800&amp;x-signature=lTD%2BlDZHWLP5uFQKn3O3npHtsNo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548610361759449863', 'createTime': 1757547824, 'createTimeISO': '2025-09-10T23:43:44.000Z', 'text': 'ia?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6912837321592488965', 'uniqueId': 'lennin.palacio', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/faee210c34b84e9f531a921eda58429b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=27990a75&amp;x-expires=1758056400&amp;x-signature=aQOtHuILa5cav4Hsw8pn4JdZNpk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3993,22 +3993,22 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>que bajo usar ia.</t>
+          <t>Un cliente menos por usar IA. Lo mínimo sería que se esforzaran.</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45910.27891203704</v>
+        <v>45910.44918981481</v>
       </c>
       <c r="H65" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>06:41:38</t>
+          <t>10:46:50</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548346981217157895', 'createTime': 1757486498, 'createTimeISO': '2025-09-10T06:41:38.000Z', 'text': 'que bajo usar ia.', 'diggCount': 42, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7167799974063031302', 'uniqueId': 'dummynicki', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/5b83b697a53a425bd669997398de954d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7a921aeb&amp;x-expires=1758052800&amp;x-signature=A4%2B%2FhvapJ5C329N8iPvIjuztyF4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548410183963149063', 'createTime': 1757501210, 'createTimeISO': '2025-09-10T10:46:50.000Z', 'text': 'Un cliente menos por usar IA. Lo mínimo sería que se esforzaran.', 'diggCount': 19, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6831317940266632198', 'uniqueId': 'hfwxkmii', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c073c67778fa163af85e8ec12e9f7b34~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4d0a15d6&amp;x-expires=1758056400&amp;x-signature=cgkvCClSXL629vwGm%2FomWTsVZ7c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4049,22 +4049,22 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Q acabo de ver 😔</t>
+          <t>la ia mato la originalidad, extraño los anuncios de antes de alpin</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45910.44203703704</v>
+        <v>45910.41877314815</v>
       </c>
       <c r="H66" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>10:36:32</t>
+          <t>10:03:02</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548407528423359239', 'createTime': 1757500592, 'createTimeISO': '2025-09-10T10:36:32.000Z', 'text': 'Q acabo de ver 😔', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6747353274120242182', 'uniqueId': 'ani.garza02', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/354756293f1d163ff79856a81afb4be8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e8501709&amp;x-expires=1758052800&amp;x-signature=lA%2FCO8tZR1b4eC%2FU8f63%2BFrr5sU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548398904514036496', 'createTime': 1757498582, 'createTimeISO': '2025-09-10T10:03:02.000Z', 'text': 'la ia mato la originalidad, extraño los anuncios de antes de alpin', 'diggCount': 30, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7423950923732534278', 'uniqueId': 'n_sin_ideas', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/778bdb3c77f3b1186ea08862f026d708~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f6d0c272&amp;x-expires=1758056400&amp;x-signature=CkzdWkZJ1tSgJG6asMN8S%2FMszwo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4105,25 +4105,25 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Uno espera eso de marcas chiquitas que no les alcanza para publicidad</t>
+          <t>Ya le dan pereza hacer una animación ya hasta usan IA</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45910.36795138889</v>
+        <v>45910.25746527778</v>
       </c>
       <c r="H67" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>08:49:51</t>
+          <t>06:10:45</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="b">
         <v>0</v>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548380036207395605', 'createTime': 1757494191, 'createTimeISO': '2025-09-10T08:49:51.000Z', 'text': 'Uno espera eso de marcas chiquitas que no les alcanza para publicidad', 'diggCount': 20, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6916860526317700102', 'uniqueId': 'danyelangelb', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/724928af54d82cb730b74befb561dc8b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=899c8023&amp;x-expires=1758052800&amp;x-signature=vc7fTOzh5nl3iCL65GizEBgeqqk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548339039976506130', 'createTime': 1757484645, 'createTimeISO': '2025-09-10T06:10:45.000Z', 'text': 'Ya le dan pereza hacer una animación ya hasta usan IA', 'diggCount': 63, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7052150802987156485', 'uniqueId': 'jhon_87g', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/03ffe7e0084a217762b94e6878473788~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bc4b1a11&amp;x-expires=1758056400&amp;x-signature=a9ibFfKjfZZl9w1BJ2IglNAvnt0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>IA 💀💀💀💀</t>
+          <t>que bajo usar ia.</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45910.57609953704</v>
+        <v>45910.27891203704</v>
       </c>
       <c r="H68" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>13:49:35</t>
+          <t>06:41:38</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548457290329604882', 'createTime': 1757512175, 'createTimeISO': '2025-09-10T13:49:35.000Z', 'text': 'IA 💀💀💀💀', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7332704', 'uniqueId': 'andreandreandreaaa', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/af674a3010d5299eb3031b6029febf13~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b23119f1&amp;x-expires=1758052800&amp;x-signature=N1BHsuWkn1ngrJeqFDcGqGT6uoY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548346981217157895', 'createTime': 1757486498, 'createTimeISO': '2025-09-10T06:41:38.000Z', 'text': 'que bajo usar ia.', 'diggCount': 42, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7167799974063031302', 'uniqueId': 'dummynicki', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/5b83b697a53a425bd669997398de954d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f4d74d81&amp;x-expires=1758056400&amp;x-signature=naKnNbY3mlD7qpiFtRjTl6tps%2F8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4217,25 +4217,25 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>trátame serio</t>
+          <t>Uno espera eso de marcas chiquitas que no les alcanza para publicidad</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45910.39059027778</v>
+        <v>45910.36795138889</v>
       </c>
       <c r="H69" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>09:22:27</t>
+          <t>08:49:51</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="b">
         <v>0</v>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548388399540732673', 'createTime': 1757496147, 'createTimeISO': '2025-09-10T09:22:27.000Z', 'text': 'trátame serio', 'diggCount': 17, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7269821787213759493', 'uniqueId': 'horrendoporro', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/5a352fff86558acc67aa91907eb9d00f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bedb1901&amp;x-expires=1758052800&amp;x-signature=MkYDVk8ohiV2w8wDhrdK%2FWb%2BDh0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548380036207395605', 'createTime': 1757494191, 'createTimeISO': '2025-09-10T08:49:51.000Z', 'text': 'Uno espera eso de marcas chiquitas que no les alcanza para publicidad', 'diggCount': 20, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6916860526317700102', 'uniqueId': 'danyelangelb', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/724928af54d82cb730b74befb561dc8b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6fdb469c&amp;x-expires=1758056400&amp;x-signature=SYuu5hWpaI0zdlETtygyEaR29SE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4273,22 +4273,22 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>cómo diseñadora y futura animadora, me duele ver qué usa IA. sabiendo que es una empresa millonaria</t>
+          <t>IA 💀💀💀💀</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45910.89931712963</v>
+        <v>45910.57609953704</v>
       </c>
       <c r="H70" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>21:35:01</t>
+          <t>13:49:35</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548577179987297045', 'createTime': 1757540101, 'createTimeISO': '2025-09-10T21:35:01.000Z', 'text': 'cómo diseñadora y futura animadora, me duele ver qué usa IA. sabiendo que es una empresa millonaria', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7088423636848280581', 'uniqueId': '__kim_.dan_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d86b34aeb7ca62450a58e8618a1437da~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=213eed01&amp;x-expires=1758052800&amp;x-signature=BAIUyiZw1jDRg0v06p%2FVig36vcA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548457290329604882', 'createTime': 1757512175, 'createTimeISO': '2025-09-10T13:49:35.000Z', 'text': 'IA 💀💀💀💀', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7332704', 'uniqueId': 'andreandreandreaaa', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/af674a3010d5299eb3031b6029febf13~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=672876de&amp;x-expires=1758056400&amp;x-signature=KmwQvwA2QYv4qvvUaGu4Yq9mM8Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4329,22 +4329,22 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>que es eso alpina</t>
+          <t>trátame serio</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>45910.94694444445</v>
+        <v>45910.39059027778</v>
       </c>
       <c r="H71" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>22:43:36</t>
+          <t>09:22:27</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548594843954447122', 'createTime': 1757544216, 'createTimeISO': '2025-09-10T22:43:36.000Z', 'text': 'que es eso alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6965117807211136002', 'uniqueId': 'bmn18920', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/06c0075ce87455af04698a541ffd2d51~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=21a85555&amp;x-expires=1758052800&amp;x-signature=8McblsqfzW809hqbruvvbByXk9k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548388399540732673', 'createTime': 1757496147, 'createTimeISO': '2025-09-10T09:22:27.000Z', 'text': 'trátame serio', 'diggCount': 17, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7269821787213759493', 'uniqueId': 'horrendoporro', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/5a352fff86558acc67aa91907eb9d00f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=711fd58c&amp;x-expires=1758056400&amp;x-signature=YUEOLdRyIVVBYOuEP63Tt%2B3ArFw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4385,22 +4385,22 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>por eso es mejor la marca pureza</t>
+          <t>cómo diseñadora y futura animadora, me duele ver qué usa IA. sabiendo que es una empresa millonaria</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45910.43903935186</v>
+        <v>45910.89931712963</v>
       </c>
       <c r="H72" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>10:32:13</t>
+          <t>21:35:01</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548406411652023048', 'createTime': 1757500333, 'createTimeISO': '2025-09-10T10:32:13.000Z', 'text': 'por eso es mejor la marca pureza', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7532305065131033608', 'uniqueId': 'annshixd', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/96e56ac3430174ee911ad04eff7233af~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=306d05db&amp;x-expires=1758052800&amp;x-signature=p0QVFKsl%2FOr8SNnoPiUKfkD0I04%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548577179987297045', 'createTime': 1757540101, 'createTimeISO': '2025-09-10T21:35:01.000Z', 'text': 'cómo diseñadora y futura animadora, me duele ver qué usa IA. sabiendo que es una empresa millonaria', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7088423636848280581', 'uniqueId': '__kim_.dan_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d86b34aeb7ca62450a58e8618a1437da~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4e4ccc21&amp;x-expires=1758056400&amp;x-signature=uVAcbTSrDavJGqzqAIwPUisWT6k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4441,22 +4441,22 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>hasta yo que no se animar lo hago mejor</t>
+          <t>por eso es mejor la marca pureza</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45910.75954861111</v>
+        <v>45910.43903935186</v>
       </c>
       <c r="H73" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>18:13:45</t>
+          <t>10:32:13</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548525337766298386', 'createTime': 1757528025, 'createTimeISO': '2025-09-10T18:13:45.000Z', 'text': 'hasta yo que no se animar lo hago mejor', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6821105890537964550', 'uniqueId': 'doodle_tam', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b6955c33763a61b586f923a3d4c6fff8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e27dec85&amp;x-expires=1758052800&amp;x-signature=6%2BiSR7x%2F%2FiAM4M0rf44MnGP%2BzBw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548406411652023048', 'createTime': 1757500333, 'createTimeISO': '2025-09-10T10:32:13.000Z', 'text': 'por eso es mejor la marca pureza', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7532305065131033608', 'uniqueId': 'annshixd', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/96e56ac3430174ee911ad04eff7233af~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=84868aa3&amp;x-expires=1758056400&amp;x-signature=O3UPT66jb%2BD0nRwBtbTcKW0qG%2Bk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4497,22 +4497,22 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Así de artificial son los nutriente 😅</t>
+          <t>hasta yo que no se animar lo hago mejor</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>45910.89015046296</v>
+        <v>45910.75954861111</v>
       </c>
       <c r="H74" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>21:21:49</t>
+          <t>18:13:45</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548573780232045320', 'createTime': 1757539309, 'createTimeISO': '2025-09-10T21:21:49.000Z', 'text': 'Así de artificial son los nutriente 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6789799898302284805', 'uniqueId': 'ladeliagendas', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/9009b02feb54b951748fb889574a258d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=30f2dd2c&amp;x-expires=1758052800&amp;x-signature=ig%2BWyT98Mv0lxvDs%2B9qxpv8fUlk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548525337766298386', 'createTime': 1757528025, 'createTimeISO': '2025-09-10T18:13:45.000Z', 'text': 'hasta yo que no se animar lo hago mejor', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6821105890537964550', 'uniqueId': 'doodle_tam', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b6955c33763a61b586f923a3d4c6fff8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=801fdc6b&amp;x-expires=1758056400&amp;x-signature=XzH%2FJFWzVtBTlhQNolka1SdZ2qU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4553,18 +4553,18 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>no les dolía tanto e bolsillo comisionar a un artista de verdad sabes??😅😅</t>
+          <t>Así de artificial son los nutriente 😅</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45910.81274305555</v>
+        <v>45910.89015046296</v>
       </c>
       <c r="H75" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>19:30:21</t>
+          <t>21:21:49</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548545077762605832', 'createTime': 1757532621, 'createTimeISO': '2025-09-10T19:30:21.000Z', 'text': 'no les dolía tanto e bolsillo comisionar a un artista de verdad sabes??😅😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7043924049042916357', 'uniqueId': 'isariosss7', 'avatarThumbnail': 'https://p19-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/97a9036a3d513b6e6f9089ac76500f9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0a98b0b7&amp;x-expires=1758052800&amp;x-signature=0EgRAqsfDTZWbp76irKD%2FuGUKsk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548573780232045320', 'createTime': 1757539309, 'createTimeISO': '2025-09-10T21:21:49.000Z', 'text': 'Así de artificial son los nutriente 😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6789799898302284805', 'uniqueId': 'ladeliagendas', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/9009b02feb54b951748fb889574a258d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9958ad97&amp;x-expires=1758056400&amp;x-signature=lSOjbnms9do6HFdbRKm9oYFC4MM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4639,7 +4639,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548539172203954962', 'createTime': 1757531252, 'createTimeISO': '2025-09-10T19:07:32.000Z', 'text': 'duro de ver', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6848315334416483334', 'uniqueId': 'uyyuart', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/64238889da285c6d545191932696d173~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cb1a5bc5&amp;x-expires=1758052800&amp;x-signature=%2BNp1iquOjwx7L7DJqOmtdGJPc7s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548539172203954962', 'createTime': 1757531252, 'createTimeISO': '2025-09-10T19:07:32.000Z', 'text': 'duro de ver', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6848315334416483334', 'uniqueId': 'uyyuart', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/64238889da285c6d545191932696d173~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e6806e4c&amp;x-expires=1758056400&amp;x-signature=DOFt7FQf2gS%2BCyhpCLfN%2FhKV%2Bi8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4665,18 +4665,18 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bro?💀</t>
+          <t>no les dolía tanto e bolsillo comisionar a un artista de verdad sabes??😅😅</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45910.73438657408</v>
+        <v>45910.81274305555</v>
       </c>
       <c r="H77" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>17:37:31</t>
+          <t>19:30:21</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548516020722909960', 'createTime': 1757525851, 'createTimeISO': '2025-09-10T17:37:31.000Z', 'text': 'Bro?💀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7062546552564237317', 'uniqueId': 'umji_238', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/775b6041c9fdd0f49cde43fb9deb54fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f6f934a5&amp;x-expires=1758052800&amp;x-signature=DelBdJ1CUgTdTkKaQOLbtkXx%2Bmc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548545077762605832', 'createTime': 1757532621, 'createTimeISO': '2025-09-10T19:30:21.000Z', 'text': 'no les dolía tanto e bolsillo comisionar a un artista de verdad sabes??😅😅', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7043924049042916357', 'uniqueId': 'isariosss7', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/97a9036a3d513b6e6f9089ac76500f9a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1e168f73&amp;x-expires=1758056400&amp;x-signature=v22k%2BL0IATZ6phpcVjlon0kuqhM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4721,22 +4721,22 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza</t>
+          <t>Bro?💀</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45911.09158564815</v>
+        <v>45910.73438657408</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>02:11:53</t>
+          <t>17:37:31</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548648557948683026', 'createTime': 1757556713, 'createTimeISO': '2025-09-11T02:11:53.000Z', 'text': 'Supuestamente alpina promoviendo lo tradicional y lo hecho en casa, y proceden a subir este horrible comercial hecho con IA, acaban de matar a sangre fría toda la imagen que llevan años construyendo. Qué tristeza', 'diggCount': 5, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6976617115294139397', 'uniqueId': 'chowder9273', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/21ce081563d432fdfb13dc114a97d005~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2690e612&amp;x-expires=1758052800&amp;x-signature=NvHUjwc%2Fm6hY4lUa9yTNecFS89w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548516020722909960', 'createTime': 1757525851, 'createTimeISO': '2025-09-10T17:37:31.000Z', 'text': 'Bro?💀', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7062546552564237317', 'uniqueId': 'umji_238', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/775b6041c9fdd0f49cde43fb9deb54fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5c5550f0&amp;x-expires=1758056400&amp;x-signature=%2B%2FiqZTc0cYUernIQdhk6Foc%2B96c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4777,18 +4777,18 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Que horrible anuncio, acaso están a punto de llegar a la quiebra que no le pagan a animadores de verdad?</t>
+          <t>Uy amigos por lo menos disimulen la ia porque se ve horrible ese comercial</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>45910.72261574074</v>
+        <v>45910.58208333333</v>
       </c>
       <c r="H79" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>17:20:34</t>
+          <t>13:58:12</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548511652074537736', 'createTime': 1757524834, 'createTimeISO': '2025-09-10T17:20:34.000Z', 'text': 'Que horrible anuncio, acaso están a punto de llegar a la quiebra que no le pagan a animadores de verdad?', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6686421078979757061', 'uniqueId': 'maffmaffmuffin', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7320050030432878597~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f891c70e&amp;x-expires=1758052800&amp;x-signature=Jlddc8bbia1oYyGHSz2zqwF1vtg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548459511968121608', 'createTime': 1757512692, 'createTimeISO': '2025-09-10T13:58:12.000Z', 'text': 'Uy amigos por lo menos disimulen la ia porque se ve horrible ese comercial', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6754154606328808453', 'uniqueId': 'lecterspov', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a09d318b4f042339bb2945ad8ac0a33a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=984eedf1&amp;x-expires=1758056400&amp;x-signature=DM8E1J5ui6jENIQD19hEYrQxWrk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4833,22 +4833,22 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Uy amigos por lo menos disimulen la ia porque se ve horrible ese comercial</t>
+          <t>Dios la animacion hizo que sangraran mis ojos</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>45910.58208333333</v>
+        <v>45911.23148148148</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>13:58:12</t>
+          <t>05:33:20</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548459511968121608', 'createTime': 1757512692, 'createTimeISO': '2025-09-10T13:58:12.000Z', 'text': 'Uy amigos por lo menos disimulen la ia porque se ve horrible ese comercial', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6754154606328808453', 'uniqueId': 'lecterspov', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/a09d318b4f042339bb2945ad8ac0a33a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ca3bf8f1&amp;x-expires=1758052800&amp;x-signature=UyoecxiJnrrNcOw%2BiiUSZPmpxHQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548700471956865812', 'createTime': 1757568800, 'createTimeISO': '2025-09-11T05:33:20.000Z', 'text': 'Dios la animacion hizo que sangraran mis ojos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6938471178873635846', 'uniqueId': 'fred.pendly', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/e89d64cfe3f0b62bb357738336fc27cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7596ddc1&amp;x-expires=1758056400&amp;x-signature=zrYUqLcOe0cxBzOStwdT%2FRSCTK8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4889,25 +4889,25 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Dios la animacion hizo que sangraran mis ojos</t>
+          <t>esa ia que, bajenle el sueldo al del marketing</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45911.23148148148</v>
+        <v>45910.44768518519</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>05:33:20</t>
+          <t>10:44:40</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L81" t="b">
         <v>0</v>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548700471956865812', 'createTime': 1757568800, 'createTimeISO': '2025-09-11T05:33:20.000Z', 'text': 'Dios la animacion hizo que sangraran mis ojos', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6938471178873635846', 'uniqueId': 'fred.pendly', 'avatarThumbnail': 'https://p19-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/e89d64cfe3f0b62bb357738336fc27cc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5bdc71b5&amp;x-expires=1758052800&amp;x-signature=6VPqzsug7INy%2FKBQd%2FS0JcX%2B3ts%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548409627651326728', 'createTime': 1757501080, 'createTimeISO': '2025-09-10T10:44:40.000Z', 'text': 'esa ia que, bajenle el sueldo al del marketing', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7241313157364237317', 'uniqueId': '..masyumaroo', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/fcea146f1ab11fdfd0007ed28178331a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4aca14b1&amp;x-expires=1758056400&amp;x-signature=D2Crxot2zr%2F9el9LQ0d4AjWPs80%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4945,22 +4945,22 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Alpina, una de las marcas más reconocidas y exitosas del país, no tiene para pagarle a un estudio de animación y le dieron ese trabajo al primer tipo que sugirió escribir prompts y sacar este anuncio tan flojo y feo</t>
+          <t>Q acabo de ver 😔</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>45910.33052083333</v>
+        <v>45910.44203703704</v>
       </c>
       <c r="H82" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>07:55:57</t>
+          <t>10:36:32</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548366156965495570', 'createTime': 1757490957, 'createTimeISO': '2025-09-10T07:55:57.000Z', 'text': 'Alpina, una de las marcas más reconocidas y exitosas del país, no tiene para pagarle a un estudio de animación y le dieron ese trabajo al primer tipo que sugirió escribir prompts y sacar este anuncio tan flojo y feo', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806565442996487174', 'uniqueId': 'maikylart', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/53277bd06fe07cea9179d145496d1ddc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=52be5951&amp;x-expires=1758052800&amp;x-signature=clUqwyrl%2FztdCkqyUncTc3G0rPw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548407528423359239', 'createTime': 1757500592, 'createTimeISO': '2025-09-10T10:36:32.000Z', 'text': 'Q acabo de ver 😔', 'diggCount': 12, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6747353274120242182', 'uniqueId': 'ani.garza02', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/354756293f1d163ff79856a81afb4be8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4207f8ee&amp;x-expires=1758056400&amp;x-signature=ge2ujb9P8dbeFtI4dKab%2Bl%2FoBCA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5001,22 +5001,22 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Contraten artistas reales, tacaños</t>
+          <t>Que horrible anuncio, acaso están a punto de llegar a la quiebra que no le pagan a animadores de verdad?</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>45910.44408564815</v>
+        <v>45910.72261574074</v>
       </c>
       <c r="H83" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>10:39:29</t>
+          <t>17:20:34</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548408060374860545', 'createTime': 1757500769, 'createTimeISO': '2025-09-10T10:39:29.000Z', 'text': 'Contraten artistas reales, tacaños', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7392782108512912390', 'uniqueId': 'stuffilike.alien', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/859aa727b06ccb2a701c3a4133f034a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=439a8dae&amp;x-expires=1758052800&amp;x-signature=Lck2ZVEU3fAVFaRlawG10n211iI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548511652074537736', 'createTime': 1757524834, 'createTimeISO': '2025-09-10T17:20:34.000Z', 'text': 'Que horrible anuncio, acaso están a punto de llegar a la quiebra que no le pagan a animadores de verdad?', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6686421078979757061', 'uniqueId': 'maffmaffmuffin', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/7320050030432878597~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ae4b78a5&amp;x-expires=1758056400&amp;x-signature=55dT8JvZlq9cZmbQQFYZ9iYd1Tk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5057,22 +5057,22 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>se ve barato con la AI alpina que dececion</t>
+          <t>Alpina, una de las marcas más reconocidas y exitosas del país, no tiene para pagarle a un estudio de animación y le dieron ese trabajo al primer tipo que sugirió escribir prompts y sacar este anuncio tan flojo y feo</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>45910.70459490741</v>
+        <v>45910.33052083333</v>
       </c>
       <c r="H84" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>16:54:37</t>
+          <t>07:55:57</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548504964740694802', 'createTime': 1757523277, 'createTimeISO': '2025-09-10T16:54:37.000Z', 'text': 'se ve barato con la AI alpina que dececion', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6842124879065515013', 'uniqueId': 'flanapoli', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/b4c439341ae460ae62d6bf8327e9c318~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=35c9e1ac&amp;x-expires=1758052800&amp;x-signature=vqjXq0Hi4UkAEjuVan1%2FhvRoZVY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548366156965495570', 'createTime': 1757490957, 'createTimeISO': '2025-09-10T07:55:57.000Z', 'text': 'Alpina, una de las marcas más reconocidas y exitosas del país, no tiene para pagarle a un estudio de animación y le dieron ese trabajo al primer tipo que sugirió escribir prompts y sacar este anuncio tan flojo y feo', 'diggCount': 34, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6806565442996487174', 'uniqueId': 'maikylart', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/53277bd06fe07cea9179d145496d1ddc~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=fe924a6e&amp;x-expires=1758056400&amp;x-signature=Lsjw4PvJYps9ad5s2BWDmKBEij4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5113,22 +5113,22 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>WAKALA LA IA mejor no compro alpina</t>
+          <t>Contraten artistas reales, tacaños</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45911.10884259259</v>
+        <v>45910.44408564815</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>02:36:44</t>
+          <t>10:39:29</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548654960079766280', 'createTime': 1757558204, 'createTimeISO': '2025-09-11T02:36:44.000Z', 'text': 'WAKALA LA IA mejor no compro alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6625822285180469254', 'uniqueId': 'boosterflareon', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c6f50c043741078314f7f00f7f24f578~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c435a729&amp;x-expires=1758052800&amp;x-signature=bucOGdTk5j46PB3vnbKHbhfoT2Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548408060374860545', 'createTime': 1757500769, 'createTimeISO': '2025-09-10T10:39:29.000Z', 'text': 'Contraten artistas reales, tacaños', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7392782108512912390', 'uniqueId': 'stuffilike.alien', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/859aa727b06ccb2a701c3a4133f034a3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3757fc47&amp;x-expires=1758056400&amp;x-signature=%2Bs%2FcMsTu4YQZccEAgp8QIwz65IE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5169,22 +5169,22 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>No que porquería AJAJAJAJAJJA</t>
+          <t>WAKALA LA IA mejor no compro alpina</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>45911.01663194445</v>
+        <v>45911.10884259259</v>
       </c>
       <c r="H86" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>00:23:57</t>
+          <t>02:36:44</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620734420255496', 'createTime': 1757550237, 'createTimeISO': '2025-09-11T00:23:57.000Z', 'text': 'No que porquería AJAJAJAJAJJA', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6811926783093883909', 'uniqueId': '_4m4lg4m4_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8732c67b4173ebcca1e3df904820871a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3aa87c05&amp;x-expires=1758052800&amp;x-signature=ZKfBNSqgn2lxQAfTbvcb4dGb1tw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548654960079766280', 'createTime': 1757558204, 'createTimeISO': '2025-09-11T02:36:44.000Z', 'text': 'WAKALA LA IA mejor no compro alpina', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6625822285180469254', 'uniqueId': 'boosterflareon', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/c6f50c043741078314f7f00f7f24f578~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f2a77ba2&amp;x-expires=1758056400&amp;x-signature=v5loRK1Kf%2F7a1EdiiS%2BIxzx%2FBbQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5225,22 +5225,22 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Cada que una empresa usa IA en una publicidad, le cojo fastidio y no me provoca comprarles... :/ wacala</t>
+          <t>No que porquería AJAJAJAJAJJA</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>45910.88719907407</v>
+        <v>45911.01663194445</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>21:17:34</t>
+          <t>00:23:57</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548572657749508872', 'createTime': 1757539054, 'createTimeISO': '2025-09-10T21:17:34.000Z', 'text': 'Cada que una empresa usa IA en una publicidad, le cojo fastidio y no me provoca comprarles... :/ wacala', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7511435645136913426', 'uniqueId': 'lialthewhalienista', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d36fc7be20fca7698d4f525c8dc48118~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4f6e40b4&amp;x-expires=1758052800&amp;x-signature=zSEGRPplxnYAk44BwA%2Flb5Z4OqE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548620734420255496', 'createTime': 1757550237, 'createTimeISO': '2025-09-11T00:23:57.000Z', 'text': 'No que porquería AJAJAJAJAJJA', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6811926783093883909', 'uniqueId': '_4m4lg4m4_', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/8732c67b4173ebcca1e3df904820871a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c1ccb1fb&amp;x-expires=1758056400&amp;x-signature=YDCQ9rcbKqVUQDvfKJ9j2St%2FqWc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5281,22 +5281,22 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Si su calidad es igual a usar IA, no me imagino una muy buena calidad entonces, que asco</t>
+          <t>Cada que una empresa usa IA en una publicidad, le cojo fastidio y no me provoca comprarles... :/ wacala</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45910.76991898148</v>
+        <v>45910.88719907407</v>
       </c>
       <c r="H88" s="3" t="n">
         <v>45910</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>18:28:41</t>
+          <t>21:17:34</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548529198928134919', 'createTime': 1757528921, 'createTimeISO': '2025-09-10T18:28:41.000Z', 'text': 'Si su calidad es igual a usar IA, no me imagino una muy buena calidad entonces, que asco', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6961178557775135750', 'uniqueId': 'maplehasnoidea', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f12f023c43d7d5b0f59f436941edf58c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=888e37ab&amp;x-expires=1758052800&amp;x-signature=KSCWAqlU0bYkOtslnIvEIdjJYXc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548572657749508872', 'createTime': 1757539054, 'createTimeISO': '2025-09-10T21:17:34.000Z', 'text': 'Cada que una empresa usa IA en una publicidad, le cojo fastidio y no me provoca comprarles... :/ wacala', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7511435645136913426', 'uniqueId': 'lialthewhalienista', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/d36fc7be20fca7698d4f525c8dc48118~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dcbcd5c1&amp;x-expires=1758056400&amp;x-signature=2Ss3ANauhwuL4AP%2BnHaBCclSfig%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5337,22 +5337,22 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>CONTRATEN ARTISTAS, ANIMADORES Y PRODUCTORES PARA SUS ANUNCIOS, NO SEAN TACAÑOS</t>
+          <t>Si su calidad es igual a usar IA, no me imagino una muy buena calidad entonces, que asco</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>45911.00506944444</v>
+        <v>45910.76991898148</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>00:07:18</t>
+          <t>18:28:41</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548616422541607688', 'createTime': 1757549238, 'createTimeISO': '2025-09-11T00:07:18.000Z', 'text': 'CONTRATEN ARTISTAS, ANIMADORES Y PRODUCTORES PARA SUS ANUNCIOS, NO SEAN TACAÑOS', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6813528866084439045', 'uniqueId': 'andrew_cokie', 'avatarThumbnail': 'https://p16-common-sign-va.tiktokcdn-us.com/tos-maliva-avt-0068/8cee30f07b630003dcb6a6da647def33~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1e047d35&amp;x-expires=1758052800&amp;x-signature=dH0kHZAH3%2Bg9GU9Wlo67FbI9LaU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548529198928134919', 'createTime': 1757528921, 'createTimeISO': '2025-09-10T18:28:41.000Z', 'text': 'Si su calidad es igual a usar IA, no me imagino una muy buena calidad entonces, que asco', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6961178557775135750', 'uniqueId': 'maplehasnoidea', 'avatarThumbnail': 'https://p16-common-sign-sg.tiktokcdn-us.com/tos-alisg-avt-0068/f12f023c43d7d5b0f59f436941edf58c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=24a13676&amp;x-expires=1758056400&amp;x-signature=L1JaGSodjV5CZREq8vvYbnrnWgc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5393,18 +5393,18 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>@Alpina 🐮 como marca Colombiana es triste que no apoyen a la industria de la animación por nosotros los colombianos. Cómo marca iconica podrían ser impulsadores de creatividad apoyando el arte de los animadores del país en lugar de recurrir a lo facil y barato con la IA. Muy decepcionante..</t>
+          <t>CONTRATEN ARTISTAS, ANIMADORES Y PRODUCTORES PARA SUS ANUNCIOS, NO SEAN TACAÑOS</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>45911.02418981482</v>
+        <v>45911.00506944444</v>
       </c>
       <c r="H90" s="3" t="n">
         <v>45911</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>00:34:50</t>
+          <t>00:07:18</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'submittedVideoUrl': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'input': 'https://www.tiktok.com/@user369347738/video/7548206070330559762', 'cid': '7548623553499808519', 'createTime': 1757550890, 'createTimeISO': '2025-09-11T00:34:50.000Z', 'text': '@Alpina 🐮 como marca Colombiana es triste que no apoyen a la industria de la animación por nosotros los colombianos. Cómo marca iconica podrían ser impulsadores de creatividad apoyando el arte de los animadores del país en lugar de recurrir a lo facil y barato con la IA. Muy decepcionante..', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6844739360966001670', 'uniqueId': 'juandissang', 'avatarThumbnail': 'https://p16-common-